--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -58,8 +58,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0198274</v>
+                  <v>0.019845</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0198243</v>
+                  <v>0.0198904</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0198059</v>
+                  <v>0.0199411</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0199393</v>
+                  <v>0.0199892</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0198465</v>
+                  <v>0.0201312</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0200695</v>
+                  <v>0.0202981</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0203167</v>
+                  <v>0.0205168</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0207984</v>
+                  <v>0.0208663</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.019398</v>
+                  <v>0.0194247</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0196474</v>
+                  <v>0.0196249</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0198002</v>
+                  <v>0.0198597</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0198351</v>
+                  <v>0.019879</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.020005</v>
+                  <v>0.0201309</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201547</v>
+                  <v>0.0201944</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0202387</v>
+                  <v>0.0204396</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0202416</v>
+                  <v>0.0204292</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0205515</v>
+                  <v>0.0206016</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.020734</v>
+                  <v>0.0208694</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0208632</v>
+                  <v>0.0208716</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0212432</v>
+                  <v>0.021266</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0218651</v>
+                  <v>0.0221654</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0253637</v>
+                  <v>0.0254766</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0203899</v>
+                  <v>0.0204662</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0204771</v>
+                  <v>0.0205747</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0206748</v>
+                  <v>0.0207285</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0207843</v>
+                  <v>0.0208946</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0210829</v>
+                  <v>0.0211401</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0211716</v>
+                  <v>0.0213119</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214289</v>
+                  <v>0.0214143</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0215001</v>
+                  <v>0.0217806</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0218002</v>
+                  <v>0.0218731</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0221683</v>
+                  <v>0.0220813</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0231472</v>
+                  <v>0.022994</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0257742</v>
+                  <v>0.0248609</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0289348</v>
+                  <v>0.0303561</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0322824</v>
+                  <v>0.0334795</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0214691</v>
+                  <v>0.0213853</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0217903</v>
+                  <v>0.0215081</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0219112</v>
+                  <v>0.0216916</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0219809</v>
+                  <v>0.0218279</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0221479</v>
+                  <v>0.0219942</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0224448</v>
+                  <v>0.0223725</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.02262</v>
+                  <v>0.0226982</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0231701</v>
+                  <v>0.0230858</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0235929</v>
+                  <v>0.0235639</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.024466</v>
+                  <v>0.0246222</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0257139</v>
+                  <v>0.0261523</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0282271</v>
+                  <v>0.028148</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0303257</v>
+                  <v>0.0310283</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0351291</v>
+                  <v>0.0349552</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0408898</v>
+                  <v>0.0411047</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0231879</v>
+                  <v>0.0235334</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233257</v>
+                  <v>0.0233996</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0235135</v>
+                  <v>0.0240147</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0237414</v>
+                  <v>0.0237518</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0239179</v>
+                  <v>0.0243179</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0244805</v>
+                  <v>0.0246823</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0248999</v>
+                  <v>0.0250545</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0254771</v>
+                  <v>0.0256238</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0265139</v>
+                  <v>0.0266776</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0280363</v>
+                  <v>0.0281548</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0300505</v>
+                  <v>0.0303362</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0328613</v>
+                  <v>0.0330569</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.036562</v>
+                  <v>0.0370665</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0420912</v>
+                  <v>0.0420454</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0291857</v>
+                  <v>0.0292569</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0293683</v>
+                  <v>0.0293821</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0294951</v>
+                  <v>0.0294515</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.029813</v>
+                  <v>0.0297582</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0300128</v>
+                  <v>0.0298101</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302796</v>
+                  <v>0.0302477</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030801</v>
+                  <v>0.0307674</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.031446</v>
+                  <v>0.0314948</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0324341</v>
+                  <v>0.0322669</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0335695</v>
+                  <v>0.0336498</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0353551</v>
+                  <v>0.0353674</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0378182</v>
+                  <v>0.0379218</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0410501</v>
+                  <v>0.0413547</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0456478</v>
+                  <v>0.045947</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0552817</v>
+                  <v>0.0557759</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0555326</v>
+                  <v>0.0559223</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0556777</v>
+                  <v>0.0561782</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0557553</v>
+                  <v>0.0562248</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0559421</v>
+                  <v>0.0564335</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0562511</v>
+                  <v>0.0568433</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.056543</v>
+                  <v>0.0571164</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.056954</v>
+                  <v>0.0573685</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0573628</v>
+                  <v>0.0579423</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0581532</v>
+                  <v>0.0585424</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0593444</v>
+                  <v>0.0597217</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0607396</v>
+                  <v>0.0613516</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.06325</v>
+                  <v>0.0637716</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0670234</v>
+                  <v>0.0674956</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.086252</v>
+                  <v>0.0857108</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0863121</v>
+                  <v>0.085729</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08631</v>
+                  <v>0.08582099999999999</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08640920000000001</v>
+                  <v>0.085891</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0864456</v>
+                  <v>0.08591310000000001</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.08653959999999999</v>
+                  <v>0.0952533</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0867363</v>
+                  <v>0.0900392</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0870079</v>
+                  <v>0.0865544</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0874346</v>
+                  <v>0.08702120000000001</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0880908</v>
+                  <v>0.08758929999999999</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08892</v>
+                  <v>0.0884514</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0899819</v>
+                  <v>0.08982080000000001</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0920994</v>
+                  <v>0.0916886</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0950337</v>
+                  <v>0.0949089</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.100164</v>
+                  <v>0.09997010000000001</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.113889</v>
+                  <v>0.107963</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.114021</v>
+                  <v>0.108243</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.114114</v>
+                  <v>0.108225</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.114157</v>
+                  <v>0.10822</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.114198</v>
+                  <v>0.108618</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.114387</v>
+                  <v>0.108608</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.114667</v>
+                  <v>0.109047</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.115047</v>
+                  <v>0.109454</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.115835</v>
+                  <v>0.110007</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.116215</v>
+                  <v>0.110855</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.117455</v>
+                  <v>0.112081</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.119136</v>
+                  <v>0.113914</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.122216</v>
+                  <v>0.116949</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.130657</v>
+                  <v>0.121459</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.140904</v>
+                  <v>0.134045</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.140713</v>
+                  <v>0.141735</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.140603</v>
+                  <v>0.14386</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.140544</v>
+                  <v>0.141993</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.140461</v>
+                  <v>0.141564</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.140955</v>
+                  <v>0.141767</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.142695</v>
+                  <v>0.142252</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.141111</v>
+                  <v>0.142466</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.141474</v>
+                  <v>0.143005</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.141584</v>
+                  <v>0.143627</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.144383</v>
+                  <v>0.144639</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.144338</v>
+                  <v>0.146121</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.146809</v>
+                  <v>0.148787</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.150574</v>
+                  <v>0.153145</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.157534</v>
+                  <v>0.160222</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.15768</v>
+                  <v>0.15805</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.157841</v>
+                  <v>0.158093</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.170985</v>
+                  <v>0.158066</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158043</v>
+                  <v>0.158317</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.158496</v>
+                  <v>0.158434</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +986,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <v>boost::unordered_flat_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.01963</v>
+                  <v>0.0207816</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0195504</v>
+                  <v>0.0208667</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0196026</v>
+                  <v>0.0208241</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0196237</v>
+                  <v>0.0207476</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0194434</v>
+                  <v>0.020652</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0196089</v>
+                  <v>0.0209277</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0196438</v>
+                  <v>0.0208354</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.019683</v>
+                  <v>0.021057</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0206908</v>
+                  <v>0.0207722</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0208145</v>
+                  <v>0.0211993</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0208233</v>
+                  <v>0.021061</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0208079</v>
+                  <v>0.0212452</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0210678</v>
+                  <v>0.0215641</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0211339</v>
+                  <v>0.0219941</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.021293</v>
+                  <v>0.0221573</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0213755</v>
+                  <v>0.022048</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0214194</v>
+                  <v>0.022091</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0216061</v>
+                  <v>0.0223514</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0216834</v>
+                  <v>0.0224619</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0216891</v>
+                  <v>0.0226031</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.021814</v>
+                  <v>0.0229443</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.02224</v>
+                  <v>0.0236086</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0218223</v>
+                  <v>0.0218909</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.021951</v>
+                  <v>0.0220636</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0222832</v>
+                  <v>0.0222406</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0225478</v>
+                  <v>0.0225907</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0226653</v>
+                  <v>0.022887</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0228678</v>
+                  <v>0.0230842</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0232795</v>
+                  <v>0.0234928</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0234118</v>
+                  <v>0.0237357</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0236239</v>
+                  <v>0.0239547</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0237577</v>
+                  <v>0.0241213</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0245297</v>
+                  <v>0.0246092</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0248515</v>
+                  <v>0.0256069</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0259781</v>
+                  <v>0.0258742</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.028096</v>
+                  <v>0.0314078</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0231379</v>
+                  <v>0.0231422</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0235392</v>
+                  <v>0.0232697</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0237383</v>
+                  <v>0.0236008</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0240298</v>
+                  <v>0.0239637</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0242845</v>
+                  <v>0.0241731</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0248099</v>
+                  <v>0.024655</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0251381</v>
+                  <v>0.0250199</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0255035</v>
+                  <v>0.0254471</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.026017</v>
+                  <v>0.0257887</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0265204</v>
+                  <v>0.026411</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0273233</v>
+                  <v>0.0273266</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0288886</v>
+                  <v>0.0288305</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0309086</v>
+                  <v>0.0310001</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.035125</v>
+                  <v>0.0354398</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0395813</v>
+                  <v>0.0403807</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0250602</v>
+                  <v>0.0246173</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0252618</v>
+                  <v>0.0249205</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0256001</v>
+                  <v>0.0252809</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0259637</v>
+                  <v>0.0256266</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0263006</v>
+                  <v>0.0260148</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0266533</v>
+                  <v>0.0264257</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.027142</v>
+                  <v>0.0269137</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0277574</v>
+                  <v>0.0274746</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0284471</v>
+                  <v>0.0282353</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0293755</v>
+                  <v>0.0295079</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0310293</v>
+                  <v>0.0309257</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0333401</v>
+                  <v>0.0332921</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0369138</v>
+                  <v>0.0365299</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0422301</v>
+                  <v>0.0415142</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.027755</v>
+                  <v>0.0269617</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.028318</v>
+                  <v>0.0268134</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0282048</v>
+                  <v>0.0271091</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0288949</v>
+                  <v>0.028098</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0291466</v>
+                  <v>0.028241</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0296631</v>
+                  <v>0.0283238</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0302154</v>
+                  <v>0.0289933</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0308858</v>
+                  <v>0.0297943</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0317299</v>
+                  <v>0.0305728</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0327248</v>
+                  <v>0.0318959</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0344036</v>
+                  <v>0.0330477</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0365419</v>
+                  <v>0.0355949</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0395077</v>
+                  <v>0.0380312</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0440142</v>
+                  <v>0.0422199</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0384812</v>
+                  <v>0.0358291</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0393181</v>
+                  <v>0.0366934</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0400471</v>
+                  <v>0.0371542</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0410283</v>
+                  <v>0.0385504</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0422285</v>
+                  <v>0.0397275</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0436636</v>
+                  <v>0.0406958</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0450427</v>
+                  <v>0.0420235</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0465122</v>
+                  <v>0.043628</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.048317</v>
+                  <v>0.0448497</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0499665</v>
+                  <v>0.0467952</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0516792</v>
+                  <v>0.0485398</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0540677</v>
+                  <v>0.050625</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0567184</v>
+                  <v>0.0531723</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0613213</v>
+                  <v>0.0575467</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.07599069999999999</v>
+                  <v>0.0690796</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0765213</v>
+                  <v>0.0695586</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0769676</v>
+                  <v>0.07006270000000001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.07758429999999999</v>
+                  <v>0.0706492</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0782827</v>
+                  <v>0.0712165</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0789179</v>
+                  <v>0.0719084</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.07968980000000001</v>
+                  <v>0.0726926</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0805656</v>
+                  <v>0.073481</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0816693</v>
+                  <v>0.0744592</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0863792</v>
+                  <v>0.0757119</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08411639999999999</v>
+                  <v>0.0771091</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0859486</v>
+                  <v>0.0789149</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.08840779999999999</v>
+                  <v>0.08129740000000001</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0922501</v>
+                  <v>0.085034</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0984163</v>
+                  <v>0.0910459</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0907982</v>
+                  <v>0.08287219999999999</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0916492</v>
+                  <v>0.08375249999999999</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.092555</v>
+                  <v>0.0846664</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0937095</v>
+                  <v>0.0856579</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09565650000000001</v>
+                  <v>0.08681120000000001</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.103513</v>
+                  <v>0.08786919999999999</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0973205</v>
+                  <v>0.0892593</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0988463</v>
+                  <v>0.0907998</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.100303</v>
+                  <v>0.0923614</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.102148</v>
+                  <v>0.0942355</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.104312</v>
+                  <v>0.096293</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.107029</v>
+                  <v>0.0990901</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.111037</v>
+                  <v>0.102927</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.116985</v>
+                  <v>0.108871</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.102804</v>
+                  <v>0.0958808</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.108721</v>
+                  <v>0.09704169999999999</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.105795</v>
+                  <v>0.0989488</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.107499</v>
+                  <v>0.100162</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.109135</v>
+                  <v>0.101129</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.111421</v>
+                  <v>0.102743</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.113514</v>
+                  <v>0.10443</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.114964</v>
+                  <v>0.106431</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.116895</v>
+                  <v>0.108216</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.119313</v>
+                  <v>0.110255</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.121782</v>
+                  <v>0.112815</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.124925</v>
+                  <v>0.11575</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.12911</v>
+                  <v>0.119701</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.135094</v>
+                  <v>0.126693</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.116615</v>
+                  <v>0.108481</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.118091</v>
+                  <v>0.109886</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.119623</v>
+                  <v>0.111216</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.121247</v>
+                  <v>0.112687</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.122801</v>
+                  <v>0.114154</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.12453</v>
+                  <v>0.115713</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2341,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0210661</v>
+                  <v>0.0197621</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0210821</v>
+                  <v>0.0199124</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0210432</v>
+                  <v>0.0199636</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0210228</v>
+                  <v>0.0200411</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0211017</v>
+                  <v>0.0201853</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.021451</v>
+                  <v>0.0205493</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0215967</v>
+                  <v>0.0212255</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.021032</v>
+                  <v>0.0196114</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.021237</v>
+                  <v>0.0196542</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0214398</v>
+                  <v>0.0197311</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0216389</v>
+                  <v>0.0200198</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0217625</v>
+                  <v>0.0202983</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0220811</v>
+                  <v>0.0206514</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0221537</v>
+                  <v>0.0208261</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0222621</v>
+                  <v>0.0213814</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022351</v>
+                  <v>0.021683</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0223659</v>
+                  <v>0.0218647</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0223994</v>
+                  <v>0.0217385</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0224787</v>
+                  <v>0.0221793</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0225969</v>
+                  <v>0.0234999</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0229866</v>
+                  <v>0.025596</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0222081</v>
+                  <v>0.0208572</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0224424</v>
+                  <v>0.0211474</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0227148</v>
+                  <v>0.0213952</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0228976</v>
+                  <v>0.0216285</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0231426</v>
+                  <v>0.0219129</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0233641</v>
+                  <v>0.0221909</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0236678</v>
+                  <v>0.0226314</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0238622</v>
+                  <v>0.02287</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0240883</v>
+                  <v>0.0232938</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0241209</v>
+                  <v>0.0236459</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0243341</v>
+                  <v>0.0243776</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0249996</v>
+                  <v>0.0256094</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0258005</v>
+                  <v>0.0280099</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0317443</v>
+                  <v>0.0318825</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0233782</v>
+                  <v>0.0222322</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0235387</v>
+                  <v>0.0224761</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0237574</v>
+                  <v>0.0226406</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0240607</v>
+                  <v>0.0229219</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0243991</v>
+                  <v>0.0232372</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0246515</v>
+                  <v>0.0235604</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0249339</v>
+                  <v>0.0239217</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0252916</v>
+                  <v>0.0243675</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0255331</v>
+                  <v>0.0249258</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0260222</v>
+                  <v>0.0256372</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0266838</v>
+                  <v>0.0267547</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0278203</v>
+                  <v>0.0285161</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0305126</v>
+                  <v>0.0309254</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0344632</v>
+                  <v>0.03463</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0242031</v>
+                  <v>0.0230982</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0243873</v>
+                  <v>0.0233375</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0246308</v>
+                  <v>0.023593</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0248962</v>
+                  <v>0.0238201</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0251551</v>
+                  <v>0.0241227</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0255061</v>
+                  <v>0.0244723</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.025758</v>
+                  <v>0.024922</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0261621</v>
+                  <v>0.0253022</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0266822</v>
+                  <v>0.0259853</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.027176</v>
+                  <v>0.0267356</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0279736</v>
+                  <v>0.0278598</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0294383</v>
+                  <v>0.0296228</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0324535</v>
+                  <v>0.0320613</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0364486</v>
+                  <v>0.0356651</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.042747</v>
+                  <v>0.0410615</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0261578</v>
+                  <v>0.0247871</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0266345</v>
+                  <v>0.0249031</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0270048</v>
+                  <v>0.0256338</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0274462</v>
+                  <v>0.0258881</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0276478</v>
+                  <v>0.0259173</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0280925</v>
+                  <v>0.0262823</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0295698</v>
+                  <v>0.0271444</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0301268</v>
+                  <v>0.0274852</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0308125</v>
+                  <v>0.0283927</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0310039</v>
+                  <v>0.0298077</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0325978</v>
+                  <v>0.0311471</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0358014</v>
+                  <v>0.0336077</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0390005</v>
+                  <v>0.0368424</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0449875</v>
+                  <v>0.0414916</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0407134</v>
+                  <v>0.0365337</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0414223</v>
+                  <v>0.037033</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0420164</v>
+                  <v>0.0385276</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0428758</v>
+                  <v>0.0385709</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0435859</v>
+                  <v>0.0392564</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0441158</v>
+                  <v>0.0399463</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0451214</v>
+                  <v>0.040702</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.045933</v>
+                  <v>0.041626</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0468684</v>
+                  <v>0.0423938</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0477272</v>
+                  <v>0.0433475</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0490508</v>
+                  <v>0.0447666</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0513003</v>
+                  <v>0.0465736</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0542639</v>
+                  <v>0.0493242</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0587909</v>
+                  <v>0.0542457</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.08060109999999999</v>
+                  <v>0.07123119999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.08116420000000001</v>
+                  <v>0.071656</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0815678</v>
+                  <v>0.0721349</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08204690000000001</v>
+                  <v>0.07265770000000001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08264589999999999</v>
+                  <v>0.0729856</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0832561</v>
+                  <v>0.0736991</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0837205</v>
+                  <v>0.0742898</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0845051</v>
+                  <v>0.07498199999999999</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.08527559999999999</v>
+                  <v>0.07573630000000001</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0864844</v>
+                  <v>0.0766086</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0876881</v>
+                  <v>0.077876</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08924799999999999</v>
+                  <v>0.07924580000000001</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.096528</v>
+                  <v>0.08156239999999999</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0955449</v>
+                  <v>0.0852509</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0975452</v>
+                  <v>0.08773590000000001</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0983436</v>
+                  <v>0.0884414</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0990383</v>
+                  <v>0.0892877</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.09986689999999999</v>
+                  <v>0.0899992</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.100985</v>
+                  <v>0.0907741</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.101987</v>
+                  <v>0.0918117</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.102746</v>
+                  <v>0.092913</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.10438</v>
+                  <v>0.09400500000000001</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.105384</v>
+                  <v>0.100748</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.106778</v>
+                  <v>0.09656720000000001</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.108591</v>
+                  <v>0.0981248</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.110691</v>
+                  <v>0.100153</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.113494</v>
+                  <v>0.10274</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.117535</v>
+                  <v>0.106587</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.123795</v>
+                  <v>0.112472</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.115482</v>
+                  <v>0.106248</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.116645</v>
+                  <v>0.107515</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.1179</v>
+                  <v>0.108771</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.119136</v>
+                  <v>0.110258</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.12028</v>
+                  <v>0.111363</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.121788</v>
+                  <v>0.112139</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.123885</v>
+                  <v>0.113529</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.125833</v>
+                  <v>0.114912</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.1268</v>
+                  <v>0.116482</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.129052</v>
+                  <v>0.118414</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.132444</v>
+                  <v>0.120533</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.134565</v>
+                  <v>0.123365</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.138824</v>
+                  <v>0.127277</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.145371</v>
+                  <v>0.133589</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.129339</v>
+                  <v>0.119571</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.130682</v>
+                  <v>0.123522</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.131871</v>
+                  <v>0.120321</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.133153</v>
+                  <v>0.121365</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.134562</v>
+                  <v>0.122535</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.135784</v>
+                  <v>0.123827</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.137311</v>
+                  <v>0.125232</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3222,8 +3221,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3248,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.116831</v>
+        <v>0.119803</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09725499999999999</v>
+        <v>0.114822</v>
       </c>
       <c r="D2" t="n">
-        <v>0.107746</v>
+        <v>0.142601</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.117951</v>
+        <v>0.120058</v>
       </c>
       <c r="C3" t="n">
-        <v>0.101183</v>
+        <v>0.117291</v>
       </c>
       <c r="D3" t="n">
-        <v>0.107451</v>
+        <v>0.142231</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.11638</v>
+        <v>0.118763</v>
       </c>
       <c r="C4" t="n">
-        <v>0.098895</v>
+        <v>0.112432</v>
       </c>
       <c r="D4" t="n">
-        <v>0.110014</v>
+        <v>0.147549</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.120379</v>
+        <v>0.119945</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09983359999999999</v>
+        <v>0.114441</v>
       </c>
       <c r="D5" t="n">
-        <v>0.109427</v>
+        <v>0.148754</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.117423</v>
+        <v>0.121776</v>
       </c>
       <c r="C6" t="n">
-        <v>0.102372</v>
+        <v>0.115594</v>
       </c>
       <c r="D6" t="n">
-        <v>0.110797</v>
+        <v>0.150138</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.118741</v>
+        <v>0.118321</v>
       </c>
       <c r="C7" t="n">
-        <v>0.103257</v>
+        <v>0.119063</v>
       </c>
       <c r="D7" t="n">
-        <v>0.109439</v>
+        <v>0.145894</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.116423</v>
+        <v>0.121266</v>
       </c>
       <c r="C8" t="n">
-        <v>0.101075</v>
+        <v>0.119899</v>
       </c>
       <c r="D8" t="n">
-        <v>0.113878</v>
+        <v>0.160736</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.118549</v>
+        <v>0.119096</v>
       </c>
       <c r="C9" t="n">
-        <v>0.110072</v>
+        <v>0.113992</v>
       </c>
       <c r="D9" t="n">
-        <v>0.114411</v>
+        <v>0.143497</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.127455</v>
+        <v>0.130909</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0997575</v>
+        <v>0.116683</v>
       </c>
       <c r="D10" t="n">
-        <v>0.110934</v>
+        <v>0.146253</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.126323</v>
+        <v>0.1263</v>
       </c>
       <c r="C11" t="n">
-        <v>0.101172</v>
+        <v>0.116199</v>
       </c>
       <c r="D11" t="n">
-        <v>0.111616</v>
+        <v>0.144402</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.127849</v>
+        <v>0.130568</v>
       </c>
       <c r="C12" t="n">
-        <v>0.102027</v>
+        <v>0.115345</v>
       </c>
       <c r="D12" t="n">
-        <v>0.108251</v>
+        <v>0.145298</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.124903</v>
+        <v>0.132491</v>
       </c>
       <c r="C13" t="n">
-        <v>0.103074</v>
+        <v>0.117583</v>
       </c>
       <c r="D13" t="n">
-        <v>0.110751</v>
+        <v>0.144925</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.126727</v>
+        <v>0.12918</v>
       </c>
       <c r="C14" t="n">
-        <v>0.105601</v>
+        <v>0.113551</v>
       </c>
       <c r="D14" t="n">
-        <v>0.110474</v>
+        <v>0.147607</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.127835</v>
+        <v>0.126158</v>
       </c>
       <c r="C15" t="n">
-        <v>0.102294</v>
+        <v>0.114428</v>
       </c>
       <c r="D15" t="n">
-        <v>0.11079</v>
+        <v>0.147094</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.128275</v>
+        <v>0.130546</v>
       </c>
       <c r="C16" t="n">
-        <v>0.101874</v>
+        <v>0.114422</v>
       </c>
       <c r="D16" t="n">
-        <v>0.116266</v>
+        <v>0.14438</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.12917</v>
+        <v>0.127345</v>
       </c>
       <c r="C17" t="n">
-        <v>0.102903</v>
+        <v>0.114648</v>
       </c>
       <c r="D17" t="n">
-        <v>0.111417</v>
+        <v>0.147317</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.126838</v>
+        <v>0.128762</v>
       </c>
       <c r="C18" t="n">
-        <v>0.104467</v>
+        <v>0.117815</v>
       </c>
       <c r="D18" t="n">
-        <v>0.114078</v>
+        <v>0.150764</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.132391</v>
+        <v>0.131362</v>
       </c>
       <c r="C19" t="n">
-        <v>0.104316</v>
+        <v>0.118599</v>
       </c>
       <c r="D19" t="n">
-        <v>0.117564</v>
+        <v>0.147893</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.127881</v>
+        <v>0.129381</v>
       </c>
       <c r="C20" t="n">
-        <v>0.107527</v>
+        <v>0.12104</v>
       </c>
       <c r="D20" t="n">
-        <v>0.119378</v>
+        <v>0.148784</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.128429</v>
+        <v>0.135136</v>
       </c>
       <c r="C21" t="n">
-        <v>0.108952</v>
+        <v>0.126123</v>
       </c>
       <c r="D21" t="n">
-        <v>0.119516</v>
+        <v>0.157103</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.137116</v>
+        <v>0.136332</v>
       </c>
       <c r="C22" t="n">
-        <v>0.112259</v>
+        <v>0.129855</v>
       </c>
       <c r="D22" t="n">
-        <v>0.122922</v>
+        <v>0.15916</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.138073</v>
+        <v>0.135679</v>
       </c>
       <c r="C23" t="n">
-        <v>0.117339</v>
+        <v>0.121561</v>
       </c>
       <c r="D23" t="n">
-        <v>0.115445</v>
+        <v>0.1528</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.140729</v>
+        <v>0.139732</v>
       </c>
       <c r="C24" t="n">
-        <v>0.106494</v>
+        <v>0.124707</v>
       </c>
       <c r="D24" t="n">
-        <v>0.119527</v>
+        <v>0.153382</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.142997</v>
+        <v>0.139564</v>
       </c>
       <c r="C25" t="n">
-        <v>0.109709</v>
+        <v>0.119474</v>
       </c>
       <c r="D25" t="n">
-        <v>0.117942</v>
+        <v>0.15554</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.146348</v>
+        <v>0.139084</v>
       </c>
       <c r="C26" t="n">
-        <v>0.10714</v>
+        <v>0.12048</v>
       </c>
       <c r="D26" t="n">
-        <v>0.118498</v>
+        <v>0.154394</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.141037</v>
+        <v>0.140135</v>
       </c>
       <c r="C27" t="n">
-        <v>0.107005</v>
+        <v>0.118523</v>
       </c>
       <c r="D27" t="n">
-        <v>0.118038</v>
+        <v>0.153396</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.141594</v>
+        <v>0.143057</v>
       </c>
       <c r="C28" t="n">
-        <v>0.111104</v>
+        <v>0.124315</v>
       </c>
       <c r="D28" t="n">
-        <v>0.122507</v>
+        <v>0.154364</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.143753</v>
+        <v>0.139541</v>
       </c>
       <c r="C29" t="n">
-        <v>0.107122</v>
+        <v>0.123292</v>
       </c>
       <c r="D29" t="n">
-        <v>0.120416</v>
+        <v>0.160538</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.143592</v>
+        <v>0.13895</v>
       </c>
       <c r="C30" t="n">
-        <v>0.110892</v>
+        <v>0.120951</v>
       </c>
       <c r="D30" t="n">
-        <v>0.120209</v>
+        <v>0.158509</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.13787</v>
+        <v>0.145065</v>
       </c>
       <c r="C31" t="n">
-        <v>0.112191</v>
+        <v>0.123777</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1203</v>
+        <v>0.152369</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.137056</v>
+        <v>0.138302</v>
       </c>
       <c r="C32" t="n">
-        <v>0.112412</v>
+        <v>0.125752</v>
       </c>
       <c r="D32" t="n">
-        <v>0.121969</v>
+        <v>0.163767</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.135047</v>
+        <v>0.145044</v>
       </c>
       <c r="C33" t="n">
-        <v>0.108821</v>
+        <v>0.12708</v>
       </c>
       <c r="D33" t="n">
-        <v>0.125429</v>
+        <v>0.164441</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.142934</v>
+        <v>0.14547</v>
       </c>
       <c r="C34" t="n">
-        <v>0.115292</v>
+        <v>0.126053</v>
       </c>
       <c r="D34" t="n">
-        <v>0.123648</v>
+        <v>0.160499</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.142198</v>
+        <v>0.14464</v>
       </c>
       <c r="C35" t="n">
-        <v>0.116816</v>
+        <v>0.129615</v>
       </c>
       <c r="D35" t="n">
-        <v>0.127642</v>
+        <v>0.162818</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.141415</v>
+        <v>0.138412</v>
       </c>
       <c r="C36" t="n">
-        <v>0.11813</v>
+        <v>0.132875</v>
       </c>
       <c r="D36" t="n">
-        <v>0.131655</v>
+        <v>0.166245</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.144369</v>
+        <v>0.141988</v>
       </c>
       <c r="C37" t="n">
-        <v>0.121415</v>
+        <v>0.124938</v>
       </c>
       <c r="D37" t="n">
-        <v>0.138744</v>
+        <v>0.164685</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.166678</v>
+        <v>0.164499</v>
       </c>
       <c r="C38" t="n">
-        <v>0.121096</v>
+        <v>0.12709</v>
       </c>
       <c r="D38" t="n">
-        <v>0.136278</v>
+        <v>0.173441</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.161433</v>
+        <v>0.170023</v>
       </c>
       <c r="C39" t="n">
-        <v>0.122786</v>
+        <v>0.130541</v>
       </c>
       <c r="D39" t="n">
-        <v>0.133839</v>
+        <v>0.172662</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.166353</v>
+        <v>0.166864</v>
       </c>
       <c r="C40" t="n">
-        <v>0.121647</v>
+        <v>0.129633</v>
       </c>
       <c r="D40" t="n">
-        <v>0.136369</v>
+        <v>0.175229</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.164649</v>
+        <v>0.162403</v>
       </c>
       <c r="C41" t="n">
-        <v>0.123663</v>
+        <v>0.132695</v>
       </c>
       <c r="D41" t="n">
-        <v>0.132197</v>
+        <v>0.180679</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.161932</v>
+        <v>0.168137</v>
       </c>
       <c r="C42" t="n">
-        <v>0.122986</v>
+        <v>0.131517</v>
       </c>
       <c r="D42" t="n">
-        <v>0.13727</v>
+        <v>0.172342</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.162848</v>
+        <v>0.163915</v>
       </c>
       <c r="C43" t="n">
-        <v>0.123654</v>
+        <v>0.129689</v>
       </c>
       <c r="D43" t="n">
-        <v>0.135733</v>
+        <v>0.178577</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.161535</v>
+        <v>0.164725</v>
       </c>
       <c r="C44" t="n">
-        <v>0.123656</v>
+        <v>0.128572</v>
       </c>
       <c r="D44" t="n">
-        <v>0.136912</v>
+        <v>0.173213</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.164278</v>
+        <v>0.170984</v>
       </c>
       <c r="C45" t="n">
-        <v>0.127208</v>
+        <v>0.132959</v>
       </c>
       <c r="D45" t="n">
-        <v>0.139027</v>
+        <v>0.175713</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.166433</v>
+        <v>0.169086</v>
       </c>
       <c r="C46" t="n">
-        <v>0.130148</v>
+        <v>0.134937</v>
       </c>
       <c r="D46" t="n">
-        <v>0.13961</v>
+        <v>0.176639</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.165125</v>
+        <v>0.164228</v>
       </c>
       <c r="C47" t="n">
-        <v>0.130534</v>
+        <v>0.133256</v>
       </c>
       <c r="D47" t="n">
-        <v>0.140411</v>
+        <v>0.174344</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.169659</v>
+        <v>0.165336</v>
       </c>
       <c r="C48" t="n">
-        <v>0.132805</v>
+        <v>0.135979</v>
       </c>
       <c r="D48" t="n">
-        <v>0.143163</v>
+        <v>0.176506</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.170502</v>
+        <v>0.171629</v>
       </c>
       <c r="C49" t="n">
-        <v>0.130984</v>
+        <v>0.141282</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1472</v>
+        <v>0.180638</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.167911</v>
+        <v>0.166529</v>
       </c>
       <c r="C50" t="n">
-        <v>0.135448</v>
+        <v>0.145451</v>
       </c>
       <c r="D50" t="n">
-        <v>0.152754</v>
+        <v>0.188845</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.177031</v>
+        <v>0.177152</v>
       </c>
       <c r="C51" t="n">
-        <v>0.138408</v>
+        <v>0.203576</v>
       </c>
       <c r="D51" t="n">
-        <v>0.201156</v>
+        <v>0.250056</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174711</v>
+        <v>0.17835</v>
       </c>
       <c r="C52" t="n">
-        <v>0.142431</v>
+        <v>0.206306</v>
       </c>
       <c r="D52" t="n">
-        <v>0.211269</v>
+        <v>0.239899</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.262766</v>
+        <v>0.256304</v>
       </c>
       <c r="C53" t="n">
-        <v>0.197287</v>
+        <v>0.199415</v>
       </c>
       <c r="D53" t="n">
-        <v>0.208618</v>
+        <v>0.247302</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.250894</v>
+        <v>0.269323</v>
       </c>
       <c r="C54" t="n">
-        <v>0.196003</v>
+        <v>0.207617</v>
       </c>
       <c r="D54" t="n">
-        <v>0.202125</v>
+        <v>0.24544</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.263541</v>
+        <v>0.260107</v>
       </c>
       <c r="C55" t="n">
-        <v>0.202266</v>
+        <v>0.207282</v>
       </c>
       <c r="D55" t="n">
-        <v>0.207263</v>
+        <v>0.255319</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.263927</v>
+        <v>0.259377</v>
       </c>
       <c r="C56" t="n">
-        <v>0.196758</v>
+        <v>0.205564</v>
       </c>
       <c r="D56" t="n">
-        <v>0.209794</v>
+        <v>0.248717</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.260898</v>
+        <v>0.258461</v>
       </c>
       <c r="C57" t="n">
-        <v>0.198061</v>
+        <v>0.208436</v>
       </c>
       <c r="D57" t="n">
-        <v>0.210558</v>
+        <v>0.264062</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.255685</v>
+        <v>0.255214</v>
       </c>
       <c r="C58" t="n">
-        <v>0.207997</v>
+        <v>0.20664</v>
       </c>
       <c r="D58" t="n">
-        <v>0.213789</v>
+        <v>0.253581</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.263643</v>
+        <v>0.258234</v>
       </c>
       <c r="C59" t="n">
-        <v>0.196823</v>
+        <v>0.208886</v>
       </c>
       <c r="D59" t="n">
-        <v>0.22032</v>
+        <v>0.252636</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.261327</v>
+        <v>0.255786</v>
       </c>
       <c r="C60" t="n">
-        <v>0.203229</v>
+        <v>0.20696</v>
       </c>
       <c r="D60" t="n">
-        <v>0.206334</v>
+        <v>0.25217</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.253199</v>
+        <v>0.2618</v>
       </c>
       <c r="C61" t="n">
-        <v>0.206577</v>
+        <v>0.211383</v>
       </c>
       <c r="D61" t="n">
-        <v>0.214324</v>
+        <v>0.255405</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.258414</v>
+        <v>0.25777</v>
       </c>
       <c r="C62" t="n">
-        <v>0.211049</v>
+        <v>0.208174</v>
       </c>
       <c r="D62" t="n">
-        <v>0.220291</v>
+        <v>0.255273</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.26103</v>
+        <v>0.260073</v>
       </c>
       <c r="C63" t="n">
-        <v>0.207246</v>
+        <v>0.22055</v>
       </c>
       <c r="D63" t="n">
-        <v>0.219434</v>
+        <v>0.262455</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.257697</v>
+        <v>0.266461</v>
       </c>
       <c r="C64" t="n">
-        <v>0.213544</v>
+        <v>0.217418</v>
       </c>
       <c r="D64" t="n">
-        <v>0.218492</v>
+        <v>0.266141</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.260762</v>
+        <v>0.268705</v>
       </c>
       <c r="C65" t="n">
-        <v>0.213196</v>
+        <v>0.227826</v>
       </c>
       <c r="D65" t="n">
-        <v>0.22144</v>
+        <v>0.268203</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.264135</v>
+        <v>0.269367</v>
       </c>
       <c r="C66" t="n">
-        <v>0.218489</v>
+        <v>0.300107</v>
       </c>
       <c r="D66" t="n">
-        <v>0.298701</v>
+        <v>0.351724</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.413526</v>
+        <v>0.394229</v>
       </c>
       <c r="C67" t="n">
-        <v>0.308448</v>
+        <v>0.299219</v>
       </c>
       <c r="D67" t="n">
-        <v>0.299579</v>
+        <v>0.341982</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.416274</v>
+        <v>0.393406</v>
       </c>
       <c r="C68" t="n">
-        <v>0.316008</v>
+        <v>0.300255</v>
       </c>
       <c r="D68" t="n">
-        <v>0.296124</v>
+        <v>0.346758</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.411526</v>
+        <v>0.393151</v>
       </c>
       <c r="C69" t="n">
-        <v>0.318515</v>
+        <v>0.301112</v>
       </c>
       <c r="D69" t="n">
-        <v>0.308257</v>
+        <v>0.352147</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.423808</v>
+        <v>0.399847</v>
       </c>
       <c r="C70" t="n">
-        <v>0.321668</v>
+        <v>0.309191</v>
       </c>
       <c r="D70" t="n">
-        <v>0.307058</v>
+        <v>0.362524</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.413153</v>
+        <v>0.410312</v>
       </c>
       <c r="C71" t="n">
-        <v>0.317392</v>
+        <v>0.300974</v>
       </c>
       <c r="D71" t="n">
-        <v>0.30257</v>
+        <v>0.357723</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.407442</v>
+        <v>0.403884</v>
       </c>
       <c r="C72" t="n">
-        <v>0.322703</v>
+        <v>0.313558</v>
       </c>
       <c r="D72" t="n">
-        <v>0.30786</v>
+        <v>0.361406</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.421568</v>
+        <v>0.402457</v>
       </c>
       <c r="C73" t="n">
-        <v>0.310149</v>
+        <v>0.303163</v>
       </c>
       <c r="D73" t="n">
-        <v>0.315826</v>
+        <v>0.363693</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.418658</v>
+        <v>0.401865</v>
       </c>
       <c r="C74" t="n">
-        <v>0.317222</v>
+        <v>0.303361</v>
       </c>
       <c r="D74" t="n">
-        <v>0.311628</v>
+        <v>0.357174</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.410394</v>
+        <v>0.418354</v>
       </c>
       <c r="C75" t="n">
-        <v>0.321411</v>
+        <v>0.30412</v>
       </c>
       <c r="D75" t="n">
-        <v>0.313579</v>
+        <v>0.357739</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.403529</v>
+        <v>0.400505</v>
       </c>
       <c r="C76" t="n">
-        <v>0.330674</v>
+        <v>0.305724</v>
       </c>
       <c r="D76" t="n">
-        <v>0.309769</v>
+        <v>0.362305</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.396568</v>
+        <v>0.422566</v>
       </c>
       <c r="C77" t="n">
-        <v>0.318658</v>
+        <v>0.315015</v>
       </c>
       <c r="D77" t="n">
-        <v>0.31902</v>
+        <v>0.359868</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.416648</v>
+        <v>0.4094</v>
       </c>
       <c r="C78" t="n">
-        <v>0.324604</v>
+        <v>0.316343</v>
       </c>
       <c r="D78" t="n">
-        <v>0.321219</v>
+        <v>0.361976</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.414437</v>
+        <v>0.419611</v>
       </c>
       <c r="C79" t="n">
-        <v>0.326283</v>
+        <v>0.319577</v>
       </c>
       <c r="D79" t="n">
-        <v>0.336757</v>
+        <v>0.368375</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.407728</v>
+        <v>0.419384</v>
       </c>
       <c r="C80" t="n">
-        <v>0.329147</v>
+        <v>0.437819</v>
       </c>
       <c r="D80" t="n">
-        <v>0.443837</v>
+        <v>0.5518999999999999</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.554971</v>
+        <v>0.550983</v>
       </c>
       <c r="C81" t="n">
-        <v>0.432231</v>
+        <v>0.43931</v>
       </c>
       <c r="D81" t="n">
-        <v>0.435372</v>
+        <v>0.539152</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5578610000000001</v>
+        <v>0.547226</v>
       </c>
       <c r="C82" t="n">
-        <v>0.432295</v>
+        <v>0.425664</v>
       </c>
       <c r="D82" t="n">
-        <v>0.438774</v>
+        <v>0.54848</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.54133</v>
+        <v>0.550585</v>
       </c>
       <c r="C83" t="n">
-        <v>0.426917</v>
+        <v>0.432164</v>
       </c>
       <c r="D83" t="n">
-        <v>0.434243</v>
+        <v>0.552121</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.553424</v>
+        <v>0.568797</v>
       </c>
       <c r="C84" t="n">
-        <v>0.429641</v>
+        <v>0.439806</v>
       </c>
       <c r="D84" t="n">
-        <v>0.446411</v>
+        <v>0.556769</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.554773</v>
+        <v>0.543743</v>
       </c>
       <c r="C85" t="n">
-        <v>0.438937</v>
+        <v>0.442253</v>
       </c>
       <c r="D85" t="n">
-        <v>0.44073</v>
+        <v>0.568429</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5638069999999999</v>
+        <v>0.5488229999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.429108</v>
+        <v>0.433978</v>
       </c>
       <c r="D86" t="n">
-        <v>0.45168</v>
+        <v>0.556775</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.563234</v>
+        <v>0.5593089999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.424553</v>
+        <v>0.436436</v>
       </c>
       <c r="D87" t="n">
-        <v>0.445076</v>
+        <v>0.556428</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.551886</v>
+        <v>0.5448539999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.441808</v>
+        <v>0.441561</v>
       </c>
       <c r="D88" t="n">
-        <v>0.44359</v>
+        <v>0.561493</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.557735</v>
+        <v>0.55683</v>
       </c>
       <c r="C89" t="n">
-        <v>0.428614</v>
+        <v>0.43792</v>
       </c>
       <c r="D89" t="n">
-        <v>0.440774</v>
+        <v>0.539683</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.563666</v>
+        <v>0.5556140000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.443467</v>
+        <v>0.441651</v>
       </c>
       <c r="D90" t="n">
-        <v>0.446431</v>
+        <v>0.564394</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.564055</v>
+        <v>0.54853</v>
       </c>
       <c r="C91" t="n">
-        <v>0.452222</v>
+        <v>0.439076</v>
       </c>
       <c r="D91" t="n">
-        <v>0.45479</v>
+        <v>0.561759</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.559882</v>
+        <v>0.558795</v>
       </c>
       <c r="C92" t="n">
-        <v>0.439166</v>
+        <v>0.439937</v>
       </c>
       <c r="D92" t="n">
-        <v>0.450369</v>
+        <v>0.548733</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.552242</v>
+        <v>0.5535099999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>0.444666</v>
+        <v>0.444785</v>
       </c>
       <c r="D93" t="n">
-        <v>0.463843</v>
+        <v>0.560818</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.569849</v>
+        <v>0.570223</v>
       </c>
       <c r="C94" t="n">
-        <v>0.459729</v>
+        <v>0.528849</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5233719999999999</v>
+        <v>0.665873</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.648021</v>
+        <v>0.642817</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5240939999999999</v>
+        <v>0.514855</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5146810000000001</v>
+        <v>0.677417</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.647966</v>
+        <v>0.656321</v>
       </c>
       <c r="C96" t="n">
-        <v>0.513217</v>
+        <v>0.519151</v>
       </c>
       <c r="D96" t="n">
-        <v>0.526776</v>
+        <v>0.665901</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.657842</v>
+        <v>0.642582</v>
       </c>
       <c r="C97" t="n">
-        <v>0.512919</v>
+        <v>0.515625</v>
       </c>
       <c r="D97" t="n">
-        <v>0.561648</v>
+        <v>0.676119</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.711462</v>
+        <v>0.648205</v>
       </c>
       <c r="C98" t="n">
-        <v>0.530189</v>
+        <v>0.52632</v>
       </c>
       <c r="D98" t="n">
-        <v>0.525971</v>
+        <v>0.698547</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.654569</v>
+        <v>0.643935</v>
       </c>
       <c r="C99" t="n">
-        <v>0.503793</v>
+        <v>0.520595</v>
       </c>
       <c r="D99" t="n">
-        <v>0.533352</v>
+        <v>0.675917</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.64449</v>
+        <v>0.647029</v>
       </c>
       <c r="C100" t="n">
-        <v>0.510702</v>
+        <v>0.535216</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5421010000000001</v>
+        <v>0.685829</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.717364</v>
+        <v>0.649217</v>
       </c>
       <c r="C101" t="n">
-        <v>0.533852</v>
+        <v>0.551546</v>
       </c>
       <c r="D101" t="n">
-        <v>0.551812</v>
+        <v>0.704223</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.662192</v>
+        <v>0.642916</v>
       </c>
       <c r="C102" t="n">
-        <v>0.526657</v>
+        <v>0.545175</v>
       </c>
       <c r="D102" t="n">
-        <v>0.537884</v>
+        <v>0.682033</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.644075</v>
+        <v>0.694222</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5551</v>
+        <v>0.5480969999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5426299999999999</v>
+        <v>0.717625</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.65671</v>
+        <v>0.666324</v>
       </c>
       <c r="C104" t="n">
-        <v>0.514327</v>
+        <v>0.540561</v>
       </c>
       <c r="D104" t="n">
-        <v>0.558667</v>
+        <v>0.689702</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.65506</v>
+        <v>0.660178</v>
       </c>
       <c r="C105" t="n">
-        <v>0.523722</v>
+        <v>0.573115</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5458</v>
+        <v>0.741551</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6381520000000001</v>
+        <v>0.6704</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5457689999999999</v>
+        <v>0.563548</v>
       </c>
       <c r="D106" t="n">
-        <v>0.549356</v>
+        <v>0.692739</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.65576</v>
+        <v>0.660788</v>
       </c>
       <c r="C107" t="n">
-        <v>0.557021</v>
+        <v>0.565976</v>
       </c>
       <c r="D107" t="n">
-        <v>0.570583</v>
+        <v>0.695752</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.65289</v>
+        <v>0.65301</v>
       </c>
       <c r="C108" t="n">
-        <v>0.542252</v>
+        <v>0.660497</v>
       </c>
       <c r="D108" t="n">
-        <v>0.676212</v>
+        <v>0.824828</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.720216</v>
+        <v>0.664391</v>
       </c>
       <c r="C109" t="n">
-        <v>0.578095</v>
+        <v>0.614795</v>
       </c>
       <c r="D109" t="n">
-        <v>0.623673</v>
+        <v>0.8027879999999999</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.875105</v>
+        <v>0.797594</v>
       </c>
       <c r="C110" t="n">
-        <v>0.655383</v>
+        <v>0.6318009999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.640811</v>
+        <v>0.788656</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.794255</v>
+        <v>0.785323</v>
       </c>
       <c r="C111" t="n">
-        <v>0.612764</v>
+        <v>0.622546</v>
       </c>
       <c r="D111" t="n">
-        <v>0.631378</v>
+        <v>0.790458</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.826825</v>
+        <v>0.8022049999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.621169</v>
+        <v>0.6079329999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.627719</v>
+        <v>0.794613</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.804547</v>
+        <v>0.785415</v>
       </c>
       <c r="C113" t="n">
-        <v>0.6582480000000001</v>
+        <v>0.633402</v>
       </c>
       <c r="D113" t="n">
-        <v>0.632338</v>
+        <v>0.796982</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.869086</v>
+        <v>0.787787</v>
       </c>
       <c r="C114" t="n">
-        <v>0.608836</v>
+        <v>0.61377</v>
       </c>
       <c r="D114" t="n">
-        <v>0.685007</v>
+        <v>0.81919</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.816737</v>
+        <v>0.830375</v>
       </c>
       <c r="C115" t="n">
-        <v>0.667432</v>
+        <v>0.677082</v>
       </c>
       <c r="D115" t="n">
-        <v>0.62437</v>
+        <v>0.819599</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.794522</v>
+        <v>0.802078</v>
       </c>
       <c r="C116" t="n">
-        <v>0.664945</v>
+        <v>0.6392139999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.635226</v>
+        <v>0.8078689999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.807322</v>
+        <v>0.792964</v>
       </c>
       <c r="C117" t="n">
-        <v>0.621574</v>
+        <v>0.627166</v>
       </c>
       <c r="D117" t="n">
-        <v>0.637248</v>
+        <v>0.810213</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.796171</v>
+        <v>0.800523</v>
       </c>
       <c r="C118" t="n">
-        <v>0.644903</v>
+        <v>0.64299</v>
       </c>
       <c r="D118" t="n">
-        <v>0.646775</v>
+        <v>0.828535</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.810492</v>
+        <v>0.77918</v>
       </c>
       <c r="C119" t="n">
-        <v>0.630783</v>
+        <v>0.635893</v>
       </c>
       <c r="D119" t="n">
-        <v>0.638923</v>
+        <v>0.816239</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.931585</v>
+        <v>0.7888540000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>0.660621</v>
+        <v>0.634078</v>
       </c>
       <c r="D120" t="n">
-        <v>0.644601</v>
+        <v>0.820901</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.793594</v>
+        <v>0.831637</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6786140000000001</v>
+        <v>0.651002</v>
       </c>
       <c r="D121" t="n">
-        <v>0.659049</v>
+        <v>0.839934</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.812281</v>
+        <v>0.867584</v>
       </c>
       <c r="C122" t="n">
-        <v>0.693327</v>
+        <v>0.674687</v>
       </c>
       <c r="D122" t="n">
-        <v>0.672382</v>
+        <v>0.8560489999999999</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.807785</v>
+        <v>0.8085599999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.653629</v>
+        <v>0.743651</v>
       </c>
       <c r="D123" t="n">
-        <v>0.746615</v>
+        <v>0.980362</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.20351</v>
+        <v>1.06714</v>
       </c>
       <c r="C124" t="n">
-        <v>0.737631</v>
+        <v>0.763688</v>
       </c>
       <c r="D124" t="n">
-        <v>0.756494</v>
+        <v>0.967856</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.04728</v>
+        <v>1.04751</v>
       </c>
       <c r="C125" t="n">
-        <v>0.738036</v>
+        <v>0.733124</v>
       </c>
       <c r="D125" t="n">
-        <v>0.738507</v>
+        <v>0.960131</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.05495</v>
+        <v>1.05421</v>
       </c>
       <c r="C126" t="n">
-        <v>0.73749</v>
+        <v>0.737245</v>
       </c>
       <c r="D126" t="n">
-        <v>0.752154</v>
+        <v>0.96119</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.04629</v>
+        <v>0.986172</v>
       </c>
       <c r="C127" t="n">
-        <v>0.84419</v>
+        <v>0.734752</v>
       </c>
       <c r="D127" t="n">
-        <v>0.8548750000000001</v>
+        <v>0.979169</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.04332</v>
+        <v>1.04341</v>
       </c>
       <c r="C128" t="n">
-        <v>0.74626</v>
+        <v>0.742858</v>
       </c>
       <c r="D128" t="n">
-        <v>0.742935</v>
+        <v>0.979542</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.05336</v>
+        <v>1.18242</v>
       </c>
       <c r="C129" t="n">
-        <v>0.742077</v>
+        <v>0.765528</v>
       </c>
       <c r="D129" t="n">
-        <v>0.749318</v>
+        <v>0.995352</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.04407</v>
+        <v>1.06797</v>
       </c>
       <c r="C130" t="n">
-        <v>0.754333</v>
+        <v>0.797285</v>
       </c>
       <c r="D130" t="n">
-        <v>0.889416</v>
+        <v>1.02403</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.03382</v>
+        <v>1.17006</v>
       </c>
       <c r="C131" t="n">
-        <v>0.831921</v>
+        <v>0.754098</v>
       </c>
       <c r="D131" t="n">
-        <v>0.76751</v>
+        <v>0.982429</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.02792</v>
+        <v>1.06987</v>
       </c>
       <c r="C132" t="n">
-        <v>0.851415</v>
+        <v>0.772549</v>
       </c>
       <c r="D132" t="n">
-        <v>0.834368</v>
+        <v>0.986797</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.04106</v>
+        <v>1.05224</v>
       </c>
       <c r="C133" t="n">
-        <v>0.760122</v>
+        <v>0.771586</v>
       </c>
       <c r="D133" t="n">
-        <v>0.805237</v>
+        <v>0.9991449999999999</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.04444</v>
+        <v>1.06791</v>
       </c>
       <c r="C134" t="n">
-        <v>0.769916</v>
+        <v>0.768503</v>
       </c>
       <c r="D134" t="n">
-        <v>0.777064</v>
+        <v>1.01118</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.05467</v>
+        <v>1.06157</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7595150000000001</v>
+        <v>0.781702</v>
       </c>
       <c r="D135" t="n">
-        <v>0.780993</v>
+        <v>1.01391</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.04629</v>
+        <v>1.07613</v>
       </c>
       <c r="C136" t="n">
-        <v>0.777896</v>
+        <v>0.800416</v>
       </c>
       <c r="D136" t="n">
-        <v>0.794479</v>
+        <v>1.02452</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.04829</v>
+        <v>1.10488</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7762829999999999</v>
+        <v>0.937412</v>
       </c>
       <c r="D137" t="n">
-        <v>0.972569</v>
+        <v>1.12077</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.36504</v>
+        <v>1.31701</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9320889999999999</v>
+        <v>0.932575</v>
       </c>
       <c r="D138" t="n">
-        <v>1.06616</v>
+        <v>1.12409</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.30094</v>
+        <v>1.30563</v>
       </c>
       <c r="C139" t="n">
-        <v>1.0357</v>
+        <v>0.9399690000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.954646</v>
+        <v>1.12694</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.30878</v>
+        <v>1.30103</v>
       </c>
       <c r="C140" t="n">
-        <v>0.941705</v>
+        <v>0.932272</v>
       </c>
       <c r="D140" t="n">
-        <v>0.969235</v>
+        <v>1.10079</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.3221</v>
+        <v>1.26556</v>
       </c>
       <c r="C141" t="n">
-        <v>0.952443</v>
+        <v>0.896693</v>
       </c>
       <c r="D141" t="n">
-        <v>0.949682</v>
+        <v>1.05768</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.31988</v>
+        <v>1.23513</v>
       </c>
       <c r="C142" t="n">
-        <v>0.959973</v>
+        <v>0.888145</v>
       </c>
       <c r="D142" t="n">
-        <v>0.977487</v>
+        <v>1.0738</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.31284</v>
+        <v>1.21269</v>
       </c>
       <c r="C143" t="n">
-        <v>0.947173</v>
+        <v>0.955111</v>
       </c>
       <c r="D143" t="n">
-        <v>0.967168</v>
+        <v>1.12046</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.119803</v>
+        <v>0.123169</v>
       </c>
       <c r="C2" t="n">
-        <v>0.114822</v>
+        <v>0.1142</v>
       </c>
       <c r="D2" t="n">
-        <v>0.142601</v>
+        <v>0.152834</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.120058</v>
+        <v>0.122387</v>
       </c>
       <c r="C3" t="n">
-        <v>0.117291</v>
+        <v>0.116395</v>
       </c>
       <c r="D3" t="n">
-        <v>0.142231</v>
+        <v>0.146022</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.118763</v>
+        <v>0.120433</v>
       </c>
       <c r="C4" t="n">
-        <v>0.112432</v>
+        <v>0.11371</v>
       </c>
       <c r="D4" t="n">
-        <v>0.147549</v>
+        <v>0.151946</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.119945</v>
+        <v>0.121207</v>
       </c>
       <c r="C5" t="n">
-        <v>0.114441</v>
+        <v>0.114838</v>
       </c>
       <c r="D5" t="n">
-        <v>0.148754</v>
+        <v>0.147024</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.121776</v>
+        <v>0.121755</v>
       </c>
       <c r="C6" t="n">
-        <v>0.115594</v>
+        <v>0.118871</v>
       </c>
       <c r="D6" t="n">
-        <v>0.150138</v>
+        <v>0.149579</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.118321</v>
+        <v>0.123896</v>
       </c>
       <c r="C7" t="n">
-        <v>0.119063</v>
+        <v>0.122766</v>
       </c>
       <c r="D7" t="n">
-        <v>0.145894</v>
+        <v>0.152612</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.121266</v>
+        <v>0.127665</v>
       </c>
       <c r="C8" t="n">
-        <v>0.119899</v>
+        <v>0.1246</v>
       </c>
       <c r="D8" t="n">
-        <v>0.160736</v>
+        <v>0.155736</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119096</v>
+        <v>0.1229</v>
       </c>
       <c r="C9" t="n">
-        <v>0.113992</v>
+        <v>0.116329</v>
       </c>
       <c r="D9" t="n">
-        <v>0.143497</v>
+        <v>0.142859</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.130909</v>
+        <v>0.126686</v>
       </c>
       <c r="C10" t="n">
-        <v>0.116683</v>
+        <v>0.117746</v>
       </c>
       <c r="D10" t="n">
-        <v>0.146253</v>
+        <v>0.145609</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1263</v>
+        <v>0.127868</v>
       </c>
       <c r="C11" t="n">
-        <v>0.116199</v>
+        <v>0.114284</v>
       </c>
       <c r="D11" t="n">
-        <v>0.144402</v>
+        <v>0.144946</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.130568</v>
+        <v>0.130258</v>
       </c>
       <c r="C12" t="n">
-        <v>0.115345</v>
+        <v>0.118616</v>
       </c>
       <c r="D12" t="n">
-        <v>0.145298</v>
+        <v>0.147176</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.132491</v>
+        <v>0.130711</v>
       </c>
       <c r="C13" t="n">
-        <v>0.117583</v>
+        <v>0.11634</v>
       </c>
       <c r="D13" t="n">
-        <v>0.144925</v>
+        <v>0.15245</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.12918</v>
+        <v>0.130866</v>
       </c>
       <c r="C14" t="n">
-        <v>0.113551</v>
+        <v>0.114532</v>
       </c>
       <c r="D14" t="n">
-        <v>0.147607</v>
+        <v>0.14659</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.126158</v>
+        <v>0.128953</v>
       </c>
       <c r="C15" t="n">
-        <v>0.114428</v>
+        <v>0.117942</v>
       </c>
       <c r="D15" t="n">
-        <v>0.147094</v>
+        <v>0.150328</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.130546</v>
+        <v>0.127403</v>
       </c>
       <c r="C16" t="n">
-        <v>0.114422</v>
+        <v>0.116754</v>
       </c>
       <c r="D16" t="n">
-        <v>0.14438</v>
+        <v>0.147968</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.127345</v>
+        <v>0.127466</v>
       </c>
       <c r="C17" t="n">
-        <v>0.114648</v>
+        <v>0.119557</v>
       </c>
       <c r="D17" t="n">
-        <v>0.147317</v>
+        <v>0.151272</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.128762</v>
+        <v>0.133623</v>
       </c>
       <c r="C18" t="n">
-        <v>0.117815</v>
+        <v>0.118479</v>
       </c>
       <c r="D18" t="n">
-        <v>0.150764</v>
+        <v>0.151158</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.131362</v>
+        <v>0.132401</v>
       </c>
       <c r="C19" t="n">
-        <v>0.118599</v>
+        <v>0.120122</v>
       </c>
       <c r="D19" t="n">
-        <v>0.147893</v>
+        <v>0.146694</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.129381</v>
+        <v>0.129591</v>
       </c>
       <c r="C20" t="n">
-        <v>0.12104</v>
+        <v>0.119954</v>
       </c>
       <c r="D20" t="n">
-        <v>0.148784</v>
+        <v>0.154165</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.135136</v>
+        <v>0.135622</v>
       </c>
       <c r="C21" t="n">
-        <v>0.126123</v>
+        <v>0.123079</v>
       </c>
       <c r="D21" t="n">
-        <v>0.157103</v>
+        <v>0.156602</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.136332</v>
+        <v>0.136211</v>
       </c>
       <c r="C22" t="n">
-        <v>0.129855</v>
+        <v>0.127941</v>
       </c>
       <c r="D22" t="n">
-        <v>0.15916</v>
+        <v>0.165346</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.135679</v>
+        <v>0.135067</v>
       </c>
       <c r="C23" t="n">
-        <v>0.121561</v>
+        <v>0.121692</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1528</v>
+        <v>0.15185</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.139732</v>
+        <v>0.141936</v>
       </c>
       <c r="C24" t="n">
-        <v>0.124707</v>
+        <v>0.120979</v>
       </c>
       <c r="D24" t="n">
-        <v>0.153382</v>
+        <v>0.154128</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.139564</v>
+        <v>0.139574</v>
       </c>
       <c r="C25" t="n">
-        <v>0.119474</v>
+        <v>0.121047</v>
       </c>
       <c r="D25" t="n">
-        <v>0.15554</v>
+        <v>0.155201</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.139084</v>
+        <v>0.139691</v>
       </c>
       <c r="C26" t="n">
-        <v>0.12048</v>
+        <v>0.118899</v>
       </c>
       <c r="D26" t="n">
-        <v>0.154394</v>
+        <v>0.148103</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.140135</v>
+        <v>0.14089</v>
       </c>
       <c r="C27" t="n">
-        <v>0.118523</v>
+        <v>0.121682</v>
       </c>
       <c r="D27" t="n">
-        <v>0.153396</v>
+        <v>0.157265</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.143057</v>
+        <v>0.145353</v>
       </c>
       <c r="C28" t="n">
-        <v>0.124315</v>
+        <v>0.11958</v>
       </c>
       <c r="D28" t="n">
-        <v>0.154364</v>
+        <v>0.157117</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.139541</v>
+        <v>0.138859</v>
       </c>
       <c r="C29" t="n">
-        <v>0.123292</v>
+        <v>0.119487</v>
       </c>
       <c r="D29" t="n">
-        <v>0.160538</v>
+        <v>0.159442</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.13895</v>
+        <v>0.138469</v>
       </c>
       <c r="C30" t="n">
-        <v>0.120951</v>
+        <v>0.123697</v>
       </c>
       <c r="D30" t="n">
-        <v>0.158509</v>
+        <v>0.160366</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.145065</v>
+        <v>0.139544</v>
       </c>
       <c r="C31" t="n">
-        <v>0.123777</v>
+        <v>0.126201</v>
       </c>
       <c r="D31" t="n">
-        <v>0.152369</v>
+        <v>0.158938</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.138302</v>
+        <v>0.139522</v>
       </c>
       <c r="C32" t="n">
-        <v>0.125752</v>
+        <v>0.125813</v>
       </c>
       <c r="D32" t="n">
-        <v>0.163767</v>
+        <v>0.158908</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.145044</v>
+        <v>0.137351</v>
       </c>
       <c r="C33" t="n">
-        <v>0.12708</v>
+        <v>0.131156</v>
       </c>
       <c r="D33" t="n">
-        <v>0.164441</v>
+        <v>0.161974</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.14547</v>
+        <v>0.144835</v>
       </c>
       <c r="C34" t="n">
-        <v>0.126053</v>
+        <v>0.127663</v>
       </c>
       <c r="D34" t="n">
-        <v>0.160499</v>
+        <v>0.15851</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.14464</v>
+        <v>0.143863</v>
       </c>
       <c r="C35" t="n">
-        <v>0.129615</v>
+        <v>0.130919</v>
       </c>
       <c r="D35" t="n">
-        <v>0.162818</v>
+        <v>0.168157</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.138412</v>
+        <v>0.149374</v>
       </c>
       <c r="C36" t="n">
-        <v>0.132875</v>
+        <v>0.138444</v>
       </c>
       <c r="D36" t="n">
-        <v>0.166245</v>
+        <v>0.175744</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.141988</v>
+        <v>0.146992</v>
       </c>
       <c r="C37" t="n">
-        <v>0.124938</v>
+        <v>0.125258</v>
       </c>
       <c r="D37" t="n">
-        <v>0.164685</v>
+        <v>0.174823</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.164499</v>
+        <v>0.16509</v>
       </c>
       <c r="C38" t="n">
-        <v>0.12709</v>
+        <v>0.129218</v>
       </c>
       <c r="D38" t="n">
-        <v>0.173441</v>
+        <v>0.172213</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.170023</v>
+        <v>0.167119</v>
       </c>
       <c r="C39" t="n">
-        <v>0.130541</v>
+        <v>0.129358</v>
       </c>
       <c r="D39" t="n">
-        <v>0.172662</v>
+        <v>0.166624</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.166864</v>
+        <v>0.168014</v>
       </c>
       <c r="C40" t="n">
-        <v>0.129633</v>
+        <v>0.133291</v>
       </c>
       <c r="D40" t="n">
-        <v>0.175229</v>
+        <v>0.16964</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.162403</v>
+        <v>0.167457</v>
       </c>
       <c r="C41" t="n">
-        <v>0.132695</v>
+        <v>0.132518</v>
       </c>
       <c r="D41" t="n">
-        <v>0.180679</v>
+        <v>0.180805</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.168137</v>
+        <v>0.169786</v>
       </c>
       <c r="C42" t="n">
-        <v>0.131517</v>
+        <v>0.130368</v>
       </c>
       <c r="D42" t="n">
-        <v>0.172342</v>
+        <v>0.176812</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.163915</v>
+        <v>0.163196</v>
       </c>
       <c r="C43" t="n">
-        <v>0.129689</v>
+        <v>0.130993</v>
       </c>
       <c r="D43" t="n">
-        <v>0.178577</v>
+        <v>0.177596</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.164725</v>
+        <v>0.165614</v>
       </c>
       <c r="C44" t="n">
-        <v>0.128572</v>
+        <v>0.131182</v>
       </c>
       <c r="D44" t="n">
-        <v>0.173213</v>
+        <v>0.183953</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.170984</v>
+        <v>0.170134</v>
       </c>
       <c r="C45" t="n">
-        <v>0.132959</v>
+        <v>0.128506</v>
       </c>
       <c r="D45" t="n">
-        <v>0.175713</v>
+        <v>0.176111</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.169086</v>
+        <v>0.160647</v>
       </c>
       <c r="C46" t="n">
-        <v>0.134937</v>
+        <v>0.132604</v>
       </c>
       <c r="D46" t="n">
-        <v>0.176639</v>
+        <v>0.177107</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.164228</v>
+        <v>0.169627</v>
       </c>
       <c r="C47" t="n">
-        <v>0.133256</v>
+        <v>0.136116</v>
       </c>
       <c r="D47" t="n">
-        <v>0.174344</v>
+        <v>0.179076</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.165336</v>
+        <v>0.168037</v>
       </c>
       <c r="C48" t="n">
-        <v>0.135979</v>
+        <v>0.134213</v>
       </c>
       <c r="D48" t="n">
-        <v>0.176506</v>
+        <v>0.179839</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.171629</v>
+        <v>0.165585</v>
       </c>
       <c r="C49" t="n">
-        <v>0.141282</v>
+        <v>0.139406</v>
       </c>
       <c r="D49" t="n">
-        <v>0.180638</v>
+        <v>0.183905</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.166529</v>
+        <v>0.170743</v>
       </c>
       <c r="C50" t="n">
-        <v>0.145451</v>
+        <v>0.144672</v>
       </c>
       <c r="D50" t="n">
-        <v>0.188845</v>
+        <v>0.189204</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.177152</v>
+        <v>0.173123</v>
       </c>
       <c r="C51" t="n">
-        <v>0.203576</v>
+        <v>0.206421</v>
       </c>
       <c r="D51" t="n">
-        <v>0.250056</v>
+        <v>0.254212</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.17835</v>
+        <v>0.18326</v>
       </c>
       <c r="C52" t="n">
-        <v>0.206306</v>
+        <v>0.207845</v>
       </c>
       <c r="D52" t="n">
-        <v>0.239899</v>
+        <v>0.247053</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.256304</v>
+        <v>0.257308</v>
       </c>
       <c r="C53" t="n">
-        <v>0.199415</v>
+        <v>0.204151</v>
       </c>
       <c r="D53" t="n">
-        <v>0.247302</v>
+        <v>0.246469</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.269323</v>
+        <v>0.263121</v>
       </c>
       <c r="C54" t="n">
-        <v>0.207617</v>
+        <v>0.202559</v>
       </c>
       <c r="D54" t="n">
-        <v>0.24544</v>
+        <v>0.249056</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.260107</v>
+        <v>0.261312</v>
       </c>
       <c r="C55" t="n">
-        <v>0.207282</v>
+        <v>0.206896</v>
       </c>
       <c r="D55" t="n">
-        <v>0.255319</v>
+        <v>0.248406</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.259377</v>
+        <v>0.261206</v>
       </c>
       <c r="C56" t="n">
-        <v>0.205564</v>
+        <v>0.202203</v>
       </c>
       <c r="D56" t="n">
-        <v>0.248717</v>
+        <v>0.254396</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.258461</v>
+        <v>0.253604</v>
       </c>
       <c r="C57" t="n">
-        <v>0.208436</v>
+        <v>0.204077</v>
       </c>
       <c r="D57" t="n">
-        <v>0.264062</v>
+        <v>0.252911</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.255214</v>
+        <v>0.258353</v>
       </c>
       <c r="C58" t="n">
-        <v>0.20664</v>
+        <v>0.210254</v>
       </c>
       <c r="D58" t="n">
-        <v>0.253581</v>
+        <v>0.24673</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.258234</v>
+        <v>0.256813</v>
       </c>
       <c r="C59" t="n">
-        <v>0.208886</v>
+        <v>0.211382</v>
       </c>
       <c r="D59" t="n">
-        <v>0.252636</v>
+        <v>0.257532</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.255786</v>
+        <v>0.264905</v>
       </c>
       <c r="C60" t="n">
-        <v>0.20696</v>
+        <v>0.205419</v>
       </c>
       <c r="D60" t="n">
-        <v>0.25217</v>
+        <v>0.262112</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.2618</v>
+        <v>0.26008</v>
       </c>
       <c r="C61" t="n">
-        <v>0.211383</v>
+        <v>0.218518</v>
       </c>
       <c r="D61" t="n">
-        <v>0.255405</v>
+        <v>0.258963</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.25777</v>
+        <v>0.258892</v>
       </c>
       <c r="C62" t="n">
-        <v>0.208174</v>
+        <v>0.212706</v>
       </c>
       <c r="D62" t="n">
-        <v>0.255273</v>
+        <v>0.256849</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.260073</v>
+        <v>0.254408</v>
       </c>
       <c r="C63" t="n">
-        <v>0.22055</v>
+        <v>0.216099</v>
       </c>
       <c r="D63" t="n">
-        <v>0.262455</v>
+        <v>0.259401</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.266461</v>
+        <v>0.264511</v>
       </c>
       <c r="C64" t="n">
-        <v>0.217418</v>
+        <v>0.227653</v>
       </c>
       <c r="D64" t="n">
-        <v>0.266141</v>
+        <v>0.259371</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.268705</v>
+        <v>0.274599</v>
       </c>
       <c r="C65" t="n">
-        <v>0.227826</v>
+        <v>0.224768</v>
       </c>
       <c r="D65" t="n">
-        <v>0.268203</v>
+        <v>0.266996</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.269367</v>
+        <v>0.269796</v>
       </c>
       <c r="C66" t="n">
-        <v>0.300107</v>
+        <v>0.290618</v>
       </c>
       <c r="D66" t="n">
-        <v>0.351724</v>
+        <v>0.35721</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.394229</v>
+        <v>0.419218</v>
       </c>
       <c r="C67" t="n">
-        <v>0.299219</v>
+        <v>0.303206</v>
       </c>
       <c r="D67" t="n">
-        <v>0.341982</v>
+        <v>0.347631</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.393406</v>
+        <v>0.412682</v>
       </c>
       <c r="C68" t="n">
-        <v>0.300255</v>
+        <v>0.297378</v>
       </c>
       <c r="D68" t="n">
-        <v>0.346758</v>
+        <v>0.353594</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.393151</v>
+        <v>0.397041</v>
       </c>
       <c r="C69" t="n">
-        <v>0.301112</v>
+        <v>0.307913</v>
       </c>
       <c r="D69" t="n">
-        <v>0.352147</v>
+        <v>0.352826</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.399847</v>
+        <v>0.412714</v>
       </c>
       <c r="C70" t="n">
-        <v>0.309191</v>
+        <v>0.309307</v>
       </c>
       <c r="D70" t="n">
-        <v>0.362524</v>
+        <v>0.359347</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.410312</v>
+        <v>0.421316</v>
       </c>
       <c r="C71" t="n">
-        <v>0.300974</v>
+        <v>0.311181</v>
       </c>
       <c r="D71" t="n">
-        <v>0.357723</v>
+        <v>0.34665</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.403884</v>
+        <v>0.424092</v>
       </c>
       <c r="C72" t="n">
-        <v>0.313558</v>
+        <v>0.313077</v>
       </c>
       <c r="D72" t="n">
-        <v>0.361406</v>
+        <v>0.35549</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.402457</v>
+        <v>0.417922</v>
       </c>
       <c r="C73" t="n">
-        <v>0.303163</v>
+        <v>0.297964</v>
       </c>
       <c r="D73" t="n">
-        <v>0.363693</v>
+        <v>0.349742</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.401865</v>
+        <v>0.416818</v>
       </c>
       <c r="C74" t="n">
-        <v>0.303361</v>
+        <v>0.302365</v>
       </c>
       <c r="D74" t="n">
-        <v>0.357174</v>
+        <v>0.368663</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.418354</v>
+        <v>0.410263</v>
       </c>
       <c r="C75" t="n">
-        <v>0.30412</v>
+        <v>0.306742</v>
       </c>
       <c r="D75" t="n">
-        <v>0.357739</v>
+        <v>0.357831</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.400505</v>
+        <v>0.409572</v>
       </c>
       <c r="C76" t="n">
-        <v>0.305724</v>
+        <v>0.302779</v>
       </c>
       <c r="D76" t="n">
-        <v>0.362305</v>
+        <v>0.353497</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.422566</v>
+        <v>0.416363</v>
       </c>
       <c r="C77" t="n">
-        <v>0.315015</v>
+        <v>0.307593</v>
       </c>
       <c r="D77" t="n">
-        <v>0.359868</v>
+        <v>0.355377</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4094</v>
+        <v>0.403515</v>
       </c>
       <c r="C78" t="n">
-        <v>0.316343</v>
+        <v>0.310054</v>
       </c>
       <c r="D78" t="n">
-        <v>0.361976</v>
+        <v>0.362874</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.419611</v>
+        <v>0.418284</v>
       </c>
       <c r="C79" t="n">
-        <v>0.319577</v>
+        <v>0.314747</v>
       </c>
       <c r="D79" t="n">
-        <v>0.368375</v>
+        <v>0.363056</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.419384</v>
+        <v>0.413465</v>
       </c>
       <c r="C80" t="n">
-        <v>0.437819</v>
+        <v>0.441099</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5518999999999999</v>
+        <v>0.539867</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.550983</v>
+        <v>0.551297</v>
       </c>
       <c r="C81" t="n">
-        <v>0.43931</v>
+        <v>0.434291</v>
       </c>
       <c r="D81" t="n">
-        <v>0.539152</v>
+        <v>0.542778</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.547226</v>
+        <v>0.566146</v>
       </c>
       <c r="C82" t="n">
-        <v>0.425664</v>
+        <v>0.436543</v>
       </c>
       <c r="D82" t="n">
-        <v>0.54848</v>
+        <v>0.556231</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.550585</v>
+        <v>0.560295</v>
       </c>
       <c r="C83" t="n">
-        <v>0.432164</v>
+        <v>0.44509</v>
       </c>
       <c r="D83" t="n">
-        <v>0.552121</v>
+        <v>0.546574</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.568797</v>
+        <v>0.5492590000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.439806</v>
+        <v>0.427062</v>
       </c>
       <c r="D84" t="n">
-        <v>0.556769</v>
+        <v>0.551056</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.543743</v>
+        <v>0.543899</v>
       </c>
       <c r="C85" t="n">
-        <v>0.442253</v>
+        <v>0.431538</v>
       </c>
       <c r="D85" t="n">
-        <v>0.568429</v>
+        <v>0.569558</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5488229999999999</v>
+        <v>0.550669</v>
       </c>
       <c r="C86" t="n">
-        <v>0.433978</v>
+        <v>0.434074</v>
       </c>
       <c r="D86" t="n">
-        <v>0.556775</v>
+        <v>0.5484250000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5593089999999999</v>
+        <v>0.548742</v>
       </c>
       <c r="C87" t="n">
-        <v>0.436436</v>
+        <v>0.445707</v>
       </c>
       <c r="D87" t="n">
-        <v>0.556428</v>
+        <v>0.559949</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5448539999999999</v>
+        <v>0.548683</v>
       </c>
       <c r="C88" t="n">
-        <v>0.441561</v>
+        <v>0.453258</v>
       </c>
       <c r="D88" t="n">
-        <v>0.561493</v>
+        <v>0.554857</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.55683</v>
+        <v>0.547045</v>
       </c>
       <c r="C89" t="n">
-        <v>0.43792</v>
+        <v>0.435627</v>
       </c>
       <c r="D89" t="n">
-        <v>0.539683</v>
+        <v>0.547782</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5556140000000001</v>
+        <v>0.562524</v>
       </c>
       <c r="C90" t="n">
-        <v>0.441651</v>
+        <v>0.450744</v>
       </c>
       <c r="D90" t="n">
-        <v>0.564394</v>
+        <v>0.549752</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.54853</v>
+        <v>0.560272</v>
       </c>
       <c r="C91" t="n">
-        <v>0.439076</v>
+        <v>0.446237</v>
       </c>
       <c r="D91" t="n">
-        <v>0.561759</v>
+        <v>0.574113</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.558795</v>
+        <v>0.5678569999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>0.439937</v>
+        <v>0.457356</v>
       </c>
       <c r="D92" t="n">
-        <v>0.548733</v>
+        <v>0.556731</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5535099999999999</v>
+        <v>0.563907</v>
       </c>
       <c r="C93" t="n">
-        <v>0.444785</v>
+        <v>0.460385</v>
       </c>
       <c r="D93" t="n">
-        <v>0.560818</v>
+        <v>0.57694</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.570223</v>
+        <v>0.548654</v>
       </c>
       <c r="C94" t="n">
-        <v>0.528849</v>
+        <v>0.551385</v>
       </c>
       <c r="D94" t="n">
-        <v>0.665873</v>
+        <v>0.694617</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.642817</v>
+        <v>0.639935</v>
       </c>
       <c r="C95" t="n">
-        <v>0.514855</v>
+        <v>0.520719</v>
       </c>
       <c r="D95" t="n">
-        <v>0.677417</v>
+        <v>0.6812009999999999</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.656321</v>
+        <v>0.636284</v>
       </c>
       <c r="C96" t="n">
-        <v>0.519151</v>
+        <v>0.562092</v>
       </c>
       <c r="D96" t="n">
-        <v>0.665901</v>
+        <v>0.693424</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.642582</v>
+        <v>0.6474529999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.515625</v>
+        <v>0.523611</v>
       </c>
       <c r="D97" t="n">
-        <v>0.676119</v>
+        <v>0.69287</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.648205</v>
+        <v>0.6985130000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.52632</v>
+        <v>0.54761</v>
       </c>
       <c r="D98" t="n">
-        <v>0.698547</v>
+        <v>0.706833</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.643935</v>
+        <v>0.643616</v>
       </c>
       <c r="C99" t="n">
-        <v>0.520595</v>
+        <v>0.527629</v>
       </c>
       <c r="D99" t="n">
-        <v>0.675917</v>
+        <v>0.668762</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.647029</v>
+        <v>0.6501130000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.535216</v>
+        <v>0.542998</v>
       </c>
       <c r="D100" t="n">
-        <v>0.685829</v>
+        <v>0.683204</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.649217</v>
+        <v>0.667291</v>
       </c>
       <c r="C101" t="n">
-        <v>0.551546</v>
+        <v>0.524769</v>
       </c>
       <c r="D101" t="n">
-        <v>0.704223</v>
+        <v>0.684281</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.642916</v>
+        <v>0.655312</v>
       </c>
       <c r="C102" t="n">
-        <v>0.545175</v>
+        <v>0.551323</v>
       </c>
       <c r="D102" t="n">
-        <v>0.682033</v>
+        <v>0.717336</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.694222</v>
+        <v>0.645057</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5480969999999999</v>
+        <v>0.548422</v>
       </c>
       <c r="D103" t="n">
-        <v>0.717625</v>
+        <v>0.717176</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.666324</v>
+        <v>0.648541</v>
       </c>
       <c r="C104" t="n">
-        <v>0.540561</v>
+        <v>0.55716</v>
       </c>
       <c r="D104" t="n">
-        <v>0.689702</v>
+        <v>0.724545</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.660178</v>
+        <v>0.678916</v>
       </c>
       <c r="C105" t="n">
-        <v>0.573115</v>
+        <v>0.574538</v>
       </c>
       <c r="D105" t="n">
-        <v>0.741551</v>
+        <v>0.694967</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6704</v>
+        <v>0.661785</v>
       </c>
       <c r="C106" t="n">
-        <v>0.563548</v>
+        <v>0.537429</v>
       </c>
       <c r="D106" t="n">
-        <v>0.692739</v>
+        <v>0.711572</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.660788</v>
+        <v>0.65827</v>
       </c>
       <c r="C107" t="n">
-        <v>0.565976</v>
+        <v>0.557372</v>
       </c>
       <c r="D107" t="n">
-        <v>0.695752</v>
+        <v>0.698473</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.65301</v>
+        <v>0.704217</v>
       </c>
       <c r="C108" t="n">
-        <v>0.660497</v>
+        <v>0.617827</v>
       </c>
       <c r="D108" t="n">
-        <v>0.824828</v>
+        <v>0.806343</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.664391</v>
+        <v>0.661229</v>
       </c>
       <c r="C109" t="n">
-        <v>0.614795</v>
+        <v>0.610975</v>
       </c>
       <c r="D109" t="n">
-        <v>0.8027879999999999</v>
+        <v>0.871567</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.797594</v>
+        <v>0.906608</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6318009999999999</v>
+        <v>0.671133</v>
       </c>
       <c r="D110" t="n">
-        <v>0.788656</v>
+        <v>0.797932</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.785323</v>
+        <v>0.8658</v>
       </c>
       <c r="C111" t="n">
-        <v>0.622546</v>
+        <v>0.613877</v>
       </c>
       <c r="D111" t="n">
-        <v>0.790458</v>
+        <v>0.861461</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.8022049999999999</v>
+        <v>0.782531</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6079329999999999</v>
+        <v>0.6375459999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.794613</v>
+        <v>0.801847</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.785415</v>
+        <v>0.787415</v>
       </c>
       <c r="C113" t="n">
-        <v>0.633402</v>
+        <v>0.61251</v>
       </c>
       <c r="D113" t="n">
-        <v>0.796982</v>
+        <v>0.798747</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.787787</v>
+        <v>0.803033</v>
       </c>
       <c r="C114" t="n">
-        <v>0.61377</v>
+        <v>0.640167</v>
       </c>
       <c r="D114" t="n">
-        <v>0.81919</v>
+        <v>0.817905</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.830375</v>
+        <v>0.783239</v>
       </c>
       <c r="C115" t="n">
-        <v>0.677082</v>
+        <v>0.650381</v>
       </c>
       <c r="D115" t="n">
-        <v>0.819599</v>
+        <v>0.869227</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.802078</v>
+        <v>0.809095</v>
       </c>
       <c r="C116" t="n">
-        <v>0.6392139999999999</v>
+        <v>0.620522</v>
       </c>
       <c r="D116" t="n">
-        <v>0.8078689999999999</v>
+        <v>0.829426</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.792964</v>
+        <v>0.791144</v>
       </c>
       <c r="C117" t="n">
-        <v>0.627166</v>
+        <v>0.642364</v>
       </c>
       <c r="D117" t="n">
-        <v>0.810213</v>
+        <v>0.809223</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.800523</v>
+        <v>0.815721</v>
       </c>
       <c r="C118" t="n">
-        <v>0.64299</v>
+        <v>0.6306310000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.828535</v>
+        <v>0.8788859999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.77918</v>
+        <v>0.783837</v>
       </c>
       <c r="C119" t="n">
-        <v>0.635893</v>
+        <v>0.634393</v>
       </c>
       <c r="D119" t="n">
-        <v>0.816239</v>
+        <v>0.811024</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.7888540000000001</v>
+        <v>0.783158</v>
       </c>
       <c r="C120" t="n">
-        <v>0.634078</v>
+        <v>0.700973</v>
       </c>
       <c r="D120" t="n">
-        <v>0.820901</v>
+        <v>0.87883</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.831637</v>
+        <v>0.910276</v>
       </c>
       <c r="C121" t="n">
-        <v>0.651002</v>
+        <v>0.650854</v>
       </c>
       <c r="D121" t="n">
-        <v>0.839934</v>
+        <v>0.840213</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.867584</v>
+        <v>0.933088</v>
       </c>
       <c r="C122" t="n">
-        <v>0.674687</v>
+        <v>0.667529</v>
       </c>
       <c r="D122" t="n">
-        <v>0.8560489999999999</v>
+        <v>0.902185</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.8085599999999999</v>
+        <v>0.943876</v>
       </c>
       <c r="C123" t="n">
-        <v>0.743651</v>
+        <v>0.7335120000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.980362</v>
+        <v>0.934928</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.06714</v>
+        <v>1.0331</v>
       </c>
       <c r="C124" t="n">
-        <v>0.763688</v>
+        <v>0.761114</v>
       </c>
       <c r="D124" t="n">
-        <v>0.967856</v>
+        <v>0.916587</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.04751</v>
+        <v>1.06781</v>
       </c>
       <c r="C125" t="n">
-        <v>0.733124</v>
+        <v>0.8626819999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>0.960131</v>
+        <v>0.988835</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.05421</v>
+        <v>1.0481</v>
       </c>
       <c r="C126" t="n">
-        <v>0.737245</v>
+        <v>0.742632</v>
       </c>
       <c r="D126" t="n">
-        <v>0.96119</v>
+        <v>0.949253</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.986172</v>
+        <v>1.04118</v>
       </c>
       <c r="C127" t="n">
-        <v>0.734752</v>
+        <v>0.809078</v>
       </c>
       <c r="D127" t="n">
-        <v>0.979169</v>
+        <v>0.943437</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.04341</v>
+        <v>1.01733</v>
       </c>
       <c r="C128" t="n">
-        <v>0.742858</v>
+        <v>0.758718</v>
       </c>
       <c r="D128" t="n">
-        <v>0.979542</v>
+        <v>0.94162</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.18242</v>
+        <v>1.03673</v>
       </c>
       <c r="C129" t="n">
-        <v>0.765528</v>
+        <v>0.7818079999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.995352</v>
+        <v>0.944087</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.06797</v>
+        <v>1.04337</v>
       </c>
       <c r="C130" t="n">
-        <v>0.797285</v>
+        <v>0.750734</v>
       </c>
       <c r="D130" t="n">
-        <v>1.02403</v>
+        <v>0.956323</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.17006</v>
+        <v>1.05517</v>
       </c>
       <c r="C131" t="n">
-        <v>0.754098</v>
+        <v>0.766323</v>
       </c>
       <c r="D131" t="n">
-        <v>0.982429</v>
+        <v>0.932082</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.06987</v>
+        <v>1.05262</v>
       </c>
       <c r="C132" t="n">
-        <v>0.772549</v>
+        <v>0.763922</v>
       </c>
       <c r="D132" t="n">
-        <v>0.986797</v>
+        <v>0.949485</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.05224</v>
+        <v>1.05366</v>
       </c>
       <c r="C133" t="n">
-        <v>0.771586</v>
+        <v>0.761257</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9991449999999999</v>
+        <v>0.960328</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.06791</v>
+        <v>1.03405</v>
       </c>
       <c r="C134" t="n">
-        <v>0.768503</v>
+        <v>0.874237</v>
       </c>
       <c r="D134" t="n">
-        <v>1.01118</v>
+        <v>0.998346</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.06157</v>
+        <v>1.06224</v>
       </c>
       <c r="C135" t="n">
-        <v>0.781702</v>
+        <v>0.7937419999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>1.01391</v>
+        <v>0.977003</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.07613</v>
+        <v>1.05939</v>
       </c>
       <c r="C136" t="n">
-        <v>0.800416</v>
+        <v>0.78695</v>
       </c>
       <c r="D136" t="n">
-        <v>1.02452</v>
+        <v>0.989175</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.10488</v>
+        <v>1.06757</v>
       </c>
       <c r="C137" t="n">
-        <v>0.937412</v>
+        <v>0.968759</v>
       </c>
       <c r="D137" t="n">
-        <v>1.12077</v>
+        <v>1.15408</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.31701</v>
+        <v>1.3329</v>
       </c>
       <c r="C138" t="n">
-        <v>0.932575</v>
+        <v>0.968282</v>
       </c>
       <c r="D138" t="n">
-        <v>1.12409</v>
+        <v>1.15661</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.30563</v>
+        <v>1.3348</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9399690000000001</v>
+        <v>0.966171</v>
       </c>
       <c r="D139" t="n">
-        <v>1.12694</v>
+        <v>1.16171</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.30103</v>
+        <v>1.33917</v>
       </c>
       <c r="C140" t="n">
-        <v>0.932272</v>
+        <v>0.9518760000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>1.10079</v>
+        <v>1.16636</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.26556</v>
+        <v>1.33635</v>
       </c>
       <c r="C141" t="n">
-        <v>0.896693</v>
+        <v>0.971742</v>
       </c>
       <c r="D141" t="n">
-        <v>1.05768</v>
+        <v>1.18402</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.23513</v>
+        <v>1.35027</v>
       </c>
       <c r="C142" t="n">
-        <v>0.888145</v>
+        <v>0.957776</v>
       </c>
       <c r="D142" t="n">
-        <v>1.0738</v>
+        <v>1.18359</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.21269</v>
+        <v>1.45069</v>
       </c>
       <c r="C143" t="n">
-        <v>0.955111</v>
+        <v>0.960958</v>
       </c>
       <c r="D143" t="n">
-        <v>1.12046</v>
+        <v>1.16872</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.123169</v>
+        <v>0.120642</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1142</v>
+        <v>0.112002</v>
       </c>
       <c r="D2" t="n">
-        <v>0.152834</v>
+        <v>0.14453</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.122387</v>
+        <v>0.12004</v>
       </c>
       <c r="C3" t="n">
-        <v>0.116395</v>
+        <v>0.113816</v>
       </c>
       <c r="D3" t="n">
-        <v>0.146022</v>
+        <v>0.147826</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.120433</v>
+        <v>0.120215</v>
       </c>
       <c r="C4" t="n">
-        <v>0.11371</v>
+        <v>0.114378</v>
       </c>
       <c r="D4" t="n">
-        <v>0.151946</v>
+        <v>0.145713</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.121207</v>
+        <v>0.11851</v>
       </c>
       <c r="C5" t="n">
-        <v>0.114838</v>
+        <v>0.112459</v>
       </c>
       <c r="D5" t="n">
-        <v>0.147024</v>
+        <v>0.148549</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.121755</v>
+        <v>0.123962</v>
       </c>
       <c r="C6" t="n">
-        <v>0.118871</v>
+        <v>0.115579</v>
       </c>
       <c r="D6" t="n">
-        <v>0.149579</v>
+        <v>0.149172</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.123896</v>
+        <v>0.118046</v>
       </c>
       <c r="C7" t="n">
-        <v>0.122766</v>
+        <v>0.114679</v>
       </c>
       <c r="D7" t="n">
-        <v>0.152612</v>
+        <v>0.153278</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.127665</v>
+        <v>0.124079</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1246</v>
+        <v>0.129726</v>
       </c>
       <c r="D8" t="n">
-        <v>0.155736</v>
+        <v>0.16356</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1229</v>
+        <v>0.127164</v>
       </c>
       <c r="C9" t="n">
-        <v>0.116329</v>
+        <v>0.116811</v>
       </c>
       <c r="D9" t="n">
-        <v>0.142859</v>
+        <v>0.145671</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.126686</v>
+        <v>0.130921</v>
       </c>
       <c r="C10" t="n">
-        <v>0.117746</v>
+        <v>0.115441</v>
       </c>
       <c r="D10" t="n">
-        <v>0.145609</v>
+        <v>0.150288</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.127868</v>
+        <v>0.137204</v>
       </c>
       <c r="C11" t="n">
-        <v>0.114284</v>
+        <v>0.119657</v>
       </c>
       <c r="D11" t="n">
-        <v>0.144946</v>
+        <v>0.142691</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.130258</v>
+        <v>0.133324</v>
       </c>
       <c r="C12" t="n">
-        <v>0.118616</v>
+        <v>0.118396</v>
       </c>
       <c r="D12" t="n">
-        <v>0.147176</v>
+        <v>0.153309</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.130711</v>
+        <v>0.131754</v>
       </c>
       <c r="C13" t="n">
-        <v>0.11634</v>
+        <v>0.114423</v>
       </c>
       <c r="D13" t="n">
-        <v>0.15245</v>
+        <v>0.14565</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.130866</v>
+        <v>0.133477</v>
       </c>
       <c r="C14" t="n">
-        <v>0.114532</v>
+        <v>0.116838</v>
       </c>
       <c r="D14" t="n">
-        <v>0.14659</v>
+        <v>0.153365</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.128953</v>
+        <v>0.12989</v>
       </c>
       <c r="C15" t="n">
-        <v>0.117942</v>
+        <v>0.115675</v>
       </c>
       <c r="D15" t="n">
-        <v>0.150328</v>
+        <v>0.14705</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.127403</v>
+        <v>0.129492</v>
       </c>
       <c r="C16" t="n">
-        <v>0.116754</v>
+        <v>0.12068</v>
       </c>
       <c r="D16" t="n">
-        <v>0.147968</v>
+        <v>0.151568</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.127466</v>
+        <v>0.130095</v>
       </c>
       <c r="C17" t="n">
-        <v>0.119557</v>
+        <v>0.117424</v>
       </c>
       <c r="D17" t="n">
-        <v>0.151272</v>
+        <v>0.148147</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.133623</v>
+        <v>0.128247</v>
       </c>
       <c r="C18" t="n">
-        <v>0.118479</v>
+        <v>0.116544</v>
       </c>
       <c r="D18" t="n">
-        <v>0.151158</v>
+        <v>0.149336</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.132401</v>
+        <v>0.131645</v>
       </c>
       <c r="C19" t="n">
-        <v>0.120122</v>
+        <v>0.119288</v>
       </c>
       <c r="D19" t="n">
-        <v>0.146694</v>
+        <v>0.150379</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.129591</v>
+        <v>0.128645</v>
       </c>
       <c r="C20" t="n">
-        <v>0.119954</v>
+        <v>0.118912</v>
       </c>
       <c r="D20" t="n">
-        <v>0.154165</v>
+        <v>0.151587</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.135622</v>
+        <v>0.132981</v>
       </c>
       <c r="C21" t="n">
-        <v>0.123079</v>
+        <v>0.123226</v>
       </c>
       <c r="D21" t="n">
-        <v>0.156602</v>
+        <v>0.157774</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.136211</v>
+        <v>0.132545</v>
       </c>
       <c r="C22" t="n">
-        <v>0.127941</v>
+        <v>0.128091</v>
       </c>
       <c r="D22" t="n">
-        <v>0.165346</v>
+        <v>0.165774</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.135067</v>
+        <v>0.136311</v>
       </c>
       <c r="C23" t="n">
-        <v>0.121692</v>
+        <v>0.117696</v>
       </c>
       <c r="D23" t="n">
-        <v>0.15185</v>
+        <v>0.152752</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.141936</v>
+        <v>0.139031</v>
       </c>
       <c r="C24" t="n">
-        <v>0.120979</v>
+        <v>0.121827</v>
       </c>
       <c r="D24" t="n">
-        <v>0.154128</v>
+        <v>0.153072</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.139574</v>
+        <v>0.141379</v>
       </c>
       <c r="C25" t="n">
-        <v>0.121047</v>
+        <v>0.119028</v>
       </c>
       <c r="D25" t="n">
-        <v>0.155201</v>
+        <v>0.14973</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.139691</v>
+        <v>0.139025</v>
       </c>
       <c r="C26" t="n">
-        <v>0.118899</v>
+        <v>0.118597</v>
       </c>
       <c r="D26" t="n">
-        <v>0.148103</v>
+        <v>0.153667</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.14089</v>
+        <v>0.144352</v>
       </c>
       <c r="C27" t="n">
-        <v>0.121682</v>
+        <v>0.119888</v>
       </c>
       <c r="D27" t="n">
-        <v>0.157265</v>
+        <v>0.153412</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.145353</v>
+        <v>0.145369</v>
       </c>
       <c r="C28" t="n">
-        <v>0.11958</v>
+        <v>0.121686</v>
       </c>
       <c r="D28" t="n">
-        <v>0.157117</v>
+        <v>0.154925</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.138859</v>
+        <v>0.141174</v>
       </c>
       <c r="C29" t="n">
-        <v>0.119487</v>
+        <v>0.121812</v>
       </c>
       <c r="D29" t="n">
-        <v>0.159442</v>
+        <v>0.153023</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.138469</v>
+        <v>0.135614</v>
       </c>
       <c r="C30" t="n">
-        <v>0.123697</v>
+        <v>0.126934</v>
       </c>
       <c r="D30" t="n">
-        <v>0.160366</v>
+        <v>0.156826</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.139544</v>
+        <v>0.13915</v>
       </c>
       <c r="C31" t="n">
-        <v>0.126201</v>
+        <v>0.125811</v>
       </c>
       <c r="D31" t="n">
-        <v>0.158938</v>
+        <v>0.155211</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.139522</v>
+        <v>0.140843</v>
       </c>
       <c r="C32" t="n">
-        <v>0.125813</v>
+        <v>0.123853</v>
       </c>
       <c r="D32" t="n">
-        <v>0.158908</v>
+        <v>0.157921</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137351</v>
+        <v>0.144487</v>
       </c>
       <c r="C33" t="n">
-        <v>0.131156</v>
+        <v>0.127361</v>
       </c>
       <c r="D33" t="n">
-        <v>0.161974</v>
+        <v>0.16155</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.144835</v>
+        <v>0.138803</v>
       </c>
       <c r="C34" t="n">
-        <v>0.127663</v>
+        <v>0.125386</v>
       </c>
       <c r="D34" t="n">
-        <v>0.15851</v>
+        <v>0.161476</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.143863</v>
+        <v>0.140484</v>
       </c>
       <c r="C35" t="n">
-        <v>0.130919</v>
+        <v>0.129314</v>
       </c>
       <c r="D35" t="n">
-        <v>0.168157</v>
+        <v>0.159901</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.149374</v>
+        <v>0.141325</v>
       </c>
       <c r="C36" t="n">
-        <v>0.138444</v>
+        <v>0.133093</v>
       </c>
       <c r="D36" t="n">
-        <v>0.175744</v>
+        <v>0.164963</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.146992</v>
+        <v>0.147679</v>
       </c>
       <c r="C37" t="n">
-        <v>0.125258</v>
+        <v>0.129255</v>
       </c>
       <c r="D37" t="n">
-        <v>0.174823</v>
+        <v>0.169331</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.16509</v>
+        <v>0.164433</v>
       </c>
       <c r="C38" t="n">
-        <v>0.129218</v>
+        <v>0.125563</v>
       </c>
       <c r="D38" t="n">
-        <v>0.172213</v>
+        <v>0.172316</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.167119</v>
+        <v>0.169736</v>
       </c>
       <c r="C39" t="n">
-        <v>0.129358</v>
+        <v>0.128356</v>
       </c>
       <c r="D39" t="n">
-        <v>0.166624</v>
+        <v>0.180896</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.168014</v>
+        <v>0.16812</v>
       </c>
       <c r="C40" t="n">
-        <v>0.133291</v>
+        <v>0.132427</v>
       </c>
       <c r="D40" t="n">
-        <v>0.16964</v>
+        <v>0.171463</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.167457</v>
+        <v>0.169106</v>
       </c>
       <c r="C41" t="n">
-        <v>0.132518</v>
+        <v>0.129339</v>
       </c>
       <c r="D41" t="n">
-        <v>0.180805</v>
+        <v>0.176055</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.169786</v>
+        <v>0.173379</v>
       </c>
       <c r="C42" t="n">
-        <v>0.130368</v>
+        <v>0.133966</v>
       </c>
       <c r="D42" t="n">
-        <v>0.176812</v>
+        <v>0.176331</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.163196</v>
+        <v>0.164072</v>
       </c>
       <c r="C43" t="n">
-        <v>0.130993</v>
+        <v>0.132778</v>
       </c>
       <c r="D43" t="n">
-        <v>0.177596</v>
+        <v>0.178672</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.165614</v>
+        <v>0.169237</v>
       </c>
       <c r="C44" t="n">
-        <v>0.131182</v>
+        <v>0.134724</v>
       </c>
       <c r="D44" t="n">
-        <v>0.183953</v>
+        <v>0.178116</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.170134</v>
+        <v>0.170193</v>
       </c>
       <c r="C45" t="n">
-        <v>0.128506</v>
+        <v>0.129584</v>
       </c>
       <c r="D45" t="n">
-        <v>0.176111</v>
+        <v>0.178808</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.160647</v>
+        <v>0.166404</v>
       </c>
       <c r="C46" t="n">
-        <v>0.132604</v>
+        <v>0.133575</v>
       </c>
       <c r="D46" t="n">
-        <v>0.177107</v>
+        <v>0.183945</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.169627</v>
+        <v>0.175068</v>
       </c>
       <c r="C47" t="n">
-        <v>0.136116</v>
+        <v>0.135581</v>
       </c>
       <c r="D47" t="n">
-        <v>0.179076</v>
+        <v>0.18664</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.168037</v>
+        <v>0.163269</v>
       </c>
       <c r="C48" t="n">
-        <v>0.134213</v>
+        <v>0.133646</v>
       </c>
       <c r="D48" t="n">
-        <v>0.179839</v>
+        <v>0.181312</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.165585</v>
+        <v>0.168788</v>
       </c>
       <c r="C49" t="n">
-        <v>0.139406</v>
+        <v>0.141654</v>
       </c>
       <c r="D49" t="n">
-        <v>0.183905</v>
+        <v>0.17996</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.170743</v>
+        <v>0.169768</v>
       </c>
       <c r="C50" t="n">
-        <v>0.144672</v>
+        <v>0.14662</v>
       </c>
       <c r="D50" t="n">
-        <v>0.189204</v>
+        <v>0.189209</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173123</v>
+        <v>0.172246</v>
       </c>
       <c r="C51" t="n">
-        <v>0.206421</v>
+        <v>0.210859</v>
       </c>
       <c r="D51" t="n">
-        <v>0.254212</v>
+        <v>0.250059</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.18326</v>
+        <v>0.178012</v>
       </c>
       <c r="C52" t="n">
-        <v>0.207845</v>
+        <v>0.20595</v>
       </c>
       <c r="D52" t="n">
-        <v>0.247053</v>
+        <v>0.249502</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.257308</v>
+        <v>0.26595</v>
       </c>
       <c r="C53" t="n">
-        <v>0.204151</v>
+        <v>0.207143</v>
       </c>
       <c r="D53" t="n">
-        <v>0.246469</v>
+        <v>0.249705</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.263121</v>
+        <v>0.260974</v>
       </c>
       <c r="C54" t="n">
-        <v>0.202559</v>
+        <v>0.205837</v>
       </c>
       <c r="D54" t="n">
-        <v>0.249056</v>
+        <v>0.256278</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.261312</v>
+        <v>0.259215</v>
       </c>
       <c r="C55" t="n">
-        <v>0.206896</v>
+        <v>0.202758</v>
       </c>
       <c r="D55" t="n">
-        <v>0.248406</v>
+        <v>0.244583</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.261206</v>
+        <v>0.256885</v>
       </c>
       <c r="C56" t="n">
-        <v>0.202203</v>
+        <v>0.209083</v>
       </c>
       <c r="D56" t="n">
-        <v>0.254396</v>
+        <v>0.254818</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.253604</v>
+        <v>0.26939</v>
       </c>
       <c r="C57" t="n">
-        <v>0.204077</v>
+        <v>0.215063</v>
       </c>
       <c r="D57" t="n">
-        <v>0.252911</v>
+        <v>0.248304</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.258353</v>
+        <v>0.254698</v>
       </c>
       <c r="C58" t="n">
-        <v>0.210254</v>
+        <v>0.21128</v>
       </c>
       <c r="D58" t="n">
-        <v>0.24673</v>
+        <v>0.254304</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.256813</v>
+        <v>0.258942</v>
       </c>
       <c r="C59" t="n">
-        <v>0.211382</v>
+        <v>0.209397</v>
       </c>
       <c r="D59" t="n">
-        <v>0.257532</v>
+        <v>0.25225</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.264905</v>
+        <v>0.266051</v>
       </c>
       <c r="C60" t="n">
-        <v>0.205419</v>
+        <v>0.209607</v>
       </c>
       <c r="D60" t="n">
-        <v>0.262112</v>
+        <v>0.260671</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.26008</v>
+        <v>0.263608</v>
       </c>
       <c r="C61" t="n">
-        <v>0.218518</v>
+        <v>0.209281</v>
       </c>
       <c r="D61" t="n">
-        <v>0.258963</v>
+        <v>0.251785</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.258892</v>
+        <v>0.2591</v>
       </c>
       <c r="C62" t="n">
-        <v>0.212706</v>
+        <v>0.21207</v>
       </c>
       <c r="D62" t="n">
-        <v>0.256849</v>
+        <v>0.253068</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.254408</v>
+        <v>0.258715</v>
       </c>
       <c r="C63" t="n">
-        <v>0.216099</v>
+        <v>0.21552</v>
       </c>
       <c r="D63" t="n">
-        <v>0.259401</v>
+        <v>0.263635</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.264511</v>
+        <v>0.263379</v>
       </c>
       <c r="C64" t="n">
-        <v>0.227653</v>
+        <v>0.219548</v>
       </c>
       <c r="D64" t="n">
-        <v>0.259371</v>
+        <v>0.260575</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.274599</v>
+        <v>0.262519</v>
       </c>
       <c r="C65" t="n">
-        <v>0.224768</v>
+        <v>0.22563</v>
       </c>
       <c r="D65" t="n">
-        <v>0.266996</v>
+        <v>0.271499</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.269796</v>
+        <v>0.270639</v>
       </c>
       <c r="C66" t="n">
-        <v>0.290618</v>
+        <v>0.298937</v>
       </c>
       <c r="D66" t="n">
-        <v>0.35721</v>
+        <v>0.33278</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.419218</v>
+        <v>0.403407</v>
       </c>
       <c r="C67" t="n">
-        <v>0.303206</v>
+        <v>0.30338</v>
       </c>
       <c r="D67" t="n">
-        <v>0.347631</v>
+        <v>0.358562</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.412682</v>
+        <v>0.416302</v>
       </c>
       <c r="C68" t="n">
-        <v>0.297378</v>
+        <v>0.295638</v>
       </c>
       <c r="D68" t="n">
-        <v>0.353594</v>
+        <v>0.354834</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.397041</v>
+        <v>0.421542</v>
       </c>
       <c r="C69" t="n">
-        <v>0.307913</v>
+        <v>0.30442</v>
       </c>
       <c r="D69" t="n">
-        <v>0.352826</v>
+        <v>0.357264</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.412714</v>
+        <v>0.414526</v>
       </c>
       <c r="C70" t="n">
-        <v>0.309307</v>
+        <v>0.302648</v>
       </c>
       <c r="D70" t="n">
-        <v>0.359347</v>
+        <v>0.358371</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.421316</v>
+        <v>0.409989</v>
       </c>
       <c r="C71" t="n">
-        <v>0.311181</v>
+        <v>0.299849</v>
       </c>
       <c r="D71" t="n">
-        <v>0.34665</v>
+        <v>0.350808</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.424092</v>
+        <v>0.403732</v>
       </c>
       <c r="C72" t="n">
-        <v>0.313077</v>
+        <v>0.305007</v>
       </c>
       <c r="D72" t="n">
-        <v>0.35549</v>
+        <v>0.350478</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.417922</v>
+        <v>0.40668</v>
       </c>
       <c r="C73" t="n">
-        <v>0.297964</v>
+        <v>0.302702</v>
       </c>
       <c r="D73" t="n">
-        <v>0.349742</v>
+        <v>0.35148</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.416818</v>
+        <v>0.405482</v>
       </c>
       <c r="C74" t="n">
-        <v>0.302365</v>
+        <v>0.304981</v>
       </c>
       <c r="D74" t="n">
-        <v>0.368663</v>
+        <v>0.360005</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.410263</v>
+        <v>0.415098</v>
       </c>
       <c r="C75" t="n">
-        <v>0.306742</v>
+        <v>0.309225</v>
       </c>
       <c r="D75" t="n">
-        <v>0.357831</v>
+        <v>0.380766</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.409572</v>
+        <v>0.411912</v>
       </c>
       <c r="C76" t="n">
-        <v>0.302779</v>
+        <v>0.308677</v>
       </c>
       <c r="D76" t="n">
-        <v>0.353497</v>
+        <v>0.36758</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.416363</v>
+        <v>0.421293</v>
       </c>
       <c r="C77" t="n">
-        <v>0.307593</v>
+        <v>0.307841</v>
       </c>
       <c r="D77" t="n">
-        <v>0.355377</v>
+        <v>0.355105</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.403515</v>
+        <v>0.420485</v>
       </c>
       <c r="C78" t="n">
-        <v>0.310054</v>
+        <v>0.317095</v>
       </c>
       <c r="D78" t="n">
-        <v>0.362874</v>
+        <v>0.383605</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.418284</v>
+        <v>0.416833</v>
       </c>
       <c r="C79" t="n">
-        <v>0.314747</v>
+        <v>0.314072</v>
       </c>
       <c r="D79" t="n">
-        <v>0.363056</v>
+        <v>0.375645</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.413465</v>
+        <v>0.425839</v>
       </c>
       <c r="C80" t="n">
-        <v>0.441099</v>
+        <v>0.433968</v>
       </c>
       <c r="D80" t="n">
-        <v>0.539867</v>
+        <v>0.549654</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.551297</v>
+        <v>0.556077</v>
       </c>
       <c r="C81" t="n">
-        <v>0.434291</v>
+        <v>0.434868</v>
       </c>
       <c r="D81" t="n">
-        <v>0.542778</v>
+        <v>0.54054</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.566146</v>
+        <v>0.565298</v>
       </c>
       <c r="C82" t="n">
-        <v>0.436543</v>
+        <v>0.43065</v>
       </c>
       <c r="D82" t="n">
-        <v>0.556231</v>
+        <v>0.5403</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.560295</v>
+        <v>0.552755</v>
       </c>
       <c r="C83" t="n">
-        <v>0.44509</v>
+        <v>0.439236</v>
       </c>
       <c r="D83" t="n">
-        <v>0.546574</v>
+        <v>0.539894</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5492590000000001</v>
+        <v>0.538787</v>
       </c>
       <c r="C84" t="n">
-        <v>0.427062</v>
+        <v>0.437804</v>
       </c>
       <c r="D84" t="n">
-        <v>0.551056</v>
+        <v>0.548153</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.543899</v>
+        <v>0.563299</v>
       </c>
       <c r="C85" t="n">
-        <v>0.431538</v>
+        <v>0.440093</v>
       </c>
       <c r="D85" t="n">
-        <v>0.569558</v>
+        <v>0.551404</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.550669</v>
+        <v>0.555582</v>
       </c>
       <c r="C86" t="n">
-        <v>0.434074</v>
+        <v>0.429336</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5484250000000001</v>
+        <v>0.540651</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.548742</v>
+        <v>0.565394</v>
       </c>
       <c r="C87" t="n">
-        <v>0.445707</v>
+        <v>0.446998</v>
       </c>
       <c r="D87" t="n">
-        <v>0.559949</v>
+        <v>0.551589</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.548683</v>
+        <v>0.558321</v>
       </c>
       <c r="C88" t="n">
-        <v>0.453258</v>
+        <v>0.448551</v>
       </c>
       <c r="D88" t="n">
-        <v>0.554857</v>
+        <v>0.562631</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.547045</v>
+        <v>0.550211</v>
       </c>
       <c r="C89" t="n">
-        <v>0.435627</v>
+        <v>0.441611</v>
       </c>
       <c r="D89" t="n">
-        <v>0.547782</v>
+        <v>0.550494</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.562524</v>
+        <v>0.571231</v>
       </c>
       <c r="C90" t="n">
-        <v>0.450744</v>
+        <v>0.445285</v>
       </c>
       <c r="D90" t="n">
-        <v>0.549752</v>
+        <v>0.559526</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.560272</v>
+        <v>0.563182</v>
       </c>
       <c r="C91" t="n">
-        <v>0.446237</v>
+        <v>0.450263</v>
       </c>
       <c r="D91" t="n">
-        <v>0.574113</v>
+        <v>0.554447</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5678569999999999</v>
+        <v>0.552937</v>
       </c>
       <c r="C92" t="n">
-        <v>0.457356</v>
+        <v>0.457845</v>
       </c>
       <c r="D92" t="n">
-        <v>0.556731</v>
+        <v>0.56678</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.563907</v>
+        <v>0.557782</v>
       </c>
       <c r="C93" t="n">
-        <v>0.460385</v>
+        <v>0.458886</v>
       </c>
       <c r="D93" t="n">
-        <v>0.57694</v>
+        <v>0.5744320000000001</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.548654</v>
+        <v>0.569013</v>
       </c>
       <c r="C94" t="n">
-        <v>0.551385</v>
+        <v>0.548411</v>
       </c>
       <c r="D94" t="n">
-        <v>0.694617</v>
+        <v>0.6732669999999999</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.639935</v>
+        <v>0.700705</v>
       </c>
       <c r="C95" t="n">
-        <v>0.520719</v>
+        <v>0.5498499999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6812009999999999</v>
+        <v>0.700738</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.636284</v>
+        <v>0.715383</v>
       </c>
       <c r="C96" t="n">
-        <v>0.562092</v>
+        <v>0.558341</v>
       </c>
       <c r="D96" t="n">
-        <v>0.693424</v>
+        <v>0.736356</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6474529999999999</v>
+        <v>0.695752</v>
       </c>
       <c r="C97" t="n">
-        <v>0.523611</v>
+        <v>0.5513130000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.69287</v>
+        <v>0.707773</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.6985130000000001</v>
+        <v>0.63672</v>
       </c>
       <c r="C98" t="n">
-        <v>0.54761</v>
+        <v>0.529162</v>
       </c>
       <c r="D98" t="n">
-        <v>0.706833</v>
+        <v>0.715744</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.643616</v>
+        <v>0.688495</v>
       </c>
       <c r="C99" t="n">
-        <v>0.527629</v>
+        <v>0.542069</v>
       </c>
       <c r="D99" t="n">
-        <v>0.668762</v>
+        <v>0.729817</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6501130000000001</v>
+        <v>0.702295</v>
       </c>
       <c r="C100" t="n">
-        <v>0.542998</v>
+        <v>0.555303</v>
       </c>
       <c r="D100" t="n">
-        <v>0.683204</v>
+        <v>0.718509</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.667291</v>
+        <v>0.71873</v>
       </c>
       <c r="C101" t="n">
-        <v>0.524769</v>
+        <v>0.554515</v>
       </c>
       <c r="D101" t="n">
-        <v>0.684281</v>
+        <v>0.707106</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.655312</v>
+        <v>0.709741</v>
       </c>
       <c r="C102" t="n">
-        <v>0.551323</v>
+        <v>0.562206</v>
       </c>
       <c r="D102" t="n">
-        <v>0.717336</v>
+        <v>0.733407</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.645057</v>
+        <v>0.64249</v>
       </c>
       <c r="C103" t="n">
-        <v>0.548422</v>
+        <v>0.569555</v>
       </c>
       <c r="D103" t="n">
-        <v>0.717176</v>
+        <v>0.7232229999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.648541</v>
+        <v>0.699787</v>
       </c>
       <c r="C104" t="n">
-        <v>0.55716</v>
+        <v>0.5758760000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.724545</v>
+        <v>0.721848</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.678916</v>
+        <v>0.697495</v>
       </c>
       <c r="C105" t="n">
-        <v>0.574538</v>
+        <v>0.553697</v>
       </c>
       <c r="D105" t="n">
-        <v>0.694967</v>
+        <v>0.678779</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.661785</v>
+        <v>0.724655</v>
       </c>
       <c r="C106" t="n">
-        <v>0.537429</v>
+        <v>0.5722930000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.711572</v>
+        <v>0.738789</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.65827</v>
+        <v>0.718201</v>
       </c>
       <c r="C107" t="n">
-        <v>0.557372</v>
+        <v>0.571973</v>
       </c>
       <c r="D107" t="n">
-        <v>0.698473</v>
+        <v>0.737635</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.704217</v>
+        <v>0.710349</v>
       </c>
       <c r="C108" t="n">
-        <v>0.617827</v>
+        <v>0.608378</v>
       </c>
       <c r="D108" t="n">
-        <v>0.806343</v>
+        <v>0.870208</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.661229</v>
+        <v>0.677814</v>
       </c>
       <c r="C109" t="n">
-        <v>0.610975</v>
+        <v>0.620539</v>
       </c>
       <c r="D109" t="n">
-        <v>0.871567</v>
+        <v>0.872965</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.906608</v>
+        <v>0.791957</v>
       </c>
       <c r="C110" t="n">
-        <v>0.671133</v>
+        <v>0.625434</v>
       </c>
       <c r="D110" t="n">
-        <v>0.797932</v>
+        <v>0.804126</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.8658</v>
+        <v>0.7965140000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.613877</v>
+        <v>0.643607</v>
       </c>
       <c r="D111" t="n">
-        <v>0.861461</v>
+        <v>0.860934</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.782531</v>
+        <v>0.807237</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6375459999999999</v>
+        <v>0.642535</v>
       </c>
       <c r="D112" t="n">
-        <v>0.801847</v>
+        <v>0.839377</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.787415</v>
+        <v>0.791691</v>
       </c>
       <c r="C113" t="n">
-        <v>0.61251</v>
+        <v>0.622634</v>
       </c>
       <c r="D113" t="n">
-        <v>0.798747</v>
+        <v>0.835819</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.803033</v>
+        <v>0.805729</v>
       </c>
       <c r="C114" t="n">
-        <v>0.640167</v>
+        <v>0.683388</v>
       </c>
       <c r="D114" t="n">
-        <v>0.817905</v>
+        <v>0.863255</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.783239</v>
+        <v>0.800847</v>
       </c>
       <c r="C115" t="n">
-        <v>0.650381</v>
+        <v>0.613841</v>
       </c>
       <c r="D115" t="n">
-        <v>0.869227</v>
+        <v>0.79836</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.809095</v>
+        <v>0.909033</v>
       </c>
       <c r="C116" t="n">
-        <v>0.620522</v>
+        <v>0.61899</v>
       </c>
       <c r="D116" t="n">
-        <v>0.829426</v>
+        <v>0.8668670000000001</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.791144</v>
+        <v>0.80222</v>
       </c>
       <c r="C117" t="n">
-        <v>0.642364</v>
+        <v>0.641196</v>
       </c>
       <c r="D117" t="n">
-        <v>0.809223</v>
+        <v>0.833439</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.815721</v>
+        <v>0.809331</v>
       </c>
       <c r="C118" t="n">
-        <v>0.6306310000000001</v>
+        <v>0.625077</v>
       </c>
       <c r="D118" t="n">
-        <v>0.8788859999999999</v>
+        <v>0.8017339999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.783837</v>
+        <v>0.820034</v>
       </c>
       <c r="C119" t="n">
-        <v>0.634393</v>
+        <v>0.638616</v>
       </c>
       <c r="D119" t="n">
-        <v>0.811024</v>
+        <v>0.902406</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.783158</v>
+        <v>0.791795</v>
       </c>
       <c r="C120" t="n">
-        <v>0.700973</v>
+        <v>0.651714</v>
       </c>
       <c r="D120" t="n">
-        <v>0.87883</v>
+        <v>0.831461</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.910276</v>
+        <v>0.916631</v>
       </c>
       <c r="C121" t="n">
-        <v>0.650854</v>
+        <v>0.704639</v>
       </c>
       <c r="D121" t="n">
-        <v>0.840213</v>
+        <v>0.873387</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.933088</v>
+        <v>0.933626</v>
       </c>
       <c r="C122" t="n">
-        <v>0.667529</v>
+        <v>0.725611</v>
       </c>
       <c r="D122" t="n">
-        <v>0.902185</v>
+        <v>0.841705</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.943876</v>
+        <v>0.833914</v>
       </c>
       <c r="C123" t="n">
-        <v>0.7335120000000001</v>
+        <v>0.807483</v>
       </c>
       <c r="D123" t="n">
-        <v>0.934928</v>
+        <v>0.999112</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.0331</v>
+        <v>1.08652</v>
       </c>
       <c r="C124" t="n">
-        <v>0.761114</v>
+        <v>0.781501</v>
       </c>
       <c r="D124" t="n">
-        <v>0.916587</v>
+        <v>0.977482</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.06781</v>
+        <v>1.05968</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8626819999999999</v>
+        <v>0.770915</v>
       </c>
       <c r="D125" t="n">
-        <v>0.988835</v>
+        <v>0.993805</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.0481</v>
+        <v>1.10908</v>
       </c>
       <c r="C126" t="n">
-        <v>0.742632</v>
+        <v>0.77788</v>
       </c>
       <c r="D126" t="n">
-        <v>0.949253</v>
+        <v>1.13631</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.04118</v>
+        <v>1.05116</v>
       </c>
       <c r="C127" t="n">
-        <v>0.809078</v>
+        <v>0.772304</v>
       </c>
       <c r="D127" t="n">
-        <v>0.943437</v>
+        <v>0.975515</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.01733</v>
+        <v>1.09612</v>
       </c>
       <c r="C128" t="n">
-        <v>0.758718</v>
+        <v>0.88844</v>
       </c>
       <c r="D128" t="n">
-        <v>0.94162</v>
+        <v>1.00076</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.03673</v>
+        <v>1.1375</v>
       </c>
       <c r="C129" t="n">
-        <v>0.7818079999999999</v>
+        <v>0.797092</v>
       </c>
       <c r="D129" t="n">
-        <v>0.944087</v>
+        <v>1.00887</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.04337</v>
+        <v>1.0603</v>
       </c>
       <c r="C130" t="n">
-        <v>0.750734</v>
+        <v>0.787591</v>
       </c>
       <c r="D130" t="n">
-        <v>0.956323</v>
+        <v>0.989702</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.05517</v>
+        <v>1.0713</v>
       </c>
       <c r="C131" t="n">
-        <v>0.766323</v>
+        <v>0.783259</v>
       </c>
       <c r="D131" t="n">
-        <v>0.932082</v>
+        <v>0.999555</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.05262</v>
+        <v>1.0674</v>
       </c>
       <c r="C132" t="n">
-        <v>0.763922</v>
+        <v>0.819173</v>
       </c>
       <c r="D132" t="n">
-        <v>0.949485</v>
+        <v>1.0328</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.05366</v>
+        <v>1.05572</v>
       </c>
       <c r="C133" t="n">
-        <v>0.761257</v>
+        <v>0.7900239999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.960328</v>
+        <v>1.0077</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.03405</v>
+        <v>1.07148</v>
       </c>
       <c r="C134" t="n">
-        <v>0.874237</v>
+        <v>0.791164</v>
       </c>
       <c r="D134" t="n">
-        <v>0.998346</v>
+        <v>1.02798</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.06224</v>
+        <v>1.10657</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7937419999999999</v>
+        <v>0.89325</v>
       </c>
       <c r="D135" t="n">
-        <v>0.977003</v>
+        <v>1.03558</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.05939</v>
+        <v>1.16124</v>
       </c>
       <c r="C136" t="n">
-        <v>0.78695</v>
+        <v>0.822005</v>
       </c>
       <c r="D136" t="n">
-        <v>0.989175</v>
+        <v>1.04558</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.06757</v>
+        <v>1.08983</v>
       </c>
       <c r="C137" t="n">
-        <v>0.968759</v>
+        <v>0.93654</v>
       </c>
       <c r="D137" t="n">
-        <v>1.15408</v>
+        <v>1.12661</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.3329</v>
+        <v>1.34901</v>
       </c>
       <c r="C138" t="n">
-        <v>0.968282</v>
+        <v>0.932042</v>
       </c>
       <c r="D138" t="n">
-        <v>1.15661</v>
+        <v>1.16107</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.3348</v>
+        <v>1.32358</v>
       </c>
       <c r="C139" t="n">
-        <v>0.966171</v>
+        <v>0.951828</v>
       </c>
       <c r="D139" t="n">
-        <v>1.16171</v>
+        <v>1.14383</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.33917</v>
+        <v>1.33131</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9518760000000001</v>
+        <v>0.942029</v>
       </c>
       <c r="D140" t="n">
-        <v>1.16636</v>
+        <v>1.14561</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.33635</v>
+        <v>1.321</v>
       </c>
       <c r="C141" t="n">
-        <v>0.971742</v>
+        <v>0.976093</v>
       </c>
       <c r="D141" t="n">
-        <v>1.18402</v>
+        <v>1.12554</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.35027</v>
+        <v>1.32493</v>
       </c>
       <c r="C142" t="n">
-        <v>0.957776</v>
+        <v>0.951669</v>
       </c>
       <c r="D142" t="n">
-        <v>1.18359</v>
+        <v>1.12101</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.45069</v>
+        <v>1.31467</v>
       </c>
       <c r="C143" t="n">
-        <v>0.960958</v>
+        <v>0.938473</v>
       </c>
       <c r="D143" t="n">
-        <v>1.16872</v>
+        <v>1.13266</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.120642</v>
+        <v>0.120313</v>
       </c>
       <c r="C2" t="n">
-        <v>0.112002</v>
+        <v>0.113757</v>
       </c>
       <c r="D2" t="n">
-        <v>0.14453</v>
+        <v>0.148675</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.12004</v>
+        <v>0.114962</v>
       </c>
       <c r="C3" t="n">
-        <v>0.113816</v>
+        <v>0.1169</v>
       </c>
       <c r="D3" t="n">
-        <v>0.147826</v>
+        <v>0.149507</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.120215</v>
+        <v>0.122543</v>
       </c>
       <c r="C4" t="n">
-        <v>0.114378</v>
+        <v>0.115023</v>
       </c>
       <c r="D4" t="n">
-        <v>0.145713</v>
+        <v>0.156266</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.11851</v>
+        <v>0.121</v>
       </c>
       <c r="C5" t="n">
-        <v>0.112459</v>
+        <v>0.111009</v>
       </c>
       <c r="D5" t="n">
-        <v>0.148549</v>
+        <v>0.159697</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.123962</v>
+        <v>0.124789</v>
       </c>
       <c r="C6" t="n">
-        <v>0.115579</v>
+        <v>0.120987</v>
       </c>
       <c r="D6" t="n">
-        <v>0.149172</v>
+        <v>0.166377</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.118046</v>
+        <v>0.122473</v>
       </c>
       <c r="C7" t="n">
-        <v>0.114679</v>
+        <v>0.122847</v>
       </c>
       <c r="D7" t="n">
-        <v>0.153278</v>
+        <v>0.143979</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.124079</v>
+        <v>0.125204</v>
       </c>
       <c r="C8" t="n">
-        <v>0.129726</v>
+        <v>0.126631</v>
       </c>
       <c r="D8" t="n">
-        <v>0.16356</v>
+        <v>0.143126</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.127164</v>
+        <v>0.12236</v>
       </c>
       <c r="C9" t="n">
-        <v>0.116811</v>
+        <v>0.114411</v>
       </c>
       <c r="D9" t="n">
-        <v>0.145671</v>
+        <v>0.149672</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.130921</v>
+        <v>0.130942</v>
       </c>
       <c r="C10" t="n">
-        <v>0.115441</v>
+        <v>0.120412</v>
       </c>
       <c r="D10" t="n">
-        <v>0.150288</v>
+        <v>0.15766</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.137204</v>
+        <v>0.135535</v>
       </c>
       <c r="C11" t="n">
-        <v>0.119657</v>
+        <v>0.117442</v>
       </c>
       <c r="D11" t="n">
-        <v>0.142691</v>
+        <v>0.155064</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.133324</v>
+        <v>0.135477</v>
       </c>
       <c r="C12" t="n">
-        <v>0.118396</v>
+        <v>0.119194</v>
       </c>
       <c r="D12" t="n">
-        <v>0.153309</v>
+        <v>0.15351</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.131754</v>
+        <v>0.134286</v>
       </c>
       <c r="C13" t="n">
-        <v>0.114423</v>
+        <v>0.116497</v>
       </c>
       <c r="D13" t="n">
-        <v>0.14565</v>
+        <v>0.153848</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.133477</v>
+        <v>0.127837</v>
       </c>
       <c r="C14" t="n">
-        <v>0.116838</v>
+        <v>0.114804</v>
       </c>
       <c r="D14" t="n">
-        <v>0.153365</v>
+        <v>0.163988</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.12989</v>
+        <v>0.132832</v>
       </c>
       <c r="C15" t="n">
-        <v>0.115675</v>
+        <v>0.116675</v>
       </c>
       <c r="D15" t="n">
-        <v>0.14705</v>
+        <v>0.163713</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.129492</v>
+        <v>0.131124</v>
       </c>
       <c r="C16" t="n">
-        <v>0.12068</v>
+        <v>0.115528</v>
       </c>
       <c r="D16" t="n">
-        <v>0.151568</v>
+        <v>0.170617</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.130095</v>
+        <v>0.129088</v>
       </c>
       <c r="C17" t="n">
-        <v>0.117424</v>
+        <v>0.117067</v>
       </c>
       <c r="D17" t="n">
-        <v>0.148147</v>
+        <v>0.175116</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.128247</v>
+        <v>0.129708</v>
       </c>
       <c r="C18" t="n">
-        <v>0.116544</v>
+        <v>0.11837</v>
       </c>
       <c r="D18" t="n">
-        <v>0.149336</v>
+        <v>0.173461</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.131645</v>
+        <v>0.132733</v>
       </c>
       <c r="C19" t="n">
-        <v>0.119288</v>
+        <v>0.120492</v>
       </c>
       <c r="D19" t="n">
-        <v>0.150379</v>
+        <v>0.184346</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.128645</v>
+        <v>0.132146</v>
       </c>
       <c r="C20" t="n">
-        <v>0.118912</v>
+        <v>0.12139</v>
       </c>
       <c r="D20" t="n">
-        <v>0.151587</v>
+        <v>0.182502</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.132981</v>
+        <v>0.130937</v>
       </c>
       <c r="C21" t="n">
-        <v>0.123226</v>
+        <v>0.124899</v>
       </c>
       <c r="D21" t="n">
-        <v>0.157774</v>
+        <v>0.147423</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.132545</v>
+        <v>0.139742</v>
       </c>
       <c r="C22" t="n">
-        <v>0.128091</v>
+        <v>0.13027</v>
       </c>
       <c r="D22" t="n">
-        <v>0.165774</v>
+        <v>0.14945</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.136311</v>
+        <v>0.136355</v>
       </c>
       <c r="C23" t="n">
-        <v>0.117696</v>
+        <v>0.119534</v>
       </c>
       <c r="D23" t="n">
-        <v>0.152752</v>
+        <v>0.153956</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.139031</v>
+        <v>0.141109</v>
       </c>
       <c r="C24" t="n">
-        <v>0.121827</v>
+        <v>0.120735</v>
       </c>
       <c r="D24" t="n">
-        <v>0.153072</v>
+        <v>0.158221</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.141379</v>
+        <v>0.141146</v>
       </c>
       <c r="C25" t="n">
-        <v>0.119028</v>
+        <v>0.119818</v>
       </c>
       <c r="D25" t="n">
-        <v>0.14973</v>
+        <v>0.15654</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.139025</v>
+        <v>0.138261</v>
       </c>
       <c r="C26" t="n">
-        <v>0.118597</v>
+        <v>0.121054</v>
       </c>
       <c r="D26" t="n">
-        <v>0.153667</v>
+        <v>0.161387</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.144352</v>
+        <v>0.139254</v>
       </c>
       <c r="C27" t="n">
-        <v>0.119888</v>
+        <v>0.119974</v>
       </c>
       <c r="D27" t="n">
-        <v>0.153412</v>
+        <v>0.16312</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.145369</v>
+        <v>0.140324</v>
       </c>
       <c r="C28" t="n">
-        <v>0.121686</v>
+        <v>0.123544</v>
       </c>
       <c r="D28" t="n">
-        <v>0.154925</v>
+        <v>0.167171</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.141174</v>
+        <v>0.144212</v>
       </c>
       <c r="C29" t="n">
-        <v>0.121812</v>
+        <v>0.125452</v>
       </c>
       <c r="D29" t="n">
-        <v>0.153023</v>
+        <v>0.170043</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.135614</v>
+        <v>0.141122</v>
       </c>
       <c r="C30" t="n">
-        <v>0.126934</v>
+        <v>0.121585</v>
       </c>
       <c r="D30" t="n">
-        <v>0.156826</v>
+        <v>0.174584</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.13915</v>
+        <v>0.142681</v>
       </c>
       <c r="C31" t="n">
-        <v>0.125811</v>
+        <v>0.127967</v>
       </c>
       <c r="D31" t="n">
-        <v>0.155211</v>
+        <v>0.182633</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.140843</v>
+        <v>0.145922</v>
       </c>
       <c r="C32" t="n">
-        <v>0.123853</v>
+        <v>0.12652</v>
       </c>
       <c r="D32" t="n">
-        <v>0.157921</v>
+        <v>0.185642</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.144487</v>
+        <v>0.140277</v>
       </c>
       <c r="C33" t="n">
-        <v>0.127361</v>
+        <v>0.126476</v>
       </c>
       <c r="D33" t="n">
-        <v>0.16155</v>
+        <v>0.186056</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138803</v>
+        <v>0.142197</v>
       </c>
       <c r="C34" t="n">
-        <v>0.125386</v>
+        <v>0.13135</v>
       </c>
       <c r="D34" t="n">
-        <v>0.161476</v>
+        <v>0.189564</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.140484</v>
+        <v>0.145062</v>
       </c>
       <c r="C35" t="n">
-        <v>0.129314</v>
+        <v>0.133104</v>
       </c>
       <c r="D35" t="n">
-        <v>0.159901</v>
+        <v>0.156714</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.141325</v>
+        <v>0.143519</v>
       </c>
       <c r="C36" t="n">
-        <v>0.133093</v>
+        <v>0.139114</v>
       </c>
       <c r="D36" t="n">
-        <v>0.164963</v>
+        <v>0.162835</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.147679</v>
+        <v>0.151205</v>
       </c>
       <c r="C37" t="n">
-        <v>0.129255</v>
+        <v>0.13227</v>
       </c>
       <c r="D37" t="n">
-        <v>0.169331</v>
+        <v>0.169959</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.164433</v>
+        <v>0.171184</v>
       </c>
       <c r="C38" t="n">
-        <v>0.125563</v>
+        <v>0.129604</v>
       </c>
       <c r="D38" t="n">
-        <v>0.172316</v>
+        <v>0.171293</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.169736</v>
+        <v>0.164843</v>
       </c>
       <c r="C39" t="n">
-        <v>0.128356</v>
+        <v>0.128733</v>
       </c>
       <c r="D39" t="n">
-        <v>0.180896</v>
+        <v>0.178106</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.16812</v>
+        <v>0.167948</v>
       </c>
       <c r="C40" t="n">
-        <v>0.132427</v>
+        <v>0.126537</v>
       </c>
       <c r="D40" t="n">
-        <v>0.171463</v>
+        <v>0.182671</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.169106</v>
+        <v>0.165376</v>
       </c>
       <c r="C41" t="n">
-        <v>0.129339</v>
+        <v>0.130014</v>
       </c>
       <c r="D41" t="n">
-        <v>0.176055</v>
+        <v>0.185444</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.173379</v>
+        <v>0.170773</v>
       </c>
       <c r="C42" t="n">
-        <v>0.133966</v>
+        <v>0.12953</v>
       </c>
       <c r="D42" t="n">
-        <v>0.176331</v>
+        <v>0.192803</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.164072</v>
+        <v>0.169536</v>
       </c>
       <c r="C43" t="n">
-        <v>0.132778</v>
+        <v>0.134052</v>
       </c>
       <c r="D43" t="n">
-        <v>0.178672</v>
+        <v>0.202647</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.169237</v>
+        <v>0.169408</v>
       </c>
       <c r="C44" t="n">
-        <v>0.134724</v>
+        <v>0.129619</v>
       </c>
       <c r="D44" t="n">
-        <v>0.178116</v>
+        <v>0.207811</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.170193</v>
+        <v>0.169969</v>
       </c>
       <c r="C45" t="n">
-        <v>0.129584</v>
+        <v>0.133307</v>
       </c>
       <c r="D45" t="n">
-        <v>0.178808</v>
+        <v>0.205938</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.166404</v>
+        <v>0.17032</v>
       </c>
       <c r="C46" t="n">
-        <v>0.133575</v>
+        <v>0.135602</v>
       </c>
       <c r="D46" t="n">
-        <v>0.183945</v>
+        <v>0.21578</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.175068</v>
+        <v>0.17171</v>
       </c>
       <c r="C47" t="n">
-        <v>0.135581</v>
+        <v>0.13796</v>
       </c>
       <c r="D47" t="n">
-        <v>0.18664</v>
+        <v>0.226069</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.163269</v>
+        <v>0.170159</v>
       </c>
       <c r="C48" t="n">
-        <v>0.133646</v>
+        <v>0.137744</v>
       </c>
       <c r="D48" t="n">
-        <v>0.181312</v>
+        <v>0.227043</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.168788</v>
+        <v>0.17065</v>
       </c>
       <c r="C49" t="n">
-        <v>0.141654</v>
+        <v>0.138362</v>
       </c>
       <c r="D49" t="n">
-        <v>0.17996</v>
+        <v>0.241656</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.169768</v>
+        <v>0.173781</v>
       </c>
       <c r="C50" t="n">
-        <v>0.14662</v>
+        <v>0.144298</v>
       </c>
       <c r="D50" t="n">
-        <v>0.189209</v>
+        <v>0.203384</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.172246</v>
+        <v>0.172547</v>
       </c>
       <c r="C51" t="n">
-        <v>0.210859</v>
+        <v>0.218585</v>
       </c>
       <c r="D51" t="n">
-        <v>0.250059</v>
+        <v>0.217569</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.178012</v>
+        <v>0.177621</v>
       </c>
       <c r="C52" t="n">
-        <v>0.20595</v>
+        <v>0.218794</v>
       </c>
       <c r="D52" t="n">
-        <v>0.249502</v>
+        <v>0.215133</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.26595</v>
+        <v>0.26369</v>
       </c>
       <c r="C53" t="n">
-        <v>0.207143</v>
+        <v>0.205846</v>
       </c>
       <c r="D53" t="n">
-        <v>0.249705</v>
+        <v>0.227265</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.260974</v>
+        <v>0.264667</v>
       </c>
       <c r="C54" t="n">
-        <v>0.205837</v>
+        <v>0.204999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.256278</v>
+        <v>0.224706</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.259215</v>
+        <v>0.26527</v>
       </c>
       <c r="C55" t="n">
-        <v>0.202758</v>
+        <v>0.207964</v>
       </c>
       <c r="D55" t="n">
-        <v>0.244583</v>
+        <v>0.236743</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.256885</v>
+        <v>0.260509</v>
       </c>
       <c r="C56" t="n">
-        <v>0.209083</v>
+        <v>0.207321</v>
       </c>
       <c r="D56" t="n">
-        <v>0.254818</v>
+        <v>0.240965</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.26939</v>
+        <v>0.259669</v>
       </c>
       <c r="C57" t="n">
-        <v>0.215063</v>
+        <v>0.217005</v>
       </c>
       <c r="D57" t="n">
-        <v>0.248304</v>
+        <v>0.250438</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.254698</v>
+        <v>0.258134</v>
       </c>
       <c r="C58" t="n">
-        <v>0.21128</v>
+        <v>0.207589</v>
       </c>
       <c r="D58" t="n">
-        <v>0.254304</v>
+        <v>0.258839</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.258942</v>
+        <v>0.257576</v>
       </c>
       <c r="C59" t="n">
-        <v>0.209397</v>
+        <v>0.21613</v>
       </c>
       <c r="D59" t="n">
-        <v>0.25225</v>
+        <v>0.265955</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.266051</v>
+        <v>0.258135</v>
       </c>
       <c r="C60" t="n">
-        <v>0.209607</v>
+        <v>0.214465</v>
       </c>
       <c r="D60" t="n">
-        <v>0.260671</v>
+        <v>0.271984</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.263608</v>
+        <v>0.275671</v>
       </c>
       <c r="C61" t="n">
-        <v>0.209281</v>
+        <v>0.218579</v>
       </c>
       <c r="D61" t="n">
-        <v>0.251785</v>
+        <v>0.300314</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.2591</v>
+        <v>0.270409</v>
       </c>
       <c r="C62" t="n">
-        <v>0.21207</v>
+        <v>0.222043</v>
       </c>
       <c r="D62" t="n">
-        <v>0.253068</v>
+        <v>0.297694</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.258715</v>
+        <v>0.278728</v>
       </c>
       <c r="C63" t="n">
-        <v>0.21552</v>
+        <v>0.220678</v>
       </c>
       <c r="D63" t="n">
-        <v>0.263635</v>
+        <v>0.320727</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.263379</v>
+        <v>0.274624</v>
       </c>
       <c r="C64" t="n">
-        <v>0.219548</v>
+        <v>0.222168</v>
       </c>
       <c r="D64" t="n">
-        <v>0.260575</v>
+        <v>0.295481</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.262519</v>
+        <v>0.282106</v>
       </c>
       <c r="C65" t="n">
-        <v>0.22563</v>
+        <v>0.22863</v>
       </c>
       <c r="D65" t="n">
-        <v>0.271499</v>
+        <v>0.299536</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.270639</v>
+        <v>0.27055</v>
       </c>
       <c r="C66" t="n">
-        <v>0.298937</v>
+        <v>0.299241</v>
       </c>
       <c r="D66" t="n">
-        <v>0.33278</v>
+        <v>0.312361</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.403407</v>
+        <v>0.425558</v>
       </c>
       <c r="C67" t="n">
-        <v>0.30338</v>
+        <v>0.313239</v>
       </c>
       <c r="D67" t="n">
-        <v>0.358562</v>
+        <v>0.318989</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.416302</v>
+        <v>0.416528</v>
       </c>
       <c r="C68" t="n">
-        <v>0.295638</v>
+        <v>0.310068</v>
       </c>
       <c r="D68" t="n">
-        <v>0.354834</v>
+        <v>0.335162</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.421542</v>
+        <v>0.410473</v>
       </c>
       <c r="C69" t="n">
-        <v>0.30442</v>
+        <v>0.331319</v>
       </c>
       <c r="D69" t="n">
-        <v>0.357264</v>
+        <v>0.345382</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.414526</v>
+        <v>0.4095</v>
       </c>
       <c r="C70" t="n">
-        <v>0.302648</v>
+        <v>0.310351</v>
       </c>
       <c r="D70" t="n">
-        <v>0.358371</v>
+        <v>0.366891</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.409989</v>
+        <v>0.445152</v>
       </c>
       <c r="C71" t="n">
-        <v>0.299849</v>
+        <v>0.315572</v>
       </c>
       <c r="D71" t="n">
-        <v>0.350808</v>
+        <v>0.376087</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.403732</v>
+        <v>0.407533</v>
       </c>
       <c r="C72" t="n">
-        <v>0.305007</v>
+        <v>0.323599</v>
       </c>
       <c r="D72" t="n">
-        <v>0.350478</v>
+        <v>0.376817</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.40668</v>
+        <v>0.432361</v>
       </c>
       <c r="C73" t="n">
-        <v>0.302702</v>
+        <v>0.328494</v>
       </c>
       <c r="D73" t="n">
-        <v>0.35148</v>
+        <v>0.399461</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.405482</v>
+        <v>0.423602</v>
       </c>
       <c r="C74" t="n">
-        <v>0.304981</v>
+        <v>0.319124</v>
       </c>
       <c r="D74" t="n">
-        <v>0.360005</v>
+        <v>0.406001</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.415098</v>
+        <v>0.416423</v>
       </c>
       <c r="C75" t="n">
-        <v>0.309225</v>
+        <v>0.332057</v>
       </c>
       <c r="D75" t="n">
-        <v>0.380766</v>
+        <v>0.421288</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.411912</v>
+        <v>0.429317</v>
       </c>
       <c r="C76" t="n">
-        <v>0.308677</v>
+        <v>0.314786</v>
       </c>
       <c r="D76" t="n">
-        <v>0.36758</v>
+        <v>0.443217</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.421293</v>
+        <v>0.423593</v>
       </c>
       <c r="C77" t="n">
-        <v>0.307841</v>
+        <v>0.328589</v>
       </c>
       <c r="D77" t="n">
-        <v>0.355105</v>
+        <v>0.463469</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.420485</v>
+        <v>0.429721</v>
       </c>
       <c r="C78" t="n">
-        <v>0.317095</v>
+        <v>0.33327</v>
       </c>
       <c r="D78" t="n">
-        <v>0.383605</v>
+        <v>0.449633</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.416833</v>
+        <v>0.43388</v>
       </c>
       <c r="C79" t="n">
-        <v>0.314072</v>
+        <v>0.343635</v>
       </c>
       <c r="D79" t="n">
-        <v>0.375645</v>
+        <v>0.458208</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.425839</v>
+        <v>0.445767</v>
       </c>
       <c r="C80" t="n">
-        <v>0.433968</v>
+        <v>0.43002</v>
       </c>
       <c r="D80" t="n">
-        <v>0.549654</v>
+        <v>0.458141</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.556077</v>
+        <v>0.559639</v>
       </c>
       <c r="C81" t="n">
-        <v>0.434868</v>
+        <v>0.454597</v>
       </c>
       <c r="D81" t="n">
-        <v>0.54054</v>
+        <v>0.477702</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.565298</v>
+        <v>0.569746</v>
       </c>
       <c r="C82" t="n">
-        <v>0.43065</v>
+        <v>0.452283</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5403</v>
+        <v>0.481659</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.552755</v>
+        <v>0.574384</v>
       </c>
       <c r="C83" t="n">
-        <v>0.439236</v>
+        <v>0.446057</v>
       </c>
       <c r="D83" t="n">
-        <v>0.539894</v>
+        <v>0.499678</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.538787</v>
+        <v>0.554176</v>
       </c>
       <c r="C84" t="n">
-        <v>0.437804</v>
+        <v>0.448702</v>
       </c>
       <c r="D84" t="n">
-        <v>0.548153</v>
+        <v>0.51203</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.563299</v>
+        <v>0.564018</v>
       </c>
       <c r="C85" t="n">
-        <v>0.440093</v>
+        <v>0.459892</v>
       </c>
       <c r="D85" t="n">
-        <v>0.551404</v>
+        <v>0.517845</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.555582</v>
+        <v>0.5676099999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.429336</v>
+        <v>0.463418</v>
       </c>
       <c r="D86" t="n">
-        <v>0.540651</v>
+        <v>0.535559</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.565394</v>
+        <v>0.568693</v>
       </c>
       <c r="C87" t="n">
-        <v>0.446998</v>
+        <v>0.440035</v>
       </c>
       <c r="D87" t="n">
-        <v>0.551589</v>
+        <v>0.5414</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.558321</v>
+        <v>0.560178</v>
       </c>
       <c r="C88" t="n">
-        <v>0.448551</v>
+        <v>0.459364</v>
       </c>
       <c r="D88" t="n">
-        <v>0.562631</v>
+        <v>0.567752</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.550211</v>
+        <v>0.559764</v>
       </c>
       <c r="C89" t="n">
-        <v>0.441611</v>
+        <v>0.447091</v>
       </c>
       <c r="D89" t="n">
-        <v>0.550494</v>
+        <v>0.584391</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.571231</v>
+        <v>0.582591</v>
       </c>
       <c r="C90" t="n">
-        <v>0.445285</v>
+        <v>0.458098</v>
       </c>
       <c r="D90" t="n">
-        <v>0.559526</v>
+        <v>0.595665</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.563182</v>
+        <v>0.569665</v>
       </c>
       <c r="C91" t="n">
-        <v>0.450263</v>
+        <v>0.474354</v>
       </c>
       <c r="D91" t="n">
-        <v>0.554447</v>
+        <v>0.616573</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.552937</v>
+        <v>0.564813</v>
       </c>
       <c r="C92" t="n">
-        <v>0.457845</v>
+        <v>0.458317</v>
       </c>
       <c r="D92" t="n">
-        <v>0.56678</v>
+        <v>0.555689</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.557782</v>
+        <v>0.57115</v>
       </c>
       <c r="C93" t="n">
-        <v>0.458886</v>
+        <v>0.455952</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5744320000000001</v>
+        <v>0.572697</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.569013</v>
+        <v>0.570894</v>
       </c>
       <c r="C94" t="n">
-        <v>0.548411</v>
+        <v>0.5396879999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6732669999999999</v>
+        <v>0.580693</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.700705</v>
+        <v>0.664849</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5498499999999999</v>
+        <v>0.520262</v>
       </c>
       <c r="D95" t="n">
-        <v>0.700738</v>
+        <v>0.59906</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.715383</v>
+        <v>0.658515</v>
       </c>
       <c r="C96" t="n">
-        <v>0.558341</v>
+        <v>0.528663</v>
       </c>
       <c r="D96" t="n">
-        <v>0.736356</v>
+        <v>0.622779</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.695752</v>
+        <v>0.669469</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5513130000000001</v>
+        <v>0.557261</v>
       </c>
       <c r="D97" t="n">
-        <v>0.707773</v>
+        <v>0.625183</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.63672</v>
+        <v>0.652828</v>
       </c>
       <c r="C98" t="n">
-        <v>0.529162</v>
+        <v>0.56296</v>
       </c>
       <c r="D98" t="n">
-        <v>0.715744</v>
+        <v>0.656934</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.688495</v>
+        <v>0.652819</v>
       </c>
       <c r="C99" t="n">
-        <v>0.542069</v>
+        <v>0.547315</v>
       </c>
       <c r="D99" t="n">
-        <v>0.729817</v>
+        <v>0.651181</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.702295</v>
+        <v>0.666109</v>
       </c>
       <c r="C100" t="n">
-        <v>0.555303</v>
+        <v>0.547395</v>
       </c>
       <c r="D100" t="n">
-        <v>0.718509</v>
+        <v>0.662629</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.71873</v>
+        <v>0.653329</v>
       </c>
       <c r="C101" t="n">
-        <v>0.554515</v>
+        <v>0.539208</v>
       </c>
       <c r="D101" t="n">
-        <v>0.707106</v>
+        <v>0.680612</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.709741</v>
+        <v>0.653837</v>
       </c>
       <c r="C102" t="n">
-        <v>0.562206</v>
+        <v>0.535379</v>
       </c>
       <c r="D102" t="n">
-        <v>0.733407</v>
+        <v>0.699728</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.64249</v>
+        <v>0.661282</v>
       </c>
       <c r="C103" t="n">
-        <v>0.569555</v>
+        <v>0.541886</v>
       </c>
       <c r="D103" t="n">
-        <v>0.7232229999999999</v>
+        <v>0.714429</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.699787</v>
+        <v>0.666561</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5758760000000001</v>
+        <v>0.535654</v>
       </c>
       <c r="D104" t="n">
-        <v>0.721848</v>
+        <v>0.723506</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.697495</v>
+        <v>0.68825</v>
       </c>
       <c r="C105" t="n">
-        <v>0.553697</v>
+        <v>0.54918</v>
       </c>
       <c r="D105" t="n">
-        <v>0.678779</v>
+        <v>0.750934</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.724655</v>
+        <v>0.677741</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5722930000000001</v>
+        <v>0.552022</v>
       </c>
       <c r="D106" t="n">
-        <v>0.738789</v>
+        <v>0.762727</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.718201</v>
+        <v>0.66992</v>
       </c>
       <c r="C107" t="n">
-        <v>0.571973</v>
+        <v>0.567472</v>
       </c>
       <c r="D107" t="n">
-        <v>0.737635</v>
+        <v>0.681731</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.710349</v>
+        <v>0.657979</v>
       </c>
       <c r="C108" t="n">
-        <v>0.608378</v>
+        <v>0.638828</v>
       </c>
       <c r="D108" t="n">
-        <v>0.870208</v>
+        <v>0.673376</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.677814</v>
+        <v>0.672028</v>
       </c>
       <c r="C109" t="n">
-        <v>0.620539</v>
+        <v>0.634346</v>
       </c>
       <c r="D109" t="n">
-        <v>0.872965</v>
+        <v>0.699157</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.791957</v>
+        <v>0.845396</v>
       </c>
       <c r="C110" t="n">
-        <v>0.625434</v>
+        <v>0.630172</v>
       </c>
       <c r="D110" t="n">
-        <v>0.804126</v>
+        <v>0.72707</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.7965140000000001</v>
+        <v>0.790353</v>
       </c>
       <c r="C111" t="n">
-        <v>0.643607</v>
+        <v>0.6019099999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.860934</v>
+        <v>0.737553</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.807237</v>
+        <v>0.764142</v>
       </c>
       <c r="C112" t="n">
-        <v>0.642535</v>
+        <v>0.596095</v>
       </c>
       <c r="D112" t="n">
-        <v>0.839377</v>
+        <v>0.734847</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.791691</v>
+        <v>0.776424</v>
       </c>
       <c r="C113" t="n">
-        <v>0.622634</v>
+        <v>0.6065430000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.835819</v>
+        <v>0.764068</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.805729</v>
+        <v>0.771794</v>
       </c>
       <c r="C114" t="n">
-        <v>0.683388</v>
+        <v>0.616499</v>
       </c>
       <c r="D114" t="n">
-        <v>0.863255</v>
+        <v>0.763364</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.800847</v>
+        <v>0.747754</v>
       </c>
       <c r="C115" t="n">
-        <v>0.613841</v>
+        <v>0.606335</v>
       </c>
       <c r="D115" t="n">
-        <v>0.79836</v>
+        <v>0.745661</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.909033</v>
+        <v>0.7599359999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>0.61899</v>
+        <v>0.60429</v>
       </c>
       <c r="D116" t="n">
-        <v>0.8668670000000001</v>
+        <v>0.767046</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.80222</v>
+        <v>0.787065</v>
       </c>
       <c r="C117" t="n">
-        <v>0.641196</v>
+        <v>0.6241139999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.833439</v>
+        <v>0.799302</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.809331</v>
+        <v>0.8111660000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>0.625077</v>
+        <v>0.610993</v>
       </c>
       <c r="D118" t="n">
-        <v>0.8017339999999999</v>
+        <v>0.796315</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.820034</v>
+        <v>0.7639590000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.638616</v>
+        <v>0.615864</v>
       </c>
       <c r="D119" t="n">
-        <v>0.902406</v>
+        <v>0.8104209999999999</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.791795</v>
+        <v>0.771108</v>
       </c>
       <c r="C120" t="n">
-        <v>0.651714</v>
+        <v>0.613263</v>
       </c>
       <c r="D120" t="n">
-        <v>0.831461</v>
+        <v>0.824653</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.916631</v>
+        <v>0.7812829999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>0.704639</v>
+        <v>0.628366</v>
       </c>
       <c r="D121" t="n">
-        <v>0.873387</v>
+        <v>0.716892</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.933626</v>
+        <v>0.7608510000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>0.725611</v>
+        <v>0.643837</v>
       </c>
       <c r="D122" t="n">
-        <v>0.841705</v>
+        <v>0.746759</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.833914</v>
+        <v>0.814499</v>
       </c>
       <c r="C123" t="n">
-        <v>0.807483</v>
+        <v>0.760772</v>
       </c>
       <c r="D123" t="n">
-        <v>0.999112</v>
+        <v>0.753294</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.08652</v>
+        <v>0.984</v>
       </c>
       <c r="C124" t="n">
-        <v>0.781501</v>
+        <v>0.710384</v>
       </c>
       <c r="D124" t="n">
-        <v>0.977482</v>
+        <v>0.769807</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.05968</v>
+        <v>0.997577</v>
       </c>
       <c r="C125" t="n">
-        <v>0.770915</v>
+        <v>0.7113660000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.993805</v>
+        <v>0.7748159999999999</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.10908</v>
+        <v>1.01216</v>
       </c>
       <c r="C126" t="n">
-        <v>0.77788</v>
+        <v>0.727441</v>
       </c>
       <c r="D126" t="n">
-        <v>1.13631</v>
+        <v>0.784755</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.05116</v>
+        <v>0.96704</v>
       </c>
       <c r="C127" t="n">
-        <v>0.772304</v>
+        <v>0.729617</v>
       </c>
       <c r="D127" t="n">
-        <v>0.975515</v>
+        <v>0.812414</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.09612</v>
+        <v>0.9573199999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>0.88844</v>
+        <v>0.708442</v>
       </c>
       <c r="D128" t="n">
-        <v>1.00076</v>
+        <v>0.818085</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.1375</v>
+        <v>1.00201</v>
       </c>
       <c r="C129" t="n">
-        <v>0.797092</v>
+        <v>0.855375</v>
       </c>
       <c r="D129" t="n">
-        <v>1.00887</v>
+        <v>0.876926</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.0603</v>
+        <v>0.954606</v>
       </c>
       <c r="C130" t="n">
-        <v>0.787591</v>
+        <v>0.708511</v>
       </c>
       <c r="D130" t="n">
-        <v>0.989702</v>
+        <v>0.85601</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.0713</v>
+        <v>0.984236</v>
       </c>
       <c r="C131" t="n">
-        <v>0.783259</v>
+        <v>0.73849</v>
       </c>
       <c r="D131" t="n">
-        <v>0.999555</v>
+        <v>0.868544</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.0674</v>
+        <v>0.9745549999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>0.819173</v>
+        <v>0.723554</v>
       </c>
       <c r="D132" t="n">
-        <v>1.0328</v>
+        <v>0.883212</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.05572</v>
+        <v>1.05828</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7900239999999999</v>
+        <v>0.773849</v>
       </c>
       <c r="D133" t="n">
-        <v>1.0077</v>
+        <v>0.952214</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.07148</v>
+        <v>1.02636</v>
       </c>
       <c r="C134" t="n">
-        <v>0.791164</v>
+        <v>0.803325</v>
       </c>
       <c r="D134" t="n">
-        <v>1.02798</v>
+        <v>0.974366</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.10657</v>
+        <v>1.04968</v>
       </c>
       <c r="C135" t="n">
-        <v>0.89325</v>
+        <v>0.771716</v>
       </c>
       <c r="D135" t="n">
-        <v>1.03558</v>
+        <v>0.842938</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.16124</v>
+        <v>1.05356</v>
       </c>
       <c r="C136" t="n">
-        <v>0.822005</v>
+        <v>0.810315</v>
       </c>
       <c r="D136" t="n">
-        <v>1.04558</v>
+        <v>0.878804</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.08983</v>
+        <v>1.06106</v>
       </c>
       <c r="C137" t="n">
-        <v>0.93654</v>
+        <v>0.939063</v>
       </c>
       <c r="D137" t="n">
-        <v>1.12661</v>
+        <v>0.882553</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.34901</v>
+        <v>1.32443</v>
       </c>
       <c r="C138" t="n">
-        <v>0.932042</v>
+        <v>0.9582889999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>1.16107</v>
+        <v>0.911629</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.32358</v>
+        <v>1.34487</v>
       </c>
       <c r="C139" t="n">
-        <v>0.951828</v>
+        <v>0.934711</v>
       </c>
       <c r="D139" t="n">
-        <v>1.14383</v>
+        <v>0.908699</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.33131</v>
+        <v>1.32257</v>
       </c>
       <c r="C140" t="n">
-        <v>0.942029</v>
+        <v>0.932373</v>
       </c>
       <c r="D140" t="n">
-        <v>1.14561</v>
+        <v>0.92831</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.321</v>
+        <v>1.32309</v>
       </c>
       <c r="C141" t="n">
-        <v>0.976093</v>
+        <v>0.950481</v>
       </c>
       <c r="D141" t="n">
-        <v>1.12554</v>
+        <v>0.9514629999999999</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.32493</v>
+        <v>1.31397</v>
       </c>
       <c r="C142" t="n">
-        <v>0.951669</v>
+        <v>0.9354980000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>1.12101</v>
+        <v>0.980347</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.31467</v>
+        <v>1.32306</v>
       </c>
       <c r="C143" t="n">
-        <v>0.938473</v>
+        <v>0.969021</v>
       </c>
       <c r="D143" t="n">
-        <v>1.13266</v>
+        <v>0.987385</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -552,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.019845</v>
+                  <v>0.0196861</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0198904</v>
+                  <v>0.0197442</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0199411</v>
+                  <v>0.0197441</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0199892</v>
+                  <v>0.0197505</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0201312</v>
+                  <v>0.0199072</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0202981</v>
+                  <v>0.020167</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0205168</v>
+                  <v>0.0201829</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0208663</v>
+                  <v>0.0205995</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0194247</v>
+                  <v>0.0193044</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0196249</v>
+                  <v>0.0194655</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0198597</v>
+                  <v>0.0196123</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.019879</v>
+                  <v>0.0198252</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0201309</v>
+                  <v>0.0198606</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201944</v>
+                  <v>0.0200329</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0204396</v>
+                  <v>0.0200361</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0204292</v>
+                  <v>0.020201</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0206016</v>
+                  <v>0.0201688</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0208694</v>
+                  <v>0.0204639</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0208716</v>
+                  <v>0.020687</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.021266</v>
+                  <v>0.0209861</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0221654</v>
+                  <v>0.0214982</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0254766</v>
+                  <v>0.0232463</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0204662</v>
+                  <v>0.0203659</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0205747</v>
+                  <v>0.0204979</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0207285</v>
+                  <v>0.0206548</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0208946</v>
+                  <v>0.0208464</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0211401</v>
+                  <v>0.0210504</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0213119</v>
+                  <v>0.0212226</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214143</v>
+                  <v>0.0216188</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0217806</v>
+                  <v>0.0218555</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0218731</v>
+                  <v>0.0220454</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0220813</v>
+                  <v>0.0221091</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.022994</v>
+                  <v>0.0229123</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0248609</v>
+                  <v>0.023554</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0303561</v>
+                  <v>0.025525</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0334795</v>
+                  <v>0.0295991</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0213853</v>
+                  <v>0.0226652</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0215081</v>
+                  <v>0.0226726</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0216916</v>
+                  <v>0.0230688</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0218279</v>
+                  <v>0.0220955</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0219942</v>
+                  <v>0.0221313</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0223725</v>
+                  <v>0.0224242</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0226982</v>
+                  <v>0.0226252</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0230858</v>
+                  <v>0.0229498</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0235639</v>
+                  <v>0.0233683</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0246222</v>
+                  <v>0.024254</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0261523</v>
+                  <v>0.0251133</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.028148</v>
+                  <v>0.0266522</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0310283</v>
+                  <v>0.029904</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0349552</v>
+                  <v>0.0329878</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0411047</v>
+                  <v>0.0389153</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0235334</v>
+                  <v>0.0231873</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233996</v>
+                  <v>0.0233782</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0240147</v>
+                  <v>0.0234553</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0237518</v>
+                  <v>0.0236761</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0243179</v>
+                  <v>0.0239042</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0246823</v>
+                  <v>0.0242977</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0250545</v>
+                  <v>0.0246093</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0256238</v>
+                  <v>0.0252684</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0266776</v>
+                  <v>0.0261573</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0281548</v>
+                  <v>0.027529</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0303362</v>
+                  <v>0.0293145</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0330569</v>
+                  <v>0.0323043</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0370665</v>
+                  <v>0.0357062</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0420454</v>
+                  <v>0.0407992</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0292569</v>
+                  <v>0.0291067</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0293821</v>
+                  <v>0.0292957</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0294515</v>
+                  <v>0.0294658</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0297582</v>
+                  <v>0.0296458</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0298101</v>
+                  <v>0.0298446</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302477</v>
+                  <v>0.0303077</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0307674</v>
+                  <v>0.0305738</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0314948</v>
+                  <v>0.0311089</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0322669</v>
+                  <v>0.031958</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0336498</v>
+                  <v>0.0331584</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0353674</v>
+                  <v>0.0348142</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0379218</v>
+                  <v>0.0371248</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0413547</v>
+                  <v>0.0406293</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.045947</v>
+                  <v>0.0455093</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0557759</v>
+                  <v>0.054876</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0559223</v>
+                  <v>0.0551749</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0561782</v>
+                  <v>0.0552561</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0562248</v>
+                  <v>0.0555251</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0564335</v>
+                  <v>0.0557353</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0568433</v>
+                  <v>0.0559444</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0571164</v>
+                  <v>0.056275</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0573685</v>
+                  <v>0.0565668</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0579423</v>
+                  <v>0.0570285</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0585424</v>
+                  <v>0.0577995</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0597217</v>
+                  <v>0.0587407</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0613516</v>
+                  <v>0.0605897</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0637716</v>
+                  <v>0.0631306</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0674956</v>
+                  <v>0.06695570000000001</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0857108</v>
+                  <v>0.09221509999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.085729</v>
+                  <v>0.0858753</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08582099999999999</v>
+                  <v>0.08594309999999999</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.085891</v>
+                  <v>0.0860457</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.08591310000000001</v>
+                  <v>0.0861672</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0952533</v>
+                  <v>0.0863088</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0900392</v>
+                  <v>0.0865691</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0865544</v>
+                  <v>0.0868321</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.08702120000000001</v>
+                  <v>0.08713460000000001</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.08758929999999999</v>
+                  <v>0.08769159999999999</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0884514</v>
+                  <v>0.0958198</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08982080000000001</v>
+                  <v>0.0898485</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0916886</v>
+                  <v>0.095514</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0949089</v>
+                  <v>0.09515</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.09997010000000001</v>
+                  <v>0.100163</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.107963</v>
+                  <v>0.1074</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.108243</v>
+                  <v>0.10739</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.108225</v>
+                  <v>0.107504</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.10822</v>
+                  <v>0.107377</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.108618</v>
+                  <v>0.114714</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.108608</v>
+                  <v>0.108009</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.109047</v>
+                  <v>0.108717</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.109454</v>
+                  <v>0.109426</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.110007</v>
+                  <v>0.110397</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.110855</v>
+                  <v>0.111361</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.112081</v>
+                  <v>0.112842</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.113914</v>
+                  <v>0.114762</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.116949</v>
+                  <v>0.117867</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.121459</v>
+                  <v>0.124715</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.134045</v>
+                  <v>0.139793</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.141735</v>
+                  <v>0.140249</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.14386</v>
+                  <v>0.139831</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.141993</v>
+                  <v>0.139692</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.141564</v>
+                  <v>0.139658</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.141767</v>
+                  <v>0.139443</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.142252</v>
+                  <v>0.139582</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.142466</v>
+                  <v>0.139867</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.143005</v>
+                  <v>0.14053</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.143627</v>
+                  <v>0.141002</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.144639</v>
+                  <v>0.142003</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.146121</v>
+                  <v>0.143615</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.148787</v>
+                  <v>0.145983</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.153145</v>
+                  <v>0.150084</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.160222</v>
+                  <v>0.158033</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.15805</v>
+                  <v>0.157812</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.158093</v>
+                  <v>0.157958</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.158066</v>
+                  <v>0.158179</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158317</v>
+                  <v>0.158157</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.158434</v>
+                  <v>0.158476</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1446,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0207816</v>
+                  <v>0.021348</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0208667</v>
+                  <v>0.0214877</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0208241</v>
+                  <v>0.0216247</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0207476</v>
+                  <v>0.0218795</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.020652</v>
+                  <v>0.0221566</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0209277</v>
+                  <v>0.0227802</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0208354</v>
+                  <v>0.0236896</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.021057</v>
+                  <v>0.0202692</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0207722</v>
+                  <v>0.0207092</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0211993</v>
+                  <v>0.0210303</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.021061</v>
+                  <v>0.0213025</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0212452</v>
+                  <v>0.0213527</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0215641</v>
+                  <v>0.0218472</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0219941</v>
+                  <v>0.0222591</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0221573</v>
+                  <v>0.0226628</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022048</v>
+                  <v>0.022977</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.022091</v>
+                  <v>0.0233228</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0223514</v>
+                  <v>0.0238671</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0224619</v>
+                  <v>0.0246036</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0226031</v>
+                  <v>0.0252305</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0229443</v>
+                  <v>0.0277472</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0236086</v>
+                  <v>0.0217618</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0218909</v>
+                  <v>0.0219587</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0220636</v>
+                  <v>0.0222026</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0222406</v>
+                  <v>0.0224898</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0225907</v>
+                  <v>0.0228074</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.022887</v>
+                  <v>0.0232103</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0230842</v>
+                  <v>0.0236661</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0234928</v>
+                  <v>0.0240376</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0237357</v>
+                  <v>0.0245248</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0239547</v>
+                  <v>0.0252023</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0241213</v>
+                  <v>0.0257564</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0246092</v>
+                  <v>0.0270565</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0256069</v>
+                  <v>0.0287934</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0258742</v>
+                  <v>0.0324096</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0314078</v>
+                  <v>0.0236684</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0231422</v>
+                  <v>0.0241302</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0232697</v>
+                  <v>0.0244332</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0236008</v>
+                  <v>0.0245736</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0239637</v>
+                  <v>0.0239295</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0241731</v>
+                  <v>0.0243207</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.024655</v>
+                  <v>0.0252591</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0250199</v>
+                  <v>0.0256591</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0254471</v>
+                  <v>0.0259074</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0257887</v>
+                  <v>0.0266036</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.026411</v>
+                  <v>0.027689</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0273266</v>
+                  <v>0.0291986</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0288305</v>
+                  <v>0.0317988</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0310001</v>
+                  <v>0.0360721</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0354398</v>
+                  <v>0.023394</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0403807</v>
+                  <v>0.0236044</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0246173</v>
+                  <v>0.023867</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0249205</v>
+                  <v>0.0241515</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0252809</v>
+                  <v>0.0244875</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0256266</v>
+                  <v>0.0249477</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0260148</v>
+                  <v>0.0253774</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0264257</v>
+                  <v>0.0259302</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0269137</v>
+                  <v>0.0265094</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0274746</v>
+                  <v>0.0274929</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0282353</v>
+                  <v>0.0286629</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0295079</v>
+                  <v>0.0303873</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0309257</v>
+                  <v>0.0330881</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0332921</v>
+                  <v>0.0367975</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0365299</v>
+                  <v>0.0428056</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0415142</v>
+                  <v>0.0248565</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0269617</v>
+                  <v>0.0254945</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0268134</v>
+                  <v>0.025829</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0271091</v>
+                  <v>0.0266013</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.028098</v>
+                  <v>0.0265404</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.028241</v>
+                  <v>0.0270211</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0283238</v>
+                  <v>0.027483</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0289933</v>
+                  <v>0.0281629</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0297943</v>
+                  <v>0.0291473</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0305728</v>
+                  <v>0.0302343</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0318959</v>
+                  <v>0.0321709</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0330477</v>
+                  <v>0.0346453</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0355949</v>
+                  <v>0.038211</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0380312</v>
+                  <v>0.0437751</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0422199</v>
+                  <v>0.0369618</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0358291</v>
+                  <v>0.0377666</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0366934</v>
+                  <v>0.0385693</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0371542</v>
+                  <v>0.0393414</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0385504</v>
+                  <v>0.0400166</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0397275</v>
+                  <v>0.0406419</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0406958</v>
+                  <v>0.0415556</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0420235</v>
+                  <v>0.0424017</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.043628</v>
+                  <v>0.0449697</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0448497</v>
+                  <v>0.0442997</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0467952</v>
+                  <v>0.0456659</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0485398</v>
+                  <v>0.047738</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.050625</v>
+                  <v>0.0505484</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0531723</v>
+                  <v>0.0549595</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0575467</v>
+                  <v>0.0715803</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0690796</v>
+                  <v>0.0719887</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0695586</v>
+                  <v>0.0723747</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.07006270000000001</v>
+                  <v>0.0728399</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0706492</v>
+                  <v>0.07350520000000001</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0712165</v>
+                  <v>0.0740489</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0719084</v>
+                  <v>0.0746351</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0726926</v>
+                  <v>0.0754398</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.073481</v>
+                  <v>0.07621650000000001</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0744592</v>
+                  <v>0.0796057</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0757119</v>
+                  <v>0.07860830000000001</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0771091</v>
+                  <v>0.0804361</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0789149</v>
+                  <v>0.0829439</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.08129740000000001</v>
+                  <v>0.08686770000000001</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.085034</v>
+                  <v>0.0889514</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0910459</v>
+                  <v>0.089729</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.08287219999999999</v>
+                  <v>0.0904097</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.08375249999999999</v>
+                  <v>0.0913191</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0846664</v>
+                  <v>0.0921503</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0856579</v>
+                  <v>0.0931935</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.08681120000000001</v>
+                  <v>0.09714059999999999</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.08786919999999999</v>
+                  <v>0.09524050000000001</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0892593</v>
+                  <v>0.096618</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0907998</v>
+                  <v>0.0979674</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0923614</v>
+                  <v>0.0996447</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0942355</v>
+                  <v>0.101745</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.096293</v>
+                  <v>0.104375</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0990901</v>
+                  <v>0.108312</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.102927</v>
+                  <v>0.114594</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.108871</v>
+                  <v>0.106984</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0958808</v>
+                  <v>0.119349</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.09704169999999999</v>
+                  <v>0.109142</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0989488</v>
+                  <v>0.110214</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.100162</v>
+                  <v>0.111475</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.101129</v>
+                  <v>0.112737</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.102743</v>
+                  <v>0.11413</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.10443</v>
+                  <v>0.115719</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.106431</v>
+                  <v>0.117336</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.108216</v>
+                  <v>0.119263</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.110255</v>
+                  <v>0.121651</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.112815</v>
+                  <v>0.124577</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.11575</v>
+                  <v>0.128814</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.119701</v>
+                  <v>0.13534</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.126693</v>
+                  <v>0.118414</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.108481</v>
+                  <v>0.119444</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.109886</v>
+                  <v>0.120531</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.111216</v>
+                  <v>0.121662</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.112687</v>
+                  <v>0.122894</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.114154</v>
+                  <v>0.12405</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.115713</v>
+                  <v>0.125504</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1880,7 +1880,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <v>boost::unordered_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0197621</v>
+                  <v>0.0336857</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0199124</v>
+                  <v>0.0394849</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0199636</v>
+                  <v>0.0423094</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0200411</v>
+                  <v>0.0461472</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0201853</v>
+                  <v>0.0507523</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0205493</v>
+                  <v>0.030305</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0212255</v>
+                  <v>0.0319421</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0196114</v>
+                  <v>0.0344693</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0196542</v>
+                  <v>0.0368055</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0197311</v>
+                  <v>0.0393418</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0200198</v>
+                  <v>0.0427875</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0202983</v>
+                  <v>0.0475742</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0206514</v>
+                  <v>0.0488059</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0208261</v>
+                  <v>0.0525665</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0213814</v>
+                  <v>0.0568101</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.021683</v>
+                  <v>0.0604767</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0218647</v>
+                  <v>0.0639252</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0217385</v>
+                  <v>0.0675722</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0221793</v>
+                  <v>0.0692373</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0234999</v>
+                  <v>0.0444481</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.025596</v>
+                  <v>0.0475408</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0208572</v>
+                  <v>0.0489493</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0211474</v>
+                  <v>0.0508013</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0213952</v>
+                  <v>0.0535126</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0216285</v>
+                  <v>0.0556632</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0219129</v>
+                  <v>0.0589148</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0221909</v>
+                  <v>0.0614351</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0226314</v>
+                  <v>0.06435200000000001</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.02287</v>
+                  <v>0.0664998</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0232938</v>
+                  <v>0.07017470000000001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0236459</v>
+                  <v>0.0725022</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0243776</v>
+                  <v>0.0762954</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0256094</v>
+                  <v>0.0772482</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0280099</v>
+                  <v>0.0518274</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0318825</v>
+                  <v>0.0539981</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0222322</v>
+                  <v>0.0569381</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0224761</v>
+                  <v>0.0590617</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0226406</v>
+                  <v>0.0616864</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0229219</v>
+                  <v>0.0607154</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0232372</v>
+                  <v>0.06472219999999999</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0235604</v>
+                  <v>0.0669053</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0239217</v>
+                  <v>0.06983350000000001</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0243675</v>
+                  <v>0.0728838</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0249258</v>
+                  <v>0.0752324</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0256372</v>
+                  <v>0.07806680000000001</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0267547</v>
+                  <v>0.0802983</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0285161</v>
+                  <v>0.0828279</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0309254</v>
+                  <v>0.0846045</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.03463</v>
+                  <v>0.0575865</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0230982</v>
+                  <v>0.0593047</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0233375</v>
+                  <v>0.0611502</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.023593</v>
+                  <v>0.0636737</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0238201</v>
+                  <v>0.0657292</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0241227</v>
+                  <v>0.06833930000000001</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0244723</v>
+                  <v>0.0707661</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.024922</v>
+                  <v>0.073903</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0253022</v>
+                  <v>0.0761425</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0259853</v>
+                  <v>0.078791</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0267356</v>
+                  <v>0.08170040000000001</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0278598</v>
+                  <v>0.0839515</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0296228</v>
+                  <v>0.0861381</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0320613</v>
+                  <v>0.088853</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0356651</v>
+                  <v>0.0638098</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0410615</v>
+                  <v>0.06650739999999999</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0247871</v>
+                  <v>0.0691383</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0249031</v>
+                  <v>0.0715653</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0256338</v>
+                  <v>0.0745817</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0258881</v>
+                  <v>0.07851610000000001</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0259173</v>
+                  <v>0.0814839</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0262823</v>
+                  <v>0.0860113</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0271444</v>
+                  <v>0.09014419999999999</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0274852</v>
+                  <v>0.0948281</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0283927</v>
+                  <v>0.0981105</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0298077</v>
+                  <v>0.101526</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0311471</v>
+                  <v>0.107487</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0336077</v>
+                  <v>0.112807</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0368424</v>
+                  <v>0.0965601</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0414916</v>
+                  <v>0.101097</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0365337</v>
+                  <v>0.106082</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.037033</v>
+                  <v>0.110975</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0385276</v>
+                  <v>0.114995</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0385709</v>
+                  <v>0.120023</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0392564</v>
+                  <v>0.125893</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0399463</v>
+                  <v>0.130762</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.040702</v>
+                  <v>0.136855</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.041626</v>
+                  <v>0.142491</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0423938</v>
+                  <v>0.148735</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0433475</v>
+                  <v>0.154806</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0447666</v>
+                  <v>0.160276</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0465736</v>
+                  <v>0.165942</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0493242</v>
+                  <v>0.145194</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0542457</v>
+                  <v>0.148853</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.07123119999999999</v>
+                  <v>0.152457</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.071656</v>
+                  <v>0.156847</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0721349</v>
+                  <v>0.16093</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.07265770000000001</v>
+                  <v>0.165502</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0729856</v>
+                  <v>0.171025</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0736991</v>
+                  <v>0.176145</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0742898</v>
+                  <v>0.181854</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.07498199999999999</v>
+                  <v>0.187152</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.07573630000000001</v>
+                  <v>0.192849</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0766086</v>
+                  <v>0.199082</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.077876</v>
+                  <v>0.205029</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.07924580000000001</v>
+                  <v>0.211115</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08156239999999999</v>
+                  <v>0.217795</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0852509</v>
+                  <v>0.181761</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.08773590000000001</v>
+                  <v>0.184875</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0884414</v>
+                  <v>0.18853</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0892877</v>
+                  <v>0.193379</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0899992</v>
+                  <v>0.196792</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0907741</v>
+                  <v>0.201399</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0918117</v>
+                  <v>0.206374</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.092913</v>
+                  <v>0.211734</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.09400500000000001</v>
+                  <v>0.218001</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.100748</v>
+                  <v>0.223144</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.09656720000000001</v>
+                  <v>0.229767</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0981248</v>
+                  <v>0.235872</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.100153</v>
+                  <v>0.240776</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.10274</v>
+                  <v>0.247637</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.106587</v>
+                  <v>0.198997</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.112472</v>
+                  <v>0.202385</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.106248</v>
+                  <v>0.205971</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.107515</v>
+                  <v>0.209681</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.108771</v>
+                  <v>0.213857</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.110258</v>
+                  <v>0.218441</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.111363</v>
+                  <v>0.223282</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.112139</v>
+                  <v>0.228864</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.113529</v>
+                  <v>0.234598</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.114912</v>
+                  <v>0.240649</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.116482</v>
+                  <v>0.251617</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.118414</v>
+                  <v>0.252683</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.120533</v>
+                  <v>0.258786</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.123365</v>
+                  <v>0.264415</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.127277</v>
+                  <v>0.20958</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.133589</v>
+                  <v>0.21278</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.119571</v>
+                  <v>0.216352</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.123522</v>
+                  <v>0.219749</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.120321</v>
+                  <v>0.224359</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.121365</v>
+                  <v>0.228913</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.122535</v>
+                  <v>0.236829</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.123827</v>
+                  <v>0.239299</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.125232</v>
+                  <v>0.2453</v>
                 </pt>
               </numCache>
             </numRef>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.120642</v>
+        <v>0.122591</v>
       </c>
       <c r="C2" t="n">
-        <v>0.112002</v>
+        <v>0.116938</v>
       </c>
       <c r="D2" t="n">
-        <v>0.14453</v>
+        <v>0.130338</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.12004</v>
+        <v>0.118334</v>
       </c>
       <c r="C3" t="n">
-        <v>0.113816</v>
+        <v>0.118758</v>
       </c>
       <c r="D3" t="n">
-        <v>0.147826</v>
+        <v>0.128569</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.120215</v>
+        <v>0.119309</v>
       </c>
       <c r="C4" t="n">
-        <v>0.114378</v>
+        <v>0.115394</v>
       </c>
       <c r="D4" t="n">
-        <v>0.145713</v>
+        <v>0.13279</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.11851</v>
+        <v>0.120857</v>
       </c>
       <c r="C5" t="n">
-        <v>0.112459</v>
+        <v>0.115933</v>
       </c>
       <c r="D5" t="n">
-        <v>0.148549</v>
+        <v>0.131374</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.123962</v>
+        <v>0.119293</v>
       </c>
       <c r="C6" t="n">
-        <v>0.115579</v>
+        <v>0.120369</v>
       </c>
       <c r="D6" t="n">
-        <v>0.149172</v>
+        <v>0.131452</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.118046</v>
+        <v>0.119999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.114679</v>
+        <v>0.131769</v>
       </c>
       <c r="D7" t="n">
-        <v>0.153278</v>
+        <v>0.137273</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.124079</v>
+        <v>0.119454</v>
       </c>
       <c r="C8" t="n">
-        <v>0.129726</v>
+        <v>0.131584</v>
       </c>
       <c r="D8" t="n">
-        <v>0.16356</v>
+        <v>0.143631</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.127164</v>
+        <v>0.130637</v>
       </c>
       <c r="C9" t="n">
-        <v>0.116811</v>
+        <v>0.118537</v>
       </c>
       <c r="D9" t="n">
-        <v>0.145671</v>
+        <v>0.1334</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.130921</v>
+        <v>0.13485</v>
       </c>
       <c r="C10" t="n">
-        <v>0.115441</v>
+        <v>0.118279</v>
       </c>
       <c r="D10" t="n">
-        <v>0.150288</v>
+        <v>0.131079</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.137204</v>
+        <v>0.125556</v>
       </c>
       <c r="C11" t="n">
-        <v>0.119657</v>
+        <v>0.120048</v>
       </c>
       <c r="D11" t="n">
-        <v>0.142691</v>
+        <v>0.130208</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.133324</v>
+        <v>0.131427</v>
       </c>
       <c r="C12" t="n">
-        <v>0.118396</v>
+        <v>0.124275</v>
       </c>
       <c r="D12" t="n">
-        <v>0.153309</v>
+        <v>0.134731</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.131754</v>
+        <v>0.12914</v>
       </c>
       <c r="C13" t="n">
-        <v>0.114423</v>
+        <v>0.118321</v>
       </c>
       <c r="D13" t="n">
-        <v>0.14565</v>
+        <v>0.131707</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.133477</v>
+        <v>0.131265</v>
       </c>
       <c r="C14" t="n">
-        <v>0.116838</v>
+        <v>0.120974</v>
       </c>
       <c r="D14" t="n">
-        <v>0.153365</v>
+        <v>0.131125</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.12989</v>
+        <v>0.133437</v>
       </c>
       <c r="C15" t="n">
-        <v>0.115675</v>
+        <v>0.121151</v>
       </c>
       <c r="D15" t="n">
-        <v>0.14705</v>
+        <v>0.1291</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.129492</v>
+        <v>0.126289</v>
       </c>
       <c r="C16" t="n">
-        <v>0.12068</v>
+        <v>0.118277</v>
       </c>
       <c r="D16" t="n">
-        <v>0.151568</v>
+        <v>0.131324</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.130095</v>
+        <v>0.127386</v>
       </c>
       <c r="C17" t="n">
-        <v>0.117424</v>
+        <v>0.122995</v>
       </c>
       <c r="D17" t="n">
-        <v>0.148147</v>
+        <v>0.134458</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.128247</v>
+        <v>0.130329</v>
       </c>
       <c r="C18" t="n">
-        <v>0.116544</v>
+        <v>0.124053</v>
       </c>
       <c r="D18" t="n">
-        <v>0.149336</v>
+        <v>0.134065</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.131645</v>
+        <v>0.130171</v>
       </c>
       <c r="C19" t="n">
-        <v>0.119288</v>
+        <v>0.127761</v>
       </c>
       <c r="D19" t="n">
-        <v>0.150379</v>
+        <v>0.136968</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.128645</v>
+        <v>0.129481</v>
       </c>
       <c r="C20" t="n">
-        <v>0.118912</v>
+        <v>0.126632</v>
       </c>
       <c r="D20" t="n">
-        <v>0.151587</v>
+        <v>0.138382</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.132981</v>
+        <v>0.137994</v>
       </c>
       <c r="C21" t="n">
-        <v>0.123226</v>
+        <v>0.129602</v>
       </c>
       <c r="D21" t="n">
-        <v>0.157774</v>
+        <v>0.1446</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.132545</v>
+        <v>0.140078</v>
       </c>
       <c r="C22" t="n">
-        <v>0.128091</v>
+        <v>0.137808</v>
       </c>
       <c r="D22" t="n">
-        <v>0.165774</v>
+        <v>0.146554</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.136311</v>
+        <v>0.137631</v>
       </c>
       <c r="C23" t="n">
-        <v>0.117696</v>
+        <v>0.128404</v>
       </c>
       <c r="D23" t="n">
-        <v>0.152752</v>
+        <v>0.139453</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.139031</v>
+        <v>0.139784</v>
       </c>
       <c r="C24" t="n">
-        <v>0.121827</v>
+        <v>0.125496</v>
       </c>
       <c r="D24" t="n">
-        <v>0.153072</v>
+        <v>0.13432</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.141379</v>
+        <v>0.135655</v>
       </c>
       <c r="C25" t="n">
-        <v>0.119028</v>
+        <v>0.127918</v>
       </c>
       <c r="D25" t="n">
-        <v>0.14973</v>
+        <v>0.136403</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.139025</v>
+        <v>0.142803</v>
       </c>
       <c r="C26" t="n">
-        <v>0.118597</v>
+        <v>0.129692</v>
       </c>
       <c r="D26" t="n">
-        <v>0.153667</v>
+        <v>0.135895</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.144352</v>
+        <v>0.144215</v>
       </c>
       <c r="C27" t="n">
-        <v>0.119888</v>
+        <v>0.125928</v>
       </c>
       <c r="D27" t="n">
-        <v>0.153412</v>
+        <v>0.137868</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.145369</v>
+        <v>0.13902</v>
       </c>
       <c r="C28" t="n">
-        <v>0.121686</v>
+        <v>0.132329</v>
       </c>
       <c r="D28" t="n">
-        <v>0.154925</v>
+        <v>0.141269</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.141174</v>
+        <v>0.14125</v>
       </c>
       <c r="C29" t="n">
-        <v>0.121812</v>
+        <v>0.126099</v>
       </c>
       <c r="D29" t="n">
-        <v>0.153023</v>
+        <v>0.141078</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.135614</v>
+        <v>0.140205</v>
       </c>
       <c r="C30" t="n">
-        <v>0.126934</v>
+        <v>0.128966</v>
       </c>
       <c r="D30" t="n">
-        <v>0.156826</v>
+        <v>0.144792</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.13915</v>
+        <v>0.136265</v>
       </c>
       <c r="C31" t="n">
-        <v>0.125811</v>
+        <v>0.132054</v>
       </c>
       <c r="D31" t="n">
-        <v>0.155211</v>
+        <v>0.141161</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.140843</v>
+        <v>0.14019</v>
       </c>
       <c r="C32" t="n">
-        <v>0.123853</v>
+        <v>0.131729</v>
       </c>
       <c r="D32" t="n">
-        <v>0.157921</v>
+        <v>0.142554</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.144487</v>
+        <v>0.14515</v>
       </c>
       <c r="C33" t="n">
-        <v>0.127361</v>
+        <v>0.12989</v>
       </c>
       <c r="D33" t="n">
-        <v>0.16155</v>
+        <v>0.142704</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138803</v>
+        <v>0.147164</v>
       </c>
       <c r="C34" t="n">
-        <v>0.125386</v>
+        <v>0.136865</v>
       </c>
       <c r="D34" t="n">
-        <v>0.161476</v>
+        <v>0.143808</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.140484</v>
+        <v>0.14334</v>
       </c>
       <c r="C35" t="n">
-        <v>0.129314</v>
+        <v>0.1423</v>
       </c>
       <c r="D35" t="n">
-        <v>0.159901</v>
+        <v>0.155005</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.141325</v>
+        <v>0.143938</v>
       </c>
       <c r="C36" t="n">
-        <v>0.133093</v>
+        <v>0.145426</v>
       </c>
       <c r="D36" t="n">
-        <v>0.164963</v>
+        <v>0.152716</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.147679</v>
+        <v>0.151397</v>
       </c>
       <c r="C37" t="n">
-        <v>0.129255</v>
+        <v>0.133681</v>
       </c>
       <c r="D37" t="n">
-        <v>0.169331</v>
+        <v>0.155701</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.164433</v>
+        <v>0.174754</v>
       </c>
       <c r="C38" t="n">
-        <v>0.125563</v>
+        <v>0.137487</v>
       </c>
       <c r="D38" t="n">
-        <v>0.172316</v>
+        <v>0.154689</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.169736</v>
+        <v>0.171523</v>
       </c>
       <c r="C39" t="n">
-        <v>0.128356</v>
+        <v>0.138791</v>
       </c>
       <c r="D39" t="n">
-        <v>0.180896</v>
+        <v>0.159817</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.16812</v>
+        <v>0.172221</v>
       </c>
       <c r="C40" t="n">
-        <v>0.132427</v>
+        <v>0.134651</v>
       </c>
       <c r="D40" t="n">
-        <v>0.171463</v>
+        <v>0.151858</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.169106</v>
+        <v>0.181219</v>
       </c>
       <c r="C41" t="n">
-        <v>0.129339</v>
+        <v>0.136346</v>
       </c>
       <c r="D41" t="n">
-        <v>0.176055</v>
+        <v>0.154014</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.173379</v>
+        <v>0.164717</v>
       </c>
       <c r="C42" t="n">
-        <v>0.133966</v>
+        <v>0.133043</v>
       </c>
       <c r="D42" t="n">
-        <v>0.176331</v>
+        <v>0.15333</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.164072</v>
+        <v>0.167386</v>
       </c>
       <c r="C43" t="n">
-        <v>0.132778</v>
+        <v>0.132909</v>
       </c>
       <c r="D43" t="n">
-        <v>0.178672</v>
+        <v>0.16618</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.169237</v>
+        <v>0.173167</v>
       </c>
       <c r="C44" t="n">
-        <v>0.134724</v>
+        <v>0.137736</v>
       </c>
       <c r="D44" t="n">
-        <v>0.178116</v>
+        <v>0.158314</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.170193</v>
+        <v>0.170865</v>
       </c>
       <c r="C45" t="n">
-        <v>0.129584</v>
+        <v>0.139314</v>
       </c>
       <c r="D45" t="n">
-        <v>0.178808</v>
+        <v>0.157186</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.166404</v>
+        <v>0.168344</v>
       </c>
       <c r="C46" t="n">
-        <v>0.133575</v>
+        <v>0.14054</v>
       </c>
       <c r="D46" t="n">
-        <v>0.183945</v>
+        <v>0.160985</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.175068</v>
+        <v>0.170675</v>
       </c>
       <c r="C47" t="n">
-        <v>0.135581</v>
+        <v>0.137403</v>
       </c>
       <c r="D47" t="n">
-        <v>0.18664</v>
+        <v>0.160273</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.163269</v>
+        <v>0.170254</v>
       </c>
       <c r="C48" t="n">
-        <v>0.133646</v>
+        <v>0.142213</v>
       </c>
       <c r="D48" t="n">
-        <v>0.181312</v>
+        <v>0.162506</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.168788</v>
+        <v>0.183797</v>
       </c>
       <c r="C49" t="n">
-        <v>0.141654</v>
+        <v>0.14679</v>
       </c>
       <c r="D49" t="n">
-        <v>0.17996</v>
+        <v>0.166887</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.169768</v>
+        <v>0.173754</v>
       </c>
       <c r="C50" t="n">
-        <v>0.14662</v>
+        <v>0.149503</v>
       </c>
       <c r="D50" t="n">
-        <v>0.189209</v>
+        <v>0.169673</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.172246</v>
+        <v>0.175888</v>
       </c>
       <c r="C51" t="n">
-        <v>0.210859</v>
+        <v>0.209431</v>
       </c>
       <c r="D51" t="n">
-        <v>0.250059</v>
+        <v>0.234581</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.178012</v>
+        <v>0.178699</v>
       </c>
       <c r="C52" t="n">
-        <v>0.20595</v>
+        <v>0.210825</v>
       </c>
       <c r="D52" t="n">
-        <v>0.249502</v>
+        <v>0.216737</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.26595</v>
+        <v>0.266644</v>
       </c>
       <c r="C53" t="n">
-        <v>0.207143</v>
+        <v>0.206708</v>
       </c>
       <c r="D53" t="n">
-        <v>0.249705</v>
+        <v>0.218752</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.260974</v>
+        <v>0.269258</v>
       </c>
       <c r="C54" t="n">
-        <v>0.205837</v>
+        <v>0.210204</v>
       </c>
       <c r="D54" t="n">
-        <v>0.256278</v>
+        <v>0.218841</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.259215</v>
+        <v>0.2853</v>
       </c>
       <c r="C55" t="n">
-        <v>0.202758</v>
+        <v>0.225414</v>
       </c>
       <c r="D55" t="n">
-        <v>0.244583</v>
+        <v>0.226297</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.256885</v>
+        <v>0.261326</v>
       </c>
       <c r="C56" t="n">
-        <v>0.209083</v>
+        <v>0.212876</v>
       </c>
       <c r="D56" t="n">
-        <v>0.254818</v>
+        <v>0.216671</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.26939</v>
+        <v>0.269837</v>
       </c>
       <c r="C57" t="n">
-        <v>0.215063</v>
+        <v>0.214557</v>
       </c>
       <c r="D57" t="n">
-        <v>0.248304</v>
+        <v>0.231021</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.254698</v>
+        <v>0.274614</v>
       </c>
       <c r="C58" t="n">
-        <v>0.21128</v>
+        <v>0.218979</v>
       </c>
       <c r="D58" t="n">
-        <v>0.254304</v>
+        <v>0.230179</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.258942</v>
+        <v>0.277595</v>
       </c>
       <c r="C59" t="n">
-        <v>0.209397</v>
+        <v>0.218046</v>
       </c>
       <c r="D59" t="n">
-        <v>0.25225</v>
+        <v>0.232353</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.266051</v>
+        <v>0.289296</v>
       </c>
       <c r="C60" t="n">
-        <v>0.209607</v>
+        <v>0.220603</v>
       </c>
       <c r="D60" t="n">
-        <v>0.260671</v>
+        <v>0.232086</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.263608</v>
+        <v>0.27731</v>
       </c>
       <c r="C61" t="n">
-        <v>0.209281</v>
+        <v>0.222999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.251785</v>
+        <v>0.230115</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.2591</v>
+        <v>0.289591</v>
       </c>
       <c r="C62" t="n">
-        <v>0.21207</v>
+        <v>0.220054</v>
       </c>
       <c r="D62" t="n">
-        <v>0.253068</v>
+        <v>0.232437</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.258715</v>
+        <v>0.281978</v>
       </c>
       <c r="C63" t="n">
-        <v>0.21552</v>
+        <v>0.222587</v>
       </c>
       <c r="D63" t="n">
-        <v>0.263635</v>
+        <v>0.239227</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.263379</v>
+        <v>0.27601</v>
       </c>
       <c r="C64" t="n">
-        <v>0.219548</v>
+        <v>0.222103</v>
       </c>
       <c r="D64" t="n">
-        <v>0.260575</v>
+        <v>0.2378</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.262519</v>
+        <v>0.287716</v>
       </c>
       <c r="C65" t="n">
-        <v>0.22563</v>
+        <v>0.230619</v>
       </c>
       <c r="D65" t="n">
-        <v>0.271499</v>
+        <v>0.245469</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.270639</v>
+        <v>0.296827</v>
       </c>
       <c r="C66" t="n">
-        <v>0.298937</v>
+        <v>0.31309</v>
       </c>
       <c r="D66" t="n">
-        <v>0.33278</v>
+        <v>0.316332</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.403407</v>
+        <v>0.429185</v>
       </c>
       <c r="C67" t="n">
-        <v>0.30338</v>
+        <v>0.32227</v>
       </c>
       <c r="D67" t="n">
-        <v>0.358562</v>
+        <v>0.329709</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.416302</v>
+        <v>0.442004</v>
       </c>
       <c r="C68" t="n">
-        <v>0.295638</v>
+        <v>0.313377</v>
       </c>
       <c r="D68" t="n">
-        <v>0.354834</v>
+        <v>0.319647</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.421542</v>
+        <v>0.428651</v>
       </c>
       <c r="C69" t="n">
-        <v>0.30442</v>
+        <v>0.318997</v>
       </c>
       <c r="D69" t="n">
-        <v>0.357264</v>
+        <v>0.328971</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.414526</v>
+        <v>0.46911</v>
       </c>
       <c r="C70" t="n">
-        <v>0.302648</v>
+        <v>0.319103</v>
       </c>
       <c r="D70" t="n">
-        <v>0.358371</v>
+        <v>0.331661</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.409989</v>
+        <v>0.445929</v>
       </c>
       <c r="C71" t="n">
-        <v>0.299849</v>
+        <v>0.309621</v>
       </c>
       <c r="D71" t="n">
-        <v>0.350808</v>
+        <v>0.346183</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.403732</v>
+        <v>0.432189</v>
       </c>
       <c r="C72" t="n">
-        <v>0.305007</v>
+        <v>0.32068</v>
       </c>
       <c r="D72" t="n">
-        <v>0.350478</v>
+        <v>0.3469</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.40668</v>
+        <v>0.45832</v>
       </c>
       <c r="C73" t="n">
-        <v>0.302702</v>
+        <v>0.331074</v>
       </c>
       <c r="D73" t="n">
-        <v>0.35148</v>
+        <v>0.335354</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.405482</v>
+        <v>0.443799</v>
       </c>
       <c r="C74" t="n">
-        <v>0.304981</v>
+        <v>0.335098</v>
       </c>
       <c r="D74" t="n">
-        <v>0.360005</v>
+        <v>0.320914</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.415098</v>
+        <v>0.438857</v>
       </c>
       <c r="C75" t="n">
-        <v>0.309225</v>
+        <v>0.330579</v>
       </c>
       <c r="D75" t="n">
-        <v>0.380766</v>
+        <v>0.349357</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.411912</v>
+        <v>0.444068</v>
       </c>
       <c r="C76" t="n">
-        <v>0.308677</v>
+        <v>0.344441</v>
       </c>
       <c r="D76" t="n">
-        <v>0.36758</v>
+        <v>0.335904</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.421293</v>
+        <v>0.451197</v>
       </c>
       <c r="C77" t="n">
-        <v>0.307841</v>
+        <v>0.322157</v>
       </c>
       <c r="D77" t="n">
-        <v>0.355105</v>
+        <v>0.362151</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.420485</v>
+        <v>0.48305</v>
       </c>
       <c r="C78" t="n">
-        <v>0.317095</v>
+        <v>0.346236</v>
       </c>
       <c r="D78" t="n">
-        <v>0.383605</v>
+        <v>0.365556</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.416833</v>
+        <v>0.450662</v>
       </c>
       <c r="C79" t="n">
-        <v>0.314072</v>
+        <v>0.343207</v>
       </c>
       <c r="D79" t="n">
-        <v>0.375645</v>
+        <v>0.338266</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.425839</v>
+        <v>0.444516</v>
       </c>
       <c r="C80" t="n">
-        <v>0.433968</v>
+        <v>0.436065</v>
       </c>
       <c r="D80" t="n">
-        <v>0.549654</v>
+        <v>0.458155</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.556077</v>
+        <v>0.604263</v>
       </c>
       <c r="C81" t="n">
-        <v>0.434868</v>
+        <v>0.440441</v>
       </c>
       <c r="D81" t="n">
-        <v>0.54054</v>
+        <v>0.464841</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.565298</v>
+        <v>0.58869</v>
       </c>
       <c r="C82" t="n">
-        <v>0.43065</v>
+        <v>0.441404</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5403</v>
+        <v>0.466474</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.552755</v>
+        <v>0.556938</v>
       </c>
       <c r="C83" t="n">
-        <v>0.439236</v>
+        <v>0.438123</v>
       </c>
       <c r="D83" t="n">
-        <v>0.539894</v>
+        <v>0.45381</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.538787</v>
+        <v>0.562527</v>
       </c>
       <c r="C84" t="n">
-        <v>0.437804</v>
+        <v>0.452841</v>
       </c>
       <c r="D84" t="n">
-        <v>0.548153</v>
+        <v>0.474733</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.563299</v>
+        <v>0.565497</v>
       </c>
       <c r="C85" t="n">
-        <v>0.440093</v>
+        <v>0.449654</v>
       </c>
       <c r="D85" t="n">
-        <v>0.551404</v>
+        <v>0.455625</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.555582</v>
+        <v>0.619388</v>
       </c>
       <c r="C86" t="n">
-        <v>0.429336</v>
+        <v>0.454069</v>
       </c>
       <c r="D86" t="n">
-        <v>0.540651</v>
+        <v>0.481155</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.565394</v>
+        <v>0.601203</v>
       </c>
       <c r="C87" t="n">
-        <v>0.446998</v>
+        <v>0.456994</v>
       </c>
       <c r="D87" t="n">
-        <v>0.551589</v>
+        <v>0.479839</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.558321</v>
+        <v>0.606183</v>
       </c>
       <c r="C88" t="n">
-        <v>0.448551</v>
+        <v>0.450376</v>
       </c>
       <c r="D88" t="n">
-        <v>0.562631</v>
+        <v>0.455269</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.550211</v>
+        <v>0.58223</v>
       </c>
       <c r="C89" t="n">
-        <v>0.441611</v>
+        <v>0.451557</v>
       </c>
       <c r="D89" t="n">
-        <v>0.550494</v>
+        <v>0.451141</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.571231</v>
+        <v>0.573981</v>
       </c>
       <c r="C90" t="n">
-        <v>0.445285</v>
+        <v>0.456331</v>
       </c>
       <c r="D90" t="n">
-        <v>0.559526</v>
+        <v>0.466614</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.563182</v>
+        <v>0.590425</v>
       </c>
       <c r="C91" t="n">
-        <v>0.450263</v>
+        <v>0.440696</v>
       </c>
       <c r="D91" t="n">
-        <v>0.554447</v>
+        <v>0.484508</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.552937</v>
+        <v>0.577547</v>
       </c>
       <c r="C92" t="n">
-        <v>0.457845</v>
+        <v>0.456681</v>
       </c>
       <c r="D92" t="n">
-        <v>0.56678</v>
+        <v>0.476464</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.557782</v>
+        <v>0.601625</v>
       </c>
       <c r="C93" t="n">
-        <v>0.458886</v>
+        <v>0.456845</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5744320000000001</v>
+        <v>0.497689</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.569013</v>
+        <v>0.602737</v>
       </c>
       <c r="C94" t="n">
-        <v>0.548411</v>
+        <v>0.551785</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6732669999999999</v>
+        <v>0.5351359999999999</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.700705</v>
+        <v>0.683311</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5498499999999999</v>
+        <v>0.536734</v>
       </c>
       <c r="D95" t="n">
-        <v>0.700738</v>
+        <v>0.571396</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.715383</v>
+        <v>0.704335</v>
       </c>
       <c r="C96" t="n">
-        <v>0.558341</v>
+        <v>0.549324</v>
       </c>
       <c r="D96" t="n">
-        <v>0.736356</v>
+        <v>0.558581</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.695752</v>
+        <v>0.676142</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5513130000000001</v>
+        <v>0.531093</v>
       </c>
       <c r="D97" t="n">
-        <v>0.707773</v>
+        <v>0.554786</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.63672</v>
+        <v>0.678022</v>
       </c>
       <c r="C98" t="n">
-        <v>0.529162</v>
+        <v>0.545837</v>
       </c>
       <c r="D98" t="n">
-        <v>0.715744</v>
+        <v>0.540097</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.688495</v>
+        <v>0.685425</v>
       </c>
       <c r="C99" t="n">
-        <v>0.542069</v>
+        <v>0.559074</v>
       </c>
       <c r="D99" t="n">
-        <v>0.729817</v>
+        <v>0.559696</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.702295</v>
+        <v>0.670887</v>
       </c>
       <c r="C100" t="n">
-        <v>0.555303</v>
+        <v>0.533751</v>
       </c>
       <c r="D100" t="n">
-        <v>0.718509</v>
+        <v>0.584501</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.71873</v>
+        <v>0.687985</v>
       </c>
       <c r="C101" t="n">
-        <v>0.554515</v>
+        <v>0.528161</v>
       </c>
       <c r="D101" t="n">
-        <v>0.707106</v>
+        <v>0.610432</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.709741</v>
+        <v>0.671177</v>
       </c>
       <c r="C102" t="n">
-        <v>0.562206</v>
+        <v>0.544314</v>
       </c>
       <c r="D102" t="n">
-        <v>0.733407</v>
+        <v>0.556935</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.64249</v>
+        <v>0.675782</v>
       </c>
       <c r="C103" t="n">
-        <v>0.569555</v>
+        <v>0.545605</v>
       </c>
       <c r="D103" t="n">
-        <v>0.7232229999999999</v>
+        <v>0.559631</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.699787</v>
+        <v>0.733951</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5758760000000001</v>
+        <v>0.587529</v>
       </c>
       <c r="D104" t="n">
-        <v>0.721848</v>
+        <v>0.567933</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.697495</v>
+        <v>0.736861</v>
       </c>
       <c r="C105" t="n">
-        <v>0.553697</v>
+        <v>0.545884</v>
       </c>
       <c r="D105" t="n">
-        <v>0.678779</v>
+        <v>0.562354</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.724655</v>
+        <v>0.6766</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5722930000000001</v>
+        <v>0.582314</v>
       </c>
       <c r="D106" t="n">
-        <v>0.738789</v>
+        <v>0.573662</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.718201</v>
+        <v>0.688663</v>
       </c>
       <c r="C107" t="n">
-        <v>0.571973</v>
+        <v>0.561778</v>
       </c>
       <c r="D107" t="n">
-        <v>0.737635</v>
+        <v>0.587356</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.710349</v>
+        <v>0.703569</v>
       </c>
       <c r="C108" t="n">
-        <v>0.608378</v>
+        <v>0.64249</v>
       </c>
       <c r="D108" t="n">
-        <v>0.870208</v>
+        <v>0.622306</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.677814</v>
+        <v>0.7437279999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.620539</v>
+        <v>0.6243610000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.872965</v>
+        <v>0.639153</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.791957</v>
+        <v>0.86558</v>
       </c>
       <c r="C110" t="n">
-        <v>0.625434</v>
+        <v>0.631201</v>
       </c>
       <c r="D110" t="n">
-        <v>0.804126</v>
+        <v>0.651128</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.7965140000000001</v>
+        <v>0.873611</v>
       </c>
       <c r="C111" t="n">
-        <v>0.643607</v>
+        <v>0.637019</v>
       </c>
       <c r="D111" t="n">
-        <v>0.860934</v>
+        <v>0.661744</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.807237</v>
+        <v>0.896714</v>
       </c>
       <c r="C112" t="n">
-        <v>0.642535</v>
+        <v>0.675777</v>
       </c>
       <c r="D112" t="n">
-        <v>0.839377</v>
+        <v>0.65798</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.791691</v>
+        <v>0.880477</v>
       </c>
       <c r="C113" t="n">
-        <v>0.622634</v>
+        <v>0.685451</v>
       </c>
       <c r="D113" t="n">
-        <v>0.835819</v>
+        <v>0.643223</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.805729</v>
+        <v>0.869391</v>
       </c>
       <c r="C114" t="n">
-        <v>0.683388</v>
+        <v>0.635804</v>
       </c>
       <c r="D114" t="n">
-        <v>0.863255</v>
+        <v>0.654327</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.800847</v>
+        <v>0.852788</v>
       </c>
       <c r="C115" t="n">
-        <v>0.613841</v>
+        <v>0.647833</v>
       </c>
       <c r="D115" t="n">
-        <v>0.79836</v>
+        <v>0.653386</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.909033</v>
+        <v>0.884333</v>
       </c>
       <c r="C116" t="n">
-        <v>0.61899</v>
+        <v>0.636069</v>
       </c>
       <c r="D116" t="n">
-        <v>0.8668670000000001</v>
+        <v>0.715655</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.80222</v>
+        <v>0.836933</v>
       </c>
       <c r="C117" t="n">
-        <v>0.641196</v>
+        <v>0.656987</v>
       </c>
       <c r="D117" t="n">
-        <v>0.833439</v>
+        <v>0.680037</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.809331</v>
+        <v>0.880317</v>
       </c>
       <c r="C118" t="n">
-        <v>0.625077</v>
+        <v>0.640587</v>
       </c>
       <c r="D118" t="n">
-        <v>0.8017339999999999</v>
+        <v>0.682638</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.820034</v>
+        <v>0.841487</v>
       </c>
       <c r="C119" t="n">
-        <v>0.638616</v>
+        <v>0.677072</v>
       </c>
       <c r="D119" t="n">
-        <v>0.902406</v>
+        <v>0.694188</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.791795</v>
+        <v>0.892861</v>
       </c>
       <c r="C120" t="n">
-        <v>0.651714</v>
+        <v>0.6695410000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.831461</v>
+        <v>0.688483</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.916631</v>
+        <v>0.855955</v>
       </c>
       <c r="C121" t="n">
-        <v>0.704639</v>
+        <v>0.676316</v>
       </c>
       <c r="D121" t="n">
-        <v>0.873387</v>
+        <v>0.692326</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.933626</v>
+        <v>0.854561</v>
       </c>
       <c r="C122" t="n">
-        <v>0.725611</v>
+        <v>0.67472</v>
       </c>
       <c r="D122" t="n">
-        <v>0.841705</v>
+        <v>0.678879</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.833914</v>
+        <v>0.873961</v>
       </c>
       <c r="C123" t="n">
-        <v>0.807483</v>
+        <v>0.778758</v>
       </c>
       <c r="D123" t="n">
-        <v>0.999112</v>
+        <v>0.807154</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.08652</v>
+        <v>1.13691</v>
       </c>
       <c r="C124" t="n">
-        <v>0.781501</v>
+        <v>0.774269</v>
       </c>
       <c r="D124" t="n">
-        <v>0.977482</v>
+        <v>0.784394</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.05968</v>
+        <v>1.14331</v>
       </c>
       <c r="C125" t="n">
-        <v>0.770915</v>
+        <v>0.807065</v>
       </c>
       <c r="D125" t="n">
-        <v>0.993805</v>
+        <v>0.814101</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.10908</v>
+        <v>1.13474</v>
       </c>
       <c r="C126" t="n">
-        <v>0.77788</v>
+        <v>0.79626</v>
       </c>
       <c r="D126" t="n">
-        <v>1.13631</v>
+        <v>0.780775</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.05116</v>
+        <v>1.21258</v>
       </c>
       <c r="C127" t="n">
-        <v>0.772304</v>
+        <v>0.771394</v>
       </c>
       <c r="D127" t="n">
-        <v>0.975515</v>
+        <v>0.811035</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.09612</v>
+        <v>1.12953</v>
       </c>
       <c r="C128" t="n">
-        <v>0.88844</v>
+        <v>0.767895</v>
       </c>
       <c r="D128" t="n">
-        <v>1.00076</v>
+        <v>0.776053</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.1375</v>
+        <v>1.13815</v>
       </c>
       <c r="C129" t="n">
-        <v>0.797092</v>
+        <v>0.79426</v>
       </c>
       <c r="D129" t="n">
-        <v>1.00887</v>
+        <v>0.817372</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.0603</v>
+        <v>1.14529</v>
       </c>
       <c r="C130" t="n">
-        <v>0.787591</v>
+        <v>0.802605</v>
       </c>
       <c r="D130" t="n">
-        <v>0.989702</v>
+        <v>0.7935720000000001</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.0713</v>
+        <v>1.12927</v>
       </c>
       <c r="C131" t="n">
-        <v>0.783259</v>
+        <v>0.782399</v>
       </c>
       <c r="D131" t="n">
-        <v>0.999555</v>
+        <v>0.81238</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.0674</v>
+        <v>1.12112</v>
       </c>
       <c r="C132" t="n">
-        <v>0.819173</v>
+        <v>0.777869</v>
       </c>
       <c r="D132" t="n">
-        <v>1.0328</v>
+        <v>0.833849</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.05572</v>
+        <v>1.12583</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7900239999999999</v>
+        <v>0.777281</v>
       </c>
       <c r="D133" t="n">
-        <v>1.0077</v>
+        <v>0.797096</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.07148</v>
+        <v>1.10606</v>
       </c>
       <c r="C134" t="n">
-        <v>0.791164</v>
+        <v>0.780327</v>
       </c>
       <c r="D134" t="n">
-        <v>1.02798</v>
+        <v>0.802728</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.10657</v>
+        <v>1.13428</v>
       </c>
       <c r="C135" t="n">
-        <v>0.89325</v>
+        <v>0.798825</v>
       </c>
       <c r="D135" t="n">
-        <v>1.03558</v>
+        <v>0.827254</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.16124</v>
+        <v>1.12875</v>
       </c>
       <c r="C136" t="n">
-        <v>0.822005</v>
+        <v>0.8117180000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>1.04558</v>
+        <v>0.864468</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.08983</v>
+        <v>1.13282</v>
       </c>
       <c r="C137" t="n">
-        <v>0.93654</v>
+        <v>0.968312</v>
       </c>
       <c r="D137" t="n">
-        <v>1.12661</v>
+        <v>0.996341</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.34901</v>
+        <v>1.42437</v>
       </c>
       <c r="C138" t="n">
-        <v>0.932042</v>
+        <v>0.999217</v>
       </c>
       <c r="D138" t="n">
-        <v>1.16107</v>
+        <v>1.02415</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.32358</v>
+        <v>1.4468</v>
       </c>
       <c r="C139" t="n">
-        <v>0.951828</v>
+        <v>1.01687</v>
       </c>
       <c r="D139" t="n">
-        <v>1.14383</v>
+        <v>1.01501</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.33131</v>
+        <v>1.45771</v>
       </c>
       <c r="C140" t="n">
-        <v>0.942029</v>
+        <v>1.03115</v>
       </c>
       <c r="D140" t="n">
-        <v>1.14561</v>
+        <v>1.0447</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.321</v>
+        <v>1.47318</v>
       </c>
       <c r="C141" t="n">
-        <v>0.976093</v>
+        <v>1.03004</v>
       </c>
       <c r="D141" t="n">
-        <v>1.12554</v>
+        <v>1.03899</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.32493</v>
+        <v>1.48362</v>
       </c>
       <c r="C142" t="n">
-        <v>0.951669</v>
+        <v>1.04902</v>
       </c>
       <c r="D142" t="n">
-        <v>1.12101</v>
+        <v>1.04395</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.31467</v>
+        <v>1.49834</v>
       </c>
       <c r="C143" t="n">
-        <v>0.938473</v>
+        <v>1.03404</v>
       </c>
       <c r="D143" t="n">
-        <v>1.13266</v>
+        <v>1.05721</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.122591</v>
+        <v>0.119164</v>
       </c>
       <c r="C2" t="n">
-        <v>0.116938</v>
+        <v>0.122085</v>
       </c>
       <c r="D2" t="n">
-        <v>0.130338</v>
+        <v>0.13508</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.118334</v>
+        <v>0.125034</v>
       </c>
       <c r="C3" t="n">
-        <v>0.118758</v>
+        <v>0.119219</v>
       </c>
       <c r="D3" t="n">
-        <v>0.128569</v>
+        <v>0.132485</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.119309</v>
+        <v>0.11895</v>
       </c>
       <c r="C4" t="n">
-        <v>0.115394</v>
+        <v>0.120767</v>
       </c>
       <c r="D4" t="n">
-        <v>0.13279</v>
+        <v>0.134363</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.120857</v>
+        <v>0.118768</v>
       </c>
       <c r="C5" t="n">
-        <v>0.115933</v>
+        <v>0.121946</v>
       </c>
       <c r="D5" t="n">
-        <v>0.131374</v>
+        <v>0.131401</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.119293</v>
+        <v>0.119726</v>
       </c>
       <c r="C6" t="n">
-        <v>0.120369</v>
+        <v>0.121562</v>
       </c>
       <c r="D6" t="n">
-        <v>0.131452</v>
+        <v>0.136209</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.119999</v>
+        <v>0.120726</v>
       </c>
       <c r="C7" t="n">
-        <v>0.131769</v>
+        <v>0.126126</v>
       </c>
       <c r="D7" t="n">
-        <v>0.137273</v>
+        <v>0.131469</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.119454</v>
+        <v>0.119156</v>
       </c>
       <c r="C8" t="n">
-        <v>0.131584</v>
+        <v>0.12605</v>
       </c>
       <c r="D8" t="n">
-        <v>0.143631</v>
+        <v>0.140052</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.130637</v>
+        <v>0.120999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.118537</v>
+        <v>0.11822</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1334</v>
+        <v>0.129628</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.13485</v>
+        <v>0.129465</v>
       </c>
       <c r="C10" t="n">
-        <v>0.118279</v>
+        <v>0.119254</v>
       </c>
       <c r="D10" t="n">
-        <v>0.131079</v>
+        <v>0.138932</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.125556</v>
+        <v>0.128162</v>
       </c>
       <c r="C11" t="n">
-        <v>0.120048</v>
+        <v>0.119448</v>
       </c>
       <c r="D11" t="n">
-        <v>0.130208</v>
+        <v>0.13424</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.131427</v>
+        <v>0.128093</v>
       </c>
       <c r="C12" t="n">
-        <v>0.124275</v>
+        <v>0.12695</v>
       </c>
       <c r="D12" t="n">
-        <v>0.134731</v>
+        <v>0.138181</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.12914</v>
+        <v>0.131173</v>
       </c>
       <c r="C13" t="n">
-        <v>0.118321</v>
+        <v>0.118742</v>
       </c>
       <c r="D13" t="n">
-        <v>0.131707</v>
+        <v>0.128244</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.131265</v>
+        <v>0.131538</v>
       </c>
       <c r="C14" t="n">
-        <v>0.120974</v>
+        <v>0.118278</v>
       </c>
       <c r="D14" t="n">
-        <v>0.131125</v>
+        <v>0.137506</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.133437</v>
+        <v>0.134765</v>
       </c>
       <c r="C15" t="n">
-        <v>0.121151</v>
+        <v>0.119086</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1291</v>
+        <v>0.136403</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.126289</v>
+        <v>0.134644</v>
       </c>
       <c r="C16" t="n">
-        <v>0.118277</v>
+        <v>0.12315</v>
       </c>
       <c r="D16" t="n">
-        <v>0.131324</v>
+        <v>0.131852</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.127386</v>
+        <v>0.131918</v>
       </c>
       <c r="C17" t="n">
-        <v>0.122995</v>
+        <v>0.118983</v>
       </c>
       <c r="D17" t="n">
-        <v>0.134458</v>
+        <v>0.137592</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.130329</v>
+        <v>0.13164</v>
       </c>
       <c r="C18" t="n">
-        <v>0.124053</v>
+        <v>0.126487</v>
       </c>
       <c r="D18" t="n">
-        <v>0.134065</v>
+        <v>0.141474</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.130171</v>
+        <v>0.137991</v>
       </c>
       <c r="C19" t="n">
-        <v>0.127761</v>
+        <v>0.121796</v>
       </c>
       <c r="D19" t="n">
-        <v>0.136968</v>
+        <v>0.136961</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.129481</v>
+        <v>0.128518</v>
       </c>
       <c r="C20" t="n">
-        <v>0.126632</v>
+        <v>0.129972</v>
       </c>
       <c r="D20" t="n">
-        <v>0.138382</v>
+        <v>0.139868</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.137994</v>
+        <v>0.131951</v>
       </c>
       <c r="C21" t="n">
-        <v>0.129602</v>
+        <v>0.137023</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1446</v>
+        <v>0.142271</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.140078</v>
+        <v>0.131734</v>
       </c>
       <c r="C22" t="n">
-        <v>0.137808</v>
+        <v>0.136004</v>
       </c>
       <c r="D22" t="n">
-        <v>0.146554</v>
+        <v>0.152015</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.137631</v>
+        <v>0.140791</v>
       </c>
       <c r="C23" t="n">
-        <v>0.128404</v>
+        <v>0.126054</v>
       </c>
       <c r="D23" t="n">
-        <v>0.139453</v>
+        <v>0.132997</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.139784</v>
+        <v>0.145254</v>
       </c>
       <c r="C24" t="n">
-        <v>0.125496</v>
+        <v>0.12319</v>
       </c>
       <c r="D24" t="n">
-        <v>0.13432</v>
+        <v>0.138212</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.135655</v>
+        <v>0.145443</v>
       </c>
       <c r="C25" t="n">
-        <v>0.127918</v>
+        <v>0.129751</v>
       </c>
       <c r="D25" t="n">
-        <v>0.136403</v>
+        <v>0.138426</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.142803</v>
+        <v>0.136964</v>
       </c>
       <c r="C26" t="n">
-        <v>0.129692</v>
+        <v>0.127985</v>
       </c>
       <c r="D26" t="n">
-        <v>0.135895</v>
+        <v>0.133122</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.144215</v>
+        <v>0.135715</v>
       </c>
       <c r="C27" t="n">
-        <v>0.125928</v>
+        <v>0.12347</v>
       </c>
       <c r="D27" t="n">
-        <v>0.137868</v>
+        <v>0.140514</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.13902</v>
+        <v>0.1476</v>
       </c>
       <c r="C28" t="n">
-        <v>0.132329</v>
+        <v>0.12834</v>
       </c>
       <c r="D28" t="n">
-        <v>0.141269</v>
+        <v>0.142126</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.14125</v>
+        <v>0.144486</v>
       </c>
       <c r="C29" t="n">
-        <v>0.126099</v>
+        <v>0.127869</v>
       </c>
       <c r="D29" t="n">
-        <v>0.141078</v>
+        <v>0.137797</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.140205</v>
+        <v>0.145285</v>
       </c>
       <c r="C30" t="n">
-        <v>0.128966</v>
+        <v>0.124719</v>
       </c>
       <c r="D30" t="n">
-        <v>0.144792</v>
+        <v>0.142082</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.136265</v>
+        <v>0.145405</v>
       </c>
       <c r="C31" t="n">
-        <v>0.132054</v>
+        <v>0.128499</v>
       </c>
       <c r="D31" t="n">
-        <v>0.141161</v>
+        <v>0.140712</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.14019</v>
+        <v>0.142492</v>
       </c>
       <c r="C32" t="n">
-        <v>0.131729</v>
+        <v>0.129279</v>
       </c>
       <c r="D32" t="n">
-        <v>0.142554</v>
+        <v>0.149075</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.14515</v>
+        <v>0.144579</v>
       </c>
       <c r="C33" t="n">
-        <v>0.12989</v>
+        <v>0.13435</v>
       </c>
       <c r="D33" t="n">
-        <v>0.142704</v>
+        <v>0.141269</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.147164</v>
+        <v>0.139943</v>
       </c>
       <c r="C34" t="n">
-        <v>0.136865</v>
+        <v>0.132922</v>
       </c>
       <c r="D34" t="n">
-        <v>0.143808</v>
+        <v>0.146327</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.14334</v>
+        <v>0.143397</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1423</v>
+        <v>0.139841</v>
       </c>
       <c r="D35" t="n">
-        <v>0.155005</v>
+        <v>0.154132</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.143938</v>
+        <v>0.142657</v>
       </c>
       <c r="C36" t="n">
-        <v>0.145426</v>
+        <v>0.147669</v>
       </c>
       <c r="D36" t="n">
-        <v>0.152716</v>
+        <v>0.154857</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.151397</v>
+        <v>0.14861</v>
       </c>
       <c r="C37" t="n">
-        <v>0.133681</v>
+        <v>0.133029</v>
       </c>
       <c r="D37" t="n">
-        <v>0.155701</v>
+        <v>0.152186</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.174754</v>
+        <v>0.168173</v>
       </c>
       <c r="C38" t="n">
-        <v>0.137487</v>
+        <v>0.138219</v>
       </c>
       <c r="D38" t="n">
-        <v>0.154689</v>
+        <v>0.148983</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.171523</v>
+        <v>0.166019</v>
       </c>
       <c r="C39" t="n">
-        <v>0.138791</v>
+        <v>0.137387</v>
       </c>
       <c r="D39" t="n">
-        <v>0.159817</v>
+        <v>0.145008</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.172221</v>
+        <v>0.173169</v>
       </c>
       <c r="C40" t="n">
-        <v>0.134651</v>
+        <v>0.137065</v>
       </c>
       <c r="D40" t="n">
-        <v>0.151858</v>
+        <v>0.145432</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.181219</v>
+        <v>0.166336</v>
       </c>
       <c r="C41" t="n">
-        <v>0.136346</v>
+        <v>0.13869</v>
       </c>
       <c r="D41" t="n">
-        <v>0.154014</v>
+        <v>0.145484</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.164717</v>
+        <v>0.167849</v>
       </c>
       <c r="C42" t="n">
-        <v>0.133043</v>
+        <v>0.135875</v>
       </c>
       <c r="D42" t="n">
-        <v>0.15333</v>
+        <v>0.161822</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.167386</v>
+        <v>0.174499</v>
       </c>
       <c r="C43" t="n">
-        <v>0.132909</v>
+        <v>0.136315</v>
       </c>
       <c r="D43" t="n">
-        <v>0.16618</v>
+        <v>0.153654</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.173167</v>
+        <v>0.170795</v>
       </c>
       <c r="C44" t="n">
-        <v>0.137736</v>
+        <v>0.139593</v>
       </c>
       <c r="D44" t="n">
-        <v>0.158314</v>
+        <v>0.150992</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.170865</v>
+        <v>0.180705</v>
       </c>
       <c r="C45" t="n">
-        <v>0.139314</v>
+        <v>0.140207</v>
       </c>
       <c r="D45" t="n">
-        <v>0.157186</v>
+        <v>0.158485</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.168344</v>
+        <v>0.165992</v>
       </c>
       <c r="C46" t="n">
-        <v>0.14054</v>
+        <v>0.143431</v>
       </c>
       <c r="D46" t="n">
-        <v>0.160985</v>
+        <v>0.150313</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.170675</v>
+        <v>0.169583</v>
       </c>
       <c r="C47" t="n">
-        <v>0.137403</v>
+        <v>0.139095</v>
       </c>
       <c r="D47" t="n">
-        <v>0.160273</v>
+        <v>0.1535</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.170254</v>
+        <v>0.16877</v>
       </c>
       <c r="C48" t="n">
-        <v>0.142213</v>
+        <v>0.144837</v>
       </c>
       <c r="D48" t="n">
-        <v>0.162506</v>
+        <v>0.158505</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.183797</v>
+        <v>0.168299</v>
       </c>
       <c r="C49" t="n">
-        <v>0.14679</v>
+        <v>0.14532</v>
       </c>
       <c r="D49" t="n">
-        <v>0.166887</v>
+        <v>0.162801</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.173754</v>
+        <v>0.184308</v>
       </c>
       <c r="C50" t="n">
-        <v>0.149503</v>
+        <v>0.159364</v>
       </c>
       <c r="D50" t="n">
-        <v>0.169673</v>
+        <v>0.17604</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175888</v>
+        <v>0.17452</v>
       </c>
       <c r="C51" t="n">
-        <v>0.209431</v>
+        <v>0.208329</v>
       </c>
       <c r="D51" t="n">
-        <v>0.234581</v>
+        <v>0.22299</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.178699</v>
+        <v>0.187605</v>
       </c>
       <c r="C52" t="n">
-        <v>0.210825</v>
+        <v>0.212406</v>
       </c>
       <c r="D52" t="n">
-        <v>0.216737</v>
+        <v>0.222392</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.266644</v>
+        <v>0.261539</v>
       </c>
       <c r="C53" t="n">
-        <v>0.206708</v>
+        <v>0.202042</v>
       </c>
       <c r="D53" t="n">
-        <v>0.218752</v>
+        <v>0.22294</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.269258</v>
+        <v>0.267792</v>
       </c>
       <c r="C54" t="n">
-        <v>0.210204</v>
+        <v>0.211095</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218841</v>
+        <v>0.221026</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.2853</v>
+        <v>0.26786</v>
       </c>
       <c r="C55" t="n">
-        <v>0.225414</v>
+        <v>0.203917</v>
       </c>
       <c r="D55" t="n">
-        <v>0.226297</v>
+        <v>0.224235</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.261326</v>
+        <v>0.272647</v>
       </c>
       <c r="C56" t="n">
-        <v>0.212876</v>
+        <v>0.207518</v>
       </c>
       <c r="D56" t="n">
-        <v>0.216671</v>
+        <v>0.221853</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.269837</v>
+        <v>0.262887</v>
       </c>
       <c r="C57" t="n">
-        <v>0.214557</v>
+        <v>0.221315</v>
       </c>
       <c r="D57" t="n">
-        <v>0.231021</v>
+        <v>0.237868</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.274614</v>
+        <v>0.277927</v>
       </c>
       <c r="C58" t="n">
-        <v>0.218979</v>
+        <v>0.219053</v>
       </c>
       <c r="D58" t="n">
-        <v>0.230179</v>
+        <v>0.236889</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.277595</v>
+        <v>0.283515</v>
       </c>
       <c r="C59" t="n">
-        <v>0.218046</v>
+        <v>0.212992</v>
       </c>
       <c r="D59" t="n">
-        <v>0.232353</v>
+        <v>0.225373</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.289296</v>
+        <v>0.278906</v>
       </c>
       <c r="C60" t="n">
-        <v>0.220603</v>
+        <v>0.216909</v>
       </c>
       <c r="D60" t="n">
-        <v>0.232086</v>
+        <v>0.225129</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.27731</v>
+        <v>0.271102</v>
       </c>
       <c r="C61" t="n">
-        <v>0.222999</v>
+        <v>0.216185</v>
       </c>
       <c r="D61" t="n">
-        <v>0.230115</v>
+        <v>0.230481</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.289591</v>
+        <v>0.288246</v>
       </c>
       <c r="C62" t="n">
-        <v>0.220054</v>
+        <v>0.22854</v>
       </c>
       <c r="D62" t="n">
-        <v>0.232437</v>
+        <v>0.230369</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.281978</v>
+        <v>0.275324</v>
       </c>
       <c r="C63" t="n">
-        <v>0.222587</v>
+        <v>0.222687</v>
       </c>
       <c r="D63" t="n">
-        <v>0.239227</v>
+        <v>0.234086</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.27601</v>
+        <v>0.278397</v>
       </c>
       <c r="C64" t="n">
-        <v>0.222103</v>
+        <v>0.226006</v>
       </c>
       <c r="D64" t="n">
-        <v>0.2378</v>
+        <v>0.236858</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.287716</v>
+        <v>0.286097</v>
       </c>
       <c r="C65" t="n">
-        <v>0.230619</v>
+        <v>0.229183</v>
       </c>
       <c r="D65" t="n">
-        <v>0.245469</v>
+        <v>0.241887</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.296827</v>
+        <v>0.296429</v>
       </c>
       <c r="C66" t="n">
-        <v>0.31309</v>
+        <v>0.31953</v>
       </c>
       <c r="D66" t="n">
-        <v>0.316332</v>
+        <v>0.31912</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.429185</v>
+        <v>0.427335</v>
       </c>
       <c r="C67" t="n">
-        <v>0.32227</v>
+        <v>0.316116</v>
       </c>
       <c r="D67" t="n">
-        <v>0.329709</v>
+        <v>0.326669</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.442004</v>
+        <v>0.418842</v>
       </c>
       <c r="C68" t="n">
-        <v>0.313377</v>
+        <v>0.312656</v>
       </c>
       <c r="D68" t="n">
-        <v>0.319647</v>
+        <v>0.330037</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.428651</v>
+        <v>0.43461</v>
       </c>
       <c r="C69" t="n">
-        <v>0.318997</v>
+        <v>0.308537</v>
       </c>
       <c r="D69" t="n">
-        <v>0.328971</v>
+        <v>0.322015</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.46911</v>
+        <v>0.425521</v>
       </c>
       <c r="C70" t="n">
-        <v>0.319103</v>
+        <v>0.316173</v>
       </c>
       <c r="D70" t="n">
-        <v>0.331661</v>
+        <v>0.335552</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.445929</v>
+        <v>0.454295</v>
       </c>
       <c r="C71" t="n">
-        <v>0.309621</v>
+        <v>0.330361</v>
       </c>
       <c r="D71" t="n">
-        <v>0.346183</v>
+        <v>0.335642</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.432189</v>
+        <v>0.44237</v>
       </c>
       <c r="C72" t="n">
-        <v>0.32068</v>
+        <v>0.324736</v>
       </c>
       <c r="D72" t="n">
-        <v>0.3469</v>
+        <v>0.327288</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.45832</v>
+        <v>0.441549</v>
       </c>
       <c r="C73" t="n">
-        <v>0.331074</v>
+        <v>0.316659</v>
       </c>
       <c r="D73" t="n">
-        <v>0.335354</v>
+        <v>0.335421</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.443799</v>
+        <v>0.44325</v>
       </c>
       <c r="C74" t="n">
-        <v>0.335098</v>
+        <v>0.33178</v>
       </c>
       <c r="D74" t="n">
-        <v>0.320914</v>
+        <v>0.341326</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.438857</v>
+        <v>0.450825</v>
       </c>
       <c r="C75" t="n">
-        <v>0.330579</v>
+        <v>0.330847</v>
       </c>
       <c r="D75" t="n">
-        <v>0.349357</v>
+        <v>0.333784</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.444068</v>
+        <v>0.44792</v>
       </c>
       <c r="C76" t="n">
-        <v>0.344441</v>
+        <v>0.327918</v>
       </c>
       <c r="D76" t="n">
-        <v>0.335904</v>
+        <v>0.340387</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.451197</v>
+        <v>0.454723</v>
       </c>
       <c r="C77" t="n">
-        <v>0.322157</v>
+        <v>0.339282</v>
       </c>
       <c r="D77" t="n">
-        <v>0.362151</v>
+        <v>0.34778</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.48305</v>
+        <v>0.445497</v>
       </c>
       <c r="C78" t="n">
-        <v>0.346236</v>
+        <v>0.34587</v>
       </c>
       <c r="D78" t="n">
-        <v>0.365556</v>
+        <v>0.359593</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.450662</v>
+        <v>0.445478</v>
       </c>
       <c r="C79" t="n">
-        <v>0.343207</v>
+        <v>0.342921</v>
       </c>
       <c r="D79" t="n">
-        <v>0.338266</v>
+        <v>0.368021</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.444516</v>
+        <v>0.450301</v>
       </c>
       <c r="C80" t="n">
-        <v>0.436065</v>
+        <v>0.46106</v>
       </c>
       <c r="D80" t="n">
-        <v>0.458155</v>
+        <v>0.480024</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.604263</v>
+        <v>0.602241</v>
       </c>
       <c r="C81" t="n">
-        <v>0.440441</v>
+        <v>0.449451</v>
       </c>
       <c r="D81" t="n">
-        <v>0.464841</v>
+        <v>0.469876</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.58869</v>
+        <v>0.58181</v>
       </c>
       <c r="C82" t="n">
-        <v>0.441404</v>
+        <v>0.445009</v>
       </c>
       <c r="D82" t="n">
-        <v>0.466474</v>
+        <v>0.488856</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.556938</v>
+        <v>0.5561</v>
       </c>
       <c r="C83" t="n">
-        <v>0.438123</v>
+        <v>0.444455</v>
       </c>
       <c r="D83" t="n">
-        <v>0.45381</v>
+        <v>0.471702</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.562527</v>
+        <v>0.584547</v>
       </c>
       <c r="C84" t="n">
-        <v>0.452841</v>
+        <v>0.466089</v>
       </c>
       <c r="D84" t="n">
-        <v>0.474733</v>
+        <v>0.467163</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.565497</v>
+        <v>0.5790960000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.449654</v>
+        <v>0.470926</v>
       </c>
       <c r="D85" t="n">
-        <v>0.455625</v>
+        <v>0.471736</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.619388</v>
+        <v>0.581076</v>
       </c>
       <c r="C86" t="n">
-        <v>0.454069</v>
+        <v>0.434267</v>
       </c>
       <c r="D86" t="n">
-        <v>0.481155</v>
+        <v>0.47355</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.601203</v>
+        <v>0.557424</v>
       </c>
       <c r="C87" t="n">
-        <v>0.456994</v>
+        <v>0.442961</v>
       </c>
       <c r="D87" t="n">
-        <v>0.479839</v>
+        <v>0.479186</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.606183</v>
+        <v>0.570172</v>
       </c>
       <c r="C88" t="n">
-        <v>0.450376</v>
+        <v>0.445721</v>
       </c>
       <c r="D88" t="n">
-        <v>0.455269</v>
+        <v>0.472468</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.58223</v>
+        <v>0.568653</v>
       </c>
       <c r="C89" t="n">
-        <v>0.451557</v>
+        <v>0.46551</v>
       </c>
       <c r="D89" t="n">
-        <v>0.451141</v>
+        <v>0.46562</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.573981</v>
+        <v>0.5673550000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.456331</v>
+        <v>0.459044</v>
       </c>
       <c r="D90" t="n">
-        <v>0.466614</v>
+        <v>0.498009</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.590425</v>
+        <v>0.606698</v>
       </c>
       <c r="C91" t="n">
-        <v>0.440696</v>
+        <v>0.456569</v>
       </c>
       <c r="D91" t="n">
-        <v>0.484508</v>
+        <v>0.477386</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.577547</v>
+        <v>0.58462</v>
       </c>
       <c r="C92" t="n">
-        <v>0.456681</v>
+        <v>0.481487</v>
       </c>
       <c r="D92" t="n">
-        <v>0.476464</v>
+        <v>0.476338</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.601625</v>
+        <v>0.592796</v>
       </c>
       <c r="C93" t="n">
-        <v>0.456845</v>
+        <v>0.473791</v>
       </c>
       <c r="D93" t="n">
-        <v>0.497689</v>
+        <v>0.474322</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.602737</v>
+        <v>0.600025</v>
       </c>
       <c r="C94" t="n">
-        <v>0.551785</v>
+        <v>0.534476</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5351359999999999</v>
+        <v>0.566585</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.683311</v>
+        <v>0.659246</v>
       </c>
       <c r="C95" t="n">
-        <v>0.536734</v>
+        <v>0.549332</v>
       </c>
       <c r="D95" t="n">
-        <v>0.571396</v>
+        <v>0.557761</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.704335</v>
+        <v>0.673632</v>
       </c>
       <c r="C96" t="n">
-        <v>0.549324</v>
+        <v>0.539465</v>
       </c>
       <c r="D96" t="n">
-        <v>0.558581</v>
+        <v>0.5666870000000001</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.676142</v>
+        <v>0.684053</v>
       </c>
       <c r="C97" t="n">
-        <v>0.531093</v>
+        <v>0.530169</v>
       </c>
       <c r="D97" t="n">
-        <v>0.554786</v>
+        <v>0.547328</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.678022</v>
+        <v>0.688317</v>
       </c>
       <c r="C98" t="n">
-        <v>0.545837</v>
+        <v>0.58009</v>
       </c>
       <c r="D98" t="n">
-        <v>0.540097</v>
+        <v>0.556003</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.685425</v>
+        <v>0.718415</v>
       </c>
       <c r="C99" t="n">
-        <v>0.559074</v>
+        <v>0.559879</v>
       </c>
       <c r="D99" t="n">
-        <v>0.559696</v>
+        <v>0.560933</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.670887</v>
+        <v>0.667629</v>
       </c>
       <c r="C100" t="n">
-        <v>0.533751</v>
+        <v>0.5629110000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.584501</v>
+        <v>0.542812</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.687985</v>
+        <v>0.7377050000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.528161</v>
+        <v>0.53745</v>
       </c>
       <c r="D101" t="n">
-        <v>0.610432</v>
+        <v>0.550557</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.671177</v>
+        <v>0.6699040000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.544314</v>
+        <v>0.537535</v>
       </c>
       <c r="D102" t="n">
-        <v>0.556935</v>
+        <v>0.581029</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.675782</v>
+        <v>0.665918</v>
       </c>
       <c r="C103" t="n">
-        <v>0.545605</v>
+        <v>0.578485</v>
       </c>
       <c r="D103" t="n">
-        <v>0.559631</v>
+        <v>0.553302</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.733951</v>
+        <v>0.672136</v>
       </c>
       <c r="C104" t="n">
-        <v>0.587529</v>
+        <v>0.558693</v>
       </c>
       <c r="D104" t="n">
-        <v>0.567933</v>
+        <v>0.568581</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.736861</v>
+        <v>0.672717</v>
       </c>
       <c r="C105" t="n">
-        <v>0.545884</v>
+        <v>0.588573</v>
       </c>
       <c r="D105" t="n">
-        <v>0.562354</v>
+        <v>0.556393</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6766</v>
+        <v>0.693626</v>
       </c>
       <c r="C106" t="n">
-        <v>0.582314</v>
+        <v>0.595641</v>
       </c>
       <c r="D106" t="n">
-        <v>0.573662</v>
+        <v>0.5841730000000001</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.688663</v>
+        <v>0.686872</v>
       </c>
       <c r="C107" t="n">
-        <v>0.561778</v>
+        <v>0.579672</v>
       </c>
       <c r="D107" t="n">
-        <v>0.587356</v>
+        <v>0.599051</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.703569</v>
+        <v>0.7053700000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>0.64249</v>
+        <v>0.619453</v>
       </c>
       <c r="D108" t="n">
-        <v>0.622306</v>
+        <v>0.686074</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.7437279999999999</v>
+        <v>0.712497</v>
       </c>
       <c r="C109" t="n">
-        <v>0.6243610000000001</v>
+        <v>0.608145</v>
       </c>
       <c r="D109" t="n">
-        <v>0.639153</v>
+        <v>0.6405380000000001</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.86558</v>
+        <v>0.8763030000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>0.631201</v>
+        <v>0.6785870000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.651128</v>
+        <v>0.662751</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.873611</v>
+        <v>0.967392</v>
       </c>
       <c r="C111" t="n">
-        <v>0.637019</v>
+        <v>0.6652940000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.661744</v>
+        <v>0.70169</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.896714</v>
+        <v>0.857247</v>
       </c>
       <c r="C112" t="n">
-        <v>0.675777</v>
+        <v>0.709853</v>
       </c>
       <c r="D112" t="n">
-        <v>0.65798</v>
+        <v>0.719413</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.880477</v>
+        <v>0.982344</v>
       </c>
       <c r="C113" t="n">
-        <v>0.685451</v>
+        <v>0.62635</v>
       </c>
       <c r="D113" t="n">
-        <v>0.643223</v>
+        <v>0.66654</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.869391</v>
+        <v>0.982561</v>
       </c>
       <c r="C114" t="n">
-        <v>0.635804</v>
+        <v>0.672934</v>
       </c>
       <c r="D114" t="n">
-        <v>0.654327</v>
+        <v>0.652541</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.852788</v>
+        <v>0.961628</v>
       </c>
       <c r="C115" t="n">
-        <v>0.647833</v>
+        <v>0.62602</v>
       </c>
       <c r="D115" t="n">
-        <v>0.653386</v>
+        <v>0.710425</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.884333</v>
+        <v>0.879816</v>
       </c>
       <c r="C116" t="n">
-        <v>0.636069</v>
+        <v>0.641607</v>
       </c>
       <c r="D116" t="n">
-        <v>0.715655</v>
+        <v>0.656527</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.836933</v>
+        <v>0.885288</v>
       </c>
       <c r="C117" t="n">
-        <v>0.656987</v>
+        <v>0.639844</v>
       </c>
       <c r="D117" t="n">
-        <v>0.680037</v>
+        <v>0.730304</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.880317</v>
+        <v>0.873484</v>
       </c>
       <c r="C118" t="n">
-        <v>0.640587</v>
+        <v>0.694399</v>
       </c>
       <c r="D118" t="n">
-        <v>0.682638</v>
+        <v>0.675619</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.841487</v>
+        <v>1.00889</v>
       </c>
       <c r="C119" t="n">
-        <v>0.677072</v>
+        <v>0.660126</v>
       </c>
       <c r="D119" t="n">
-        <v>0.694188</v>
+        <v>0.6892740000000001</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.892861</v>
+        <v>0.862304</v>
       </c>
       <c r="C120" t="n">
-        <v>0.6695410000000001</v>
+        <v>0.649853</v>
       </c>
       <c r="D120" t="n">
-        <v>0.688483</v>
+        <v>0.741409</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.855955</v>
+        <v>0.8565469999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>0.676316</v>
+        <v>0.678547</v>
       </c>
       <c r="D121" t="n">
-        <v>0.692326</v>
+        <v>0.6743130000000001</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.854561</v>
+        <v>0.84894</v>
       </c>
       <c r="C122" t="n">
-        <v>0.67472</v>
+        <v>0.701362</v>
       </c>
       <c r="D122" t="n">
-        <v>0.678879</v>
+        <v>0.698523</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.873961</v>
+        <v>0.856679</v>
       </c>
       <c r="C123" t="n">
-        <v>0.778758</v>
+        <v>0.766733</v>
       </c>
       <c r="D123" t="n">
-        <v>0.807154</v>
+        <v>0.766668</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.13691</v>
+        <v>1.15365</v>
       </c>
       <c r="C124" t="n">
-        <v>0.774269</v>
+        <v>0.79367</v>
       </c>
       <c r="D124" t="n">
-        <v>0.784394</v>
+        <v>0.782075</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.14331</v>
+        <v>1.14875</v>
       </c>
       <c r="C125" t="n">
-        <v>0.807065</v>
+        <v>0.93199</v>
       </c>
       <c r="D125" t="n">
-        <v>0.814101</v>
+        <v>0.787184</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.13474</v>
+        <v>1.26795</v>
       </c>
       <c r="C126" t="n">
-        <v>0.79626</v>
+        <v>0.763362</v>
       </c>
       <c r="D126" t="n">
-        <v>0.780775</v>
+        <v>0.761192</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.21258</v>
+        <v>1.11874</v>
       </c>
       <c r="C127" t="n">
-        <v>0.771394</v>
+        <v>0.79443</v>
       </c>
       <c r="D127" t="n">
-        <v>0.811035</v>
+        <v>0.787072</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.12953</v>
+        <v>1.13188</v>
       </c>
       <c r="C128" t="n">
-        <v>0.767895</v>
+        <v>0.773972</v>
       </c>
       <c r="D128" t="n">
-        <v>0.776053</v>
+        <v>0.781652</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.13815</v>
+        <v>1.12877</v>
       </c>
       <c r="C129" t="n">
-        <v>0.79426</v>
+        <v>0.788515</v>
       </c>
       <c r="D129" t="n">
-        <v>0.817372</v>
+        <v>0.842645</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.14529</v>
+        <v>1.11691</v>
       </c>
       <c r="C130" t="n">
-        <v>0.802605</v>
+        <v>0.7848579999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>0.7935720000000001</v>
+        <v>0.766586</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.12927</v>
+        <v>1.15054</v>
       </c>
       <c r="C131" t="n">
-        <v>0.782399</v>
+        <v>0.788026</v>
       </c>
       <c r="D131" t="n">
-        <v>0.81238</v>
+        <v>0.781259</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.12112</v>
+        <v>1.27598</v>
       </c>
       <c r="C132" t="n">
-        <v>0.777869</v>
+        <v>0.806453</v>
       </c>
       <c r="D132" t="n">
-        <v>0.833849</v>
+        <v>0.812202</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.12583</v>
+        <v>1.12393</v>
       </c>
       <c r="C133" t="n">
-        <v>0.777281</v>
+        <v>0.787511</v>
       </c>
       <c r="D133" t="n">
-        <v>0.797096</v>
+        <v>0.807194</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.10606</v>
+        <v>1.10508</v>
       </c>
       <c r="C134" t="n">
-        <v>0.780327</v>
+        <v>0.81626</v>
       </c>
       <c r="D134" t="n">
-        <v>0.802728</v>
+        <v>0.854788</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.13428</v>
+        <v>1.25886</v>
       </c>
       <c r="C135" t="n">
-        <v>0.798825</v>
+        <v>0.81342</v>
       </c>
       <c r="D135" t="n">
-        <v>0.827254</v>
+        <v>0.810245</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.12875</v>
+        <v>1.12629</v>
       </c>
       <c r="C136" t="n">
-        <v>0.8117180000000001</v>
+        <v>0.828832</v>
       </c>
       <c r="D136" t="n">
-        <v>0.864468</v>
+        <v>0.813621</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.13282</v>
+        <v>1.14759</v>
       </c>
       <c r="C137" t="n">
-        <v>0.968312</v>
+        <v>0.9933650000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>0.996341</v>
+        <v>0.981685</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.42437</v>
+        <v>1.42057</v>
       </c>
       <c r="C138" t="n">
-        <v>0.999217</v>
+        <v>1.00649</v>
       </c>
       <c r="D138" t="n">
-        <v>1.02415</v>
+        <v>1.02035</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.4468</v>
+        <v>1.43466</v>
       </c>
       <c r="C139" t="n">
-        <v>1.01687</v>
+        <v>1.01014</v>
       </c>
       <c r="D139" t="n">
-        <v>1.01501</v>
+        <v>1.04455</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.45771</v>
+        <v>1.51511</v>
       </c>
       <c r="C140" t="n">
-        <v>1.03115</v>
+        <v>1.03819</v>
       </c>
       <c r="D140" t="n">
-        <v>1.0447</v>
+        <v>1.03358</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.47318</v>
+        <v>1.4614</v>
       </c>
       <c r="C141" t="n">
-        <v>1.03004</v>
+        <v>1.01811</v>
       </c>
       <c r="D141" t="n">
-        <v>1.03899</v>
+        <v>1.04523</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.48362</v>
+        <v>1.50263</v>
       </c>
       <c r="C142" t="n">
-        <v>1.04902</v>
+        <v>1.03405</v>
       </c>
       <c r="D142" t="n">
-        <v>1.04395</v>
+        <v>1.0615</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.49834</v>
+        <v>1.54383</v>
       </c>
       <c r="C143" t="n">
-        <v>1.03404</v>
+        <v>1.04137</v>
       </c>
       <c r="D143" t="n">
-        <v>1.05721</v>
+        <v>1.06657</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.119164</v>
+        <v>0.116444</v>
       </c>
       <c r="C2" t="n">
-        <v>0.122085</v>
+        <v>0.117827</v>
       </c>
       <c r="D2" t="n">
-        <v>0.13508</v>
+        <v>0.127997</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.125034</v>
+        <v>0.117123</v>
       </c>
       <c r="C3" t="n">
-        <v>0.119219</v>
+        <v>0.118547</v>
       </c>
       <c r="D3" t="n">
-        <v>0.132485</v>
+        <v>0.127025</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.11895</v>
+        <v>0.114977</v>
       </c>
       <c r="C4" t="n">
-        <v>0.120767</v>
+        <v>0.118322</v>
       </c>
       <c r="D4" t="n">
-        <v>0.134363</v>
+        <v>0.134231</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.118768</v>
+        <v>0.121141</v>
       </c>
       <c r="C5" t="n">
-        <v>0.121946</v>
+        <v>0.122477</v>
       </c>
       <c r="D5" t="n">
-        <v>0.131401</v>
+        <v>0.134993</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.119726</v>
+        <v>0.12665</v>
       </c>
       <c r="C6" t="n">
-        <v>0.121562</v>
+        <v>0.121147</v>
       </c>
       <c r="D6" t="n">
-        <v>0.136209</v>
+        <v>0.132381</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.120726</v>
+        <v>0.124049</v>
       </c>
       <c r="C7" t="n">
-        <v>0.126126</v>
+        <v>0.123472</v>
       </c>
       <c r="D7" t="n">
-        <v>0.131469</v>
+        <v>0.140888</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.119156</v>
+        <v>0.121235</v>
       </c>
       <c r="C8" t="n">
-        <v>0.12605</v>
+        <v>0.131036</v>
       </c>
       <c r="D8" t="n">
-        <v>0.140052</v>
+        <v>0.143168</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.120999</v>
+        <v>0.121443</v>
       </c>
       <c r="C9" t="n">
-        <v>0.11822</v>
+        <v>0.118376</v>
       </c>
       <c r="D9" t="n">
-        <v>0.129628</v>
+        <v>0.132477</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.129465</v>
+        <v>0.129995</v>
       </c>
       <c r="C10" t="n">
-        <v>0.119254</v>
+        <v>0.115924</v>
       </c>
       <c r="D10" t="n">
-        <v>0.138932</v>
+        <v>0.129403</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.128162</v>
+        <v>0.12724</v>
       </c>
       <c r="C11" t="n">
-        <v>0.119448</v>
+        <v>0.116805</v>
       </c>
       <c r="D11" t="n">
-        <v>0.13424</v>
+        <v>0.13188</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.128093</v>
+        <v>0.129805</v>
       </c>
       <c r="C12" t="n">
-        <v>0.12695</v>
+        <v>0.117057</v>
       </c>
       <c r="D12" t="n">
-        <v>0.138181</v>
+        <v>0.130323</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.131173</v>
+        <v>0.131467</v>
       </c>
       <c r="C13" t="n">
-        <v>0.118742</v>
+        <v>0.121235</v>
       </c>
       <c r="D13" t="n">
-        <v>0.128244</v>
+        <v>0.130338</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.131538</v>
+        <v>0.133901</v>
       </c>
       <c r="C14" t="n">
-        <v>0.118278</v>
+        <v>0.121552</v>
       </c>
       <c r="D14" t="n">
-        <v>0.137506</v>
+        <v>0.134208</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.134765</v>
+        <v>0.130897</v>
       </c>
       <c r="C15" t="n">
-        <v>0.119086</v>
+        <v>0.120629</v>
       </c>
       <c r="D15" t="n">
-        <v>0.136403</v>
+        <v>0.133728</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.134644</v>
+        <v>0.129348</v>
       </c>
       <c r="C16" t="n">
-        <v>0.12315</v>
+        <v>0.121675</v>
       </c>
       <c r="D16" t="n">
-        <v>0.131852</v>
+        <v>0.132198</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.131918</v>
+        <v>0.131091</v>
       </c>
       <c r="C17" t="n">
-        <v>0.118983</v>
+        <v>0.122126</v>
       </c>
       <c r="D17" t="n">
-        <v>0.137592</v>
+        <v>0.138321</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.13164</v>
+        <v>0.131056</v>
       </c>
       <c r="C18" t="n">
-        <v>0.126487</v>
+        <v>0.126412</v>
       </c>
       <c r="D18" t="n">
-        <v>0.141474</v>
+        <v>0.141268</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.137991</v>
+        <v>0.130533</v>
       </c>
       <c r="C19" t="n">
-        <v>0.121796</v>
+        <v>0.128815</v>
       </c>
       <c r="D19" t="n">
-        <v>0.136961</v>
+        <v>0.132642</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.128518</v>
+        <v>0.129056</v>
       </c>
       <c r="C20" t="n">
-        <v>0.129972</v>
+        <v>0.124766</v>
       </c>
       <c r="D20" t="n">
-        <v>0.139868</v>
+        <v>0.139122</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.131951</v>
+        <v>0.132137</v>
       </c>
       <c r="C21" t="n">
-        <v>0.137023</v>
+        <v>0.12785</v>
       </c>
       <c r="D21" t="n">
-        <v>0.142271</v>
+        <v>0.144862</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.131734</v>
+        <v>0.130349</v>
       </c>
       <c r="C22" t="n">
-        <v>0.136004</v>
+        <v>0.135472</v>
       </c>
       <c r="D22" t="n">
-        <v>0.152015</v>
+        <v>0.145992</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.140791</v>
+        <v>0.132226</v>
       </c>
       <c r="C23" t="n">
-        <v>0.126054</v>
+        <v>0.126496</v>
       </c>
       <c r="D23" t="n">
-        <v>0.132997</v>
+        <v>0.138894</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.145254</v>
+        <v>0.149546</v>
       </c>
       <c r="C24" t="n">
-        <v>0.12319</v>
+        <v>0.129841</v>
       </c>
       <c r="D24" t="n">
-        <v>0.138212</v>
+        <v>0.135039</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.145443</v>
+        <v>0.142586</v>
       </c>
       <c r="C25" t="n">
-        <v>0.129751</v>
+        <v>0.124246</v>
       </c>
       <c r="D25" t="n">
-        <v>0.138426</v>
+        <v>0.13926</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.136964</v>
+        <v>0.142021</v>
       </c>
       <c r="C26" t="n">
-        <v>0.127985</v>
+        <v>0.124118</v>
       </c>
       <c r="D26" t="n">
-        <v>0.133122</v>
+        <v>0.141157</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135715</v>
+        <v>0.141064</v>
       </c>
       <c r="C27" t="n">
-        <v>0.12347</v>
+        <v>0.12298</v>
       </c>
       <c r="D27" t="n">
-        <v>0.140514</v>
+        <v>0.140249</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1476</v>
+        <v>0.143277</v>
       </c>
       <c r="C28" t="n">
-        <v>0.12834</v>
+        <v>0.12555</v>
       </c>
       <c r="D28" t="n">
-        <v>0.142126</v>
+        <v>0.138936</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.144486</v>
+        <v>0.139005</v>
       </c>
       <c r="C29" t="n">
-        <v>0.127869</v>
+        <v>0.127631</v>
       </c>
       <c r="D29" t="n">
-        <v>0.137797</v>
+        <v>0.142099</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.145285</v>
+        <v>0.146702</v>
       </c>
       <c r="C30" t="n">
-        <v>0.124719</v>
+        <v>0.129755</v>
       </c>
       <c r="D30" t="n">
-        <v>0.142082</v>
+        <v>0.139721</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.145405</v>
+        <v>0.140063</v>
       </c>
       <c r="C31" t="n">
-        <v>0.128499</v>
+        <v>0.127109</v>
       </c>
       <c r="D31" t="n">
-        <v>0.140712</v>
+        <v>0.141404</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.142492</v>
+        <v>0.146908</v>
       </c>
       <c r="C32" t="n">
-        <v>0.129279</v>
+        <v>0.133912</v>
       </c>
       <c r="D32" t="n">
-        <v>0.149075</v>
+        <v>0.143828</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.144579</v>
+        <v>0.144324</v>
       </c>
       <c r="C33" t="n">
-        <v>0.13435</v>
+        <v>0.131368</v>
       </c>
       <c r="D33" t="n">
-        <v>0.141269</v>
+        <v>0.147449</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.139943</v>
+        <v>0.148128</v>
       </c>
       <c r="C34" t="n">
-        <v>0.132922</v>
+        <v>0.133434</v>
       </c>
       <c r="D34" t="n">
-        <v>0.146327</v>
+        <v>0.149623</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.143397</v>
+        <v>0.143708</v>
       </c>
       <c r="C35" t="n">
-        <v>0.139841</v>
+        <v>0.133385</v>
       </c>
       <c r="D35" t="n">
-        <v>0.154132</v>
+        <v>0.144897</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.142657</v>
+        <v>0.146652</v>
       </c>
       <c r="C36" t="n">
-        <v>0.147669</v>
+        <v>0.141236</v>
       </c>
       <c r="D36" t="n">
-        <v>0.154857</v>
+        <v>0.154683</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.14861</v>
+        <v>0.152566</v>
       </c>
       <c r="C37" t="n">
-        <v>0.133029</v>
+        <v>0.13841</v>
       </c>
       <c r="D37" t="n">
-        <v>0.152186</v>
+        <v>0.148108</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.168173</v>
+        <v>0.174693</v>
       </c>
       <c r="C38" t="n">
-        <v>0.138219</v>
+        <v>0.138054</v>
       </c>
       <c r="D38" t="n">
-        <v>0.148983</v>
+        <v>0.144857</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.166019</v>
+        <v>0.164612</v>
       </c>
       <c r="C39" t="n">
-        <v>0.137387</v>
+        <v>0.142826</v>
       </c>
       <c r="D39" t="n">
-        <v>0.145008</v>
+        <v>0.14847</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.173169</v>
+        <v>0.173536</v>
       </c>
       <c r="C40" t="n">
-        <v>0.137065</v>
+        <v>0.129831</v>
       </c>
       <c r="D40" t="n">
-        <v>0.145432</v>
+        <v>0.147721</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.166336</v>
+        <v>0.176047</v>
       </c>
       <c r="C41" t="n">
-        <v>0.13869</v>
+        <v>0.130281</v>
       </c>
       <c r="D41" t="n">
-        <v>0.145484</v>
+        <v>0.149391</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.167849</v>
+        <v>0.164505</v>
       </c>
       <c r="C42" t="n">
-        <v>0.135875</v>
+        <v>0.136543</v>
       </c>
       <c r="D42" t="n">
-        <v>0.161822</v>
+        <v>0.14725</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.174499</v>
+        <v>0.167883</v>
       </c>
       <c r="C43" t="n">
-        <v>0.136315</v>
+        <v>0.137651</v>
       </c>
       <c r="D43" t="n">
-        <v>0.153654</v>
+        <v>0.150655</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.170795</v>
+        <v>0.174146</v>
       </c>
       <c r="C44" t="n">
-        <v>0.139593</v>
+        <v>0.141558</v>
       </c>
       <c r="D44" t="n">
-        <v>0.150992</v>
+        <v>0.152298</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.180705</v>
+        <v>0.165369</v>
       </c>
       <c r="C45" t="n">
-        <v>0.140207</v>
+        <v>0.140917</v>
       </c>
       <c r="D45" t="n">
-        <v>0.158485</v>
+        <v>0.152955</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.165992</v>
+        <v>0.169375</v>
       </c>
       <c r="C46" t="n">
-        <v>0.143431</v>
+        <v>0.136478</v>
       </c>
       <c r="D46" t="n">
-        <v>0.150313</v>
+        <v>0.152923</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.169583</v>
+        <v>0.170164</v>
       </c>
       <c r="C47" t="n">
-        <v>0.139095</v>
+        <v>0.1408</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1535</v>
+        <v>0.150461</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.16877</v>
+        <v>0.168788</v>
       </c>
       <c r="C48" t="n">
-        <v>0.144837</v>
+        <v>0.14898</v>
       </c>
       <c r="D48" t="n">
-        <v>0.158505</v>
+        <v>0.160683</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.168299</v>
+        <v>0.17141</v>
       </c>
       <c r="C49" t="n">
-        <v>0.14532</v>
+        <v>0.152154</v>
       </c>
       <c r="D49" t="n">
-        <v>0.162801</v>
+        <v>0.164288</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.184308</v>
+        <v>0.172922</v>
       </c>
       <c r="C50" t="n">
-        <v>0.159364</v>
+        <v>0.150777</v>
       </c>
       <c r="D50" t="n">
-        <v>0.17604</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.17452</v>
+        <v>0.175777</v>
       </c>
       <c r="C51" t="n">
-        <v>0.208329</v>
+        <v>0.208929</v>
       </c>
       <c r="D51" t="n">
-        <v>0.22299</v>
+        <v>0.21869</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.187605</v>
+        <v>0.182216</v>
       </c>
       <c r="C52" t="n">
-        <v>0.212406</v>
+        <v>0.210551</v>
       </c>
       <c r="D52" t="n">
-        <v>0.222392</v>
+        <v>0.214114</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.261539</v>
+        <v>0.282557</v>
       </c>
       <c r="C53" t="n">
-        <v>0.202042</v>
+        <v>0.211879</v>
       </c>
       <c r="D53" t="n">
-        <v>0.22294</v>
+        <v>0.214005</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.267792</v>
+        <v>0.279502</v>
       </c>
       <c r="C54" t="n">
-        <v>0.211095</v>
+        <v>0.22131</v>
       </c>
       <c r="D54" t="n">
-        <v>0.221026</v>
+        <v>0.219693</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.26786</v>
+        <v>0.280768</v>
       </c>
       <c r="C55" t="n">
-        <v>0.203917</v>
+        <v>0.215076</v>
       </c>
       <c r="D55" t="n">
-        <v>0.224235</v>
+        <v>0.223837</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.272647</v>
+        <v>0.274048</v>
       </c>
       <c r="C56" t="n">
-        <v>0.207518</v>
+        <v>0.217257</v>
       </c>
       <c r="D56" t="n">
-        <v>0.221853</v>
+        <v>0.234772</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.262887</v>
+        <v>0.275895</v>
       </c>
       <c r="C57" t="n">
-        <v>0.221315</v>
+        <v>0.237939</v>
       </c>
       <c r="D57" t="n">
-        <v>0.237868</v>
+        <v>0.226899</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.277927</v>
+        <v>0.290836</v>
       </c>
       <c r="C58" t="n">
-        <v>0.219053</v>
+        <v>0.211715</v>
       </c>
       <c r="D58" t="n">
-        <v>0.236889</v>
+        <v>0.223753</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.283515</v>
+        <v>0.281372</v>
       </c>
       <c r="C59" t="n">
-        <v>0.212992</v>
+        <v>0.222497</v>
       </c>
       <c r="D59" t="n">
-        <v>0.225373</v>
+        <v>0.229924</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.278906</v>
+        <v>0.273454</v>
       </c>
       <c r="C60" t="n">
-        <v>0.216909</v>
+        <v>0.216396</v>
       </c>
       <c r="D60" t="n">
-        <v>0.225129</v>
+        <v>0.231061</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.271102</v>
+        <v>0.276011</v>
       </c>
       <c r="C61" t="n">
-        <v>0.216185</v>
+        <v>0.217998</v>
       </c>
       <c r="D61" t="n">
-        <v>0.230481</v>
+        <v>0.237581</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.288246</v>
+        <v>0.285953</v>
       </c>
       <c r="C62" t="n">
-        <v>0.22854</v>
+        <v>0.212992</v>
       </c>
       <c r="D62" t="n">
-        <v>0.230369</v>
+        <v>0.238023</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.275324</v>
+        <v>0.280437</v>
       </c>
       <c r="C63" t="n">
-        <v>0.222687</v>
+        <v>0.218533</v>
       </c>
       <c r="D63" t="n">
-        <v>0.234086</v>
+        <v>0.239857</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.278397</v>
+        <v>0.285732</v>
       </c>
       <c r="C64" t="n">
-        <v>0.226006</v>
+        <v>0.22164</v>
       </c>
       <c r="D64" t="n">
-        <v>0.236858</v>
+        <v>0.240325</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.286097</v>
+        <v>0.280587</v>
       </c>
       <c r="C65" t="n">
-        <v>0.229183</v>
+        <v>0.230191</v>
       </c>
       <c r="D65" t="n">
-        <v>0.241887</v>
+        <v>0.24551</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.296429</v>
+        <v>0.291224</v>
       </c>
       <c r="C66" t="n">
-        <v>0.31953</v>
+        <v>0.323351</v>
       </c>
       <c r="D66" t="n">
-        <v>0.31912</v>
+        <v>0.32044</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.427335</v>
+        <v>0.437327</v>
       </c>
       <c r="C67" t="n">
-        <v>0.316116</v>
+        <v>0.313089</v>
       </c>
       <c r="D67" t="n">
-        <v>0.326669</v>
+        <v>0.339736</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.418842</v>
+        <v>0.432788</v>
       </c>
       <c r="C68" t="n">
-        <v>0.312656</v>
+        <v>0.317789</v>
       </c>
       <c r="D68" t="n">
-        <v>0.330037</v>
+        <v>0.338445</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.43461</v>
+        <v>0.447811</v>
       </c>
       <c r="C69" t="n">
-        <v>0.308537</v>
+        <v>0.30964</v>
       </c>
       <c r="D69" t="n">
-        <v>0.322015</v>
+        <v>0.316605</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.425521</v>
+        <v>0.46958</v>
       </c>
       <c r="C70" t="n">
-        <v>0.316173</v>
+        <v>0.316087</v>
       </c>
       <c r="D70" t="n">
-        <v>0.335552</v>
+        <v>0.321009</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.454295</v>
+        <v>0.440236</v>
       </c>
       <c r="C71" t="n">
-        <v>0.330361</v>
+        <v>0.319418</v>
       </c>
       <c r="D71" t="n">
-        <v>0.335642</v>
+        <v>0.335802</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.44237</v>
+        <v>0.444013</v>
       </c>
       <c r="C72" t="n">
-        <v>0.324736</v>
+        <v>0.319431</v>
       </c>
       <c r="D72" t="n">
-        <v>0.327288</v>
+        <v>0.342916</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.441549</v>
+        <v>0.426328</v>
       </c>
       <c r="C73" t="n">
-        <v>0.316659</v>
+        <v>0.326607</v>
       </c>
       <c r="D73" t="n">
-        <v>0.335421</v>
+        <v>0.342514</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.44325</v>
+        <v>0.429948</v>
       </c>
       <c r="C74" t="n">
-        <v>0.33178</v>
+        <v>0.337523</v>
       </c>
       <c r="D74" t="n">
-        <v>0.341326</v>
+        <v>0.328582</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.450825</v>
+        <v>0.453774</v>
       </c>
       <c r="C75" t="n">
-        <v>0.330847</v>
+        <v>0.332578</v>
       </c>
       <c r="D75" t="n">
-        <v>0.333784</v>
+        <v>0.359418</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.44792</v>
+        <v>0.44902</v>
       </c>
       <c r="C76" t="n">
-        <v>0.327918</v>
+        <v>0.3321</v>
       </c>
       <c r="D76" t="n">
-        <v>0.340387</v>
+        <v>0.356216</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.454723</v>
+        <v>0.444364</v>
       </c>
       <c r="C77" t="n">
-        <v>0.339282</v>
+        <v>0.32846</v>
       </c>
       <c r="D77" t="n">
-        <v>0.34778</v>
+        <v>0.343202</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.445497</v>
+        <v>0.4441</v>
       </c>
       <c r="C78" t="n">
-        <v>0.34587</v>
+        <v>0.314786</v>
       </c>
       <c r="D78" t="n">
-        <v>0.359593</v>
+        <v>0.334185</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.445478</v>
+        <v>0.44662</v>
       </c>
       <c r="C79" t="n">
-        <v>0.342921</v>
+        <v>0.335232</v>
       </c>
       <c r="D79" t="n">
-        <v>0.368021</v>
+        <v>0.375919</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.450301</v>
+        <v>0.466401</v>
       </c>
       <c r="C80" t="n">
-        <v>0.46106</v>
+        <v>0.438972</v>
       </c>
       <c r="D80" t="n">
-        <v>0.480024</v>
+        <v>0.452838</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.602241</v>
+        <v>0.601989</v>
       </c>
       <c r="C81" t="n">
-        <v>0.449451</v>
+        <v>0.472432</v>
       </c>
       <c r="D81" t="n">
-        <v>0.469876</v>
+        <v>0.46878</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.58181</v>
+        <v>0.585589</v>
       </c>
       <c r="C82" t="n">
-        <v>0.445009</v>
+        <v>0.442713</v>
       </c>
       <c r="D82" t="n">
-        <v>0.488856</v>
+        <v>0.478534</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5561</v>
+        <v>0.579263</v>
       </c>
       <c r="C83" t="n">
-        <v>0.444455</v>
+        <v>0.457341</v>
       </c>
       <c r="D83" t="n">
-        <v>0.471702</v>
+        <v>0.463786</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.584547</v>
+        <v>0.576605</v>
       </c>
       <c r="C84" t="n">
-        <v>0.466089</v>
+        <v>0.453353</v>
       </c>
       <c r="D84" t="n">
-        <v>0.467163</v>
+        <v>0.455708</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5790960000000001</v>
+        <v>0.582894</v>
       </c>
       <c r="C85" t="n">
-        <v>0.470926</v>
+        <v>0.457361</v>
       </c>
       <c r="D85" t="n">
-        <v>0.471736</v>
+        <v>0.458191</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.581076</v>
+        <v>0.5709109999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.434267</v>
+        <v>0.458834</v>
       </c>
       <c r="D86" t="n">
-        <v>0.47355</v>
+        <v>0.455991</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.557424</v>
+        <v>0.59592</v>
       </c>
       <c r="C87" t="n">
-        <v>0.442961</v>
+        <v>0.448791</v>
       </c>
       <c r="D87" t="n">
-        <v>0.479186</v>
+        <v>0.462529</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.570172</v>
+        <v>0.584149</v>
       </c>
       <c r="C88" t="n">
-        <v>0.445721</v>
+        <v>0.462474</v>
       </c>
       <c r="D88" t="n">
-        <v>0.472468</v>
+        <v>0.485766</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.568653</v>
+        <v>0.595237</v>
       </c>
       <c r="C89" t="n">
-        <v>0.46551</v>
+        <v>0.447327</v>
       </c>
       <c r="D89" t="n">
-        <v>0.46562</v>
+        <v>0.47062</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5673550000000001</v>
+        <v>0.585019</v>
       </c>
       <c r="C90" t="n">
-        <v>0.459044</v>
+        <v>0.460101</v>
       </c>
       <c r="D90" t="n">
-        <v>0.498009</v>
+        <v>0.483759</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.606698</v>
+        <v>0.58924</v>
       </c>
       <c r="C91" t="n">
-        <v>0.456569</v>
+        <v>0.460466</v>
       </c>
       <c r="D91" t="n">
-        <v>0.477386</v>
+        <v>0.491995</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.58462</v>
+        <v>0.589753</v>
       </c>
       <c r="C92" t="n">
-        <v>0.481487</v>
+        <v>0.474948</v>
       </c>
       <c r="D92" t="n">
-        <v>0.476338</v>
+        <v>0.471836</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.592796</v>
+        <v>0.612863</v>
       </c>
       <c r="C93" t="n">
-        <v>0.473791</v>
+        <v>0.471733</v>
       </c>
       <c r="D93" t="n">
-        <v>0.474322</v>
+        <v>0.481779</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.600025</v>
+        <v>0.601357</v>
       </c>
       <c r="C94" t="n">
-        <v>0.534476</v>
+        <v>0.550446</v>
       </c>
       <c r="D94" t="n">
-        <v>0.566585</v>
+        <v>0.574413</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.659246</v>
+        <v>0.69352</v>
       </c>
       <c r="C95" t="n">
-        <v>0.549332</v>
+        <v>0.572957</v>
       </c>
       <c r="D95" t="n">
-        <v>0.557761</v>
+        <v>0.5465370000000001</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.673632</v>
+        <v>0.68048</v>
       </c>
       <c r="C96" t="n">
-        <v>0.539465</v>
+        <v>0.539343</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5666870000000001</v>
+        <v>0.546451</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.684053</v>
+        <v>0.698172</v>
       </c>
       <c r="C97" t="n">
-        <v>0.530169</v>
+        <v>0.561059</v>
       </c>
       <c r="D97" t="n">
-        <v>0.547328</v>
+        <v>0.575287</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.688317</v>
+        <v>0.682106</v>
       </c>
       <c r="C98" t="n">
-        <v>0.58009</v>
+        <v>0.5522319999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>0.556003</v>
+        <v>0.544633</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.718415</v>
+        <v>0.686931</v>
       </c>
       <c r="C99" t="n">
-        <v>0.559879</v>
+        <v>0.531117</v>
       </c>
       <c r="D99" t="n">
-        <v>0.560933</v>
+        <v>0.553519</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.667629</v>
+        <v>0.671054</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5629110000000001</v>
+        <v>0.586394</v>
       </c>
       <c r="D100" t="n">
-        <v>0.542812</v>
+        <v>0.572989</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.7377050000000001</v>
+        <v>0.725404</v>
       </c>
       <c r="C101" t="n">
-        <v>0.53745</v>
+        <v>0.58147</v>
       </c>
       <c r="D101" t="n">
-        <v>0.550557</v>
+        <v>0.58635</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.6699040000000001</v>
+        <v>0.698771</v>
       </c>
       <c r="C102" t="n">
-        <v>0.537535</v>
+        <v>0.547667</v>
       </c>
       <c r="D102" t="n">
-        <v>0.581029</v>
+        <v>0.569815</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.665918</v>
+        <v>0.6710700000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.578485</v>
+        <v>0.585196</v>
       </c>
       <c r="D103" t="n">
-        <v>0.553302</v>
+        <v>0.5680500000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.672136</v>
+        <v>0.69002</v>
       </c>
       <c r="C104" t="n">
-        <v>0.558693</v>
+        <v>0.551013</v>
       </c>
       <c r="D104" t="n">
-        <v>0.568581</v>
+        <v>0.567347</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.672717</v>
+        <v>0.683203</v>
       </c>
       <c r="C105" t="n">
-        <v>0.588573</v>
+        <v>0.573524</v>
       </c>
       <c r="D105" t="n">
-        <v>0.556393</v>
+        <v>0.572649</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.693626</v>
+        <v>0.662756</v>
       </c>
       <c r="C106" t="n">
-        <v>0.595641</v>
+        <v>0.574419</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5841730000000001</v>
+        <v>0.620218</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.686872</v>
+        <v>0.739978</v>
       </c>
       <c r="C107" t="n">
-        <v>0.579672</v>
+        <v>0.552925</v>
       </c>
       <c r="D107" t="n">
-        <v>0.599051</v>
+        <v>0.616182</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.7053700000000001</v>
+        <v>0.726384</v>
       </c>
       <c r="C108" t="n">
-        <v>0.619453</v>
+        <v>0.708413</v>
       </c>
       <c r="D108" t="n">
-        <v>0.686074</v>
+        <v>0.654927</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.712497</v>
+        <v>0.751794</v>
       </c>
       <c r="C109" t="n">
-        <v>0.608145</v>
+        <v>0.65151</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6405380000000001</v>
+        <v>0.658636</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8763030000000001</v>
+        <v>0.935227</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6785870000000001</v>
+        <v>0.679803</v>
       </c>
       <c r="D110" t="n">
-        <v>0.662751</v>
+        <v>0.72228</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.967392</v>
+        <v>0.86358</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6652940000000001</v>
+        <v>0.683069</v>
       </c>
       <c r="D111" t="n">
-        <v>0.70169</v>
+        <v>0.699435</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.857247</v>
+        <v>0.8415899999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.709853</v>
+        <v>0.660426</v>
       </c>
       <c r="D112" t="n">
-        <v>0.719413</v>
+        <v>0.721642</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.982344</v>
+        <v>0.985714</v>
       </c>
       <c r="C113" t="n">
-        <v>0.62635</v>
+        <v>0.646536</v>
       </c>
       <c r="D113" t="n">
-        <v>0.66654</v>
+        <v>0.660312</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.982561</v>
+        <v>1.01271</v>
       </c>
       <c r="C114" t="n">
-        <v>0.672934</v>
+        <v>0.679511</v>
       </c>
       <c r="D114" t="n">
-        <v>0.652541</v>
+        <v>0.7238250000000001</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.961628</v>
+        <v>0.982548</v>
       </c>
       <c r="C115" t="n">
-        <v>0.62602</v>
+        <v>0.703664</v>
       </c>
       <c r="D115" t="n">
-        <v>0.710425</v>
+        <v>0.717967</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.879816</v>
+        <v>0.8731</v>
       </c>
       <c r="C116" t="n">
-        <v>0.641607</v>
+        <v>0.70034</v>
       </c>
       <c r="D116" t="n">
-        <v>0.656527</v>
+        <v>0.733753</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.885288</v>
+        <v>0.840197</v>
       </c>
       <c r="C117" t="n">
-        <v>0.639844</v>
+        <v>0.6553099999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.730304</v>
+        <v>0.66039</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.873484</v>
+        <v>0.97995</v>
       </c>
       <c r="C118" t="n">
-        <v>0.694399</v>
+        <v>0.6652169999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.675619</v>
+        <v>0.693312</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.00889</v>
+        <v>0.862567</v>
       </c>
       <c r="C119" t="n">
-        <v>0.660126</v>
+        <v>0.685326</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6892740000000001</v>
+        <v>0.733146</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.862304</v>
+        <v>0.974759</v>
       </c>
       <c r="C120" t="n">
-        <v>0.649853</v>
+        <v>0.660752</v>
       </c>
       <c r="D120" t="n">
-        <v>0.741409</v>
+        <v>0.684365</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.8565469999999999</v>
+        <v>0.859062</v>
       </c>
       <c r="C121" t="n">
-        <v>0.678547</v>
+        <v>0.6858070000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6743130000000001</v>
+        <v>0.700204</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.84894</v>
+        <v>0.847919</v>
       </c>
       <c r="C122" t="n">
-        <v>0.701362</v>
+        <v>0.68162</v>
       </c>
       <c r="D122" t="n">
-        <v>0.698523</v>
+        <v>0.75306</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.856679</v>
+        <v>0.893288</v>
       </c>
       <c r="C123" t="n">
-        <v>0.766733</v>
+        <v>0.880799</v>
       </c>
       <c r="D123" t="n">
-        <v>0.766668</v>
+        <v>0.781538</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.15365</v>
+        <v>1.13943</v>
       </c>
       <c r="C124" t="n">
-        <v>0.79367</v>
+        <v>0.845839</v>
       </c>
       <c r="D124" t="n">
-        <v>0.782075</v>
+        <v>0.890054</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.14875</v>
+        <v>1.11287</v>
       </c>
       <c r="C125" t="n">
-        <v>0.93199</v>
+        <v>0.882802</v>
       </c>
       <c r="D125" t="n">
-        <v>0.787184</v>
+        <v>0.78523</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.26795</v>
+        <v>1.25679</v>
       </c>
       <c r="C126" t="n">
-        <v>0.763362</v>
+        <v>0.787681</v>
       </c>
       <c r="D126" t="n">
-        <v>0.761192</v>
+        <v>0.802878</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.11874</v>
+        <v>1.12737</v>
       </c>
       <c r="C127" t="n">
-        <v>0.79443</v>
+        <v>0.776452</v>
       </c>
       <c r="D127" t="n">
-        <v>0.787072</v>
+        <v>0.809544</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.13188</v>
+        <v>1.12142</v>
       </c>
       <c r="C128" t="n">
-        <v>0.773972</v>
+        <v>0.827475</v>
       </c>
       <c r="D128" t="n">
-        <v>0.781652</v>
+        <v>0.88045</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.12877</v>
+        <v>1.10048</v>
       </c>
       <c r="C129" t="n">
-        <v>0.788515</v>
+        <v>0.782812</v>
       </c>
       <c r="D129" t="n">
-        <v>0.842645</v>
+        <v>0.792598</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.11691</v>
+        <v>1.26176</v>
       </c>
       <c r="C130" t="n">
-        <v>0.7848579999999999</v>
+        <v>0.909637</v>
       </c>
       <c r="D130" t="n">
-        <v>0.766586</v>
+        <v>0.857957</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.15054</v>
+        <v>1.13629</v>
       </c>
       <c r="C131" t="n">
-        <v>0.788026</v>
+        <v>0.77949</v>
       </c>
       <c r="D131" t="n">
-        <v>0.781259</v>
+        <v>0.849614</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.27598</v>
+        <v>1.10894</v>
       </c>
       <c r="C132" t="n">
-        <v>0.806453</v>
+        <v>0.795773</v>
       </c>
       <c r="D132" t="n">
-        <v>0.812202</v>
+        <v>0.82842</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.12393</v>
+        <v>1.12331</v>
       </c>
       <c r="C133" t="n">
-        <v>0.787511</v>
+        <v>0.805184</v>
       </c>
       <c r="D133" t="n">
-        <v>0.807194</v>
+        <v>0.812775</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.10508</v>
+        <v>1.11985</v>
       </c>
       <c r="C134" t="n">
-        <v>0.81626</v>
+        <v>0.800034</v>
       </c>
       <c r="D134" t="n">
-        <v>0.854788</v>
+        <v>0.811396</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.25886</v>
+        <v>1.13783</v>
       </c>
       <c r="C135" t="n">
-        <v>0.81342</v>
+        <v>0.9188499999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>0.810245</v>
+        <v>0.914593</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.12629</v>
+        <v>1.27216</v>
       </c>
       <c r="C136" t="n">
-        <v>0.828832</v>
+        <v>0.816465</v>
       </c>
       <c r="D136" t="n">
-        <v>0.813621</v>
+        <v>0.834672</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.14759</v>
+        <v>1.13611</v>
       </c>
       <c r="C137" t="n">
-        <v>0.9933650000000001</v>
+        <v>0.987174</v>
       </c>
       <c r="D137" t="n">
-        <v>0.981685</v>
+        <v>1.03179</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.42057</v>
+        <v>1.42649</v>
       </c>
       <c r="C138" t="n">
-        <v>1.00649</v>
+        <v>1.01553</v>
       </c>
       <c r="D138" t="n">
-        <v>1.02035</v>
+        <v>1.08234</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.43466</v>
+        <v>1.42752</v>
       </c>
       <c r="C139" t="n">
-        <v>1.01014</v>
+        <v>1.04472</v>
       </c>
       <c r="D139" t="n">
-        <v>1.04455</v>
+        <v>1.09041</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.51511</v>
+        <v>1.46964</v>
       </c>
       <c r="C140" t="n">
-        <v>1.03819</v>
+        <v>1.08617</v>
       </c>
       <c r="D140" t="n">
-        <v>1.03358</v>
+        <v>1.04467</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.4614</v>
+        <v>1.46793</v>
       </c>
       <c r="C141" t="n">
-        <v>1.01811</v>
+        <v>1.08654</v>
       </c>
       <c r="D141" t="n">
-        <v>1.04523</v>
+        <v>1.11003</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.50263</v>
+        <v>1.54931</v>
       </c>
       <c r="C142" t="n">
-        <v>1.03405</v>
+        <v>1.04363</v>
       </c>
       <c r="D142" t="n">
-        <v>1.0615</v>
+        <v>1.13647</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.54383</v>
+        <v>1.48935</v>
       </c>
       <c r="C143" t="n">
-        <v>1.04137</v>
+        <v>1.09887</v>
       </c>
       <c r="D143" t="n">
-        <v>1.06657</v>
+        <v>1.05976</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.120313</v>
+        <v>0.120783</v>
       </c>
       <c r="C2" t="n">
-        <v>0.113757</v>
+        <v>0.119929</v>
       </c>
       <c r="D2" t="n">
-        <v>0.148675</v>
+        <v>0.170529</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.114962</v>
+        <v>0.12034</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1169</v>
+        <v>0.122077</v>
       </c>
       <c r="D3" t="n">
-        <v>0.149507</v>
+        <v>0.171148</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.122543</v>
+        <v>0.120276</v>
       </c>
       <c r="C4" t="n">
-        <v>0.115023</v>
+        <v>0.122092</v>
       </c>
       <c r="D4" t="n">
-        <v>0.156266</v>
+        <v>0.172256</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.121</v>
+        <v>0.120697</v>
       </c>
       <c r="C5" t="n">
-        <v>0.111009</v>
+        <v>0.119921</v>
       </c>
       <c r="D5" t="n">
-        <v>0.159697</v>
+        <v>0.175571</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.124789</v>
+        <v>0.123463</v>
       </c>
       <c r="C6" t="n">
-        <v>0.120987</v>
+        <v>0.124783</v>
       </c>
       <c r="D6" t="n">
-        <v>0.166377</v>
+        <v>0.187873</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.122473</v>
+        <v>0.127179</v>
       </c>
       <c r="C7" t="n">
-        <v>0.122847</v>
+        <v>0.130088</v>
       </c>
       <c r="D7" t="n">
-        <v>0.143979</v>
+        <v>0.158958</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.125204</v>
+        <v>0.121805</v>
       </c>
       <c r="C8" t="n">
-        <v>0.126631</v>
+        <v>0.131555</v>
       </c>
       <c r="D8" t="n">
-        <v>0.143126</v>
+        <v>0.164482</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.12236</v>
+        <v>0.127483</v>
       </c>
       <c r="C9" t="n">
-        <v>0.114411</v>
+        <v>0.120862</v>
       </c>
       <c r="D9" t="n">
-        <v>0.149672</v>
+        <v>0.162138</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.130942</v>
+        <v>0.132064</v>
       </c>
       <c r="C10" t="n">
-        <v>0.120412</v>
+        <v>0.118917</v>
       </c>
       <c r="D10" t="n">
-        <v>0.15766</v>
+        <v>0.165686</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.135535</v>
+        <v>0.134769</v>
       </c>
       <c r="C11" t="n">
-        <v>0.117442</v>
+        <v>0.121862</v>
       </c>
       <c r="D11" t="n">
-        <v>0.155064</v>
+        <v>0.168959</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.135477</v>
+        <v>0.131082</v>
       </c>
       <c r="C12" t="n">
-        <v>0.119194</v>
+        <v>0.119409</v>
       </c>
       <c r="D12" t="n">
-        <v>0.15351</v>
+        <v>0.168258</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.134286</v>
+        <v>0.132933</v>
       </c>
       <c r="C13" t="n">
-        <v>0.116497</v>
+        <v>0.122066</v>
       </c>
       <c r="D13" t="n">
-        <v>0.153848</v>
+        <v>0.171715</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.127837</v>
+        <v>0.127232</v>
       </c>
       <c r="C14" t="n">
-        <v>0.114804</v>
+        <v>0.120194</v>
       </c>
       <c r="D14" t="n">
-        <v>0.163988</v>
+        <v>0.175162</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.132832</v>
+        <v>0.134111</v>
       </c>
       <c r="C15" t="n">
-        <v>0.116675</v>
+        <v>0.12243</v>
       </c>
       <c r="D15" t="n">
-        <v>0.163713</v>
+        <v>0.179089</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.131124</v>
+        <v>0.134297</v>
       </c>
       <c r="C16" t="n">
-        <v>0.115528</v>
+        <v>0.121162</v>
       </c>
       <c r="D16" t="n">
-        <v>0.170617</v>
+        <v>0.183319</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.129088</v>
+        <v>0.131164</v>
       </c>
       <c r="C17" t="n">
-        <v>0.117067</v>
+        <v>0.121961</v>
       </c>
       <c r="D17" t="n">
-        <v>0.175116</v>
+        <v>0.187454</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.129708</v>
+        <v>0.12772</v>
       </c>
       <c r="C18" t="n">
-        <v>0.11837</v>
+        <v>0.122428</v>
       </c>
       <c r="D18" t="n">
-        <v>0.173461</v>
+        <v>0.187172</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.132733</v>
+        <v>0.129305</v>
       </c>
       <c r="C19" t="n">
-        <v>0.120492</v>
+        <v>0.123178</v>
       </c>
       <c r="D19" t="n">
-        <v>0.184346</v>
+        <v>0.18886</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.132146</v>
+        <v>0.132965</v>
       </c>
       <c r="C20" t="n">
-        <v>0.12139</v>
+        <v>0.128467</v>
       </c>
       <c r="D20" t="n">
-        <v>0.182502</v>
+        <v>0.193453</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.130937</v>
+        <v>0.128132</v>
       </c>
       <c r="C21" t="n">
-        <v>0.124899</v>
+        <v>0.131265</v>
       </c>
       <c r="D21" t="n">
-        <v>0.147423</v>
+        <v>0.160813</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.139742</v>
+        <v>0.134488</v>
       </c>
       <c r="C22" t="n">
-        <v>0.13027</v>
+        <v>0.132813</v>
       </c>
       <c r="D22" t="n">
-        <v>0.14945</v>
+        <v>0.15965</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.136355</v>
+        <v>0.133519</v>
       </c>
       <c r="C23" t="n">
-        <v>0.119534</v>
+        <v>0.124804</v>
       </c>
       <c r="D23" t="n">
-        <v>0.153956</v>
+        <v>0.163439</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.141109</v>
+        <v>0.136696</v>
       </c>
       <c r="C24" t="n">
-        <v>0.120735</v>
+        <v>0.123346</v>
       </c>
       <c r="D24" t="n">
-        <v>0.158221</v>
+        <v>0.165167</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.141146</v>
+        <v>0.138941</v>
       </c>
       <c r="C25" t="n">
-        <v>0.119818</v>
+        <v>0.126028</v>
       </c>
       <c r="D25" t="n">
-        <v>0.15654</v>
+        <v>0.173022</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.138261</v>
+        <v>0.137843</v>
       </c>
       <c r="C26" t="n">
-        <v>0.121054</v>
+        <v>0.12642</v>
       </c>
       <c r="D26" t="n">
-        <v>0.161387</v>
+        <v>0.175421</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.139254</v>
+        <v>0.142796</v>
       </c>
       <c r="C27" t="n">
-        <v>0.119974</v>
+        <v>0.124973</v>
       </c>
       <c r="D27" t="n">
-        <v>0.16312</v>
+        <v>0.183603</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.140324</v>
+        <v>0.138759</v>
       </c>
       <c r="C28" t="n">
-        <v>0.123544</v>
+        <v>0.127301</v>
       </c>
       <c r="D28" t="n">
-        <v>0.167171</v>
+        <v>0.183603</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.144212</v>
+        <v>0.137364</v>
       </c>
       <c r="C29" t="n">
-        <v>0.125452</v>
+        <v>0.123959</v>
       </c>
       <c r="D29" t="n">
-        <v>0.170043</v>
+        <v>0.186964</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.141122</v>
+        <v>0.141921</v>
       </c>
       <c r="C30" t="n">
-        <v>0.121585</v>
+        <v>0.125305</v>
       </c>
       <c r="D30" t="n">
-        <v>0.174584</v>
+        <v>0.197598</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.142681</v>
+        <v>0.142354</v>
       </c>
       <c r="C31" t="n">
-        <v>0.127967</v>
+        <v>0.126035</v>
       </c>
       <c r="D31" t="n">
-        <v>0.182633</v>
+        <v>0.195129</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.145922</v>
+        <v>0.140893</v>
       </c>
       <c r="C32" t="n">
-        <v>0.12652</v>
+        <v>0.12844</v>
       </c>
       <c r="D32" t="n">
-        <v>0.185642</v>
+        <v>0.202102</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.140277</v>
+        <v>0.14352</v>
       </c>
       <c r="C33" t="n">
-        <v>0.126476</v>
+        <v>0.131236</v>
       </c>
       <c r="D33" t="n">
-        <v>0.186056</v>
+        <v>0.208194</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.142197</v>
+        <v>0.145893</v>
       </c>
       <c r="C34" t="n">
-        <v>0.13135</v>
+        <v>0.133701</v>
       </c>
       <c r="D34" t="n">
-        <v>0.189564</v>
+        <v>0.205981</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.145062</v>
+        <v>0.146</v>
       </c>
       <c r="C35" t="n">
-        <v>0.133104</v>
+        <v>0.137415</v>
       </c>
       <c r="D35" t="n">
-        <v>0.156714</v>
+        <v>0.177461</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.143519</v>
+        <v>0.143382</v>
       </c>
       <c r="C36" t="n">
-        <v>0.139114</v>
+        <v>0.142322</v>
       </c>
       <c r="D36" t="n">
-        <v>0.162835</v>
+        <v>0.179048</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.151205</v>
+        <v>0.147076</v>
       </c>
       <c r="C37" t="n">
-        <v>0.13227</v>
+        <v>0.131946</v>
       </c>
       <c r="D37" t="n">
-        <v>0.169959</v>
+        <v>0.185956</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.171184</v>
+        <v>0.16819</v>
       </c>
       <c r="C38" t="n">
-        <v>0.129604</v>
+        <v>0.133037</v>
       </c>
       <c r="D38" t="n">
-        <v>0.171293</v>
+        <v>0.188434</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.164843</v>
+        <v>0.167263</v>
       </c>
       <c r="C39" t="n">
-        <v>0.128733</v>
+        <v>0.13225</v>
       </c>
       <c r="D39" t="n">
-        <v>0.178106</v>
+        <v>0.193228</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.167948</v>
+        <v>0.167811</v>
       </c>
       <c r="C40" t="n">
-        <v>0.126537</v>
+        <v>0.13103</v>
       </c>
       <c r="D40" t="n">
-        <v>0.182671</v>
+        <v>0.199759</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.165376</v>
+        <v>0.168158</v>
       </c>
       <c r="C41" t="n">
-        <v>0.130014</v>
+        <v>0.136388</v>
       </c>
       <c r="D41" t="n">
-        <v>0.185444</v>
+        <v>0.19962</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.170773</v>
+        <v>0.170242</v>
       </c>
       <c r="C42" t="n">
-        <v>0.12953</v>
+        <v>0.135189</v>
       </c>
       <c r="D42" t="n">
-        <v>0.192803</v>
+        <v>0.211826</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.169536</v>
+        <v>0.17126</v>
       </c>
       <c r="C43" t="n">
-        <v>0.134052</v>
+        <v>0.13607</v>
       </c>
       <c r="D43" t="n">
-        <v>0.202647</v>
+        <v>0.213083</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.169408</v>
+        <v>0.169736</v>
       </c>
       <c r="C44" t="n">
-        <v>0.129619</v>
+        <v>0.13904</v>
       </c>
       <c r="D44" t="n">
-        <v>0.207811</v>
+        <v>0.219649</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.169969</v>
+        <v>0.166479</v>
       </c>
       <c r="C45" t="n">
-        <v>0.133307</v>
+        <v>0.134126</v>
       </c>
       <c r="D45" t="n">
-        <v>0.205938</v>
+        <v>0.222483</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.17032</v>
+        <v>0.173809</v>
       </c>
       <c r="C46" t="n">
-        <v>0.135602</v>
+        <v>0.13823</v>
       </c>
       <c r="D46" t="n">
-        <v>0.21578</v>
+        <v>0.230907</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.17171</v>
+        <v>0.16643</v>
       </c>
       <c r="C47" t="n">
-        <v>0.13796</v>
+        <v>0.141618</v>
       </c>
       <c r="D47" t="n">
-        <v>0.226069</v>
+        <v>0.239129</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.170159</v>
+        <v>0.167891</v>
       </c>
       <c r="C48" t="n">
-        <v>0.137744</v>
+        <v>0.141446</v>
       </c>
       <c r="D48" t="n">
-        <v>0.227043</v>
+        <v>0.249009</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.17065</v>
+        <v>0.168294</v>
       </c>
       <c r="C49" t="n">
-        <v>0.138362</v>
+        <v>0.143465</v>
       </c>
       <c r="D49" t="n">
-        <v>0.241656</v>
+        <v>0.24794</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.173781</v>
+        <v>0.173037</v>
       </c>
       <c r="C50" t="n">
-        <v>0.144298</v>
+        <v>0.149773</v>
       </c>
       <c r="D50" t="n">
-        <v>0.203384</v>
+        <v>0.208405</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.172547</v>
+        <v>0.17323</v>
       </c>
       <c r="C51" t="n">
-        <v>0.218585</v>
+        <v>0.203192</v>
       </c>
       <c r="D51" t="n">
-        <v>0.217569</v>
+        <v>0.213099</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.177621</v>
+        <v>0.172943</v>
       </c>
       <c r="C52" t="n">
-        <v>0.218794</v>
+        <v>0.201429</v>
       </c>
       <c r="D52" t="n">
-        <v>0.215133</v>
+        <v>0.221683</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.26369</v>
+        <v>0.265129</v>
       </c>
       <c r="C53" t="n">
-        <v>0.205846</v>
+        <v>0.206217</v>
       </c>
       <c r="D53" t="n">
-        <v>0.227265</v>
+        <v>0.233731</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.264667</v>
+        <v>0.262741</v>
       </c>
       <c r="C54" t="n">
-        <v>0.204999</v>
+        <v>0.212755</v>
       </c>
       <c r="D54" t="n">
-        <v>0.224706</v>
+        <v>0.233521</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.26527</v>
+        <v>0.259762</v>
       </c>
       <c r="C55" t="n">
-        <v>0.207964</v>
+        <v>0.209835</v>
       </c>
       <c r="D55" t="n">
-        <v>0.236743</v>
+        <v>0.236804</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.260509</v>
+        <v>0.261859</v>
       </c>
       <c r="C56" t="n">
-        <v>0.207321</v>
+        <v>0.207128</v>
       </c>
       <c r="D56" t="n">
-        <v>0.240965</v>
+        <v>0.243603</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.259669</v>
+        <v>0.26409</v>
       </c>
       <c r="C57" t="n">
-        <v>0.217005</v>
+        <v>0.209799</v>
       </c>
       <c r="D57" t="n">
-        <v>0.250438</v>
+        <v>0.252391</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.258134</v>
+        <v>0.254047</v>
       </c>
       <c r="C58" t="n">
-        <v>0.207589</v>
+        <v>0.207651</v>
       </c>
       <c r="D58" t="n">
-        <v>0.258839</v>
+        <v>0.273326</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.257576</v>
+        <v>0.265044</v>
       </c>
       <c r="C59" t="n">
-        <v>0.21613</v>
+        <v>0.212542</v>
       </c>
       <c r="D59" t="n">
-        <v>0.265955</v>
+        <v>0.269824</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.258135</v>
+        <v>0.255994</v>
       </c>
       <c r="C60" t="n">
-        <v>0.214465</v>
+        <v>0.20742</v>
       </c>
       <c r="D60" t="n">
-        <v>0.271984</v>
+        <v>0.28439</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.275671</v>
+        <v>0.264455</v>
       </c>
       <c r="C61" t="n">
-        <v>0.218579</v>
+        <v>0.217116</v>
       </c>
       <c r="D61" t="n">
-        <v>0.300314</v>
+        <v>0.300614</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.270409</v>
+        <v>0.255576</v>
       </c>
       <c r="C62" t="n">
-        <v>0.222043</v>
+        <v>0.218839</v>
       </c>
       <c r="D62" t="n">
-        <v>0.297694</v>
+        <v>0.3051</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.278728</v>
+        <v>0.262017</v>
       </c>
       <c r="C63" t="n">
-        <v>0.220678</v>
+        <v>0.220954</v>
       </c>
       <c r="D63" t="n">
-        <v>0.320727</v>
+        <v>0.32311</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.274624</v>
+        <v>0.26028</v>
       </c>
       <c r="C64" t="n">
-        <v>0.222168</v>
+        <v>0.218473</v>
       </c>
       <c r="D64" t="n">
-        <v>0.295481</v>
+        <v>0.290422</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.282106</v>
+        <v>0.268968</v>
       </c>
       <c r="C65" t="n">
-        <v>0.22863</v>
+        <v>0.226829</v>
       </c>
       <c r="D65" t="n">
-        <v>0.299536</v>
+        <v>0.296938</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.27055</v>
+        <v>0.262984</v>
       </c>
       <c r="C66" t="n">
-        <v>0.299241</v>
+        <v>0.298573</v>
       </c>
       <c r="D66" t="n">
-        <v>0.312361</v>
+        <v>0.311339</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.425558</v>
+        <v>0.405138</v>
       </c>
       <c r="C67" t="n">
-        <v>0.313239</v>
+        <v>0.29437</v>
       </c>
       <c r="D67" t="n">
-        <v>0.318989</v>
+        <v>0.313497</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.416528</v>
+        <v>0.411681</v>
       </c>
       <c r="C68" t="n">
-        <v>0.310068</v>
+        <v>0.299171</v>
       </c>
       <c r="D68" t="n">
-        <v>0.335162</v>
+        <v>0.333466</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.410473</v>
+        <v>0.415681</v>
       </c>
       <c r="C69" t="n">
-        <v>0.331319</v>
+        <v>0.292013</v>
       </c>
       <c r="D69" t="n">
-        <v>0.345382</v>
+        <v>0.342332</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4095</v>
+        <v>0.408338</v>
       </c>
       <c r="C70" t="n">
-        <v>0.310351</v>
+        <v>0.29849</v>
       </c>
       <c r="D70" t="n">
-        <v>0.366891</v>
+        <v>0.364406</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.445152</v>
+        <v>0.408263</v>
       </c>
       <c r="C71" t="n">
-        <v>0.315572</v>
+        <v>0.301257</v>
       </c>
       <c r="D71" t="n">
-        <v>0.376087</v>
+        <v>0.367142</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.407533</v>
+        <v>0.408484</v>
       </c>
       <c r="C72" t="n">
-        <v>0.323599</v>
+        <v>0.308604</v>
       </c>
       <c r="D72" t="n">
-        <v>0.376817</v>
+        <v>0.378087</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.432361</v>
+        <v>0.403922</v>
       </c>
       <c r="C73" t="n">
-        <v>0.328494</v>
+        <v>0.314508</v>
       </c>
       <c r="D73" t="n">
-        <v>0.399461</v>
+        <v>0.398556</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.423602</v>
+        <v>0.416362</v>
       </c>
       <c r="C74" t="n">
-        <v>0.319124</v>
+        <v>0.316225</v>
       </c>
       <c r="D74" t="n">
-        <v>0.406001</v>
+        <v>0.413297</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.416423</v>
+        <v>0.421275</v>
       </c>
       <c r="C75" t="n">
-        <v>0.332057</v>
+        <v>0.310581</v>
       </c>
       <c r="D75" t="n">
-        <v>0.421288</v>
+        <v>0.422988</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.429317</v>
+        <v>0.412869</v>
       </c>
       <c r="C76" t="n">
-        <v>0.314786</v>
+        <v>0.310615</v>
       </c>
       <c r="D76" t="n">
-        <v>0.443217</v>
+        <v>0.46621</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.423593</v>
+        <v>0.408434</v>
       </c>
       <c r="C77" t="n">
-        <v>0.328589</v>
+        <v>0.298716</v>
       </c>
       <c r="D77" t="n">
-        <v>0.463469</v>
+        <v>0.474487</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.429721</v>
+        <v>0.410266</v>
       </c>
       <c r="C78" t="n">
-        <v>0.33327</v>
+        <v>0.301403</v>
       </c>
       <c r="D78" t="n">
-        <v>0.449633</v>
+        <v>0.419974</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.43388</v>
+        <v>0.423968</v>
       </c>
       <c r="C79" t="n">
-        <v>0.343635</v>
+        <v>0.316969</v>
       </c>
       <c r="D79" t="n">
-        <v>0.458208</v>
+        <v>0.447742</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.445767</v>
+        <v>0.410833</v>
       </c>
       <c r="C80" t="n">
-        <v>0.43002</v>
+        <v>0.424342</v>
       </c>
       <c r="D80" t="n">
-        <v>0.458141</v>
+        <v>0.484524</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.559639</v>
+        <v>0.549538</v>
       </c>
       <c r="C81" t="n">
-        <v>0.454597</v>
+        <v>0.424635</v>
       </c>
       <c r="D81" t="n">
-        <v>0.477702</v>
+        <v>0.460097</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.569746</v>
+        <v>0.56828</v>
       </c>
       <c r="C82" t="n">
-        <v>0.452283</v>
+        <v>0.430196</v>
       </c>
       <c r="D82" t="n">
-        <v>0.481659</v>
+        <v>0.490737</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.574384</v>
+        <v>0.554095</v>
       </c>
       <c r="C83" t="n">
-        <v>0.446057</v>
+        <v>0.437097</v>
       </c>
       <c r="D83" t="n">
-        <v>0.499678</v>
+        <v>0.483852</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.554176</v>
+        <v>0.546777</v>
       </c>
       <c r="C84" t="n">
-        <v>0.448702</v>
+        <v>0.442598</v>
       </c>
       <c r="D84" t="n">
-        <v>0.51203</v>
+        <v>0.512046</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.564018</v>
+        <v>0.580627</v>
       </c>
       <c r="C85" t="n">
-        <v>0.459892</v>
+        <v>0.44147</v>
       </c>
       <c r="D85" t="n">
-        <v>0.517845</v>
+        <v>0.510742</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5676099999999999</v>
+        <v>0.561951</v>
       </c>
       <c r="C86" t="n">
-        <v>0.463418</v>
+        <v>0.443651</v>
       </c>
       <c r="D86" t="n">
-        <v>0.535559</v>
+        <v>0.525679</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.568693</v>
+        <v>0.559612</v>
       </c>
       <c r="C87" t="n">
-        <v>0.440035</v>
+        <v>0.424986</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5414</v>
+        <v>0.5682120000000001</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.560178</v>
+        <v>0.550733</v>
       </c>
       <c r="C88" t="n">
-        <v>0.459364</v>
+        <v>0.447308</v>
       </c>
       <c r="D88" t="n">
-        <v>0.567752</v>
+        <v>0.553579</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.559764</v>
+        <v>0.561642</v>
       </c>
       <c r="C89" t="n">
-        <v>0.447091</v>
+        <v>0.442039</v>
       </c>
       <c r="D89" t="n">
-        <v>0.584391</v>
+        <v>0.564721</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.582591</v>
+        <v>0.5648609999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.458098</v>
+        <v>0.447687</v>
       </c>
       <c r="D90" t="n">
-        <v>0.595665</v>
+        <v>0.593676</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.569665</v>
+        <v>0.557739</v>
       </c>
       <c r="C91" t="n">
-        <v>0.474354</v>
+        <v>0.444753</v>
       </c>
       <c r="D91" t="n">
-        <v>0.616573</v>
+        <v>0.6015470000000001</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.564813</v>
+        <v>0.560326</v>
       </c>
       <c r="C92" t="n">
-        <v>0.458317</v>
+        <v>0.451105</v>
       </c>
       <c r="D92" t="n">
-        <v>0.555689</v>
+        <v>0.579797</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.57115</v>
+        <v>0.577213</v>
       </c>
       <c r="C93" t="n">
-        <v>0.455952</v>
+        <v>0.454003</v>
       </c>
       <c r="D93" t="n">
-        <v>0.572697</v>
+        <v>0.605444</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.570894</v>
+        <v>0.5711850000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5396879999999999</v>
+        <v>0.533749</v>
       </c>
       <c r="D94" t="n">
-        <v>0.580693</v>
+        <v>0.5759919999999999</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.664849</v>
+        <v>0.664416</v>
       </c>
       <c r="C95" t="n">
-        <v>0.520262</v>
+        <v>0.523601</v>
       </c>
       <c r="D95" t="n">
-        <v>0.59906</v>
+        <v>0.594102</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.658515</v>
+        <v>0.655168</v>
       </c>
       <c r="C96" t="n">
-        <v>0.528663</v>
+        <v>0.53065</v>
       </c>
       <c r="D96" t="n">
-        <v>0.622779</v>
+        <v>0.628993</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.669469</v>
+        <v>0.642028</v>
       </c>
       <c r="C97" t="n">
-        <v>0.557261</v>
+        <v>0.531415</v>
       </c>
       <c r="D97" t="n">
-        <v>0.625183</v>
+        <v>0.619227</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.652828</v>
+        <v>0.644027</v>
       </c>
       <c r="C98" t="n">
-        <v>0.56296</v>
+        <v>0.519979</v>
       </c>
       <c r="D98" t="n">
-        <v>0.656934</v>
+        <v>0.643347</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.652819</v>
+        <v>0.6548659999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.547315</v>
+        <v>0.517698</v>
       </c>
       <c r="D99" t="n">
-        <v>0.651181</v>
+        <v>0.633361</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.666109</v>
+        <v>0.646327</v>
       </c>
       <c r="C100" t="n">
-        <v>0.547395</v>
+        <v>0.534928</v>
       </c>
       <c r="D100" t="n">
-        <v>0.662629</v>
+        <v>0.66912</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.653329</v>
+        <v>0.648261</v>
       </c>
       <c r="C101" t="n">
-        <v>0.539208</v>
+        <v>0.544835</v>
       </c>
       <c r="D101" t="n">
-        <v>0.680612</v>
+        <v>0.690287</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.653837</v>
+        <v>0.65601</v>
       </c>
       <c r="C102" t="n">
-        <v>0.535379</v>
+        <v>0.553105</v>
       </c>
       <c r="D102" t="n">
-        <v>0.699728</v>
+        <v>0.699487</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.661282</v>
+        <v>0.655021</v>
       </c>
       <c r="C103" t="n">
-        <v>0.541886</v>
+        <v>0.532579</v>
       </c>
       <c r="D103" t="n">
-        <v>0.714429</v>
+        <v>0.708737</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.666561</v>
+        <v>0.648556</v>
       </c>
       <c r="C104" t="n">
-        <v>0.535654</v>
+        <v>0.529899</v>
       </c>
       <c r="D104" t="n">
-        <v>0.723506</v>
+        <v>0.7191</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.68825</v>
+        <v>0.648776</v>
       </c>
       <c r="C105" t="n">
-        <v>0.54918</v>
+        <v>0.5354100000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.750934</v>
+        <v>0.733407</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.677741</v>
+        <v>0.654479</v>
       </c>
       <c r="C106" t="n">
-        <v>0.552022</v>
+        <v>0.532034</v>
       </c>
       <c r="D106" t="n">
-        <v>0.762727</v>
+        <v>0.7795879999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.66992</v>
+        <v>0.650898</v>
       </c>
       <c r="C107" t="n">
-        <v>0.567472</v>
+        <v>0.545804</v>
       </c>
       <c r="D107" t="n">
-        <v>0.681731</v>
+        <v>0.677615</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.657979</v>
+        <v>0.656146</v>
       </c>
       <c r="C108" t="n">
-        <v>0.638828</v>
+        <v>0.597186</v>
       </c>
       <c r="D108" t="n">
-        <v>0.673376</v>
+        <v>0.693879</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.672028</v>
+        <v>0.657122</v>
       </c>
       <c r="C109" t="n">
-        <v>0.634346</v>
+        <v>0.597715</v>
       </c>
       <c r="D109" t="n">
-        <v>0.699157</v>
+        <v>0.694202</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.845396</v>
+        <v>0.809496</v>
       </c>
       <c r="C110" t="n">
-        <v>0.630172</v>
+        <v>0.602334</v>
       </c>
       <c r="D110" t="n">
-        <v>0.72707</v>
+        <v>0.735554</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.790353</v>
+        <v>0.843964</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6019099999999999</v>
+        <v>0.6315190000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.737553</v>
+        <v>0.7427589999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.764142</v>
+        <v>0.812018</v>
       </c>
       <c r="C112" t="n">
-        <v>0.596095</v>
+        <v>0.606692</v>
       </c>
       <c r="D112" t="n">
-        <v>0.734847</v>
+        <v>0.743551</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.776424</v>
+        <v>0.816889</v>
       </c>
       <c r="C113" t="n">
-        <v>0.6065430000000001</v>
+        <v>0.612242</v>
       </c>
       <c r="D113" t="n">
-        <v>0.764068</v>
+        <v>0.76669</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.771794</v>
+        <v>0.810318</v>
       </c>
       <c r="C114" t="n">
-        <v>0.616499</v>
+        <v>0.617822</v>
       </c>
       <c r="D114" t="n">
-        <v>0.763364</v>
+        <v>0.801491</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.747754</v>
+        <v>0.80887</v>
       </c>
       <c r="C115" t="n">
-        <v>0.606335</v>
+        <v>0.626181</v>
       </c>
       <c r="D115" t="n">
-        <v>0.745661</v>
+        <v>0.786043</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.7599359999999999</v>
+        <v>0.796837</v>
       </c>
       <c r="C116" t="n">
-        <v>0.60429</v>
+        <v>0.616495</v>
       </c>
       <c r="D116" t="n">
-        <v>0.767046</v>
+        <v>0.798862</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.787065</v>
+        <v>0.791038</v>
       </c>
       <c r="C117" t="n">
-        <v>0.6241139999999999</v>
+        <v>0.627787</v>
       </c>
       <c r="D117" t="n">
-        <v>0.799302</v>
+        <v>0.8439179999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.8111660000000001</v>
+        <v>0.789445</v>
       </c>
       <c r="C118" t="n">
-        <v>0.610993</v>
+        <v>0.61098</v>
       </c>
       <c r="D118" t="n">
-        <v>0.796315</v>
+        <v>0.841827</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.7639590000000001</v>
+        <v>0.803515</v>
       </c>
       <c r="C119" t="n">
-        <v>0.615864</v>
+        <v>0.627914</v>
       </c>
       <c r="D119" t="n">
-        <v>0.8104209999999999</v>
+        <v>0.846683</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.771108</v>
+        <v>0.795353</v>
       </c>
       <c r="C120" t="n">
-        <v>0.613263</v>
+        <v>0.623586</v>
       </c>
       <c r="D120" t="n">
-        <v>0.824653</v>
+        <v>0.888587</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.7812829999999999</v>
+        <v>0.819631</v>
       </c>
       <c r="C121" t="n">
-        <v>0.628366</v>
+        <v>0.6348549999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>0.716892</v>
+        <v>0.792041</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.7608510000000001</v>
+        <v>0.812761</v>
       </c>
       <c r="C122" t="n">
-        <v>0.643837</v>
+        <v>0.644593</v>
       </c>
       <c r="D122" t="n">
-        <v>0.746759</v>
+        <v>0.818782</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.814499</v>
+        <v>0.816642</v>
       </c>
       <c r="C123" t="n">
-        <v>0.760772</v>
+        <v>0.796152</v>
       </c>
       <c r="D123" t="n">
-        <v>0.753294</v>
+        <v>0.835009</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.984</v>
+        <v>1.04348</v>
       </c>
       <c r="C124" t="n">
-        <v>0.710384</v>
+        <v>0.738729</v>
       </c>
       <c r="D124" t="n">
-        <v>0.769807</v>
+        <v>0.824296</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.997577</v>
+        <v>1.03169</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7113660000000001</v>
+        <v>0.740903</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7748159999999999</v>
+        <v>0.835051</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.01216</v>
+        <v>1.02728</v>
       </c>
       <c r="C126" t="n">
-        <v>0.727441</v>
+        <v>0.741223</v>
       </c>
       <c r="D126" t="n">
-        <v>0.784755</v>
+        <v>0.833045</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.96704</v>
+        <v>1.0482</v>
       </c>
       <c r="C127" t="n">
-        <v>0.729617</v>
+        <v>0.737734</v>
       </c>
       <c r="D127" t="n">
-        <v>0.812414</v>
+        <v>0.8957540000000001</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.9573199999999999</v>
+        <v>1.05231</v>
       </c>
       <c r="C128" t="n">
-        <v>0.708442</v>
+        <v>0.744961</v>
       </c>
       <c r="D128" t="n">
-        <v>0.818085</v>
+        <v>0.863445</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.00201</v>
+        <v>1.04662</v>
       </c>
       <c r="C129" t="n">
-        <v>0.855375</v>
+        <v>0.738205</v>
       </c>
       <c r="D129" t="n">
-        <v>0.876926</v>
+        <v>0.898046</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.954606</v>
+        <v>1.0264</v>
       </c>
       <c r="C130" t="n">
-        <v>0.708511</v>
+        <v>0.748385</v>
       </c>
       <c r="D130" t="n">
-        <v>0.85601</v>
+        <v>0.966801</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.984236</v>
+        <v>1.05862</v>
       </c>
       <c r="C131" t="n">
-        <v>0.73849</v>
+        <v>0.748176</v>
       </c>
       <c r="D131" t="n">
-        <v>0.868544</v>
+        <v>0.920824</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.9745549999999999</v>
+        <v>1.07021</v>
       </c>
       <c r="C132" t="n">
-        <v>0.723554</v>
+        <v>0.763896</v>
       </c>
       <c r="D132" t="n">
-        <v>0.883212</v>
+        <v>0.967573</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.05828</v>
+        <v>1.13813</v>
       </c>
       <c r="C133" t="n">
-        <v>0.773849</v>
+        <v>0.768274</v>
       </c>
       <c r="D133" t="n">
-        <v>0.952214</v>
+        <v>0.976667</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.02636</v>
+        <v>1.04737</v>
       </c>
       <c r="C134" t="n">
-        <v>0.803325</v>
+        <v>0.772217</v>
       </c>
       <c r="D134" t="n">
-        <v>0.974366</v>
+        <v>1.01676</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.04968</v>
+        <v>1.22054</v>
       </c>
       <c r="C135" t="n">
-        <v>0.771716</v>
+        <v>0.8724</v>
       </c>
       <c r="D135" t="n">
-        <v>0.842938</v>
+        <v>0.844176</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.05356</v>
+        <v>1.05322</v>
       </c>
       <c r="C136" t="n">
-        <v>0.810315</v>
+        <v>0.781677</v>
       </c>
       <c r="D136" t="n">
-        <v>0.878804</v>
+        <v>0.89808</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.06106</v>
+        <v>1.22035</v>
       </c>
       <c r="C137" t="n">
-        <v>0.939063</v>
+        <v>0.921147</v>
       </c>
       <c r="D137" t="n">
-        <v>0.882553</v>
+        <v>0.898275</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.32443</v>
+        <v>1.33082</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9582889999999999</v>
+        <v>0.920633</v>
       </c>
       <c r="D138" t="n">
-        <v>0.911629</v>
+        <v>0.916754</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.34487</v>
+        <v>1.31122</v>
       </c>
       <c r="C139" t="n">
-        <v>0.934711</v>
+        <v>0.944449</v>
       </c>
       <c r="D139" t="n">
-        <v>0.908699</v>
+        <v>0.927015</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.32257</v>
+        <v>1.31117</v>
       </c>
       <c r="C140" t="n">
-        <v>0.932373</v>
+        <v>0.923509</v>
       </c>
       <c r="D140" t="n">
-        <v>0.92831</v>
+        <v>0.9433009999999999</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.32309</v>
+        <v>1.30905</v>
       </c>
       <c r="C141" t="n">
-        <v>0.950481</v>
+        <v>0.930836</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9514629999999999</v>
+        <v>0.954618</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.31397</v>
+        <v>1.31064</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9354980000000001</v>
+        <v>0.938737</v>
       </c>
       <c r="D142" t="n">
-        <v>0.980347</v>
+        <v>0.9804850000000001</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.32306</v>
+        <v>1.37179</v>
       </c>
       <c r="C143" t="n">
-        <v>0.969021</v>
+        <v>1.12795</v>
       </c>
       <c r="D143" t="n">
-        <v>0.987385</v>
+        <v>1.0254</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.120783</v>
+        <v>0.123284</v>
       </c>
       <c r="C2" t="n">
-        <v>0.119929</v>
+        <v>0.1316</v>
       </c>
       <c r="D2" t="n">
-        <v>0.170529</v>
+        <v>0.165371</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.12034</v>
+        <v>0.122987</v>
       </c>
       <c r="C3" t="n">
-        <v>0.122077</v>
+        <v>0.13533</v>
       </c>
       <c r="D3" t="n">
-        <v>0.171148</v>
+        <v>0.177435</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.120276</v>
+        <v>0.124376</v>
       </c>
       <c r="C4" t="n">
-        <v>0.122092</v>
+        <v>0.132911</v>
       </c>
       <c r="D4" t="n">
-        <v>0.172256</v>
+        <v>0.176122</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.120697</v>
+        <v>0.124188</v>
       </c>
       <c r="C5" t="n">
-        <v>0.119921</v>
+        <v>0.134041</v>
       </c>
       <c r="D5" t="n">
-        <v>0.175571</v>
+        <v>0.176648</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.123463</v>
+        <v>0.121069</v>
       </c>
       <c r="C6" t="n">
-        <v>0.124783</v>
+        <v>0.138136</v>
       </c>
       <c r="D6" t="n">
-        <v>0.187873</v>
+        <v>0.176791</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.127179</v>
+        <v>0.126655</v>
       </c>
       <c r="C7" t="n">
-        <v>0.130088</v>
+        <v>0.139849</v>
       </c>
       <c r="D7" t="n">
-        <v>0.158958</v>
+        <v>0.155653</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.121805</v>
+        <v>0.125261</v>
       </c>
       <c r="C8" t="n">
-        <v>0.131555</v>
+        <v>0.145036</v>
       </c>
       <c r="D8" t="n">
-        <v>0.164482</v>
+        <v>0.158771</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.127483</v>
+        <v>0.128901</v>
       </c>
       <c r="C9" t="n">
-        <v>0.120862</v>
+        <v>0.133444</v>
       </c>
       <c r="D9" t="n">
-        <v>0.162138</v>
+        <v>0.16323</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.132064</v>
+        <v>0.13028</v>
       </c>
       <c r="C10" t="n">
-        <v>0.118917</v>
+        <v>0.137561</v>
       </c>
       <c r="D10" t="n">
-        <v>0.165686</v>
+        <v>0.167355</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.134769</v>
+        <v>0.13154</v>
       </c>
       <c r="C11" t="n">
-        <v>0.121862</v>
+        <v>0.135749</v>
       </c>
       <c r="D11" t="n">
-        <v>0.168959</v>
+        <v>0.161984</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.131082</v>
+        <v>0.12841</v>
       </c>
       <c r="C12" t="n">
-        <v>0.119409</v>
+        <v>0.134111</v>
       </c>
       <c r="D12" t="n">
-        <v>0.168258</v>
+        <v>0.171163</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.132933</v>
+        <v>0.132638</v>
       </c>
       <c r="C13" t="n">
-        <v>0.122066</v>
+        <v>0.135682</v>
       </c>
       <c r="D13" t="n">
-        <v>0.171715</v>
+        <v>0.171506</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.127232</v>
+        <v>0.136238</v>
       </c>
       <c r="C14" t="n">
-        <v>0.120194</v>
+        <v>0.136315</v>
       </c>
       <c r="D14" t="n">
-        <v>0.175162</v>
+        <v>0.171684</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.134111</v>
+        <v>0.131113</v>
       </c>
       <c r="C15" t="n">
-        <v>0.12243</v>
+        <v>0.137081</v>
       </c>
       <c r="D15" t="n">
-        <v>0.179089</v>
+        <v>0.174375</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.134297</v>
+        <v>0.12801</v>
       </c>
       <c r="C16" t="n">
-        <v>0.121162</v>
+        <v>0.136737</v>
       </c>
       <c r="D16" t="n">
-        <v>0.183319</v>
+        <v>0.181499</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.131164</v>
+        <v>0.128156</v>
       </c>
       <c r="C17" t="n">
-        <v>0.121961</v>
+        <v>0.134963</v>
       </c>
       <c r="D17" t="n">
-        <v>0.187454</v>
+        <v>0.184595</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.12772</v>
+        <v>0.129018</v>
       </c>
       <c r="C18" t="n">
-        <v>0.122428</v>
+        <v>0.137285</v>
       </c>
       <c r="D18" t="n">
-        <v>0.187172</v>
+        <v>0.18644</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.129305</v>
+        <v>0.128213</v>
       </c>
       <c r="C19" t="n">
-        <v>0.123178</v>
+        <v>0.13851</v>
       </c>
       <c r="D19" t="n">
-        <v>0.18886</v>
+        <v>0.192854</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.132965</v>
+        <v>0.130864</v>
       </c>
       <c r="C20" t="n">
-        <v>0.128467</v>
+        <v>0.141575</v>
       </c>
       <c r="D20" t="n">
-        <v>0.193453</v>
+        <v>0.195988</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.128132</v>
+        <v>0.131092</v>
       </c>
       <c r="C21" t="n">
-        <v>0.131265</v>
+        <v>0.140669</v>
       </c>
       <c r="D21" t="n">
-        <v>0.160813</v>
+        <v>0.157789</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.134488</v>
+        <v>0.131701</v>
       </c>
       <c r="C22" t="n">
-        <v>0.132813</v>
+        <v>0.144949</v>
       </c>
       <c r="D22" t="n">
-        <v>0.15965</v>
+        <v>0.164916</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.133519</v>
+        <v>0.137698</v>
       </c>
       <c r="C23" t="n">
-        <v>0.124804</v>
+        <v>0.140202</v>
       </c>
       <c r="D23" t="n">
-        <v>0.163439</v>
+        <v>0.168673</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.136696</v>
+        <v>0.13842</v>
       </c>
       <c r="C24" t="n">
-        <v>0.123346</v>
+        <v>0.137866</v>
       </c>
       <c r="D24" t="n">
-        <v>0.165167</v>
+        <v>0.167902</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.138941</v>
+        <v>0.141644</v>
       </c>
       <c r="C25" t="n">
-        <v>0.126028</v>
+        <v>0.141878</v>
       </c>
       <c r="D25" t="n">
-        <v>0.173022</v>
+        <v>0.173998</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.137843</v>
+        <v>0.140271</v>
       </c>
       <c r="C26" t="n">
-        <v>0.12642</v>
+        <v>0.137135</v>
       </c>
       <c r="D26" t="n">
-        <v>0.175421</v>
+        <v>0.172372</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.142796</v>
+        <v>0.137989</v>
       </c>
       <c r="C27" t="n">
-        <v>0.124973</v>
+        <v>0.135467</v>
       </c>
       <c r="D27" t="n">
-        <v>0.183603</v>
+        <v>0.17632</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.138759</v>
+        <v>0.143595</v>
       </c>
       <c r="C28" t="n">
-        <v>0.127301</v>
+        <v>0.141878</v>
       </c>
       <c r="D28" t="n">
-        <v>0.183603</v>
+        <v>0.181749</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.137364</v>
+        <v>0.14542</v>
       </c>
       <c r="C29" t="n">
-        <v>0.123959</v>
+        <v>0.145111</v>
       </c>
       <c r="D29" t="n">
-        <v>0.186964</v>
+        <v>0.187791</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.141921</v>
+        <v>0.138795</v>
       </c>
       <c r="C30" t="n">
-        <v>0.125305</v>
+        <v>0.144521</v>
       </c>
       <c r="D30" t="n">
-        <v>0.197598</v>
+        <v>0.192081</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.142354</v>
+        <v>0.145102</v>
       </c>
       <c r="C31" t="n">
-        <v>0.126035</v>
+        <v>0.14221</v>
       </c>
       <c r="D31" t="n">
-        <v>0.195129</v>
+        <v>0.192981</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.140893</v>
+        <v>0.140469</v>
       </c>
       <c r="C32" t="n">
-        <v>0.12844</v>
+        <v>0.143685</v>
       </c>
       <c r="D32" t="n">
-        <v>0.202102</v>
+        <v>0.201836</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.14352</v>
+        <v>0.137326</v>
       </c>
       <c r="C33" t="n">
-        <v>0.131236</v>
+        <v>0.145257</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208194</v>
+        <v>0.205106</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.145893</v>
+        <v>0.14185</v>
       </c>
       <c r="C34" t="n">
-        <v>0.133701</v>
+        <v>0.144642</v>
       </c>
       <c r="D34" t="n">
-        <v>0.205981</v>
+        <v>0.206671</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.146</v>
+        <v>0.142759</v>
       </c>
       <c r="C35" t="n">
-        <v>0.137415</v>
+        <v>0.149994</v>
       </c>
       <c r="D35" t="n">
-        <v>0.177461</v>
+        <v>0.177346</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.143382</v>
+        <v>0.142634</v>
       </c>
       <c r="C36" t="n">
-        <v>0.142322</v>
+        <v>0.1542</v>
       </c>
       <c r="D36" t="n">
-        <v>0.179048</v>
+        <v>0.182638</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.147076</v>
+        <v>0.151131</v>
       </c>
       <c r="C37" t="n">
-        <v>0.131946</v>
+        <v>0.148715</v>
       </c>
       <c r="D37" t="n">
-        <v>0.185956</v>
+        <v>0.185211</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.16819</v>
+        <v>0.164274</v>
       </c>
       <c r="C38" t="n">
-        <v>0.133037</v>
+        <v>0.147297</v>
       </c>
       <c r="D38" t="n">
-        <v>0.188434</v>
+        <v>0.186329</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.167263</v>
+        <v>0.169335</v>
       </c>
       <c r="C39" t="n">
-        <v>0.13225</v>
+        <v>0.142999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.193228</v>
+        <v>0.189209</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.167811</v>
+        <v>0.163519</v>
       </c>
       <c r="C40" t="n">
-        <v>0.13103</v>
+        <v>0.147705</v>
       </c>
       <c r="D40" t="n">
-        <v>0.199759</v>
+        <v>0.19652</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.168158</v>
+        <v>0.159816</v>
       </c>
       <c r="C41" t="n">
-        <v>0.136388</v>
+        <v>0.147469</v>
       </c>
       <c r="D41" t="n">
-        <v>0.19962</v>
+        <v>0.205305</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.170242</v>
+        <v>0.166526</v>
       </c>
       <c r="C42" t="n">
-        <v>0.135189</v>
+        <v>0.149674</v>
       </c>
       <c r="D42" t="n">
-        <v>0.211826</v>
+        <v>0.21309</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.17126</v>
+        <v>0.165066</v>
       </c>
       <c r="C43" t="n">
-        <v>0.13607</v>
+        <v>0.151379</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213083</v>
+        <v>0.219237</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.169736</v>
+        <v>0.166229</v>
       </c>
       <c r="C44" t="n">
-        <v>0.13904</v>
+        <v>0.146525</v>
       </c>
       <c r="D44" t="n">
-        <v>0.219649</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.166479</v>
+        <v>0.162893</v>
       </c>
       <c r="C45" t="n">
-        <v>0.134126</v>
+        <v>0.149572</v>
       </c>
       <c r="D45" t="n">
-        <v>0.222483</v>
+        <v>0.223331</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.173809</v>
+        <v>0.169036</v>
       </c>
       <c r="C46" t="n">
-        <v>0.13823</v>
+        <v>0.148338</v>
       </c>
       <c r="D46" t="n">
-        <v>0.230907</v>
+        <v>0.227386</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.16643</v>
+        <v>0.168942</v>
       </c>
       <c r="C47" t="n">
-        <v>0.141618</v>
+        <v>0.149002</v>
       </c>
       <c r="D47" t="n">
-        <v>0.239129</v>
+        <v>0.237283</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167891</v>
+        <v>0.169206</v>
       </c>
       <c r="C48" t="n">
-        <v>0.141446</v>
+        <v>0.15037</v>
       </c>
       <c r="D48" t="n">
-        <v>0.249009</v>
+        <v>0.24738</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.168294</v>
+        <v>0.165404</v>
       </c>
       <c r="C49" t="n">
-        <v>0.143465</v>
+        <v>0.156143</v>
       </c>
       <c r="D49" t="n">
-        <v>0.24794</v>
+        <v>0.252084</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.173037</v>
+        <v>0.16495</v>
       </c>
       <c r="C50" t="n">
-        <v>0.149773</v>
+        <v>0.158726</v>
       </c>
       <c r="D50" t="n">
-        <v>0.208405</v>
+        <v>0.212252</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.17323</v>
+        <v>0.177613</v>
       </c>
       <c r="C51" t="n">
-        <v>0.203192</v>
+        <v>0.224333</v>
       </c>
       <c r="D51" t="n">
-        <v>0.213099</v>
+        <v>0.215123</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.172943</v>
+        <v>0.174964</v>
       </c>
       <c r="C52" t="n">
-        <v>0.201429</v>
+        <v>0.218061</v>
       </c>
       <c r="D52" t="n">
-        <v>0.221683</v>
+        <v>0.219781</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.265129</v>
+        <v>0.261832</v>
       </c>
       <c r="C53" t="n">
-        <v>0.206217</v>
+        <v>0.214002</v>
       </c>
       <c r="D53" t="n">
-        <v>0.233731</v>
+        <v>0.223165</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.262741</v>
+        <v>0.263364</v>
       </c>
       <c r="C54" t="n">
-        <v>0.212755</v>
+        <v>0.217145</v>
       </c>
       <c r="D54" t="n">
-        <v>0.233521</v>
+        <v>0.227466</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.259762</v>
+        <v>0.268816</v>
       </c>
       <c r="C55" t="n">
-        <v>0.209835</v>
+        <v>0.225858</v>
       </c>
       <c r="D55" t="n">
-        <v>0.236804</v>
+        <v>0.254676</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.261859</v>
+        <v>0.264164</v>
       </c>
       <c r="C56" t="n">
-        <v>0.207128</v>
+        <v>0.230181</v>
       </c>
       <c r="D56" t="n">
-        <v>0.243603</v>
+        <v>0.259663</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.26409</v>
+        <v>0.262602</v>
       </c>
       <c r="C57" t="n">
-        <v>0.209799</v>
+        <v>0.224283</v>
       </c>
       <c r="D57" t="n">
-        <v>0.252391</v>
+        <v>0.269334</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.254047</v>
+        <v>0.257452</v>
       </c>
       <c r="C58" t="n">
-        <v>0.207651</v>
+        <v>0.226986</v>
       </c>
       <c r="D58" t="n">
-        <v>0.273326</v>
+        <v>0.266465</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.265044</v>
+        <v>0.255745</v>
       </c>
       <c r="C59" t="n">
-        <v>0.212542</v>
+        <v>0.22777</v>
       </c>
       <c r="D59" t="n">
-        <v>0.269824</v>
+        <v>0.278494</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.255994</v>
+        <v>0.252291</v>
       </c>
       <c r="C60" t="n">
-        <v>0.20742</v>
+        <v>0.221842</v>
       </c>
       <c r="D60" t="n">
-        <v>0.28439</v>
+        <v>0.288005</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.264455</v>
+        <v>0.2572</v>
       </c>
       <c r="C61" t="n">
-        <v>0.217116</v>
+        <v>0.232451</v>
       </c>
       <c r="D61" t="n">
-        <v>0.300614</v>
+        <v>0.294755</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.255576</v>
+        <v>0.26828</v>
       </c>
       <c r="C62" t="n">
-        <v>0.218839</v>
+        <v>0.229895</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3051</v>
+        <v>0.306856</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.262017</v>
+        <v>0.262561</v>
       </c>
       <c r="C63" t="n">
-        <v>0.220954</v>
+        <v>0.234891</v>
       </c>
       <c r="D63" t="n">
-        <v>0.32311</v>
+        <v>0.31558</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.26028</v>
+        <v>0.26128</v>
       </c>
       <c r="C64" t="n">
-        <v>0.218473</v>
+        <v>0.240103</v>
       </c>
       <c r="D64" t="n">
-        <v>0.290422</v>
+        <v>0.286105</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.268968</v>
+        <v>0.272527</v>
       </c>
       <c r="C65" t="n">
-        <v>0.226829</v>
+        <v>0.248927</v>
       </c>
       <c r="D65" t="n">
-        <v>0.296938</v>
+        <v>0.298954</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.262984</v>
+        <v>0.272353</v>
       </c>
       <c r="C66" t="n">
-        <v>0.298573</v>
+        <v>0.324217</v>
       </c>
       <c r="D66" t="n">
-        <v>0.311339</v>
+        <v>0.331899</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.405138</v>
+        <v>0.405227</v>
       </c>
       <c r="C67" t="n">
-        <v>0.29437</v>
+        <v>0.341924</v>
       </c>
       <c r="D67" t="n">
-        <v>0.313497</v>
+        <v>0.326469</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.411681</v>
+        <v>0.400405</v>
       </c>
       <c r="C68" t="n">
-        <v>0.299171</v>
+        <v>0.318104</v>
       </c>
       <c r="D68" t="n">
-        <v>0.333466</v>
+        <v>0.330271</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.415681</v>
+        <v>0.413561</v>
       </c>
       <c r="C69" t="n">
-        <v>0.292013</v>
+        <v>0.334433</v>
       </c>
       <c r="D69" t="n">
-        <v>0.342332</v>
+        <v>0.345233</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.408338</v>
+        <v>0.399096</v>
       </c>
       <c r="C70" t="n">
-        <v>0.29849</v>
+        <v>0.328776</v>
       </c>
       <c r="D70" t="n">
-        <v>0.364406</v>
+        <v>0.354043</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.408263</v>
+        <v>0.393852</v>
       </c>
       <c r="C71" t="n">
-        <v>0.301257</v>
+        <v>0.346983</v>
       </c>
       <c r="D71" t="n">
-        <v>0.367142</v>
+        <v>0.379015</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.408484</v>
+        <v>0.414177</v>
       </c>
       <c r="C72" t="n">
-        <v>0.308604</v>
+        <v>0.347388</v>
       </c>
       <c r="D72" t="n">
-        <v>0.378087</v>
+        <v>0.370796</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.403922</v>
+        <v>0.411074</v>
       </c>
       <c r="C73" t="n">
-        <v>0.314508</v>
+        <v>0.336866</v>
       </c>
       <c r="D73" t="n">
-        <v>0.398556</v>
+        <v>0.391715</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.416362</v>
+        <v>0.407887</v>
       </c>
       <c r="C74" t="n">
-        <v>0.316225</v>
+        <v>0.345556</v>
       </c>
       <c r="D74" t="n">
-        <v>0.413297</v>
+        <v>0.429598</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.421275</v>
+        <v>0.406171</v>
       </c>
       <c r="C75" t="n">
-        <v>0.310581</v>
+        <v>0.340497</v>
       </c>
       <c r="D75" t="n">
-        <v>0.422988</v>
+        <v>0.43199</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.412869</v>
+        <v>0.425491</v>
       </c>
       <c r="C76" t="n">
-        <v>0.310615</v>
+        <v>0.34733</v>
       </c>
       <c r="D76" t="n">
-        <v>0.46621</v>
+        <v>0.455842</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.408434</v>
+        <v>0.416164</v>
       </c>
       <c r="C77" t="n">
-        <v>0.298716</v>
+        <v>0.346338</v>
       </c>
       <c r="D77" t="n">
-        <v>0.474487</v>
+        <v>0.474956</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.410266</v>
+        <v>0.407919</v>
       </c>
       <c r="C78" t="n">
-        <v>0.301403</v>
+        <v>0.357335</v>
       </c>
       <c r="D78" t="n">
-        <v>0.419974</v>
+        <v>0.45327</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.423968</v>
+        <v>0.407506</v>
       </c>
       <c r="C79" t="n">
-        <v>0.316969</v>
+        <v>0.354099</v>
       </c>
       <c r="D79" t="n">
-        <v>0.447742</v>
+        <v>0.432541</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.410833</v>
+        <v>0.410277</v>
       </c>
       <c r="C80" t="n">
-        <v>0.424342</v>
+        <v>0.453963</v>
       </c>
       <c r="D80" t="n">
-        <v>0.484524</v>
+        <v>0.457899</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.549538</v>
+        <v>0.560566</v>
       </c>
       <c r="C81" t="n">
-        <v>0.424635</v>
+        <v>0.45042</v>
       </c>
       <c r="D81" t="n">
-        <v>0.460097</v>
+        <v>0.461862</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.56828</v>
+        <v>0.543902</v>
       </c>
       <c r="C82" t="n">
-        <v>0.430196</v>
+        <v>0.45858</v>
       </c>
       <c r="D82" t="n">
-        <v>0.490737</v>
+        <v>0.48014</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.554095</v>
+        <v>0.566603</v>
       </c>
       <c r="C83" t="n">
-        <v>0.437097</v>
+        <v>0.460734</v>
       </c>
       <c r="D83" t="n">
-        <v>0.483852</v>
+        <v>0.494561</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.546777</v>
+        <v>0.549942</v>
       </c>
       <c r="C84" t="n">
-        <v>0.442598</v>
+        <v>0.467418</v>
       </c>
       <c r="D84" t="n">
-        <v>0.512046</v>
+        <v>0.518549</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.580627</v>
+        <v>0.561268</v>
       </c>
       <c r="C85" t="n">
-        <v>0.44147</v>
+        <v>0.468276</v>
       </c>
       <c r="D85" t="n">
-        <v>0.510742</v>
+        <v>0.508572</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.561951</v>
+        <v>0.550325</v>
       </c>
       <c r="C86" t="n">
-        <v>0.443651</v>
+        <v>0.477269</v>
       </c>
       <c r="D86" t="n">
-        <v>0.525679</v>
+        <v>0.522648</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.559612</v>
+        <v>0.555513</v>
       </c>
       <c r="C87" t="n">
-        <v>0.424986</v>
+        <v>0.478728</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5682120000000001</v>
+        <v>0.564239</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.550733</v>
+        <v>0.557527</v>
       </c>
       <c r="C88" t="n">
-        <v>0.447308</v>
+        <v>0.45783</v>
       </c>
       <c r="D88" t="n">
-        <v>0.553579</v>
+        <v>0.596471</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.561642</v>
+        <v>0.5586719999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.442039</v>
+        <v>0.481174</v>
       </c>
       <c r="D89" t="n">
-        <v>0.564721</v>
+        <v>0.577366</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5648609999999999</v>
+        <v>0.562843</v>
       </c>
       <c r="C90" t="n">
-        <v>0.447687</v>
+        <v>0.475005</v>
       </c>
       <c r="D90" t="n">
-        <v>0.593676</v>
+        <v>0.58374</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.557739</v>
+        <v>0.5560389999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.444753</v>
+        <v>0.47844</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6015470000000001</v>
+        <v>0.595563</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.560326</v>
+        <v>0.551303</v>
       </c>
       <c r="C92" t="n">
-        <v>0.451105</v>
+        <v>0.476201</v>
       </c>
       <c r="D92" t="n">
-        <v>0.579797</v>
+        <v>0.557712</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.577213</v>
+        <v>0.577696</v>
       </c>
       <c r="C93" t="n">
-        <v>0.454003</v>
+        <v>0.485079</v>
       </c>
       <c r="D93" t="n">
-        <v>0.605444</v>
+        <v>0.570314</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5711850000000001</v>
+        <v>0.564543</v>
       </c>
       <c r="C94" t="n">
-        <v>0.533749</v>
+        <v>0.556859</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5759919999999999</v>
+        <v>0.581</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.664416</v>
+        <v>0.725678</v>
       </c>
       <c r="C95" t="n">
-        <v>0.523601</v>
+        <v>0.573047</v>
       </c>
       <c r="D95" t="n">
-        <v>0.594102</v>
+        <v>0.5922460000000001</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.655168</v>
+        <v>0.6646339999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.53065</v>
+        <v>0.559561</v>
       </c>
       <c r="D96" t="n">
-        <v>0.628993</v>
+        <v>0.601193</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.642028</v>
+        <v>0.655927</v>
       </c>
       <c r="C97" t="n">
-        <v>0.531415</v>
+        <v>0.556933</v>
       </c>
       <c r="D97" t="n">
-        <v>0.619227</v>
+        <v>0.644189</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.644027</v>
+        <v>0.653052</v>
       </c>
       <c r="C98" t="n">
-        <v>0.519979</v>
+        <v>0.576833</v>
       </c>
       <c r="D98" t="n">
-        <v>0.643347</v>
+        <v>0.642194</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6548659999999999</v>
+        <v>0.658465</v>
       </c>
       <c r="C99" t="n">
-        <v>0.517698</v>
+        <v>0.551003</v>
       </c>
       <c r="D99" t="n">
-        <v>0.633361</v>
+        <v>0.642696</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.646327</v>
+        <v>0.653342</v>
       </c>
       <c r="C100" t="n">
-        <v>0.534928</v>
+        <v>0.584565</v>
       </c>
       <c r="D100" t="n">
-        <v>0.66912</v>
+        <v>0.6658849999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.648261</v>
+        <v>0.6601590000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.544835</v>
+        <v>0.567854</v>
       </c>
       <c r="D101" t="n">
-        <v>0.690287</v>
+        <v>0.677529</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.65601</v>
+        <v>0.656165</v>
       </c>
       <c r="C102" t="n">
-        <v>0.553105</v>
+        <v>0.58969</v>
       </c>
       <c r="D102" t="n">
-        <v>0.699487</v>
+        <v>0.702707</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.655021</v>
+        <v>0.670284</v>
       </c>
       <c r="C103" t="n">
-        <v>0.532579</v>
+        <v>0.591568</v>
       </c>
       <c r="D103" t="n">
-        <v>0.708737</v>
+        <v>0.706914</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.648556</v>
+        <v>0.6594680000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.529899</v>
+        <v>0.561918</v>
       </c>
       <c r="D104" t="n">
-        <v>0.7191</v>
+        <v>0.723715</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.648776</v>
+        <v>0.718938</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5354100000000001</v>
+        <v>0.566371</v>
       </c>
       <c r="D105" t="n">
-        <v>0.733407</v>
+        <v>0.735923</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.654479</v>
+        <v>0.659528</v>
       </c>
       <c r="C106" t="n">
-        <v>0.532034</v>
+        <v>0.563154</v>
       </c>
       <c r="D106" t="n">
-        <v>0.7795879999999999</v>
+        <v>0.75318</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.650898</v>
+        <v>0.6365229999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.545804</v>
+        <v>0.579139</v>
       </c>
       <c r="D107" t="n">
-        <v>0.677615</v>
+        <v>0.691145</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.656146</v>
+        <v>0.65219</v>
       </c>
       <c r="C108" t="n">
-        <v>0.597186</v>
+        <v>0.64308</v>
       </c>
       <c r="D108" t="n">
-        <v>0.693879</v>
+        <v>0.724483</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.657122</v>
+        <v>0.654927</v>
       </c>
       <c r="C109" t="n">
-        <v>0.597715</v>
+        <v>0.650707</v>
       </c>
       <c r="D109" t="n">
-        <v>0.694202</v>
+        <v>0.703439</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.809496</v>
+        <v>0.812945</v>
       </c>
       <c r="C110" t="n">
-        <v>0.602334</v>
+        <v>0.649328</v>
       </c>
       <c r="D110" t="n">
-        <v>0.735554</v>
+        <v>0.713683</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.843964</v>
+        <v>0.834218</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6315190000000001</v>
+        <v>0.636372</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7427589999999999</v>
+        <v>0.7543840000000001</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.812018</v>
+        <v>0.817395</v>
       </c>
       <c r="C112" t="n">
-        <v>0.606692</v>
+        <v>0.6492869999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.743551</v>
+        <v>0.747373</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.816889</v>
+        <v>0.81296</v>
       </c>
       <c r="C113" t="n">
-        <v>0.612242</v>
+        <v>0.646953</v>
       </c>
       <c r="D113" t="n">
-        <v>0.76669</v>
+        <v>0.799072</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.810318</v>
+        <v>0.804845</v>
       </c>
       <c r="C114" t="n">
-        <v>0.617822</v>
+        <v>0.713653</v>
       </c>
       <c r="D114" t="n">
-        <v>0.801491</v>
+        <v>0.790982</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.80887</v>
+        <v>0.812414</v>
       </c>
       <c r="C115" t="n">
-        <v>0.626181</v>
+        <v>0.65787</v>
       </c>
       <c r="D115" t="n">
-        <v>0.786043</v>
+        <v>0.8108379999999999</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.796837</v>
+        <v>0.830102</v>
       </c>
       <c r="C116" t="n">
-        <v>0.616495</v>
+        <v>0.651277</v>
       </c>
       <c r="D116" t="n">
-        <v>0.798862</v>
+        <v>0.814553</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.791038</v>
+        <v>0.786427</v>
       </c>
       <c r="C117" t="n">
-        <v>0.627787</v>
+        <v>0.6521439999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.8439179999999999</v>
+        <v>0.836538</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.789445</v>
+        <v>0.799472</v>
       </c>
       <c r="C118" t="n">
-        <v>0.61098</v>
+        <v>0.663067</v>
       </c>
       <c r="D118" t="n">
-        <v>0.841827</v>
+        <v>0.836095</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.803515</v>
+        <v>0.827591</v>
       </c>
       <c r="C119" t="n">
-        <v>0.627914</v>
+        <v>0.674791</v>
       </c>
       <c r="D119" t="n">
-        <v>0.846683</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.795353</v>
+        <v>0.836616</v>
       </c>
       <c r="C120" t="n">
-        <v>0.623586</v>
+        <v>0.672084</v>
       </c>
       <c r="D120" t="n">
-        <v>0.888587</v>
+        <v>0.876628</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.819631</v>
+        <v>0.844574</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6348549999999999</v>
+        <v>0.666636</v>
       </c>
       <c r="D121" t="n">
-        <v>0.792041</v>
+        <v>0.777447</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.812761</v>
+        <v>0.816866</v>
       </c>
       <c r="C122" t="n">
-        <v>0.644593</v>
+        <v>0.673608</v>
       </c>
       <c r="D122" t="n">
-        <v>0.818782</v>
+        <v>0.7761400000000001</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.816642</v>
+        <v>0.835363</v>
       </c>
       <c r="C123" t="n">
-        <v>0.796152</v>
+        <v>0.754891</v>
       </c>
       <c r="D123" t="n">
-        <v>0.835009</v>
+        <v>0.794789</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.04348</v>
+        <v>1.07776</v>
       </c>
       <c r="C124" t="n">
-        <v>0.738729</v>
+        <v>0.77289</v>
       </c>
       <c r="D124" t="n">
-        <v>0.824296</v>
+        <v>0.848934</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.03169</v>
+        <v>1.05037</v>
       </c>
       <c r="C125" t="n">
-        <v>0.740903</v>
+        <v>0.777751</v>
       </c>
       <c r="D125" t="n">
-        <v>0.835051</v>
+        <v>0.84277</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.02728</v>
+        <v>1.02935</v>
       </c>
       <c r="C126" t="n">
-        <v>0.741223</v>
+        <v>0.776353</v>
       </c>
       <c r="D126" t="n">
-        <v>0.833045</v>
+        <v>0.846467</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.0482</v>
+        <v>1.04654</v>
       </c>
       <c r="C127" t="n">
-        <v>0.737734</v>
+        <v>0.794258</v>
       </c>
       <c r="D127" t="n">
-        <v>0.8957540000000001</v>
+        <v>0.874413</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.05231</v>
+        <v>1.02719</v>
       </c>
       <c r="C128" t="n">
-        <v>0.744961</v>
+        <v>0.767231</v>
       </c>
       <c r="D128" t="n">
-        <v>0.863445</v>
+        <v>0.902106</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.04662</v>
+        <v>1.05643</v>
       </c>
       <c r="C129" t="n">
-        <v>0.738205</v>
+        <v>0.7599089999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.898046</v>
+        <v>0.888591</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.0264</v>
+        <v>1.04305</v>
       </c>
       <c r="C130" t="n">
-        <v>0.748385</v>
+        <v>0.776084</v>
       </c>
       <c r="D130" t="n">
-        <v>0.966801</v>
+        <v>0.904116</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.05862</v>
+        <v>1.04531</v>
       </c>
       <c r="C131" t="n">
-        <v>0.748176</v>
+        <v>0.780999</v>
       </c>
       <c r="D131" t="n">
-        <v>0.920824</v>
+        <v>0.927576</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.07021</v>
+        <v>1.04978</v>
       </c>
       <c r="C132" t="n">
-        <v>0.763896</v>
+        <v>0.790389</v>
       </c>
       <c r="D132" t="n">
-        <v>0.967573</v>
+        <v>0.941478</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.13813</v>
+        <v>1.05131</v>
       </c>
       <c r="C133" t="n">
-        <v>0.768274</v>
+        <v>0.790111</v>
       </c>
       <c r="D133" t="n">
-        <v>0.976667</v>
+        <v>0.971262</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.04737</v>
+        <v>1.07231</v>
       </c>
       <c r="C134" t="n">
-        <v>0.772217</v>
+        <v>0.788822</v>
       </c>
       <c r="D134" t="n">
-        <v>1.01676</v>
+        <v>0.979593</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.22054</v>
+        <v>1.05324</v>
       </c>
       <c r="C135" t="n">
-        <v>0.8724</v>
+        <v>0.806069</v>
       </c>
       <c r="D135" t="n">
-        <v>0.844176</v>
+        <v>0.8591220000000001</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.05322</v>
+        <v>1.06077</v>
       </c>
       <c r="C136" t="n">
-        <v>0.781677</v>
+        <v>0.815325</v>
       </c>
       <c r="D136" t="n">
-        <v>0.89808</v>
+        <v>0.881466</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.22035</v>
+        <v>1.08092</v>
       </c>
       <c r="C137" t="n">
-        <v>0.921147</v>
+        <v>0.9563469999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>0.898275</v>
+        <v>0.9035300000000001</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.33082</v>
+        <v>1.3278</v>
       </c>
       <c r="C138" t="n">
-        <v>0.920633</v>
+        <v>0.963769</v>
       </c>
       <c r="D138" t="n">
-        <v>0.916754</v>
+        <v>0.9093909999999999</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.31122</v>
+        <v>1.31966</v>
       </c>
       <c r="C139" t="n">
-        <v>0.944449</v>
+        <v>0.956107</v>
       </c>
       <c r="D139" t="n">
-        <v>0.927015</v>
+        <v>0.913419</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.31117</v>
+        <v>1.3298</v>
       </c>
       <c r="C140" t="n">
-        <v>0.923509</v>
+        <v>0.945556</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9433009999999999</v>
+        <v>0.928502</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.30905</v>
+        <v>1.32442</v>
       </c>
       <c r="C141" t="n">
-        <v>0.930836</v>
+        <v>0.964001</v>
       </c>
       <c r="D141" t="n">
-        <v>0.954618</v>
+        <v>0.960327</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.31064</v>
+        <v>1.31413</v>
       </c>
       <c r="C142" t="n">
-        <v>0.938737</v>
+        <v>0.976277</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9804850000000001</v>
+        <v>0.975944</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.37179</v>
+        <v>1.3144</v>
       </c>
       <c r="C143" t="n">
-        <v>1.12795</v>
+        <v>0.952535</v>
       </c>
       <c r="D143" t="n">
-        <v>1.0254</v>
+        <v>1.00303</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.120783</v>
+        <v>0.115707</v>
       </c>
       <c r="C2" t="n">
-        <v>0.119929</v>
+        <v>0.126336</v>
       </c>
       <c r="D2" t="n">
-        <v>0.170529</v>
+        <v>0.156632</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.12034</v>
+        <v>0.11991</v>
       </c>
       <c r="C3" t="n">
-        <v>0.122077</v>
+        <v>0.124126</v>
       </c>
       <c r="D3" t="n">
-        <v>0.171148</v>
+        <v>0.161051</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.120276</v>
+        <v>0.119114</v>
       </c>
       <c r="C4" t="n">
-        <v>0.122092</v>
+        <v>0.126428</v>
       </c>
       <c r="D4" t="n">
-        <v>0.172256</v>
+        <v>0.169421</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.120697</v>
+        <v>0.11726</v>
       </c>
       <c r="C5" t="n">
-        <v>0.119921</v>
+        <v>0.125679</v>
       </c>
       <c r="D5" t="n">
-        <v>0.175571</v>
+        <v>0.171195</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.123463</v>
+        <v>0.120309</v>
       </c>
       <c r="C6" t="n">
-        <v>0.124783</v>
+        <v>0.12937</v>
       </c>
       <c r="D6" t="n">
-        <v>0.187873</v>
+        <v>0.180913</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.127179</v>
+        <v>0.117705</v>
       </c>
       <c r="C7" t="n">
-        <v>0.130088</v>
+        <v>0.12866</v>
       </c>
       <c r="D7" t="n">
-        <v>0.158958</v>
+        <v>0.151825</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.121805</v>
+        <v>0.121865</v>
       </c>
       <c r="C8" t="n">
-        <v>0.131555</v>
+        <v>0.134676</v>
       </c>
       <c r="D8" t="n">
-        <v>0.164482</v>
+        <v>0.154726</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.127483</v>
+        <v>0.1236</v>
       </c>
       <c r="C9" t="n">
-        <v>0.120862</v>
+        <v>0.125579</v>
       </c>
       <c r="D9" t="n">
-        <v>0.162138</v>
+        <v>0.156369</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.132064</v>
+        <v>0.128298</v>
       </c>
       <c r="C10" t="n">
-        <v>0.118917</v>
+        <v>0.130016</v>
       </c>
       <c r="D10" t="n">
-        <v>0.165686</v>
+        <v>0.16015</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.134769</v>
+        <v>0.12905</v>
       </c>
       <c r="C11" t="n">
-        <v>0.121862</v>
+        <v>0.125102</v>
       </c>
       <c r="D11" t="n">
-        <v>0.168959</v>
+        <v>0.162504</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.131082</v>
+        <v>0.126154</v>
       </c>
       <c r="C12" t="n">
-        <v>0.119409</v>
+        <v>0.125989</v>
       </c>
       <c r="D12" t="n">
-        <v>0.168258</v>
+        <v>0.166434</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.132933</v>
+        <v>0.129018</v>
       </c>
       <c r="C13" t="n">
-        <v>0.122066</v>
+        <v>0.129625</v>
       </c>
       <c r="D13" t="n">
-        <v>0.171715</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.127232</v>
+        <v>0.132887</v>
       </c>
       <c r="C14" t="n">
-        <v>0.120194</v>
+        <v>0.131965</v>
       </c>
       <c r="D14" t="n">
-        <v>0.175162</v>
+        <v>0.1826</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.134111</v>
+        <v>0.132738</v>
       </c>
       <c r="C15" t="n">
-        <v>0.12243</v>
+        <v>0.128364</v>
       </c>
       <c r="D15" t="n">
-        <v>0.179089</v>
+        <v>0.183861</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.134297</v>
+        <v>0.131797</v>
       </c>
       <c r="C16" t="n">
-        <v>0.121162</v>
+        <v>0.129229</v>
       </c>
       <c r="D16" t="n">
-        <v>0.183319</v>
+        <v>0.183343</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.131164</v>
+        <v>0.127649</v>
       </c>
       <c r="C17" t="n">
-        <v>0.121961</v>
+        <v>0.137223</v>
       </c>
       <c r="D17" t="n">
-        <v>0.187454</v>
+        <v>0.189485</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.12772</v>
+        <v>0.130823</v>
       </c>
       <c r="C18" t="n">
-        <v>0.122428</v>
+        <v>0.132855</v>
       </c>
       <c r="D18" t="n">
-        <v>0.187172</v>
+        <v>0.195415</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.129305</v>
+        <v>0.129281</v>
       </c>
       <c r="C19" t="n">
-        <v>0.123178</v>
+        <v>0.131505</v>
       </c>
       <c r="D19" t="n">
-        <v>0.18886</v>
+        <v>0.199025</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.132965</v>
+        <v>0.129572</v>
       </c>
       <c r="C20" t="n">
-        <v>0.128467</v>
+        <v>0.136526</v>
       </c>
       <c r="D20" t="n">
-        <v>0.193453</v>
+        <v>0.19676</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.128132</v>
+        <v>0.132364</v>
       </c>
       <c r="C21" t="n">
-        <v>0.131265</v>
+        <v>0.141442</v>
       </c>
       <c r="D21" t="n">
-        <v>0.160813</v>
+        <v>0.159057</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.134488</v>
+        <v>0.134813</v>
       </c>
       <c r="C22" t="n">
-        <v>0.132813</v>
+        <v>0.14534</v>
       </c>
       <c r="D22" t="n">
-        <v>0.15965</v>
+        <v>0.159763</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.133519</v>
+        <v>0.134464</v>
       </c>
       <c r="C23" t="n">
-        <v>0.124804</v>
+        <v>0.136332</v>
       </c>
       <c r="D23" t="n">
-        <v>0.163439</v>
+        <v>0.160861</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.136696</v>
+        <v>0.139459</v>
       </c>
       <c r="C24" t="n">
-        <v>0.123346</v>
+        <v>0.135209</v>
       </c>
       <c r="D24" t="n">
-        <v>0.165167</v>
+        <v>0.174198</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.138941</v>
+        <v>0.141228</v>
       </c>
       <c r="C25" t="n">
-        <v>0.126028</v>
+        <v>0.137933</v>
       </c>
       <c r="D25" t="n">
-        <v>0.173022</v>
+        <v>0.175727</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.137843</v>
+        <v>0.140048</v>
       </c>
       <c r="C26" t="n">
-        <v>0.12642</v>
+        <v>0.133916</v>
       </c>
       <c r="D26" t="n">
-        <v>0.175421</v>
+        <v>0.181981</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.142796</v>
+        <v>0.141187</v>
       </c>
       <c r="C27" t="n">
-        <v>0.124973</v>
+        <v>0.139829</v>
       </c>
       <c r="D27" t="n">
-        <v>0.183603</v>
+        <v>0.182354</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.138759</v>
+        <v>0.140811</v>
       </c>
       <c r="C28" t="n">
-        <v>0.127301</v>
+        <v>0.136405</v>
       </c>
       <c r="D28" t="n">
-        <v>0.183603</v>
+        <v>0.180416</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.137364</v>
+        <v>0.139471</v>
       </c>
       <c r="C29" t="n">
-        <v>0.123959</v>
+        <v>0.136734</v>
       </c>
       <c r="D29" t="n">
-        <v>0.186964</v>
+        <v>0.186318</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.141921</v>
+        <v>0.140147</v>
       </c>
       <c r="C30" t="n">
-        <v>0.125305</v>
+        <v>0.136761</v>
       </c>
       <c r="D30" t="n">
-        <v>0.197598</v>
+        <v>0.193853</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.142354</v>
+        <v>0.138008</v>
       </c>
       <c r="C31" t="n">
-        <v>0.126035</v>
+        <v>0.138574</v>
       </c>
       <c r="D31" t="n">
-        <v>0.195129</v>
+        <v>0.193582</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.140893</v>
+        <v>0.146208</v>
       </c>
       <c r="C32" t="n">
-        <v>0.12844</v>
+        <v>0.141454</v>
       </c>
       <c r="D32" t="n">
-        <v>0.202102</v>
+        <v>0.198787</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.14352</v>
+        <v>0.14254</v>
       </c>
       <c r="C33" t="n">
-        <v>0.131236</v>
+        <v>0.141918</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208194</v>
+        <v>0.206013</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.145893</v>
+        <v>0.139713</v>
       </c>
       <c r="C34" t="n">
-        <v>0.133701</v>
+        <v>0.141628</v>
       </c>
       <c r="D34" t="n">
-        <v>0.205981</v>
+        <v>0.209404</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.146</v>
+        <v>0.141655</v>
       </c>
       <c r="C35" t="n">
-        <v>0.137415</v>
+        <v>0.149396</v>
       </c>
       <c r="D35" t="n">
-        <v>0.177461</v>
+        <v>0.171199</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.143382</v>
+        <v>0.146859</v>
       </c>
       <c r="C36" t="n">
-        <v>0.142322</v>
+        <v>0.149846</v>
       </c>
       <c r="D36" t="n">
-        <v>0.179048</v>
+        <v>0.186797</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.147076</v>
+        <v>0.147175</v>
       </c>
       <c r="C37" t="n">
-        <v>0.131946</v>
+        <v>0.142233</v>
       </c>
       <c r="D37" t="n">
-        <v>0.185956</v>
+        <v>0.186107</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.16819</v>
+        <v>0.165157</v>
       </c>
       <c r="C38" t="n">
-        <v>0.133037</v>
+        <v>0.141116</v>
       </c>
       <c r="D38" t="n">
-        <v>0.188434</v>
+        <v>0.185128</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.167263</v>
+        <v>0.164656</v>
       </c>
       <c r="C39" t="n">
-        <v>0.13225</v>
+        <v>0.145147</v>
       </c>
       <c r="D39" t="n">
-        <v>0.193228</v>
+        <v>0.188604</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.167811</v>
+        <v>0.167535</v>
       </c>
       <c r="C40" t="n">
-        <v>0.13103</v>
+        <v>0.14297</v>
       </c>
       <c r="D40" t="n">
-        <v>0.199759</v>
+        <v>0.194847</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.168158</v>
+        <v>0.16629</v>
       </c>
       <c r="C41" t="n">
-        <v>0.136388</v>
+        <v>0.142509</v>
       </c>
       <c r="D41" t="n">
-        <v>0.19962</v>
+        <v>0.201846</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.170242</v>
+        <v>0.165833</v>
       </c>
       <c r="C42" t="n">
-        <v>0.135189</v>
+        <v>0.142375</v>
       </c>
       <c r="D42" t="n">
-        <v>0.211826</v>
+        <v>0.211915</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.17126</v>
+        <v>0.167991</v>
       </c>
       <c r="C43" t="n">
-        <v>0.13607</v>
+        <v>0.142218</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213083</v>
+        <v>0.212815</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.169736</v>
+        <v>0.165945</v>
       </c>
       <c r="C44" t="n">
-        <v>0.13904</v>
+        <v>0.1431</v>
       </c>
       <c r="D44" t="n">
-        <v>0.219649</v>
+        <v>0.216594</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.166479</v>
+        <v>0.164597</v>
       </c>
       <c r="C45" t="n">
-        <v>0.134126</v>
+        <v>0.145637</v>
       </c>
       <c r="D45" t="n">
-        <v>0.222483</v>
+        <v>0.221339</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.173809</v>
+        <v>0.171423</v>
       </c>
       <c r="C46" t="n">
-        <v>0.13823</v>
+        <v>0.150703</v>
       </c>
       <c r="D46" t="n">
-        <v>0.230907</v>
+        <v>0.233608</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.16643</v>
+        <v>0.167032</v>
       </c>
       <c r="C47" t="n">
-        <v>0.141618</v>
+        <v>0.146168</v>
       </c>
       <c r="D47" t="n">
-        <v>0.239129</v>
+        <v>0.241084</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167891</v>
+        <v>0.168583</v>
       </c>
       <c r="C48" t="n">
-        <v>0.141446</v>
+        <v>0.150672</v>
       </c>
       <c r="D48" t="n">
-        <v>0.249009</v>
+        <v>0.245753</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.168294</v>
+        <v>0.16649</v>
       </c>
       <c r="C49" t="n">
-        <v>0.143465</v>
+        <v>0.152444</v>
       </c>
       <c r="D49" t="n">
-        <v>0.24794</v>
+        <v>0.253504</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.173037</v>
+        <v>0.170812</v>
       </c>
       <c r="C50" t="n">
-        <v>0.149773</v>
+        <v>0.157274</v>
       </c>
       <c r="D50" t="n">
-        <v>0.208405</v>
+        <v>0.21417</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.17323</v>
+        <v>0.171517</v>
       </c>
       <c r="C51" t="n">
-        <v>0.203192</v>
+        <v>0.212085</v>
       </c>
       <c r="D51" t="n">
-        <v>0.213099</v>
+        <v>0.216089</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.172943</v>
+        <v>0.182366</v>
       </c>
       <c r="C52" t="n">
-        <v>0.201429</v>
+        <v>0.217</v>
       </c>
       <c r="D52" t="n">
-        <v>0.221683</v>
+        <v>0.221763</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.265129</v>
+        <v>0.263128</v>
       </c>
       <c r="C53" t="n">
-        <v>0.206217</v>
+        <v>0.214585</v>
       </c>
       <c r="D53" t="n">
-        <v>0.233731</v>
+        <v>0.231185</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.262741</v>
+        <v>0.250177</v>
       </c>
       <c r="C54" t="n">
-        <v>0.212755</v>
+        <v>0.215111</v>
       </c>
       <c r="D54" t="n">
-        <v>0.233521</v>
+        <v>0.232739</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.259762</v>
+        <v>0.255871</v>
       </c>
       <c r="C55" t="n">
-        <v>0.209835</v>
+        <v>0.212956</v>
       </c>
       <c r="D55" t="n">
-        <v>0.236804</v>
+        <v>0.23954</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.261859</v>
+        <v>0.253603</v>
       </c>
       <c r="C56" t="n">
-        <v>0.207128</v>
+        <v>0.212736</v>
       </c>
       <c r="D56" t="n">
-        <v>0.243603</v>
+        <v>0.249832</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.26409</v>
+        <v>0.266005</v>
       </c>
       <c r="C57" t="n">
-        <v>0.209799</v>
+        <v>0.216265</v>
       </c>
       <c r="D57" t="n">
-        <v>0.252391</v>
+        <v>0.255365</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.254047</v>
+        <v>0.262039</v>
       </c>
       <c r="C58" t="n">
-        <v>0.207651</v>
+        <v>0.219414</v>
       </c>
       <c r="D58" t="n">
-        <v>0.273326</v>
+        <v>0.264642</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.265044</v>
+        <v>0.259177</v>
       </c>
       <c r="C59" t="n">
-        <v>0.212542</v>
+        <v>0.21591</v>
       </c>
       <c r="D59" t="n">
-        <v>0.269824</v>
+        <v>0.270977</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.255994</v>
+        <v>0.260856</v>
       </c>
       <c r="C60" t="n">
-        <v>0.20742</v>
+        <v>0.220423</v>
       </c>
       <c r="D60" t="n">
-        <v>0.28439</v>
+        <v>0.28933</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.264455</v>
+        <v>0.260726</v>
       </c>
       <c r="C61" t="n">
-        <v>0.217116</v>
+        <v>0.225024</v>
       </c>
       <c r="D61" t="n">
-        <v>0.300614</v>
+        <v>0.300181</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.255576</v>
+        <v>0.255203</v>
       </c>
       <c r="C62" t="n">
-        <v>0.218839</v>
+        <v>0.219945</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3051</v>
+        <v>0.307222</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.262017</v>
+        <v>0.252765</v>
       </c>
       <c r="C63" t="n">
-        <v>0.220954</v>
+        <v>0.220241</v>
       </c>
       <c r="D63" t="n">
-        <v>0.32311</v>
+        <v>0.322191</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.26028</v>
+        <v>0.266776</v>
       </c>
       <c r="C64" t="n">
-        <v>0.218473</v>
+        <v>0.227821</v>
       </c>
       <c r="D64" t="n">
-        <v>0.290422</v>
+        <v>0.291737</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.268968</v>
+        <v>0.258963</v>
       </c>
       <c r="C65" t="n">
-        <v>0.226829</v>
+        <v>0.236424</v>
       </c>
       <c r="D65" t="n">
-        <v>0.296938</v>
+        <v>0.298241</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.262984</v>
+        <v>0.265811</v>
       </c>
       <c r="C66" t="n">
-        <v>0.298573</v>
+        <v>0.302494</v>
       </c>
       <c r="D66" t="n">
-        <v>0.311339</v>
+        <v>0.298378</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.405138</v>
+        <v>0.398454</v>
       </c>
       <c r="C67" t="n">
-        <v>0.29437</v>
+        <v>0.301776</v>
       </c>
       <c r="D67" t="n">
-        <v>0.313497</v>
+        <v>0.319163</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.411681</v>
+        <v>0.393586</v>
       </c>
       <c r="C68" t="n">
-        <v>0.299171</v>
+        <v>0.299839</v>
       </c>
       <c r="D68" t="n">
-        <v>0.333466</v>
+        <v>0.32168</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.415681</v>
+        <v>0.400377</v>
       </c>
       <c r="C69" t="n">
-        <v>0.292013</v>
+        <v>0.300983</v>
       </c>
       <c r="D69" t="n">
-        <v>0.342332</v>
+        <v>0.345204</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.408338</v>
+        <v>0.401314</v>
       </c>
       <c r="C70" t="n">
-        <v>0.29849</v>
+        <v>0.314923</v>
       </c>
       <c r="D70" t="n">
-        <v>0.364406</v>
+        <v>0.361949</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.408263</v>
+        <v>0.408689</v>
       </c>
       <c r="C71" t="n">
-        <v>0.301257</v>
+        <v>0.321854</v>
       </c>
       <c r="D71" t="n">
-        <v>0.367142</v>
+        <v>0.38166</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.408484</v>
+        <v>0.417014</v>
       </c>
       <c r="C72" t="n">
-        <v>0.308604</v>
+        <v>0.313701</v>
       </c>
       <c r="D72" t="n">
-        <v>0.378087</v>
+        <v>0.382474</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.403922</v>
+        <v>0.403699</v>
       </c>
       <c r="C73" t="n">
-        <v>0.314508</v>
+        <v>0.31399</v>
       </c>
       <c r="D73" t="n">
-        <v>0.398556</v>
+        <v>0.408272</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.416362</v>
+        <v>0.423244</v>
       </c>
       <c r="C74" t="n">
-        <v>0.316225</v>
+        <v>0.315778</v>
       </c>
       <c r="D74" t="n">
-        <v>0.413297</v>
+        <v>0.415756</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.421275</v>
+        <v>0.426693</v>
       </c>
       <c r="C75" t="n">
-        <v>0.310581</v>
+        <v>0.326353</v>
       </c>
       <c r="D75" t="n">
-        <v>0.422988</v>
+        <v>0.459317</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.412869</v>
+        <v>0.436729</v>
       </c>
       <c r="C76" t="n">
-        <v>0.310615</v>
+        <v>0.3156</v>
       </c>
       <c r="D76" t="n">
-        <v>0.46621</v>
+        <v>0.478914</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.408434</v>
+        <v>0.439627</v>
       </c>
       <c r="C77" t="n">
-        <v>0.298716</v>
+        <v>0.320031</v>
       </c>
       <c r="D77" t="n">
-        <v>0.474487</v>
+        <v>0.464493</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.410266</v>
+        <v>0.42938</v>
       </c>
       <c r="C78" t="n">
-        <v>0.301403</v>
+        <v>0.342706</v>
       </c>
       <c r="D78" t="n">
-        <v>0.419974</v>
+        <v>0.45218</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.423968</v>
+        <v>0.432021</v>
       </c>
       <c r="C79" t="n">
-        <v>0.316969</v>
+        <v>0.330658</v>
       </c>
       <c r="D79" t="n">
-        <v>0.447742</v>
+        <v>0.446766</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.410833</v>
+        <v>0.421912</v>
       </c>
       <c r="C80" t="n">
-        <v>0.424342</v>
+        <v>0.444086</v>
       </c>
       <c r="D80" t="n">
-        <v>0.484524</v>
+        <v>0.453977</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.549538</v>
+        <v>0.555462</v>
       </c>
       <c r="C81" t="n">
-        <v>0.424635</v>
+        <v>0.445915</v>
       </c>
       <c r="D81" t="n">
-        <v>0.460097</v>
+        <v>0.46939</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.56828</v>
+        <v>0.557733</v>
       </c>
       <c r="C82" t="n">
-        <v>0.430196</v>
+        <v>0.447083</v>
       </c>
       <c r="D82" t="n">
-        <v>0.490737</v>
+        <v>0.476655</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.554095</v>
+        <v>0.571444</v>
       </c>
       <c r="C83" t="n">
-        <v>0.437097</v>
+        <v>0.453411</v>
       </c>
       <c r="D83" t="n">
-        <v>0.483852</v>
+        <v>0.518501</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.546777</v>
+        <v>0.54979</v>
       </c>
       <c r="C84" t="n">
-        <v>0.442598</v>
+        <v>0.445002</v>
       </c>
       <c r="D84" t="n">
-        <v>0.512046</v>
+        <v>0.50915</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.580627</v>
+        <v>0.571485</v>
       </c>
       <c r="C85" t="n">
-        <v>0.44147</v>
+        <v>0.458795</v>
       </c>
       <c r="D85" t="n">
-        <v>0.510742</v>
+        <v>0.530053</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.561951</v>
+        <v>0.560752</v>
       </c>
       <c r="C86" t="n">
-        <v>0.443651</v>
+        <v>0.468489</v>
       </c>
       <c r="D86" t="n">
-        <v>0.525679</v>
+        <v>0.550406</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.559612</v>
+        <v>0.5673589999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.424986</v>
+        <v>0.459454</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5682120000000001</v>
+        <v>0.573573</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.550733</v>
+        <v>0.577483</v>
       </c>
       <c r="C88" t="n">
-        <v>0.447308</v>
+        <v>0.457141</v>
       </c>
       <c r="D88" t="n">
-        <v>0.553579</v>
+        <v>0.57599</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.561642</v>
+        <v>0.568306</v>
       </c>
       <c r="C89" t="n">
-        <v>0.442039</v>
+        <v>0.457578</v>
       </c>
       <c r="D89" t="n">
-        <v>0.564721</v>
+        <v>0.581975</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5648609999999999</v>
+        <v>0.567222</v>
       </c>
       <c r="C90" t="n">
-        <v>0.447687</v>
+        <v>0.454955</v>
       </c>
       <c r="D90" t="n">
-        <v>0.593676</v>
+        <v>0.605217</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.557739</v>
+        <v>0.567898</v>
       </c>
       <c r="C91" t="n">
-        <v>0.444753</v>
+        <v>0.453259</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6015470000000001</v>
+        <v>0.608963</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.560326</v>
+        <v>0.571253</v>
       </c>
       <c r="C92" t="n">
-        <v>0.451105</v>
+        <v>0.464784</v>
       </c>
       <c r="D92" t="n">
-        <v>0.579797</v>
+        <v>0.54888</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.577213</v>
+        <v>0.560937</v>
       </c>
       <c r="C93" t="n">
-        <v>0.454003</v>
+        <v>0.465971</v>
       </c>
       <c r="D93" t="n">
-        <v>0.605444</v>
+        <v>0.593353</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5711850000000001</v>
+        <v>0.5693510000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.533749</v>
+        <v>0.557891</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5759919999999999</v>
+        <v>0.573573</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.664416</v>
+        <v>0.652851</v>
       </c>
       <c r="C95" t="n">
-        <v>0.523601</v>
+        <v>0.524513</v>
       </c>
       <c r="D95" t="n">
-        <v>0.594102</v>
+        <v>0.5987209999999999</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.655168</v>
+        <v>0.653243</v>
       </c>
       <c r="C96" t="n">
-        <v>0.53065</v>
+        <v>0.520323</v>
       </c>
       <c r="D96" t="n">
-        <v>0.628993</v>
+        <v>0.606884</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.642028</v>
+        <v>0.700272</v>
       </c>
       <c r="C97" t="n">
-        <v>0.531415</v>
+        <v>0.528197</v>
       </c>
       <c r="D97" t="n">
-        <v>0.619227</v>
+        <v>0.638077</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.644027</v>
+        <v>0.640323</v>
       </c>
       <c r="C98" t="n">
-        <v>0.519979</v>
+        <v>0.535818</v>
       </c>
       <c r="D98" t="n">
-        <v>0.643347</v>
+        <v>0.6326929999999999</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6548659999999999</v>
+        <v>0.649645</v>
       </c>
       <c r="C99" t="n">
-        <v>0.517698</v>
+        <v>0.535085</v>
       </c>
       <c r="D99" t="n">
-        <v>0.633361</v>
+        <v>0.645385</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.646327</v>
+        <v>0.648734</v>
       </c>
       <c r="C100" t="n">
-        <v>0.534928</v>
+        <v>0.529209</v>
       </c>
       <c r="D100" t="n">
-        <v>0.66912</v>
+        <v>0.662448</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.648261</v>
+        <v>0.649237</v>
       </c>
       <c r="C101" t="n">
-        <v>0.544835</v>
+        <v>0.550492</v>
       </c>
       <c r="D101" t="n">
-        <v>0.690287</v>
+        <v>0.6703480000000001</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.65601</v>
+        <v>0.646688</v>
       </c>
       <c r="C102" t="n">
-        <v>0.553105</v>
+        <v>0.547937</v>
       </c>
       <c r="D102" t="n">
-        <v>0.699487</v>
+        <v>0.698856</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.655021</v>
+        <v>0.656901</v>
       </c>
       <c r="C103" t="n">
-        <v>0.532579</v>
+        <v>0.5619459999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.708737</v>
+        <v>0.7378400000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.648556</v>
+        <v>0.650284</v>
       </c>
       <c r="C104" t="n">
-        <v>0.529899</v>
+        <v>0.553552</v>
       </c>
       <c r="D104" t="n">
-        <v>0.7191</v>
+        <v>0.737697</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.648776</v>
+        <v>0.647724</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5354100000000001</v>
+        <v>0.548451</v>
       </c>
       <c r="D105" t="n">
-        <v>0.733407</v>
+        <v>0.741738</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.654479</v>
+        <v>0.660161</v>
       </c>
       <c r="C106" t="n">
-        <v>0.532034</v>
+        <v>0.539691</v>
       </c>
       <c r="D106" t="n">
-        <v>0.7795879999999999</v>
+        <v>0.746119</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.650898</v>
+        <v>0.633733</v>
       </c>
       <c r="C107" t="n">
-        <v>0.545804</v>
+        <v>0.573628</v>
       </c>
       <c r="D107" t="n">
-        <v>0.677615</v>
+        <v>0.693789</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.656146</v>
+        <v>0.647609</v>
       </c>
       <c r="C108" t="n">
-        <v>0.597186</v>
+        <v>0.614513</v>
       </c>
       <c r="D108" t="n">
-        <v>0.693879</v>
+        <v>0.687754</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.657122</v>
+        <v>0.653505</v>
       </c>
       <c r="C109" t="n">
-        <v>0.597715</v>
+        <v>0.616886</v>
       </c>
       <c r="D109" t="n">
-        <v>0.694202</v>
+        <v>0.715226</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.809496</v>
+        <v>0.79761</v>
       </c>
       <c r="C110" t="n">
-        <v>0.602334</v>
+        <v>0.646025</v>
       </c>
       <c r="D110" t="n">
-        <v>0.735554</v>
+        <v>0.723898</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.843964</v>
+        <v>0.8174940000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6315190000000001</v>
+        <v>0.628243</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7427589999999999</v>
+        <v>0.736455</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.812018</v>
+        <v>0.812176</v>
       </c>
       <c r="C112" t="n">
-        <v>0.606692</v>
+        <v>0.6203149999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.743551</v>
+        <v>0.768428</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.816889</v>
+        <v>0.809046</v>
       </c>
       <c r="C113" t="n">
-        <v>0.612242</v>
+        <v>0.639337</v>
       </c>
       <c r="D113" t="n">
-        <v>0.76669</v>
+        <v>0.768313</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.810318</v>
+        <v>0.826142</v>
       </c>
       <c r="C114" t="n">
-        <v>0.617822</v>
+        <v>0.624247</v>
       </c>
       <c r="D114" t="n">
-        <v>0.801491</v>
+        <v>0.783428</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.80887</v>
+        <v>0.794439</v>
       </c>
       <c r="C115" t="n">
-        <v>0.626181</v>
+        <v>0.64652</v>
       </c>
       <c r="D115" t="n">
-        <v>0.786043</v>
+        <v>0.780515</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.796837</v>
+        <v>0.783817</v>
       </c>
       <c r="C116" t="n">
-        <v>0.616495</v>
+        <v>0.637186</v>
       </c>
       <c r="D116" t="n">
-        <v>0.798862</v>
+        <v>0.807951</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.791038</v>
+        <v>0.80623</v>
       </c>
       <c r="C117" t="n">
-        <v>0.627787</v>
+        <v>0.630114</v>
       </c>
       <c r="D117" t="n">
-        <v>0.8439179999999999</v>
+        <v>0.814075</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.789445</v>
+        <v>0.809148</v>
       </c>
       <c r="C118" t="n">
-        <v>0.61098</v>
+        <v>0.631178</v>
       </c>
       <c r="D118" t="n">
-        <v>0.841827</v>
+        <v>0.851532</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.803515</v>
+        <v>0.823099</v>
       </c>
       <c r="C119" t="n">
-        <v>0.627914</v>
+        <v>0.65761</v>
       </c>
       <c r="D119" t="n">
-        <v>0.846683</v>
+        <v>0.852102</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.795353</v>
+        <v>0.803962</v>
       </c>
       <c r="C120" t="n">
-        <v>0.623586</v>
+        <v>0.641888</v>
       </c>
       <c r="D120" t="n">
-        <v>0.888587</v>
+        <v>0.877204</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.819631</v>
+        <v>0.812335</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6348549999999999</v>
+        <v>0.64724</v>
       </c>
       <c r="D121" t="n">
-        <v>0.792041</v>
+        <v>0.771381</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.812761</v>
+        <v>0.8205480000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>0.644593</v>
+        <v>0.658233</v>
       </c>
       <c r="D122" t="n">
-        <v>0.818782</v>
+        <v>0.772846</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.816642</v>
+        <v>0.825779</v>
       </c>
       <c r="C123" t="n">
-        <v>0.796152</v>
+        <v>0.746672</v>
       </c>
       <c r="D123" t="n">
-        <v>0.835009</v>
+        <v>0.810192</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.04348</v>
+        <v>1.03177</v>
       </c>
       <c r="C124" t="n">
-        <v>0.738729</v>
+        <v>0.751767</v>
       </c>
       <c r="D124" t="n">
-        <v>0.824296</v>
+        <v>0.820852</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.03169</v>
+        <v>1.07057</v>
       </c>
       <c r="C125" t="n">
-        <v>0.740903</v>
+        <v>0.753551</v>
       </c>
       <c r="D125" t="n">
-        <v>0.835051</v>
+        <v>0.825564</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.02728</v>
+        <v>1.04416</v>
       </c>
       <c r="C126" t="n">
-        <v>0.741223</v>
+        <v>0.741186</v>
       </c>
       <c r="D126" t="n">
-        <v>0.833045</v>
+        <v>0.833433</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.0482</v>
+        <v>1.0514</v>
       </c>
       <c r="C127" t="n">
-        <v>0.737734</v>
+        <v>0.749668</v>
       </c>
       <c r="D127" t="n">
-        <v>0.8957540000000001</v>
+        <v>0.869417</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.05231</v>
+        <v>1.03781</v>
       </c>
       <c r="C128" t="n">
-        <v>0.744961</v>
+        <v>0.749696</v>
       </c>
       <c r="D128" t="n">
-        <v>0.863445</v>
+        <v>0.867733</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.04662</v>
+        <v>1.04129</v>
       </c>
       <c r="C129" t="n">
-        <v>0.738205</v>
+        <v>0.749812</v>
       </c>
       <c r="D129" t="n">
-        <v>0.898046</v>
+        <v>0.893832</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.0264</v>
+        <v>1.04291</v>
       </c>
       <c r="C130" t="n">
-        <v>0.748385</v>
+        <v>0.782264</v>
       </c>
       <c r="D130" t="n">
-        <v>0.966801</v>
+        <v>0.9209540000000001</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.05862</v>
+        <v>1.04459</v>
       </c>
       <c r="C131" t="n">
-        <v>0.748176</v>
+        <v>0.754641</v>
       </c>
       <c r="D131" t="n">
-        <v>0.920824</v>
+        <v>0.922745</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.07021</v>
+        <v>1.05208</v>
       </c>
       <c r="C132" t="n">
-        <v>0.763896</v>
+        <v>0.771657</v>
       </c>
       <c r="D132" t="n">
-        <v>0.967573</v>
+        <v>0.9347760000000001</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.13813</v>
+        <v>1.06088</v>
       </c>
       <c r="C133" t="n">
-        <v>0.768274</v>
+        <v>0.758237</v>
       </c>
       <c r="D133" t="n">
-        <v>0.976667</v>
+        <v>0.977537</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.04737</v>
+        <v>1.05888</v>
       </c>
       <c r="C134" t="n">
-        <v>0.772217</v>
+        <v>0.774558</v>
       </c>
       <c r="D134" t="n">
-        <v>1.01676</v>
+        <v>0.980158</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.22054</v>
+        <v>1.03544</v>
       </c>
       <c r="C135" t="n">
-        <v>0.8724</v>
+        <v>0.79459</v>
       </c>
       <c r="D135" t="n">
-        <v>0.844176</v>
+        <v>0.85699</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.05322</v>
+        <v>1.05475</v>
       </c>
       <c r="C136" t="n">
-        <v>0.781677</v>
+        <v>0.811463</v>
       </c>
       <c r="D136" t="n">
-        <v>0.89808</v>
+        <v>0.87932</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.22035</v>
+        <v>1.07128</v>
       </c>
       <c r="C137" t="n">
-        <v>0.921147</v>
+        <v>0.938142</v>
       </c>
       <c r="D137" t="n">
-        <v>0.898275</v>
+        <v>0.884339</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.33082</v>
+        <v>1.34117</v>
       </c>
       <c r="C138" t="n">
-        <v>0.920633</v>
+        <v>0.940106</v>
       </c>
       <c r="D138" t="n">
-        <v>0.916754</v>
+        <v>0.907981</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.31122</v>
+        <v>1.32691</v>
       </c>
       <c r="C139" t="n">
-        <v>0.944449</v>
+        <v>0.940324</v>
       </c>
       <c r="D139" t="n">
-        <v>0.927015</v>
+        <v>0.9189619999999999</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.31117</v>
+        <v>1.31131</v>
       </c>
       <c r="C140" t="n">
-        <v>0.923509</v>
+        <v>0.9478220000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9433009999999999</v>
+        <v>0.957104</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.30905</v>
+        <v>1.33802</v>
       </c>
       <c r="C141" t="n">
-        <v>0.930836</v>
+        <v>0.939914</v>
       </c>
       <c r="D141" t="n">
-        <v>0.954618</v>
+        <v>0.951646</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.31064</v>
+        <v>1.32593</v>
       </c>
       <c r="C142" t="n">
-        <v>0.938737</v>
+        <v>0.939152</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9804850000000001</v>
+        <v>0.9711379999999999</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.37179</v>
+        <v>1.33998</v>
       </c>
       <c r="C143" t="n">
-        <v>1.12795</v>
+        <v>0.944214</v>
       </c>
       <c r="D143" t="n">
-        <v>1.0254</v>
+        <v>0.989096</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.120783</v>
+        <v>0.117824</v>
       </c>
       <c r="C2" t="n">
-        <v>0.119929</v>
+        <v>0.125739</v>
       </c>
       <c r="D2" t="n">
-        <v>0.170529</v>
+        <v>0.155822</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.12034</v>
+        <v>0.116324</v>
       </c>
       <c r="C3" t="n">
-        <v>0.122077</v>
+        <v>0.127922</v>
       </c>
       <c r="D3" t="n">
-        <v>0.171148</v>
+        <v>0.162058</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.120276</v>
+        <v>0.118506</v>
       </c>
       <c r="C4" t="n">
-        <v>0.122092</v>
+        <v>0.126973</v>
       </c>
       <c r="D4" t="n">
-        <v>0.172256</v>
+        <v>0.172871</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.120697</v>
+        <v>0.115519</v>
       </c>
       <c r="C5" t="n">
-        <v>0.119921</v>
+        <v>0.126347</v>
       </c>
       <c r="D5" t="n">
-        <v>0.175571</v>
+        <v>0.168215</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.123463</v>
+        <v>0.118912</v>
       </c>
       <c r="C6" t="n">
-        <v>0.124783</v>
+        <v>0.131599</v>
       </c>
       <c r="D6" t="n">
-        <v>0.187873</v>
+        <v>0.174912</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.127179</v>
+        <v>0.117746</v>
       </c>
       <c r="C7" t="n">
-        <v>0.130088</v>
+        <v>0.132206</v>
       </c>
       <c r="D7" t="n">
-        <v>0.158958</v>
+        <v>0.145771</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.121805</v>
+        <v>0.116834</v>
       </c>
       <c r="C8" t="n">
-        <v>0.131555</v>
+        <v>0.133975</v>
       </c>
       <c r="D8" t="n">
-        <v>0.164482</v>
+        <v>0.150721</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.127483</v>
+        <v>0.121434</v>
       </c>
       <c r="C9" t="n">
-        <v>0.120862</v>
+        <v>0.131366</v>
       </c>
       <c r="D9" t="n">
-        <v>0.162138</v>
+        <v>0.158004</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.132064</v>
+        <v>0.12978</v>
       </c>
       <c r="C10" t="n">
-        <v>0.118917</v>
+        <v>0.13053</v>
       </c>
       <c r="D10" t="n">
-        <v>0.165686</v>
+        <v>0.154049</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.134769</v>
+        <v>0.127124</v>
       </c>
       <c r="C11" t="n">
-        <v>0.121862</v>
+        <v>0.12985</v>
       </c>
       <c r="D11" t="n">
-        <v>0.168959</v>
+        <v>0.15921</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.131082</v>
+        <v>0.126394</v>
       </c>
       <c r="C12" t="n">
-        <v>0.119409</v>
+        <v>0.129893</v>
       </c>
       <c r="D12" t="n">
-        <v>0.168258</v>
+        <v>0.158348</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.132933</v>
+        <v>0.125137</v>
       </c>
       <c r="C13" t="n">
-        <v>0.122066</v>
+        <v>0.134348</v>
       </c>
       <c r="D13" t="n">
-        <v>0.171715</v>
+        <v>0.166626</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.127232</v>
+        <v>0.127228</v>
       </c>
       <c r="C14" t="n">
-        <v>0.120194</v>
+        <v>0.131047</v>
       </c>
       <c r="D14" t="n">
-        <v>0.175162</v>
+        <v>0.174594</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.134111</v>
+        <v>0.128317</v>
       </c>
       <c r="C15" t="n">
-        <v>0.12243</v>
+        <v>0.129612</v>
       </c>
       <c r="D15" t="n">
-        <v>0.179089</v>
+        <v>0.173051</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.134297</v>
+        <v>0.125976</v>
       </c>
       <c r="C16" t="n">
-        <v>0.121162</v>
+        <v>0.132473</v>
       </c>
       <c r="D16" t="n">
-        <v>0.183319</v>
+        <v>0.180731</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.131164</v>
+        <v>0.130017</v>
       </c>
       <c r="C17" t="n">
-        <v>0.121961</v>
+        <v>0.132357</v>
       </c>
       <c r="D17" t="n">
-        <v>0.187454</v>
+        <v>0.18214</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.12772</v>
+        <v>0.126845</v>
       </c>
       <c r="C18" t="n">
-        <v>0.122428</v>
+        <v>0.133015</v>
       </c>
       <c r="D18" t="n">
-        <v>0.187172</v>
+        <v>0.188359</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.129305</v>
+        <v>0.130467</v>
       </c>
       <c r="C19" t="n">
-        <v>0.123178</v>
+        <v>0.135412</v>
       </c>
       <c r="D19" t="n">
-        <v>0.18886</v>
+        <v>0.189683</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.132965</v>
+        <v>0.128349</v>
       </c>
       <c r="C20" t="n">
-        <v>0.128467</v>
+        <v>0.137758</v>
       </c>
       <c r="D20" t="n">
-        <v>0.193453</v>
+        <v>0.202821</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.128132</v>
+        <v>0.132218</v>
       </c>
       <c r="C21" t="n">
-        <v>0.131265</v>
+        <v>0.137169</v>
       </c>
       <c r="D21" t="n">
-        <v>0.160813</v>
+        <v>0.158246</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.134488</v>
+        <v>0.12958</v>
       </c>
       <c r="C22" t="n">
-        <v>0.132813</v>
+        <v>0.146786</v>
       </c>
       <c r="D22" t="n">
-        <v>0.15965</v>
+        <v>0.158973</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.133519</v>
+        <v>0.133499</v>
       </c>
       <c r="C23" t="n">
-        <v>0.124804</v>
+        <v>0.13648</v>
       </c>
       <c r="D23" t="n">
-        <v>0.163439</v>
+        <v>0.16671</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.136696</v>
+        <v>0.138354</v>
       </c>
       <c r="C24" t="n">
-        <v>0.123346</v>
+        <v>0.138161</v>
       </c>
       <c r="D24" t="n">
-        <v>0.165167</v>
+        <v>0.168053</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.138941</v>
+        <v>0.140989</v>
       </c>
       <c r="C25" t="n">
-        <v>0.126028</v>
+        <v>0.139062</v>
       </c>
       <c r="D25" t="n">
-        <v>0.173022</v>
+        <v>0.172366</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.137843</v>
+        <v>0.146106</v>
       </c>
       <c r="C26" t="n">
-        <v>0.12642</v>
+        <v>0.136095</v>
       </c>
       <c r="D26" t="n">
-        <v>0.175421</v>
+        <v>0.182554</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.142796</v>
+        <v>0.139473</v>
       </c>
       <c r="C27" t="n">
-        <v>0.124973</v>
+        <v>0.138879</v>
       </c>
       <c r="D27" t="n">
-        <v>0.183603</v>
+        <v>0.180311</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.138759</v>
+        <v>0.140459</v>
       </c>
       <c r="C28" t="n">
-        <v>0.127301</v>
+        <v>0.145</v>
       </c>
       <c r="D28" t="n">
-        <v>0.183603</v>
+        <v>0.180293</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.137364</v>
+        <v>0.149105</v>
       </c>
       <c r="C29" t="n">
-        <v>0.123959</v>
+        <v>0.140286</v>
       </c>
       <c r="D29" t="n">
-        <v>0.186964</v>
+        <v>0.181179</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.141921</v>
+        <v>0.142765</v>
       </c>
       <c r="C30" t="n">
-        <v>0.125305</v>
+        <v>0.138903</v>
       </c>
       <c r="D30" t="n">
-        <v>0.197598</v>
+        <v>0.191442</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.142354</v>
+        <v>0.140314</v>
       </c>
       <c r="C31" t="n">
-        <v>0.126035</v>
+        <v>0.147188</v>
       </c>
       <c r="D31" t="n">
-        <v>0.195129</v>
+        <v>0.190654</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.140893</v>
+        <v>0.142959</v>
       </c>
       <c r="C32" t="n">
-        <v>0.12844</v>
+        <v>0.143069</v>
       </c>
       <c r="D32" t="n">
-        <v>0.202102</v>
+        <v>0.199906</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.14352</v>
+        <v>0.145472</v>
       </c>
       <c r="C33" t="n">
-        <v>0.131236</v>
+        <v>0.139925</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208194</v>
+        <v>0.205801</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.145893</v>
+        <v>0.140486</v>
       </c>
       <c r="C34" t="n">
-        <v>0.133701</v>
+        <v>0.14594</v>
       </c>
       <c r="D34" t="n">
-        <v>0.205981</v>
+        <v>0.210192</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.146</v>
+        <v>0.145787</v>
       </c>
       <c r="C35" t="n">
-        <v>0.137415</v>
+        <v>0.147602</v>
       </c>
       <c r="D35" t="n">
-        <v>0.177461</v>
+        <v>0.170018</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.143382</v>
+        <v>0.143323</v>
       </c>
       <c r="C36" t="n">
-        <v>0.142322</v>
+        <v>0.153508</v>
       </c>
       <c r="D36" t="n">
-        <v>0.179048</v>
+        <v>0.175987</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.147076</v>
+        <v>0.148178</v>
       </c>
       <c r="C37" t="n">
-        <v>0.131946</v>
+        <v>0.152457</v>
       </c>
       <c r="D37" t="n">
-        <v>0.185956</v>
+        <v>0.182335</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.16819</v>
+        <v>0.165705</v>
       </c>
       <c r="C38" t="n">
-        <v>0.133037</v>
+        <v>0.146294</v>
       </c>
       <c r="D38" t="n">
-        <v>0.188434</v>
+        <v>0.186876</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.167263</v>
+        <v>0.162141</v>
       </c>
       <c r="C39" t="n">
-        <v>0.13225</v>
+        <v>0.146288</v>
       </c>
       <c r="D39" t="n">
-        <v>0.193228</v>
+        <v>0.185475</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.167811</v>
+        <v>0.164012</v>
       </c>
       <c r="C40" t="n">
-        <v>0.13103</v>
+        <v>0.147241</v>
       </c>
       <c r="D40" t="n">
-        <v>0.199759</v>
+        <v>0.200672</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.168158</v>
+        <v>0.163473</v>
       </c>
       <c r="C41" t="n">
-        <v>0.136388</v>
+        <v>0.148287</v>
       </c>
       <c r="D41" t="n">
-        <v>0.19962</v>
+        <v>0.199339</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.170242</v>
+        <v>0.165191</v>
       </c>
       <c r="C42" t="n">
-        <v>0.135189</v>
+        <v>0.147565</v>
       </c>
       <c r="D42" t="n">
-        <v>0.211826</v>
+        <v>0.203304</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.17126</v>
+        <v>0.163165</v>
       </c>
       <c r="C43" t="n">
-        <v>0.13607</v>
+        <v>0.145621</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213083</v>
+        <v>0.215386</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.169736</v>
+        <v>0.167264</v>
       </c>
       <c r="C44" t="n">
-        <v>0.13904</v>
+        <v>0.146581</v>
       </c>
       <c r="D44" t="n">
-        <v>0.219649</v>
+        <v>0.226098</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.166479</v>
+        <v>0.165147</v>
       </c>
       <c r="C45" t="n">
-        <v>0.134126</v>
+        <v>0.150719</v>
       </c>
       <c r="D45" t="n">
-        <v>0.222483</v>
+        <v>0.222585</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.173809</v>
+        <v>0.171719</v>
       </c>
       <c r="C46" t="n">
-        <v>0.13823</v>
+        <v>0.151012</v>
       </c>
       <c r="D46" t="n">
-        <v>0.230907</v>
+        <v>0.22686</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.16643</v>
+        <v>0.168196</v>
       </c>
       <c r="C47" t="n">
-        <v>0.141618</v>
+        <v>0.149983</v>
       </c>
       <c r="D47" t="n">
-        <v>0.239129</v>
+        <v>0.239165</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167891</v>
+        <v>0.168197</v>
       </c>
       <c r="C48" t="n">
-        <v>0.141446</v>
+        <v>0.157046</v>
       </c>
       <c r="D48" t="n">
-        <v>0.249009</v>
+        <v>0.244611</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.168294</v>
+        <v>0.167348</v>
       </c>
       <c r="C49" t="n">
-        <v>0.143465</v>
+        <v>0.156252</v>
       </c>
       <c r="D49" t="n">
-        <v>0.24794</v>
+        <v>0.251949</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.173037</v>
+        <v>0.171776</v>
       </c>
       <c r="C50" t="n">
-        <v>0.149773</v>
+        <v>0.160075</v>
       </c>
       <c r="D50" t="n">
-        <v>0.208405</v>
+        <v>0.204557</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.17323</v>
+        <v>0.17195</v>
       </c>
       <c r="C51" t="n">
-        <v>0.203192</v>
+        <v>0.214986</v>
       </c>
       <c r="D51" t="n">
-        <v>0.213099</v>
+        <v>0.213947</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.172943</v>
+        <v>0.177545</v>
       </c>
       <c r="C52" t="n">
-        <v>0.201429</v>
+        <v>0.212321</v>
       </c>
       <c r="D52" t="n">
-        <v>0.221683</v>
+        <v>0.215708</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.265129</v>
+        <v>0.259632</v>
       </c>
       <c r="C53" t="n">
-        <v>0.206217</v>
+        <v>0.223699</v>
       </c>
       <c r="D53" t="n">
-        <v>0.233731</v>
+        <v>0.23814</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.262741</v>
+        <v>0.255432</v>
       </c>
       <c r="C54" t="n">
-        <v>0.212755</v>
+        <v>0.21886</v>
       </c>
       <c r="D54" t="n">
-        <v>0.233521</v>
+        <v>0.239325</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.259762</v>
+        <v>0.259292</v>
       </c>
       <c r="C55" t="n">
-        <v>0.209835</v>
+        <v>0.217527</v>
       </c>
       <c r="D55" t="n">
-        <v>0.236804</v>
+        <v>0.249157</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.261859</v>
+        <v>0.261212</v>
       </c>
       <c r="C56" t="n">
-        <v>0.207128</v>
+        <v>0.212731</v>
       </c>
       <c r="D56" t="n">
-        <v>0.243603</v>
+        <v>0.248911</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.26409</v>
+        <v>0.255974</v>
       </c>
       <c r="C57" t="n">
-        <v>0.209799</v>
+        <v>0.212518</v>
       </c>
       <c r="D57" t="n">
-        <v>0.252391</v>
+        <v>0.250757</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.254047</v>
+        <v>0.26265</v>
       </c>
       <c r="C58" t="n">
-        <v>0.207651</v>
+        <v>0.21973</v>
       </c>
       <c r="D58" t="n">
-        <v>0.273326</v>
+        <v>0.269728</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.265044</v>
+        <v>0.257615</v>
       </c>
       <c r="C59" t="n">
-        <v>0.212542</v>
+        <v>0.226349</v>
       </c>
       <c r="D59" t="n">
-        <v>0.269824</v>
+        <v>0.27593</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.255994</v>
+        <v>0.261117</v>
       </c>
       <c r="C60" t="n">
-        <v>0.20742</v>
+        <v>0.217273</v>
       </c>
       <c r="D60" t="n">
-        <v>0.28439</v>
+        <v>0.288056</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.264455</v>
+        <v>0.254197</v>
       </c>
       <c r="C61" t="n">
-        <v>0.217116</v>
+        <v>0.21711</v>
       </c>
       <c r="D61" t="n">
-        <v>0.300614</v>
+        <v>0.296026</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.255576</v>
+        <v>0.267184</v>
       </c>
       <c r="C62" t="n">
-        <v>0.218839</v>
+        <v>0.227702</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3051</v>
+        <v>0.310029</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.262017</v>
+        <v>0.260731</v>
       </c>
       <c r="C63" t="n">
-        <v>0.220954</v>
+        <v>0.229574</v>
       </c>
       <c r="D63" t="n">
-        <v>0.32311</v>
+        <v>0.329006</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.26028</v>
+        <v>0.268244</v>
       </c>
       <c r="C64" t="n">
-        <v>0.218473</v>
+        <v>0.231539</v>
       </c>
       <c r="D64" t="n">
-        <v>0.290422</v>
+        <v>0.301762</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.268968</v>
+        <v>0.26945</v>
       </c>
       <c r="C65" t="n">
-        <v>0.226829</v>
+        <v>0.23607</v>
       </c>
       <c r="D65" t="n">
-        <v>0.296938</v>
+        <v>0.291044</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.262984</v>
+        <v>0.269348</v>
       </c>
       <c r="C66" t="n">
-        <v>0.298573</v>
+        <v>0.295821</v>
       </c>
       <c r="D66" t="n">
-        <v>0.311339</v>
+        <v>0.301095</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.405138</v>
+        <v>0.422784</v>
       </c>
       <c r="C67" t="n">
-        <v>0.29437</v>
+        <v>0.301813</v>
       </c>
       <c r="D67" t="n">
-        <v>0.313497</v>
+        <v>0.324195</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.411681</v>
+        <v>0.39768</v>
       </c>
       <c r="C68" t="n">
-        <v>0.299171</v>
+        <v>0.299518</v>
       </c>
       <c r="D68" t="n">
-        <v>0.333466</v>
+        <v>0.325495</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.415681</v>
+        <v>0.423178</v>
       </c>
       <c r="C69" t="n">
-        <v>0.292013</v>
+        <v>0.307522</v>
       </c>
       <c r="D69" t="n">
-        <v>0.342332</v>
+        <v>0.337632</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.408338</v>
+        <v>0.391331</v>
       </c>
       <c r="C70" t="n">
-        <v>0.29849</v>
+        <v>0.307421</v>
       </c>
       <c r="D70" t="n">
-        <v>0.364406</v>
+        <v>0.345581</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.408263</v>
+        <v>0.395919</v>
       </c>
       <c r="C71" t="n">
-        <v>0.301257</v>
+        <v>0.307953</v>
       </c>
       <c r="D71" t="n">
-        <v>0.367142</v>
+        <v>0.3665</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.408484</v>
+        <v>0.444603</v>
       </c>
       <c r="C72" t="n">
-        <v>0.308604</v>
+        <v>0.322244</v>
       </c>
       <c r="D72" t="n">
-        <v>0.378087</v>
+        <v>0.384664</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.403922</v>
+        <v>0.402798</v>
       </c>
       <c r="C73" t="n">
-        <v>0.314508</v>
+        <v>0.316177</v>
       </c>
       <c r="D73" t="n">
-        <v>0.398556</v>
+        <v>0.398644</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.416362</v>
+        <v>0.401852</v>
       </c>
       <c r="C74" t="n">
-        <v>0.316225</v>
+        <v>0.313752</v>
       </c>
       <c r="D74" t="n">
-        <v>0.413297</v>
+        <v>0.403042</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.421275</v>
+        <v>0.408434</v>
       </c>
       <c r="C75" t="n">
-        <v>0.310581</v>
+        <v>0.319542</v>
       </c>
       <c r="D75" t="n">
-        <v>0.422988</v>
+        <v>0.448403</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.412869</v>
+        <v>0.412433</v>
       </c>
       <c r="C76" t="n">
-        <v>0.310615</v>
+        <v>0.320927</v>
       </c>
       <c r="D76" t="n">
-        <v>0.46621</v>
+        <v>0.445146</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.408434</v>
+        <v>0.408717</v>
       </c>
       <c r="C77" t="n">
-        <v>0.298716</v>
+        <v>0.338381</v>
       </c>
       <c r="D77" t="n">
-        <v>0.474487</v>
+        <v>0.450992</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.410266</v>
+        <v>0.42344</v>
       </c>
       <c r="C78" t="n">
-        <v>0.301403</v>
+        <v>0.316019</v>
       </c>
       <c r="D78" t="n">
-        <v>0.419974</v>
+        <v>0.429534</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.423968</v>
+        <v>0.415734</v>
       </c>
       <c r="C79" t="n">
-        <v>0.316969</v>
+        <v>0.339535</v>
       </c>
       <c r="D79" t="n">
-        <v>0.447742</v>
+        <v>0.475514</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.410833</v>
+        <v>0.416726</v>
       </c>
       <c r="C80" t="n">
-        <v>0.424342</v>
+        <v>0.440743</v>
       </c>
       <c r="D80" t="n">
-        <v>0.484524</v>
+        <v>0.453125</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.549538</v>
+        <v>0.547923</v>
       </c>
       <c r="C81" t="n">
-        <v>0.424635</v>
+        <v>0.440823</v>
       </c>
       <c r="D81" t="n">
-        <v>0.460097</v>
+        <v>0.46135</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.56828</v>
+        <v>0.555714</v>
       </c>
       <c r="C82" t="n">
-        <v>0.430196</v>
+        <v>0.435119</v>
       </c>
       <c r="D82" t="n">
-        <v>0.490737</v>
+        <v>0.469299</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.554095</v>
+        <v>0.558304</v>
       </c>
       <c r="C83" t="n">
-        <v>0.437097</v>
+        <v>0.441577</v>
       </c>
       <c r="D83" t="n">
-        <v>0.483852</v>
+        <v>0.519171</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.546777</v>
+        <v>0.56635</v>
       </c>
       <c r="C84" t="n">
-        <v>0.442598</v>
+        <v>0.448053</v>
       </c>
       <c r="D84" t="n">
-        <v>0.512046</v>
+        <v>0.497974</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.580627</v>
+        <v>0.564684</v>
       </c>
       <c r="C85" t="n">
-        <v>0.44147</v>
+        <v>0.439848</v>
       </c>
       <c r="D85" t="n">
-        <v>0.510742</v>
+        <v>0.5334449999999999</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.561951</v>
+        <v>0.552588</v>
       </c>
       <c r="C86" t="n">
-        <v>0.443651</v>
+        <v>0.442025</v>
       </c>
       <c r="D86" t="n">
-        <v>0.525679</v>
+        <v>0.566405</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.559612</v>
+        <v>0.571165</v>
       </c>
       <c r="C87" t="n">
-        <v>0.424986</v>
+        <v>0.454986</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5682120000000001</v>
+        <v>0.5744010000000001</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.550733</v>
+        <v>0.569315</v>
       </c>
       <c r="C88" t="n">
-        <v>0.447308</v>
+        <v>0.459827</v>
       </c>
       <c r="D88" t="n">
-        <v>0.553579</v>
+        <v>0.552083</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.561642</v>
+        <v>0.56502</v>
       </c>
       <c r="C89" t="n">
-        <v>0.442039</v>
+        <v>0.452885</v>
       </c>
       <c r="D89" t="n">
-        <v>0.564721</v>
+        <v>0.584447</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5648609999999999</v>
+        <v>0.562488</v>
       </c>
       <c r="C90" t="n">
-        <v>0.447687</v>
+        <v>0.448934</v>
       </c>
       <c r="D90" t="n">
-        <v>0.593676</v>
+        <v>0.607793</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.557739</v>
+        <v>0.563549</v>
       </c>
       <c r="C91" t="n">
-        <v>0.444753</v>
+        <v>0.450908</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6015470000000001</v>
+        <v>0.6224769999999999</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.560326</v>
+        <v>0.560872</v>
       </c>
       <c r="C92" t="n">
-        <v>0.451105</v>
+        <v>0.456936</v>
       </c>
       <c r="D92" t="n">
-        <v>0.579797</v>
+        <v>0.553122</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.577213</v>
+        <v>0.564138</v>
       </c>
       <c r="C93" t="n">
-        <v>0.454003</v>
+        <v>0.466976</v>
       </c>
       <c r="D93" t="n">
-        <v>0.605444</v>
+        <v>0.590537</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5711850000000001</v>
+        <v>0.556142</v>
       </c>
       <c r="C94" t="n">
-        <v>0.533749</v>
+        <v>0.548616</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5759919999999999</v>
+        <v>0.606159</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.664416</v>
+        <v>0.651098</v>
       </c>
       <c r="C95" t="n">
-        <v>0.523601</v>
+        <v>0.538349</v>
       </c>
       <c r="D95" t="n">
-        <v>0.594102</v>
+        <v>0.616052</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.655168</v>
+        <v>0.66317</v>
       </c>
       <c r="C96" t="n">
-        <v>0.53065</v>
+        <v>0.530984</v>
       </c>
       <c r="D96" t="n">
-        <v>0.628993</v>
+        <v>0.6272799999999999</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.642028</v>
+        <v>0.65001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.531415</v>
+        <v>0.5261749999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.619227</v>
+        <v>0.604367</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.644027</v>
+        <v>0.651703</v>
       </c>
       <c r="C98" t="n">
-        <v>0.519979</v>
+        <v>0.528295</v>
       </c>
       <c r="D98" t="n">
-        <v>0.643347</v>
+        <v>0.637934</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6548659999999999</v>
+        <v>0.716194</v>
       </c>
       <c r="C99" t="n">
-        <v>0.517698</v>
+        <v>0.5402130000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.633361</v>
+        <v>0.655427</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.646327</v>
+        <v>0.6970730000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.534928</v>
+        <v>0.568292</v>
       </c>
       <c r="D100" t="n">
-        <v>0.66912</v>
+        <v>0.6695489999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.648261</v>
+        <v>0.657883</v>
       </c>
       <c r="C101" t="n">
-        <v>0.544835</v>
+        <v>0.547888</v>
       </c>
       <c r="D101" t="n">
-        <v>0.690287</v>
+        <v>0.674379</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.65601</v>
+        <v>0.707914</v>
       </c>
       <c r="C102" t="n">
-        <v>0.553105</v>
+        <v>0.556772</v>
       </c>
       <c r="D102" t="n">
-        <v>0.699487</v>
+        <v>0.70769</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.655021</v>
+        <v>0.717835</v>
       </c>
       <c r="C103" t="n">
-        <v>0.532579</v>
+        <v>0.535791</v>
       </c>
       <c r="D103" t="n">
-        <v>0.708737</v>
+        <v>0.712333</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.648556</v>
+        <v>0.706022</v>
       </c>
       <c r="C104" t="n">
-        <v>0.529899</v>
+        <v>0.544918</v>
       </c>
       <c r="D104" t="n">
-        <v>0.7191</v>
+        <v>0.733419</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.648776</v>
+        <v>0.663913</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5354100000000001</v>
+        <v>0.583811</v>
       </c>
       <c r="D105" t="n">
-        <v>0.733407</v>
+        <v>0.734658</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.654479</v>
+        <v>0.661282</v>
       </c>
       <c r="C106" t="n">
-        <v>0.532034</v>
+        <v>0.550291</v>
       </c>
       <c r="D106" t="n">
-        <v>0.7795879999999999</v>
+        <v>0.769895</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.650898</v>
+        <v>0.71402</v>
       </c>
       <c r="C107" t="n">
-        <v>0.545804</v>
+        <v>0.577806</v>
       </c>
       <c r="D107" t="n">
-        <v>0.677615</v>
+        <v>0.698333</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.656146</v>
+        <v>0.71452</v>
       </c>
       <c r="C108" t="n">
-        <v>0.597186</v>
+        <v>0.617845</v>
       </c>
       <c r="D108" t="n">
-        <v>0.693879</v>
+        <v>0.685815</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.657122</v>
+        <v>0.650827</v>
       </c>
       <c r="C109" t="n">
-        <v>0.597715</v>
+        <v>0.606909</v>
       </c>
       <c r="D109" t="n">
-        <v>0.694202</v>
+        <v>0.683512</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.809496</v>
+        <v>0.802431</v>
       </c>
       <c r="C110" t="n">
-        <v>0.602334</v>
+        <v>0.613715</v>
       </c>
       <c r="D110" t="n">
-        <v>0.735554</v>
+        <v>0.733524</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.843964</v>
+        <v>0.884894</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6315190000000001</v>
+        <v>0.629649</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7427589999999999</v>
+        <v>0.7605730000000001</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.812018</v>
+        <v>0.801501</v>
       </c>
       <c r="C112" t="n">
-        <v>0.606692</v>
+        <v>0.635982</v>
       </c>
       <c r="D112" t="n">
-        <v>0.743551</v>
+        <v>0.7478089999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.816889</v>
+        <v>0.807208</v>
       </c>
       <c r="C113" t="n">
-        <v>0.612242</v>
+        <v>0.638552</v>
       </c>
       <c r="D113" t="n">
-        <v>0.76669</v>
+        <v>0.757757</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.810318</v>
+        <v>0.793579</v>
       </c>
       <c r="C114" t="n">
-        <v>0.617822</v>
+        <v>0.627508</v>
       </c>
       <c r="D114" t="n">
-        <v>0.801491</v>
+        <v>0.801319</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.80887</v>
+        <v>0.8334819999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>0.626181</v>
+        <v>0.643705</v>
       </c>
       <c r="D115" t="n">
-        <v>0.786043</v>
+        <v>0.7998690000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.796837</v>
+        <v>0.806812</v>
       </c>
       <c r="C116" t="n">
-        <v>0.616495</v>
+        <v>0.704492</v>
       </c>
       <c r="D116" t="n">
-        <v>0.798862</v>
+        <v>0.804145</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.791038</v>
+        <v>0.80371</v>
       </c>
       <c r="C117" t="n">
-        <v>0.627787</v>
+        <v>0.636892</v>
       </c>
       <c r="D117" t="n">
-        <v>0.8439179999999999</v>
+        <v>0.811393</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.789445</v>
+        <v>0.816849</v>
       </c>
       <c r="C118" t="n">
-        <v>0.61098</v>
+        <v>0.645945</v>
       </c>
       <c r="D118" t="n">
-        <v>0.841827</v>
+        <v>0.843143</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.803515</v>
+        <v>0.806634</v>
       </c>
       <c r="C119" t="n">
-        <v>0.627914</v>
+        <v>0.656585</v>
       </c>
       <c r="D119" t="n">
-        <v>0.846683</v>
+        <v>0.878522</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.795353</v>
+        <v>0.787284</v>
       </c>
       <c r="C120" t="n">
-        <v>0.623586</v>
+        <v>0.664456</v>
       </c>
       <c r="D120" t="n">
-        <v>0.888587</v>
+        <v>0.871977</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.819631</v>
+        <v>0.810148</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6348549999999999</v>
+        <v>0.658672</v>
       </c>
       <c r="D121" t="n">
-        <v>0.792041</v>
+        <v>0.8074789999999999</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.812761</v>
+        <v>0.926171</v>
       </c>
       <c r="C122" t="n">
-        <v>0.644593</v>
+        <v>0.661739</v>
       </c>
       <c r="D122" t="n">
-        <v>0.818782</v>
+        <v>0.811582</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.816642</v>
+        <v>0.814947</v>
       </c>
       <c r="C123" t="n">
-        <v>0.796152</v>
+        <v>0.765604</v>
       </c>
       <c r="D123" t="n">
-        <v>0.835009</v>
+        <v>0.805299</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.04348</v>
+        <v>1.03308</v>
       </c>
       <c r="C124" t="n">
-        <v>0.738729</v>
+        <v>0.797389</v>
       </c>
       <c r="D124" t="n">
-        <v>0.824296</v>
+        <v>0.835714</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.03169</v>
+        <v>1.02987</v>
       </c>
       <c r="C125" t="n">
-        <v>0.740903</v>
+        <v>0.7452029999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>0.835051</v>
+        <v>0.831948</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.02728</v>
+        <v>1.03935</v>
       </c>
       <c r="C126" t="n">
-        <v>0.741223</v>
+        <v>0.765327</v>
       </c>
       <c r="D126" t="n">
-        <v>0.833045</v>
+        <v>0.874647</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.0482</v>
+        <v>1.04265</v>
       </c>
       <c r="C127" t="n">
-        <v>0.737734</v>
+        <v>0.753068</v>
       </c>
       <c r="D127" t="n">
-        <v>0.8957540000000001</v>
+        <v>0.859635</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.05231</v>
+        <v>1.19757</v>
       </c>
       <c r="C128" t="n">
-        <v>0.744961</v>
+        <v>0.751081</v>
       </c>
       <c r="D128" t="n">
-        <v>0.863445</v>
+        <v>0.888656</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.04662</v>
+        <v>1.0482</v>
       </c>
       <c r="C129" t="n">
-        <v>0.738205</v>
+        <v>0.755405</v>
       </c>
       <c r="D129" t="n">
-        <v>0.898046</v>
+        <v>0.879489</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.0264</v>
+        <v>1.03143</v>
       </c>
       <c r="C130" t="n">
-        <v>0.748385</v>
+        <v>0.756491</v>
       </c>
       <c r="D130" t="n">
-        <v>0.966801</v>
+        <v>0.910571</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.05862</v>
+        <v>1.03125</v>
       </c>
       <c r="C131" t="n">
-        <v>0.748176</v>
+        <v>0.762888</v>
       </c>
       <c r="D131" t="n">
-        <v>0.920824</v>
+        <v>0.9433589999999999</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.07021</v>
+        <v>1.0262</v>
       </c>
       <c r="C132" t="n">
-        <v>0.763896</v>
+        <v>0.75829</v>
       </c>
       <c r="D132" t="n">
-        <v>0.967573</v>
+        <v>0.937279</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.13813</v>
+        <v>1.02169</v>
       </c>
       <c r="C133" t="n">
-        <v>0.768274</v>
+        <v>0.752723</v>
       </c>
       <c r="D133" t="n">
-        <v>0.976667</v>
+        <v>0.950177</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.04737</v>
+        <v>1.05113</v>
       </c>
       <c r="C134" t="n">
-        <v>0.772217</v>
+        <v>0.840382</v>
       </c>
       <c r="D134" t="n">
-        <v>1.01676</v>
+        <v>1.01151</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.22054</v>
+        <v>1.03016</v>
       </c>
       <c r="C135" t="n">
-        <v>0.8724</v>
+        <v>0.771201</v>
       </c>
       <c r="D135" t="n">
-        <v>0.844176</v>
+        <v>0.856434</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.05322</v>
+        <v>1.05523</v>
       </c>
       <c r="C136" t="n">
-        <v>0.781677</v>
+        <v>0.796865</v>
       </c>
       <c r="D136" t="n">
-        <v>0.89808</v>
+        <v>0.886035</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.22035</v>
+        <v>1.05542</v>
       </c>
       <c r="C137" t="n">
-        <v>0.921147</v>
+        <v>0.939196</v>
       </c>
       <c r="D137" t="n">
-        <v>0.898275</v>
+        <v>0.88851</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.33082</v>
+        <v>1.39153</v>
       </c>
       <c r="C138" t="n">
-        <v>0.920633</v>
+        <v>0.940116</v>
       </c>
       <c r="D138" t="n">
-        <v>0.916754</v>
+        <v>0.896263</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.31122</v>
+        <v>1.29218</v>
       </c>
       <c r="C139" t="n">
-        <v>0.944449</v>
+        <v>0.941975</v>
       </c>
       <c r="D139" t="n">
-        <v>0.927015</v>
+        <v>0.924204</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.31117</v>
+        <v>1.31996</v>
       </c>
       <c r="C140" t="n">
-        <v>0.923509</v>
+        <v>0.9338880000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9433009999999999</v>
+        <v>0.946033</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.30905</v>
+        <v>1.3046</v>
       </c>
       <c r="C141" t="n">
-        <v>0.930836</v>
+        <v>0.945184</v>
       </c>
       <c r="D141" t="n">
-        <v>0.954618</v>
+        <v>0.949926</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.31064</v>
+        <v>1.30928</v>
       </c>
       <c r="C142" t="n">
-        <v>0.938737</v>
+        <v>0.948007</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9804850000000001</v>
+        <v>0.955433</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.37179</v>
+        <v>1.3038</v>
       </c>
       <c r="C143" t="n">
-        <v>1.12795</v>
+        <v>0.955008</v>
       </c>
       <c r="D143" t="n">
-        <v>1.0254</v>
+        <v>0.988424</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.117824</v>
+        <v>0.118366</v>
       </c>
       <c r="C2" t="n">
-        <v>0.125739</v>
+        <v>0.1269</v>
       </c>
       <c r="D2" t="n">
-        <v>0.155822</v>
+        <v>0.15672</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.116324</v>
+        <v>0.116422</v>
       </c>
       <c r="C3" t="n">
-        <v>0.127922</v>
+        <v>0.12571</v>
       </c>
       <c r="D3" t="n">
-        <v>0.162058</v>
+        <v>0.164382</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.118506</v>
+        <v>0.113585</v>
       </c>
       <c r="C4" t="n">
-        <v>0.126973</v>
+        <v>0.127853</v>
       </c>
       <c r="D4" t="n">
-        <v>0.172871</v>
+        <v>0.165154</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.115519</v>
+        <v>0.117716</v>
       </c>
       <c r="C5" t="n">
-        <v>0.126347</v>
+        <v>0.134683</v>
       </c>
       <c r="D5" t="n">
-        <v>0.168215</v>
+        <v>0.170123</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.118912</v>
+        <v>0.11458</v>
       </c>
       <c r="C6" t="n">
-        <v>0.131599</v>
+        <v>0.128574</v>
       </c>
       <c r="D6" t="n">
-        <v>0.174912</v>
+        <v>0.169372</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.117746</v>
+        <v>0.115212</v>
       </c>
       <c r="C7" t="n">
-        <v>0.132206</v>
+        <v>0.13339</v>
       </c>
       <c r="D7" t="n">
-        <v>0.145771</v>
+        <v>0.149062</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.116834</v>
+        <v>0.120719</v>
       </c>
       <c r="C8" t="n">
-        <v>0.133975</v>
+        <v>0.138087</v>
       </c>
       <c r="D8" t="n">
-        <v>0.150721</v>
+        <v>0.154184</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.121434</v>
+        <v>0.119134</v>
       </c>
       <c r="C9" t="n">
-        <v>0.131366</v>
+        <v>0.129664</v>
       </c>
       <c r="D9" t="n">
-        <v>0.158004</v>
+        <v>0.151557</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.12978</v>
+        <v>0.127917</v>
       </c>
       <c r="C10" t="n">
-        <v>0.13053</v>
+        <v>0.129671</v>
       </c>
       <c r="D10" t="n">
-        <v>0.154049</v>
+        <v>0.157568</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.127124</v>
+        <v>0.125534</v>
       </c>
       <c r="C11" t="n">
-        <v>0.12985</v>
+        <v>0.133078</v>
       </c>
       <c r="D11" t="n">
-        <v>0.15921</v>
+        <v>0.158063</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.126394</v>
+        <v>0.127745</v>
       </c>
       <c r="C12" t="n">
-        <v>0.129893</v>
+        <v>0.135072</v>
       </c>
       <c r="D12" t="n">
-        <v>0.158348</v>
+        <v>0.167865</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.125137</v>
+        <v>0.128872</v>
       </c>
       <c r="C13" t="n">
-        <v>0.134348</v>
+        <v>0.129859</v>
       </c>
       <c r="D13" t="n">
-        <v>0.166626</v>
+        <v>0.164881</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.127228</v>
+        <v>0.130648</v>
       </c>
       <c r="C14" t="n">
-        <v>0.131047</v>
+        <v>0.13689</v>
       </c>
       <c r="D14" t="n">
-        <v>0.174594</v>
+        <v>0.173998</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.128317</v>
+        <v>0.126774</v>
       </c>
       <c r="C15" t="n">
-        <v>0.129612</v>
+        <v>0.135928</v>
       </c>
       <c r="D15" t="n">
-        <v>0.173051</v>
+        <v>0.171711</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.125976</v>
+        <v>0.132593</v>
       </c>
       <c r="C16" t="n">
-        <v>0.132473</v>
+        <v>0.135173</v>
       </c>
       <c r="D16" t="n">
-        <v>0.180731</v>
+        <v>0.17793</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.130017</v>
+        <v>0.130704</v>
       </c>
       <c r="C17" t="n">
-        <v>0.132357</v>
+        <v>0.133844</v>
       </c>
       <c r="D17" t="n">
-        <v>0.18214</v>
+        <v>0.188332</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.126845</v>
+        <v>0.130173</v>
       </c>
       <c r="C18" t="n">
-        <v>0.133015</v>
+        <v>0.133501</v>
       </c>
       <c r="D18" t="n">
-        <v>0.188359</v>
+        <v>0.184131</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.130467</v>
+        <v>0.128628</v>
       </c>
       <c r="C19" t="n">
-        <v>0.135412</v>
+        <v>0.135431</v>
       </c>
       <c r="D19" t="n">
-        <v>0.189683</v>
+        <v>0.190702</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.128349</v>
+        <v>0.127845</v>
       </c>
       <c r="C20" t="n">
-        <v>0.137758</v>
+        <v>0.136152</v>
       </c>
       <c r="D20" t="n">
-        <v>0.202821</v>
+        <v>0.192361</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.132218</v>
+        <v>0.131665</v>
       </c>
       <c r="C21" t="n">
-        <v>0.137169</v>
+        <v>0.141075</v>
       </c>
       <c r="D21" t="n">
-        <v>0.158246</v>
+        <v>0.155348</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.12958</v>
+        <v>0.130066</v>
       </c>
       <c r="C22" t="n">
-        <v>0.146786</v>
+        <v>0.144151</v>
       </c>
       <c r="D22" t="n">
-        <v>0.158973</v>
+        <v>0.165783</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.133499</v>
+        <v>0.136114</v>
       </c>
       <c r="C23" t="n">
-        <v>0.13648</v>
+        <v>0.139049</v>
       </c>
       <c r="D23" t="n">
-        <v>0.16671</v>
+        <v>0.16143</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.138354</v>
+        <v>0.138435</v>
       </c>
       <c r="C24" t="n">
-        <v>0.138161</v>
+        <v>0.136177</v>
       </c>
       <c r="D24" t="n">
-        <v>0.168053</v>
+        <v>0.164777</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.140989</v>
+        <v>0.145301</v>
       </c>
       <c r="C25" t="n">
-        <v>0.139062</v>
+        <v>0.1337</v>
       </c>
       <c r="D25" t="n">
-        <v>0.172366</v>
+        <v>0.171234</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.146106</v>
+        <v>0.138048</v>
       </c>
       <c r="C26" t="n">
-        <v>0.136095</v>
+        <v>0.138167</v>
       </c>
       <c r="D26" t="n">
-        <v>0.182554</v>
+        <v>0.173059</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.139473</v>
+        <v>0.139077</v>
       </c>
       <c r="C27" t="n">
-        <v>0.138879</v>
+        <v>0.141753</v>
       </c>
       <c r="D27" t="n">
-        <v>0.180311</v>
+        <v>0.179489</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.140459</v>
+        <v>0.138606</v>
       </c>
       <c r="C28" t="n">
-        <v>0.145</v>
+        <v>0.137087</v>
       </c>
       <c r="D28" t="n">
-        <v>0.180293</v>
+        <v>0.186417</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.149105</v>
+        <v>0.137438</v>
       </c>
       <c r="C29" t="n">
-        <v>0.140286</v>
+        <v>0.137374</v>
       </c>
       <c r="D29" t="n">
-        <v>0.181179</v>
+        <v>0.186211</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.142765</v>
+        <v>0.139029</v>
       </c>
       <c r="C30" t="n">
-        <v>0.138903</v>
+        <v>0.137617</v>
       </c>
       <c r="D30" t="n">
-        <v>0.191442</v>
+        <v>0.187498</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.140314</v>
+        <v>0.136248</v>
       </c>
       <c r="C31" t="n">
-        <v>0.147188</v>
+        <v>0.142373</v>
       </c>
       <c r="D31" t="n">
-        <v>0.190654</v>
+        <v>0.19286</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.142959</v>
+        <v>0.136648</v>
       </c>
       <c r="C32" t="n">
-        <v>0.143069</v>
+        <v>0.140164</v>
       </c>
       <c r="D32" t="n">
-        <v>0.199906</v>
+        <v>0.201257</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.145472</v>
+        <v>0.142651</v>
       </c>
       <c r="C33" t="n">
-        <v>0.139925</v>
+        <v>0.145383</v>
       </c>
       <c r="D33" t="n">
-        <v>0.205801</v>
+        <v>0.214805</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.140486</v>
+        <v>0.140016</v>
       </c>
       <c r="C34" t="n">
-        <v>0.14594</v>
+        <v>0.146814</v>
       </c>
       <c r="D34" t="n">
-        <v>0.210192</v>
+        <v>0.208994</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.145787</v>
+        <v>0.143421</v>
       </c>
       <c r="C35" t="n">
-        <v>0.147602</v>
+        <v>0.148333</v>
       </c>
       <c r="D35" t="n">
-        <v>0.170018</v>
+        <v>0.174369</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.143323</v>
+        <v>0.143307</v>
       </c>
       <c r="C36" t="n">
-        <v>0.153508</v>
+        <v>0.152377</v>
       </c>
       <c r="D36" t="n">
-        <v>0.175987</v>
+        <v>0.178128</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.148178</v>
+        <v>0.146771</v>
       </c>
       <c r="C37" t="n">
-        <v>0.152457</v>
+        <v>0.143046</v>
       </c>
       <c r="D37" t="n">
-        <v>0.182335</v>
+        <v>0.178425</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.165705</v>
+        <v>0.169365</v>
       </c>
       <c r="C38" t="n">
-        <v>0.146294</v>
+        <v>0.147447</v>
       </c>
       <c r="D38" t="n">
-        <v>0.186876</v>
+        <v>0.180968</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.162141</v>
+        <v>0.166912</v>
       </c>
       <c r="C39" t="n">
-        <v>0.146288</v>
+        <v>0.150207</v>
       </c>
       <c r="D39" t="n">
-        <v>0.185475</v>
+        <v>0.189898</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.164012</v>
+        <v>0.168013</v>
       </c>
       <c r="C40" t="n">
-        <v>0.147241</v>
+        <v>0.147164</v>
       </c>
       <c r="D40" t="n">
-        <v>0.200672</v>
+        <v>0.200837</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.163473</v>
+        <v>0.169568</v>
       </c>
       <c r="C41" t="n">
-        <v>0.148287</v>
+        <v>0.147574</v>
       </c>
       <c r="D41" t="n">
-        <v>0.199339</v>
+        <v>0.200474</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.165191</v>
+        <v>0.167946</v>
       </c>
       <c r="C42" t="n">
-        <v>0.147565</v>
+        <v>0.14471</v>
       </c>
       <c r="D42" t="n">
-        <v>0.203304</v>
+        <v>0.204169</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.163165</v>
+        <v>0.168109</v>
       </c>
       <c r="C43" t="n">
-        <v>0.145621</v>
+        <v>0.152892</v>
       </c>
       <c r="D43" t="n">
-        <v>0.215386</v>
+        <v>0.21446</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.167264</v>
+        <v>0.162907</v>
       </c>
       <c r="C44" t="n">
-        <v>0.146581</v>
+        <v>0.145178</v>
       </c>
       <c r="D44" t="n">
-        <v>0.226098</v>
+        <v>0.217525</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.165147</v>
+        <v>0.163731</v>
       </c>
       <c r="C45" t="n">
-        <v>0.150719</v>
+        <v>0.150774</v>
       </c>
       <c r="D45" t="n">
-        <v>0.222585</v>
+        <v>0.228144</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.171719</v>
+        <v>0.172878</v>
       </c>
       <c r="C46" t="n">
-        <v>0.151012</v>
+        <v>0.149361</v>
       </c>
       <c r="D46" t="n">
-        <v>0.22686</v>
+        <v>0.233779</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.168196</v>
+        <v>0.167825</v>
       </c>
       <c r="C47" t="n">
-        <v>0.149983</v>
+        <v>0.153381</v>
       </c>
       <c r="D47" t="n">
-        <v>0.239165</v>
+        <v>0.241091</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.168197</v>
+        <v>0.174999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.157046</v>
+        <v>0.15533</v>
       </c>
       <c r="D48" t="n">
-        <v>0.244611</v>
+        <v>0.250067</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.167348</v>
+        <v>0.16708</v>
       </c>
       <c r="C49" t="n">
-        <v>0.156252</v>
+        <v>0.153163</v>
       </c>
       <c r="D49" t="n">
-        <v>0.251949</v>
+        <v>0.250283</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.171776</v>
+        <v>0.172796</v>
       </c>
       <c r="C50" t="n">
-        <v>0.160075</v>
+        <v>0.161222</v>
       </c>
       <c r="D50" t="n">
-        <v>0.204557</v>
+        <v>0.209064</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.17195</v>
+        <v>0.174052</v>
       </c>
       <c r="C51" t="n">
-        <v>0.214986</v>
+        <v>0.217379</v>
       </c>
       <c r="D51" t="n">
-        <v>0.213947</v>
+        <v>0.214954</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.177545</v>
+        <v>0.178427</v>
       </c>
       <c r="C52" t="n">
-        <v>0.212321</v>
+        <v>0.21551</v>
       </c>
       <c r="D52" t="n">
-        <v>0.215708</v>
+        <v>0.220903</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.259632</v>
+        <v>0.251633</v>
       </c>
       <c r="C53" t="n">
-        <v>0.223699</v>
+        <v>0.208827</v>
       </c>
       <c r="D53" t="n">
-        <v>0.23814</v>
+        <v>0.224471</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.255432</v>
+        <v>0.270299</v>
       </c>
       <c r="C54" t="n">
-        <v>0.21886</v>
+        <v>0.218815</v>
       </c>
       <c r="D54" t="n">
-        <v>0.239325</v>
+        <v>0.229528</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.259292</v>
+        <v>0.266251</v>
       </c>
       <c r="C55" t="n">
-        <v>0.217527</v>
+        <v>0.217276</v>
       </c>
       <c r="D55" t="n">
-        <v>0.249157</v>
+        <v>0.23906</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.261212</v>
+        <v>0.2582</v>
       </c>
       <c r="C56" t="n">
-        <v>0.212731</v>
+        <v>0.217715</v>
       </c>
       <c r="D56" t="n">
-        <v>0.248911</v>
+        <v>0.244375</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.255974</v>
+        <v>0.26192</v>
       </c>
       <c r="C57" t="n">
-        <v>0.212518</v>
+        <v>0.21765</v>
       </c>
       <c r="D57" t="n">
-        <v>0.250757</v>
+        <v>0.262273</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.26265</v>
+        <v>0.263452</v>
       </c>
       <c r="C58" t="n">
-        <v>0.21973</v>
+        <v>0.219714</v>
       </c>
       <c r="D58" t="n">
-        <v>0.269728</v>
+        <v>0.261649</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.257615</v>
+        <v>0.261538</v>
       </c>
       <c r="C59" t="n">
-        <v>0.226349</v>
+        <v>0.221735</v>
       </c>
       <c r="D59" t="n">
-        <v>0.27593</v>
+        <v>0.271339</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.261117</v>
+        <v>0.266648</v>
       </c>
       <c r="C60" t="n">
-        <v>0.217273</v>
+        <v>0.225115</v>
       </c>
       <c r="D60" t="n">
-        <v>0.288056</v>
+        <v>0.285346</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.254197</v>
+        <v>0.262997</v>
       </c>
       <c r="C61" t="n">
-        <v>0.21711</v>
+        <v>0.221341</v>
       </c>
       <c r="D61" t="n">
-        <v>0.296026</v>
+        <v>0.289886</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.267184</v>
+        <v>0.254748</v>
       </c>
       <c r="C62" t="n">
-        <v>0.227702</v>
+        <v>0.223936</v>
       </c>
       <c r="D62" t="n">
-        <v>0.310029</v>
+        <v>0.302034</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.260731</v>
+        <v>0.262754</v>
       </c>
       <c r="C63" t="n">
-        <v>0.229574</v>
+        <v>0.227702</v>
       </c>
       <c r="D63" t="n">
-        <v>0.329006</v>
+        <v>0.3158</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.268244</v>
+        <v>0.265271</v>
       </c>
       <c r="C64" t="n">
-        <v>0.231539</v>
+        <v>0.22964</v>
       </c>
       <c r="D64" t="n">
-        <v>0.301762</v>
+        <v>0.295075</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.26945</v>
+        <v>0.258322</v>
       </c>
       <c r="C65" t="n">
-        <v>0.23607</v>
+        <v>0.234842</v>
       </c>
       <c r="D65" t="n">
-        <v>0.291044</v>
+        <v>0.299765</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.269348</v>
+        <v>0.269601</v>
       </c>
       <c r="C66" t="n">
-        <v>0.295821</v>
+        <v>0.308957</v>
       </c>
       <c r="D66" t="n">
-        <v>0.301095</v>
+        <v>0.31436</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.422784</v>
+        <v>0.401715</v>
       </c>
       <c r="C67" t="n">
-        <v>0.301813</v>
+        <v>0.304609</v>
       </c>
       <c r="D67" t="n">
-        <v>0.324195</v>
+        <v>0.317363</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.39768</v>
+        <v>0.401072</v>
       </c>
       <c r="C68" t="n">
-        <v>0.299518</v>
+        <v>0.306993</v>
       </c>
       <c r="D68" t="n">
-        <v>0.325495</v>
+        <v>0.336311</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.423178</v>
+        <v>0.400092</v>
       </c>
       <c r="C69" t="n">
-        <v>0.307522</v>
+        <v>0.311718</v>
       </c>
       <c r="D69" t="n">
-        <v>0.337632</v>
+        <v>0.33933</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.391331</v>
+        <v>0.40274</v>
       </c>
       <c r="C70" t="n">
-        <v>0.307421</v>
+        <v>0.311556</v>
       </c>
       <c r="D70" t="n">
-        <v>0.345581</v>
+        <v>0.357304</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.395919</v>
+        <v>0.393962</v>
       </c>
       <c r="C71" t="n">
-        <v>0.307953</v>
+        <v>0.309602</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3665</v>
+        <v>0.37059</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.444603</v>
+        <v>0.397192</v>
       </c>
       <c r="C72" t="n">
-        <v>0.322244</v>
+        <v>0.326395</v>
       </c>
       <c r="D72" t="n">
-        <v>0.384664</v>
+        <v>0.376567</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.402798</v>
+        <v>0.41107</v>
       </c>
       <c r="C73" t="n">
-        <v>0.316177</v>
+        <v>0.311006</v>
       </c>
       <c r="D73" t="n">
-        <v>0.398644</v>
+        <v>0.403713</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.401852</v>
+        <v>0.40179</v>
       </c>
       <c r="C74" t="n">
-        <v>0.313752</v>
+        <v>0.321879</v>
       </c>
       <c r="D74" t="n">
-        <v>0.403042</v>
+        <v>0.413227</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.408434</v>
+        <v>0.408306</v>
       </c>
       <c r="C75" t="n">
-        <v>0.319542</v>
+        <v>0.328216</v>
       </c>
       <c r="D75" t="n">
-        <v>0.448403</v>
+        <v>0.423038</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.412433</v>
+        <v>0.414236</v>
       </c>
       <c r="C76" t="n">
-        <v>0.320927</v>
+        <v>0.324864</v>
       </c>
       <c r="D76" t="n">
-        <v>0.445146</v>
+        <v>0.440522</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.408717</v>
+        <v>0.411662</v>
       </c>
       <c r="C77" t="n">
-        <v>0.338381</v>
+        <v>0.319401</v>
       </c>
       <c r="D77" t="n">
-        <v>0.450992</v>
+        <v>0.463063</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.42344</v>
+        <v>0.42333</v>
       </c>
       <c r="C78" t="n">
-        <v>0.316019</v>
+        <v>0.319053</v>
       </c>
       <c r="D78" t="n">
-        <v>0.429534</v>
+        <v>0.441003</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.415734</v>
+        <v>0.427891</v>
       </c>
       <c r="C79" t="n">
-        <v>0.339535</v>
+        <v>0.326301</v>
       </c>
       <c r="D79" t="n">
-        <v>0.475514</v>
+        <v>0.479983</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.416726</v>
+        <v>0.430254</v>
       </c>
       <c r="C80" t="n">
-        <v>0.440743</v>
+        <v>0.434433</v>
       </c>
       <c r="D80" t="n">
-        <v>0.453125</v>
+        <v>0.463271</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.547923</v>
+        <v>0.579338</v>
       </c>
       <c r="C81" t="n">
-        <v>0.440823</v>
+        <v>0.443754</v>
       </c>
       <c r="D81" t="n">
-        <v>0.46135</v>
+        <v>0.483943</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.555714</v>
+        <v>0.579075</v>
       </c>
       <c r="C82" t="n">
-        <v>0.435119</v>
+        <v>0.433753</v>
       </c>
       <c r="D82" t="n">
-        <v>0.469299</v>
+        <v>0.479735</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.558304</v>
+        <v>0.567376</v>
       </c>
       <c r="C83" t="n">
-        <v>0.441577</v>
+        <v>0.447078</v>
       </c>
       <c r="D83" t="n">
-        <v>0.519171</v>
+        <v>0.525569</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.56635</v>
+        <v>0.565228</v>
       </c>
       <c r="C84" t="n">
-        <v>0.448053</v>
+        <v>0.446499</v>
       </c>
       <c r="D84" t="n">
-        <v>0.497974</v>
+        <v>0.513539</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.564684</v>
+        <v>0.588242</v>
       </c>
       <c r="C85" t="n">
-        <v>0.439848</v>
+        <v>0.455327</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5334449999999999</v>
+        <v>0.5214800000000001</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.552588</v>
+        <v>0.558114</v>
       </c>
       <c r="C86" t="n">
-        <v>0.442025</v>
+        <v>0.455212</v>
       </c>
       <c r="D86" t="n">
-        <v>0.566405</v>
+        <v>0.526506</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.571165</v>
+        <v>0.5818950000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.454986</v>
+        <v>0.45547</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5744010000000001</v>
+        <v>0.555508</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.569315</v>
+        <v>0.56863</v>
       </c>
       <c r="C88" t="n">
-        <v>0.459827</v>
+        <v>0.446165</v>
       </c>
       <c r="D88" t="n">
-        <v>0.552083</v>
+        <v>0.552783</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.56502</v>
+        <v>0.566279</v>
       </c>
       <c r="C89" t="n">
-        <v>0.452885</v>
+        <v>0.459036</v>
       </c>
       <c r="D89" t="n">
-        <v>0.584447</v>
+        <v>0.58655</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.562488</v>
+        <v>0.5753</v>
       </c>
       <c r="C90" t="n">
-        <v>0.448934</v>
+        <v>0.459808</v>
       </c>
       <c r="D90" t="n">
-        <v>0.607793</v>
+        <v>0.594132</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.563549</v>
+        <v>0.55622</v>
       </c>
       <c r="C91" t="n">
-        <v>0.450908</v>
+        <v>0.470379</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6224769999999999</v>
+        <v>0.61897</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.560872</v>
+        <v>0.564026</v>
       </c>
       <c r="C92" t="n">
-        <v>0.456936</v>
+        <v>0.452336</v>
       </c>
       <c r="D92" t="n">
-        <v>0.553122</v>
+        <v>0.565643</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.564138</v>
+        <v>0.551207</v>
       </c>
       <c r="C93" t="n">
-        <v>0.466976</v>
+        <v>0.458532</v>
       </c>
       <c r="D93" t="n">
-        <v>0.590537</v>
+        <v>0.599983</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.556142</v>
+        <v>0.569594</v>
       </c>
       <c r="C94" t="n">
-        <v>0.548616</v>
+        <v>0.5279509999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.606159</v>
+        <v>0.597056</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.651098</v>
+        <v>0.646031</v>
       </c>
       <c r="C95" t="n">
-        <v>0.538349</v>
+        <v>0.544029</v>
       </c>
       <c r="D95" t="n">
-        <v>0.616052</v>
+        <v>0.633387</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.66317</v>
+        <v>0.647846</v>
       </c>
       <c r="C96" t="n">
-        <v>0.530984</v>
+        <v>0.560291</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6272799999999999</v>
+        <v>0.619549</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.65001</v>
+        <v>0.659823</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5261749999999999</v>
+        <v>0.557229</v>
       </c>
       <c r="D97" t="n">
-        <v>0.604367</v>
+        <v>0.627703</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.651703</v>
+        <v>0.673434</v>
       </c>
       <c r="C98" t="n">
-        <v>0.528295</v>
+        <v>0.547909</v>
       </c>
       <c r="D98" t="n">
-        <v>0.637934</v>
+        <v>0.637898</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.716194</v>
+        <v>0.658323</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5402130000000001</v>
+        <v>0.552824</v>
       </c>
       <c r="D99" t="n">
-        <v>0.655427</v>
+        <v>0.651146</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6970730000000001</v>
+        <v>0.647446</v>
       </c>
       <c r="C100" t="n">
-        <v>0.568292</v>
+        <v>0.558828</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6695489999999999</v>
+        <v>0.675566</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.657883</v>
+        <v>0.668364</v>
       </c>
       <c r="C101" t="n">
-        <v>0.547888</v>
+        <v>0.57175</v>
       </c>
       <c r="D101" t="n">
-        <v>0.674379</v>
+        <v>0.679528</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.707914</v>
+        <v>0.6563330000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.556772</v>
+        <v>0.544839</v>
       </c>
       <c r="D102" t="n">
-        <v>0.70769</v>
+        <v>0.695928</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.717835</v>
+        <v>0.6601900000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.535791</v>
+        <v>0.553702</v>
       </c>
       <c r="D103" t="n">
-        <v>0.712333</v>
+        <v>0.710685</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.706022</v>
+        <v>0.639643</v>
       </c>
       <c r="C104" t="n">
-        <v>0.544918</v>
+        <v>0.5793199999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.733419</v>
+        <v>0.701124</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.663913</v>
+        <v>0.703799</v>
       </c>
       <c r="C105" t="n">
-        <v>0.583811</v>
+        <v>0.575071</v>
       </c>
       <c r="D105" t="n">
-        <v>0.734658</v>
+        <v>0.729553</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.661282</v>
+        <v>0.672011</v>
       </c>
       <c r="C106" t="n">
-        <v>0.550291</v>
+        <v>0.584228</v>
       </c>
       <c r="D106" t="n">
-        <v>0.769895</v>
+        <v>0.760185</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.71402</v>
+        <v>0.649759</v>
       </c>
       <c r="C107" t="n">
-        <v>0.577806</v>
+        <v>0.573982</v>
       </c>
       <c r="D107" t="n">
-        <v>0.698333</v>
+        <v>0.6625180000000001</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.71452</v>
+        <v>0.656452</v>
       </c>
       <c r="C108" t="n">
-        <v>0.617845</v>
+        <v>0.609598</v>
       </c>
       <c r="D108" t="n">
-        <v>0.685815</v>
+        <v>0.694408</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.650827</v>
+        <v>0.672032</v>
       </c>
       <c r="C109" t="n">
-        <v>0.606909</v>
+        <v>0.688214</v>
       </c>
       <c r="D109" t="n">
-        <v>0.683512</v>
+        <v>0.72431</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.802431</v>
+        <v>0.806798</v>
       </c>
       <c r="C110" t="n">
-        <v>0.613715</v>
+        <v>0.630922</v>
       </c>
       <c r="D110" t="n">
-        <v>0.733524</v>
+        <v>0.728004</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.884894</v>
+        <v>0.795532</v>
       </c>
       <c r="C111" t="n">
-        <v>0.629649</v>
+        <v>0.6185349999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7605730000000001</v>
+        <v>0.757036</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.801501</v>
+        <v>0.799075</v>
       </c>
       <c r="C112" t="n">
-        <v>0.635982</v>
+        <v>0.618291</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7478089999999999</v>
+        <v>0.746583</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.807208</v>
+        <v>0.79044</v>
       </c>
       <c r="C113" t="n">
-        <v>0.638552</v>
+        <v>0.628356</v>
       </c>
       <c r="D113" t="n">
-        <v>0.757757</v>
+        <v>0.768413</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.793579</v>
+        <v>0.796691</v>
       </c>
       <c r="C114" t="n">
-        <v>0.627508</v>
+        <v>0.63372</v>
       </c>
       <c r="D114" t="n">
-        <v>0.801319</v>
+        <v>0.785073</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.8334819999999999</v>
+        <v>0.833283</v>
       </c>
       <c r="C115" t="n">
-        <v>0.643705</v>
+        <v>0.673374</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7998690000000001</v>
+        <v>0.815638</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.806812</v>
+        <v>0.830465</v>
       </c>
       <c r="C116" t="n">
-        <v>0.704492</v>
+        <v>0.623121</v>
       </c>
       <c r="D116" t="n">
-        <v>0.804145</v>
+        <v>0.82925</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.80371</v>
+        <v>0.804858</v>
       </c>
       <c r="C117" t="n">
-        <v>0.636892</v>
+        <v>0.638884</v>
       </c>
       <c r="D117" t="n">
-        <v>0.811393</v>
+        <v>0.848186</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.816849</v>
+        <v>0.8029579999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>0.645945</v>
+        <v>0.634367</v>
       </c>
       <c r="D118" t="n">
-        <v>0.843143</v>
+        <v>0.860563</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.806634</v>
+        <v>0.842378</v>
       </c>
       <c r="C119" t="n">
-        <v>0.656585</v>
+        <v>0.638043</v>
       </c>
       <c r="D119" t="n">
-        <v>0.878522</v>
+        <v>0.832104</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.787284</v>
+        <v>0.834309</v>
       </c>
       <c r="C120" t="n">
-        <v>0.664456</v>
+        <v>0.65088</v>
       </c>
       <c r="D120" t="n">
-        <v>0.871977</v>
+        <v>0.885112</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.810148</v>
+        <v>0.81694</v>
       </c>
       <c r="C121" t="n">
-        <v>0.658672</v>
+        <v>0.657278</v>
       </c>
       <c r="D121" t="n">
-        <v>0.8074789999999999</v>
+        <v>0.7795530000000001</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.926171</v>
+        <v>0.829794</v>
       </c>
       <c r="C122" t="n">
-        <v>0.661739</v>
+        <v>0.663386</v>
       </c>
       <c r="D122" t="n">
-        <v>0.811582</v>
+        <v>0.765518</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.814947</v>
+        <v>0.86329</v>
       </c>
       <c r="C123" t="n">
-        <v>0.765604</v>
+        <v>0.758297</v>
       </c>
       <c r="D123" t="n">
-        <v>0.805299</v>
+        <v>0.817475</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.03308</v>
+        <v>1.06284</v>
       </c>
       <c r="C124" t="n">
-        <v>0.797389</v>
+        <v>0.7592680000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.835714</v>
+        <v>0.841808</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.02987</v>
+        <v>1.07305</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7452029999999999</v>
+        <v>0.779043</v>
       </c>
       <c r="D125" t="n">
-        <v>0.831948</v>
+        <v>0.829143</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.03935</v>
+        <v>1.03973</v>
       </c>
       <c r="C126" t="n">
-        <v>0.765327</v>
+        <v>0.872897</v>
       </c>
       <c r="D126" t="n">
-        <v>0.874647</v>
+        <v>0.862116</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.04265</v>
+        <v>1.03101</v>
       </c>
       <c r="C127" t="n">
-        <v>0.753068</v>
+        <v>0.752169</v>
       </c>
       <c r="D127" t="n">
-        <v>0.859635</v>
+        <v>0.860604</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.19757</v>
+        <v>1.20222</v>
       </c>
       <c r="C128" t="n">
-        <v>0.751081</v>
+        <v>0.876124</v>
       </c>
       <c r="D128" t="n">
-        <v>0.888656</v>
+        <v>0.904429</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.0482</v>
+        <v>1.08309</v>
       </c>
       <c r="C129" t="n">
-        <v>0.755405</v>
+        <v>0.777339</v>
       </c>
       <c r="D129" t="n">
-        <v>0.879489</v>
+        <v>0.899023</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.03143</v>
+        <v>1.2217</v>
       </c>
       <c r="C130" t="n">
-        <v>0.756491</v>
+        <v>0.806913</v>
       </c>
       <c r="D130" t="n">
-        <v>0.910571</v>
+        <v>0.9459880000000001</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.03125</v>
+        <v>1.21254</v>
       </c>
       <c r="C131" t="n">
-        <v>0.762888</v>
+        <v>0.811137</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9433589999999999</v>
+        <v>0.95869</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.0262</v>
+        <v>1.06368</v>
       </c>
       <c r="C132" t="n">
-        <v>0.75829</v>
+        <v>0.775551</v>
       </c>
       <c r="D132" t="n">
-        <v>0.937279</v>
+        <v>0.980057</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.02169</v>
+        <v>1.05388</v>
       </c>
       <c r="C133" t="n">
-        <v>0.752723</v>
+        <v>0.879872</v>
       </c>
       <c r="D133" t="n">
-        <v>0.950177</v>
+        <v>0.979793</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.05113</v>
+        <v>1.07898</v>
       </c>
       <c r="C134" t="n">
-        <v>0.840382</v>
+        <v>0.834308</v>
       </c>
       <c r="D134" t="n">
-        <v>1.01151</v>
+        <v>1.05648</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.03016</v>
+        <v>1.05188</v>
       </c>
       <c r="C135" t="n">
-        <v>0.771201</v>
+        <v>0.820356</v>
       </c>
       <c r="D135" t="n">
-        <v>0.856434</v>
+        <v>0.878069</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.05523</v>
+        <v>1.06981</v>
       </c>
       <c r="C136" t="n">
-        <v>0.796865</v>
+        <v>0.920679</v>
       </c>
       <c r="D136" t="n">
-        <v>0.886035</v>
+        <v>0.882955</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.05542</v>
+        <v>1.08011</v>
       </c>
       <c r="C137" t="n">
-        <v>0.939196</v>
+        <v>0.934839</v>
       </c>
       <c r="D137" t="n">
-        <v>0.88851</v>
+        <v>0.933563</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.39153</v>
+        <v>1.43056</v>
       </c>
       <c r="C138" t="n">
-        <v>0.940116</v>
+        <v>1.05762</v>
       </c>
       <c r="D138" t="n">
-        <v>0.896263</v>
+        <v>0.907512</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.29218</v>
+        <v>1.35301</v>
       </c>
       <c r="C139" t="n">
-        <v>0.941975</v>
+        <v>0.94724</v>
       </c>
       <c r="D139" t="n">
-        <v>0.924204</v>
+        <v>0.910778</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.31996</v>
+        <v>1.31661</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9338880000000001</v>
+        <v>1.00852</v>
       </c>
       <c r="D140" t="n">
-        <v>0.946033</v>
+        <v>0.9667559999999999</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.3046</v>
+        <v>1.31508</v>
       </c>
       <c r="C141" t="n">
-        <v>0.945184</v>
+        <v>1.06768</v>
       </c>
       <c r="D141" t="n">
-        <v>0.949926</v>
+        <v>1.01215</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.30928</v>
+        <v>1.33368</v>
       </c>
       <c r="C142" t="n">
-        <v>0.948007</v>
+        <v>0.947765</v>
       </c>
       <c r="D142" t="n">
-        <v>0.955433</v>
+        <v>0.997685</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.3038</v>
+        <v>1.40193</v>
       </c>
       <c r="C143" t="n">
-        <v>0.955008</v>
+        <v>0.943365</v>
       </c>
       <c r="D143" t="n">
-        <v>0.988424</v>
+        <v>1.03039</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3213,7 +3213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G23" sqref="G23"/>
@@ -3246,13 +3246,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.118366</v>
+        <v>0.117878</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1269</v>
+        <v>0.174152</v>
       </c>
       <c r="D2" t="n">
-        <v>0.15672</v>
+        <v>0.130591</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.123786</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3263,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.116422</v>
+        <v>0.117297</v>
       </c>
       <c r="C3" t="n">
-        <v>0.12571</v>
+        <v>0.165267</v>
       </c>
       <c r="D3" t="n">
-        <v>0.164382</v>
+        <v>0.131032</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.123887</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3280,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.113585</v>
+        <v>0.116129</v>
       </c>
       <c r="C4" t="n">
-        <v>0.127853</v>
+        <v>0.165234</v>
       </c>
       <c r="D4" t="n">
-        <v>0.165154</v>
+        <v>0.127566</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.12882</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3297,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.117716</v>
+        <v>0.116746</v>
       </c>
       <c r="C5" t="n">
-        <v>0.134683</v>
+        <v>0.172174</v>
       </c>
       <c r="D5" t="n">
-        <v>0.170123</v>
+        <v>0.12916</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.119605</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3314,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.11458</v>
+        <v>0.117716</v>
       </c>
       <c r="C6" t="n">
-        <v>0.128574</v>
+        <v>0.183713</v>
       </c>
       <c r="D6" t="n">
-        <v>0.169372</v>
+        <v>0.13189</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.120185</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3331,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.115212</v>
+        <v>0.11862</v>
       </c>
       <c r="C7" t="n">
-        <v>0.13339</v>
+        <v>0.148175</v>
       </c>
       <c r="D7" t="n">
-        <v>0.149062</v>
+        <v>0.130877</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.12068</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3348,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.120719</v>
+        <v>0.128602</v>
       </c>
       <c r="C8" t="n">
-        <v>0.138087</v>
+        <v>0.14419</v>
       </c>
       <c r="D8" t="n">
-        <v>0.154184</v>
+        <v>0.133844</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.123604</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3365,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119134</v>
+        <v>0.119017</v>
       </c>
       <c r="C9" t="n">
-        <v>0.129664</v>
+        <v>0.152849</v>
       </c>
       <c r="D9" t="n">
-        <v>0.151557</v>
+        <v>0.131105</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.116849</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3382,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.127917</v>
+        <v>0.123615</v>
       </c>
       <c r="C10" t="n">
-        <v>0.129671</v>
+        <v>0.154192</v>
       </c>
       <c r="D10" t="n">
-        <v>0.157568</v>
+        <v>0.128239</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.123397</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3399,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.125534</v>
+        <v>0.129</v>
       </c>
       <c r="C11" t="n">
-        <v>0.133078</v>
+        <v>0.162996</v>
       </c>
       <c r="D11" t="n">
-        <v>0.158063</v>
+        <v>0.132537</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.121534</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3416,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.127745</v>
+        <v>0.128206</v>
       </c>
       <c r="C12" t="n">
-        <v>0.135072</v>
+        <v>0.162994</v>
       </c>
       <c r="D12" t="n">
-        <v>0.167865</v>
+        <v>0.131303</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.120607</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3433,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.128872</v>
+        <v>0.128445</v>
       </c>
       <c r="C13" t="n">
-        <v>0.129859</v>
+        <v>0.169251</v>
       </c>
       <c r="D13" t="n">
-        <v>0.164881</v>
+        <v>0.13307</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.12064</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3450,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.130648</v>
+        <v>0.128614</v>
       </c>
       <c r="C14" t="n">
-        <v>0.13689</v>
+        <v>0.173267</v>
       </c>
       <c r="D14" t="n">
-        <v>0.173998</v>
+        <v>0.143463</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.132257</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3467,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.126774</v>
+        <v>0.128053</v>
       </c>
       <c r="C15" t="n">
-        <v>0.135928</v>
+        <v>0.174782</v>
       </c>
       <c r="D15" t="n">
-        <v>0.171711</v>
+        <v>0.137076</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.12118</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3484,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.132593</v>
+        <v>0.130466</v>
       </c>
       <c r="C16" t="n">
-        <v>0.135173</v>
+        <v>0.187172</v>
       </c>
       <c r="D16" t="n">
-        <v>0.17793</v>
+        <v>0.135735</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.122438</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3501,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.130704</v>
+        <v>0.127408</v>
       </c>
       <c r="C17" t="n">
-        <v>0.133844</v>
+        <v>0.181334</v>
       </c>
       <c r="D17" t="n">
-        <v>0.188332</v>
+        <v>0.13142</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.118006</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3518,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.130173</v>
+        <v>0.123521</v>
       </c>
       <c r="C18" t="n">
-        <v>0.133501</v>
+        <v>0.183584</v>
       </c>
       <c r="D18" t="n">
-        <v>0.184131</v>
+        <v>0.129983</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.118789</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3535,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.128628</v>
+        <v>0.123802</v>
       </c>
       <c r="C19" t="n">
-        <v>0.135431</v>
+        <v>0.184499</v>
       </c>
       <c r="D19" t="n">
-        <v>0.190702</v>
+        <v>0.130647</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.1204</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3552,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.127845</v>
+        <v>0.124981</v>
       </c>
       <c r="C20" t="n">
-        <v>0.136152</v>
+        <v>0.18817</v>
       </c>
       <c r="D20" t="n">
-        <v>0.192361</v>
+        <v>0.132296</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.12075</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3569,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.131665</v>
+        <v>0.125588</v>
       </c>
       <c r="C21" t="n">
-        <v>0.141075</v>
+        <v>0.151194</v>
       </c>
       <c r="D21" t="n">
-        <v>0.155348</v>
+        <v>0.13367</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.122611</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3586,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.130066</v>
+        <v>0.127401</v>
       </c>
       <c r="C22" t="n">
-        <v>0.144151</v>
+        <v>0.155388</v>
       </c>
       <c r="D22" t="n">
-        <v>0.165783</v>
+        <v>0.138473</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.127295</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3603,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.136114</v>
+        <v>0.128748</v>
       </c>
       <c r="C23" t="n">
-        <v>0.139049</v>
+        <v>0.156933</v>
       </c>
       <c r="D23" t="n">
-        <v>0.16143</v>
+        <v>0.132009</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.122117</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3620,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.138435</v>
+        <v>0.13384</v>
       </c>
       <c r="C24" t="n">
-        <v>0.136177</v>
+        <v>0.163995</v>
       </c>
       <c r="D24" t="n">
-        <v>0.164777</v>
+        <v>0.133858</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.120708</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3637,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.145301</v>
+        <v>0.132417</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1337</v>
+        <v>0.162935</v>
       </c>
       <c r="D25" t="n">
-        <v>0.171234</v>
+        <v>0.131271</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.120678</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3654,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.138048</v>
+        <v>0.136509</v>
       </c>
       <c r="C26" t="n">
-        <v>0.138167</v>
+        <v>0.167412</v>
       </c>
       <c r="D26" t="n">
-        <v>0.173059</v>
+        <v>0.132194</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.121588</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3671,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.139077</v>
+        <v>0.134398</v>
       </c>
       <c r="C27" t="n">
-        <v>0.141753</v>
+        <v>0.17038</v>
       </c>
       <c r="D27" t="n">
-        <v>0.179489</v>
+        <v>0.132692</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.124808</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3688,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.138606</v>
+        <v>0.13269</v>
       </c>
       <c r="C28" t="n">
-        <v>0.137087</v>
+        <v>0.173518</v>
       </c>
       <c r="D28" t="n">
-        <v>0.186417</v>
+        <v>0.132624</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.122847</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3705,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.137438</v>
+        <v>0.132251</v>
       </c>
       <c r="C29" t="n">
-        <v>0.137374</v>
+        <v>0.177674</v>
       </c>
       <c r="D29" t="n">
-        <v>0.186211</v>
+        <v>0.133284</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.12444</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3722,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.139029</v>
+        <v>0.133342</v>
       </c>
       <c r="C30" t="n">
-        <v>0.137617</v>
+        <v>0.181937</v>
       </c>
       <c r="D30" t="n">
-        <v>0.187498</v>
+        <v>0.133341</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.123968</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3739,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.136248</v>
+        <v>0.135261</v>
       </c>
       <c r="C31" t="n">
-        <v>0.142373</v>
+        <v>0.186717</v>
       </c>
       <c r="D31" t="n">
-        <v>0.19286</v>
+        <v>0.135269</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.125284</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3756,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.136648</v>
+        <v>0.135583</v>
       </c>
       <c r="C32" t="n">
-        <v>0.140164</v>
+        <v>0.18978</v>
       </c>
       <c r="D32" t="n">
-        <v>0.201257</v>
+        <v>0.136148</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.126315</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3773,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.142651</v>
+        <v>0.134956</v>
       </c>
       <c r="C33" t="n">
-        <v>0.145383</v>
+        <v>0.194719</v>
       </c>
       <c r="D33" t="n">
-        <v>0.214805</v>
+        <v>0.137724</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.127947</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3790,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.140016</v>
+        <v>0.13466</v>
       </c>
       <c r="C34" t="n">
-        <v>0.146814</v>
+        <v>0.204897</v>
       </c>
       <c r="D34" t="n">
-        <v>0.208994</v>
+        <v>0.139049</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.129621</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3807,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.143421</v>
+        <v>0.134939</v>
       </c>
       <c r="C35" t="n">
-        <v>0.148333</v>
+        <v>0.166234</v>
       </c>
       <c r="D35" t="n">
-        <v>0.174369</v>
+        <v>0.142398</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.132226</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3824,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.143307</v>
+        <v>0.14079</v>
       </c>
       <c r="C36" t="n">
-        <v>0.152377</v>
+        <v>0.168704</v>
       </c>
       <c r="D36" t="n">
-        <v>0.178128</v>
+        <v>0.148506</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.137761</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3841,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.146771</v>
+        <v>0.140346</v>
       </c>
       <c r="C37" t="n">
-        <v>0.143046</v>
+        <v>0.174949</v>
       </c>
       <c r="D37" t="n">
-        <v>0.178425</v>
+        <v>0.138295</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.128226</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3858,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.169365</v>
+        <v>0.156366</v>
       </c>
       <c r="C38" t="n">
-        <v>0.147447</v>
+        <v>0.177445</v>
       </c>
       <c r="D38" t="n">
-        <v>0.180968</v>
+        <v>0.139019</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.130683</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3875,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.166912</v>
+        <v>0.157752</v>
       </c>
       <c r="C39" t="n">
-        <v>0.150207</v>
+        <v>0.182458</v>
       </c>
       <c r="D39" t="n">
-        <v>0.189898</v>
+        <v>0.140495</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.129199</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3892,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.168013</v>
+        <v>0.157115</v>
       </c>
       <c r="C40" t="n">
-        <v>0.147164</v>
+        <v>0.186758</v>
       </c>
       <c r="D40" t="n">
-        <v>0.200837</v>
+        <v>0.138686</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.129526</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3909,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.169568</v>
+        <v>0.156787</v>
       </c>
       <c r="C41" t="n">
-        <v>0.147574</v>
+        <v>0.192827</v>
       </c>
       <c r="D41" t="n">
-        <v>0.200474</v>
+        <v>0.139849</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.130758</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3926,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.167946</v>
+        <v>0.15667</v>
       </c>
       <c r="C42" t="n">
-        <v>0.14471</v>
+        <v>0.196259</v>
       </c>
       <c r="D42" t="n">
-        <v>0.204169</v>
+        <v>0.139408</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.132778</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3943,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.168109</v>
+        <v>0.157077</v>
       </c>
       <c r="C43" t="n">
-        <v>0.152892</v>
+        <v>0.201981</v>
       </c>
       <c r="D43" t="n">
-        <v>0.21446</v>
+        <v>0.139918</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.131339</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3960,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.162907</v>
+        <v>0.156674</v>
       </c>
       <c r="C44" t="n">
-        <v>0.145178</v>
+        <v>0.206899</v>
       </c>
       <c r="D44" t="n">
-        <v>0.217525</v>
+        <v>0.145826</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.138324</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3977,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.163731</v>
+        <v>0.157113</v>
       </c>
       <c r="C45" t="n">
-        <v>0.150774</v>
+        <v>0.213804</v>
       </c>
       <c r="D45" t="n">
-        <v>0.228144</v>
+        <v>0.140923</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.133568</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3994,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.172878</v>
+        <v>0.158811</v>
       </c>
       <c r="C46" t="n">
-        <v>0.149361</v>
+        <v>0.218761</v>
       </c>
       <c r="D46" t="n">
-        <v>0.233779</v>
+        <v>0.143047</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.13516</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +4011,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.167825</v>
+        <v>0.160588</v>
       </c>
       <c r="C47" t="n">
-        <v>0.153381</v>
+        <v>0.229046</v>
       </c>
       <c r="D47" t="n">
-        <v>0.241091</v>
+        <v>0.145116</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.148843</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +4028,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.174999</v>
+        <v>0.158827</v>
       </c>
       <c r="C48" t="n">
-        <v>0.15533</v>
+        <v>0.231129</v>
       </c>
       <c r="D48" t="n">
-        <v>0.250067</v>
+        <v>0.146073</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.138976</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +4045,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.16708</v>
+        <v>0.159103</v>
       </c>
       <c r="C49" t="n">
-        <v>0.153163</v>
+        <v>0.23623</v>
       </c>
       <c r="D49" t="n">
-        <v>0.250283</v>
+        <v>0.14857</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.142316</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +4062,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.172796</v>
+        <v>0.161085</v>
       </c>
       <c r="C50" t="n">
-        <v>0.161222</v>
+        <v>0.196155</v>
       </c>
       <c r="D50" t="n">
-        <v>0.209064</v>
+        <v>0.156981</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.147017</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +4079,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174052</v>
+        <v>0.16387</v>
       </c>
       <c r="C51" t="n">
-        <v>0.217379</v>
+        <v>0.200768</v>
       </c>
       <c r="D51" t="n">
-        <v>0.214954</v>
+        <v>0.203555</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.141792</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +4096,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.178427</v>
+        <v>0.169843</v>
       </c>
       <c r="C52" t="n">
-        <v>0.21551</v>
+        <v>0.208297</v>
       </c>
       <c r="D52" t="n">
-        <v>0.220903</v>
+        <v>0.203805</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.1395</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +4113,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.251633</v>
+        <v>0.243146</v>
       </c>
       <c r="C53" t="n">
-        <v>0.208827</v>
+        <v>0.219197</v>
       </c>
       <c r="D53" t="n">
-        <v>0.224471</v>
+        <v>0.211642</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.143858</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +4130,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.270299</v>
+        <v>0.240158</v>
       </c>
       <c r="C54" t="n">
-        <v>0.218815</v>
+        <v>0.219985</v>
       </c>
       <c r="D54" t="n">
-        <v>0.229528</v>
+        <v>0.206069</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.142082</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +4147,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.266251</v>
+        <v>0.239977</v>
       </c>
       <c r="C55" t="n">
-        <v>0.217276</v>
+        <v>0.226359</v>
       </c>
       <c r="D55" t="n">
-        <v>0.23906</v>
+        <v>0.207615</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.151941</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4164,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.2582</v>
+        <v>0.244704</v>
       </c>
       <c r="C56" t="n">
-        <v>0.217715</v>
+        <v>0.233902</v>
       </c>
       <c r="D56" t="n">
-        <v>0.244375</v>
+        <v>0.206442</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.150189</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4181,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.26192</v>
+        <v>0.243088</v>
       </c>
       <c r="C57" t="n">
-        <v>0.21765</v>
+        <v>0.244178</v>
       </c>
       <c r="D57" t="n">
-        <v>0.262273</v>
+        <v>0.206833</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.148834</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4198,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.263452</v>
+        <v>0.24314</v>
       </c>
       <c r="C58" t="n">
-        <v>0.219714</v>
+        <v>0.248807</v>
       </c>
       <c r="D58" t="n">
-        <v>0.261649</v>
+        <v>0.207135</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.149022</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4215,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.261538</v>
+        <v>0.259285</v>
       </c>
       <c r="C59" t="n">
-        <v>0.221735</v>
+        <v>0.258246</v>
       </c>
       <c r="D59" t="n">
-        <v>0.271339</v>
+        <v>0.208517</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.152395</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4232,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.266648</v>
+        <v>0.244527</v>
       </c>
       <c r="C60" t="n">
-        <v>0.225115</v>
+        <v>0.265756</v>
       </c>
       <c r="D60" t="n">
-        <v>0.285346</v>
+        <v>0.213654</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.157718</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4249,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.262997</v>
+        <v>0.258565</v>
       </c>
       <c r="C61" t="n">
-        <v>0.221341</v>
+        <v>0.279784</v>
       </c>
       <c r="D61" t="n">
-        <v>0.289886</v>
+        <v>0.211378</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.162783</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4266,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.254748</v>
+        <v>0.251223</v>
       </c>
       <c r="C62" t="n">
-        <v>0.223936</v>
+        <v>0.286467</v>
       </c>
       <c r="D62" t="n">
-        <v>0.302034</v>
+        <v>0.213752</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.174259</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4283,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.262754</v>
+        <v>0.246662</v>
       </c>
       <c r="C63" t="n">
-        <v>0.227702</v>
+        <v>0.297495</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3158</v>
+        <v>0.215948</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.169295</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4300,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.265271</v>
+        <v>0.250238</v>
       </c>
       <c r="C64" t="n">
-        <v>0.22964</v>
+        <v>0.267805</v>
       </c>
       <c r="D64" t="n">
-        <v>0.295075</v>
+        <v>0.225181</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.177031</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4317,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.258322</v>
+        <v>0.254894</v>
       </c>
       <c r="C65" t="n">
-        <v>0.234842</v>
+        <v>0.277377</v>
       </c>
       <c r="D65" t="n">
-        <v>0.299765</v>
+        <v>0.224483</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.18605</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4334,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.269601</v>
+        <v>0.257605</v>
       </c>
       <c r="C66" t="n">
-        <v>0.308957</v>
+        <v>0.287252</v>
       </c>
       <c r="D66" t="n">
-        <v>0.31436</v>
+        <v>0.281873</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.213328</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4351,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.401715</v>
+        <v>0.37859</v>
       </c>
       <c r="C67" t="n">
-        <v>0.304609</v>
+        <v>0.334067</v>
       </c>
       <c r="D67" t="n">
-        <v>0.317363</v>
+        <v>0.281946</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.211418</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4368,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.401072</v>
+        <v>0.395548</v>
       </c>
       <c r="C68" t="n">
-        <v>0.306993</v>
+        <v>0.334389</v>
       </c>
       <c r="D68" t="n">
-        <v>0.336311</v>
+        <v>0.296129</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.226468</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4385,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.400092</v>
+        <v>0.36964</v>
       </c>
       <c r="C69" t="n">
-        <v>0.311718</v>
+        <v>0.321778</v>
       </c>
       <c r="D69" t="n">
-        <v>0.33933</v>
+        <v>0.290501</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.218124</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4402,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.40274</v>
+        <v>0.404798</v>
       </c>
       <c r="C70" t="n">
-        <v>0.311556</v>
+        <v>0.360605</v>
       </c>
       <c r="D70" t="n">
-        <v>0.357304</v>
+        <v>0.291457</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.219806</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4419,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.393962</v>
+        <v>0.386849</v>
       </c>
       <c r="C71" t="n">
-        <v>0.309602</v>
+        <v>0.34063</v>
       </c>
       <c r="D71" t="n">
-        <v>0.37059</v>
+        <v>0.297604</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.243804</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4436,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.397192</v>
+        <v>0.378746</v>
       </c>
       <c r="C72" t="n">
-        <v>0.326395</v>
+        <v>0.393484</v>
       </c>
       <c r="D72" t="n">
-        <v>0.376567</v>
+        <v>0.297078</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.232714</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4453,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.41107</v>
+        <v>0.371913</v>
       </c>
       <c r="C73" t="n">
-        <v>0.311006</v>
+        <v>0.373325</v>
       </c>
       <c r="D73" t="n">
-        <v>0.403713</v>
+        <v>0.298096</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.229226</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4470,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.40179</v>
+        <v>0.370347</v>
       </c>
       <c r="C74" t="n">
-        <v>0.321879</v>
+        <v>0.382436</v>
       </c>
       <c r="D74" t="n">
-        <v>0.413227</v>
+        <v>0.300332</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.232056</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4487,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.408306</v>
+        <v>0.376063</v>
       </c>
       <c r="C75" t="n">
-        <v>0.328216</v>
+        <v>0.44213</v>
       </c>
       <c r="D75" t="n">
-        <v>0.423038</v>
+        <v>0.307432</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.23403</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4504,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.414236</v>
+        <v>0.395318</v>
       </c>
       <c r="C76" t="n">
-        <v>0.324864</v>
+        <v>0.438784</v>
       </c>
       <c r="D76" t="n">
-        <v>0.440522</v>
+        <v>0.298902</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.239206</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4521,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.411662</v>
+        <v>0.388237</v>
       </c>
       <c r="C77" t="n">
-        <v>0.319401</v>
+        <v>0.441998</v>
       </c>
       <c r="D77" t="n">
-        <v>0.463063</v>
+        <v>0.303005</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.243162</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4538,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.42333</v>
+        <v>0.381386</v>
       </c>
       <c r="C78" t="n">
-        <v>0.319053</v>
+        <v>0.411448</v>
       </c>
       <c r="D78" t="n">
-        <v>0.441003</v>
+        <v>0.304907</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.256927</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4555,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.427891</v>
+        <v>0.404541</v>
       </c>
       <c r="C79" t="n">
-        <v>0.326301</v>
+        <v>0.435015</v>
       </c>
       <c r="D79" t="n">
-        <v>0.479983</v>
+        <v>0.328274</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.269618</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4572,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.430254</v>
+        <v>0.395078</v>
       </c>
       <c r="C80" t="n">
-        <v>0.434433</v>
+        <v>0.429316</v>
       </c>
       <c r="D80" t="n">
-        <v>0.463271</v>
+        <v>0.425272</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.340221</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4589,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.579338</v>
+        <v>0.536664</v>
       </c>
       <c r="C81" t="n">
-        <v>0.443754</v>
+        <v>0.434216</v>
       </c>
       <c r="D81" t="n">
-        <v>0.483943</v>
+        <v>0.431801</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.34132</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4606,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.579075</v>
+        <v>0.520942</v>
       </c>
       <c r="C82" t="n">
-        <v>0.433753</v>
+        <v>0.493199</v>
       </c>
       <c r="D82" t="n">
-        <v>0.479735</v>
+        <v>0.446321</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.362851</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4623,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.567376</v>
+        <v>0.539686</v>
       </c>
       <c r="C83" t="n">
-        <v>0.447078</v>
+        <v>0.45549</v>
       </c>
       <c r="D83" t="n">
-        <v>0.525569</v>
+        <v>0.432285</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.346303</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4640,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.565228</v>
+        <v>0.539933</v>
       </c>
       <c r="C84" t="n">
-        <v>0.446499</v>
+        <v>0.468923</v>
       </c>
       <c r="D84" t="n">
-        <v>0.513539</v>
+        <v>0.434907</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.357979</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4657,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.588242</v>
+        <v>0.532839</v>
       </c>
       <c r="C85" t="n">
-        <v>0.455327</v>
+        <v>0.487148</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5214800000000001</v>
+        <v>0.439431</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.357476</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4674,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.558114</v>
+        <v>0.528751</v>
       </c>
       <c r="C86" t="n">
-        <v>0.455212</v>
+        <v>0.51249</v>
       </c>
       <c r="D86" t="n">
-        <v>0.526506</v>
+        <v>0.429121</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.356437</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4691,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5818950000000001</v>
+        <v>0.540493</v>
       </c>
       <c r="C87" t="n">
-        <v>0.45547</v>
+        <v>0.512267</v>
       </c>
       <c r="D87" t="n">
-        <v>0.555508</v>
+        <v>0.431604</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.355748</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4708,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.56863</v>
+        <v>0.545937</v>
       </c>
       <c r="C88" t="n">
-        <v>0.446165</v>
+        <v>0.52341</v>
       </c>
       <c r="D88" t="n">
-        <v>0.552783</v>
+        <v>0.427876</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.380567</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4725,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.566279</v>
+        <v>0.544137</v>
       </c>
       <c r="C89" t="n">
-        <v>0.459036</v>
+        <v>0.546343</v>
       </c>
       <c r="D89" t="n">
-        <v>0.58655</v>
+        <v>0.438312</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.377621</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4742,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5753</v>
+        <v>0.539018</v>
       </c>
       <c r="C90" t="n">
-        <v>0.459808</v>
+        <v>0.59007</v>
       </c>
       <c r="D90" t="n">
-        <v>0.594132</v>
+        <v>0.44733</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.365733</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4759,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.55622</v>
+        <v>0.541429</v>
       </c>
       <c r="C91" t="n">
-        <v>0.470379</v>
+        <v>0.575278</v>
       </c>
       <c r="D91" t="n">
-        <v>0.61897</v>
+        <v>0.442253</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.379791</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4776,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.564026</v>
+        <v>0.541362</v>
       </c>
       <c r="C92" t="n">
-        <v>0.452336</v>
+        <v>0.52969</v>
       </c>
       <c r="D92" t="n">
-        <v>0.565643</v>
+        <v>0.440261</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.408323</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4793,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.551207</v>
+        <v>0.552158</v>
       </c>
       <c r="C93" t="n">
-        <v>0.458532</v>
+        <v>0.563793</v>
       </c>
       <c r="D93" t="n">
-        <v>0.599983</v>
+        <v>0.447521</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.378779</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4810,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.569594</v>
+        <v>0.541909</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5279509999999999</v>
+        <v>0.559777</v>
       </c>
       <c r="D94" t="n">
-        <v>0.597056</v>
+        <v>0.513033</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.509998</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4827,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.646031</v>
+        <v>0.630656</v>
       </c>
       <c r="C95" t="n">
-        <v>0.544029</v>
+        <v>0.558782</v>
       </c>
       <c r="D95" t="n">
-        <v>0.633387</v>
+        <v>0.513426</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.528958</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4844,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.647846</v>
+        <v>0.614862</v>
       </c>
       <c r="C96" t="n">
-        <v>0.560291</v>
+        <v>0.5698</v>
       </c>
       <c r="D96" t="n">
-        <v>0.619549</v>
+        <v>0.510574</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.512079</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4861,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.659823</v>
+        <v>0.623656</v>
       </c>
       <c r="C97" t="n">
-        <v>0.557229</v>
+        <v>0.588579</v>
       </c>
       <c r="D97" t="n">
-        <v>0.627703</v>
+        <v>0.513126</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.5192099999999999</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4878,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.673434</v>
+        <v>0.612957</v>
       </c>
       <c r="C98" t="n">
-        <v>0.547909</v>
+        <v>0.5947519999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>0.637898</v>
+        <v>0.51803</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.523118</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4895,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.658323</v>
+        <v>0.632536</v>
       </c>
       <c r="C99" t="n">
-        <v>0.552824</v>
+        <v>0.619456</v>
       </c>
       <c r="D99" t="n">
-        <v>0.651146</v>
+        <v>0.531845</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.521205</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4912,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.647446</v>
+        <v>0.6153</v>
       </c>
       <c r="C100" t="n">
-        <v>0.558828</v>
+        <v>0.634361</v>
       </c>
       <c r="D100" t="n">
-        <v>0.675566</v>
+        <v>0.523637</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.522819</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4929,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.668364</v>
+        <v>0.626893</v>
       </c>
       <c r="C101" t="n">
-        <v>0.57175</v>
+        <v>0.662978</v>
       </c>
       <c r="D101" t="n">
-        <v>0.679528</v>
+        <v>0.542168</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.5403480000000001</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4946,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.6563330000000001</v>
+        <v>0.622793</v>
       </c>
       <c r="C102" t="n">
-        <v>0.544839</v>
+        <v>0.659201</v>
       </c>
       <c r="D102" t="n">
-        <v>0.695928</v>
+        <v>0.531761</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.539636</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4963,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.6601900000000001</v>
+        <v>0.684273</v>
       </c>
       <c r="C103" t="n">
-        <v>0.553702</v>
+        <v>0.681455</v>
       </c>
       <c r="D103" t="n">
-        <v>0.710685</v>
+        <v>0.517061</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.5472860000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4980,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.639643</v>
+        <v>0.632209</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5793199999999999</v>
+        <v>0.7001270000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.701124</v>
+        <v>0.580287</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.557929</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4997,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.703799</v>
+        <v>0.621667</v>
       </c>
       <c r="C105" t="n">
-        <v>0.575071</v>
+        <v>0.710333</v>
       </c>
       <c r="D105" t="n">
-        <v>0.729553</v>
+        <v>0.524231</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.529743</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +5014,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.672011</v>
+        <v>0.634782</v>
       </c>
       <c r="C106" t="n">
-        <v>0.584228</v>
+        <v>0.7342109999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.760185</v>
+        <v>0.55757</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.54299</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +5031,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.649759</v>
+        <v>0.636661</v>
       </c>
       <c r="C107" t="n">
-        <v>0.573982</v>
+        <v>0.6697340000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6625180000000001</v>
+        <v>0.568764</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.562026</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +5048,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.656452</v>
+        <v>0.629194</v>
       </c>
       <c r="C108" t="n">
-        <v>0.609598</v>
+        <v>0.651743</v>
       </c>
       <c r="D108" t="n">
-        <v>0.694408</v>
+        <v>0.5909180000000001</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.624986</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +5065,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.672032</v>
+        <v>0.631441</v>
       </c>
       <c r="C109" t="n">
-        <v>0.688214</v>
+        <v>0.697454</v>
       </c>
       <c r="D109" t="n">
-        <v>0.72431</v>
+        <v>0.611029</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.62848</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +5082,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.806798</v>
+        <v>0.74721</v>
       </c>
       <c r="C110" t="n">
-        <v>0.630922</v>
+        <v>0.717161</v>
       </c>
       <c r="D110" t="n">
-        <v>0.728004</v>
+        <v>0.642908</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.630279</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +5099,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.795532</v>
+        <v>0.751325</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6185349999999999</v>
+        <v>0.71161</v>
       </c>
       <c r="D111" t="n">
-        <v>0.757036</v>
+        <v>0.63148</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.6458159999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +5116,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.799075</v>
+        <v>0.747064</v>
       </c>
       <c r="C112" t="n">
-        <v>0.618291</v>
+        <v>0.717648</v>
       </c>
       <c r="D112" t="n">
-        <v>0.746583</v>
+        <v>0.6138940000000001</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.627844</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +5133,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.79044</v>
+        <v>0.7579979999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>0.628356</v>
+        <v>0.726871</v>
       </c>
       <c r="D113" t="n">
-        <v>0.768413</v>
+        <v>0.599431</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.636039</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +5150,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.796691</v>
+        <v>0.748476</v>
       </c>
       <c r="C114" t="n">
-        <v>0.63372</v>
+        <v>0.775099</v>
       </c>
       <c r="D114" t="n">
-        <v>0.785073</v>
+        <v>0.603463</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.642716</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +5167,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.833283</v>
+        <v>0.7562759999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>0.673374</v>
+        <v>0.815724</v>
       </c>
       <c r="D115" t="n">
-        <v>0.815638</v>
+        <v>0.599319</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.642055</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +5184,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.830465</v>
+        <v>0.771334</v>
       </c>
       <c r="C116" t="n">
-        <v>0.623121</v>
+        <v>0.797669</v>
       </c>
       <c r="D116" t="n">
-        <v>0.82925</v>
+        <v>0.603727</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.638619</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +5201,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.804858</v>
+        <v>0.7548280000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>0.638884</v>
+        <v>0.7958809999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.848186</v>
+        <v>0.615637</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.646834</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +5218,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.8029579999999999</v>
+        <v>0.765169</v>
       </c>
       <c r="C118" t="n">
-        <v>0.634367</v>
+        <v>0.818875</v>
       </c>
       <c r="D118" t="n">
-        <v>0.860563</v>
+        <v>0.629145</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.6478429999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +5235,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.842378</v>
+        <v>0.752241</v>
       </c>
       <c r="C119" t="n">
-        <v>0.638043</v>
+        <v>0.852097</v>
       </c>
       <c r="D119" t="n">
-        <v>0.832104</v>
+        <v>0.630976</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.65464</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +5252,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.834309</v>
+        <v>0.744648</v>
       </c>
       <c r="C120" t="n">
-        <v>0.65088</v>
+        <v>0.833232</v>
       </c>
       <c r="D120" t="n">
-        <v>0.885112</v>
+        <v>0.624336</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.660525</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +5269,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.81694</v>
+        <v>0.769995</v>
       </c>
       <c r="C121" t="n">
-        <v>0.657278</v>
+        <v>0.769119</v>
       </c>
       <c r="D121" t="n">
-        <v>0.7795530000000001</v>
+        <v>0.635722</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.674917</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +5286,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.829794</v>
+        <v>0.769273</v>
       </c>
       <c r="C122" t="n">
-        <v>0.663386</v>
+        <v>0.752049</v>
       </c>
       <c r="D122" t="n">
-        <v>0.765518</v>
+        <v>0.641786</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.688489</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +5303,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.86329</v>
+        <v>0.787297</v>
       </c>
       <c r="C123" t="n">
-        <v>0.758297</v>
+        <v>0.775189</v>
       </c>
       <c r="D123" t="n">
-        <v>0.817475</v>
+        <v>0.710195</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.691557</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +5320,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.06284</v>
+        <v>0.965201</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7592680000000001</v>
+        <v>0.824757</v>
       </c>
       <c r="D124" t="n">
-        <v>0.841808</v>
+        <v>0.737551</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.701751</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +5337,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.07305</v>
+        <v>0.991052</v>
       </c>
       <c r="C125" t="n">
-        <v>0.779043</v>
+        <v>0.829155</v>
       </c>
       <c r="D125" t="n">
-        <v>0.829143</v>
+        <v>0.727307</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.716569</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +5354,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.03973</v>
+        <v>0.98768</v>
       </c>
       <c r="C126" t="n">
-        <v>0.872897</v>
+        <v>0.848774</v>
       </c>
       <c r="D126" t="n">
-        <v>0.862116</v>
+        <v>0.720848</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.708095</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +5371,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.03101</v>
+        <v>0.954688</v>
       </c>
       <c r="C127" t="n">
-        <v>0.752169</v>
+        <v>0.820613</v>
       </c>
       <c r="D127" t="n">
-        <v>0.860604</v>
+        <v>0.720592</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.714797</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5388,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.20222</v>
+        <v>0.959853</v>
       </c>
       <c r="C128" t="n">
-        <v>0.876124</v>
+        <v>0.843156</v>
       </c>
       <c r="D128" t="n">
-        <v>0.904429</v>
+        <v>0.720075</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.710924</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5405,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.08309</v>
+        <v>0.960085</v>
       </c>
       <c r="C129" t="n">
-        <v>0.777339</v>
+        <v>0.843867</v>
       </c>
       <c r="D129" t="n">
-        <v>0.899023</v>
+        <v>0.713288</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.725104</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5422,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.2217</v>
+        <v>0.95986</v>
       </c>
       <c r="C130" t="n">
-        <v>0.806913</v>
+        <v>0.864024</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9459880000000001</v>
+        <v>0.726143</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.762055</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5439,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.21254</v>
+        <v>0.97289</v>
       </c>
       <c r="C131" t="n">
-        <v>0.811137</v>
+        <v>0.87152</v>
       </c>
       <c r="D131" t="n">
-        <v>0.95869</v>
+        <v>0.721178</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.720172</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5456,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.06368</v>
+        <v>0.982699</v>
       </c>
       <c r="C132" t="n">
-        <v>0.775551</v>
+        <v>0.889441</v>
       </c>
       <c r="D132" t="n">
-        <v>0.980057</v>
+        <v>0.733549</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.726642</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5473,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.05388</v>
+        <v>0.96827</v>
       </c>
       <c r="C133" t="n">
-        <v>0.879872</v>
+        <v>0.9350889999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.979793</v>
+        <v>0.769132</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.732287</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5490,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.07898</v>
+        <v>0.966741</v>
       </c>
       <c r="C134" t="n">
-        <v>0.834308</v>
+        <v>0.925909</v>
       </c>
       <c r="D134" t="n">
-        <v>1.05648</v>
+        <v>0.735996</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.740517</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5507,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.05188</v>
+        <v>0.975557</v>
       </c>
       <c r="C135" t="n">
-        <v>0.820356</v>
+        <v>0.8174439999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>0.878069</v>
+        <v>0.746946</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.749348</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5524,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.06981</v>
+        <v>0.964943</v>
       </c>
       <c r="C136" t="n">
-        <v>0.920679</v>
+        <v>0.833415</v>
       </c>
       <c r="D136" t="n">
-        <v>0.882955</v>
+        <v>0.753836</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.7687</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5541,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.08011</v>
+        <v>0.969637</v>
       </c>
       <c r="C137" t="n">
-        <v>0.934839</v>
+        <v>0.849271</v>
       </c>
       <c r="D137" t="n">
-        <v>0.933563</v>
+        <v>0.885576</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.753418</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5558,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.43056</v>
+        <v>1.32599</v>
       </c>
       <c r="C138" t="n">
-        <v>1.05762</v>
+        <v>0.867505</v>
       </c>
       <c r="D138" t="n">
-        <v>0.907512</v>
+        <v>0.8833800000000001</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.769649</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5575,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.35301</v>
+        <v>1.2235</v>
       </c>
       <c r="C139" t="n">
-        <v>0.94724</v>
+        <v>0.8689210000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.910778</v>
+        <v>0.882274</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.757315</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5592,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.31661</v>
+        <v>1.22931</v>
       </c>
       <c r="C140" t="n">
-        <v>1.00852</v>
+        <v>0.883606</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9667559999999999</v>
+        <v>0.879636</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.765383</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5609,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.31508</v>
+        <v>1.22028</v>
       </c>
       <c r="C141" t="n">
-        <v>1.06768</v>
+        <v>0.900891</v>
       </c>
       <c r="D141" t="n">
-        <v>1.01215</v>
+        <v>0.899881</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.813566</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5626,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.33368</v>
+        <v>1.2225</v>
       </c>
       <c r="C142" t="n">
-        <v>0.947765</v>
+        <v>0.926347</v>
       </c>
       <c r="D142" t="n">
-        <v>0.997685</v>
+        <v>0.895933</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.779847</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5643,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.40193</v>
+        <v>1.2714</v>
       </c>
       <c r="C143" t="n">
-        <v>0.943365</v>
+        <v>0.93203</v>
       </c>
       <c r="D143" t="n">
-        <v>1.03039</v>
+        <v>0.899124</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.784545</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15600" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="1" state="visible" r:id="rId1"/>
@@ -89,10 +89,18 @@
         <scatterStyle val="lineMarker"/>
         <varyColors val="0"/>
         <ser>
-          <idx val="3"/>
+          <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -552,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0196861</v>
+                  <v>0.0194751</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0197442</v>
+                  <v>0.0195629</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0197441</v>
+                  <v>0.019489</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0197505</v>
+                  <v>0.0195779</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0199072</v>
+                  <v>0.0196134</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.020167</v>
+                  <v>0.0197913</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0201829</v>
+                  <v>0.0199155</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0205995</v>
+                  <v>0.0201101</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0193044</v>
+                  <v>0.0196084</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0194655</v>
+                  <v>0.0195614</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0196123</v>
+                  <v>0.0196347</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0198252</v>
+                  <v>0.0198925</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0198606</v>
+                  <v>0.0200039</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0200329</v>
+                  <v>0.0201837</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0200361</v>
+                  <v>0.0200675</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.020201</v>
+                  <v>0.0201647</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0201688</v>
+                  <v>0.0202739</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0204639</v>
+                  <v>0.0202086</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.020687</v>
+                  <v>0.0205069</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0209861</v>
+                  <v>0.0207083</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0214982</v>
+                  <v>0.0211543</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0232463</v>
+                  <v>0.0230484</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0203659</v>
+                  <v>0.0206813</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0204979</v>
+                  <v>0.0207405</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0206548</v>
+                  <v>0.0207665</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0208464</v>
+                  <v>0.0209769</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0210504</v>
+                  <v>0.021056</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0212226</v>
+                  <v>0.0212252</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0216188</v>
+                  <v>0.0213505</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0218555</v>
+                  <v>0.0215039</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0220454</v>
+                  <v>0.0217981</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0221091</v>
+                  <v>0.0221214</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0229123</v>
+                  <v>0.023275</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.023554</v>
+                  <v>0.0250124</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.025525</v>
+                  <v>0.0266118</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0295991</v>
+                  <v>0.0311996</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0226652</v>
+                  <v>0.0216211</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0226726</v>
+                  <v>0.0218931</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0230688</v>
+                  <v>0.0219329</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0220955</v>
+                  <v>0.0221215</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0221313</v>
+                  <v>0.0222904</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0224242</v>
+                  <v>0.0224773</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0226252</v>
+                  <v>0.0228221</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0229498</v>
+                  <v>0.0230365</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0233683</v>
+                  <v>0.0235124</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.024254</v>
+                  <v>0.02408</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0251133</v>
+                  <v>0.025044</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0266522</v>
+                  <v>0.0279553</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.029904</v>
+                  <v>0.0304389</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0329878</v>
+                  <v>0.0353825</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0389153</v>
+                  <v>0.0392081</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0231873</v>
+                  <v>0.0230524</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233782</v>
+                  <v>0.0234244</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0234553</v>
+                  <v>0.0234108</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0236761</v>
+                  <v>0.0239286</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0239042</v>
+                  <v>0.0240818</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0242977</v>
+                  <v>0.024439</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0246093</v>
+                  <v>0.0247787</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0252684</v>
+                  <v>0.0252449</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0261573</v>
+                  <v>0.0265282</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.027529</v>
+                  <v>0.0274839</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0293145</v>
+                  <v>0.0294202</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0323043</v>
+                  <v>0.032256</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0357062</v>
+                  <v>0.035998</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0407992</v>
+                  <v>0.0410284</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0291067</v>
+                  <v>0.0292854</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0292957</v>
+                  <v>0.0293731</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0294658</v>
+                  <v>0.0295223</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0296458</v>
+                  <v>0.0297504</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0298446</v>
+                  <v>0.0300985</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0303077</v>
+                  <v>0.0302054</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0305738</v>
+                  <v>0.030751</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0311089</v>
+                  <v>0.0311922</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.031958</v>
+                  <v>0.0320559</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0331584</v>
+                  <v>0.0331467</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0348142</v>
+                  <v>0.0348991</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0371248</v>
+                  <v>0.0373412</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0406293</v>
+                  <v>0.0409062</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0455093</v>
+                  <v>0.0457293</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.054876</v>
+                  <v>0.0555257</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0551749</v>
+                  <v>0.0577904</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0552561</v>
+                  <v>0.055792</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0555251</v>
+                  <v>0.0560207</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0557353</v>
+                  <v>0.0561087</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0559444</v>
+                  <v>0.0563414</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.056275</v>
+                  <v>0.056655</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0565668</v>
+                  <v>0.0571958</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0570285</v>
+                  <v>0.057884</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0577995</v>
+                  <v>0.0582425</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0587407</v>
+                  <v>0.0592452</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0605897</v>
+                  <v>0.0608211</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0631306</v>
+                  <v>0.0633513</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.06695570000000001</v>
+                  <v>0.06725390000000001</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.09221509999999999</v>
+                  <v>0.0858208</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0858753</v>
+                  <v>0.08577170000000001</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08594309999999999</v>
+                  <v>0.08594590000000001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0860457</v>
+                  <v>0.08606900000000001</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0861672</v>
+                  <v>0.08616749999999999</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0863088</v>
+                  <v>0.08662789999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0865691</v>
+                  <v>0.0864133</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0868321</v>
+                  <v>0.088181</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.08713460000000001</v>
+                  <v>0.0871123</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.08769159999999999</v>
+                  <v>0.0876926</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0958198</v>
+                  <v>0.0885166</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0898485</v>
+                  <v>0.0897474</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.095514</v>
+                  <v>0.09172080000000001</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.09515</v>
+                  <v>0.0949308</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.100163</v>
+                  <v>0.0997827</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.1074</v>
+                  <v>0.109009</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.10739</v>
+                  <v>0.108902</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.107504</v>
+                  <v>0.109017</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.107377</v>
+                  <v>0.109219</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.114714</v>
+                  <v>0.109295</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.108009</v>
+                  <v>0.109582</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.108717</v>
+                  <v>0.109729</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.109426</v>
+                  <v>0.110229</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.110397</v>
+                  <v>0.110875</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.111361</v>
+                  <v>0.111655</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.112842</v>
+                  <v>0.112821</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.114762</v>
+                  <v>0.114619</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.117867</v>
+                  <v>0.117464</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.124715</v>
+                  <v>0.122013</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.139793</v>
+                  <v>0.139209</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.140249</v>
+                  <v>0.139131</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.139831</v>
+                  <v>0.139496</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.139692</v>
+                  <v>0.139621</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.139658</v>
+                  <v>0.13995</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.139443</v>
+                  <v>0.14025</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.139582</v>
+                  <v>0.140479</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.139867</v>
+                  <v>0.142087</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.14053</v>
+                  <v>0.141701</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.141002</v>
+                  <v>0.142135</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.142003</v>
+                  <v>0.143369</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.143615</v>
+                  <v>0.14492</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.145983</v>
+                  <v>0.147621</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.150084</v>
+                  <v>0.151632</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.158033</v>
+                  <v>0.157728</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.157812</v>
+                  <v>0.157774</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.157958</v>
+                  <v>0.157822</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.158179</v>
+                  <v>0.158086</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158157</v>
+                  <v>0.158035</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.158476</v>
+                  <v>0.178791</v>
                 </pt>
               </numCache>
             </numRef>
@@ -983,10 +991,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="4"/>
+          <idx val="1"/>
           <order val="1"/>
           <tx>
-            <v>boost::unordered_flat_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1446,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.021348</v>
+                  <v>0.0365145</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0214877</v>
+                  <v>0.0396988</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0216247</v>
+                  <v>0.0447642</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0218795</v>
+                  <v>0.0498033</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0221566</v>
+                  <v>0.0537687</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0227802</v>
+                  <v>0.0315887</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0236896</v>
+                  <v>0.0336489</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0202692</v>
+                  <v>0.0356574</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0207092</v>
+                  <v>0.0376125</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0210303</v>
+                  <v>0.0405804</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0213025</v>
+                  <v>0.0447308</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0213527</v>
+                  <v>0.047286</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0218472</v>
+                  <v>0.0503759</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0222591</v>
+                  <v>0.0539423</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0226628</v>
+                  <v>0.0578276</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022977</v>
+                  <v>0.0614582</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0233228</v>
+                  <v>0.0653006</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0238671</v>
+                  <v>0.0680994</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0246036</v>
+                  <v>0.0704849</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0252305</v>
+                  <v>0.0446121</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0277472</v>
+                  <v>0.047444</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0217618</v>
+                  <v>0.0493842</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0219587</v>
+                  <v>0.0514984</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0222026</v>
+                  <v>0.0543429</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0224898</v>
+                  <v>0.0563413</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0228074</v>
+                  <v>0.0616033</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0232103</v>
+                  <v>0.0643247</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0236661</v>
+                  <v>0.0662176</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0240376</v>
+                  <v>0.0698588</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0245248</v>
+                  <v>0.07215820000000001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0252023</v>
+                  <v>0.0748846</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0257564</v>
+                  <v>0.0769565</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0270565</v>
+                  <v>0.0791249</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0287934</v>
+                  <v>0.0519505</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0324096</v>
+                  <v>0.0537373</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0236684</v>
+                  <v>0.0560572</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0241302</v>
+                  <v>0.0580173</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0244332</v>
+                  <v>0.0596857</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0245736</v>
+                  <v>0.0624772</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0239295</v>
+                  <v>0.06461600000000001</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0243207</v>
+                  <v>0.0672449</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0252591</v>
+                  <v>0.06969930000000001</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0256591</v>
+                  <v>0.07249079999999999</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0259074</v>
+                  <v>0.07484499999999999</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0266036</v>
+                  <v>0.0778189</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.027689</v>
+                  <v>0.0800609</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0291986</v>
+                  <v>0.0823764</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0317988</v>
+                  <v>0.0844506</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0360721</v>
+                  <v>0.0578649</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.023394</v>
+                  <v>0.0591875</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0236044</v>
+                  <v>0.0615245</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.023867</v>
+                  <v>0.0639034</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0241515</v>
+                  <v>0.0656783</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0244875</v>
+                  <v>0.0679548</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0249477</v>
+                  <v>0.0705563</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0253774</v>
+                  <v>0.0733139</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0259302</v>
+                  <v>0.0760695</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0265094</v>
+                  <v>0.07903490000000001</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0274929</v>
+                  <v>0.080972</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0286629</v>
+                  <v>0.08393299999999999</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0303873</v>
+                  <v>0.08583780000000001</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0330881</v>
+                  <v>0.08868760000000001</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0367975</v>
+                  <v>0.0634653</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0428056</v>
+                  <v>0.0660341</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0248565</v>
+                  <v>0.068684</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0254945</v>
+                  <v>0.0716908</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.025829</v>
+                  <v>0.0754389</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0266013</v>
+                  <v>0.0780781</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0265404</v>
+                  <v>0.08159859999999999</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0270211</v>
+                  <v>0.0866746</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.027483</v>
+                  <v>0.0889358</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0281629</v>
+                  <v>0.0945853</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0291473</v>
+                  <v>0.0982999</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0302343</v>
+                  <v>0.102978</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0321709</v>
+                  <v>0.106901</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0346453</v>
+                  <v>0.112317</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.038211</v>
+                  <v>0.09733840000000001</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0437751</v>
+                  <v>0.101335</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0369618</v>
+                  <v>0.105975</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0377666</v>
+                  <v>0.110132</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0385693</v>
+                  <v>0.115172</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0393414</v>
+                  <v>0.121209</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0400166</v>
+                  <v>0.126205</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0406419</v>
+                  <v>0.131141</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0415556</v>
+                  <v>0.137704</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0424017</v>
+                  <v>0.143051</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0449697</v>
+                  <v>0.149748</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0442997</v>
+                  <v>0.154568</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0456659</v>
+                  <v>0.16029</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.047738</v>
+                  <v>0.166513</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0505484</v>
+                  <v>0.145912</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0549595</v>
+                  <v>0.149301</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0715803</v>
+                  <v>0.152309</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0719887</v>
+                  <v>0.157221</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0723747</v>
+                  <v>0.160664</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0728399</v>
+                  <v>0.166029</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.07350520000000001</v>
+                  <v>0.170781</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0740489</v>
+                  <v>0.175608</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0746351</v>
+                  <v>0.181033</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0754398</v>
+                  <v>0.186455</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.07621650000000001</v>
+                  <v>0.192398</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0796057</v>
+                  <v>0.199037</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.07860830000000001</v>
+                  <v>0.203931</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0804361</v>
+                  <v>0.210695</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0829439</v>
+                  <v>0.216678</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.08686770000000001</v>
+                  <v>0.181859</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0889514</v>
+                  <v>0.199868</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.089729</v>
+                  <v>0.193515</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0904097</v>
+                  <v>0.192797</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0913191</v>
+                  <v>0.196994</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0921503</v>
+                  <v>0.201949</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0931935</v>
+                  <v>0.206787</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09714059999999999</v>
+                  <v>0.212581</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.09524050000000001</v>
+                  <v>0.217678</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.096618</v>
+                  <v>0.223918</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0979674</v>
+                  <v>0.229518</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0996447</v>
+                  <v>0.23542</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.101745</v>
+                  <v>0.241207</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.104375</v>
+                  <v>0.247384</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.108312</v>
+                  <v>0.199268</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.114594</v>
+                  <v>0.202036</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.106984</v>
+                  <v>0.205435</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.119349</v>
+                  <v>0.209778</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.109142</v>
+                  <v>0.213788</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.110214</v>
+                  <v>0.218497</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.111475</v>
+                  <v>0.22327</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.112737</v>
+                  <v>0.228488</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.11413</v>
+                  <v>0.234375</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.115719</v>
+                  <v>0.240447</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.117336</v>
+                  <v>0.24599</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.119263</v>
+                  <v>0.251978</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.121651</v>
+                  <v>0.257944</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.124577</v>
+                  <v>0.268641</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.128814</v>
+                  <v>0.209616</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.13534</v>
+                  <v>0.212749</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.118414</v>
+                  <v>0.216194</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.119444</v>
+                  <v>0.220147</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.120531</v>
+                  <v>0.224171</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.121662</v>
+                  <v>0.229194</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.122894</v>
+                  <v>0.234298</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.12405</v>
+                  <v>0.239466</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.125504</v>
+                  <v>0.245367</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1877,10 +1893,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="5"/>
+          <idx val="2"/>
           <order val="2"/>
           <tx>
-            <v>boost::unordered_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_flat_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2364,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0336857</v>
+                  <v>0.0196261</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0394849</v>
+                  <v>0.0197912</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0423094</v>
+                  <v>0.0198901</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0461472</v>
+                  <v>0.0199582</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0507523</v>
+                  <v>0.0201314</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.030305</v>
+                  <v>0.0201829</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0319421</v>
+                  <v>0.0207955</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0344693</v>
+                  <v>0.0194471</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0368055</v>
+                  <v>0.0195449</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0393418</v>
+                  <v>0.019867</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0427875</v>
+                  <v>0.0201596</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0475742</v>
+                  <v>0.0201363</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0488059</v>
+                  <v>0.0205715</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0525665</v>
+                  <v>0.021072</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0568101</v>
+                  <v>0.0210413</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0604767</v>
+                  <v>0.0212453</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0639252</v>
+                  <v>0.0213354</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0675722</v>
+                  <v>0.0214148</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0692373</v>
+                  <v>0.0218501</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0444481</v>
+                  <v>0.0224228</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0475408</v>
+                  <v>0.0237556</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0489493</v>
+                  <v>0.0210571</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0508013</v>
+                  <v>0.0212586</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0535126</v>
+                  <v>0.0214644</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0556632</v>
+                  <v>0.0215637</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0589148</v>
+                  <v>0.021764</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0614351</v>
+                  <v>0.0221105</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.06435200000000001</v>
+                  <v>0.022421</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0664998</v>
+                  <v>0.0226251</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.07017470000000001</v>
+                  <v>0.0229748</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0725022</v>
+                  <v>0.02343</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0762954</v>
+                  <v>0.0239333</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0772482</v>
+                  <v>0.0247176</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0518274</v>
+                  <v>0.0263657</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0539981</v>
+                  <v>0.0292434</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0569381</v>
+                  <v>0.0221968</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0590617</v>
+                  <v>0.0224122</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0616864</v>
+                  <v>0.0226233</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0607154</v>
+                  <v>0.0229104</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.06472219999999999</v>
+                  <v>0.0231873</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0669053</v>
+                  <v>0.0235225</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.06983350000000001</v>
+                  <v>0.0245394</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0728838</v>
+                  <v>0.0242028</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0752324</v>
+                  <v>0.0246188</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.07806680000000001</v>
+                  <v>0.0255792</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0802983</v>
+                  <v>0.0258658</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0828279</v>
+                  <v>0.0269256</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0846045</v>
+                  <v>0.029475</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0575865</v>
+                  <v>0.0328029</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0593047</v>
+                  <v>0.0229759</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0611502</v>
+                  <v>0.0231768</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0636737</v>
+                  <v>0.0234395</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0657292</v>
+                  <v>0.023729</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.06833930000000001</v>
+                  <v>0.0240074</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0707661</v>
+                  <v>0.024327</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.073903</v>
+                  <v>0.0247229</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0761425</v>
+                  <v>0.025276</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.078791</v>
+                  <v>0.0257848</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.08170040000000001</v>
+                  <v>0.0264266</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0839515</v>
+                  <v>0.0273739</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0861381</v>
+                  <v>0.0289127</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.088853</v>
+                  <v>0.0313813</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0638098</v>
+                  <v>0.0347866</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.06650739999999999</v>
+                  <v>0.0405541</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0691383</v>
+                  <v>0.0251501</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0715653</v>
+                  <v>0.0254762</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0745817</v>
+                  <v>0.0257275</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.07851610000000001</v>
+                  <v>0.0260131</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0814839</v>
+                  <v>0.0263866</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0860113</v>
+                  <v>0.0261122</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.09014419999999999</v>
+                  <v>0.0272077</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0948281</v>
+                  <v>0.0281149</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0981105</v>
+                  <v>0.0283556</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.101526</v>
+                  <v>0.0292696</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.107487</v>
+                  <v>0.0306653</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.112807</v>
+                  <v>0.0333493</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0965601</v>
+                  <v>0.0363328</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.101097</v>
+                  <v>0.0412171</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.106082</v>
+                  <v>0.0356659</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.110975</v>
+                  <v>0.0363526</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.114995</v>
+                  <v>0.0371667</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.120023</v>
+                  <v>0.0379171</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.125893</v>
+                  <v>0.0386585</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.130762</v>
+                  <v>0.0393656</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.136855</v>
+                  <v>0.0400877</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.142491</v>
+                  <v>0.0412195</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.148735</v>
+                  <v>0.0419461</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.154806</v>
+                  <v>0.0430021</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.160276</v>
+                  <v>0.0442752</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.165942</v>
+                  <v>0.046052</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.145194</v>
+                  <v>0.0487434</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.148853</v>
+                  <v>0.0533016</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.152457</v>
+                  <v>0.0713101</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.156847</v>
+                  <v>0.07162789999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.16093</v>
+                  <v>0.0721873</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.165502</v>
+                  <v>0.0726131</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.171025</v>
+                  <v>0.0731451</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.176145</v>
+                  <v>0.073726</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.181854</v>
+                  <v>0.0743772</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.187152</v>
+                  <v>0.0751235</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.192849</v>
+                  <v>0.0758935</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.199082</v>
+                  <v>0.07695730000000001</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.205029</v>
+                  <v>0.07818170000000001</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.211115</v>
+                  <v>0.0798373</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.217795</v>
+                  <v>0.08226</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.181761</v>
+                  <v>0.0859181</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.184875</v>
+                  <v>0.08945119999999999</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.18853</v>
+                  <v>0.0901479</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.193379</v>
+                  <v>0.0909215</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.196792</v>
+                  <v>0.0917118</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.201399</v>
+                  <v>0.09258719999999999</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.206374</v>
+                  <v>0.09357890000000001</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.211734</v>
+                  <v>0.09464</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.218001</v>
+                  <v>0.0957011</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.223144</v>
+                  <v>0.0970447</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.229767</v>
+                  <v>0.0984414</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.235872</v>
+                  <v>0.101572</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.240776</v>
+                  <v>0.102157</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.247637</v>
+                  <v>0.104633</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.198997</v>
+                  <v>0.108505</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.202385</v>
+                  <v>0.114455</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.205971</v>
+                  <v>0.107135</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.209681</v>
+                  <v>0.10814</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.213857</v>
+                  <v>0.109179</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.218441</v>
+                  <v>0.110339</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.223282</v>
+                  <v>0.111555</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.228864</v>
+                  <v>0.117399</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.234598</v>
+                  <v>0.11438</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.240649</v>
+                  <v>0.115714</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.251617</v>
+                  <v>0.117191</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.252683</v>
+                  <v>0.11914</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.258786</v>
+                  <v>0.121337</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.264415</v>
+                  <v>0.127893</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.20958</v>
+                  <v>0.128374</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.21278</v>
+                  <v>0.134621</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.216352</v>
+                  <v>0.118436</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.219749</v>
+                  <v>0.119542</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.224359</v>
+                  <v>0.120555</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.228913</v>
+                  <v>0.124935</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.236829</v>
+                  <v>0.12278</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.239299</v>
+                  <v>0.123993</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.2453</v>
+                  <v>0.125349</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>plot!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$E$2:$E$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.0206785</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.0207813</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0208833</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.0207783</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.0207749</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.020897</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.0212215</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.0216661</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.0216931</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.0219577</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.0219969</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.0221826</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.0225411</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.0228079</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.0227173</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.0227772</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.0230473</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.0229634</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.0230157</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.0234205</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.0244919</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.023336</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.0235586</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.0238225</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.0237382</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.0238801</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.0241333</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.0244564</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.0245499</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.0247842</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.0251216</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.0254613</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.0260233</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.0270699</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.0306774</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.0245451</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.0247372</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.024937</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.0252111</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.0253094</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.0255793</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.0257865</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.0260194</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.026382</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.0268562</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.0274538</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.0286629</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.030666</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.0341753</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.0248564</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.0250656</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.0253725</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.0256172</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.025785</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.0260479</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.0265271</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.0269807</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.0273609</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.0280786</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.0290054</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.0305336</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.0329544</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.0362898</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.0419218</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.026637</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.0267861</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.0277745</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.0273026</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.0277491</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.0281135</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.0285725</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.0291539</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.0301281</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.0315789</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.032797</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.0350439</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.0383708</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.0434181</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.0335094</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.033843</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.0344867</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.0348016</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.0352056</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.0360305</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.0367309</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.0372919</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.0386863</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.0396944</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.0417616</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.0440648</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.0474931</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.052939</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.06786490000000001</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.068254</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.06875249999999999</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.0691842</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.06990540000000001</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.07045410000000001</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.0711215</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.0718926</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.0728032</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.07412000000000001</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.07561420000000001</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.0777135</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.08079749999999999</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.0859578</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.0926965</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.0931657</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.09363</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.0942807</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.0949342</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.0956124</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.09643110000000001</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.0974578</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.09865409999999999</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.099985</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.101915</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.10417</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.107355</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.111855</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.119295</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.111174</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.113436</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.112627</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.113487</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.114491</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.116157</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.116856</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.118562</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.120523</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.121962</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.124397</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.127842</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.14034</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.13989</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.123322</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.124097</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.124887</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.126237</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.12706</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.127951</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.129431</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2865,8 +3791,8 @@
           <hMode val="factor"/>
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
-          <w val="0.3953147440728324"/>
-          <h val="0.2347463490140655"/>
+          <w val="0.3308817338426756"/>
+          <h val="0.2472877044215627"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -3215,8 +4141,8 @@
   </sheetPr>
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3232,12 +4158,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>boost::unordered_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_map</t>
+          <t>boost::unordered_flat_map</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::unordered_node_map</t>
         </is>
       </c>
     </row>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.117878</v>
+        <v>0.116951</v>
       </c>
       <c r="C2" t="n">
-        <v>0.174152</v>
+        <v>0.110204</v>
       </c>
       <c r="D2" t="n">
-        <v>0.130591</v>
+        <v>0.128403</v>
       </c>
       <c r="E2" t="n">
-        <v>0.123786</v>
+        <v>0.119276</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.117297</v>
+        <v>0.117257</v>
       </c>
       <c r="C3" t="n">
-        <v>0.165267</v>
+        <v>0.108083</v>
       </c>
       <c r="D3" t="n">
-        <v>0.131032</v>
+        <v>0.129269</v>
       </c>
       <c r="E3" t="n">
-        <v>0.123887</v>
+        <v>0.119712</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.116129</v>
+        <v>0.116168</v>
       </c>
       <c r="C4" t="n">
-        <v>0.165234</v>
+        <v>0.106222</v>
       </c>
       <c r="D4" t="n">
-        <v>0.127566</v>
+        <v>0.128468</v>
       </c>
       <c r="E4" t="n">
-        <v>0.12882</v>
+        <v>0.121791</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.116746</v>
+        <v>0.117957</v>
       </c>
       <c r="C5" t="n">
-        <v>0.172174</v>
+        <v>0.109989</v>
       </c>
       <c r="D5" t="n">
-        <v>0.12916</v>
+        <v>0.130775</v>
       </c>
       <c r="E5" t="n">
-        <v>0.119605</v>
+        <v>0.121575</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.117716</v>
+        <v>0.117569</v>
       </c>
       <c r="C6" t="n">
-        <v>0.183713</v>
+        <v>0.108989</v>
       </c>
       <c r="D6" t="n">
-        <v>0.13189</v>
+        <v>0.130604</v>
       </c>
       <c r="E6" t="n">
-        <v>0.120185</v>
+        <v>0.124788</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.11862</v>
+        <v>0.118003</v>
       </c>
       <c r="C7" t="n">
-        <v>0.148175</v>
+        <v>0.10964</v>
       </c>
       <c r="D7" t="n">
-        <v>0.130877</v>
+        <v>0.130567</v>
       </c>
       <c r="E7" t="n">
-        <v>0.12068</v>
+        <v>0.122118</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.128602</v>
+        <v>0.117194</v>
       </c>
       <c r="C8" t="n">
-        <v>0.14419</v>
+        <v>0.109421</v>
       </c>
       <c r="D8" t="n">
-        <v>0.133844</v>
+        <v>0.136527</v>
       </c>
       <c r="E8" t="n">
-        <v>0.123604</v>
+        <v>0.126345</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119017</v>
+        <v>0.119471</v>
       </c>
       <c r="C9" t="n">
-        <v>0.152849</v>
+        <v>0.11233</v>
       </c>
       <c r="D9" t="n">
-        <v>0.131105</v>
+        <v>0.139916</v>
       </c>
       <c r="E9" t="n">
-        <v>0.116849</v>
+        <v>0.119273</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.123615</v>
+        <v>0.12689</v>
       </c>
       <c r="C10" t="n">
-        <v>0.154192</v>
+        <v>0.116975</v>
       </c>
       <c r="D10" t="n">
-        <v>0.128239</v>
+        <v>0.130169</v>
       </c>
       <c r="E10" t="n">
-        <v>0.123397</v>
+        <v>0.119772</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.129</v>
+        <v>0.130155</v>
       </c>
       <c r="C11" t="n">
-        <v>0.162996</v>
+        <v>0.120904</v>
       </c>
       <c r="D11" t="n">
-        <v>0.132537</v>
+        <v>0.129713</v>
       </c>
       <c r="E11" t="n">
-        <v>0.121534</v>
+        <v>0.117269</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.128206</v>
+        <v>0.127312</v>
       </c>
       <c r="C12" t="n">
-        <v>0.162994</v>
+        <v>0.114483</v>
       </c>
       <c r="D12" t="n">
-        <v>0.131303</v>
+        <v>0.127787</v>
       </c>
       <c r="E12" t="n">
-        <v>0.120607</v>
+        <v>0.118124</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.128445</v>
+        <v>0.126901</v>
       </c>
       <c r="C13" t="n">
-        <v>0.169251</v>
+        <v>0.1147</v>
       </c>
       <c r="D13" t="n">
-        <v>0.13307</v>
+        <v>0.127389</v>
       </c>
       <c r="E13" t="n">
-        <v>0.12064</v>
+        <v>0.118369</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.128614</v>
+        <v>0.124198</v>
       </c>
       <c r="C14" t="n">
-        <v>0.173267</v>
+        <v>0.116288</v>
       </c>
       <c r="D14" t="n">
-        <v>0.143463</v>
+        <v>0.143375</v>
       </c>
       <c r="E14" t="n">
-        <v>0.132257</v>
+        <v>0.122337</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.128053</v>
+        <v>0.128526</v>
       </c>
       <c r="C15" t="n">
-        <v>0.174782</v>
+        <v>0.11558</v>
       </c>
       <c r="D15" t="n">
-        <v>0.137076</v>
+        <v>0.132668</v>
       </c>
       <c r="E15" t="n">
-        <v>0.12118</v>
+        <v>0.121751</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.130466</v>
+        <v>0.126044</v>
       </c>
       <c r="C16" t="n">
-        <v>0.187172</v>
+        <v>0.116987</v>
       </c>
       <c r="D16" t="n">
-        <v>0.135735</v>
+        <v>0.132539</v>
       </c>
       <c r="E16" t="n">
-        <v>0.122438</v>
+        <v>0.122174</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.127408</v>
+        <v>0.126156</v>
       </c>
       <c r="C17" t="n">
-        <v>0.181334</v>
+        <v>0.113954</v>
       </c>
       <c r="D17" t="n">
-        <v>0.13142</v>
+        <v>0.132762</v>
       </c>
       <c r="E17" t="n">
-        <v>0.118006</v>
+        <v>0.118591</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.123521</v>
+        <v>0.124711</v>
       </c>
       <c r="C18" t="n">
-        <v>0.183584</v>
+        <v>0.114631</v>
       </c>
       <c r="D18" t="n">
-        <v>0.129983</v>
+        <v>0.130434</v>
       </c>
       <c r="E18" t="n">
-        <v>0.118789</v>
+        <v>0.11932</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.123802</v>
+        <v>0.125805</v>
       </c>
       <c r="C19" t="n">
-        <v>0.184499</v>
+        <v>0.121329</v>
       </c>
       <c r="D19" t="n">
-        <v>0.130647</v>
+        <v>0.130834</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1204</v>
+        <v>0.120088</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.124981</v>
+        <v>0.126587</v>
       </c>
       <c r="C20" t="n">
-        <v>0.18817</v>
+        <v>0.114804</v>
       </c>
       <c r="D20" t="n">
-        <v>0.132296</v>
+        <v>0.131691</v>
       </c>
       <c r="E20" t="n">
-        <v>0.12075</v>
+        <v>0.121234</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.125588</v>
+        <v>0.125368</v>
       </c>
       <c r="C21" t="n">
-        <v>0.151194</v>
+        <v>0.11507</v>
       </c>
       <c r="D21" t="n">
-        <v>0.13367</v>
+        <v>0.139108</v>
       </c>
       <c r="E21" t="n">
-        <v>0.122611</v>
+        <v>0.126068</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.127401</v>
+        <v>0.13181</v>
       </c>
       <c r="C22" t="n">
-        <v>0.155388</v>
+        <v>0.116288</v>
       </c>
       <c r="D22" t="n">
-        <v>0.138473</v>
+        <v>0.138898</v>
       </c>
       <c r="E22" t="n">
-        <v>0.127295</v>
+        <v>0.129571</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.128748</v>
+        <v>0.129774</v>
       </c>
       <c r="C23" t="n">
-        <v>0.156933</v>
+        <v>0.119803</v>
       </c>
       <c r="D23" t="n">
-        <v>0.132009</v>
+        <v>0.13065</v>
       </c>
       <c r="E23" t="n">
-        <v>0.122117</v>
+        <v>0.121003</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.13384</v>
+        <v>0.131951</v>
       </c>
       <c r="C24" t="n">
-        <v>0.163995</v>
+        <v>0.128741</v>
       </c>
       <c r="D24" t="n">
-        <v>0.133858</v>
+        <v>0.131038</v>
       </c>
       <c r="E24" t="n">
-        <v>0.120708</v>
+        <v>0.121987</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.132417</v>
+        <v>0.13149</v>
       </c>
       <c r="C25" t="n">
-        <v>0.162935</v>
+        <v>0.122919</v>
       </c>
       <c r="D25" t="n">
-        <v>0.131271</v>
+        <v>0.131256</v>
       </c>
       <c r="E25" t="n">
-        <v>0.120678</v>
+        <v>0.12581</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.136509</v>
+        <v>0.133655</v>
       </c>
       <c r="C26" t="n">
-        <v>0.167412</v>
+        <v>0.12437</v>
       </c>
       <c r="D26" t="n">
-        <v>0.132194</v>
+        <v>0.133512</v>
       </c>
       <c r="E26" t="n">
-        <v>0.121588</v>
+        <v>0.12633</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.134398</v>
+        <v>0.134986</v>
       </c>
       <c r="C27" t="n">
-        <v>0.17038</v>
+        <v>0.131259</v>
       </c>
       <c r="D27" t="n">
-        <v>0.132692</v>
+        <v>0.134635</v>
       </c>
       <c r="E27" t="n">
-        <v>0.124808</v>
+        <v>0.122424</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.13269</v>
+        <v>0.133063</v>
       </c>
       <c r="C28" t="n">
-        <v>0.173518</v>
+        <v>0.126028</v>
       </c>
       <c r="D28" t="n">
-        <v>0.132624</v>
+        <v>0.133106</v>
       </c>
       <c r="E28" t="n">
-        <v>0.122847</v>
+        <v>0.123163</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.132251</v>
+        <v>0.13441</v>
       </c>
       <c r="C29" t="n">
-        <v>0.177674</v>
+        <v>0.125453</v>
       </c>
       <c r="D29" t="n">
-        <v>0.133284</v>
+        <v>0.133627</v>
       </c>
       <c r="E29" t="n">
-        <v>0.12444</v>
+        <v>0.124411</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.133342</v>
+        <v>0.136324</v>
       </c>
       <c r="C30" t="n">
-        <v>0.181937</v>
+        <v>0.125794</v>
       </c>
       <c r="D30" t="n">
-        <v>0.133341</v>
+        <v>0.134151</v>
       </c>
       <c r="E30" t="n">
-        <v>0.123968</v>
+        <v>0.124558</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.135261</v>
+        <v>0.13381</v>
       </c>
       <c r="C31" t="n">
-        <v>0.186717</v>
+        <v>0.127786</v>
       </c>
       <c r="D31" t="n">
-        <v>0.135269</v>
+        <v>0.134758</v>
       </c>
       <c r="E31" t="n">
-        <v>0.125284</v>
+        <v>0.124662</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.135583</v>
+        <v>0.13361</v>
       </c>
       <c r="C32" t="n">
-        <v>0.18978</v>
+        <v>0.1256</v>
       </c>
       <c r="D32" t="n">
-        <v>0.136148</v>
+        <v>0.135121</v>
       </c>
       <c r="E32" t="n">
-        <v>0.126315</v>
+        <v>0.127254</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.134956</v>
+        <v>0.141688</v>
       </c>
       <c r="C33" t="n">
-        <v>0.194719</v>
+        <v>0.12588</v>
       </c>
       <c r="D33" t="n">
-        <v>0.137724</v>
+        <v>0.13744</v>
       </c>
       <c r="E33" t="n">
-        <v>0.127947</v>
+        <v>0.126975</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.13466</v>
+        <v>0.135227</v>
       </c>
       <c r="C34" t="n">
-        <v>0.204897</v>
+        <v>0.127362</v>
       </c>
       <c r="D34" t="n">
-        <v>0.139049</v>
+        <v>0.139147</v>
       </c>
       <c r="E34" t="n">
-        <v>0.129621</v>
+        <v>0.131361</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.134939</v>
+        <v>0.136731</v>
       </c>
       <c r="C35" t="n">
-        <v>0.166234</v>
+        <v>0.128726</v>
       </c>
       <c r="D35" t="n">
-        <v>0.142398</v>
+        <v>0.14302</v>
       </c>
       <c r="E35" t="n">
-        <v>0.132226</v>
+        <v>0.133748</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.14079</v>
+        <v>0.139161</v>
       </c>
       <c r="C36" t="n">
-        <v>0.168704</v>
+        <v>0.129948</v>
       </c>
       <c r="D36" t="n">
-        <v>0.148506</v>
+        <v>0.14708</v>
       </c>
       <c r="E36" t="n">
-        <v>0.137761</v>
+        <v>0.13831</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.140346</v>
+        <v>0.146984</v>
       </c>
       <c r="C37" t="n">
-        <v>0.174949</v>
+        <v>0.132805</v>
       </c>
       <c r="D37" t="n">
-        <v>0.138295</v>
+        <v>0.137224</v>
       </c>
       <c r="E37" t="n">
-        <v>0.128226</v>
+        <v>0.128957</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.156366</v>
+        <v>0.156292</v>
       </c>
       <c r="C38" t="n">
-        <v>0.177445</v>
+        <v>0.142752</v>
       </c>
       <c r="D38" t="n">
-        <v>0.139019</v>
+        <v>0.148744</v>
       </c>
       <c r="E38" t="n">
-        <v>0.130683</v>
+        <v>0.129616</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.157752</v>
+        <v>0.157114</v>
       </c>
       <c r="C39" t="n">
-        <v>0.182458</v>
+        <v>0.14135</v>
       </c>
       <c r="D39" t="n">
-        <v>0.140495</v>
+        <v>0.139078</v>
       </c>
       <c r="E39" t="n">
-        <v>0.129199</v>
+        <v>0.133036</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.157115</v>
+        <v>0.157344</v>
       </c>
       <c r="C40" t="n">
-        <v>0.186758</v>
+        <v>0.14014</v>
       </c>
       <c r="D40" t="n">
-        <v>0.138686</v>
+        <v>0.137803</v>
       </c>
       <c r="E40" t="n">
-        <v>0.129526</v>
+        <v>0.130229</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.156787</v>
+        <v>0.1575</v>
       </c>
       <c r="C41" t="n">
-        <v>0.192827</v>
+        <v>0.142274</v>
       </c>
       <c r="D41" t="n">
-        <v>0.139849</v>
+        <v>0.140277</v>
       </c>
       <c r="E41" t="n">
-        <v>0.130758</v>
+        <v>0.131896</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.15667</v>
+        <v>0.158256</v>
       </c>
       <c r="C42" t="n">
-        <v>0.196259</v>
+        <v>0.145428</v>
       </c>
       <c r="D42" t="n">
-        <v>0.139408</v>
+        <v>0.13903</v>
       </c>
       <c r="E42" t="n">
-        <v>0.132778</v>
+        <v>0.131032</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.157077</v>
+        <v>0.157084</v>
       </c>
       <c r="C43" t="n">
-        <v>0.201981</v>
+        <v>0.140812</v>
       </c>
       <c r="D43" t="n">
-        <v>0.139918</v>
+        <v>0.140618</v>
       </c>
       <c r="E43" t="n">
-        <v>0.131339</v>
+        <v>0.13257</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.156674</v>
+        <v>0.157831</v>
       </c>
       <c r="C44" t="n">
-        <v>0.206899</v>
+        <v>0.142185</v>
       </c>
       <c r="D44" t="n">
-        <v>0.145826</v>
+        <v>0.140549</v>
       </c>
       <c r="E44" t="n">
-        <v>0.138324</v>
+        <v>0.132983</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.157113</v>
+        <v>0.156995</v>
       </c>
       <c r="C45" t="n">
-        <v>0.213804</v>
+        <v>0.142906</v>
       </c>
       <c r="D45" t="n">
-        <v>0.140923</v>
+        <v>0.140916</v>
       </c>
       <c r="E45" t="n">
-        <v>0.133568</v>
+        <v>0.134114</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.158811</v>
+        <v>0.157538</v>
       </c>
       <c r="C46" t="n">
-        <v>0.218761</v>
+        <v>0.141912</v>
       </c>
       <c r="D46" t="n">
-        <v>0.143047</v>
+        <v>0.141308</v>
       </c>
       <c r="E46" t="n">
-        <v>0.13516</v>
+        <v>0.134652</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.160588</v>
+        <v>0.15889</v>
       </c>
       <c r="C47" t="n">
-        <v>0.229046</v>
+        <v>0.145787</v>
       </c>
       <c r="D47" t="n">
-        <v>0.145116</v>
+        <v>0.144251</v>
       </c>
       <c r="E47" t="n">
-        <v>0.148843</v>
+        <v>0.137876</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.158827</v>
+        <v>0.160244</v>
       </c>
       <c r="C48" t="n">
-        <v>0.231129</v>
+        <v>0.146499</v>
       </c>
       <c r="D48" t="n">
-        <v>0.146073</v>
+        <v>0.147525</v>
       </c>
       <c r="E48" t="n">
-        <v>0.138976</v>
+        <v>0.140481</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.159103</v>
+        <v>0.160156</v>
       </c>
       <c r="C49" t="n">
-        <v>0.23623</v>
+        <v>0.148748</v>
       </c>
       <c r="D49" t="n">
-        <v>0.14857</v>
+        <v>0.149986</v>
       </c>
       <c r="E49" t="n">
-        <v>0.142316</v>
+        <v>0.143429</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.161085</v>
+        <v>0.161471</v>
       </c>
       <c r="C50" t="n">
-        <v>0.196155</v>
+        <v>0.14875</v>
       </c>
       <c r="D50" t="n">
-        <v>0.156981</v>
+        <v>0.15297</v>
       </c>
       <c r="E50" t="n">
-        <v>0.147017</v>
+        <v>0.147234</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.16387</v>
+        <v>0.164905</v>
       </c>
       <c r="C51" t="n">
-        <v>0.200768</v>
+        <v>0.151161</v>
       </c>
       <c r="D51" t="n">
-        <v>0.203555</v>
+        <v>0.200154</v>
       </c>
       <c r="E51" t="n">
-        <v>0.141792</v>
+        <v>0.138403</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.169843</v>
+        <v>0.167281</v>
       </c>
       <c r="C52" t="n">
-        <v>0.208297</v>
+        <v>0.15696</v>
       </c>
       <c r="D52" t="n">
-        <v>0.203805</v>
+        <v>0.205224</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1395</v>
+        <v>0.14025</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.243146</v>
+        <v>0.260013</v>
       </c>
       <c r="C53" t="n">
-        <v>0.219197</v>
+        <v>0.156681</v>
       </c>
       <c r="D53" t="n">
-        <v>0.211642</v>
+        <v>0.203325</v>
       </c>
       <c r="E53" t="n">
-        <v>0.143858</v>
+        <v>0.141558</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.240158</v>
+        <v>0.244112</v>
       </c>
       <c r="C54" t="n">
-        <v>0.219985</v>
+        <v>0.161529</v>
       </c>
       <c r="D54" t="n">
-        <v>0.206069</v>
+        <v>0.206361</v>
       </c>
       <c r="E54" t="n">
-        <v>0.142082</v>
+        <v>0.143208</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.239977</v>
+        <v>0.247535</v>
       </c>
       <c r="C55" t="n">
-        <v>0.226359</v>
+        <v>0.162851</v>
       </c>
       <c r="D55" t="n">
-        <v>0.207615</v>
+        <v>0.207188</v>
       </c>
       <c r="E55" t="n">
-        <v>0.151941</v>
+        <v>0.146711</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.244704</v>
+        <v>0.244921</v>
       </c>
       <c r="C56" t="n">
-        <v>0.233902</v>
+        <v>0.162672</v>
       </c>
       <c r="D56" t="n">
-        <v>0.206442</v>
+        <v>0.20687</v>
       </c>
       <c r="E56" t="n">
-        <v>0.150189</v>
+        <v>0.150075</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.243088</v>
+        <v>0.245932</v>
       </c>
       <c r="C57" t="n">
-        <v>0.244178</v>
+        <v>0.167712</v>
       </c>
       <c r="D57" t="n">
-        <v>0.206833</v>
+        <v>0.207211</v>
       </c>
       <c r="E57" t="n">
-        <v>0.148834</v>
+        <v>0.148031</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.24314</v>
+        <v>0.23967</v>
       </c>
       <c r="C58" t="n">
-        <v>0.248807</v>
+        <v>0.164361</v>
       </c>
       <c r="D58" t="n">
-        <v>0.207135</v>
+        <v>0.207931</v>
       </c>
       <c r="E58" t="n">
-        <v>0.149022</v>
+        <v>0.151565</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.259285</v>
+        <v>0.240262</v>
       </c>
       <c r="C59" t="n">
-        <v>0.258246</v>
+        <v>0.165924</v>
       </c>
       <c r="D59" t="n">
-        <v>0.208517</v>
+        <v>0.20833</v>
       </c>
       <c r="E59" t="n">
-        <v>0.152395</v>
+        <v>0.154425</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.244527</v>
+        <v>0.246672</v>
       </c>
       <c r="C60" t="n">
-        <v>0.265756</v>
+        <v>0.169663</v>
       </c>
       <c r="D60" t="n">
-        <v>0.213654</v>
+        <v>0.210193</v>
       </c>
       <c r="E60" t="n">
-        <v>0.157718</v>
+        <v>0.163637</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.258565</v>
+        <v>0.240793</v>
       </c>
       <c r="C61" t="n">
-        <v>0.279784</v>
+        <v>0.169855</v>
       </c>
       <c r="D61" t="n">
-        <v>0.211378</v>
+        <v>0.207725</v>
       </c>
       <c r="E61" t="n">
-        <v>0.162783</v>
+        <v>0.170054</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.251223</v>
+        <v>0.243679</v>
       </c>
       <c r="C62" t="n">
-        <v>0.286467</v>
+        <v>0.188202</v>
       </c>
       <c r="D62" t="n">
-        <v>0.213752</v>
+        <v>0.210608</v>
       </c>
       <c r="E62" t="n">
-        <v>0.174259</v>
+        <v>0.176186</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.246662</v>
+        <v>0.243819</v>
       </c>
       <c r="C63" t="n">
-        <v>0.297495</v>
+        <v>0.180943</v>
       </c>
       <c r="D63" t="n">
-        <v>0.215948</v>
+        <v>0.214304</v>
       </c>
       <c r="E63" t="n">
-        <v>0.169295</v>
+        <v>0.182996</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.250238</v>
+        <v>0.245899</v>
       </c>
       <c r="C64" t="n">
-        <v>0.267805</v>
+        <v>0.199763</v>
       </c>
       <c r="D64" t="n">
-        <v>0.225181</v>
+        <v>0.219329</v>
       </c>
       <c r="E64" t="n">
-        <v>0.177031</v>
+        <v>0.193759</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.254894</v>
+        <v>0.251226</v>
       </c>
       <c r="C65" t="n">
-        <v>0.277377</v>
+        <v>0.191922</v>
       </c>
       <c r="D65" t="n">
-        <v>0.224483</v>
+        <v>0.22218</v>
       </c>
       <c r="E65" t="n">
-        <v>0.18605</v>
+        <v>0.198243</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.257605</v>
+        <v>0.25511</v>
       </c>
       <c r="C66" t="n">
-        <v>0.287252</v>
+        <v>0.198312</v>
       </c>
       <c r="D66" t="n">
-        <v>0.281873</v>
+        <v>0.287626</v>
       </c>
       <c r="E66" t="n">
-        <v>0.213328</v>
+        <v>0.21973</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.37859</v>
+        <v>0.361883</v>
       </c>
       <c r="C67" t="n">
-        <v>0.334067</v>
+        <v>0.244655</v>
       </c>
       <c r="D67" t="n">
-        <v>0.281946</v>
+        <v>0.290858</v>
       </c>
       <c r="E67" t="n">
-        <v>0.211418</v>
+        <v>0.211095</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.395548</v>
+        <v>0.362327</v>
       </c>
       <c r="C68" t="n">
-        <v>0.334389</v>
+        <v>0.248565</v>
       </c>
       <c r="D68" t="n">
-        <v>0.296129</v>
+        <v>0.283779</v>
       </c>
       <c r="E68" t="n">
-        <v>0.226468</v>
+        <v>0.213163</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.36964</v>
+        <v>0.365781</v>
       </c>
       <c r="C69" t="n">
-        <v>0.321778</v>
+        <v>0.249923</v>
       </c>
       <c r="D69" t="n">
-        <v>0.290501</v>
+        <v>0.292285</v>
       </c>
       <c r="E69" t="n">
-        <v>0.218124</v>
+        <v>0.2169</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.404798</v>
+        <v>0.365859</v>
       </c>
       <c r="C70" t="n">
-        <v>0.360605</v>
+        <v>0.250563</v>
       </c>
       <c r="D70" t="n">
-        <v>0.291457</v>
+        <v>0.293284</v>
       </c>
       <c r="E70" t="n">
-        <v>0.219806</v>
+        <v>0.222464</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.386849</v>
+        <v>0.375629</v>
       </c>
       <c r="C71" t="n">
-        <v>0.34063</v>
+        <v>0.256663</v>
       </c>
       <c r="D71" t="n">
-        <v>0.297604</v>
+        <v>0.292658</v>
       </c>
       <c r="E71" t="n">
-        <v>0.243804</v>
+        <v>0.219658</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.378746</v>
+        <v>0.373157</v>
       </c>
       <c r="C72" t="n">
-        <v>0.393484</v>
+        <v>0.253463</v>
       </c>
       <c r="D72" t="n">
-        <v>0.297078</v>
+        <v>0.296171</v>
       </c>
       <c r="E72" t="n">
-        <v>0.232714</v>
+        <v>0.222856</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.371913</v>
+        <v>0.368674</v>
       </c>
       <c r="C73" t="n">
-        <v>0.373325</v>
+        <v>0.255049</v>
       </c>
       <c r="D73" t="n">
-        <v>0.298096</v>
+        <v>0.295448</v>
       </c>
       <c r="E73" t="n">
-        <v>0.229226</v>
+        <v>0.223886</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.370347</v>
+        <v>0.379772</v>
       </c>
       <c r="C74" t="n">
-        <v>0.382436</v>
+        <v>0.260146</v>
       </c>
       <c r="D74" t="n">
-        <v>0.300332</v>
+        <v>0.30326</v>
       </c>
       <c r="E74" t="n">
-        <v>0.232056</v>
+        <v>0.239987</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.376063</v>
+        <v>0.393912</v>
       </c>
       <c r="C75" t="n">
-        <v>0.44213</v>
+        <v>0.26095</v>
       </c>
       <c r="D75" t="n">
-        <v>0.307432</v>
+        <v>0.302638</v>
       </c>
       <c r="E75" t="n">
-        <v>0.23403</v>
+        <v>0.23296</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.395318</v>
+        <v>0.376312</v>
       </c>
       <c r="C76" t="n">
-        <v>0.438784</v>
+        <v>0.261403</v>
       </c>
       <c r="D76" t="n">
-        <v>0.298902</v>
+        <v>0.306558</v>
       </c>
       <c r="E76" t="n">
-        <v>0.239206</v>
+        <v>0.2353</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.388237</v>
+        <v>0.395427</v>
       </c>
       <c r="C77" t="n">
-        <v>0.441998</v>
+        <v>0.267398</v>
       </c>
       <c r="D77" t="n">
-        <v>0.303005</v>
+        <v>0.308666</v>
       </c>
       <c r="E77" t="n">
-        <v>0.243162</v>
+        <v>0.246791</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.381386</v>
+        <v>0.396679</v>
       </c>
       <c r="C78" t="n">
-        <v>0.411448</v>
+        <v>0.277768</v>
       </c>
       <c r="D78" t="n">
-        <v>0.304907</v>
+        <v>0.318603</v>
       </c>
       <c r="E78" t="n">
-        <v>0.256927</v>
+        <v>0.249198</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.404541</v>
+        <v>0.397791</v>
       </c>
       <c r="C79" t="n">
-        <v>0.435015</v>
+        <v>0.276692</v>
       </c>
       <c r="D79" t="n">
-        <v>0.328274</v>
+        <v>0.323526</v>
       </c>
       <c r="E79" t="n">
-        <v>0.269618</v>
+        <v>0.256458</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.395078</v>
+        <v>0.392983</v>
       </c>
       <c r="C80" t="n">
-        <v>0.429316</v>
+        <v>0.277034</v>
       </c>
       <c r="D80" t="n">
-        <v>0.425272</v>
+        <v>0.418235</v>
       </c>
       <c r="E80" t="n">
-        <v>0.340221</v>
+        <v>0.33712</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.536664</v>
+        <v>0.522212</v>
       </c>
       <c r="C81" t="n">
-        <v>0.434216</v>
+        <v>0.397827</v>
       </c>
       <c r="D81" t="n">
-        <v>0.431801</v>
+        <v>0.416861</v>
       </c>
       <c r="E81" t="n">
-        <v>0.34132</v>
+        <v>0.361589</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.520942</v>
+        <v>0.540678</v>
       </c>
       <c r="C82" t="n">
-        <v>0.493199</v>
+        <v>0.437475</v>
       </c>
       <c r="D82" t="n">
-        <v>0.446321</v>
+        <v>0.417819</v>
       </c>
       <c r="E82" t="n">
-        <v>0.362851</v>
+        <v>0.335786</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.539686</v>
+        <v>0.533004</v>
       </c>
       <c r="C83" t="n">
-        <v>0.45549</v>
+        <v>0.389447</v>
       </c>
       <c r="D83" t="n">
-        <v>0.432285</v>
+        <v>0.419223</v>
       </c>
       <c r="E83" t="n">
-        <v>0.346303</v>
+        <v>0.338867</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.539933</v>
+        <v>0.52458</v>
       </c>
       <c r="C84" t="n">
-        <v>0.468923</v>
+        <v>0.393236</v>
       </c>
       <c r="D84" t="n">
-        <v>0.434907</v>
+        <v>0.423757</v>
       </c>
       <c r="E84" t="n">
-        <v>0.357979</v>
+        <v>0.345798</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.532839</v>
+        <v>0.543295</v>
       </c>
       <c r="C85" t="n">
-        <v>0.487148</v>
+        <v>0.396058</v>
       </c>
       <c r="D85" t="n">
-        <v>0.439431</v>
+        <v>0.425824</v>
       </c>
       <c r="E85" t="n">
-        <v>0.357476</v>
+        <v>0.347645</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.528751</v>
+        <v>0.529094</v>
       </c>
       <c r="C86" t="n">
-        <v>0.51249</v>
+        <v>0.397167</v>
       </c>
       <c r="D86" t="n">
-        <v>0.429121</v>
+        <v>0.429177</v>
       </c>
       <c r="E86" t="n">
-        <v>0.356437</v>
+        <v>0.386418</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.540493</v>
+        <v>0.530899</v>
       </c>
       <c r="C87" t="n">
-        <v>0.512267</v>
+        <v>0.400697</v>
       </c>
       <c r="D87" t="n">
-        <v>0.431604</v>
+        <v>0.430565</v>
       </c>
       <c r="E87" t="n">
-        <v>0.355748</v>
+        <v>0.37461</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.545937</v>
+        <v>0.541075</v>
       </c>
       <c r="C88" t="n">
-        <v>0.52341</v>
+        <v>0.401833</v>
       </c>
       <c r="D88" t="n">
-        <v>0.427876</v>
+        <v>0.430698</v>
       </c>
       <c r="E88" t="n">
-        <v>0.380567</v>
+        <v>0.348443</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.544137</v>
+        <v>0.528035</v>
       </c>
       <c r="C89" t="n">
-        <v>0.546343</v>
+        <v>0.426743</v>
       </c>
       <c r="D89" t="n">
-        <v>0.438312</v>
+        <v>0.432366</v>
       </c>
       <c r="E89" t="n">
-        <v>0.377621</v>
+        <v>0.356011</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.539018</v>
+        <v>0.542066</v>
       </c>
       <c r="C90" t="n">
-        <v>0.59007</v>
+        <v>0.408501</v>
       </c>
       <c r="D90" t="n">
-        <v>0.44733</v>
+        <v>0.432746</v>
       </c>
       <c r="E90" t="n">
-        <v>0.365733</v>
+        <v>0.358053</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.541429</v>
+        <v>0.539846</v>
       </c>
       <c r="C91" t="n">
-        <v>0.575278</v>
+        <v>0.415021</v>
       </c>
       <c r="D91" t="n">
-        <v>0.442253</v>
+        <v>0.436231</v>
       </c>
       <c r="E91" t="n">
-        <v>0.379791</v>
+        <v>0.363134</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.541362</v>
+        <v>0.5414330000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>0.52969</v>
+        <v>0.416499</v>
       </c>
       <c r="D92" t="n">
-        <v>0.440261</v>
+        <v>0.437903</v>
       </c>
       <c r="E92" t="n">
-        <v>0.408323</v>
+        <v>0.368931</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.552158</v>
+        <v>0.542468</v>
       </c>
       <c r="C93" t="n">
-        <v>0.563793</v>
+        <v>0.456384</v>
       </c>
       <c r="D93" t="n">
-        <v>0.447521</v>
+        <v>0.439118</v>
       </c>
       <c r="E93" t="n">
-        <v>0.378779</v>
+        <v>0.37254</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.541909</v>
+        <v>0.5699</v>
       </c>
       <c r="C94" t="n">
-        <v>0.559777</v>
+        <v>0.434749</v>
       </c>
       <c r="D94" t="n">
-        <v>0.513033</v>
+        <v>0.515006</v>
       </c>
       <c r="E94" t="n">
-        <v>0.509998</v>
+        <v>0.5139359999999999</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.630656</v>
+        <v>0.621235</v>
       </c>
       <c r="C95" t="n">
-        <v>0.558782</v>
+        <v>0.593815</v>
       </c>
       <c r="D95" t="n">
-        <v>0.513426</v>
+        <v>0.512536</v>
       </c>
       <c r="E95" t="n">
-        <v>0.528958</v>
+        <v>0.512421</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.614862</v>
+        <v>0.616968</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5698</v>
+        <v>0.595879</v>
       </c>
       <c r="D96" t="n">
-        <v>0.510574</v>
+        <v>0.525244</v>
       </c>
       <c r="E96" t="n">
-        <v>0.512079</v>
+        <v>0.52024</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.623656</v>
+        <v>0.617899</v>
       </c>
       <c r="C97" t="n">
-        <v>0.588579</v>
+        <v>0.593614</v>
       </c>
       <c r="D97" t="n">
-        <v>0.513126</v>
+        <v>0.5099399999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>0.5192099999999999</v>
+        <v>0.510093</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.612957</v>
+        <v>0.618189</v>
       </c>
       <c r="C98" t="n">
-        <v>0.5947519999999999</v>
+        <v>0.595714</v>
       </c>
       <c r="D98" t="n">
-        <v>0.51803</v>
+        <v>0.515306</v>
       </c>
       <c r="E98" t="n">
-        <v>0.523118</v>
+        <v>0.5172020000000001</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.632536</v>
+        <v>0.625188</v>
       </c>
       <c r="C99" t="n">
-        <v>0.619456</v>
+        <v>0.601414</v>
       </c>
       <c r="D99" t="n">
-        <v>0.531845</v>
+        <v>0.544123</v>
       </c>
       <c r="E99" t="n">
-        <v>0.521205</v>
+        <v>0.520286</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6153</v>
+        <v>0.620559</v>
       </c>
       <c r="C100" t="n">
-        <v>0.634361</v>
+        <v>0.597102</v>
       </c>
       <c r="D100" t="n">
-        <v>0.523637</v>
+        <v>0.544816</v>
       </c>
       <c r="E100" t="n">
-        <v>0.522819</v>
+        <v>0.537245</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.626893</v>
+        <v>0.626679</v>
       </c>
       <c r="C101" t="n">
-        <v>0.662978</v>
+        <v>0.598102</v>
       </c>
       <c r="D101" t="n">
-        <v>0.542168</v>
+        <v>0.542722</v>
       </c>
       <c r="E101" t="n">
-        <v>0.5403480000000001</v>
+        <v>0.535301</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.622793</v>
+        <v>0.61627</v>
       </c>
       <c r="C102" t="n">
-        <v>0.659201</v>
+        <v>0.592406</v>
       </c>
       <c r="D102" t="n">
-        <v>0.531761</v>
+        <v>0.524311</v>
       </c>
       <c r="E102" t="n">
-        <v>0.539636</v>
+        <v>0.525415</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.684273</v>
+        <v>0.635525</v>
       </c>
       <c r="C103" t="n">
-        <v>0.681455</v>
+        <v>0.632147</v>
       </c>
       <c r="D103" t="n">
-        <v>0.517061</v>
+        <v>0.53612</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5472860000000001</v>
+        <v>0.525294</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.632209</v>
+        <v>0.626352</v>
       </c>
       <c r="C104" t="n">
-        <v>0.7001270000000001</v>
+        <v>0.60994</v>
       </c>
       <c r="D104" t="n">
-        <v>0.580287</v>
+        <v>0.548272</v>
       </c>
       <c r="E104" t="n">
-        <v>0.557929</v>
+        <v>0.5505910000000001</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.621667</v>
+        <v>0.626986</v>
       </c>
       <c r="C105" t="n">
-        <v>0.710333</v>
+        <v>0.61688</v>
       </c>
       <c r="D105" t="n">
-        <v>0.524231</v>
+        <v>0.548125</v>
       </c>
       <c r="E105" t="n">
-        <v>0.529743</v>
+        <v>0.5374910000000001</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.634782</v>
+        <v>0.676354</v>
       </c>
       <c r="C106" t="n">
-        <v>0.7342109999999999</v>
+        <v>0.62967</v>
       </c>
       <c r="D106" t="n">
-        <v>0.55757</v>
+        <v>0.532313</v>
       </c>
       <c r="E106" t="n">
-        <v>0.54299</v>
+        <v>0.5649729999999999</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.636661</v>
+        <v>0.630924</v>
       </c>
       <c r="C107" t="n">
-        <v>0.6697340000000001</v>
+        <v>0.620215</v>
       </c>
       <c r="D107" t="n">
-        <v>0.568764</v>
+        <v>0.533297</v>
       </c>
       <c r="E107" t="n">
-        <v>0.562026</v>
+        <v>0.555478</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.629194</v>
+        <v>0.629131</v>
       </c>
       <c r="C108" t="n">
-        <v>0.651743</v>
+        <v>0.653074</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5909180000000001</v>
+        <v>0.620671</v>
       </c>
       <c r="E108" t="n">
-        <v>0.624986</v>
+        <v>0.616585</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.631441</v>
+        <v>0.693964</v>
       </c>
       <c r="C109" t="n">
-        <v>0.697454</v>
+        <v>0.635914</v>
       </c>
       <c r="D109" t="n">
-        <v>0.611029</v>
+        <v>0.600561</v>
       </c>
       <c r="E109" t="n">
-        <v>0.62848</v>
+        <v>0.631652</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.74721</v>
+        <v>0.757701</v>
       </c>
       <c r="C110" t="n">
-        <v>0.717161</v>
+        <v>0.745058</v>
       </c>
       <c r="D110" t="n">
-        <v>0.642908</v>
+        <v>0.595424</v>
       </c>
       <c r="E110" t="n">
-        <v>0.630279</v>
+        <v>0.627804</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.751325</v>
+        <v>0.74796</v>
       </c>
       <c r="C111" t="n">
-        <v>0.71161</v>
+        <v>0.728779</v>
       </c>
       <c r="D111" t="n">
-        <v>0.63148</v>
+        <v>0.601118</v>
       </c>
       <c r="E111" t="n">
-        <v>0.6458159999999999</v>
+        <v>0.631486</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.747064</v>
+        <v>0.759719</v>
       </c>
       <c r="C112" t="n">
-        <v>0.717648</v>
+        <v>0.741409</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6138940000000001</v>
+        <v>0.632397</v>
       </c>
       <c r="E112" t="n">
-        <v>0.627844</v>
+        <v>0.633896</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.7579979999999999</v>
+        <v>0.745093</v>
       </c>
       <c r="C113" t="n">
-        <v>0.726871</v>
+        <v>0.795683</v>
       </c>
       <c r="D113" t="n">
-        <v>0.599431</v>
+        <v>0.598782</v>
       </c>
       <c r="E113" t="n">
-        <v>0.636039</v>
+        <v>0.627162</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.748476</v>
+        <v>0.7484150000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>0.775099</v>
+        <v>0.746071</v>
       </c>
       <c r="D114" t="n">
-        <v>0.603463</v>
+        <v>0.605523</v>
       </c>
       <c r="E114" t="n">
-        <v>0.642716</v>
+        <v>0.646239</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.7562759999999999</v>
+        <v>0.754821</v>
       </c>
       <c r="C115" t="n">
-        <v>0.815724</v>
+        <v>0.744455</v>
       </c>
       <c r="D115" t="n">
-        <v>0.599319</v>
+        <v>0.633923</v>
       </c>
       <c r="E115" t="n">
-        <v>0.642055</v>
+        <v>0.644072</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.771334</v>
+        <v>0.743661</v>
       </c>
       <c r="C116" t="n">
-        <v>0.797669</v>
+        <v>0.729291</v>
       </c>
       <c r="D116" t="n">
-        <v>0.603727</v>
+        <v>0.653447</v>
       </c>
       <c r="E116" t="n">
-        <v>0.638619</v>
+        <v>0.637997</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.7548280000000001</v>
+        <v>0.754059</v>
       </c>
       <c r="C117" t="n">
-        <v>0.7958809999999999</v>
+        <v>0.792278</v>
       </c>
       <c r="D117" t="n">
-        <v>0.615637</v>
+        <v>0.610144</v>
       </c>
       <c r="E117" t="n">
-        <v>0.646834</v>
+        <v>0.642911</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.765169</v>
+        <v>0.766347</v>
       </c>
       <c r="C118" t="n">
-        <v>0.818875</v>
+        <v>0.748727</v>
       </c>
       <c r="D118" t="n">
-        <v>0.629145</v>
+        <v>0.613861</v>
       </c>
       <c r="E118" t="n">
-        <v>0.6478429999999999</v>
+        <v>0.650099</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.752241</v>
+        <v>0.753348</v>
       </c>
       <c r="C119" t="n">
-        <v>0.852097</v>
+        <v>0.748003</v>
       </c>
       <c r="D119" t="n">
-        <v>0.630976</v>
+        <v>0.620818</v>
       </c>
       <c r="E119" t="n">
-        <v>0.65464</v>
+        <v>0.66484</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.744648</v>
+        <v>0.763018</v>
       </c>
       <c r="C120" t="n">
-        <v>0.833232</v>
+        <v>0.759318</v>
       </c>
       <c r="D120" t="n">
-        <v>0.624336</v>
+        <v>0.629843</v>
       </c>
       <c r="E120" t="n">
-        <v>0.660525</v>
+        <v>0.671307</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.769995</v>
+        <v>0.793063</v>
       </c>
       <c r="C121" t="n">
-        <v>0.769119</v>
+        <v>0.776248</v>
       </c>
       <c r="D121" t="n">
-        <v>0.635722</v>
+        <v>0.678771</v>
       </c>
       <c r="E121" t="n">
-        <v>0.674917</v>
+        <v>0.671825</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.769273</v>
+        <v>0.756034</v>
       </c>
       <c r="C122" t="n">
-        <v>0.752049</v>
+        <v>0.760653</v>
       </c>
       <c r="D122" t="n">
-        <v>0.641786</v>
+        <v>0.631856</v>
       </c>
       <c r="E122" t="n">
-        <v>0.688489</v>
+        <v>0.701705</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.787297</v>
+        <v>0.759068</v>
       </c>
       <c r="C123" t="n">
-        <v>0.775189</v>
+        <v>0.7730399999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>0.710195</v>
+        <v>0.7127830000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>0.691557</v>
+        <v>0.693735</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.965201</v>
+        <v>0.962418</v>
       </c>
       <c r="C124" t="n">
-        <v>0.824757</v>
+        <v>0.888567</v>
       </c>
       <c r="D124" t="n">
-        <v>0.737551</v>
+        <v>0.707942</v>
       </c>
       <c r="E124" t="n">
-        <v>0.701751</v>
+        <v>0.701579</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.991052</v>
+        <v>0.953337</v>
       </c>
       <c r="C125" t="n">
-        <v>0.829155</v>
+        <v>0.911723</v>
       </c>
       <c r="D125" t="n">
-        <v>0.727307</v>
+        <v>0.70991</v>
       </c>
       <c r="E125" t="n">
-        <v>0.716569</v>
+        <v>0.694316</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.98768</v>
+        <v>0.953264</v>
       </c>
       <c r="C126" t="n">
-        <v>0.848774</v>
+        <v>0.87791</v>
       </c>
       <c r="D126" t="n">
-        <v>0.720848</v>
+        <v>0.718178</v>
       </c>
       <c r="E126" t="n">
-        <v>0.708095</v>
+        <v>0.7028489999999999</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.954688</v>
+        <v>0.986734</v>
       </c>
       <c r="C127" t="n">
-        <v>0.820613</v>
+        <v>0.897136</v>
       </c>
       <c r="D127" t="n">
-        <v>0.720592</v>
+        <v>0.716663</v>
       </c>
       <c r="E127" t="n">
-        <v>0.714797</v>
+        <v>0.710064</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.959853</v>
+        <v>0.97761</v>
       </c>
       <c r="C128" t="n">
-        <v>0.843156</v>
+        <v>0.878615</v>
       </c>
       <c r="D128" t="n">
-        <v>0.720075</v>
+        <v>0.813683</v>
       </c>
       <c r="E128" t="n">
-        <v>0.710924</v>
+        <v>0.708354</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.960085</v>
+        <v>0.966098</v>
       </c>
       <c r="C129" t="n">
-        <v>0.843867</v>
+        <v>0.86717</v>
       </c>
       <c r="D129" t="n">
-        <v>0.713288</v>
+        <v>0.71555</v>
       </c>
       <c r="E129" t="n">
-        <v>0.725104</v>
+        <v>0.715962</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.95986</v>
+        <v>0.95207</v>
       </c>
       <c r="C130" t="n">
-        <v>0.864024</v>
+        <v>0.899336</v>
       </c>
       <c r="D130" t="n">
-        <v>0.726143</v>
+        <v>0.719509</v>
       </c>
       <c r="E130" t="n">
-        <v>0.762055</v>
+        <v>0.743139</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.97289</v>
+        <v>0.974738</v>
       </c>
       <c r="C131" t="n">
-        <v>0.87152</v>
+        <v>0.9043679999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>0.721178</v>
+        <v>0.726694</v>
       </c>
       <c r="E131" t="n">
-        <v>0.720172</v>
+        <v>0.736172</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.982699</v>
+        <v>0.977427</v>
       </c>
       <c r="C132" t="n">
-        <v>0.889441</v>
+        <v>0.9204599999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>0.733549</v>
+        <v>0.841835</v>
       </c>
       <c r="E132" t="n">
-        <v>0.726642</v>
+        <v>0.727277</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.96827</v>
+        <v>0.9629450000000001</v>
       </c>
       <c r="C133" t="n">
-        <v>0.9350889999999999</v>
+        <v>0.907315</v>
       </c>
       <c r="D133" t="n">
-        <v>0.769132</v>
+        <v>0.85244</v>
       </c>
       <c r="E133" t="n">
-        <v>0.732287</v>
+        <v>0.730568</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.966741</v>
+        <v>0.976687</v>
       </c>
       <c r="C134" t="n">
-        <v>0.925909</v>
+        <v>0.921733</v>
       </c>
       <c r="D134" t="n">
-        <v>0.735996</v>
+        <v>0.7487780000000001</v>
       </c>
       <c r="E134" t="n">
-        <v>0.740517</v>
+        <v>0.739279</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.975557</v>
+        <v>0.965233</v>
       </c>
       <c r="C135" t="n">
-        <v>0.8174439999999999</v>
+        <v>0.89368</v>
       </c>
       <c r="D135" t="n">
-        <v>0.746946</v>
+        <v>0.746186</v>
       </c>
       <c r="E135" t="n">
-        <v>0.749348</v>
+        <v>0.7529439999999999</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.964943</v>
+        <v>0.960612</v>
       </c>
       <c r="C136" t="n">
-        <v>0.833415</v>
+        <v>0.926543</v>
       </c>
       <c r="D136" t="n">
-        <v>0.753836</v>
+        <v>0.756799</v>
       </c>
       <c r="E136" t="n">
-        <v>0.7687</v>
+        <v>0.766983</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.969637</v>
+        <v>0.985134</v>
       </c>
       <c r="C137" t="n">
-        <v>0.849271</v>
+        <v>0.915067</v>
       </c>
       <c r="D137" t="n">
-        <v>0.885576</v>
+        <v>0.871579</v>
       </c>
       <c r="E137" t="n">
-        <v>0.753418</v>
+        <v>0.7561909999999999</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.32599</v>
+        <v>1.22813</v>
       </c>
       <c r="C138" t="n">
-        <v>0.867505</v>
+        <v>0.97616</v>
       </c>
       <c r="D138" t="n">
-        <v>0.8833800000000001</v>
+        <v>0.91501</v>
       </c>
       <c r="E138" t="n">
-        <v>0.769649</v>
+        <v>0.760062</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.2235</v>
+        <v>1.21782</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8689210000000001</v>
+        <v>0.976081</v>
       </c>
       <c r="D139" t="n">
-        <v>0.882274</v>
+        <v>0.88836</v>
       </c>
       <c r="E139" t="n">
-        <v>0.757315</v>
+        <v>0.772865</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.22931</v>
+        <v>1.22849</v>
       </c>
       <c r="C140" t="n">
-        <v>0.883606</v>
+        <v>0.975516</v>
       </c>
       <c r="D140" t="n">
-        <v>0.879636</v>
+        <v>0.88197</v>
       </c>
       <c r="E140" t="n">
-        <v>0.765383</v>
+        <v>0.769058</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.22028</v>
+        <v>1.25049</v>
       </c>
       <c r="C141" t="n">
-        <v>0.900891</v>
+        <v>0.973749</v>
       </c>
       <c r="D141" t="n">
-        <v>0.899881</v>
+        <v>0.880093</v>
       </c>
       <c r="E141" t="n">
-        <v>0.813566</v>
+        <v>0.765445</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.2225</v>
+        <v>1.22419</v>
       </c>
       <c r="C142" t="n">
-        <v>0.926347</v>
+        <v>0.983605</v>
       </c>
       <c r="D142" t="n">
-        <v>0.895933</v>
+        <v>0.885622</v>
       </c>
       <c r="E142" t="n">
-        <v>0.779847</v>
+        <v>0.775477</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.2714</v>
+        <v>1.22155</v>
       </c>
       <c r="C143" t="n">
-        <v>0.93203</v>
+        <v>0.985944</v>
       </c>
       <c r="D143" t="n">
-        <v>0.899124</v>
+        <v>0.905352</v>
       </c>
       <c r="E143" t="n">
-        <v>0.784545</v>
+        <v>0.790014</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.117878</v>
+        <v>0.11341</v>
       </c>
       <c r="C2" t="n">
-        <v>0.174152</v>
+        <v>0.157661</v>
       </c>
       <c r="D2" t="n">
-        <v>0.130591</v>
+        <v>0.12639</v>
       </c>
       <c r="E2" t="n">
-        <v>0.123786</v>
+        <v>0.117263</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.117297</v>
+        <v>0.119036</v>
       </c>
       <c r="C3" t="n">
-        <v>0.165267</v>
+        <v>0.17279</v>
       </c>
       <c r="D3" t="n">
-        <v>0.131032</v>
+        <v>0.128748</v>
       </c>
       <c r="E3" t="n">
-        <v>0.123887</v>
+        <v>0.119267</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.116129</v>
+        <v>0.121386</v>
       </c>
       <c r="C4" t="n">
-        <v>0.165234</v>
+        <v>0.169543</v>
       </c>
       <c r="D4" t="n">
-        <v>0.127566</v>
+        <v>0.132185</v>
       </c>
       <c r="E4" t="n">
-        <v>0.12882</v>
+        <v>0.126319</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.116746</v>
+        <v>0.116756</v>
       </c>
       <c r="C5" t="n">
-        <v>0.172174</v>
+        <v>0.185939</v>
       </c>
       <c r="D5" t="n">
-        <v>0.12916</v>
+        <v>0.131713</v>
       </c>
       <c r="E5" t="n">
-        <v>0.119605</v>
+        <v>0.12246</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.117716</v>
+        <v>0.11955</v>
       </c>
       <c r="C6" t="n">
-        <v>0.183713</v>
+        <v>0.179804</v>
       </c>
       <c r="D6" t="n">
-        <v>0.13189</v>
+        <v>0.131588</v>
       </c>
       <c r="E6" t="n">
-        <v>0.120185</v>
+        <v>0.128723</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.11862</v>
+        <v>0.120627</v>
       </c>
       <c r="C7" t="n">
-        <v>0.148175</v>
+        <v>0.160604</v>
       </c>
       <c r="D7" t="n">
-        <v>0.130877</v>
+        <v>0.14183</v>
       </c>
       <c r="E7" t="n">
-        <v>0.12068</v>
+        <v>0.125165</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.128602</v>
+        <v>0.119081</v>
       </c>
       <c r="C8" t="n">
-        <v>0.14419</v>
+        <v>0.149293</v>
       </c>
       <c r="D8" t="n">
-        <v>0.133844</v>
+        <v>0.141407</v>
       </c>
       <c r="E8" t="n">
-        <v>0.123604</v>
+        <v>0.134106</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119017</v>
+        <v>0.126598</v>
       </c>
       <c r="C9" t="n">
-        <v>0.152849</v>
+        <v>0.165591</v>
       </c>
       <c r="D9" t="n">
-        <v>0.131105</v>
+        <v>0.14249</v>
       </c>
       <c r="E9" t="n">
-        <v>0.116849</v>
+        <v>0.12314</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.123615</v>
+        <v>0.130615</v>
       </c>
       <c r="C10" t="n">
-        <v>0.154192</v>
+        <v>0.162583</v>
       </c>
       <c r="D10" t="n">
-        <v>0.128239</v>
+        <v>0.135567</v>
       </c>
       <c r="E10" t="n">
-        <v>0.123397</v>
+        <v>0.121993</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.129</v>
+        <v>0.132399</v>
       </c>
       <c r="C11" t="n">
-        <v>0.162996</v>
+        <v>0.172371</v>
       </c>
       <c r="D11" t="n">
-        <v>0.132537</v>
+        <v>0.135355</v>
       </c>
       <c r="E11" t="n">
-        <v>0.121534</v>
+        <v>0.121634</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.128206</v>
+        <v>0.128038</v>
       </c>
       <c r="C12" t="n">
-        <v>0.162994</v>
+        <v>0.162856</v>
       </c>
       <c r="D12" t="n">
-        <v>0.131303</v>
+        <v>0.137588</v>
       </c>
       <c r="E12" t="n">
-        <v>0.120607</v>
+        <v>0.121985</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.128445</v>
+        <v>0.127734</v>
       </c>
       <c r="C13" t="n">
-        <v>0.169251</v>
+        <v>0.167545</v>
       </c>
       <c r="D13" t="n">
-        <v>0.13307</v>
+        <v>0.138324</v>
       </c>
       <c r="E13" t="n">
-        <v>0.12064</v>
+        <v>0.127826</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.128614</v>
+        <v>0.127771</v>
       </c>
       <c r="C14" t="n">
-        <v>0.173267</v>
+        <v>0.170641</v>
       </c>
       <c r="D14" t="n">
-        <v>0.143463</v>
+        <v>0.13448</v>
       </c>
       <c r="E14" t="n">
-        <v>0.132257</v>
+        <v>0.122677</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.128053</v>
+        <v>0.129034</v>
       </c>
       <c r="C15" t="n">
-        <v>0.174782</v>
+        <v>0.178609</v>
       </c>
       <c r="D15" t="n">
-        <v>0.137076</v>
+        <v>0.133525</v>
       </c>
       <c r="E15" t="n">
-        <v>0.12118</v>
+        <v>0.120794</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.130466</v>
+        <v>0.129148</v>
       </c>
       <c r="C16" t="n">
-        <v>0.187172</v>
+        <v>0.176925</v>
       </c>
       <c r="D16" t="n">
-        <v>0.135735</v>
+        <v>0.131608</v>
       </c>
       <c r="E16" t="n">
-        <v>0.122438</v>
+        <v>0.135201</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.127408</v>
+        <v>0.126993</v>
       </c>
       <c r="C17" t="n">
-        <v>0.181334</v>
+        <v>0.184256</v>
       </c>
       <c r="D17" t="n">
-        <v>0.13142</v>
+        <v>0.130824</v>
       </c>
       <c r="E17" t="n">
-        <v>0.118006</v>
+        <v>0.126898</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.123521</v>
+        <v>0.125738</v>
       </c>
       <c r="C18" t="n">
-        <v>0.183584</v>
+        <v>0.183075</v>
       </c>
       <c r="D18" t="n">
-        <v>0.129983</v>
+        <v>0.130345</v>
       </c>
       <c r="E18" t="n">
-        <v>0.118789</v>
+        <v>0.126873</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.123802</v>
+        <v>0.131413</v>
       </c>
       <c r="C19" t="n">
-        <v>0.184499</v>
+        <v>0.195548</v>
       </c>
       <c r="D19" t="n">
-        <v>0.130647</v>
+        <v>0.13246</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1204</v>
+        <v>0.127516</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.124981</v>
+        <v>0.126872</v>
       </c>
       <c r="C20" t="n">
-        <v>0.18817</v>
+        <v>0.18812</v>
       </c>
       <c r="D20" t="n">
-        <v>0.132296</v>
+        <v>0.137194</v>
       </c>
       <c r="E20" t="n">
-        <v>0.12075</v>
+        <v>0.128178</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.125588</v>
+        <v>0.125364</v>
       </c>
       <c r="C21" t="n">
-        <v>0.151194</v>
+        <v>0.154929</v>
       </c>
       <c r="D21" t="n">
-        <v>0.13367</v>
+        <v>0.135185</v>
       </c>
       <c r="E21" t="n">
-        <v>0.122611</v>
+        <v>0.128467</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.127401</v>
+        <v>0.131635</v>
       </c>
       <c r="C22" t="n">
-        <v>0.155388</v>
+        <v>0.155296</v>
       </c>
       <c r="D22" t="n">
-        <v>0.138473</v>
+        <v>0.138131</v>
       </c>
       <c r="E22" t="n">
-        <v>0.127295</v>
+        <v>0.130619</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.128748</v>
+        <v>0.132388</v>
       </c>
       <c r="C23" t="n">
-        <v>0.156933</v>
+        <v>0.164052</v>
       </c>
       <c r="D23" t="n">
-        <v>0.132009</v>
+        <v>0.133053</v>
       </c>
       <c r="E23" t="n">
-        <v>0.122117</v>
+        <v>0.123874</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.13384</v>
+        <v>0.133414</v>
       </c>
       <c r="C24" t="n">
-        <v>0.163995</v>
+        <v>0.165613</v>
       </c>
       <c r="D24" t="n">
-        <v>0.133858</v>
+        <v>0.134104</v>
       </c>
       <c r="E24" t="n">
-        <v>0.120708</v>
+        <v>0.125573</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.132417</v>
+        <v>0.138524</v>
       </c>
       <c r="C25" t="n">
-        <v>0.162935</v>
+        <v>0.167599</v>
       </c>
       <c r="D25" t="n">
-        <v>0.131271</v>
+        <v>0.142028</v>
       </c>
       <c r="E25" t="n">
-        <v>0.120678</v>
+        <v>0.125198</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.136509</v>
+        <v>0.134595</v>
       </c>
       <c r="C26" t="n">
-        <v>0.167412</v>
+        <v>0.167737</v>
       </c>
       <c r="D26" t="n">
-        <v>0.132194</v>
+        <v>0.133026</v>
       </c>
       <c r="E26" t="n">
-        <v>0.121588</v>
+        <v>0.127113</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.134398</v>
+        <v>0.134704</v>
       </c>
       <c r="C27" t="n">
-        <v>0.17038</v>
+        <v>0.175366</v>
       </c>
       <c r="D27" t="n">
-        <v>0.132692</v>
+        <v>0.133942</v>
       </c>
       <c r="E27" t="n">
-        <v>0.124808</v>
+        <v>0.124303</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.13269</v>
+        <v>0.136848</v>
       </c>
       <c r="C28" t="n">
-        <v>0.173518</v>
+        <v>0.181861</v>
       </c>
       <c r="D28" t="n">
-        <v>0.132624</v>
+        <v>0.13537</v>
       </c>
       <c r="E28" t="n">
-        <v>0.122847</v>
+        <v>0.125105</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.132251</v>
+        <v>0.138795</v>
       </c>
       <c r="C29" t="n">
-        <v>0.177674</v>
+        <v>0.182165</v>
       </c>
       <c r="D29" t="n">
-        <v>0.133284</v>
+        <v>0.141062</v>
       </c>
       <c r="E29" t="n">
-        <v>0.12444</v>
+        <v>0.125155</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.133342</v>
+        <v>0.137169</v>
       </c>
       <c r="C30" t="n">
-        <v>0.181937</v>
+        <v>0.182888</v>
       </c>
       <c r="D30" t="n">
-        <v>0.133341</v>
+        <v>0.141735</v>
       </c>
       <c r="E30" t="n">
-        <v>0.123968</v>
+        <v>0.124655</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.135261</v>
+        <v>0.137023</v>
       </c>
       <c r="C31" t="n">
-        <v>0.186717</v>
+        <v>0.187252</v>
       </c>
       <c r="D31" t="n">
-        <v>0.135269</v>
+        <v>0.142169</v>
       </c>
       <c r="E31" t="n">
-        <v>0.125284</v>
+        <v>0.131204</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.135583</v>
+        <v>0.139954</v>
       </c>
       <c r="C32" t="n">
-        <v>0.18978</v>
+        <v>0.198411</v>
       </c>
       <c r="D32" t="n">
-        <v>0.136148</v>
+        <v>0.140333</v>
       </c>
       <c r="E32" t="n">
-        <v>0.126315</v>
+        <v>0.127215</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.134956</v>
+        <v>0.136243</v>
       </c>
       <c r="C33" t="n">
-        <v>0.194719</v>
+        <v>0.197839</v>
       </c>
       <c r="D33" t="n">
-        <v>0.137724</v>
+        <v>0.138809</v>
       </c>
       <c r="E33" t="n">
-        <v>0.127947</v>
+        <v>0.12878</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.13466</v>
+        <v>0.142263</v>
       </c>
       <c r="C34" t="n">
-        <v>0.204897</v>
+        <v>0.213999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.139049</v>
+        <v>0.141591</v>
       </c>
       <c r="E34" t="n">
-        <v>0.129621</v>
+        <v>0.131084</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.134939</v>
+        <v>0.13678</v>
       </c>
       <c r="C35" t="n">
-        <v>0.166234</v>
+        <v>0.166198</v>
       </c>
       <c r="D35" t="n">
-        <v>0.142398</v>
+        <v>0.143898</v>
       </c>
       <c r="E35" t="n">
-        <v>0.132226</v>
+        <v>0.133199</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.14079</v>
+        <v>0.138143</v>
       </c>
       <c r="C36" t="n">
-        <v>0.168704</v>
+        <v>0.177848</v>
       </c>
       <c r="D36" t="n">
-        <v>0.148506</v>
+        <v>0.149968</v>
       </c>
       <c r="E36" t="n">
-        <v>0.137761</v>
+        <v>0.145051</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.140346</v>
+        <v>0.142467</v>
       </c>
       <c r="C37" t="n">
-        <v>0.174949</v>
+        <v>0.174056</v>
       </c>
       <c r="D37" t="n">
-        <v>0.138295</v>
+        <v>0.143667</v>
       </c>
       <c r="E37" t="n">
-        <v>0.128226</v>
+        <v>0.130424</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.156366</v>
+        <v>0.158451</v>
       </c>
       <c r="C38" t="n">
-        <v>0.177445</v>
+        <v>0.182554</v>
       </c>
       <c r="D38" t="n">
-        <v>0.139019</v>
+        <v>0.144914</v>
       </c>
       <c r="E38" t="n">
-        <v>0.130683</v>
+        <v>0.135423</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.157752</v>
+        <v>0.162261</v>
       </c>
       <c r="C39" t="n">
-        <v>0.182458</v>
+        <v>0.182948</v>
       </c>
       <c r="D39" t="n">
-        <v>0.140495</v>
+        <v>0.14006</v>
       </c>
       <c r="E39" t="n">
-        <v>0.129199</v>
+        <v>0.133885</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.157115</v>
+        <v>0.16267</v>
       </c>
       <c r="C40" t="n">
-        <v>0.186758</v>
+        <v>0.188753</v>
       </c>
       <c r="D40" t="n">
-        <v>0.138686</v>
+        <v>0.141933</v>
       </c>
       <c r="E40" t="n">
-        <v>0.129526</v>
+        <v>0.139659</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.156787</v>
+        <v>0.166482</v>
       </c>
       <c r="C41" t="n">
-        <v>0.192827</v>
+        <v>0.196719</v>
       </c>
       <c r="D41" t="n">
-        <v>0.139849</v>
+        <v>0.143401</v>
       </c>
       <c r="E41" t="n">
-        <v>0.130758</v>
+        <v>0.132538</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.15667</v>
+        <v>0.161493</v>
       </c>
       <c r="C42" t="n">
-        <v>0.196259</v>
+        <v>0.197859</v>
       </c>
       <c r="D42" t="n">
-        <v>0.139408</v>
+        <v>0.140674</v>
       </c>
       <c r="E42" t="n">
-        <v>0.132778</v>
+        <v>0.13991</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.157077</v>
+        <v>0.164569</v>
       </c>
       <c r="C43" t="n">
-        <v>0.201981</v>
+        <v>0.20752</v>
       </c>
       <c r="D43" t="n">
-        <v>0.139918</v>
+        <v>0.148976</v>
       </c>
       <c r="E43" t="n">
-        <v>0.131339</v>
+        <v>0.135719</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.156674</v>
+        <v>0.165491</v>
       </c>
       <c r="C44" t="n">
-        <v>0.206899</v>
+        <v>0.20927</v>
       </c>
       <c r="D44" t="n">
-        <v>0.145826</v>
+        <v>0.146437</v>
       </c>
       <c r="E44" t="n">
-        <v>0.138324</v>
+        <v>0.13468</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.157113</v>
+        <v>0.157195</v>
       </c>
       <c r="C45" t="n">
-        <v>0.213804</v>
+        <v>0.216956</v>
       </c>
       <c r="D45" t="n">
-        <v>0.140923</v>
+        <v>0.145455</v>
       </c>
       <c r="E45" t="n">
-        <v>0.133568</v>
+        <v>0.135867</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.158811</v>
+        <v>0.158719</v>
       </c>
       <c r="C46" t="n">
-        <v>0.218761</v>
+        <v>0.222053</v>
       </c>
       <c r="D46" t="n">
-        <v>0.143047</v>
+        <v>0.149562</v>
       </c>
       <c r="E46" t="n">
-        <v>0.13516</v>
+        <v>0.139848</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.160588</v>
+        <v>0.161409</v>
       </c>
       <c r="C47" t="n">
-        <v>0.229046</v>
+        <v>0.228343</v>
       </c>
       <c r="D47" t="n">
-        <v>0.145116</v>
+        <v>0.147126</v>
       </c>
       <c r="E47" t="n">
-        <v>0.148843</v>
+        <v>0.143916</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.158827</v>
+        <v>0.162149</v>
       </c>
       <c r="C48" t="n">
-        <v>0.231129</v>
+        <v>0.241967</v>
       </c>
       <c r="D48" t="n">
-        <v>0.146073</v>
+        <v>0.149726</v>
       </c>
       <c r="E48" t="n">
-        <v>0.138976</v>
+        <v>0.141557</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.159103</v>
+        <v>0.159259</v>
       </c>
       <c r="C49" t="n">
-        <v>0.23623</v>
+        <v>0.239462</v>
       </c>
       <c r="D49" t="n">
-        <v>0.14857</v>
+        <v>0.152915</v>
       </c>
       <c r="E49" t="n">
-        <v>0.142316</v>
+        <v>0.146407</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.161085</v>
+        <v>0.166541</v>
       </c>
       <c r="C50" t="n">
-        <v>0.196155</v>
+        <v>0.199177</v>
       </c>
       <c r="D50" t="n">
-        <v>0.156981</v>
+        <v>0.155507</v>
       </c>
       <c r="E50" t="n">
-        <v>0.147017</v>
+        <v>0.158658</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.16387</v>
+        <v>0.165044</v>
       </c>
       <c r="C51" t="n">
-        <v>0.200768</v>
+        <v>0.202363</v>
       </c>
       <c r="D51" t="n">
-        <v>0.203555</v>
+        <v>0.213565</v>
       </c>
       <c r="E51" t="n">
-        <v>0.141792</v>
+        <v>0.142766</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.169843</v>
+        <v>0.17165</v>
       </c>
       <c r="C52" t="n">
-        <v>0.208297</v>
+        <v>0.207377</v>
       </c>
       <c r="D52" t="n">
-        <v>0.203805</v>
+        <v>0.208846</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1395</v>
+        <v>0.142199</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.243146</v>
+        <v>0.247319</v>
       </c>
       <c r="C53" t="n">
-        <v>0.219197</v>
+        <v>0.220092</v>
       </c>
       <c r="D53" t="n">
-        <v>0.211642</v>
+        <v>0.211604</v>
       </c>
       <c r="E53" t="n">
-        <v>0.143858</v>
+        <v>0.146757</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.240158</v>
+        <v>0.252235</v>
       </c>
       <c r="C54" t="n">
-        <v>0.219985</v>
+        <v>0.221327</v>
       </c>
       <c r="D54" t="n">
-        <v>0.206069</v>
+        <v>0.206114</v>
       </c>
       <c r="E54" t="n">
-        <v>0.142082</v>
+        <v>0.147836</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.239977</v>
+        <v>0.247752</v>
       </c>
       <c r="C55" t="n">
-        <v>0.226359</v>
+        <v>0.229457</v>
       </c>
       <c r="D55" t="n">
-        <v>0.207615</v>
+        <v>0.20738</v>
       </c>
       <c r="E55" t="n">
-        <v>0.151941</v>
+        <v>0.149164</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.244704</v>
+        <v>0.253235</v>
       </c>
       <c r="C56" t="n">
-        <v>0.233902</v>
+        <v>0.243525</v>
       </c>
       <c r="D56" t="n">
-        <v>0.206442</v>
+        <v>0.208299</v>
       </c>
       <c r="E56" t="n">
-        <v>0.150189</v>
+        <v>0.155821</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.243088</v>
+        <v>0.24467</v>
       </c>
       <c r="C57" t="n">
-        <v>0.244178</v>
+        <v>0.242642</v>
       </c>
       <c r="D57" t="n">
-        <v>0.206833</v>
+        <v>0.210037</v>
       </c>
       <c r="E57" t="n">
-        <v>0.148834</v>
+        <v>0.158104</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.24314</v>
+        <v>0.263249</v>
       </c>
       <c r="C58" t="n">
-        <v>0.248807</v>
+        <v>0.250722</v>
       </c>
       <c r="D58" t="n">
-        <v>0.207135</v>
+        <v>0.210228</v>
       </c>
       <c r="E58" t="n">
-        <v>0.149022</v>
+        <v>0.171437</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.259285</v>
+        <v>0.245804</v>
       </c>
       <c r="C59" t="n">
-        <v>0.258246</v>
+        <v>0.256203</v>
       </c>
       <c r="D59" t="n">
-        <v>0.208517</v>
+        <v>0.212351</v>
       </c>
       <c r="E59" t="n">
-        <v>0.152395</v>
+        <v>0.160348</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.244527</v>
+        <v>0.246544</v>
       </c>
       <c r="C60" t="n">
-        <v>0.265756</v>
+        <v>0.270761</v>
       </c>
       <c r="D60" t="n">
-        <v>0.213654</v>
+        <v>0.215759</v>
       </c>
       <c r="E60" t="n">
-        <v>0.157718</v>
+        <v>0.163474</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.258565</v>
+        <v>0.246468</v>
       </c>
       <c r="C61" t="n">
-        <v>0.279784</v>
+        <v>0.279184</v>
       </c>
       <c r="D61" t="n">
-        <v>0.211378</v>
+        <v>0.215971</v>
       </c>
       <c r="E61" t="n">
-        <v>0.162783</v>
+        <v>0.162448</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.251223</v>
+        <v>0.245786</v>
       </c>
       <c r="C62" t="n">
-        <v>0.286467</v>
+        <v>0.304894</v>
       </c>
       <c r="D62" t="n">
-        <v>0.213752</v>
+        <v>0.229254</v>
       </c>
       <c r="E62" t="n">
-        <v>0.174259</v>
+        <v>0.182338</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.246662</v>
+        <v>0.256784</v>
       </c>
       <c r="C63" t="n">
-        <v>0.297495</v>
+        <v>0.298392</v>
       </c>
       <c r="D63" t="n">
-        <v>0.215948</v>
+        <v>0.223492</v>
       </c>
       <c r="E63" t="n">
-        <v>0.169295</v>
+        <v>0.173649</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.250238</v>
+        <v>0.249414</v>
       </c>
       <c r="C64" t="n">
-        <v>0.267805</v>
+        <v>0.271765</v>
       </c>
       <c r="D64" t="n">
-        <v>0.225181</v>
+        <v>0.223127</v>
       </c>
       <c r="E64" t="n">
-        <v>0.177031</v>
+        <v>0.178243</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.254894</v>
+        <v>0.269051</v>
       </c>
       <c r="C65" t="n">
-        <v>0.277377</v>
+        <v>0.279098</v>
       </c>
       <c r="D65" t="n">
-        <v>0.224483</v>
+        <v>0.23257</v>
       </c>
       <c r="E65" t="n">
-        <v>0.18605</v>
+        <v>0.186495</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.257605</v>
+        <v>0.254656</v>
       </c>
       <c r="C66" t="n">
-        <v>0.287252</v>
+        <v>0.288386</v>
       </c>
       <c r="D66" t="n">
-        <v>0.281873</v>
+        <v>0.28591</v>
       </c>
       <c r="E66" t="n">
-        <v>0.213328</v>
+        <v>0.210492</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.37859</v>
+        <v>0.37991</v>
       </c>
       <c r="C67" t="n">
-        <v>0.334067</v>
+        <v>0.305019</v>
       </c>
       <c r="D67" t="n">
-        <v>0.281946</v>
+        <v>0.288936</v>
       </c>
       <c r="E67" t="n">
-        <v>0.211418</v>
+        <v>0.211969</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.395548</v>
+        <v>0.40921</v>
       </c>
       <c r="C68" t="n">
-        <v>0.334389</v>
+        <v>0.336926</v>
       </c>
       <c r="D68" t="n">
-        <v>0.296129</v>
+        <v>0.291669</v>
       </c>
       <c r="E68" t="n">
-        <v>0.226468</v>
+        <v>0.218113</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.36964</v>
+        <v>0.379066</v>
       </c>
       <c r="C69" t="n">
-        <v>0.321778</v>
+        <v>0.326735</v>
       </c>
       <c r="D69" t="n">
-        <v>0.290501</v>
+        <v>0.297757</v>
       </c>
       <c r="E69" t="n">
-        <v>0.218124</v>
+        <v>0.218616</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.404798</v>
+        <v>0.371912</v>
       </c>
       <c r="C70" t="n">
-        <v>0.360605</v>
+        <v>0.332311</v>
       </c>
       <c r="D70" t="n">
-        <v>0.291457</v>
+        <v>0.295638</v>
       </c>
       <c r="E70" t="n">
-        <v>0.219806</v>
+        <v>0.224588</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.386849</v>
+        <v>0.379143</v>
       </c>
       <c r="C71" t="n">
-        <v>0.34063</v>
+        <v>0.348668</v>
       </c>
       <c r="D71" t="n">
-        <v>0.297604</v>
+        <v>0.291454</v>
       </c>
       <c r="E71" t="n">
-        <v>0.243804</v>
+        <v>0.227371</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.378746</v>
+        <v>0.382714</v>
       </c>
       <c r="C72" t="n">
-        <v>0.393484</v>
+        <v>0.368199</v>
       </c>
       <c r="D72" t="n">
-        <v>0.297078</v>
+        <v>0.307301</v>
       </c>
       <c r="E72" t="n">
-        <v>0.232714</v>
+        <v>0.222669</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.371913</v>
+        <v>0.374721</v>
       </c>
       <c r="C73" t="n">
-        <v>0.373325</v>
+        <v>0.384321</v>
       </c>
       <c r="D73" t="n">
-        <v>0.298096</v>
+        <v>0.308345</v>
       </c>
       <c r="E73" t="n">
-        <v>0.229226</v>
+        <v>0.22735</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.370347</v>
+        <v>0.379914</v>
       </c>
       <c r="C74" t="n">
-        <v>0.382436</v>
+        <v>0.398286</v>
       </c>
       <c r="D74" t="n">
-        <v>0.300332</v>
+        <v>0.315885</v>
       </c>
       <c r="E74" t="n">
-        <v>0.232056</v>
+        <v>0.231289</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.376063</v>
+        <v>0.384389</v>
       </c>
       <c r="C75" t="n">
-        <v>0.44213</v>
+        <v>0.398659</v>
       </c>
       <c r="D75" t="n">
-        <v>0.307432</v>
+        <v>0.31153</v>
       </c>
       <c r="E75" t="n">
-        <v>0.23403</v>
+        <v>0.235178</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.395318</v>
+        <v>0.386471</v>
       </c>
       <c r="C76" t="n">
-        <v>0.438784</v>
+        <v>0.41827</v>
       </c>
       <c r="D76" t="n">
-        <v>0.298902</v>
+        <v>0.307135</v>
       </c>
       <c r="E76" t="n">
-        <v>0.239206</v>
+        <v>0.241063</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.388237</v>
+        <v>0.397838</v>
       </c>
       <c r="C77" t="n">
-        <v>0.441998</v>
+        <v>0.43637</v>
       </c>
       <c r="D77" t="n">
-        <v>0.303005</v>
+        <v>0.304825</v>
       </c>
       <c r="E77" t="n">
-        <v>0.243162</v>
+        <v>0.254865</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.381386</v>
+        <v>0.397476</v>
       </c>
       <c r="C78" t="n">
-        <v>0.411448</v>
+        <v>0.413926</v>
       </c>
       <c r="D78" t="n">
-        <v>0.304907</v>
+        <v>0.322662</v>
       </c>
       <c r="E78" t="n">
-        <v>0.256927</v>
+        <v>0.264529</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.404541</v>
+        <v>0.39995</v>
       </c>
       <c r="C79" t="n">
-        <v>0.435015</v>
+        <v>0.421853</v>
       </c>
       <c r="D79" t="n">
-        <v>0.328274</v>
+        <v>0.315856</v>
       </c>
       <c r="E79" t="n">
-        <v>0.269618</v>
+        <v>0.262511</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.395078</v>
+        <v>0.398785</v>
       </c>
       <c r="C80" t="n">
-        <v>0.429316</v>
+        <v>0.438968</v>
       </c>
       <c r="D80" t="n">
-        <v>0.425272</v>
+        <v>0.430348</v>
       </c>
       <c r="E80" t="n">
-        <v>0.340221</v>
+        <v>0.356922</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.536664</v>
+        <v>0.5268699999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.434216</v>
+        <v>0.442482</v>
       </c>
       <c r="D81" t="n">
-        <v>0.431801</v>
+        <v>0.424276</v>
       </c>
       <c r="E81" t="n">
-        <v>0.34132</v>
+        <v>0.350789</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.520942</v>
+        <v>0.528173</v>
       </c>
       <c r="C82" t="n">
-        <v>0.493199</v>
+        <v>0.452026</v>
       </c>
       <c r="D82" t="n">
-        <v>0.446321</v>
+        <v>0.434332</v>
       </c>
       <c r="E82" t="n">
-        <v>0.362851</v>
+        <v>0.350966</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.539686</v>
+        <v>0.531861</v>
       </c>
       <c r="C83" t="n">
-        <v>0.45549</v>
+        <v>0.456801</v>
       </c>
       <c r="D83" t="n">
-        <v>0.432285</v>
+        <v>0.445255</v>
       </c>
       <c r="E83" t="n">
-        <v>0.346303</v>
+        <v>0.349173</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.539933</v>
+        <v>0.552773</v>
       </c>
       <c r="C84" t="n">
-        <v>0.468923</v>
+        <v>0.483522</v>
       </c>
       <c r="D84" t="n">
-        <v>0.434907</v>
+        <v>0.436789</v>
       </c>
       <c r="E84" t="n">
-        <v>0.357979</v>
+        <v>0.348894</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.532839</v>
+        <v>0.5314720000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.487148</v>
+        <v>0.487072</v>
       </c>
       <c r="D85" t="n">
-        <v>0.439431</v>
+        <v>0.438046</v>
       </c>
       <c r="E85" t="n">
-        <v>0.357476</v>
+        <v>0.355363</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.528751</v>
+        <v>0.555581</v>
       </c>
       <c r="C86" t="n">
-        <v>0.51249</v>
+        <v>0.511144</v>
       </c>
       <c r="D86" t="n">
-        <v>0.429121</v>
+        <v>0.432582</v>
       </c>
       <c r="E86" t="n">
-        <v>0.356437</v>
+        <v>0.348949</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.540493</v>
+        <v>0.529799</v>
       </c>
       <c r="C87" t="n">
-        <v>0.512267</v>
+        <v>0.515645</v>
       </c>
       <c r="D87" t="n">
-        <v>0.431604</v>
+        <v>0.434274</v>
       </c>
       <c r="E87" t="n">
-        <v>0.355748</v>
+        <v>0.357375</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.545937</v>
+        <v>0.542038</v>
       </c>
       <c r="C88" t="n">
-        <v>0.52341</v>
+        <v>0.542907</v>
       </c>
       <c r="D88" t="n">
-        <v>0.427876</v>
+        <v>0.447023</v>
       </c>
       <c r="E88" t="n">
-        <v>0.380567</v>
+        <v>0.358244</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.544137</v>
+        <v>0.5624130000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>0.546343</v>
+        <v>0.545454</v>
       </c>
       <c r="D89" t="n">
-        <v>0.438312</v>
+        <v>0.439071</v>
       </c>
       <c r="E89" t="n">
-        <v>0.377621</v>
+        <v>0.37482</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.539018</v>
+        <v>0.541706</v>
       </c>
       <c r="C90" t="n">
-        <v>0.59007</v>
+        <v>0.560256</v>
       </c>
       <c r="D90" t="n">
-        <v>0.44733</v>
+        <v>0.444238</v>
       </c>
       <c r="E90" t="n">
-        <v>0.365733</v>
+        <v>0.368628</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.541429</v>
+        <v>0.557041</v>
       </c>
       <c r="C91" t="n">
-        <v>0.575278</v>
+        <v>0.602055</v>
       </c>
       <c r="D91" t="n">
-        <v>0.442253</v>
+        <v>0.445159</v>
       </c>
       <c r="E91" t="n">
-        <v>0.379791</v>
+        <v>0.37024</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.541362</v>
+        <v>0.55277</v>
       </c>
       <c r="C92" t="n">
-        <v>0.52969</v>
+        <v>0.535341</v>
       </c>
       <c r="D92" t="n">
-        <v>0.440261</v>
+        <v>0.450028</v>
       </c>
       <c r="E92" t="n">
-        <v>0.408323</v>
+        <v>0.373541</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.552158</v>
+        <v>0.545501</v>
       </c>
       <c r="C93" t="n">
-        <v>0.563793</v>
+        <v>0.540243</v>
       </c>
       <c r="D93" t="n">
-        <v>0.447521</v>
+        <v>0.450721</v>
       </c>
       <c r="E93" t="n">
-        <v>0.378779</v>
+        <v>0.388173</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.541909</v>
+        <v>0.549363</v>
       </c>
       <c r="C94" t="n">
-        <v>0.559777</v>
+        <v>0.572966</v>
       </c>
       <c r="D94" t="n">
-        <v>0.513033</v>
+        <v>0.5172</v>
       </c>
       <c r="E94" t="n">
-        <v>0.509998</v>
+        <v>0.517672</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.630656</v>
+        <v>0.626529</v>
       </c>
       <c r="C95" t="n">
-        <v>0.558782</v>
+        <v>0.573222</v>
       </c>
       <c r="D95" t="n">
-        <v>0.513426</v>
+        <v>0.527003</v>
       </c>
       <c r="E95" t="n">
-        <v>0.528958</v>
+        <v>0.5109860000000001</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.614862</v>
+        <v>0.614854</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5698</v>
+        <v>0.583627</v>
       </c>
       <c r="D96" t="n">
-        <v>0.510574</v>
+        <v>0.513994</v>
       </c>
       <c r="E96" t="n">
-        <v>0.512079</v>
+        <v>0.528328</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.623656</v>
+        <v>0.640588</v>
       </c>
       <c r="C97" t="n">
-        <v>0.588579</v>
+        <v>0.592521</v>
       </c>
       <c r="D97" t="n">
-        <v>0.513126</v>
+        <v>0.5087930000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>0.5192099999999999</v>
+        <v>0.541191</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.612957</v>
+        <v>0.614514</v>
       </c>
       <c r="C98" t="n">
-        <v>0.5947519999999999</v>
+        <v>0.6038829999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>0.51803</v>
+        <v>0.519226</v>
       </c>
       <c r="E98" t="n">
-        <v>0.523118</v>
+        <v>0.519913</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.632536</v>
+        <v>0.61528</v>
       </c>
       <c r="C99" t="n">
-        <v>0.619456</v>
+        <v>0.626547</v>
       </c>
       <c r="D99" t="n">
-        <v>0.531845</v>
+        <v>0.524135</v>
       </c>
       <c r="E99" t="n">
-        <v>0.521205</v>
+        <v>0.526977</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6153</v>
+        <v>0.614505</v>
       </c>
       <c r="C100" t="n">
-        <v>0.634361</v>
+        <v>0.662454</v>
       </c>
       <c r="D100" t="n">
-        <v>0.523637</v>
+        <v>0.538367</v>
       </c>
       <c r="E100" t="n">
-        <v>0.522819</v>
+        <v>0.543283</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.626893</v>
+        <v>0.633554</v>
       </c>
       <c r="C101" t="n">
-        <v>0.662978</v>
+        <v>0.673086</v>
       </c>
       <c r="D101" t="n">
-        <v>0.542168</v>
+        <v>0.536783</v>
       </c>
       <c r="E101" t="n">
-        <v>0.5403480000000001</v>
+        <v>0.524178</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.622793</v>
+        <v>0.620624</v>
       </c>
       <c r="C102" t="n">
-        <v>0.659201</v>
+        <v>0.676184</v>
       </c>
       <c r="D102" t="n">
-        <v>0.531761</v>
+        <v>0.530245</v>
       </c>
       <c r="E102" t="n">
-        <v>0.539636</v>
+        <v>0.532531</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.684273</v>
+        <v>0.62292</v>
       </c>
       <c r="C103" t="n">
-        <v>0.681455</v>
+        <v>0.70156</v>
       </c>
       <c r="D103" t="n">
-        <v>0.517061</v>
+        <v>0.521371</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5472860000000001</v>
+        <v>0.535278</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.632209</v>
+        <v>0.623126</v>
       </c>
       <c r="C104" t="n">
-        <v>0.7001270000000001</v>
+        <v>0.7018</v>
       </c>
       <c r="D104" t="n">
-        <v>0.580287</v>
+        <v>0.532287</v>
       </c>
       <c r="E104" t="n">
-        <v>0.557929</v>
+        <v>0.53544</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.621667</v>
+        <v>0.620509</v>
       </c>
       <c r="C105" t="n">
-        <v>0.710333</v>
+        <v>0.713226</v>
       </c>
       <c r="D105" t="n">
-        <v>0.524231</v>
+        <v>0.549476</v>
       </c>
       <c r="E105" t="n">
-        <v>0.529743</v>
+        <v>0.540185</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.634782</v>
+        <v>0.621223</v>
       </c>
       <c r="C106" t="n">
-        <v>0.7342109999999999</v>
+        <v>0.726434</v>
       </c>
       <c r="D106" t="n">
-        <v>0.55757</v>
+        <v>0.528207</v>
       </c>
       <c r="E106" t="n">
-        <v>0.54299</v>
+        <v>0.555088</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.636661</v>
+        <v>0.675657</v>
       </c>
       <c r="C107" t="n">
-        <v>0.6697340000000001</v>
+        <v>0.66156</v>
       </c>
       <c r="D107" t="n">
-        <v>0.568764</v>
+        <v>0.562277</v>
       </c>
       <c r="E107" t="n">
-        <v>0.562026</v>
+        <v>0.5782310000000001</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.629194</v>
+        <v>0.63104</v>
       </c>
       <c r="C108" t="n">
-        <v>0.651743</v>
+        <v>0.660428</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5909180000000001</v>
+        <v>0.614413</v>
       </c>
       <c r="E108" t="n">
-        <v>0.624986</v>
+        <v>0.624834</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.631441</v>
+        <v>0.635686</v>
       </c>
       <c r="C109" t="n">
-        <v>0.697454</v>
+        <v>0.669185</v>
       </c>
       <c r="D109" t="n">
-        <v>0.611029</v>
+        <v>0.62276</v>
       </c>
       <c r="E109" t="n">
-        <v>0.62848</v>
+        <v>0.658307</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.74721</v>
+        <v>0.748349</v>
       </c>
       <c r="C110" t="n">
-        <v>0.717161</v>
+        <v>0.701555</v>
       </c>
       <c r="D110" t="n">
-        <v>0.642908</v>
+        <v>0.60133</v>
       </c>
       <c r="E110" t="n">
-        <v>0.630279</v>
+        <v>0.622932</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.751325</v>
+        <v>0.765536</v>
       </c>
       <c r="C111" t="n">
-        <v>0.71161</v>
+        <v>0.705036</v>
       </c>
       <c r="D111" t="n">
-        <v>0.63148</v>
+        <v>0.605591</v>
       </c>
       <c r="E111" t="n">
-        <v>0.6458159999999999</v>
+        <v>0.63452</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.747064</v>
+        <v>0.767699</v>
       </c>
       <c r="C112" t="n">
-        <v>0.717648</v>
+        <v>0.736908</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6138940000000001</v>
+        <v>0.605567</v>
       </c>
       <c r="E112" t="n">
-        <v>0.627844</v>
+        <v>0.635441</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.7579979999999999</v>
+        <v>0.768711</v>
       </c>
       <c r="C113" t="n">
-        <v>0.726871</v>
+        <v>0.731758</v>
       </c>
       <c r="D113" t="n">
-        <v>0.599431</v>
+        <v>0.6183689999999999</v>
       </c>
       <c r="E113" t="n">
-        <v>0.636039</v>
+        <v>0.640803</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.748476</v>
+        <v>0.759799</v>
       </c>
       <c r="C114" t="n">
-        <v>0.775099</v>
+        <v>0.746005</v>
       </c>
       <c r="D114" t="n">
-        <v>0.603463</v>
+        <v>0.60749</v>
       </c>
       <c r="E114" t="n">
-        <v>0.642716</v>
+        <v>0.638018</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.7562759999999999</v>
+        <v>0.759991</v>
       </c>
       <c r="C115" t="n">
-        <v>0.815724</v>
+        <v>0.789273</v>
       </c>
       <c r="D115" t="n">
-        <v>0.599319</v>
+        <v>0.606344</v>
       </c>
       <c r="E115" t="n">
-        <v>0.642055</v>
+        <v>0.650479</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.771334</v>
+        <v>0.782162</v>
       </c>
       <c r="C116" t="n">
-        <v>0.797669</v>
+        <v>0.800545</v>
       </c>
       <c r="D116" t="n">
-        <v>0.603727</v>
+        <v>0.619912</v>
       </c>
       <c r="E116" t="n">
-        <v>0.638619</v>
+        <v>0.663942</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.7548280000000001</v>
+        <v>0.76537</v>
       </c>
       <c r="C117" t="n">
-        <v>0.7958809999999999</v>
+        <v>0.79099</v>
       </c>
       <c r="D117" t="n">
-        <v>0.615637</v>
+        <v>0.613329</v>
       </c>
       <c r="E117" t="n">
-        <v>0.646834</v>
+        <v>0.655542</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.765169</v>
+        <v>0.769342</v>
       </c>
       <c r="C118" t="n">
-        <v>0.818875</v>
+        <v>0.821784</v>
       </c>
       <c r="D118" t="n">
-        <v>0.629145</v>
+        <v>0.621281</v>
       </c>
       <c r="E118" t="n">
-        <v>0.6478429999999999</v>
+        <v>0.670469</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.752241</v>
+        <v>0.75147</v>
       </c>
       <c r="C119" t="n">
-        <v>0.852097</v>
+        <v>0.822086</v>
       </c>
       <c r="D119" t="n">
-        <v>0.630976</v>
+        <v>0.6156700000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>0.65464</v>
+        <v>0.664487</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.744648</v>
+        <v>0.749688</v>
       </c>
       <c r="C120" t="n">
-        <v>0.833232</v>
+        <v>0.834351</v>
       </c>
       <c r="D120" t="n">
-        <v>0.624336</v>
+        <v>0.634951</v>
       </c>
       <c r="E120" t="n">
-        <v>0.660525</v>
+        <v>0.665528</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.769995</v>
+        <v>0.754874</v>
       </c>
       <c r="C121" t="n">
-        <v>0.769119</v>
+        <v>0.776224</v>
       </c>
       <c r="D121" t="n">
-        <v>0.635722</v>
+        <v>0.640202</v>
       </c>
       <c r="E121" t="n">
-        <v>0.674917</v>
+        <v>0.681545</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.769273</v>
+        <v>0.78011</v>
       </c>
       <c r="C122" t="n">
-        <v>0.752049</v>
+        <v>0.746715</v>
       </c>
       <c r="D122" t="n">
-        <v>0.641786</v>
+        <v>0.658952</v>
       </c>
       <c r="E122" t="n">
-        <v>0.688489</v>
+        <v>0.693154</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.787297</v>
+        <v>0.764477</v>
       </c>
       <c r="C123" t="n">
-        <v>0.775189</v>
+        <v>0.7765919999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>0.710195</v>
+        <v>0.748356</v>
       </c>
       <c r="E123" t="n">
-        <v>0.691557</v>
+        <v>0.693412</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.965201</v>
+        <v>0.984749</v>
       </c>
       <c r="C124" t="n">
-        <v>0.824757</v>
+        <v>0.7911280000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.737551</v>
+        <v>0.723867</v>
       </c>
       <c r="E124" t="n">
-        <v>0.701751</v>
+        <v>0.706505</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.991052</v>
+        <v>0.985537</v>
       </c>
       <c r="C125" t="n">
-        <v>0.829155</v>
+        <v>0.794732</v>
       </c>
       <c r="D125" t="n">
-        <v>0.727307</v>
+        <v>0.73475</v>
       </c>
       <c r="E125" t="n">
-        <v>0.716569</v>
+        <v>0.6973819999999999</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.98768</v>
+        <v>0.963932</v>
       </c>
       <c r="C126" t="n">
-        <v>0.848774</v>
+        <v>0.802634</v>
       </c>
       <c r="D126" t="n">
-        <v>0.720848</v>
+        <v>0.74517</v>
       </c>
       <c r="E126" t="n">
-        <v>0.708095</v>
+        <v>0.723418</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.954688</v>
+        <v>0.98053</v>
       </c>
       <c r="C127" t="n">
-        <v>0.820613</v>
+        <v>0.826912</v>
       </c>
       <c r="D127" t="n">
-        <v>0.720592</v>
+        <v>0.726927</v>
       </c>
       <c r="E127" t="n">
-        <v>0.714797</v>
+        <v>0.710124</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.959853</v>
+        <v>0.976123</v>
       </c>
       <c r="C128" t="n">
-        <v>0.843156</v>
+        <v>0.84463</v>
       </c>
       <c r="D128" t="n">
-        <v>0.720075</v>
+        <v>0.73187</v>
       </c>
       <c r="E128" t="n">
-        <v>0.710924</v>
+        <v>0.7132230000000001</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.960085</v>
+        <v>0.994462</v>
       </c>
       <c r="C129" t="n">
-        <v>0.843867</v>
+        <v>0.856619</v>
       </c>
       <c r="D129" t="n">
-        <v>0.713288</v>
+        <v>0.736119</v>
       </c>
       <c r="E129" t="n">
-        <v>0.725104</v>
+        <v>0.71671</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.95986</v>
+        <v>0.990086</v>
       </c>
       <c r="C130" t="n">
-        <v>0.864024</v>
+        <v>0.886174</v>
       </c>
       <c r="D130" t="n">
-        <v>0.726143</v>
+        <v>0.725301</v>
       </c>
       <c r="E130" t="n">
-        <v>0.762055</v>
+        <v>0.725021</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.97289</v>
+        <v>0.9722190000000001</v>
       </c>
       <c r="C131" t="n">
-        <v>0.87152</v>
+        <v>0.892155</v>
       </c>
       <c r="D131" t="n">
-        <v>0.721178</v>
+        <v>0.7383110000000001</v>
       </c>
       <c r="E131" t="n">
-        <v>0.720172</v>
+        <v>0.7420870000000001</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.982699</v>
+        <v>1.00091</v>
       </c>
       <c r="C132" t="n">
-        <v>0.889441</v>
+        <v>0.9156339999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>0.733549</v>
+        <v>0.741316</v>
       </c>
       <c r="E132" t="n">
-        <v>0.726642</v>
+        <v>0.7364810000000001</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.96827</v>
+        <v>0.989134</v>
       </c>
       <c r="C133" t="n">
-        <v>0.9350889999999999</v>
+        <v>0.910156</v>
       </c>
       <c r="D133" t="n">
-        <v>0.769132</v>
+        <v>0.74226</v>
       </c>
       <c r="E133" t="n">
-        <v>0.732287</v>
+        <v>0.737078</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.966741</v>
+        <v>0.9776860000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>0.925909</v>
+        <v>0.946195</v>
       </c>
       <c r="D134" t="n">
-        <v>0.735996</v>
+        <v>0.747547</v>
       </c>
       <c r="E134" t="n">
-        <v>0.740517</v>
+        <v>0.7453920000000001</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.975557</v>
+        <v>0.988472</v>
       </c>
       <c r="C135" t="n">
-        <v>0.8174439999999999</v>
+        <v>0.839538</v>
       </c>
       <c r="D135" t="n">
-        <v>0.746946</v>
+        <v>0.746374</v>
       </c>
       <c r="E135" t="n">
-        <v>0.749348</v>
+        <v>0.772196</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.964943</v>
+        <v>0.988016</v>
       </c>
       <c r="C136" t="n">
-        <v>0.833415</v>
+        <v>0.855529</v>
       </c>
       <c r="D136" t="n">
-        <v>0.753836</v>
+        <v>0.778298</v>
       </c>
       <c r="E136" t="n">
-        <v>0.7687</v>
+        <v>0.777749</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.969637</v>
+        <v>1.01334</v>
       </c>
       <c r="C137" t="n">
-        <v>0.849271</v>
+        <v>0.87364</v>
       </c>
       <c r="D137" t="n">
-        <v>0.885576</v>
+        <v>0.902693</v>
       </c>
       <c r="E137" t="n">
-        <v>0.753418</v>
+        <v>0.7740669999999999</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.32599</v>
+        <v>1.27151</v>
       </c>
       <c r="C138" t="n">
-        <v>0.867505</v>
+        <v>0.875598</v>
       </c>
       <c r="D138" t="n">
-        <v>0.8833800000000001</v>
+        <v>0.902153</v>
       </c>
       <c r="E138" t="n">
-        <v>0.769649</v>
+        <v>0.789598</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.2235</v>
+        <v>1.25334</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8689210000000001</v>
+        <v>0.882507</v>
       </c>
       <c r="D139" t="n">
-        <v>0.882274</v>
+        <v>0.920651</v>
       </c>
       <c r="E139" t="n">
-        <v>0.757315</v>
+        <v>0.773259</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.22931</v>
+        <v>1.26496</v>
       </c>
       <c r="C140" t="n">
-        <v>0.883606</v>
+        <v>0.897746</v>
       </c>
       <c r="D140" t="n">
-        <v>0.879636</v>
+        <v>0.9044180000000001</v>
       </c>
       <c r="E140" t="n">
-        <v>0.765383</v>
+        <v>0.805527</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.22028</v>
+        <v>1.23729</v>
       </c>
       <c r="C141" t="n">
-        <v>0.900891</v>
+        <v>0.912597</v>
       </c>
       <c r="D141" t="n">
-        <v>0.899881</v>
+        <v>0.908173</v>
       </c>
       <c r="E141" t="n">
-        <v>0.813566</v>
+        <v>0.780455</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.2225</v>
+        <v>1.24053</v>
       </c>
       <c r="C142" t="n">
-        <v>0.926347</v>
+        <v>0.944103</v>
       </c>
       <c r="D142" t="n">
-        <v>0.895933</v>
+        <v>0.912953</v>
       </c>
       <c r="E142" t="n">
-        <v>0.779847</v>
+        <v>0.793511</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.2714</v>
+        <v>1.24623</v>
       </c>
       <c r="C143" t="n">
-        <v>0.93203</v>
+        <v>0.962406</v>
       </c>
       <c r="D143" t="n">
-        <v>0.899124</v>
+        <v>0.91187</v>
       </c>
       <c r="E143" t="n">
-        <v>0.784545</v>
+        <v>0.824072</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -4139,7 +4139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I27" sqref="I27"/>
@@ -4177,16 +4177,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.11341</v>
+        <v>0.114596</v>
       </c>
       <c r="C2" t="n">
-        <v>0.157661</v>
+        <v>0.113674</v>
       </c>
       <c r="D2" t="n">
-        <v>0.12639</v>
+        <v>0.162574</v>
       </c>
       <c r="E2" t="n">
-        <v>0.117263</v>
+        <v>0.129229</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.118967</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4197,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.119036</v>
+        <v>0.116016</v>
       </c>
       <c r="C3" t="n">
-        <v>0.17279</v>
+        <v>0.110025</v>
       </c>
       <c r="D3" t="n">
-        <v>0.128748</v>
+        <v>0.159359</v>
       </c>
       <c r="E3" t="n">
-        <v>0.119267</v>
+        <v>0.129917</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.120785</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4217,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.121386</v>
+        <v>0.117269</v>
       </c>
       <c r="C4" t="n">
-        <v>0.169543</v>
+        <v>0.110851</v>
       </c>
       <c r="D4" t="n">
-        <v>0.132185</v>
+        <v>0.168612</v>
       </c>
       <c r="E4" t="n">
-        <v>0.126319</v>
+        <v>0.134889</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.127728</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4237,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.116756</v>
+        <v>0.126243</v>
       </c>
       <c r="C5" t="n">
-        <v>0.185939</v>
+        <v>0.114271</v>
       </c>
       <c r="D5" t="n">
-        <v>0.131713</v>
+        <v>0.17502</v>
       </c>
       <c r="E5" t="n">
-        <v>0.12246</v>
+        <v>0.136232</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.121541</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4257,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.11955</v>
+        <v>0.118261</v>
       </c>
       <c r="C6" t="n">
-        <v>0.179804</v>
+        <v>0.111113</v>
       </c>
       <c r="D6" t="n">
-        <v>0.131588</v>
+        <v>0.17678</v>
       </c>
       <c r="E6" t="n">
-        <v>0.128723</v>
+        <v>0.132629</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.120999</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4277,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.120627</v>
+        <v>0.11824</v>
       </c>
       <c r="C7" t="n">
-        <v>0.160604</v>
+        <v>0.119217</v>
       </c>
       <c r="D7" t="n">
-        <v>0.14183</v>
+        <v>0.153334</v>
       </c>
       <c r="E7" t="n">
-        <v>0.125165</v>
+        <v>0.132613</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.123233</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4297,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.119081</v>
+        <v>0.124414</v>
       </c>
       <c r="C8" t="n">
-        <v>0.149293</v>
+        <v>0.119463</v>
       </c>
       <c r="D8" t="n">
-        <v>0.141407</v>
+        <v>0.15298</v>
       </c>
       <c r="E8" t="n">
-        <v>0.134106</v>
+        <v>0.137829</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.129819</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4317,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.126598</v>
+        <v>0.122333</v>
       </c>
       <c r="C9" t="n">
-        <v>0.165591</v>
+        <v>0.114353</v>
       </c>
       <c r="D9" t="n">
-        <v>0.14249</v>
+        <v>0.161813</v>
       </c>
       <c r="E9" t="n">
-        <v>0.12314</v>
+        <v>0.133131</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.125134</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4337,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.130615</v>
+        <v>0.130725</v>
       </c>
       <c r="C10" t="n">
-        <v>0.162583</v>
+        <v>0.117131</v>
       </c>
       <c r="D10" t="n">
-        <v>0.135567</v>
+        <v>0.15891</v>
       </c>
       <c r="E10" t="n">
-        <v>0.121993</v>
+        <v>0.132415</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.127239</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4357,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.132399</v>
+        <v>0.129146</v>
       </c>
       <c r="C11" t="n">
-        <v>0.172371</v>
+        <v>0.117325</v>
       </c>
       <c r="D11" t="n">
-        <v>0.135355</v>
+        <v>0.162218</v>
       </c>
       <c r="E11" t="n">
-        <v>0.121634</v>
+        <v>0.14003</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.128078</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4377,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.128038</v>
+        <v>0.127436</v>
       </c>
       <c r="C12" t="n">
-        <v>0.162856</v>
+        <v>0.115558</v>
       </c>
       <c r="D12" t="n">
-        <v>0.137588</v>
+        <v>0.164478</v>
       </c>
       <c r="E12" t="n">
-        <v>0.121985</v>
+        <v>0.134691</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.128093</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4397,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.127734</v>
+        <v>0.134983</v>
       </c>
       <c r="C13" t="n">
-        <v>0.167545</v>
+        <v>0.118654</v>
       </c>
       <c r="D13" t="n">
-        <v>0.138324</v>
+        <v>0.168222</v>
       </c>
       <c r="E13" t="n">
-        <v>0.127826</v>
+        <v>0.130069</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.117456</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4417,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.127771</v>
+        <v>0.133015</v>
       </c>
       <c r="C14" t="n">
-        <v>0.170641</v>
+        <v>0.114584</v>
       </c>
       <c r="D14" t="n">
-        <v>0.13448</v>
+        <v>0.177728</v>
       </c>
       <c r="E14" t="n">
-        <v>0.122677</v>
+        <v>0.129062</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.123</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4437,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.129034</v>
+        <v>0.127632</v>
       </c>
       <c r="C15" t="n">
-        <v>0.178609</v>
+        <v>0.115483</v>
       </c>
       <c r="D15" t="n">
-        <v>0.133525</v>
+        <v>0.169103</v>
       </c>
       <c r="E15" t="n">
-        <v>0.120794</v>
+        <v>0.128477</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.11719</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4457,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.129148</v>
+        <v>0.126495</v>
       </c>
       <c r="C16" t="n">
-        <v>0.176925</v>
+        <v>0.113399</v>
       </c>
       <c r="D16" t="n">
-        <v>0.131608</v>
+        <v>0.18102</v>
       </c>
       <c r="E16" t="n">
-        <v>0.135201</v>
+        <v>0.129226</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.116685</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4477,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.126993</v>
+        <v>0.124215</v>
       </c>
       <c r="C17" t="n">
-        <v>0.184256</v>
+        <v>0.115307</v>
       </c>
       <c r="D17" t="n">
-        <v>0.130824</v>
+        <v>0.180787</v>
       </c>
       <c r="E17" t="n">
-        <v>0.126898</v>
+        <v>0.135456</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.119413</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4497,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.125738</v>
+        <v>0.131557</v>
       </c>
       <c r="C18" t="n">
-        <v>0.183075</v>
+        <v>0.11872</v>
       </c>
       <c r="D18" t="n">
-        <v>0.130345</v>
+        <v>0.183921</v>
       </c>
       <c r="E18" t="n">
-        <v>0.126873</v>
+        <v>0.130651</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.124798</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4517,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.131413</v>
+        <v>0.126125</v>
       </c>
       <c r="C19" t="n">
-        <v>0.195548</v>
+        <v>0.116814</v>
       </c>
       <c r="D19" t="n">
-        <v>0.13246</v>
+        <v>0.186836</v>
       </c>
       <c r="E19" t="n">
-        <v>0.127516</v>
+        <v>0.130984</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.123655</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4537,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.126872</v>
+        <v>0.128868</v>
       </c>
       <c r="C20" t="n">
-        <v>0.18812</v>
+        <v>0.117886</v>
       </c>
       <c r="D20" t="n">
-        <v>0.137194</v>
+        <v>0.187483</v>
       </c>
       <c r="E20" t="n">
-        <v>0.128178</v>
+        <v>0.13971</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.123621</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4557,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.125364</v>
+        <v>0.127156</v>
       </c>
       <c r="C21" t="n">
-        <v>0.154929</v>
+        <v>0.117851</v>
       </c>
       <c r="D21" t="n">
-        <v>0.135185</v>
+        <v>0.153665</v>
       </c>
       <c r="E21" t="n">
-        <v>0.128467</v>
+        <v>0.137477</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.124564</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4577,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.131635</v>
+        <v>0.131193</v>
       </c>
       <c r="C22" t="n">
-        <v>0.155296</v>
+        <v>0.122218</v>
       </c>
       <c r="D22" t="n">
-        <v>0.138131</v>
+        <v>0.154326</v>
       </c>
       <c r="E22" t="n">
-        <v>0.130619</v>
+        <v>0.143022</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.126421</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4597,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.132388</v>
+        <v>0.131664</v>
       </c>
       <c r="C23" t="n">
-        <v>0.164052</v>
+        <v>0.119248</v>
       </c>
       <c r="D23" t="n">
-        <v>0.133053</v>
+        <v>0.156077</v>
       </c>
       <c r="E23" t="n">
-        <v>0.123874</v>
+        <v>0.132233</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.126255</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4617,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133414</v>
+        <v>0.133749</v>
       </c>
       <c r="C24" t="n">
-        <v>0.165613</v>
+        <v>0.129137</v>
       </c>
       <c r="D24" t="n">
-        <v>0.134104</v>
+        <v>0.160233</v>
       </c>
       <c r="E24" t="n">
-        <v>0.125573</v>
+        <v>0.133947</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.12168</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4637,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.138524</v>
+        <v>0.136862</v>
       </c>
       <c r="C25" t="n">
-        <v>0.167599</v>
+        <v>0.131126</v>
       </c>
       <c r="D25" t="n">
-        <v>0.142028</v>
+        <v>0.170592</v>
       </c>
       <c r="E25" t="n">
-        <v>0.125198</v>
+        <v>0.136738</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.120769</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4657,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.134595</v>
+        <v>0.141038</v>
       </c>
       <c r="C26" t="n">
-        <v>0.167737</v>
+        <v>0.126645</v>
       </c>
       <c r="D26" t="n">
-        <v>0.133026</v>
+        <v>0.167245</v>
       </c>
       <c r="E26" t="n">
-        <v>0.127113</v>
+        <v>0.133076</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.125226</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4677,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.134704</v>
+        <v>0.132661</v>
       </c>
       <c r="C27" t="n">
-        <v>0.175366</v>
+        <v>0.132693</v>
       </c>
       <c r="D27" t="n">
-        <v>0.133942</v>
+        <v>0.175962</v>
       </c>
       <c r="E27" t="n">
-        <v>0.124303</v>
+        <v>0.133716</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.123924</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4697,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.136848</v>
+        <v>0.136656</v>
       </c>
       <c r="C28" t="n">
-        <v>0.181861</v>
+        <v>0.127621</v>
       </c>
       <c r="D28" t="n">
-        <v>0.13537</v>
+        <v>0.174656</v>
       </c>
       <c r="E28" t="n">
-        <v>0.125105</v>
+        <v>0.132562</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.126808</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4717,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.138795</v>
+        <v>0.134666</v>
       </c>
       <c r="C29" t="n">
-        <v>0.182165</v>
+        <v>0.13194</v>
       </c>
       <c r="D29" t="n">
-        <v>0.141062</v>
+        <v>0.179045</v>
       </c>
       <c r="E29" t="n">
-        <v>0.125155</v>
+        <v>0.138538</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.125041</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4737,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.137169</v>
+        <v>0.134018</v>
       </c>
       <c r="C30" t="n">
-        <v>0.182888</v>
+        <v>0.127738</v>
       </c>
       <c r="D30" t="n">
-        <v>0.141735</v>
+        <v>0.1871</v>
       </c>
       <c r="E30" t="n">
-        <v>0.124655</v>
+        <v>0.136833</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.12416</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4757,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.137023</v>
+        <v>0.141841</v>
       </c>
       <c r="C31" t="n">
-        <v>0.187252</v>
+        <v>0.130627</v>
       </c>
       <c r="D31" t="n">
-        <v>0.142169</v>
+        <v>0.187739</v>
       </c>
       <c r="E31" t="n">
-        <v>0.131204</v>
+        <v>0.134725</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.124812</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4777,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.139954</v>
+        <v>0.134983</v>
       </c>
       <c r="C32" t="n">
-        <v>0.198411</v>
+        <v>0.12819</v>
       </c>
       <c r="D32" t="n">
-        <v>0.140333</v>
+        <v>0.190905</v>
       </c>
       <c r="E32" t="n">
-        <v>0.127215</v>
+        <v>0.136954</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.125375</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4797,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136243</v>
+        <v>0.135849</v>
       </c>
       <c r="C33" t="n">
-        <v>0.197839</v>
+        <v>0.131957</v>
       </c>
       <c r="D33" t="n">
-        <v>0.138809</v>
+        <v>0.194018</v>
       </c>
       <c r="E33" t="n">
-        <v>0.12878</v>
+        <v>0.137242</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.128966</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4817,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.142263</v>
+        <v>0.138452</v>
       </c>
       <c r="C34" t="n">
-        <v>0.213999</v>
+        <v>0.128677</v>
       </c>
       <c r="D34" t="n">
-        <v>0.141591</v>
+        <v>0.20693</v>
       </c>
       <c r="E34" t="n">
-        <v>0.131084</v>
+        <v>0.141021</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.129927</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4837,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.13678</v>
+        <v>0.140446</v>
       </c>
       <c r="C35" t="n">
-        <v>0.166198</v>
+        <v>0.13062</v>
       </c>
       <c r="D35" t="n">
-        <v>0.143898</v>
+        <v>0.165706</v>
       </c>
       <c r="E35" t="n">
-        <v>0.133199</v>
+        <v>0.144623</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.133128</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4857,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.138143</v>
+        <v>0.144324</v>
       </c>
       <c r="C36" t="n">
-        <v>0.177848</v>
+        <v>0.13129</v>
       </c>
       <c r="D36" t="n">
-        <v>0.149968</v>
+        <v>0.169903</v>
       </c>
       <c r="E36" t="n">
-        <v>0.145051</v>
+        <v>0.150939</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.136384</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4877,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.142467</v>
+        <v>0.148401</v>
       </c>
       <c r="C37" t="n">
-        <v>0.174056</v>
+        <v>0.132722</v>
       </c>
       <c r="D37" t="n">
-        <v>0.143667</v>
+        <v>0.173465</v>
       </c>
       <c r="E37" t="n">
-        <v>0.130424</v>
+        <v>0.138173</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.128633</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4897,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.158451</v>
+        <v>0.156073</v>
       </c>
       <c r="C38" t="n">
-        <v>0.182554</v>
+        <v>0.14965</v>
       </c>
       <c r="D38" t="n">
-        <v>0.144914</v>
+        <v>0.177779</v>
       </c>
       <c r="E38" t="n">
-        <v>0.135423</v>
+        <v>0.138935</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.131747</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4917,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.162261</v>
+        <v>0.160021</v>
       </c>
       <c r="C39" t="n">
-        <v>0.182948</v>
+        <v>0.143751</v>
       </c>
       <c r="D39" t="n">
-        <v>0.14006</v>
+        <v>0.179831</v>
       </c>
       <c r="E39" t="n">
-        <v>0.133885</v>
+        <v>0.142665</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.129865</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4937,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.16267</v>
+        <v>0.157995</v>
       </c>
       <c r="C40" t="n">
-        <v>0.188753</v>
+        <v>0.143077</v>
       </c>
       <c r="D40" t="n">
-        <v>0.141933</v>
+        <v>0.189861</v>
       </c>
       <c r="E40" t="n">
-        <v>0.139659</v>
+        <v>0.140057</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.130802</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4957,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.166482</v>
+        <v>0.157802</v>
       </c>
       <c r="C41" t="n">
-        <v>0.196719</v>
+        <v>0.142223</v>
       </c>
       <c r="D41" t="n">
-        <v>0.143401</v>
+        <v>0.199476</v>
       </c>
       <c r="E41" t="n">
-        <v>0.132538</v>
+        <v>0.141399</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.1311</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4977,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.161493</v>
+        <v>0.160486</v>
       </c>
       <c r="C42" t="n">
-        <v>0.197859</v>
+        <v>0.146825</v>
       </c>
       <c r="D42" t="n">
-        <v>0.140674</v>
+        <v>0.202411</v>
       </c>
       <c r="E42" t="n">
-        <v>0.13991</v>
+        <v>0.139851</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.139428</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4997,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.164569</v>
+        <v>0.15951</v>
       </c>
       <c r="C43" t="n">
-        <v>0.20752</v>
+        <v>0.141624</v>
       </c>
       <c r="D43" t="n">
-        <v>0.148976</v>
+        <v>0.202956</v>
       </c>
       <c r="E43" t="n">
-        <v>0.135719</v>
+        <v>0.141056</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.132795</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +5017,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.165491</v>
+        <v>0.166844</v>
       </c>
       <c r="C44" t="n">
-        <v>0.20927</v>
+        <v>0.144975</v>
       </c>
       <c r="D44" t="n">
-        <v>0.146437</v>
+        <v>0.212567</v>
       </c>
       <c r="E44" t="n">
-        <v>0.13468</v>
+        <v>0.141001</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.135932</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +5037,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.157195</v>
+        <v>0.159255</v>
       </c>
       <c r="C45" t="n">
-        <v>0.216956</v>
+        <v>0.145072</v>
       </c>
       <c r="D45" t="n">
-        <v>0.145455</v>
+        <v>0.216478</v>
       </c>
       <c r="E45" t="n">
-        <v>0.135867</v>
+        <v>0.143454</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.134527</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +5057,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.158719</v>
+        <v>0.159279</v>
       </c>
       <c r="C46" t="n">
-        <v>0.222053</v>
+        <v>0.147838</v>
       </c>
       <c r="D46" t="n">
-        <v>0.149562</v>
+        <v>0.22064</v>
       </c>
       <c r="E46" t="n">
-        <v>0.139848</v>
+        <v>0.142501</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.138352</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +5077,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.161409</v>
+        <v>0.164125</v>
       </c>
       <c r="C47" t="n">
-        <v>0.228343</v>
+        <v>0.147994</v>
       </c>
       <c r="D47" t="n">
-        <v>0.147126</v>
+        <v>0.229398</v>
       </c>
       <c r="E47" t="n">
-        <v>0.143916</v>
+        <v>0.145046</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.137763</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +5097,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.162149</v>
+        <v>0.159671</v>
       </c>
       <c r="C48" t="n">
-        <v>0.241967</v>
+        <v>0.145632</v>
       </c>
       <c r="D48" t="n">
-        <v>0.149726</v>
+        <v>0.235371</v>
       </c>
       <c r="E48" t="n">
-        <v>0.141557</v>
+        <v>0.155112</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.143243</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +5117,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.159259</v>
+        <v>0.166332</v>
       </c>
       <c r="C49" t="n">
-        <v>0.239462</v>
+        <v>0.151754</v>
       </c>
       <c r="D49" t="n">
-        <v>0.152915</v>
+        <v>0.244987</v>
       </c>
       <c r="E49" t="n">
-        <v>0.146407</v>
+        <v>0.15014</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.144311</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +5137,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.166541</v>
+        <v>0.161727</v>
       </c>
       <c r="C50" t="n">
-        <v>0.199177</v>
+        <v>0.159889</v>
       </c>
       <c r="D50" t="n">
-        <v>0.155507</v>
+        <v>0.196651</v>
       </c>
       <c r="E50" t="n">
-        <v>0.158658</v>
+        <v>0.161316</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.147323</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5157,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.165044</v>
+        <v>0.163398</v>
       </c>
       <c r="C51" t="n">
-        <v>0.202363</v>
+        <v>0.157177</v>
       </c>
       <c r="D51" t="n">
-        <v>0.213565</v>
+        <v>0.204307</v>
       </c>
       <c r="E51" t="n">
-        <v>0.142766</v>
+        <v>0.204023</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.140237</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5177,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.17165</v>
+        <v>0.168864</v>
       </c>
       <c r="C52" t="n">
-        <v>0.207377</v>
+        <v>0.159969</v>
       </c>
       <c r="D52" t="n">
-        <v>0.208846</v>
+        <v>0.207118</v>
       </c>
       <c r="E52" t="n">
-        <v>0.142199</v>
+        <v>0.204348</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.144996</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5197,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.247319</v>
+        <v>0.254344</v>
       </c>
       <c r="C53" t="n">
-        <v>0.220092</v>
+        <v>0.164067</v>
       </c>
       <c r="D53" t="n">
-        <v>0.211604</v>
+        <v>0.222206</v>
       </c>
       <c r="E53" t="n">
-        <v>0.146757</v>
+        <v>0.206831</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.146398</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5217,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.252235</v>
+        <v>0.243395</v>
       </c>
       <c r="C54" t="n">
-        <v>0.221327</v>
+        <v>0.162068</v>
       </c>
       <c r="D54" t="n">
-        <v>0.206114</v>
+        <v>0.219592</v>
       </c>
       <c r="E54" t="n">
-        <v>0.147836</v>
+        <v>0.228517</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.143835</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5237,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.247752</v>
+        <v>0.250981</v>
       </c>
       <c r="C55" t="n">
-        <v>0.229457</v>
+        <v>0.166115</v>
       </c>
       <c r="D55" t="n">
-        <v>0.20738</v>
+        <v>0.225691</v>
       </c>
       <c r="E55" t="n">
-        <v>0.149164</v>
+        <v>0.203889</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.149108</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5257,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.253235</v>
+        <v>0.251162</v>
       </c>
       <c r="C56" t="n">
-        <v>0.243525</v>
+        <v>0.168451</v>
       </c>
       <c r="D56" t="n">
-        <v>0.208299</v>
+        <v>0.230889</v>
       </c>
       <c r="E56" t="n">
-        <v>0.155821</v>
+        <v>0.205749</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.156722</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5277,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.24467</v>
+        <v>0.241041</v>
       </c>
       <c r="C57" t="n">
-        <v>0.242642</v>
+        <v>0.165183</v>
       </c>
       <c r="D57" t="n">
-        <v>0.210037</v>
+        <v>0.241026</v>
       </c>
       <c r="E57" t="n">
-        <v>0.158104</v>
+        <v>0.20986</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.156347</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5297,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.263249</v>
+        <v>0.251651</v>
       </c>
       <c r="C58" t="n">
-        <v>0.250722</v>
+        <v>0.17877</v>
       </c>
       <c r="D58" t="n">
-        <v>0.210228</v>
+        <v>0.251292</v>
       </c>
       <c r="E58" t="n">
-        <v>0.171437</v>
+        <v>0.215765</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.150944</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5317,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.245804</v>
+        <v>0.243392</v>
       </c>
       <c r="C59" t="n">
-        <v>0.256203</v>
+        <v>0.169751</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212351</v>
+        <v>0.266917</v>
       </c>
       <c r="E59" t="n">
-        <v>0.160348</v>
+        <v>0.217329</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.158384</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5337,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.246544</v>
+        <v>0.253174</v>
       </c>
       <c r="C60" t="n">
-        <v>0.270761</v>
+        <v>0.184693</v>
       </c>
       <c r="D60" t="n">
-        <v>0.215759</v>
+        <v>0.288407</v>
       </c>
       <c r="E60" t="n">
-        <v>0.163474</v>
+        <v>0.210252</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.164751</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5357,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.246468</v>
+        <v>0.253911</v>
       </c>
       <c r="C61" t="n">
-        <v>0.279184</v>
+        <v>0.180245</v>
       </c>
       <c r="D61" t="n">
-        <v>0.215971</v>
+        <v>0.28082</v>
       </c>
       <c r="E61" t="n">
-        <v>0.162448</v>
+        <v>0.224839</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.162754</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5377,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.245786</v>
+        <v>0.246892</v>
       </c>
       <c r="C62" t="n">
-        <v>0.304894</v>
+        <v>0.17697</v>
       </c>
       <c r="D62" t="n">
-        <v>0.229254</v>
+        <v>0.28862</v>
       </c>
       <c r="E62" t="n">
-        <v>0.182338</v>
+        <v>0.220191</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.166863</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5397,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.256784</v>
+        <v>0.247496</v>
       </c>
       <c r="C63" t="n">
-        <v>0.298392</v>
+        <v>0.186693</v>
       </c>
       <c r="D63" t="n">
-        <v>0.223492</v>
+        <v>0.30348</v>
       </c>
       <c r="E63" t="n">
-        <v>0.173649</v>
+        <v>0.226563</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.177594</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5417,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.249414</v>
+        <v>0.255858</v>
       </c>
       <c r="C64" t="n">
-        <v>0.271765</v>
+        <v>0.190286</v>
       </c>
       <c r="D64" t="n">
-        <v>0.223127</v>
+        <v>0.275544</v>
       </c>
       <c r="E64" t="n">
-        <v>0.178243</v>
+        <v>0.220066</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.182254</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5437,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.269051</v>
+        <v>0.260748</v>
       </c>
       <c r="C65" t="n">
-        <v>0.279098</v>
+        <v>0.195427</v>
       </c>
       <c r="D65" t="n">
-        <v>0.23257</v>
+        <v>0.279677</v>
       </c>
       <c r="E65" t="n">
-        <v>0.186495</v>
+        <v>0.229094</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.195234</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5457,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.254656</v>
+        <v>0.263071</v>
       </c>
       <c r="C66" t="n">
-        <v>0.288386</v>
+        <v>0.197938</v>
       </c>
       <c r="D66" t="n">
-        <v>0.28591</v>
+        <v>0.289656</v>
       </c>
       <c r="E66" t="n">
-        <v>0.210492</v>
+        <v>0.286407</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.210187</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5477,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.37991</v>
+        <v>0.367509</v>
       </c>
       <c r="C67" t="n">
-        <v>0.305019</v>
+        <v>0.247364</v>
       </c>
       <c r="D67" t="n">
-        <v>0.288936</v>
+        <v>0.298972</v>
       </c>
       <c r="E67" t="n">
-        <v>0.211969</v>
+        <v>0.286396</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.211335</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5497,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.40921</v>
+        <v>0.380026</v>
       </c>
       <c r="C68" t="n">
-        <v>0.336926</v>
+        <v>0.251024</v>
       </c>
       <c r="D68" t="n">
-        <v>0.291669</v>
+        <v>0.324223</v>
       </c>
       <c r="E68" t="n">
-        <v>0.218113</v>
+        <v>0.294774</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.213582</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5517,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.379066</v>
+        <v>0.395938</v>
       </c>
       <c r="C69" t="n">
-        <v>0.326735</v>
+        <v>0.254762</v>
       </c>
       <c r="D69" t="n">
-        <v>0.297757</v>
+        <v>0.317244</v>
       </c>
       <c r="E69" t="n">
-        <v>0.218616</v>
+        <v>0.301291</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.223982</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5537,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.371912</v>
+        <v>0.379782</v>
       </c>
       <c r="C70" t="n">
-        <v>0.332311</v>
+        <v>0.261845</v>
       </c>
       <c r="D70" t="n">
-        <v>0.295638</v>
+        <v>0.337379</v>
       </c>
       <c r="E70" t="n">
-        <v>0.224588</v>
+        <v>0.291814</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.236604</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5557,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.379143</v>
+        <v>0.374422</v>
       </c>
       <c r="C71" t="n">
-        <v>0.348668</v>
+        <v>0.263978</v>
       </c>
       <c r="D71" t="n">
-        <v>0.291454</v>
+        <v>0.345565</v>
       </c>
       <c r="E71" t="n">
-        <v>0.227371</v>
+        <v>0.300185</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.219705</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5577,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.382714</v>
+        <v>0.394307</v>
       </c>
       <c r="C72" t="n">
-        <v>0.368199</v>
+        <v>0.256814</v>
       </c>
       <c r="D72" t="n">
-        <v>0.307301</v>
+        <v>0.355858</v>
       </c>
       <c r="E72" t="n">
-        <v>0.222669</v>
+        <v>0.302825</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.232954</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5597,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.374721</v>
+        <v>0.383583</v>
       </c>
       <c r="C73" t="n">
-        <v>0.384321</v>
+        <v>0.260063</v>
       </c>
       <c r="D73" t="n">
-        <v>0.308345</v>
+        <v>0.376494</v>
       </c>
       <c r="E73" t="n">
-        <v>0.22735</v>
+        <v>0.305986</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.233952</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5617,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.379914</v>
+        <v>0.382573</v>
       </c>
       <c r="C74" t="n">
-        <v>0.398286</v>
+        <v>0.263962</v>
       </c>
       <c r="D74" t="n">
-        <v>0.315885</v>
+        <v>0.400582</v>
       </c>
       <c r="E74" t="n">
-        <v>0.231289</v>
+        <v>0.300082</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.230812</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5637,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.384389</v>
+        <v>0.374386</v>
       </c>
       <c r="C75" t="n">
-        <v>0.398659</v>
+        <v>0.268242</v>
       </c>
       <c r="D75" t="n">
-        <v>0.31153</v>
+        <v>0.399426</v>
       </c>
       <c r="E75" t="n">
-        <v>0.235178</v>
+        <v>0.300099</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.232245</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5657,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.386471</v>
+        <v>0.398469</v>
       </c>
       <c r="C76" t="n">
-        <v>0.41827</v>
+        <v>0.270574</v>
       </c>
       <c r="D76" t="n">
-        <v>0.307135</v>
+        <v>0.418575</v>
       </c>
       <c r="E76" t="n">
-        <v>0.241063</v>
+        <v>0.308875</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.238532</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5677,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.397838</v>
+        <v>0.406108</v>
       </c>
       <c r="C77" t="n">
-        <v>0.43637</v>
+        <v>0.28302</v>
       </c>
       <c r="D77" t="n">
-        <v>0.304825</v>
+        <v>0.431767</v>
       </c>
       <c r="E77" t="n">
-        <v>0.254865</v>
+        <v>0.306866</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.241897</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5697,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.397476</v>
+        <v>0.399988</v>
       </c>
       <c r="C78" t="n">
-        <v>0.413926</v>
+        <v>0.271787</v>
       </c>
       <c r="D78" t="n">
-        <v>0.322662</v>
+        <v>0.412387</v>
       </c>
       <c r="E78" t="n">
-        <v>0.264529</v>
+        <v>0.325589</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.258349</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5717,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.39995</v>
+        <v>0.400601</v>
       </c>
       <c r="C79" t="n">
-        <v>0.421853</v>
+        <v>0.278688</v>
       </c>
       <c r="D79" t="n">
-        <v>0.315856</v>
+        <v>0.417383</v>
       </c>
       <c r="E79" t="n">
-        <v>0.262511</v>
+        <v>0.306628</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.264192</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5737,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.398785</v>
+        <v>0.396557</v>
       </c>
       <c r="C80" t="n">
-        <v>0.438968</v>
+        <v>0.282099</v>
       </c>
       <c r="D80" t="n">
-        <v>0.430348</v>
+        <v>0.420808</v>
       </c>
       <c r="E80" t="n">
-        <v>0.356922</v>
+        <v>0.430857</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.338911</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5757,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5268699999999999</v>
+        <v>0.524401</v>
       </c>
       <c r="C81" t="n">
-        <v>0.442482</v>
+        <v>0.394022</v>
       </c>
       <c r="D81" t="n">
-        <v>0.424276</v>
+        <v>0.433975</v>
       </c>
       <c r="E81" t="n">
-        <v>0.350789</v>
+        <v>0.419716</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.341305</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5777,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.528173</v>
+        <v>0.532422</v>
       </c>
       <c r="C82" t="n">
-        <v>0.452026</v>
+        <v>0.428977</v>
       </c>
       <c r="D82" t="n">
-        <v>0.434332</v>
+        <v>0.446617</v>
       </c>
       <c r="E82" t="n">
-        <v>0.350966</v>
+        <v>0.428979</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.347002</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5797,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.531861</v>
+        <v>0.52494</v>
       </c>
       <c r="C83" t="n">
-        <v>0.456801</v>
+        <v>0.398383</v>
       </c>
       <c r="D83" t="n">
-        <v>0.445255</v>
+        <v>0.450767</v>
       </c>
       <c r="E83" t="n">
-        <v>0.349173</v>
+        <v>0.43278</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.371451</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5817,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.552773</v>
+        <v>0.528691</v>
       </c>
       <c r="C84" t="n">
-        <v>0.483522</v>
+        <v>0.403068</v>
       </c>
       <c r="D84" t="n">
-        <v>0.436789</v>
+        <v>0.46939</v>
       </c>
       <c r="E84" t="n">
-        <v>0.348894</v>
+        <v>0.431674</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.347621</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5837,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5314720000000001</v>
+        <v>0.538698</v>
       </c>
       <c r="C85" t="n">
-        <v>0.487072</v>
+        <v>0.420959</v>
       </c>
       <c r="D85" t="n">
-        <v>0.438046</v>
+        <v>0.481801</v>
       </c>
       <c r="E85" t="n">
-        <v>0.355363</v>
+        <v>0.4294</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.35071</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5857,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.555581</v>
+        <v>0.551354</v>
       </c>
       <c r="C86" t="n">
-        <v>0.511144</v>
+        <v>0.409362</v>
       </c>
       <c r="D86" t="n">
-        <v>0.432582</v>
+        <v>0.514987</v>
       </c>
       <c r="E86" t="n">
-        <v>0.348949</v>
+        <v>0.434869</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.371167</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5877,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.529799</v>
+        <v>0.540113</v>
       </c>
       <c r="C87" t="n">
-        <v>0.515645</v>
+        <v>0.411115</v>
       </c>
       <c r="D87" t="n">
-        <v>0.434274</v>
+        <v>0.518042</v>
       </c>
       <c r="E87" t="n">
-        <v>0.357375</v>
+        <v>0.438309</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.354709</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5897,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.542038</v>
+        <v>0.537697</v>
       </c>
       <c r="C88" t="n">
-        <v>0.542907</v>
+        <v>0.421547</v>
       </c>
       <c r="D88" t="n">
-        <v>0.447023</v>
+        <v>0.54788</v>
       </c>
       <c r="E88" t="n">
-        <v>0.358244</v>
+        <v>0.437594</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.36357</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5917,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5624130000000001</v>
+        <v>0.541611</v>
       </c>
       <c r="C89" t="n">
-        <v>0.545454</v>
+        <v>0.432488</v>
       </c>
       <c r="D89" t="n">
-        <v>0.439071</v>
+        <v>0.551659</v>
       </c>
       <c r="E89" t="n">
-        <v>0.37482</v>
+        <v>0.442157</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.378357</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5937,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.541706</v>
+        <v>0.53799</v>
       </c>
       <c r="C90" t="n">
-        <v>0.560256</v>
+        <v>0.413477</v>
       </c>
       <c r="D90" t="n">
-        <v>0.444238</v>
+        <v>0.558162</v>
       </c>
       <c r="E90" t="n">
-        <v>0.368628</v>
+        <v>0.448558</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.364564</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5957,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.557041</v>
+        <v>0.54806</v>
       </c>
       <c r="C91" t="n">
-        <v>0.602055</v>
+        <v>0.4249</v>
       </c>
       <c r="D91" t="n">
-        <v>0.445159</v>
+        <v>0.583324</v>
       </c>
       <c r="E91" t="n">
-        <v>0.37024</v>
+        <v>0.439936</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.370263</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5977,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.55277</v>
+        <v>0.540057</v>
       </c>
       <c r="C92" t="n">
-        <v>0.535341</v>
+        <v>0.428191</v>
       </c>
       <c r="D92" t="n">
-        <v>0.450028</v>
+        <v>0.547058</v>
       </c>
       <c r="E92" t="n">
-        <v>0.373541</v>
+        <v>0.443805</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.373997</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5997,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.545501</v>
+        <v>0.5884470000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>0.540243</v>
+        <v>0.423925</v>
       </c>
       <c r="D93" t="n">
-        <v>0.450721</v>
+        <v>0.580967</v>
       </c>
       <c r="E93" t="n">
-        <v>0.388173</v>
+        <v>0.457499</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.404852</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +6017,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.549363</v>
+        <v>0.54963</v>
       </c>
       <c r="C94" t="n">
-        <v>0.572966</v>
+        <v>0.437367</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5172</v>
+        <v>0.5567879999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>0.517672</v>
+        <v>0.512614</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.516791</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +6037,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.626529</v>
+        <v>0.630709</v>
       </c>
       <c r="C95" t="n">
-        <v>0.573222</v>
+        <v>0.591908</v>
       </c>
       <c r="D95" t="n">
-        <v>0.527003</v>
+        <v>0.566373</v>
       </c>
       <c r="E95" t="n">
-        <v>0.5109860000000001</v>
+        <v>0.552583</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.519916</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +6057,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.614854</v>
+        <v>0.631672</v>
       </c>
       <c r="C96" t="n">
-        <v>0.583627</v>
+        <v>0.595981</v>
       </c>
       <c r="D96" t="n">
-        <v>0.513994</v>
+        <v>0.593125</v>
       </c>
       <c r="E96" t="n">
-        <v>0.528328</v>
+        <v>0.513643</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.5258350000000001</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +6077,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.640588</v>
+        <v>0.6598579999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.592521</v>
+        <v>0.598639</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5087930000000001</v>
+        <v>0.600057</v>
       </c>
       <c r="E97" t="n">
-        <v>0.541191</v>
+        <v>0.542994</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.5272289999999999</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +6097,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.614514</v>
+        <v>0.632699</v>
       </c>
       <c r="C98" t="n">
-        <v>0.6038829999999999</v>
+        <v>0.607998</v>
       </c>
       <c r="D98" t="n">
-        <v>0.519226</v>
+        <v>0.60583</v>
       </c>
       <c r="E98" t="n">
-        <v>0.519913</v>
+        <v>0.532712</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.5190979999999999</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +6117,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.61528</v>
+        <v>0.645012</v>
       </c>
       <c r="C99" t="n">
-        <v>0.626547</v>
+        <v>0.6119019999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.524135</v>
+        <v>0.617636</v>
       </c>
       <c r="E99" t="n">
-        <v>0.526977</v>
+        <v>0.521081</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.519351</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +6137,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.614505</v>
+        <v>0.618903</v>
       </c>
       <c r="C100" t="n">
-        <v>0.662454</v>
+        <v>0.627884</v>
       </c>
       <c r="D100" t="n">
-        <v>0.538367</v>
+        <v>0.640271</v>
       </c>
       <c r="E100" t="n">
-        <v>0.543283</v>
+        <v>0.56569</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.526415</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +6157,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.633554</v>
+        <v>0.628212</v>
       </c>
       <c r="C101" t="n">
-        <v>0.673086</v>
+        <v>0.598422</v>
       </c>
       <c r="D101" t="n">
-        <v>0.536783</v>
+        <v>0.669661</v>
       </c>
       <c r="E101" t="n">
-        <v>0.524178</v>
+        <v>0.548886</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.530861</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +6177,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.620624</v>
+        <v>0.636076</v>
       </c>
       <c r="C102" t="n">
-        <v>0.676184</v>
+        <v>0.612607</v>
       </c>
       <c r="D102" t="n">
-        <v>0.530245</v>
+        <v>0.698586</v>
       </c>
       <c r="E102" t="n">
-        <v>0.532531</v>
+        <v>0.543165</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.542705</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +6197,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.62292</v>
+        <v>0.625834</v>
       </c>
       <c r="C103" t="n">
-        <v>0.70156</v>
+        <v>0.630446</v>
       </c>
       <c r="D103" t="n">
-        <v>0.521371</v>
+        <v>0.697875</v>
       </c>
       <c r="E103" t="n">
-        <v>0.535278</v>
+        <v>0.5441589999999999</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.5648840000000001</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +6217,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.623126</v>
+        <v>0.626057</v>
       </c>
       <c r="C104" t="n">
-        <v>0.7018</v>
+        <v>0.610706</v>
       </c>
       <c r="D104" t="n">
-        <v>0.532287</v>
+        <v>0.714472</v>
       </c>
       <c r="E104" t="n">
-        <v>0.53544</v>
+        <v>0.549963</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.53717</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +6237,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.620509</v>
+        <v>0.656132</v>
       </c>
       <c r="C105" t="n">
-        <v>0.713226</v>
+        <v>0.6405729999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.549476</v>
+        <v>0.710052</v>
       </c>
       <c r="E105" t="n">
-        <v>0.540185</v>
+        <v>0.5455680000000001</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.549176</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +6257,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.621223</v>
+        <v>0.646798</v>
       </c>
       <c r="C106" t="n">
-        <v>0.726434</v>
+        <v>0.648702</v>
       </c>
       <c r="D106" t="n">
-        <v>0.528207</v>
+        <v>0.74265</v>
       </c>
       <c r="E106" t="n">
-        <v>0.555088</v>
+        <v>0.5264760000000001</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.555913</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +6277,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.675657</v>
+        <v>0.619425</v>
       </c>
       <c r="C107" t="n">
-        <v>0.66156</v>
+        <v>0.630892</v>
       </c>
       <c r="D107" t="n">
-        <v>0.562277</v>
+        <v>0.651753</v>
       </c>
       <c r="E107" t="n">
-        <v>0.5782310000000001</v>
+        <v>0.544696</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.553296</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +6297,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.63104</v>
+        <v>0.630906</v>
       </c>
       <c r="C108" t="n">
-        <v>0.660428</v>
+        <v>0.6383760000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>0.614413</v>
+        <v>0.664035</v>
       </c>
       <c r="E108" t="n">
-        <v>0.624834</v>
+        <v>0.611496</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.627938</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +6317,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.635686</v>
+        <v>0.642141</v>
       </c>
       <c r="C109" t="n">
-        <v>0.669185</v>
+        <v>0.661847</v>
       </c>
       <c r="D109" t="n">
-        <v>0.62276</v>
+        <v>0.6718499999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>0.658307</v>
+        <v>0.61086</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.6407350000000001</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6337,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.748349</v>
+        <v>0.760858</v>
       </c>
       <c r="C110" t="n">
-        <v>0.701555</v>
+        <v>0.75267</v>
       </c>
       <c r="D110" t="n">
-        <v>0.60133</v>
+        <v>0.69088</v>
       </c>
       <c r="E110" t="n">
-        <v>0.622932</v>
+        <v>0.615879</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.63598</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6357,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.765536</v>
+        <v>0.767551</v>
       </c>
       <c r="C111" t="n">
-        <v>0.705036</v>
+        <v>0.763429</v>
       </c>
       <c r="D111" t="n">
-        <v>0.605591</v>
+        <v>0.705325</v>
       </c>
       <c r="E111" t="n">
-        <v>0.63452</v>
+        <v>0.614181</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.633234</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6377,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.767699</v>
+        <v>0.758815</v>
       </c>
       <c r="C112" t="n">
-        <v>0.736908</v>
+        <v>0.744665</v>
       </c>
       <c r="D112" t="n">
-        <v>0.605567</v>
+        <v>0.717551</v>
       </c>
       <c r="E112" t="n">
-        <v>0.635441</v>
+        <v>0.600575</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.629378</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6397,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.768711</v>
+        <v>0.775189</v>
       </c>
       <c r="C113" t="n">
-        <v>0.731758</v>
+        <v>0.7429480000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6183689999999999</v>
+        <v>0.7327</v>
       </c>
       <c r="E113" t="n">
-        <v>0.640803</v>
+        <v>0.615785</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.6449820000000001</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6417,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.759799</v>
+        <v>0.780568</v>
       </c>
       <c r="C114" t="n">
-        <v>0.746005</v>
+        <v>0.7575730000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.60749</v>
+        <v>0.768523</v>
       </c>
       <c r="E114" t="n">
-        <v>0.638018</v>
+        <v>0.601058</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.639671</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6437,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.759991</v>
+        <v>0.767752</v>
       </c>
       <c r="C115" t="n">
-        <v>0.789273</v>
+        <v>0.75113</v>
       </c>
       <c r="D115" t="n">
-        <v>0.606344</v>
+        <v>0.765705</v>
       </c>
       <c r="E115" t="n">
-        <v>0.650479</v>
+        <v>0.6252180000000001</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.668475</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6457,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.782162</v>
+        <v>0.772477</v>
       </c>
       <c r="C116" t="n">
-        <v>0.800545</v>
+        <v>0.792315</v>
       </c>
       <c r="D116" t="n">
-        <v>0.619912</v>
+        <v>0.808746</v>
       </c>
       <c r="E116" t="n">
-        <v>0.663942</v>
+        <v>0.610422</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.659258</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6477,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.76537</v>
+        <v>0.790952</v>
       </c>
       <c r="C117" t="n">
-        <v>0.79099</v>
+        <v>0.759166</v>
       </c>
       <c r="D117" t="n">
-        <v>0.613329</v>
+        <v>0.788869</v>
       </c>
       <c r="E117" t="n">
-        <v>0.655542</v>
+        <v>0.635789</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.662727</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6497,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.769342</v>
+        <v>0.756285</v>
       </c>
       <c r="C118" t="n">
-        <v>0.821784</v>
+        <v>0.7625690000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.621281</v>
+        <v>0.800154</v>
       </c>
       <c r="E118" t="n">
-        <v>0.670469</v>
+        <v>0.6287469999999999</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.665679</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6517,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.75147</v>
+        <v>0.755539</v>
       </c>
       <c r="C119" t="n">
-        <v>0.822086</v>
+        <v>0.770722</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6156700000000001</v>
+        <v>0.867792</v>
       </c>
       <c r="E119" t="n">
-        <v>0.664487</v>
+        <v>0.629049</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.665624</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6537,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.749688</v>
+        <v>0.779992</v>
       </c>
       <c r="C120" t="n">
-        <v>0.834351</v>
+        <v>0.765608</v>
       </c>
       <c r="D120" t="n">
-        <v>0.634951</v>
+        <v>0.843291</v>
       </c>
       <c r="E120" t="n">
-        <v>0.665528</v>
+        <v>0.642771</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.666315</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6557,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.754874</v>
+        <v>0.773291</v>
       </c>
       <c r="C121" t="n">
-        <v>0.776224</v>
+        <v>0.7561870000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>0.640202</v>
+        <v>0.75828</v>
       </c>
       <c r="E121" t="n">
-        <v>0.681545</v>
+        <v>0.6265540000000001</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.700693</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6577,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.78011</v>
+        <v>0.789492</v>
       </c>
       <c r="C122" t="n">
-        <v>0.746715</v>
+        <v>0.778362</v>
       </c>
       <c r="D122" t="n">
-        <v>0.658952</v>
+        <v>0.76611</v>
       </c>
       <c r="E122" t="n">
-        <v>0.693154</v>
+        <v>0.664446</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.701572</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6597,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.764477</v>
+        <v>0.779617</v>
       </c>
       <c r="C123" t="n">
-        <v>0.7765919999999999</v>
+        <v>0.81367</v>
       </c>
       <c r="D123" t="n">
-        <v>0.748356</v>
+        <v>0.774583</v>
       </c>
       <c r="E123" t="n">
-        <v>0.693412</v>
+        <v>0.719606</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.701836</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6617,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.984749</v>
+        <v>0.988139</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7911280000000001</v>
+        <v>0.88281</v>
       </c>
       <c r="D124" t="n">
-        <v>0.723867</v>
+        <v>0.802991</v>
       </c>
       <c r="E124" t="n">
-        <v>0.706505</v>
+        <v>0.721521</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.699833</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6637,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.985537</v>
+        <v>0.9806589999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>0.794732</v>
+        <v>0.875481</v>
       </c>
       <c r="D125" t="n">
-        <v>0.73475</v>
+        <v>0.808428</v>
       </c>
       <c r="E125" t="n">
-        <v>0.6973819999999999</v>
+        <v>0.740503</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.7144779999999999</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6657,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.963932</v>
+        <v>0.991276</v>
       </c>
       <c r="C126" t="n">
-        <v>0.802634</v>
+        <v>0.889228</v>
       </c>
       <c r="D126" t="n">
-        <v>0.74517</v>
+        <v>0.813203</v>
       </c>
       <c r="E126" t="n">
-        <v>0.723418</v>
+        <v>0.737365</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.719789</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6677,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.98053</v>
+        <v>0.988227</v>
       </c>
       <c r="C127" t="n">
-        <v>0.826912</v>
+        <v>0.889437</v>
       </c>
       <c r="D127" t="n">
-        <v>0.726927</v>
+        <v>0.807633</v>
       </c>
       <c r="E127" t="n">
-        <v>0.710124</v>
+        <v>0.751605</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.7351529999999999</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6697,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.976123</v>
+        <v>0.9818170000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>0.84463</v>
+        <v>0.891916</v>
       </c>
       <c r="D128" t="n">
-        <v>0.73187</v>
+        <v>0.855748</v>
       </c>
       <c r="E128" t="n">
-        <v>0.7132230000000001</v>
+        <v>0.728928</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.724823</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6717,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.994462</v>
+        <v>0.994439</v>
       </c>
       <c r="C129" t="n">
-        <v>0.856619</v>
+        <v>0.893964</v>
       </c>
       <c r="D129" t="n">
-        <v>0.736119</v>
+        <v>0.863672</v>
       </c>
       <c r="E129" t="n">
-        <v>0.71671</v>
+        <v>0.754949</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.721826</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6737,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.990086</v>
+        <v>0.9830950000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>0.886174</v>
+        <v>0.894973</v>
       </c>
       <c r="D130" t="n">
-        <v>0.725301</v>
+        <v>0.891095</v>
       </c>
       <c r="E130" t="n">
-        <v>0.725021</v>
+        <v>0.74058</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.732504</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6757,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.9722190000000001</v>
+        <v>0.97267</v>
       </c>
       <c r="C131" t="n">
-        <v>0.892155</v>
+        <v>0.89623</v>
       </c>
       <c r="D131" t="n">
-        <v>0.7383110000000001</v>
+        <v>0.879286</v>
       </c>
       <c r="E131" t="n">
-        <v>0.7420870000000001</v>
+        <v>0.727411</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.730399</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6777,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.00091</v>
+        <v>0.991101</v>
       </c>
       <c r="C132" t="n">
-        <v>0.9156339999999999</v>
+        <v>0.89303</v>
       </c>
       <c r="D132" t="n">
-        <v>0.741316</v>
+        <v>0.905461</v>
       </c>
       <c r="E132" t="n">
-        <v>0.7364810000000001</v>
+        <v>0.738103</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.736249</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6797,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.989134</v>
+        <v>1.00043</v>
       </c>
       <c r="C133" t="n">
-        <v>0.910156</v>
+        <v>0.9116610000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>0.74226</v>
+        <v>0.910394</v>
       </c>
       <c r="E133" t="n">
-        <v>0.737078</v>
+        <v>0.749824</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.743769</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6817,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.9776860000000001</v>
+        <v>0.997016</v>
       </c>
       <c r="C134" t="n">
-        <v>0.946195</v>
+        <v>0.940866</v>
       </c>
       <c r="D134" t="n">
-        <v>0.747547</v>
+        <v>0.936543</v>
       </c>
       <c r="E134" t="n">
-        <v>0.7453920000000001</v>
+        <v>0.745386</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.759705</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6837,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.988472</v>
+        <v>1.01396</v>
       </c>
       <c r="C135" t="n">
-        <v>0.839538</v>
+        <v>0.912113</v>
       </c>
       <c r="D135" t="n">
-        <v>0.746374</v>
+        <v>0.820678</v>
       </c>
       <c r="E135" t="n">
-        <v>0.772196</v>
+        <v>0.757208</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.76244</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6857,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.988016</v>
+        <v>0.992217</v>
       </c>
       <c r="C136" t="n">
-        <v>0.855529</v>
+        <v>0.927083</v>
       </c>
       <c r="D136" t="n">
-        <v>0.778298</v>
+        <v>0.8446</v>
       </c>
       <c r="E136" t="n">
-        <v>0.777749</v>
+        <v>0.790358</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.787477</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6877,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.01334</v>
+        <v>1.0436</v>
       </c>
       <c r="C137" t="n">
-        <v>0.87364</v>
+        <v>0.939599</v>
       </c>
       <c r="D137" t="n">
-        <v>0.902693</v>
+        <v>0.852115</v>
       </c>
       <c r="E137" t="n">
-        <v>0.7740669999999999</v>
+        <v>0.922737</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.778135</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6897,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.27151</v>
+        <v>1.27977</v>
       </c>
       <c r="C138" t="n">
-        <v>0.875598</v>
+        <v>1.03011</v>
       </c>
       <c r="D138" t="n">
-        <v>0.902153</v>
+        <v>0.863403</v>
       </c>
       <c r="E138" t="n">
-        <v>0.789598</v>
+        <v>0.93497</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.76636</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6917,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.25334</v>
+        <v>1.24923</v>
       </c>
       <c r="C139" t="n">
-        <v>0.882507</v>
+        <v>0.998623</v>
       </c>
       <c r="D139" t="n">
-        <v>0.920651</v>
+        <v>0.889282</v>
       </c>
       <c r="E139" t="n">
-        <v>0.773259</v>
+        <v>0.89358</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.79404</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6937,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.26496</v>
+        <v>1.23319</v>
       </c>
       <c r="C140" t="n">
-        <v>0.897746</v>
+        <v>0.989448</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9044180000000001</v>
+        <v>0.886989</v>
       </c>
       <c r="E140" t="n">
-        <v>0.805527</v>
+        <v>0.897555</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.767253</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6957,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.23729</v>
+        <v>1.24383</v>
       </c>
       <c r="C141" t="n">
-        <v>0.912597</v>
+        <v>0.98448</v>
       </c>
       <c r="D141" t="n">
-        <v>0.908173</v>
+        <v>0.907756</v>
       </c>
       <c r="E141" t="n">
-        <v>0.780455</v>
+        <v>0.911243</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.766755</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6977,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.24053</v>
+        <v>1.24709</v>
       </c>
       <c r="C142" t="n">
-        <v>0.944103</v>
+        <v>1.03089</v>
       </c>
       <c r="D142" t="n">
-        <v>0.912953</v>
+        <v>0.943049</v>
       </c>
       <c r="E142" t="n">
-        <v>0.793511</v>
+        <v>0.914232</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.823078</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6997,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.24623</v>
+        <v>1.23159</v>
       </c>
       <c r="C143" t="n">
-        <v>0.962406</v>
+        <v>1.02531</v>
       </c>
       <c r="D143" t="n">
-        <v>0.91187</v>
+        <v>0.952735</v>
       </c>
       <c r="E143" t="n">
-        <v>0.824072</v>
+        <v>0.901016</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.783758</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -560,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0194751</v>
+                  <v>0.0193848</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0195629</v>
+                  <v>0.0194619</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.019489</v>
+                  <v>0.0193778</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0195779</v>
+                  <v>0.0194707</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0196134</v>
+                  <v>0.0196489</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0197913</v>
+                  <v>0.0196529</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0199155</v>
+                  <v>0.0199483</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0201101</v>
+                  <v>0.0201947</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0196084</v>
+                  <v>0.0192209</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0195614</v>
+                  <v>0.019424</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0196347</v>
+                  <v>0.0197447</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0198925</v>
+                  <v>0.0197918</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0200039</v>
+                  <v>0.0198616</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201837</v>
+                  <v>0.0200231</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0200675</v>
+                  <v>0.0201789</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0201647</v>
+                  <v>0.0202069</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0202739</v>
+                  <v>0.0204096</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0202086</v>
+                  <v>0.0205851</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0205069</v>
+                  <v>0.0206359</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0207083</v>
+                  <v>0.0208679</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0211543</v>
+                  <v>0.0211078</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0230484</v>
+                  <v>0.0248881</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0206813</v>
+                  <v>0.0203805</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0207405</v>
+                  <v>0.0204958</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0207665</v>
+                  <v>0.0206497</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0209769</v>
+                  <v>0.0208718</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.021056</v>
+                  <v>0.0210186</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0212252</v>
+                  <v>0.0211438</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0213505</v>
+                  <v>0.0213385</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0215039</v>
+                  <v>0.021513</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0217981</v>
+                  <v>0.0220629</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0221214</v>
+                  <v>0.0221137</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.023275</v>
+                  <v>0.0228733</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0250124</v>
+                  <v>0.0243698</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0266118</v>
+                  <v>0.0271109</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0311996</v>
+                  <v>0.0312224</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0216211</v>
+                  <v>0.0214949</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0218931</v>
+                  <v>0.0218569</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0219329</v>
+                  <v>0.0217457</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0221215</v>
+                  <v>0.0220473</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0222904</v>
+                  <v>0.0222951</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0224773</v>
+                  <v>0.0224305</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0228221</v>
+                  <v>0.0226572</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0230365</v>
+                  <v>0.0229888</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0235124</v>
+                  <v>0.0234883</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.02408</v>
+                  <v>0.0238963</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.025044</v>
+                  <v>0.025005</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0279553</v>
+                  <v>0.0268192</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0304389</v>
+                  <v>0.029844</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0353825</v>
+                  <v>0.0336676</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0392081</v>
+                  <v>0.03842</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0230524</v>
+                  <v>0.0233104</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0234244</v>
+                  <v>0.023341</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0234108</v>
+                  <v>0.0237441</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0239286</v>
+                  <v>0.0239331</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0240818</v>
+                  <v>0.0241352</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.024439</v>
+                  <v>0.024359</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0247787</v>
+                  <v>0.0245657</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0252449</v>
+                  <v>0.0251086</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0265282</v>
+                  <v>0.0260587</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0274839</v>
+                  <v>0.0274484</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0294202</v>
+                  <v>0.0293528</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.032256</v>
+                  <v>0.0319897</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.035998</v>
+                  <v>0.0356338</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0410284</v>
+                  <v>0.0409657</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0292854</v>
+                  <v>0.0289145</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0293731</v>
+                  <v>0.0290849</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0295223</v>
+                  <v>0.0291312</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0297504</v>
+                  <v>0.0292314</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0300985</v>
+                  <v>0.0295317</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302054</v>
+                  <v>0.0298013</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030751</v>
+                  <v>0.0301607</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0311922</v>
+                  <v>0.030776</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0320559</v>
+                  <v>0.0317162</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0331467</v>
+                  <v>0.0328879</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0348991</v>
+                  <v>0.0346028</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0373412</v>
+                  <v>0.0370192</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0409062</v>
+                  <v>0.0402907</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0457293</v>
+                  <v>0.0451694</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0555257</v>
+                  <v>0.0547573</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0577904</v>
+                  <v>0.0555636</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.055792</v>
+                  <v>0.055387</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0560207</v>
+                  <v>0.0554725</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0561087</v>
+                  <v>0.0557169</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0563414</v>
+                  <v>0.0559509</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.056655</v>
+                  <v>0.0560586</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0571958</v>
+                  <v>0.0562625</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.057884</v>
+                  <v>0.0567185</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0582425</v>
+                  <v>0.0576972</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0592452</v>
+                  <v>0.0587159</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0608211</v>
+                  <v>0.060325</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0633513</v>
+                  <v>0.0629981</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.06725390000000001</v>
+                  <v>0.06682589999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0858208</v>
+                  <v>0.0858251</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.08577170000000001</v>
+                  <v>0.0857677</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08594590000000001</v>
+                  <v>0.085906</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08606900000000001</v>
+                  <v>0.0859969</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.08616749999999999</v>
+                  <v>0.086075</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.08662789999999999</v>
+                  <v>0.0861682</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0864133</v>
+                  <v>0.08647729999999999</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.088181</v>
+                  <v>0.0867111</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0871123</v>
+                  <v>0.08710229999999999</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0876926</v>
+                  <v>0.08776050000000001</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0885166</v>
+                  <v>0.08850959999999999</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0897474</v>
+                  <v>0.0897652</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.09172080000000001</v>
+                  <v>0.09188499999999999</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0949308</v>
+                  <v>0.0952229</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0997827</v>
+                  <v>0.100016</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.109009</v>
+                  <v>0.108131</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.108902</v>
+                  <v>0.108075</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.109017</v>
+                  <v>0.108184</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.109219</v>
+                  <v>0.10833</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.109295</v>
+                  <v>0.108539</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.109582</v>
+                  <v>0.108599</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.109729</v>
+                  <v>0.108799</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.110229</v>
+                  <v>0.109382</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.110875</v>
+                  <v>0.109872</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.111655</v>
+                  <v>0.121679</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.112821</v>
+                  <v>0.11203</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.114619</v>
+                  <v>0.113814</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.117464</v>
+                  <v>0.116862</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.122013</v>
+                  <v>0.121543</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.139209</v>
+                  <v>0.140062</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.139131</v>
+                  <v>0.140058</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.139496</v>
+                  <v>0.139603</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.139621</v>
+                  <v>0.139793</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.13995</v>
+                  <v>0.139755</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.14025</v>
+                  <v>0.139773</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.140479</v>
+                  <v>0.139973</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.142087</v>
+                  <v>0.140326</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.141701</v>
+                  <v>0.140658</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.142135</v>
+                  <v>0.140894</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.143369</v>
+                  <v>0.1421</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.14492</v>
+                  <v>0.143547</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.147621</v>
+                  <v>0.146307</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.151632</v>
+                  <v>0.150172</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.157728</v>
+                  <v>0.158166</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.157774</v>
+                  <v>0.158195</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.157822</v>
+                  <v>0.15855</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.158086</v>
+                  <v>0.158668</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158035</v>
+                  <v>0.159246</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.178791</v>
+                  <v>0.158584</v>
                 </pt>
               </numCache>
             </numRef>
@@ -999,7 +999,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_map</v>
+                  <v>absl::node_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1462,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0365145</v>
+                  <v>0.0175627</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0396988</v>
+                  <v>0.0175947</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0447642</v>
+                  <v>0.0176587</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0498033</v>
+                  <v>0.0177658</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0537687</v>
+                  <v>0.0179719</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0315887</v>
+                  <v>0.018025</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0336489</v>
+                  <v>0.0181412</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0356574</v>
+                  <v>0.0187716</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0376125</v>
+                  <v>0.0181729</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0405804</v>
+                  <v>0.0183363</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0447308</v>
+                  <v>0.018272</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.047286</v>
+                  <v>0.0186146</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0503759</v>
+                  <v>0.0185738</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0539423</v>
+                  <v>0.0189054</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0578276</v>
+                  <v>0.0189311</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0614582</v>
+                  <v>0.0193473</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0653006</v>
+                  <v>0.0191405</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0680994</v>
+                  <v>0.0193073</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0704849</v>
+                  <v>0.0193</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0446121</v>
+                  <v>0.0195934</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.047444</v>
+                  <v>0.0204342</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0493842</v>
+                  <v>0.0258092</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0514984</v>
+                  <v>0.0194516</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0543429</v>
+                  <v>0.0195151</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0563413</v>
+                  <v>0.019712</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0616033</v>
+                  <v>0.0198041</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0643247</v>
+                  <v>0.0200263</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0662176</v>
+                  <v>0.0201955</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0698588</v>
+                  <v>0.0204215</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.07215820000000001</v>
+                  <v>0.020546</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0748846</v>
+                  <v>0.0208661</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0769565</v>
+                  <v>0.0211468</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0791249</v>
+                  <v>0.0216524</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0519505</v>
+                  <v>0.0228986</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0537373</v>
+                  <v>0.0250296</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0560572</v>
+                  <v>0.0299358</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0580173</v>
+                  <v>0.0207518</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0596857</v>
+                  <v>0.0209239</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0624772</v>
+                  <v>0.0210062</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.06461600000000001</v>
+                  <v>0.0212501</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0672449</v>
+                  <v>0.0213877</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.06969930000000001</v>
+                  <v>0.0216913</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.07249079999999999</v>
+                  <v>0.0219272</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.07484499999999999</v>
+                  <v>0.022197</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0778189</v>
+                  <v>0.022681</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0800609</v>
+                  <v>0.0234421</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0823764</v>
+                  <v>0.0240753</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0844506</v>
+                  <v>0.0257732</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0578649</v>
+                  <v>0.0285813</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0591875</v>
+                  <v>0.0324607</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0615245</v>
+                  <v>0.0380034</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0639034</v>
+                  <v>0.0220148</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0656783</v>
+                  <v>0.0221262</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0679548</v>
+                  <v>0.0223024</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0705563</v>
+                  <v>0.022656</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0733139</v>
+                  <v>0.0228134</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0760695</v>
+                  <v>0.0231381</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.07903490000000001</v>
+                  <v>0.0235722</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.080972</v>
+                  <v>0.0241989</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.08393299999999999</v>
+                  <v>0.025026</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.08583780000000001</v>
+                  <v>0.0264049</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.08868760000000001</v>
+                  <v>0.0283304</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0634653</v>
+                  <v>0.0308026</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0660341</v>
+                  <v>0.0349232</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.068684</v>
+                  <v>0.0401922</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0716908</v>
+                  <v>0.0246507</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0754389</v>
+                  <v>0.0249507</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0780781</v>
+                  <v>0.0249084</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.08159859999999999</v>
+                  <v>0.025417</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0866746</v>
+                  <v>0.025691</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0889358</v>
+                  <v>0.0262707</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0945853</v>
+                  <v>0.0268015</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0982999</v>
+                  <v>0.0274789</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.102978</v>
+                  <v>0.0288561</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.106901</v>
+                  <v>0.030155</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.112317</v>
+                  <v>0.0326295</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.09733840000000001</v>
+                  <v>0.0355582</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.101335</v>
+                  <v>0.0387886</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.105975</v>
+                  <v>0.0442776</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.110132</v>
+                  <v>0.0354786</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.115172</v>
+                  <v>0.0356873</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.121209</v>
+                  <v>0.0359896</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.126205</v>
+                  <v>0.0361447</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.131141</v>
+                  <v>0.0365455</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.137704</v>
+                  <v>0.0370387</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.143051</v>
+                  <v>0.0374911</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.149748</v>
+                  <v>0.0382015</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.154568</v>
+                  <v>0.0393225</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.16029</v>
+                  <v>0.0405886</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.166513</v>
+                  <v>0.0425901</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.145912</v>
+                  <v>0.0454562</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.149301</v>
+                  <v>0.0496657</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.152309</v>
+                  <v>0.0553023</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.157221</v>
+                  <v>0.07135279999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.160664</v>
+                  <v>0.0716075</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.166029</v>
+                  <v>0.0718963</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.170781</v>
+                  <v>0.0721396</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.175608</v>
+                  <v>0.07288070000000001</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.181033</v>
+                  <v>0.07289329999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.186455</v>
+                  <v>0.073226</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.192398</v>
+                  <v>0.073786</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.199037</v>
+                  <v>0.0744944</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.203931</v>
+                  <v>0.07550759999999999</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.210695</v>
+                  <v>0.0775174</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.216678</v>
+                  <v>0.0796972</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.181859</v>
+                  <v>0.0833348</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.199868</v>
+                  <v>0.08797199999999999</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.193515</v>
+                  <v>0.0954035</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.192797</v>
+                  <v>0.0996648</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.196994</v>
+                  <v>0.0977754</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.201949</v>
+                  <v>0.0978999</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.206787</v>
+                  <v>0.0981046</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.212581</v>
+                  <v>0.0988192</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.217678</v>
+                  <v>0.0991438</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.223918</v>
+                  <v>0.102822</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.229518</v>
+                  <v>0.100287</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.23542</v>
+                  <v>0.101658</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.241207</v>
+                  <v>0.103364</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.247384</v>
+                  <v>0.105254</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.199268</v>
+                  <v>0.108244</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.202036</v>
+                  <v>0.11305</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.205435</v>
+                  <v>0.119961</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.209778</v>
+                  <v>0.13336</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.213788</v>
+                  <v>0.133718</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.218497</v>
+                  <v>0.133814</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.22327</v>
+                  <v>0.133896</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.228488</v>
+                  <v>0.134135</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.234375</v>
+                  <v>0.134577</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.240447</v>
+                  <v>0.135148</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.24599</v>
+                  <v>0.135817</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.251978</v>
+                  <v>0.136846</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.257944</v>
+                  <v>0.13806</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.268641</v>
+                  <v>0.139958</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.209616</v>
+                  <v>0.14262</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.212749</v>
+                  <v>0.146392</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.216194</v>
+                  <v>0.152046</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.220147</v>
+                  <v>0.152616</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.224171</v>
+                  <v>0.153035</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.229194</v>
+                  <v>0.153122</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.234298</v>
+                  <v>0.153483</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.239466</v>
+                  <v>0.153843</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.245367</v>
+                  <v>0.153735</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1901,7 +1901,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_flat_map</v>
+                  <v>boost::unordered_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2364,430 +2364,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0196261</v>
+                  <v>0.0349354</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0197912</v>
+                  <v>0.0372243</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0198901</v>
+                  <v>0.0433747</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0199582</v>
+                  <v>0.0462062</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0201314</v>
+                  <v>0.0510849</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0201829</v>
+                  <v>0.0306249</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0207955</v>
+                  <v>0.0325</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0194471</v>
+                  <v>0.0346322</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0195449</v>
+                  <v>0.0364502</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.019867</v>
+                  <v>0.0397791</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0201596</v>
+                  <v>0.0431275</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0201363</v>
+                  <v>0.0471309</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0205715</v>
+                  <v>0.0496454</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.021072</v>
+                  <v>0.0533765</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0210413</v>
+                  <v>0.0571097</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0212453</v>
+                  <v>0.0602121</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0213354</v>
+                  <v>0.0639561</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0214148</v>
+                  <v>0.0669614</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0218501</v>
+                  <v>0.070434</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0224228</v>
+                  <v>0.0451085</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0237556</v>
+                  <v>0.046578</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0210571</v>
+                  <v>0.0525073</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0212586</v>
+                  <v>0.0537413</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0214644</v>
+                  <v>0.056061</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0215637</v>
+                  <v>0.0582335</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.021764</v>
+                  <v>0.0604336</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0221105</v>
+                  <v>0.063626</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.022421</v>
+                  <v>0.06649049999999999</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0226251</v>
+                  <v>0.0688616</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0229748</v>
+                  <v>0.07168040000000001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.02343</v>
+                  <v>0.0746487</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0239333</v>
+                  <v>0.07752729999999999</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0247176</v>
+                  <v>0.07917970000000001</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0263657</v>
+                  <v>0.0529663</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0292434</v>
+                  <v>0.0547963</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0221968</v>
+                  <v>0.0564959</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0224122</v>
+                  <v>0.0580906</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0226233</v>
+                  <v>0.0601554</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0229104</v>
+                  <v>0.06259190000000001</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0231873</v>
+                  <v>0.0644839</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0235225</v>
+                  <v>0.0672614</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0245394</v>
+                  <v>0.06977800000000001</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0242028</v>
+                  <v>0.0726223</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0246188</v>
+                  <v>0.0752708</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0255792</v>
+                  <v>0.0774999</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0258658</v>
+                  <v>0.0799808</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0269256</v>
+                  <v>0.0821132</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.029475</v>
+                  <v>0.0838373</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0328029</v>
+                  <v>0.057428</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0229759</v>
+                  <v>0.0590788</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0231768</v>
+                  <v>0.0613427</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0234395</v>
+                  <v>0.06343699999999999</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.023729</v>
+                  <v>0.06561989999999999</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0240074</v>
+                  <v>0.0681055</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.024327</v>
+                  <v>0.070746</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0247229</v>
+                  <v>0.0727792</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.025276</v>
+                  <v>0.0757994</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0257848</v>
+                  <v>0.07800020000000001</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0264266</v>
+                  <v>0.08056480000000001</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0273739</v>
+                  <v>0.08313520000000001</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0289127</v>
+                  <v>0.0855432</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0313813</v>
+                  <v>0.0898707</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0347866</v>
+                  <v>0.0657703</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0405541</v>
+                  <v>0.06761300000000001</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0251501</v>
+                  <v>0.0706816</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0254762</v>
+                  <v>0.0736002</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0257275</v>
+                  <v>0.07693999999999999</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0260131</v>
+                  <v>0.0791196</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0263866</v>
+                  <v>0.0839456</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0261122</v>
+                  <v>0.0874417</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0272077</v>
+                  <v>0.0915048</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0281149</v>
+                  <v>0.0958411</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0283556</v>
+                  <v>0.100017</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0292696</v>
+                  <v>0.10394</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0306653</v>
+                  <v>0.107671</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0333493</v>
+                  <v>0.113168</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0363328</v>
+                  <v>0.0979264</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0412171</v>
+                  <v>0.101481</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0356659</v>
+                  <v>0.105553</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0363526</v>
+                  <v>0.11045</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0371667</v>
+                  <v>0.115302</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0379171</v>
+                  <v>0.120141</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0386585</v>
+                  <v>0.125522</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0393656</v>
+                  <v>0.130499</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0400877</v>
+                  <v>0.135999</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0412195</v>
+                  <v>0.141492</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0419461</v>
+                  <v>0.147983</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0430021</v>
+                  <v>0.153941</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0442752</v>
+                  <v>0.160131</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.046052</v>
+                  <v>0.165987</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0487434</v>
+                  <v>0.145305</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0533016</v>
+                  <v>0.149575</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0713101</v>
+                  <v>0.15412</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.07162789999999999</v>
+                  <v>0.156752</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0721873</v>
+                  <v>0.161486</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0726131</v>
+                  <v>0.165355</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0731451</v>
+                  <v>0.171084</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.073726</v>
+                  <v>0.175965</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0743772</v>
+                  <v>0.181715</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0751235</v>
+                  <v>0.18689</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0758935</v>
+                  <v>0.193063</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.07695730000000001</v>
+                  <v>0.198751</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.07818170000000001</v>
+                  <v>0.204087</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0798373</v>
+                  <v>0.211733</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08226</v>
+                  <v>0.21659</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0859181</v>
+                  <v>0.182251</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.08945119999999999</v>
+                  <v>0.185854</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0901479</v>
+                  <v>0.189322</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0909215</v>
+                  <v>0.193413</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0917118</v>
+                  <v>0.19773</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.09258719999999999</v>
+                  <v>0.202287</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.09357890000000001</v>
+                  <v>0.208167</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09464</v>
+                  <v>0.212927</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0957011</v>
+                  <v>0.218337</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0970447</v>
+                  <v>0.224385</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0984414</v>
+                  <v>0.230112</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.101572</v>
+                  <v>0.236296</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.102157</v>
+                  <v>0.242636</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.104633</v>
+                  <v>0.248114</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.108505</v>
+                  <v>0.200198</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.114455</v>
+                  <v>0.202936</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.107135</v>
+                  <v>0.206116</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.10814</v>
+                  <v>0.209939</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.109179</v>
+                  <v>0.214804</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.110339</v>
+                  <v>0.220161</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.111555</v>
+                  <v>0.223485</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.117399</v>
+                  <v>0.229261</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.11438</v>
+                  <v>0.235257</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.115714</v>
+                  <v>0.24097</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.117191</v>
+                  <v>0.246462</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.11914</v>
+                  <v>0.253085</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.121337</v>
+                  <v>0.258205</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.127893</v>
+                  <v>0.265025</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.128374</v>
+                  <v>0.210482</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.134621</v>
+                  <v>0.213193</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.118436</v>
+                  <v>0.219024</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.119542</v>
+                  <v>0.221271</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.120555</v>
+                  <v>0.22573</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.124935</v>
+                  <v>0.229762</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.12278</v>
+                  <v>0.23492</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.123993</v>
+                  <v>0.24055</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.125349</v>
+                  <v>0.245786</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2803,7 +2803,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_node_map</v>
+                  <v>boost::unordered_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3266,430 +3266,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0206785</v>
+                  <v>0.0197894</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0207813</v>
+                  <v>0.0201052</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0208833</v>
+                  <v>0.0201236</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0207783</v>
+                  <v>0.0200332</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0207749</v>
+                  <v>0.0203125</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.020897</v>
+                  <v>0.0206254</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0212215</v>
+                  <v>0.0213259</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0216661</v>
+                  <v>0.019472</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0216931</v>
+                  <v>0.0198448</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0219577</v>
+                  <v>0.019895</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0219969</v>
+                  <v>0.0201555</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0221826</v>
+                  <v>0.0202462</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0225411</v>
+                  <v>0.0204734</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0228079</v>
+                  <v>0.0207159</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0227173</v>
+                  <v>0.0208968</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0227772</v>
+                  <v>0.021277</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0230473</v>
+                  <v>0.0214165</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0229634</v>
+                  <v>0.0217844</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0230157</v>
+                  <v>0.0221565</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0234205</v>
+                  <v>0.0230293</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0244919</v>
+                  <v>0.02607</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.023336</v>
+                  <v>0.0209819</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0235586</v>
+                  <v>0.0211275</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0238225</v>
+                  <v>0.0213664</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0237382</v>
+                  <v>0.021552</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0238801</v>
+                  <v>0.0217889</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0241333</v>
+                  <v>0.022141</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0244564</v>
+                  <v>0.0224621</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0245499</v>
+                  <v>0.0227454</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0247842</v>
+                  <v>0.0230891</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0251216</v>
+                  <v>0.0235791</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0254613</v>
+                  <v>0.0243147</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0260233</v>
+                  <v>0.0254992</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0270699</v>
+                  <v>0.0276103</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0306774</v>
+                  <v>0.0319471</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0245451</v>
+                  <v>0.0222259</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0247372</v>
+                  <v>0.0224589</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.024937</v>
+                  <v>0.0225931</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0252111</v>
+                  <v>0.0229286</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0253094</v>
+                  <v>0.0231774</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0255793</v>
+                  <v>0.0240694</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0257865</v>
+                  <v>0.0239096</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0260194</v>
+                  <v>0.0242348</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.026382</v>
+                  <v>0.0247279</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0268562</v>
+                  <v>0.0255188</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0274538</v>
+                  <v>0.0264864</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0286629</v>
+                  <v>0.0279806</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.030666</v>
+                  <v>0.0306931</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0341753</v>
+                  <v>0.0341211</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0248564</v>
+                  <v>0.0229859</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0250656</v>
+                  <v>0.0231886</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0253725</v>
+                  <v>0.0234438</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0256172</v>
+                  <v>0.0237361</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.025785</v>
+                  <v>0.0240592</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0260479</v>
+                  <v>0.0243611</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0265271</v>
+                  <v>0.0247697</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0269807</v>
+                  <v>0.0252948</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0273609</v>
+                  <v>0.0259223</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0280786</v>
+                  <v>0.026794</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0290054</v>
+                  <v>0.027927</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0305336</v>
+                  <v>0.0297296</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0329544</v>
+                  <v>0.0320666</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0362898</v>
+                  <v>0.0355204</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0419218</v>
+                  <v>0.040984</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.026637</v>
+                  <v>0.0253889</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0267861</v>
+                  <v>0.0250649</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0277745</v>
+                  <v>0.0253452</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0273026</v>
+                  <v>0.0255558</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0277491</v>
+                  <v>0.0259444</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0281135</v>
+                  <v>0.0264835</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0285725</v>
+                  <v>0.0277257</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0291539</v>
+                  <v>0.0278552</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0301281</v>
+                  <v>0.0284422</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0315789</v>
+                  <v>0.0297968</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.032797</v>
+                  <v>0.0311555</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0350439</v>
+                  <v>0.033579</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0383708</v>
+                  <v>0.036514</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0434181</v>
+                  <v>0.041536</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0335094</v>
+                  <v>0.0361322</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.033843</v>
+                  <v>0.0366932</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0344867</v>
+                  <v>0.0376074</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0348016</v>
+                  <v>0.0384358</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0352056</v>
+                  <v>0.0391975</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0360305</v>
+                  <v>0.0400954</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0367309</v>
+                  <v>0.0407676</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0372919</v>
+                  <v>0.0415868</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0386863</v>
+                  <v>0.0424312</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0396944</v>
+                  <v>0.0440182</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0417616</v>
+                  <v>0.0448619</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0440648</v>
+                  <v>0.0466044</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0474931</v>
+                  <v>0.0522096</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.052939</v>
+                  <v>0.0533849</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.06786490000000001</v>
+                  <v>0.07120079999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.068254</v>
+                  <v>0.074347</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.06875249999999999</v>
+                  <v>0.0720843</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0691842</v>
+                  <v>0.0726903</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.06990540000000001</v>
+                  <v>0.0733799</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.07045410000000001</v>
+                  <v>0.0737217</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0711215</v>
+                  <v>0.0743284</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0718926</v>
+                  <v>0.07510169999999999</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0728032</v>
+                  <v>0.0759703</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.07412000000000001</v>
+                  <v>0.0768456</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.07561420000000001</v>
+                  <v>0.078163</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0777135</v>
+                  <v>0.08907039999999999</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08079749999999999</v>
+                  <v>0.0824233</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0859578</v>
+                  <v>0.0859721</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0926965</v>
+                  <v>0.0888313</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0931657</v>
+                  <v>0.0893418</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.09363</v>
+                  <v>0.09014900000000001</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0942807</v>
+                  <v>0.0909683</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0949342</v>
+                  <v>0.091824</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0956124</v>
+                  <v>0.0928055</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09643110000000001</v>
+                  <v>0.0937335</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0974578</v>
+                  <v>0.0949487</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.09865409999999999</v>
+                  <v>0.0960443</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.099985</v>
+                  <v>0.1104</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.101915</v>
+                  <v>0.0990668</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.10417</v>
+                  <v>0.101151</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.107355</v>
+                  <v>0.103725</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.111855</v>
+                  <v>0.107499</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.119295</v>
+                  <v>0.11348</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.111174</v>
+                  <v>0.107438</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.113436</v>
+                  <v>0.108556</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.112627</v>
+                  <v>0.109643</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.113487</v>
+                  <v>0.110714</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.114491</v>
+                  <v>0.111891</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.116157</v>
+                  <v>0.113163</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.116856</v>
+                  <v>0.114402</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.118562</v>
+                  <v>0.119551</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.120523</v>
+                  <v>0.117449</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.121962</v>
+                  <v>0.11945</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.124397</v>
+                  <v>0.121615</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.127842</v>
+                  <v>0.124506</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.14034</v>
+                  <v>0.128529</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.13989</v>
+                  <v>0.136396</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.123322</v>
+                  <v>0.118386</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.124097</v>
+                  <v>0.120885</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.124887</v>
+                  <v>0.121618</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.126237</v>
+                  <v>0.121781</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.12706</v>
+                  <v>0.123325</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.127951</v>
+                  <v>0.123784</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.129431</v>
+                  <v>0.125183</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>plot!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$F$2:$F$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.0207038</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.0209254</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0210935</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.0211706</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.0212118</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.0213994</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.0221416</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.0217383</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.021984</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.0219441</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.0222077</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.0225074</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.0225264</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.0227424</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.0228512</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.022922</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.0231906</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.0233755</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.0238266</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.0248271</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.0279618</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.0233915</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.0234442</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.0236222</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.0237763</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.0240463</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.0242566</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.0245442</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.0247829</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.0251674</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.0255784</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.0262318</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.0271806</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.0296471</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.0340328</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.0245842</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.0247098</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.0249816</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.0251795</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.0253233</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.0256274</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.0259189</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.0261494</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.026656</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.0272972</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.0281227</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.0297722</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.0320114</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.0359768</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.0249922</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.0251284</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.0254049</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.0255729</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.0259531</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.0261395</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.0265401</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.0270227</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.0276978</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.0284369</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.0295769</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.0313434</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.0337604</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.0372556</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.042835</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.0265858</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.0269848</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.0272039</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.0274478</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.0278812</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.0281991</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.0287265</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.0295737</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.0303666</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.0315994</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.0332608</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.0355532</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.038887</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.0440891</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.0335026</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.0336411</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.0340919</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.0347245</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.0350658</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.035695</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.036408</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.0372398</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.0382203</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.0395911</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.0413396</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.0440599</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.0478185</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.0531663</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.0674756</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.0678738</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.06835280000000001</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.0688624</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.07131179999999999</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.07247720000000001</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.0707691</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.0715047</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.0724716</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.07365339999999999</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.0752357</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.07733470000000001</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.0805929</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.08521570000000001</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.09318120000000001</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.0937201</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.0947561</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.0946718</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.0954238</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.0960589</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.09680229999999999</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.09780510000000001</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.0989189</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.100379</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.102046</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.104462</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.107403</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.123425</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.119466</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.111747</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.112366</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.113098</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.113718</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.114767</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.115834</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.117009</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.11837</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.120045</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.122017</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.124441</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.12801</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.132847</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.140151</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.123723</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.124728</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.125981</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.126212</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.127737</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.127931</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.129179</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3792,7 +4694,7 @@
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
           <w val="0.3308817338426756"/>
-          <h val="0.2472877044215627"/>
+          <h val="0.3091096305269533"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -4142,7 +5044,7 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4158,15 +5060,20 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>absl::node_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::unordered_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::unordered_flat_map</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>boost::unordered_node_map</t>
         </is>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.114596</v>
+        <v>0.112435</v>
       </c>
       <c r="C2" t="n">
-        <v>0.113674</v>
+        <v>0.103189</v>
       </c>
       <c r="D2" t="n">
-        <v>0.162574</v>
+        <v>0.152997</v>
       </c>
       <c r="E2" t="n">
-        <v>0.129229</v>
+        <v>0.123903</v>
       </c>
       <c r="F2" t="n">
-        <v>0.118967</v>
+        <v>0.115266</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.116016</v>
+        <v>0.113567</v>
       </c>
       <c r="C3" t="n">
-        <v>0.110025</v>
+        <v>0.103892</v>
       </c>
       <c r="D3" t="n">
-        <v>0.159359</v>
+        <v>0.158552</v>
       </c>
       <c r="E3" t="n">
-        <v>0.129917</v>
+        <v>0.125022</v>
       </c>
       <c r="F3" t="n">
-        <v>0.120785</v>
+        <v>0.115503</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.117269</v>
+        <v>0.111868</v>
       </c>
       <c r="C4" t="n">
-        <v>0.110851</v>
+        <v>0.104948</v>
       </c>
       <c r="D4" t="n">
-        <v>0.168612</v>
+        <v>0.160998</v>
       </c>
       <c r="E4" t="n">
-        <v>0.134889</v>
+        <v>0.124587</v>
       </c>
       <c r="F4" t="n">
-        <v>0.127728</v>
+        <v>0.116178</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.126243</v>
+        <v>0.113457</v>
       </c>
       <c r="C5" t="n">
-        <v>0.114271</v>
+        <v>0.104683</v>
       </c>
       <c r="D5" t="n">
-        <v>0.17502</v>
+        <v>0.163695</v>
       </c>
       <c r="E5" t="n">
-        <v>0.136232</v>
+        <v>0.125386</v>
       </c>
       <c r="F5" t="n">
-        <v>0.121541</v>
+        <v>0.117014</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.118261</v>
+        <v>0.113975</v>
       </c>
       <c r="C6" t="n">
-        <v>0.111113</v>
+        <v>0.105598</v>
       </c>
       <c r="D6" t="n">
-        <v>0.17678</v>
+        <v>0.173717</v>
       </c>
       <c r="E6" t="n">
-        <v>0.132629</v>
+        <v>0.126356</v>
       </c>
       <c r="F6" t="n">
-        <v>0.120999</v>
+        <v>0.120004</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.11824</v>
+        <v>0.118361</v>
       </c>
       <c r="C7" t="n">
-        <v>0.119217</v>
+        <v>0.106125</v>
       </c>
       <c r="D7" t="n">
-        <v>0.153334</v>
+        <v>0.144439</v>
       </c>
       <c r="E7" t="n">
-        <v>0.132613</v>
+        <v>0.128919</v>
       </c>
       <c r="F7" t="n">
-        <v>0.123233</v>
+        <v>0.123839</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.124414</v>
+        <v>0.114515</v>
       </c>
       <c r="C8" t="n">
-        <v>0.119463</v>
+        <v>0.107369</v>
       </c>
       <c r="D8" t="n">
-        <v>0.15298</v>
+        <v>0.146789</v>
       </c>
       <c r="E8" t="n">
-        <v>0.137829</v>
+        <v>0.138265</v>
       </c>
       <c r="F8" t="n">
-        <v>0.129819</v>
+        <v>0.123821</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.122333</v>
+        <v>0.116581</v>
       </c>
       <c r="C9" t="n">
-        <v>0.114353</v>
+        <v>0.108704</v>
       </c>
       <c r="D9" t="n">
-        <v>0.161813</v>
+        <v>0.148827</v>
       </c>
       <c r="E9" t="n">
-        <v>0.133131</v>
+        <v>0.127682</v>
       </c>
       <c r="F9" t="n">
-        <v>0.125134</v>
+        <v>0.116394</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.130725</v>
+        <v>0.123089</v>
       </c>
       <c r="C10" t="n">
-        <v>0.117131</v>
+        <v>0.110822</v>
       </c>
       <c r="D10" t="n">
-        <v>0.15891</v>
+        <v>0.151304</v>
       </c>
       <c r="E10" t="n">
-        <v>0.132415</v>
+        <v>0.126581</v>
       </c>
       <c r="F10" t="n">
-        <v>0.127239</v>
+        <v>0.116871</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.129146</v>
+        <v>0.126938</v>
       </c>
       <c r="C11" t="n">
-        <v>0.117325</v>
+        <v>0.116322</v>
       </c>
       <c r="D11" t="n">
-        <v>0.162218</v>
+        <v>0.154391</v>
       </c>
       <c r="E11" t="n">
-        <v>0.14003</v>
+        <v>0.12792</v>
       </c>
       <c r="F11" t="n">
-        <v>0.128078</v>
+        <v>0.117707</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.127436</v>
+        <v>0.127773</v>
       </c>
       <c r="C12" t="n">
-        <v>0.115558</v>
+        <v>0.112558</v>
       </c>
       <c r="D12" t="n">
-        <v>0.164478</v>
+        <v>0.158329</v>
       </c>
       <c r="E12" t="n">
-        <v>0.134691</v>
+        <v>0.127501</v>
       </c>
       <c r="F12" t="n">
-        <v>0.128093</v>
+        <v>0.117456</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.134983</v>
+        <v>0.122807</v>
       </c>
       <c r="C13" t="n">
-        <v>0.118654</v>
+        <v>0.111211</v>
       </c>
       <c r="D13" t="n">
-        <v>0.168222</v>
+        <v>0.16302</v>
       </c>
       <c r="E13" t="n">
-        <v>0.130069</v>
+        <v>0.127459</v>
       </c>
       <c r="F13" t="n">
-        <v>0.117456</v>
+        <v>0.117436</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.133015</v>
+        <v>0.122828</v>
       </c>
       <c r="C14" t="n">
-        <v>0.114584</v>
+        <v>0.110709</v>
       </c>
       <c r="D14" t="n">
-        <v>0.177728</v>
+        <v>0.164256</v>
       </c>
       <c r="E14" t="n">
-        <v>0.129062</v>
+        <v>0.127805</v>
       </c>
       <c r="F14" t="n">
-        <v>0.123</v>
+        <v>0.117784</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.127632</v>
+        <v>0.1271</v>
       </c>
       <c r="C15" t="n">
-        <v>0.115483</v>
+        <v>0.111291</v>
       </c>
       <c r="D15" t="n">
-        <v>0.169103</v>
+        <v>0.167933</v>
       </c>
       <c r="E15" t="n">
-        <v>0.128477</v>
+        <v>0.129393</v>
       </c>
       <c r="F15" t="n">
-        <v>0.11719</v>
+        <v>0.119747</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.126495</v>
+        <v>0.125814</v>
       </c>
       <c r="C16" t="n">
-        <v>0.113399</v>
+        <v>0.111573</v>
       </c>
       <c r="D16" t="n">
-        <v>0.18102</v>
+        <v>0.174071</v>
       </c>
       <c r="E16" t="n">
-        <v>0.129226</v>
+        <v>0.128705</v>
       </c>
       <c r="F16" t="n">
-        <v>0.116685</v>
+        <v>0.118917</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.124215</v>
+        <v>0.124172</v>
       </c>
       <c r="C17" t="n">
-        <v>0.115307</v>
+        <v>0.110992</v>
       </c>
       <c r="D17" t="n">
-        <v>0.180787</v>
+        <v>0.179482</v>
       </c>
       <c r="E17" t="n">
-        <v>0.135456</v>
+        <v>0.12951</v>
       </c>
       <c r="F17" t="n">
-        <v>0.119413</v>
+        <v>0.120363</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.131557</v>
+        <v>0.125104</v>
       </c>
       <c r="C18" t="n">
-        <v>0.11872</v>
+        <v>0.112933</v>
       </c>
       <c r="D18" t="n">
-        <v>0.183921</v>
+        <v>0.180981</v>
       </c>
       <c r="E18" t="n">
-        <v>0.130651</v>
+        <v>0.130044</v>
       </c>
       <c r="F18" t="n">
-        <v>0.124798</v>
+        <v>0.11994</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.126125</v>
+        <v>0.124982</v>
       </c>
       <c r="C19" t="n">
-        <v>0.116814</v>
+        <v>0.11354</v>
       </c>
       <c r="D19" t="n">
-        <v>0.186836</v>
+        <v>0.183262</v>
       </c>
       <c r="E19" t="n">
-        <v>0.130984</v>
+        <v>0.130592</v>
       </c>
       <c r="F19" t="n">
-        <v>0.123655</v>
+        <v>0.121268</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.128868</v>
+        <v>0.125521</v>
       </c>
       <c r="C20" t="n">
-        <v>0.117886</v>
+        <v>0.11492</v>
       </c>
       <c r="D20" t="n">
-        <v>0.187483</v>
+        <v>0.189408</v>
       </c>
       <c r="E20" t="n">
-        <v>0.13971</v>
+        <v>0.133069</v>
       </c>
       <c r="F20" t="n">
-        <v>0.123621</v>
+        <v>0.122439</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.127156</v>
+        <v>0.125405</v>
       </c>
       <c r="C21" t="n">
-        <v>0.117851</v>
+        <v>0.113388</v>
       </c>
       <c r="D21" t="n">
-        <v>0.153665</v>
+        <v>0.15297</v>
       </c>
       <c r="E21" t="n">
-        <v>0.137477</v>
+        <v>0.134518</v>
       </c>
       <c r="F21" t="n">
-        <v>0.124564</v>
+        <v>0.12463</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.131193</v>
+        <v>0.127025</v>
       </c>
       <c r="C22" t="n">
-        <v>0.122218</v>
+        <v>0.118229</v>
       </c>
       <c r="D22" t="n">
-        <v>0.154326</v>
+        <v>0.155493</v>
       </c>
       <c r="E22" t="n">
-        <v>0.143022</v>
+        <v>0.138191</v>
       </c>
       <c r="F22" t="n">
-        <v>0.126421</v>
+        <v>0.128585</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.131664</v>
+        <v>0.135274</v>
       </c>
       <c r="C23" t="n">
-        <v>0.119248</v>
+        <v>0.118378</v>
       </c>
       <c r="D23" t="n">
-        <v>0.156077</v>
+        <v>0.160238</v>
       </c>
       <c r="E23" t="n">
-        <v>0.132233</v>
+        <v>0.132705</v>
       </c>
       <c r="F23" t="n">
-        <v>0.126255</v>
+        <v>0.123812</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133749</v>
+        <v>0.135155</v>
       </c>
       <c r="C24" t="n">
-        <v>0.129137</v>
+        <v>0.126712</v>
       </c>
       <c r="D24" t="n">
-        <v>0.160233</v>
+        <v>0.168072</v>
       </c>
       <c r="E24" t="n">
-        <v>0.133947</v>
+        <v>0.134215</v>
       </c>
       <c r="F24" t="n">
-        <v>0.12168</v>
+        <v>0.123727</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.136862</v>
+        <v>0.134418</v>
       </c>
       <c r="C25" t="n">
-        <v>0.131126</v>
+        <v>0.124972</v>
       </c>
       <c r="D25" t="n">
-        <v>0.170592</v>
+        <v>0.163602</v>
       </c>
       <c r="E25" t="n">
-        <v>0.136738</v>
+        <v>0.132626</v>
       </c>
       <c r="F25" t="n">
-        <v>0.120769</v>
+        <v>0.122534</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.141038</v>
+        <v>0.13471</v>
       </c>
       <c r="C26" t="n">
-        <v>0.126645</v>
+        <v>0.125815</v>
       </c>
       <c r="D26" t="n">
-        <v>0.167245</v>
+        <v>0.167325</v>
       </c>
       <c r="E26" t="n">
-        <v>0.133076</v>
+        <v>0.132621</v>
       </c>
       <c r="F26" t="n">
-        <v>0.125226</v>
+        <v>0.12334</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.132661</v>
+        <v>0.134448</v>
       </c>
       <c r="C27" t="n">
-        <v>0.132693</v>
+        <v>0.125117</v>
       </c>
       <c r="D27" t="n">
-        <v>0.175962</v>
+        <v>0.170696</v>
       </c>
       <c r="E27" t="n">
-        <v>0.133716</v>
+        <v>0.133359</v>
       </c>
       <c r="F27" t="n">
-        <v>0.123924</v>
+        <v>0.12423</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.136656</v>
+        <v>0.132932</v>
       </c>
       <c r="C28" t="n">
-        <v>0.127621</v>
+        <v>0.12823</v>
       </c>
       <c r="D28" t="n">
-        <v>0.174656</v>
+        <v>0.174813</v>
       </c>
       <c r="E28" t="n">
-        <v>0.132562</v>
+        <v>0.133441</v>
       </c>
       <c r="F28" t="n">
-        <v>0.126808</v>
+        <v>0.123926</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134666</v>
+        <v>0.137911</v>
       </c>
       <c r="C29" t="n">
-        <v>0.13194</v>
+        <v>0.131158</v>
       </c>
       <c r="D29" t="n">
-        <v>0.179045</v>
+        <v>0.178512</v>
       </c>
       <c r="E29" t="n">
-        <v>0.138538</v>
+        <v>0.144907</v>
       </c>
       <c r="F29" t="n">
-        <v>0.125041</v>
+        <v>0.125339</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.134018</v>
+        <v>0.133922</v>
       </c>
       <c r="C30" t="n">
-        <v>0.127738</v>
+        <v>0.127464</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1871</v>
+        <v>0.184219</v>
       </c>
       <c r="E30" t="n">
-        <v>0.136833</v>
+        <v>0.135398</v>
       </c>
       <c r="F30" t="n">
-        <v>0.12416</v>
+        <v>0.124478</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.141841</v>
+        <v>0.135148</v>
       </c>
       <c r="C31" t="n">
-        <v>0.130627</v>
+        <v>0.131593</v>
       </c>
       <c r="D31" t="n">
-        <v>0.187739</v>
+        <v>0.188581</v>
       </c>
       <c r="E31" t="n">
-        <v>0.134725</v>
+        <v>0.135179</v>
       </c>
       <c r="F31" t="n">
-        <v>0.124812</v>
+        <v>0.126003</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.134983</v>
+        <v>0.134364</v>
       </c>
       <c r="C32" t="n">
-        <v>0.12819</v>
+        <v>0.131107</v>
       </c>
       <c r="D32" t="n">
-        <v>0.190905</v>
+        <v>0.189863</v>
       </c>
       <c r="E32" t="n">
-        <v>0.136954</v>
+        <v>0.136229</v>
       </c>
       <c r="F32" t="n">
-        <v>0.125375</v>
+        <v>0.127325</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.135849</v>
+        <v>0.134411</v>
       </c>
       <c r="C33" t="n">
-        <v>0.131957</v>
+        <v>0.126269</v>
       </c>
       <c r="D33" t="n">
-        <v>0.194018</v>
+        <v>0.199769</v>
       </c>
       <c r="E33" t="n">
-        <v>0.137242</v>
+        <v>0.142435</v>
       </c>
       <c r="F33" t="n">
-        <v>0.128966</v>
+        <v>0.12948</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138452</v>
+        <v>0.136009</v>
       </c>
       <c r="C34" t="n">
-        <v>0.128677</v>
+        <v>0.128076</v>
       </c>
       <c r="D34" t="n">
-        <v>0.20693</v>
+        <v>0.204114</v>
       </c>
       <c r="E34" t="n">
-        <v>0.141021</v>
+        <v>0.142801</v>
       </c>
       <c r="F34" t="n">
-        <v>0.129927</v>
+        <v>0.131373</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.140446</v>
+        <v>0.137258</v>
       </c>
       <c r="C35" t="n">
-        <v>0.13062</v>
+        <v>0.134461</v>
       </c>
       <c r="D35" t="n">
-        <v>0.165706</v>
+        <v>0.167355</v>
       </c>
       <c r="E35" t="n">
-        <v>0.144623</v>
+        <v>0.144475</v>
       </c>
       <c r="F35" t="n">
-        <v>0.133128</v>
+        <v>0.134865</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.144324</v>
+        <v>0.141598</v>
       </c>
       <c r="C36" t="n">
-        <v>0.13129</v>
+        <v>0.133202</v>
       </c>
       <c r="D36" t="n">
-        <v>0.169903</v>
+        <v>0.172079</v>
       </c>
       <c r="E36" t="n">
-        <v>0.150939</v>
+        <v>0.14997</v>
       </c>
       <c r="F36" t="n">
-        <v>0.136384</v>
+        <v>0.140841</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.148401</v>
+        <v>0.142283</v>
       </c>
       <c r="C37" t="n">
-        <v>0.132722</v>
+        <v>0.135043</v>
       </c>
       <c r="D37" t="n">
-        <v>0.173465</v>
+        <v>0.177795</v>
       </c>
       <c r="E37" t="n">
-        <v>0.138173</v>
+        <v>0.142309</v>
       </c>
       <c r="F37" t="n">
-        <v>0.128633</v>
+        <v>0.132062</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.156073</v>
+        <v>0.166824</v>
       </c>
       <c r="C38" t="n">
-        <v>0.14965</v>
+        <v>0.141967</v>
       </c>
       <c r="D38" t="n">
-        <v>0.177779</v>
+        <v>0.179611</v>
       </c>
       <c r="E38" t="n">
-        <v>0.138935</v>
+        <v>0.149647</v>
       </c>
       <c r="F38" t="n">
-        <v>0.131747</v>
+        <v>0.131799</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.160021</v>
+        <v>0.164655</v>
       </c>
       <c r="C39" t="n">
-        <v>0.143751</v>
+        <v>0.141642</v>
       </c>
       <c r="D39" t="n">
-        <v>0.179831</v>
+        <v>0.183673</v>
       </c>
       <c r="E39" t="n">
-        <v>0.142665</v>
+        <v>0.149586</v>
       </c>
       <c r="F39" t="n">
-        <v>0.129865</v>
+        <v>0.132453</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.157995</v>
+        <v>0.167839</v>
       </c>
       <c r="C40" t="n">
-        <v>0.143077</v>
+        <v>0.141083</v>
       </c>
       <c r="D40" t="n">
-        <v>0.189861</v>
+        <v>0.187097</v>
       </c>
       <c r="E40" t="n">
-        <v>0.140057</v>
+        <v>0.143311</v>
       </c>
       <c r="F40" t="n">
-        <v>0.130802</v>
+        <v>0.132478</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.157802</v>
+        <v>0.165767</v>
       </c>
       <c r="C41" t="n">
-        <v>0.142223</v>
+        <v>0.143131</v>
       </c>
       <c r="D41" t="n">
-        <v>0.199476</v>
+        <v>0.194852</v>
       </c>
       <c r="E41" t="n">
-        <v>0.141399</v>
+        <v>0.142475</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1311</v>
+        <v>0.132604</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.160486</v>
+        <v>0.165877</v>
       </c>
       <c r="C42" t="n">
-        <v>0.146825</v>
+        <v>0.143202</v>
       </c>
       <c r="D42" t="n">
-        <v>0.202411</v>
+        <v>0.197424</v>
       </c>
       <c r="E42" t="n">
-        <v>0.139851</v>
+        <v>0.141926</v>
       </c>
       <c r="F42" t="n">
-        <v>0.139428</v>
+        <v>0.133327</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.15951</v>
+        <v>0.167615</v>
       </c>
       <c r="C43" t="n">
-        <v>0.141624</v>
+        <v>0.147396</v>
       </c>
       <c r="D43" t="n">
-        <v>0.202956</v>
+        <v>0.208777</v>
       </c>
       <c r="E43" t="n">
-        <v>0.141056</v>
+        <v>0.145301</v>
       </c>
       <c r="F43" t="n">
-        <v>0.132795</v>
+        <v>0.13541</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.166844</v>
+        <v>0.168163</v>
       </c>
       <c r="C44" t="n">
-        <v>0.144975</v>
+        <v>0.144011</v>
       </c>
       <c r="D44" t="n">
-        <v>0.212567</v>
+        <v>0.211259</v>
       </c>
       <c r="E44" t="n">
-        <v>0.141001</v>
+        <v>0.143271</v>
       </c>
       <c r="F44" t="n">
-        <v>0.135932</v>
+        <v>0.135629</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.159255</v>
+        <v>0.171062</v>
       </c>
       <c r="C45" t="n">
-        <v>0.145072</v>
+        <v>0.145508</v>
       </c>
       <c r="D45" t="n">
-        <v>0.216478</v>
+        <v>0.217713</v>
       </c>
       <c r="E45" t="n">
-        <v>0.143454</v>
+        <v>0.145065</v>
       </c>
       <c r="F45" t="n">
-        <v>0.134527</v>
+        <v>0.136569</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.159279</v>
+        <v>0.165435</v>
       </c>
       <c r="C46" t="n">
-        <v>0.147838</v>
+        <v>0.143756</v>
       </c>
       <c r="D46" t="n">
-        <v>0.22064</v>
+        <v>0.224125</v>
       </c>
       <c r="E46" t="n">
-        <v>0.142501</v>
+        <v>0.144855</v>
       </c>
       <c r="F46" t="n">
-        <v>0.138352</v>
+        <v>0.137266</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.164125</v>
+        <v>0.166521</v>
       </c>
       <c r="C47" t="n">
-        <v>0.147994</v>
+        <v>0.145745</v>
       </c>
       <c r="D47" t="n">
-        <v>0.229398</v>
+        <v>0.228783</v>
       </c>
       <c r="E47" t="n">
-        <v>0.145046</v>
+        <v>0.147068</v>
       </c>
       <c r="F47" t="n">
-        <v>0.137763</v>
+        <v>0.143618</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.159671</v>
+        <v>0.173068</v>
       </c>
       <c r="C48" t="n">
-        <v>0.145632</v>
+        <v>0.157047</v>
       </c>
       <c r="D48" t="n">
-        <v>0.235371</v>
+        <v>0.234407</v>
       </c>
       <c r="E48" t="n">
-        <v>0.155112</v>
+        <v>0.148675</v>
       </c>
       <c r="F48" t="n">
-        <v>0.143243</v>
+        <v>0.142819</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.166332</v>
+        <v>0.171278</v>
       </c>
       <c r="C49" t="n">
-        <v>0.151754</v>
+        <v>0.151037</v>
       </c>
       <c r="D49" t="n">
-        <v>0.244987</v>
+        <v>0.23996</v>
       </c>
       <c r="E49" t="n">
-        <v>0.15014</v>
+        <v>0.15225</v>
       </c>
       <c r="F49" t="n">
-        <v>0.144311</v>
+        <v>0.146759</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.161727</v>
+        <v>0.172422</v>
       </c>
       <c r="C50" t="n">
-        <v>0.159889</v>
+        <v>0.15309</v>
       </c>
       <c r="D50" t="n">
-        <v>0.196651</v>
+        <v>0.20384</v>
       </c>
       <c r="E50" t="n">
-        <v>0.161316</v>
+        <v>0.1573</v>
       </c>
       <c r="F50" t="n">
-        <v>0.147323</v>
+        <v>0.156549</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.163398</v>
+        <v>0.173433</v>
       </c>
       <c r="C51" t="n">
-        <v>0.157177</v>
+        <v>0.154191</v>
       </c>
       <c r="D51" t="n">
-        <v>0.204307</v>
+        <v>0.202973</v>
       </c>
       <c r="E51" t="n">
-        <v>0.204023</v>
+        <v>0.249852</v>
       </c>
       <c r="F51" t="n">
-        <v>0.140237</v>
+        <v>0.149069</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.168864</v>
+        <v>0.178592</v>
       </c>
       <c r="C52" t="n">
-        <v>0.159969</v>
+        <v>0.158866</v>
       </c>
       <c r="D52" t="n">
-        <v>0.207118</v>
+        <v>0.209811</v>
       </c>
       <c r="E52" t="n">
-        <v>0.204348</v>
+        <v>0.251895</v>
       </c>
       <c r="F52" t="n">
-        <v>0.144996</v>
+        <v>0.144125</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.254344</v>
+        <v>0.337731</v>
       </c>
       <c r="C53" t="n">
-        <v>0.164067</v>
+        <v>0.164386</v>
       </c>
       <c r="D53" t="n">
-        <v>0.222206</v>
+        <v>0.217625</v>
       </c>
       <c r="E53" t="n">
-        <v>0.206831</v>
+        <v>0.25525</v>
       </c>
       <c r="F53" t="n">
-        <v>0.146398</v>
+        <v>0.147107</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.243395</v>
+        <v>0.340229</v>
       </c>
       <c r="C54" t="n">
-        <v>0.162068</v>
+        <v>0.163995</v>
       </c>
       <c r="D54" t="n">
-        <v>0.219592</v>
+        <v>0.220855</v>
       </c>
       <c r="E54" t="n">
-        <v>0.228517</v>
+        <v>0.252967</v>
       </c>
       <c r="F54" t="n">
-        <v>0.143835</v>
+        <v>0.148731</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.250981</v>
+        <v>0.353998</v>
       </c>
       <c r="C55" t="n">
-        <v>0.166115</v>
+        <v>0.171596</v>
       </c>
       <c r="D55" t="n">
-        <v>0.225691</v>
+        <v>0.229383</v>
       </c>
       <c r="E55" t="n">
-        <v>0.203889</v>
+        <v>0.250491</v>
       </c>
       <c r="F55" t="n">
-        <v>0.149108</v>
+        <v>0.146834</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.251162</v>
+        <v>0.348382</v>
       </c>
       <c r="C56" t="n">
-        <v>0.168451</v>
+        <v>0.163404</v>
       </c>
       <c r="D56" t="n">
-        <v>0.230889</v>
+        <v>0.233811</v>
       </c>
       <c r="E56" t="n">
-        <v>0.205749</v>
+        <v>0.253494</v>
       </c>
       <c r="F56" t="n">
-        <v>0.156722</v>
+        <v>0.149049</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.241041</v>
+        <v>0.336676</v>
       </c>
       <c r="C57" t="n">
-        <v>0.165183</v>
+        <v>0.165588</v>
       </c>
       <c r="D57" t="n">
-        <v>0.241026</v>
+        <v>0.241773</v>
       </c>
       <c r="E57" t="n">
-        <v>0.20986</v>
+        <v>0.252952</v>
       </c>
       <c r="F57" t="n">
-        <v>0.156347</v>
+        <v>0.151112</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.251651</v>
+        <v>0.333028</v>
       </c>
       <c r="C58" t="n">
-        <v>0.17877</v>
+        <v>0.164745</v>
       </c>
       <c r="D58" t="n">
-        <v>0.251292</v>
+        <v>0.250494</v>
       </c>
       <c r="E58" t="n">
-        <v>0.215765</v>
+        <v>0.253303</v>
       </c>
       <c r="F58" t="n">
-        <v>0.150944</v>
+        <v>0.151805</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.243392</v>
+        <v>0.332017</v>
       </c>
       <c r="C59" t="n">
-        <v>0.169751</v>
+        <v>0.171389</v>
       </c>
       <c r="D59" t="n">
-        <v>0.266917</v>
+        <v>0.258215</v>
       </c>
       <c r="E59" t="n">
-        <v>0.217329</v>
+        <v>0.252066</v>
       </c>
       <c r="F59" t="n">
-        <v>0.158384</v>
+        <v>0.15362</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.253174</v>
+        <v>0.336061</v>
       </c>
       <c r="C60" t="n">
-        <v>0.184693</v>
+        <v>0.17627</v>
       </c>
       <c r="D60" t="n">
-        <v>0.288407</v>
+        <v>0.266462</v>
       </c>
       <c r="E60" t="n">
-        <v>0.210252</v>
+        <v>0.255392</v>
       </c>
       <c r="F60" t="n">
-        <v>0.164751</v>
+        <v>0.160303</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.253911</v>
+        <v>0.33232</v>
       </c>
       <c r="C61" t="n">
-        <v>0.180245</v>
+        <v>0.172777</v>
       </c>
       <c r="D61" t="n">
-        <v>0.28082</v>
+        <v>0.274301</v>
       </c>
       <c r="E61" t="n">
-        <v>0.224839</v>
+        <v>0.257428</v>
       </c>
       <c r="F61" t="n">
-        <v>0.162754</v>
+        <v>0.158317</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.246892</v>
+        <v>0.328038</v>
       </c>
       <c r="C62" t="n">
-        <v>0.17697</v>
+        <v>0.174008</v>
       </c>
       <c r="D62" t="n">
-        <v>0.28862</v>
+        <v>0.282841</v>
       </c>
       <c r="E62" t="n">
-        <v>0.220191</v>
+        <v>0.257344</v>
       </c>
       <c r="F62" t="n">
-        <v>0.166863</v>
+        <v>0.169871</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.247496</v>
+        <v>0.330953</v>
       </c>
       <c r="C63" t="n">
-        <v>0.186693</v>
+        <v>0.17762</v>
       </c>
       <c r="D63" t="n">
-        <v>0.30348</v>
+        <v>0.293899</v>
       </c>
       <c r="E63" t="n">
-        <v>0.226563</v>
+        <v>0.255562</v>
       </c>
       <c r="F63" t="n">
-        <v>0.177594</v>
+        <v>0.169615</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.255858</v>
+        <v>0.333127</v>
       </c>
       <c r="C64" t="n">
-        <v>0.190286</v>
+        <v>0.181002</v>
       </c>
       <c r="D64" t="n">
-        <v>0.275544</v>
+        <v>0.266551</v>
       </c>
       <c r="E64" t="n">
-        <v>0.220066</v>
+        <v>0.263562</v>
       </c>
       <c r="F64" t="n">
-        <v>0.182254</v>
+        <v>0.185966</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.260748</v>
+        <v>0.338442</v>
       </c>
       <c r="C65" t="n">
-        <v>0.195427</v>
+        <v>0.189837</v>
       </c>
       <c r="D65" t="n">
-        <v>0.279677</v>
+        <v>0.28478</v>
       </c>
       <c r="E65" t="n">
-        <v>0.229094</v>
+        <v>0.27091</v>
       </c>
       <c r="F65" t="n">
-        <v>0.195234</v>
+        <v>0.189813</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.263071</v>
+        <v>0.350286</v>
       </c>
       <c r="C66" t="n">
-        <v>0.197938</v>
+        <v>0.202833</v>
       </c>
       <c r="D66" t="n">
-        <v>0.289656</v>
+        <v>0.286026</v>
       </c>
       <c r="E66" t="n">
-        <v>0.286407</v>
+        <v>0.376804</v>
       </c>
       <c r="F66" t="n">
-        <v>0.210187</v>
+        <v>0.239438</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.367509</v>
+        <v>0.552365</v>
       </c>
       <c r="C67" t="n">
-        <v>0.247364</v>
+        <v>0.248995</v>
       </c>
       <c r="D67" t="n">
-        <v>0.298972</v>
+        <v>0.301364</v>
       </c>
       <c r="E67" t="n">
-        <v>0.286396</v>
+        <v>0.384235</v>
       </c>
       <c r="F67" t="n">
-        <v>0.211335</v>
+        <v>0.2434</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.380026</v>
+        <v>0.544755</v>
       </c>
       <c r="C68" t="n">
-        <v>0.251024</v>
+        <v>0.248475</v>
       </c>
       <c r="D68" t="n">
-        <v>0.324223</v>
+        <v>0.309234</v>
       </c>
       <c r="E68" t="n">
-        <v>0.294774</v>
+        <v>0.389194</v>
       </c>
       <c r="F68" t="n">
-        <v>0.213582</v>
+        <v>0.242588</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.395938</v>
+        <v>0.543532</v>
       </c>
       <c r="C69" t="n">
-        <v>0.254762</v>
+        <v>0.254739</v>
       </c>
       <c r="D69" t="n">
-        <v>0.317244</v>
+        <v>0.318729</v>
       </c>
       <c r="E69" t="n">
-        <v>0.301291</v>
+        <v>0.390922</v>
       </c>
       <c r="F69" t="n">
-        <v>0.223982</v>
+        <v>0.251893</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.379782</v>
+        <v>0.555837</v>
       </c>
       <c r="C70" t="n">
-        <v>0.261845</v>
+        <v>0.250958</v>
       </c>
       <c r="D70" t="n">
-        <v>0.337379</v>
+        <v>0.32728</v>
       </c>
       <c r="E70" t="n">
-        <v>0.291814</v>
+        <v>0.390752</v>
       </c>
       <c r="F70" t="n">
-        <v>0.236604</v>
+        <v>0.252352</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.374422</v>
+        <v>0.552557</v>
       </c>
       <c r="C71" t="n">
-        <v>0.263978</v>
+        <v>0.251364</v>
       </c>
       <c r="D71" t="n">
-        <v>0.345565</v>
+        <v>0.340841</v>
       </c>
       <c r="E71" t="n">
-        <v>0.300185</v>
+        <v>0.400088</v>
       </c>
       <c r="F71" t="n">
-        <v>0.219705</v>
+        <v>0.275714</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.394307</v>
+        <v>0.550315</v>
       </c>
       <c r="C72" t="n">
-        <v>0.256814</v>
+        <v>0.255376</v>
       </c>
       <c r="D72" t="n">
-        <v>0.355858</v>
+        <v>0.358454</v>
       </c>
       <c r="E72" t="n">
-        <v>0.302825</v>
+        <v>0.391447</v>
       </c>
       <c r="F72" t="n">
-        <v>0.232954</v>
+        <v>0.254287</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.383583</v>
+        <v>0.55303</v>
       </c>
       <c r="C73" t="n">
-        <v>0.260063</v>
+        <v>0.257742</v>
       </c>
       <c r="D73" t="n">
-        <v>0.376494</v>
+        <v>0.365729</v>
       </c>
       <c r="E73" t="n">
-        <v>0.305986</v>
+        <v>0.392084</v>
       </c>
       <c r="F73" t="n">
-        <v>0.233952</v>
+        <v>0.260694</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.382573</v>
+        <v>0.564009</v>
       </c>
       <c r="C74" t="n">
-        <v>0.263962</v>
+        <v>0.260187</v>
       </c>
       <c r="D74" t="n">
-        <v>0.400582</v>
+        <v>0.402526</v>
       </c>
       <c r="E74" t="n">
-        <v>0.300082</v>
+        <v>0.398455</v>
       </c>
       <c r="F74" t="n">
-        <v>0.230812</v>
+        <v>0.26609</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.374386</v>
+        <v>0.554395</v>
       </c>
       <c r="C75" t="n">
-        <v>0.268242</v>
+        <v>0.260037</v>
       </c>
       <c r="D75" t="n">
-        <v>0.399426</v>
+        <v>0.397257</v>
       </c>
       <c r="E75" t="n">
-        <v>0.300099</v>
+        <v>0.40501</v>
       </c>
       <c r="F75" t="n">
-        <v>0.232245</v>
+        <v>0.263662</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.398469</v>
+        <v>0.557625</v>
       </c>
       <c r="C76" t="n">
-        <v>0.270574</v>
+        <v>0.270237</v>
       </c>
       <c r="D76" t="n">
-        <v>0.418575</v>
+        <v>0.426901</v>
       </c>
       <c r="E76" t="n">
-        <v>0.308875</v>
+        <v>0.413891</v>
       </c>
       <c r="F76" t="n">
-        <v>0.238532</v>
+        <v>0.272197</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.406108</v>
+        <v>0.589707</v>
       </c>
       <c r="C77" t="n">
-        <v>0.28302</v>
+        <v>0.265548</v>
       </c>
       <c r="D77" t="n">
-        <v>0.431767</v>
+        <v>0.426806</v>
       </c>
       <c r="E77" t="n">
-        <v>0.306866</v>
+        <v>0.41368</v>
       </c>
       <c r="F77" t="n">
-        <v>0.241897</v>
+        <v>0.275466</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.399988</v>
+        <v>0.570865</v>
       </c>
       <c r="C78" t="n">
-        <v>0.271787</v>
+        <v>0.270555</v>
       </c>
       <c r="D78" t="n">
-        <v>0.412387</v>
+        <v>0.400968</v>
       </c>
       <c r="E78" t="n">
-        <v>0.325589</v>
+        <v>0.404002</v>
       </c>
       <c r="F78" t="n">
-        <v>0.258349</v>
+        <v>0.27954</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.400601</v>
+        <v>0.587595</v>
       </c>
       <c r="C79" t="n">
-        <v>0.278688</v>
+        <v>0.274512</v>
       </c>
       <c r="D79" t="n">
-        <v>0.417383</v>
+        <v>0.413199</v>
       </c>
       <c r="E79" t="n">
-        <v>0.306628</v>
+        <v>0.423882</v>
       </c>
       <c r="F79" t="n">
-        <v>0.264192</v>
+        <v>0.291984</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.396557</v>
+        <v>0.602261</v>
       </c>
       <c r="C80" t="n">
-        <v>0.282099</v>
+        <v>0.282681</v>
       </c>
       <c r="D80" t="n">
-        <v>0.420808</v>
+        <v>0.422048</v>
       </c>
       <c r="E80" t="n">
-        <v>0.430857</v>
+        <v>0.655365</v>
       </c>
       <c r="F80" t="n">
-        <v>0.338911</v>
+        <v>0.508012</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.524401</v>
+        <v>0.845066</v>
       </c>
       <c r="C81" t="n">
-        <v>0.394022</v>
+        <v>0.405681</v>
       </c>
       <c r="D81" t="n">
-        <v>0.433975</v>
+        <v>0.471289</v>
       </c>
       <c r="E81" t="n">
-        <v>0.419716</v>
+        <v>0.662983</v>
       </c>
       <c r="F81" t="n">
-        <v>0.341305</v>
+        <v>0.492318</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.532422</v>
+        <v>0.874178</v>
       </c>
       <c r="C82" t="n">
-        <v>0.428977</v>
+        <v>0.440081</v>
       </c>
       <c r="D82" t="n">
-        <v>0.446617</v>
+        <v>0.450892</v>
       </c>
       <c r="E82" t="n">
-        <v>0.428979</v>
+        <v>0.675733</v>
       </c>
       <c r="F82" t="n">
-        <v>0.347002</v>
+        <v>0.515894</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.52494</v>
+        <v>0.842583</v>
       </c>
       <c r="C83" t="n">
-        <v>0.398383</v>
+        <v>0.398786</v>
       </c>
       <c r="D83" t="n">
-        <v>0.450767</v>
+        <v>0.452744</v>
       </c>
       <c r="E83" t="n">
-        <v>0.43278</v>
+        <v>0.692946</v>
       </c>
       <c r="F83" t="n">
-        <v>0.371451</v>
+        <v>0.484162</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.528691</v>
+        <v>0.854245</v>
       </c>
       <c r="C84" t="n">
-        <v>0.403068</v>
+        <v>0.395106</v>
       </c>
       <c r="D84" t="n">
-        <v>0.46939</v>
+        <v>0.471736</v>
       </c>
       <c r="E84" t="n">
-        <v>0.431674</v>
+        <v>0.683229</v>
       </c>
       <c r="F84" t="n">
-        <v>0.347621</v>
+        <v>0.485601</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.538698</v>
+        <v>0.871882</v>
       </c>
       <c r="C85" t="n">
-        <v>0.420959</v>
+        <v>0.444113</v>
       </c>
       <c r="D85" t="n">
-        <v>0.481801</v>
+        <v>0.476564</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4294</v>
+        <v>0.658466</v>
       </c>
       <c r="F85" t="n">
-        <v>0.35071</v>
+        <v>0.493459</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.551354</v>
+        <v>0.850007</v>
       </c>
       <c r="C86" t="n">
-        <v>0.409362</v>
+        <v>0.398996</v>
       </c>
       <c r="D86" t="n">
-        <v>0.514987</v>
+        <v>0.499719</v>
       </c>
       <c r="E86" t="n">
-        <v>0.434869</v>
+        <v>0.660677</v>
       </c>
       <c r="F86" t="n">
-        <v>0.371167</v>
+        <v>0.487628</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.540113</v>
+        <v>0.847575</v>
       </c>
       <c r="C87" t="n">
-        <v>0.411115</v>
+        <v>0.415543</v>
       </c>
       <c r="D87" t="n">
-        <v>0.518042</v>
+        <v>0.518961</v>
       </c>
       <c r="E87" t="n">
-        <v>0.438309</v>
+        <v>0.679782</v>
       </c>
       <c r="F87" t="n">
-        <v>0.354709</v>
+        <v>0.503647</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.537697</v>
+        <v>0.854924</v>
       </c>
       <c r="C88" t="n">
-        <v>0.421547</v>
+        <v>0.40762</v>
       </c>
       <c r="D88" t="n">
-        <v>0.54788</v>
+        <v>0.524097</v>
       </c>
       <c r="E88" t="n">
-        <v>0.437594</v>
+        <v>0.669735</v>
       </c>
       <c r="F88" t="n">
-        <v>0.36357</v>
+        <v>0.496883</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.541611</v>
+        <v>0.858411</v>
       </c>
       <c r="C89" t="n">
-        <v>0.432488</v>
+        <v>0.452216</v>
       </c>
       <c r="D89" t="n">
-        <v>0.551659</v>
+        <v>0.535236</v>
       </c>
       <c r="E89" t="n">
-        <v>0.442157</v>
+        <v>0.663111</v>
       </c>
       <c r="F89" t="n">
-        <v>0.378357</v>
+        <v>0.529605</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.53799</v>
+        <v>0.859451</v>
       </c>
       <c r="C90" t="n">
-        <v>0.413477</v>
+        <v>0.405974</v>
       </c>
       <c r="D90" t="n">
-        <v>0.558162</v>
+        <v>0.5508960000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>0.448558</v>
+        <v>0.691059</v>
       </c>
       <c r="F90" t="n">
-        <v>0.364564</v>
+        <v>0.536264</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.54806</v>
+        <v>0.853743</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4249</v>
+        <v>0.412021</v>
       </c>
       <c r="D91" t="n">
-        <v>0.583324</v>
+        <v>0.570393</v>
       </c>
       <c r="E91" t="n">
-        <v>0.439936</v>
+        <v>0.666596</v>
       </c>
       <c r="F91" t="n">
-        <v>0.370263</v>
+        <v>0.520258</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.540057</v>
+        <v>0.872241</v>
       </c>
       <c r="C92" t="n">
-        <v>0.428191</v>
+        <v>0.430905</v>
       </c>
       <c r="D92" t="n">
-        <v>0.547058</v>
+        <v>0.575648</v>
       </c>
       <c r="E92" t="n">
-        <v>0.443805</v>
+        <v>0.676609</v>
       </c>
       <c r="F92" t="n">
-        <v>0.373997</v>
+        <v>0.512648</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5884470000000001</v>
+        <v>0.856973</v>
       </c>
       <c r="C93" t="n">
-        <v>0.423925</v>
+        <v>0.450104</v>
       </c>
       <c r="D93" t="n">
-        <v>0.580967</v>
+        <v>0.549472</v>
       </c>
       <c r="E93" t="n">
-        <v>0.457499</v>
+        <v>0.671596</v>
       </c>
       <c r="F93" t="n">
-        <v>0.404852</v>
+        <v>0.520297</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.54963</v>
+        <v>0.853371</v>
       </c>
       <c r="C94" t="n">
-        <v>0.437367</v>
+        <v>0.429429</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5567879999999999</v>
+        <v>0.588625</v>
       </c>
       <c r="E94" t="n">
-        <v>0.512614</v>
+        <v>0.911485</v>
       </c>
       <c r="F94" t="n">
-        <v>0.516791</v>
+        <v>0.832131</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.630709</v>
+        <v>1.05655</v>
       </c>
       <c r="C95" t="n">
-        <v>0.591908</v>
+        <v>0.645622</v>
       </c>
       <c r="D95" t="n">
-        <v>0.566373</v>
+        <v>0.607899</v>
       </c>
       <c r="E95" t="n">
-        <v>0.552583</v>
+        <v>0.94407</v>
       </c>
       <c r="F95" t="n">
-        <v>0.519916</v>
+        <v>0.835694</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.631672</v>
+        <v>1.1075</v>
       </c>
       <c r="C96" t="n">
-        <v>0.595981</v>
+        <v>0.629256</v>
       </c>
       <c r="D96" t="n">
-        <v>0.593125</v>
+        <v>0.582786</v>
       </c>
       <c r="E96" t="n">
-        <v>0.513643</v>
+        <v>0.951744</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5258350000000001</v>
+        <v>0.893527</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6598579999999999</v>
+        <v>1.14666</v>
       </c>
       <c r="C97" t="n">
-        <v>0.598639</v>
+        <v>0.6435419999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.600057</v>
+        <v>0.605098</v>
       </c>
       <c r="E97" t="n">
-        <v>0.542994</v>
+        <v>0.9172360000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5272289999999999</v>
+        <v>0.830508</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.632699</v>
+        <v>1.06706</v>
       </c>
       <c r="C98" t="n">
-        <v>0.607998</v>
+        <v>0.600464</v>
       </c>
       <c r="D98" t="n">
-        <v>0.60583</v>
+        <v>0.62112</v>
       </c>
       <c r="E98" t="n">
-        <v>0.532712</v>
+        <v>0.917552</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5190979999999999</v>
+        <v>0.876385</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.645012</v>
+        <v>1.06694</v>
       </c>
       <c r="C99" t="n">
-        <v>0.6119019999999999</v>
+        <v>0.607716</v>
       </c>
       <c r="D99" t="n">
-        <v>0.617636</v>
+        <v>0.620053</v>
       </c>
       <c r="E99" t="n">
-        <v>0.521081</v>
+        <v>0.9577</v>
       </c>
       <c r="F99" t="n">
-        <v>0.519351</v>
+        <v>0.91465</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.618903</v>
+        <v>1.06299</v>
       </c>
       <c r="C100" t="n">
-        <v>0.627884</v>
+        <v>0.60733</v>
       </c>
       <c r="D100" t="n">
-        <v>0.640271</v>
+        <v>0.63114</v>
       </c>
       <c r="E100" t="n">
-        <v>0.56569</v>
+        <v>0.9534859999999999</v>
       </c>
       <c r="F100" t="n">
-        <v>0.526415</v>
+        <v>0.866449</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.628212</v>
+        <v>1.12242</v>
       </c>
       <c r="C101" t="n">
-        <v>0.598422</v>
+        <v>0.6534489999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.669661</v>
+        <v>0.6645720000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>0.548886</v>
+        <v>0.968209</v>
       </c>
       <c r="F101" t="n">
-        <v>0.530861</v>
+        <v>0.888393</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.636076</v>
+        <v>1.12915</v>
       </c>
       <c r="C102" t="n">
-        <v>0.612607</v>
+        <v>0.646058</v>
       </c>
       <c r="D102" t="n">
-        <v>0.698586</v>
+        <v>0.678732</v>
       </c>
       <c r="E102" t="n">
-        <v>0.543165</v>
+        <v>0.957078</v>
       </c>
       <c r="F102" t="n">
-        <v>0.542705</v>
+        <v>0.889419</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.625834</v>
+        <v>1.10833</v>
       </c>
       <c r="C103" t="n">
-        <v>0.630446</v>
+        <v>0.6039949999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.697875</v>
+        <v>0.679853</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5441589999999999</v>
+        <v>0.960815</v>
       </c>
       <c r="F103" t="n">
-        <v>0.5648840000000001</v>
+        <v>0.898381</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.626057</v>
+        <v>1.12604</v>
       </c>
       <c r="C104" t="n">
-        <v>0.610706</v>
+        <v>0.6115080000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.714472</v>
+        <v>0.732044</v>
       </c>
       <c r="E104" t="n">
-        <v>0.549963</v>
+        <v>0.910798</v>
       </c>
       <c r="F104" t="n">
-        <v>0.53717</v>
+        <v>0.852248</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.656132</v>
+        <v>1.07301</v>
       </c>
       <c r="C105" t="n">
-        <v>0.6405729999999999</v>
+        <v>0.610105</v>
       </c>
       <c r="D105" t="n">
-        <v>0.710052</v>
+        <v>0.71953</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5455680000000001</v>
+        <v>0.926798</v>
       </c>
       <c r="F105" t="n">
-        <v>0.549176</v>
+        <v>0.884782</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.646798</v>
+        <v>1.0806</v>
       </c>
       <c r="C106" t="n">
-        <v>0.648702</v>
+        <v>0.617824</v>
       </c>
       <c r="D106" t="n">
-        <v>0.74265</v>
+        <v>0.727186</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5264760000000001</v>
+        <v>0.952195</v>
       </c>
       <c r="F106" t="n">
-        <v>0.555913</v>
+        <v>0.933459</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.619425</v>
+        <v>1.09794</v>
       </c>
       <c r="C107" t="n">
-        <v>0.630892</v>
+        <v>0.626153</v>
       </c>
       <c r="D107" t="n">
-        <v>0.651753</v>
+        <v>0.684333</v>
       </c>
       <c r="E107" t="n">
-        <v>0.544696</v>
+        <v>0.932003</v>
       </c>
       <c r="F107" t="n">
-        <v>0.553296</v>
+        <v>0.8733030000000001</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.630906</v>
+        <v>1.07533</v>
       </c>
       <c r="C108" t="n">
-        <v>0.6383760000000001</v>
+        <v>0.664837</v>
       </c>
       <c r="D108" t="n">
-        <v>0.664035</v>
+        <v>0.6621089999999999</v>
       </c>
       <c r="E108" t="n">
-        <v>0.611496</v>
+        <v>1.16279</v>
       </c>
       <c r="F108" t="n">
-        <v>0.627938</v>
+        <v>1.16637</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.642141</v>
+        <v>1.09277</v>
       </c>
       <c r="C109" t="n">
-        <v>0.661847</v>
+        <v>0.643154</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6718499999999999</v>
+        <v>0.68402</v>
       </c>
       <c r="E109" t="n">
-        <v>0.61086</v>
+        <v>1.1361</v>
       </c>
       <c r="F109" t="n">
-        <v>0.6407350000000001</v>
+        <v>1.15181</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.760858</v>
+        <v>1.3304</v>
       </c>
       <c r="C110" t="n">
-        <v>0.75267</v>
+        <v>0.740475</v>
       </c>
       <c r="D110" t="n">
-        <v>0.69088</v>
+        <v>0.702327</v>
       </c>
       <c r="E110" t="n">
-        <v>0.615879</v>
+        <v>1.12483</v>
       </c>
       <c r="F110" t="n">
-        <v>0.63598</v>
+        <v>1.1703</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.767551</v>
+        <v>1.32952</v>
       </c>
       <c r="C111" t="n">
-        <v>0.763429</v>
+        <v>0.73724</v>
       </c>
       <c r="D111" t="n">
-        <v>0.705325</v>
+        <v>0.703452</v>
       </c>
       <c r="E111" t="n">
-        <v>0.614181</v>
+        <v>1.13956</v>
       </c>
       <c r="F111" t="n">
-        <v>0.633234</v>
+        <v>1.16924</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.758815</v>
+        <v>1.30638</v>
       </c>
       <c r="C112" t="n">
-        <v>0.744665</v>
+        <v>0.777512</v>
       </c>
       <c r="D112" t="n">
-        <v>0.717551</v>
+        <v>0.7108179999999999</v>
       </c>
       <c r="E112" t="n">
-        <v>0.600575</v>
+        <v>1.14091</v>
       </c>
       <c r="F112" t="n">
-        <v>0.629378</v>
+        <v>1.18787</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.775189</v>
+        <v>1.31215</v>
       </c>
       <c r="C113" t="n">
-        <v>0.7429480000000001</v>
+        <v>0.7525500000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7327</v>
+        <v>0.722596</v>
       </c>
       <c r="E113" t="n">
-        <v>0.615785</v>
+        <v>1.16605</v>
       </c>
       <c r="F113" t="n">
-        <v>0.6449820000000001</v>
+        <v>1.18924</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.780568</v>
+        <v>1.36062</v>
       </c>
       <c r="C114" t="n">
-        <v>0.7575730000000001</v>
+        <v>0.771295</v>
       </c>
       <c r="D114" t="n">
-        <v>0.768523</v>
+        <v>0.743513</v>
       </c>
       <c r="E114" t="n">
-        <v>0.601058</v>
+        <v>1.13472</v>
       </c>
       <c r="F114" t="n">
-        <v>0.639671</v>
+        <v>1.17443</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.767752</v>
+        <v>1.33685</v>
       </c>
       <c r="C115" t="n">
-        <v>0.75113</v>
+        <v>0.76059</v>
       </c>
       <c r="D115" t="n">
-        <v>0.765705</v>
+        <v>0.749935</v>
       </c>
       <c r="E115" t="n">
-        <v>0.6252180000000001</v>
+        <v>1.15244</v>
       </c>
       <c r="F115" t="n">
-        <v>0.668475</v>
+        <v>1.23979</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.772477</v>
+        <v>1.31919</v>
       </c>
       <c r="C116" t="n">
-        <v>0.792315</v>
+        <v>0.753849</v>
       </c>
       <c r="D116" t="n">
-        <v>0.808746</v>
+        <v>0.765138</v>
       </c>
       <c r="E116" t="n">
-        <v>0.610422</v>
+        <v>1.14405</v>
       </c>
       <c r="F116" t="n">
-        <v>0.659258</v>
+        <v>1.21347</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.790952</v>
+        <v>1.30445</v>
       </c>
       <c r="C117" t="n">
-        <v>0.759166</v>
+        <v>0.75544</v>
       </c>
       <c r="D117" t="n">
-        <v>0.788869</v>
+        <v>0.7840240000000001</v>
       </c>
       <c r="E117" t="n">
-        <v>0.635789</v>
+        <v>1.15117</v>
       </c>
       <c r="F117" t="n">
-        <v>0.662727</v>
+        <v>1.21608</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.756285</v>
+        <v>1.29704</v>
       </c>
       <c r="C118" t="n">
-        <v>0.7625690000000001</v>
+        <v>0.755071</v>
       </c>
       <c r="D118" t="n">
-        <v>0.800154</v>
+        <v>0.795024</v>
       </c>
       <c r="E118" t="n">
-        <v>0.6287469999999999</v>
+        <v>1.21661</v>
       </c>
       <c r="F118" t="n">
-        <v>0.665679</v>
+        <v>1.27075</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.755539</v>
+        <v>1.31672</v>
       </c>
       <c r="C119" t="n">
-        <v>0.770722</v>
+        <v>0.774973</v>
       </c>
       <c r="D119" t="n">
-        <v>0.867792</v>
+        <v>0.824805</v>
       </c>
       <c r="E119" t="n">
-        <v>0.629049</v>
+        <v>1.16965</v>
       </c>
       <c r="F119" t="n">
-        <v>0.665624</v>
+        <v>1.21266</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.779992</v>
+        <v>1.32372</v>
       </c>
       <c r="C120" t="n">
-        <v>0.765608</v>
+        <v>0.76373</v>
       </c>
       <c r="D120" t="n">
-        <v>0.843291</v>
+        <v>0.868883</v>
       </c>
       <c r="E120" t="n">
-        <v>0.642771</v>
+        <v>1.20161</v>
       </c>
       <c r="F120" t="n">
-        <v>0.666315</v>
+        <v>1.22759</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.773291</v>
+        <v>1.3309</v>
       </c>
       <c r="C121" t="n">
-        <v>0.7561870000000001</v>
+        <v>0.793589</v>
       </c>
       <c r="D121" t="n">
-        <v>0.75828</v>
+        <v>0.729301</v>
       </c>
       <c r="E121" t="n">
-        <v>0.6265540000000001</v>
+        <v>1.32071</v>
       </c>
       <c r="F121" t="n">
-        <v>0.700693</v>
+        <v>1.25707</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.789492</v>
+        <v>1.30081</v>
       </c>
       <c r="C122" t="n">
-        <v>0.778362</v>
+        <v>0.782173</v>
       </c>
       <c r="D122" t="n">
-        <v>0.76611</v>
+        <v>0.761582</v>
       </c>
       <c r="E122" t="n">
-        <v>0.664446</v>
+        <v>1.18513</v>
       </c>
       <c r="F122" t="n">
-        <v>0.701572</v>
+        <v>1.22938</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.779617</v>
+        <v>1.31201</v>
       </c>
       <c r="C123" t="n">
-        <v>0.81367</v>
+        <v>0.789664</v>
       </c>
       <c r="D123" t="n">
-        <v>0.774583</v>
+        <v>0.755991</v>
       </c>
       <c r="E123" t="n">
-        <v>0.719606</v>
+        <v>1.49424</v>
       </c>
       <c r="F123" t="n">
-        <v>0.701836</v>
+        <v>1.43262</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.988139</v>
+        <v>1.78209</v>
       </c>
       <c r="C124" t="n">
-        <v>0.88281</v>
+        <v>0.916977</v>
       </c>
       <c r="D124" t="n">
-        <v>0.802991</v>
+        <v>0.780958</v>
       </c>
       <c r="E124" t="n">
-        <v>0.721521</v>
+        <v>1.51411</v>
       </c>
       <c r="F124" t="n">
-        <v>0.699833</v>
+        <v>1.42979</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9806589999999999</v>
+        <v>1.71641</v>
       </c>
       <c r="C125" t="n">
-        <v>0.875481</v>
+        <v>0.887078</v>
       </c>
       <c r="D125" t="n">
-        <v>0.808428</v>
+        <v>0.789256</v>
       </c>
       <c r="E125" t="n">
-        <v>0.740503</v>
+        <v>1.52249</v>
       </c>
       <c r="F125" t="n">
-        <v>0.7144779999999999</v>
+        <v>1.43156</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.991276</v>
+        <v>1.74768</v>
       </c>
       <c r="C126" t="n">
-        <v>0.889228</v>
+        <v>0.888269</v>
       </c>
       <c r="D126" t="n">
-        <v>0.813203</v>
+        <v>0.800034</v>
       </c>
       <c r="E126" t="n">
-        <v>0.737365</v>
+        <v>1.55026</v>
       </c>
       <c r="F126" t="n">
-        <v>0.719789</v>
+        <v>1.4288</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.988227</v>
+        <v>1.77611</v>
       </c>
       <c r="C127" t="n">
-        <v>0.889437</v>
+        <v>0.901217</v>
       </c>
       <c r="D127" t="n">
-        <v>0.807633</v>
+        <v>0.812618</v>
       </c>
       <c r="E127" t="n">
-        <v>0.751605</v>
+        <v>1.52182</v>
       </c>
       <c r="F127" t="n">
-        <v>0.7351529999999999</v>
+        <v>1.43283</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.9818170000000001</v>
+        <v>1.72555</v>
       </c>
       <c r="C128" t="n">
-        <v>0.891916</v>
+        <v>0.912242</v>
       </c>
       <c r="D128" t="n">
-        <v>0.855748</v>
+        <v>0.819037</v>
       </c>
       <c r="E128" t="n">
-        <v>0.728928</v>
+        <v>1.52028</v>
       </c>
       <c r="F128" t="n">
-        <v>0.724823</v>
+        <v>1.43664</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.994439</v>
+        <v>1.79027</v>
       </c>
       <c r="C129" t="n">
-        <v>0.893964</v>
+        <v>0.903411</v>
       </c>
       <c r="D129" t="n">
-        <v>0.863672</v>
+        <v>0.843348</v>
       </c>
       <c r="E129" t="n">
-        <v>0.754949</v>
+        <v>1.51942</v>
       </c>
       <c r="F129" t="n">
-        <v>0.721826</v>
+        <v>1.42353</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.9830950000000001</v>
+        <v>1.72935</v>
       </c>
       <c r="C130" t="n">
-        <v>0.894973</v>
+        <v>0.906434</v>
       </c>
       <c r="D130" t="n">
-        <v>0.891095</v>
+        <v>0.859788</v>
       </c>
       <c r="E130" t="n">
-        <v>0.74058</v>
+        <v>1.52704</v>
       </c>
       <c r="F130" t="n">
-        <v>0.732504</v>
+        <v>1.49745</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.97267</v>
+        <v>1.72937</v>
       </c>
       <c r="C131" t="n">
-        <v>0.89623</v>
+        <v>0.903807</v>
       </c>
       <c r="D131" t="n">
-        <v>0.879286</v>
+        <v>0.877768</v>
       </c>
       <c r="E131" t="n">
-        <v>0.727411</v>
+        <v>1.51474</v>
       </c>
       <c r="F131" t="n">
-        <v>0.730399</v>
+        <v>1.45015</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.991101</v>
+        <v>1.72946</v>
       </c>
       <c r="C132" t="n">
-        <v>0.89303</v>
+        <v>0.907711</v>
       </c>
       <c r="D132" t="n">
-        <v>0.905461</v>
+        <v>0.903826</v>
       </c>
       <c r="E132" t="n">
-        <v>0.738103</v>
+        <v>1.52795</v>
       </c>
       <c r="F132" t="n">
-        <v>0.736249</v>
+        <v>1.46995</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.00043</v>
+        <v>1.74607</v>
       </c>
       <c r="C133" t="n">
-        <v>0.9116610000000001</v>
+        <v>0.903485</v>
       </c>
       <c r="D133" t="n">
-        <v>0.910394</v>
+        <v>0.929837</v>
       </c>
       <c r="E133" t="n">
-        <v>0.749824</v>
+        <v>1.51689</v>
       </c>
       <c r="F133" t="n">
-        <v>0.743769</v>
+        <v>1.47146</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.997016</v>
+        <v>1.73082</v>
       </c>
       <c r="C134" t="n">
-        <v>0.940866</v>
+        <v>0.943103</v>
       </c>
       <c r="D134" t="n">
-        <v>0.936543</v>
+        <v>0.922575</v>
       </c>
       <c r="E134" t="n">
-        <v>0.745386</v>
+        <v>1.52661</v>
       </c>
       <c r="F134" t="n">
-        <v>0.759705</v>
+        <v>1.48113</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.01396</v>
+        <v>1.76534</v>
       </c>
       <c r="C135" t="n">
-        <v>0.912113</v>
+        <v>0.919767</v>
       </c>
       <c r="D135" t="n">
-        <v>0.820678</v>
+        <v>0.810281</v>
       </c>
       <c r="E135" t="n">
-        <v>0.757208</v>
+        <v>1.53363</v>
       </c>
       <c r="F135" t="n">
-        <v>0.76244</v>
+        <v>1.46918</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.992217</v>
+        <v>1.84342</v>
       </c>
       <c r="C136" t="n">
-        <v>0.927083</v>
+        <v>0.927427</v>
       </c>
       <c r="D136" t="n">
-        <v>0.8446</v>
+        <v>0.8246019999999999</v>
       </c>
       <c r="E136" t="n">
-        <v>0.790358</v>
+        <v>1.54591</v>
       </c>
       <c r="F136" t="n">
-        <v>0.787477</v>
+        <v>1.52142</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.0436</v>
+        <v>1.78236</v>
       </c>
       <c r="C137" t="n">
-        <v>0.939599</v>
+        <v>0.964915</v>
       </c>
       <c r="D137" t="n">
-        <v>0.852115</v>
+        <v>0.839219</v>
       </c>
       <c r="E137" t="n">
-        <v>0.922737</v>
+        <v>1.86361</v>
       </c>
       <c r="F137" t="n">
-        <v>0.778135</v>
+        <v>1.69604</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.27977</v>
+        <v>2.24721</v>
       </c>
       <c r="C138" t="n">
-        <v>1.03011</v>
+        <v>1.00209</v>
       </c>
       <c r="D138" t="n">
-        <v>0.863403</v>
+        <v>0.854858</v>
       </c>
       <c r="E138" t="n">
-        <v>0.93497</v>
+        <v>1.86373</v>
       </c>
       <c r="F138" t="n">
-        <v>0.76636</v>
+        <v>1.65014</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.24923</v>
+        <v>2.21212</v>
       </c>
       <c r="C139" t="n">
-        <v>0.998623</v>
+        <v>1.0134</v>
       </c>
       <c r="D139" t="n">
-        <v>0.889282</v>
+        <v>0.874123</v>
       </c>
       <c r="E139" t="n">
-        <v>0.89358</v>
+        <v>1.88424</v>
       </c>
       <c r="F139" t="n">
-        <v>0.79404</v>
+        <v>1.63728</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.23319</v>
+        <v>2.18116</v>
       </c>
       <c r="C140" t="n">
-        <v>0.989448</v>
+        <v>1.00983</v>
       </c>
       <c r="D140" t="n">
-        <v>0.886989</v>
+        <v>0.887935</v>
       </c>
       <c r="E140" t="n">
-        <v>0.897555</v>
+        <v>1.86673</v>
       </c>
       <c r="F140" t="n">
-        <v>0.767253</v>
+        <v>1.64666</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.24383</v>
+        <v>2.22282</v>
       </c>
       <c r="C141" t="n">
-        <v>0.98448</v>
+        <v>1.0057</v>
       </c>
       <c r="D141" t="n">
-        <v>0.907756</v>
+        <v>0.896699</v>
       </c>
       <c r="E141" t="n">
-        <v>0.911243</v>
+        <v>1.90935</v>
       </c>
       <c r="F141" t="n">
-        <v>0.766755</v>
+        <v>1.64671</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.24709</v>
+        <v>2.21117</v>
       </c>
       <c r="C142" t="n">
-        <v>1.03089</v>
+        <v>1.00536</v>
       </c>
       <c r="D142" t="n">
-        <v>0.943049</v>
+        <v>0.924103</v>
       </c>
       <c r="E142" t="n">
-        <v>0.914232</v>
+        <v>1.87797</v>
       </c>
       <c r="F142" t="n">
-        <v>0.823078</v>
+        <v>1.64755</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.23159</v>
+        <v>2.19042</v>
       </c>
       <c r="C143" t="n">
-        <v>1.02531</v>
+        <v>1.00531</v>
       </c>
       <c r="D143" t="n">
-        <v>0.952735</v>
+        <v>0.938655</v>
       </c>
       <c r="E143" t="n">
-        <v>0.901016</v>
+        <v>1.89295</v>
       </c>
       <c r="F143" t="n">
-        <v>0.783758</v>
+        <v>1.66223</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.112435</v>
+        <v>0.118736</v>
       </c>
       <c r="C2" t="n">
-        <v>0.103189</v>
+        <v>0.10801</v>
       </c>
       <c r="D2" t="n">
-        <v>0.152997</v>
+        <v>0.159406</v>
       </c>
       <c r="E2" t="n">
-        <v>0.123903</v>
+        <v>0.128932</v>
       </c>
       <c r="F2" t="n">
-        <v>0.115266</v>
+        <v>0.119301</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.113567</v>
+        <v>0.123236</v>
       </c>
       <c r="C3" t="n">
-        <v>0.103892</v>
+        <v>0.108904</v>
       </c>
       <c r="D3" t="n">
-        <v>0.158552</v>
+        <v>0.163818</v>
       </c>
       <c r="E3" t="n">
-        <v>0.125022</v>
+        <v>0.128692</v>
       </c>
       <c r="F3" t="n">
-        <v>0.115503</v>
+        <v>0.119919</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.111868</v>
+        <v>0.117254</v>
       </c>
       <c r="C4" t="n">
-        <v>0.104948</v>
+        <v>0.108521</v>
       </c>
       <c r="D4" t="n">
-        <v>0.160998</v>
+        <v>0.166725</v>
       </c>
       <c r="E4" t="n">
-        <v>0.124587</v>
+        <v>0.1294</v>
       </c>
       <c r="F4" t="n">
-        <v>0.116178</v>
+        <v>0.120707</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.113457</v>
+        <v>0.118504</v>
       </c>
       <c r="C5" t="n">
-        <v>0.104683</v>
+        <v>0.109799</v>
       </c>
       <c r="D5" t="n">
-        <v>0.163695</v>
+        <v>0.171991</v>
       </c>
       <c r="E5" t="n">
-        <v>0.125386</v>
+        <v>0.130105</v>
       </c>
       <c r="F5" t="n">
-        <v>0.117014</v>
+        <v>0.121212</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.113975</v>
+        <v>0.119455</v>
       </c>
       <c r="C6" t="n">
-        <v>0.105598</v>
+        <v>0.10984</v>
       </c>
       <c r="D6" t="n">
-        <v>0.173717</v>
+        <v>0.179574</v>
       </c>
       <c r="E6" t="n">
-        <v>0.126356</v>
+        <v>0.1279</v>
       </c>
       <c r="F6" t="n">
-        <v>0.120004</v>
+        <v>0.121074</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.118361</v>
+        <v>0.117935</v>
       </c>
       <c r="C7" t="n">
-        <v>0.106125</v>
+        <v>0.111731</v>
       </c>
       <c r="D7" t="n">
-        <v>0.144439</v>
+        <v>0.149717</v>
       </c>
       <c r="E7" t="n">
-        <v>0.128919</v>
+        <v>0.13288</v>
       </c>
       <c r="F7" t="n">
-        <v>0.123839</v>
+        <v>0.124838</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.114515</v>
+        <v>0.121315</v>
       </c>
       <c r="C8" t="n">
-        <v>0.107369</v>
+        <v>0.114389</v>
       </c>
       <c r="D8" t="n">
-        <v>0.146789</v>
+        <v>0.152343</v>
       </c>
       <c r="E8" t="n">
-        <v>0.138265</v>
+        <v>0.137058</v>
       </c>
       <c r="F8" t="n">
-        <v>0.123821</v>
+        <v>0.128017</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.116581</v>
+        <v>0.123093</v>
       </c>
       <c r="C9" t="n">
-        <v>0.108704</v>
+        <v>0.116343</v>
       </c>
       <c r="D9" t="n">
-        <v>0.148827</v>
+        <v>0.153262</v>
       </c>
       <c r="E9" t="n">
-        <v>0.127682</v>
+        <v>0.129761</v>
       </c>
       <c r="F9" t="n">
-        <v>0.116394</v>
+        <v>0.119966</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.123089</v>
+        <v>0.126127</v>
       </c>
       <c r="C10" t="n">
-        <v>0.110822</v>
+        <v>0.114683</v>
       </c>
       <c r="D10" t="n">
-        <v>0.151304</v>
+        <v>0.158553</v>
       </c>
       <c r="E10" t="n">
-        <v>0.126581</v>
+        <v>0.129528</v>
       </c>
       <c r="F10" t="n">
-        <v>0.116871</v>
+        <v>0.119717</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.126938</v>
+        <v>0.126226</v>
       </c>
       <c r="C11" t="n">
-        <v>0.116322</v>
+        <v>0.1142</v>
       </c>
       <c r="D11" t="n">
-        <v>0.154391</v>
+        <v>0.159456</v>
       </c>
       <c r="E11" t="n">
-        <v>0.12792</v>
+        <v>0.132276</v>
       </c>
       <c r="F11" t="n">
-        <v>0.117707</v>
+        <v>0.121632</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.127773</v>
+        <v>0.128243</v>
       </c>
       <c r="C12" t="n">
-        <v>0.112558</v>
+        <v>0.114503</v>
       </c>
       <c r="D12" t="n">
-        <v>0.158329</v>
+        <v>0.161922</v>
       </c>
       <c r="E12" t="n">
-        <v>0.127501</v>
+        <v>0.129027</v>
       </c>
       <c r="F12" t="n">
-        <v>0.117456</v>
+        <v>0.119471</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.122807</v>
+        <v>0.123544</v>
       </c>
       <c r="C13" t="n">
-        <v>0.111211</v>
+        <v>0.112862</v>
       </c>
       <c r="D13" t="n">
-        <v>0.16302</v>
+        <v>0.161883</v>
       </c>
       <c r="E13" t="n">
-        <v>0.127459</v>
+        <v>0.127889</v>
       </c>
       <c r="F13" t="n">
-        <v>0.117436</v>
+        <v>0.11821</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.122828</v>
+        <v>0.123464</v>
       </c>
       <c r="C14" t="n">
-        <v>0.110709</v>
+        <v>0.112155</v>
       </c>
       <c r="D14" t="n">
-        <v>0.164256</v>
+        <v>0.165203</v>
       </c>
       <c r="E14" t="n">
-        <v>0.127805</v>
+        <v>0.127493</v>
       </c>
       <c r="F14" t="n">
-        <v>0.117784</v>
+        <v>0.11732</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1271</v>
+        <v>0.122646</v>
       </c>
       <c r="C15" t="n">
-        <v>0.111291</v>
+        <v>0.112679</v>
       </c>
       <c r="D15" t="n">
-        <v>0.167933</v>
+        <v>0.16744</v>
       </c>
       <c r="E15" t="n">
-        <v>0.129393</v>
+        <v>0.127611</v>
       </c>
       <c r="F15" t="n">
-        <v>0.119747</v>
+        <v>0.117581</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.125814</v>
+        <v>0.123805</v>
       </c>
       <c r="C16" t="n">
-        <v>0.111573</v>
+        <v>0.120676</v>
       </c>
       <c r="D16" t="n">
-        <v>0.174071</v>
+        <v>0.172138</v>
       </c>
       <c r="E16" t="n">
-        <v>0.128705</v>
+        <v>0.128586</v>
       </c>
       <c r="F16" t="n">
-        <v>0.118917</v>
+        <v>0.118499</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.124172</v>
+        <v>0.123503</v>
       </c>
       <c r="C17" t="n">
-        <v>0.110992</v>
+        <v>0.112994</v>
       </c>
       <c r="D17" t="n">
-        <v>0.179482</v>
+        <v>0.176819</v>
       </c>
       <c r="E17" t="n">
-        <v>0.12951</v>
+        <v>0.128245</v>
       </c>
       <c r="F17" t="n">
-        <v>0.120363</v>
+        <v>0.119267</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.125104</v>
+        <v>0.124112</v>
       </c>
       <c r="C18" t="n">
-        <v>0.112933</v>
+        <v>0.111157</v>
       </c>
       <c r="D18" t="n">
-        <v>0.180981</v>
+        <v>0.185402</v>
       </c>
       <c r="E18" t="n">
-        <v>0.130044</v>
+        <v>0.128764</v>
       </c>
       <c r="F18" t="n">
-        <v>0.11994</v>
+        <v>0.120136</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.124982</v>
+        <v>0.124595</v>
       </c>
       <c r="C19" t="n">
-        <v>0.11354</v>
+        <v>0.114769</v>
       </c>
       <c r="D19" t="n">
-        <v>0.183262</v>
+        <v>0.184505</v>
       </c>
       <c r="E19" t="n">
-        <v>0.130592</v>
+        <v>0.132123</v>
       </c>
       <c r="F19" t="n">
-        <v>0.121268</v>
+        <v>0.119978</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.125521</v>
+        <v>0.124424</v>
       </c>
       <c r="C20" t="n">
-        <v>0.11492</v>
+        <v>0.112569</v>
       </c>
       <c r="D20" t="n">
-        <v>0.189408</v>
+        <v>0.185821</v>
       </c>
       <c r="E20" t="n">
-        <v>0.133069</v>
+        <v>0.130759</v>
       </c>
       <c r="F20" t="n">
-        <v>0.122439</v>
+        <v>0.1219</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.125405</v>
+        <v>0.125032</v>
       </c>
       <c r="C21" t="n">
-        <v>0.113388</v>
+        <v>0.11363</v>
       </c>
       <c r="D21" t="n">
-        <v>0.15297</v>
+        <v>0.151728</v>
       </c>
       <c r="E21" t="n">
-        <v>0.134518</v>
+        <v>0.133951</v>
       </c>
       <c r="F21" t="n">
-        <v>0.12463</v>
+        <v>0.123682</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.127025</v>
+        <v>0.126932</v>
       </c>
       <c r="C22" t="n">
-        <v>0.118229</v>
+        <v>0.114996</v>
       </c>
       <c r="D22" t="n">
-        <v>0.155493</v>
+        <v>0.153682</v>
       </c>
       <c r="E22" t="n">
-        <v>0.138191</v>
+        <v>0.137505</v>
       </c>
       <c r="F22" t="n">
-        <v>0.128585</v>
+        <v>0.127718</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.135274</v>
+        <v>0.130214</v>
       </c>
       <c r="C23" t="n">
-        <v>0.118378</v>
+        <v>0.123088</v>
       </c>
       <c r="D23" t="n">
-        <v>0.160238</v>
+        <v>0.157152</v>
       </c>
       <c r="E23" t="n">
-        <v>0.132705</v>
+        <v>0.13151</v>
       </c>
       <c r="F23" t="n">
-        <v>0.123812</v>
+        <v>0.121732</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.135155</v>
+        <v>0.133608</v>
       </c>
       <c r="C24" t="n">
-        <v>0.126712</v>
+        <v>0.123892</v>
       </c>
       <c r="D24" t="n">
-        <v>0.168072</v>
+        <v>0.159732</v>
       </c>
       <c r="E24" t="n">
-        <v>0.134215</v>
+        <v>0.131569</v>
       </c>
       <c r="F24" t="n">
-        <v>0.123727</v>
+        <v>0.121971</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134418</v>
+        <v>0.133094</v>
       </c>
       <c r="C25" t="n">
-        <v>0.124972</v>
+        <v>0.123489</v>
       </c>
       <c r="D25" t="n">
-        <v>0.163602</v>
+        <v>0.163128</v>
       </c>
       <c r="E25" t="n">
-        <v>0.132626</v>
+        <v>0.131489</v>
       </c>
       <c r="F25" t="n">
-        <v>0.122534</v>
+        <v>0.122215</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.13471</v>
+        <v>0.134679</v>
       </c>
       <c r="C26" t="n">
-        <v>0.125815</v>
+        <v>0.124364</v>
       </c>
       <c r="D26" t="n">
-        <v>0.167325</v>
+        <v>0.165957</v>
       </c>
       <c r="E26" t="n">
-        <v>0.132621</v>
+        <v>0.131961</v>
       </c>
       <c r="F26" t="n">
-        <v>0.12334</v>
+        <v>0.123166</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.134448</v>
+        <v>0.13323</v>
       </c>
       <c r="C27" t="n">
-        <v>0.125117</v>
+        <v>0.123625</v>
       </c>
       <c r="D27" t="n">
-        <v>0.170696</v>
+        <v>0.169471</v>
       </c>
       <c r="E27" t="n">
-        <v>0.133359</v>
+        <v>0.137787</v>
       </c>
       <c r="F27" t="n">
-        <v>0.12423</v>
+        <v>0.12385</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.132932</v>
+        <v>0.132341</v>
       </c>
       <c r="C28" t="n">
-        <v>0.12823</v>
+        <v>0.124236</v>
       </c>
       <c r="D28" t="n">
-        <v>0.174813</v>
+        <v>0.173067</v>
       </c>
       <c r="E28" t="n">
-        <v>0.133441</v>
+        <v>0.132981</v>
       </c>
       <c r="F28" t="n">
-        <v>0.123926</v>
+        <v>0.123567</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.137911</v>
+        <v>0.1341</v>
       </c>
       <c r="C29" t="n">
-        <v>0.131158</v>
+        <v>0.126859</v>
       </c>
       <c r="D29" t="n">
-        <v>0.178512</v>
+        <v>0.178456</v>
       </c>
       <c r="E29" t="n">
-        <v>0.144907</v>
+        <v>0.134219</v>
       </c>
       <c r="F29" t="n">
-        <v>0.125339</v>
+        <v>0.126657</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.133922</v>
+        <v>0.135789</v>
       </c>
       <c r="C30" t="n">
-        <v>0.127464</v>
+        <v>0.125323</v>
       </c>
       <c r="D30" t="n">
-        <v>0.184219</v>
+        <v>0.182174</v>
       </c>
       <c r="E30" t="n">
-        <v>0.135398</v>
+        <v>0.133819</v>
       </c>
       <c r="F30" t="n">
-        <v>0.124478</v>
+        <v>0.125274</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.135148</v>
+        <v>0.135108</v>
       </c>
       <c r="C31" t="n">
-        <v>0.131593</v>
+        <v>0.126989</v>
       </c>
       <c r="D31" t="n">
-        <v>0.188581</v>
+        <v>0.185893</v>
       </c>
       <c r="E31" t="n">
-        <v>0.135179</v>
+        <v>0.134626</v>
       </c>
       <c r="F31" t="n">
-        <v>0.126003</v>
+        <v>0.125541</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.134364</v>
+        <v>0.133907</v>
       </c>
       <c r="C32" t="n">
-        <v>0.131107</v>
+        <v>0.125903</v>
       </c>
       <c r="D32" t="n">
-        <v>0.189863</v>
+        <v>0.190476</v>
       </c>
       <c r="E32" t="n">
-        <v>0.136229</v>
+        <v>0.135232</v>
       </c>
       <c r="F32" t="n">
-        <v>0.127325</v>
+        <v>0.127369</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.134411</v>
+        <v>0.133726</v>
       </c>
       <c r="C33" t="n">
-        <v>0.126269</v>
+        <v>0.127027</v>
       </c>
       <c r="D33" t="n">
-        <v>0.199769</v>
+        <v>0.195062</v>
       </c>
       <c r="E33" t="n">
-        <v>0.142435</v>
+        <v>0.1358</v>
       </c>
       <c r="F33" t="n">
-        <v>0.12948</v>
+        <v>0.12747</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.136009</v>
+        <v>0.133744</v>
       </c>
       <c r="C34" t="n">
-        <v>0.128076</v>
+        <v>0.13047</v>
       </c>
       <c r="D34" t="n">
-        <v>0.204114</v>
+        <v>0.197798</v>
       </c>
       <c r="E34" t="n">
-        <v>0.142801</v>
+        <v>0.138027</v>
       </c>
       <c r="F34" t="n">
-        <v>0.131373</v>
+        <v>0.129252</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.137258</v>
+        <v>0.135055</v>
       </c>
       <c r="C35" t="n">
-        <v>0.134461</v>
+        <v>0.127334</v>
       </c>
       <c r="D35" t="n">
-        <v>0.167355</v>
+        <v>0.164182</v>
       </c>
       <c r="E35" t="n">
-        <v>0.144475</v>
+        <v>0.141429</v>
       </c>
       <c r="F35" t="n">
-        <v>0.134865</v>
+        <v>0.132891</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.141598</v>
+        <v>0.136727</v>
       </c>
       <c r="C36" t="n">
-        <v>0.133202</v>
+        <v>0.130922</v>
       </c>
       <c r="D36" t="n">
-        <v>0.172079</v>
+        <v>0.169812</v>
       </c>
       <c r="E36" t="n">
-        <v>0.14997</v>
+        <v>0.147024</v>
       </c>
       <c r="F36" t="n">
-        <v>0.140841</v>
+        <v>0.137925</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.142283</v>
+        <v>0.140912</v>
       </c>
       <c r="C37" t="n">
-        <v>0.135043</v>
+        <v>0.133704</v>
       </c>
       <c r="D37" t="n">
-        <v>0.177795</v>
+        <v>0.172522</v>
       </c>
       <c r="E37" t="n">
-        <v>0.142309</v>
+        <v>0.137681</v>
       </c>
       <c r="F37" t="n">
-        <v>0.132062</v>
+        <v>0.129657</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.166824</v>
+        <v>0.155589</v>
       </c>
       <c r="C38" t="n">
-        <v>0.141967</v>
+        <v>0.13887</v>
       </c>
       <c r="D38" t="n">
-        <v>0.179611</v>
+        <v>0.175718</v>
       </c>
       <c r="E38" t="n">
-        <v>0.149647</v>
+        <v>0.136847</v>
       </c>
       <c r="F38" t="n">
-        <v>0.131799</v>
+        <v>0.128958</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.164655</v>
+        <v>0.155132</v>
       </c>
       <c r="C39" t="n">
-        <v>0.141642</v>
+        <v>0.139036</v>
       </c>
       <c r="D39" t="n">
-        <v>0.183673</v>
+        <v>0.180094</v>
       </c>
       <c r="E39" t="n">
-        <v>0.149586</v>
+        <v>0.137126</v>
       </c>
       <c r="F39" t="n">
-        <v>0.132453</v>
+        <v>0.129512</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.167839</v>
+        <v>0.155716</v>
       </c>
       <c r="C40" t="n">
-        <v>0.141083</v>
+        <v>0.140284</v>
       </c>
       <c r="D40" t="n">
-        <v>0.187097</v>
+        <v>0.188123</v>
       </c>
       <c r="E40" t="n">
-        <v>0.143311</v>
+        <v>0.13996</v>
       </c>
       <c r="F40" t="n">
-        <v>0.132478</v>
+        <v>0.131492</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.165767</v>
+        <v>0.163275</v>
       </c>
       <c r="C41" t="n">
-        <v>0.143131</v>
+        <v>0.140847</v>
       </c>
       <c r="D41" t="n">
-        <v>0.194852</v>
+        <v>0.191972</v>
       </c>
       <c r="E41" t="n">
-        <v>0.142475</v>
+        <v>0.138701</v>
       </c>
       <c r="F41" t="n">
-        <v>0.132604</v>
+        <v>0.131612</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.165877</v>
+        <v>0.157138</v>
       </c>
       <c r="C42" t="n">
-        <v>0.143202</v>
+        <v>0.140848</v>
       </c>
       <c r="D42" t="n">
-        <v>0.197424</v>
+        <v>0.196975</v>
       </c>
       <c r="E42" t="n">
-        <v>0.141926</v>
+        <v>0.139488</v>
       </c>
       <c r="F42" t="n">
-        <v>0.133327</v>
+        <v>0.131781</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.167615</v>
+        <v>0.15769</v>
       </c>
       <c r="C43" t="n">
-        <v>0.147396</v>
+        <v>0.141656</v>
       </c>
       <c r="D43" t="n">
-        <v>0.208777</v>
+        <v>0.20231</v>
       </c>
       <c r="E43" t="n">
-        <v>0.145301</v>
+        <v>0.139829</v>
       </c>
       <c r="F43" t="n">
-        <v>0.13541</v>
+        <v>0.131509</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.168163</v>
+        <v>0.156056</v>
       </c>
       <c r="C44" t="n">
-        <v>0.144011</v>
+        <v>0.14251</v>
       </c>
       <c r="D44" t="n">
-        <v>0.211259</v>
+        <v>0.207648</v>
       </c>
       <c r="E44" t="n">
-        <v>0.143271</v>
+        <v>0.139562</v>
       </c>
       <c r="F44" t="n">
-        <v>0.135629</v>
+        <v>0.132431</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.171062</v>
+        <v>0.156145</v>
       </c>
       <c r="C45" t="n">
-        <v>0.145508</v>
+        <v>0.140347</v>
       </c>
       <c r="D45" t="n">
-        <v>0.217713</v>
+        <v>0.212158</v>
       </c>
       <c r="E45" t="n">
-        <v>0.145065</v>
+        <v>0.140324</v>
       </c>
       <c r="F45" t="n">
-        <v>0.136569</v>
+        <v>0.133763</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.165435</v>
+        <v>0.158322</v>
       </c>
       <c r="C46" t="n">
-        <v>0.143756</v>
+        <v>0.142747</v>
       </c>
       <c r="D46" t="n">
-        <v>0.224125</v>
+        <v>0.220486</v>
       </c>
       <c r="E46" t="n">
-        <v>0.144855</v>
+        <v>0.142463</v>
       </c>
       <c r="F46" t="n">
-        <v>0.137266</v>
+        <v>0.137691</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.166521</v>
+        <v>0.161889</v>
       </c>
       <c r="C47" t="n">
-        <v>0.145745</v>
+        <v>0.142429</v>
       </c>
       <c r="D47" t="n">
-        <v>0.228783</v>
+        <v>0.226384</v>
       </c>
       <c r="E47" t="n">
-        <v>0.147068</v>
+        <v>0.144404</v>
       </c>
       <c r="F47" t="n">
-        <v>0.143618</v>
+        <v>0.139569</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.173068</v>
+        <v>0.158998</v>
       </c>
       <c r="C48" t="n">
-        <v>0.157047</v>
+        <v>0.14427</v>
       </c>
       <c r="D48" t="n">
-        <v>0.234407</v>
+        <v>0.231683</v>
       </c>
       <c r="E48" t="n">
-        <v>0.148675</v>
+        <v>0.145845</v>
       </c>
       <c r="F48" t="n">
-        <v>0.142819</v>
+        <v>0.140218</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.171278</v>
+        <v>0.159171</v>
       </c>
       <c r="C49" t="n">
-        <v>0.151037</v>
+        <v>0.145207</v>
       </c>
       <c r="D49" t="n">
-        <v>0.23996</v>
+        <v>0.237204</v>
       </c>
       <c r="E49" t="n">
-        <v>0.15225</v>
+        <v>0.148626</v>
       </c>
       <c r="F49" t="n">
-        <v>0.146759</v>
+        <v>0.144041</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.172422</v>
+        <v>0.161189</v>
       </c>
       <c r="C50" t="n">
-        <v>0.15309</v>
+        <v>0.148627</v>
       </c>
       <c r="D50" t="n">
-        <v>0.20384</v>
+        <v>0.205211</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1573</v>
+        <v>0.153754</v>
       </c>
       <c r="F50" t="n">
-        <v>0.156549</v>
+        <v>0.149339</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173433</v>
+        <v>0.164479</v>
       </c>
       <c r="C51" t="n">
-        <v>0.154191</v>
+        <v>0.151681</v>
       </c>
       <c r="D51" t="n">
-        <v>0.202973</v>
+        <v>0.201101</v>
       </c>
       <c r="E51" t="n">
-        <v>0.249852</v>
+        <v>0.205216</v>
       </c>
       <c r="F51" t="n">
-        <v>0.149069</v>
+        <v>0.145644</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.178592</v>
+        <v>0.169014</v>
       </c>
       <c r="C52" t="n">
-        <v>0.158866</v>
+        <v>0.156491</v>
       </c>
       <c r="D52" t="n">
-        <v>0.209811</v>
+        <v>0.206771</v>
       </c>
       <c r="E52" t="n">
-        <v>0.251895</v>
+        <v>0.20459</v>
       </c>
       <c r="F52" t="n">
-        <v>0.144125</v>
+        <v>0.138778</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.337731</v>
+        <v>0.241038</v>
       </c>
       <c r="C53" t="n">
-        <v>0.164386</v>
+        <v>0.155688</v>
       </c>
       <c r="D53" t="n">
-        <v>0.217625</v>
+        <v>0.21339</v>
       </c>
       <c r="E53" t="n">
-        <v>0.25525</v>
+        <v>0.202531</v>
       </c>
       <c r="F53" t="n">
-        <v>0.147107</v>
+        <v>0.140958</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.340229</v>
+        <v>0.236983</v>
       </c>
       <c r="C54" t="n">
-        <v>0.163995</v>
+        <v>0.156878</v>
       </c>
       <c r="D54" t="n">
-        <v>0.220855</v>
+        <v>0.218639</v>
       </c>
       <c r="E54" t="n">
-        <v>0.252967</v>
+        <v>0.204678</v>
       </c>
       <c r="F54" t="n">
-        <v>0.148731</v>
+        <v>0.142958</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.353998</v>
+        <v>0.242869</v>
       </c>
       <c r="C55" t="n">
-        <v>0.171596</v>
+        <v>0.161463</v>
       </c>
       <c r="D55" t="n">
-        <v>0.229383</v>
+        <v>0.225539</v>
       </c>
       <c r="E55" t="n">
-        <v>0.250491</v>
+        <v>0.205984</v>
       </c>
       <c r="F55" t="n">
-        <v>0.146834</v>
+        <v>0.148016</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.348382</v>
+        <v>0.24599</v>
       </c>
       <c r="C56" t="n">
-        <v>0.163404</v>
+        <v>0.1624</v>
       </c>
       <c r="D56" t="n">
-        <v>0.233811</v>
+        <v>0.231338</v>
       </c>
       <c r="E56" t="n">
-        <v>0.253494</v>
+        <v>0.205234</v>
       </c>
       <c r="F56" t="n">
-        <v>0.149049</v>
+        <v>0.146654</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.336676</v>
+        <v>0.243401</v>
       </c>
       <c r="C57" t="n">
-        <v>0.165588</v>
+        <v>0.163838</v>
       </c>
       <c r="D57" t="n">
-        <v>0.241773</v>
+        <v>0.24005</v>
       </c>
       <c r="E57" t="n">
-        <v>0.252952</v>
+        <v>0.20773</v>
       </c>
       <c r="F57" t="n">
-        <v>0.151112</v>
+        <v>0.154494</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.333028</v>
+        <v>0.245168</v>
       </c>
       <c r="C58" t="n">
-        <v>0.164745</v>
+        <v>0.167394</v>
       </c>
       <c r="D58" t="n">
-        <v>0.250494</v>
+        <v>0.246776</v>
       </c>
       <c r="E58" t="n">
-        <v>0.253303</v>
+        <v>0.206982</v>
       </c>
       <c r="F58" t="n">
-        <v>0.151805</v>
+        <v>0.149899</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.332017</v>
+        <v>0.241882</v>
       </c>
       <c r="C59" t="n">
-        <v>0.171389</v>
+        <v>0.165746</v>
       </c>
       <c r="D59" t="n">
-        <v>0.258215</v>
+        <v>0.255197</v>
       </c>
       <c r="E59" t="n">
-        <v>0.252066</v>
+        <v>0.20638</v>
       </c>
       <c r="F59" t="n">
-        <v>0.15362</v>
+        <v>0.160079</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.336061</v>
+        <v>0.244405</v>
       </c>
       <c r="C60" t="n">
-        <v>0.17627</v>
+        <v>0.183334</v>
       </c>
       <c r="D60" t="n">
-        <v>0.266462</v>
+        <v>0.275453</v>
       </c>
       <c r="E60" t="n">
-        <v>0.255392</v>
+        <v>0.209685</v>
       </c>
       <c r="F60" t="n">
-        <v>0.160303</v>
+        <v>0.158134</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.33232</v>
+        <v>0.24501</v>
       </c>
       <c r="C61" t="n">
-        <v>0.172777</v>
+        <v>0.171239</v>
       </c>
       <c r="D61" t="n">
-        <v>0.274301</v>
+        <v>0.273569</v>
       </c>
       <c r="E61" t="n">
-        <v>0.257428</v>
+        <v>0.216378</v>
       </c>
       <c r="F61" t="n">
-        <v>0.158317</v>
+        <v>0.160473</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.328038</v>
+        <v>0.24258</v>
       </c>
       <c r="C62" t="n">
-        <v>0.174008</v>
+        <v>0.17238</v>
       </c>
       <c r="D62" t="n">
-        <v>0.282841</v>
+        <v>0.285723</v>
       </c>
       <c r="E62" t="n">
-        <v>0.257344</v>
+        <v>0.211366</v>
       </c>
       <c r="F62" t="n">
-        <v>0.169871</v>
+        <v>0.162979</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.330953</v>
+        <v>0.251622</v>
       </c>
       <c r="C63" t="n">
-        <v>0.17762</v>
+        <v>0.177709</v>
       </c>
       <c r="D63" t="n">
-        <v>0.293899</v>
+        <v>0.300167</v>
       </c>
       <c r="E63" t="n">
-        <v>0.255562</v>
+        <v>0.215872</v>
       </c>
       <c r="F63" t="n">
-        <v>0.169615</v>
+        <v>0.188782</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.333127</v>
+        <v>0.249337</v>
       </c>
       <c r="C64" t="n">
-        <v>0.181002</v>
+        <v>0.182344</v>
       </c>
       <c r="D64" t="n">
-        <v>0.266551</v>
+        <v>0.276279</v>
       </c>
       <c r="E64" t="n">
-        <v>0.263562</v>
+        <v>0.22129</v>
       </c>
       <c r="F64" t="n">
-        <v>0.185966</v>
+        <v>0.183847</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.338442</v>
+        <v>0.262728</v>
       </c>
       <c r="C65" t="n">
-        <v>0.189837</v>
+        <v>0.192481</v>
       </c>
       <c r="D65" t="n">
-        <v>0.28478</v>
+        <v>0.276175</v>
       </c>
       <c r="E65" t="n">
-        <v>0.27091</v>
+        <v>0.22321</v>
       </c>
       <c r="F65" t="n">
-        <v>0.189813</v>
+        <v>0.185562</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.350286</v>
+        <v>0.2488</v>
       </c>
       <c r="C66" t="n">
-        <v>0.202833</v>
+        <v>0.19617</v>
       </c>
       <c r="D66" t="n">
-        <v>0.286026</v>
+        <v>0.287018</v>
       </c>
       <c r="E66" t="n">
-        <v>0.376804</v>
+        <v>0.282078</v>
       </c>
       <c r="F66" t="n">
-        <v>0.239438</v>
+        <v>0.210559</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.552365</v>
+        <v>0.362638</v>
       </c>
       <c r="C67" t="n">
-        <v>0.248995</v>
+        <v>0.245355</v>
       </c>
       <c r="D67" t="n">
-        <v>0.301364</v>
+        <v>0.295536</v>
       </c>
       <c r="E67" t="n">
-        <v>0.384235</v>
+        <v>0.289708</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2434</v>
+        <v>0.211467</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.544755</v>
+        <v>0.39462</v>
       </c>
       <c r="C68" t="n">
-        <v>0.248475</v>
+        <v>0.247237</v>
       </c>
       <c r="D68" t="n">
-        <v>0.309234</v>
+        <v>0.30505</v>
       </c>
       <c r="E68" t="n">
-        <v>0.389194</v>
+        <v>0.291042</v>
       </c>
       <c r="F68" t="n">
-        <v>0.242588</v>
+        <v>0.215682</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.543532</v>
+        <v>0.369331</v>
       </c>
       <c r="C69" t="n">
-        <v>0.254739</v>
+        <v>0.251106</v>
       </c>
       <c r="D69" t="n">
-        <v>0.318729</v>
+        <v>0.319385</v>
       </c>
       <c r="E69" t="n">
-        <v>0.390922</v>
+        <v>0.291376</v>
       </c>
       <c r="F69" t="n">
-        <v>0.251893</v>
+        <v>0.217107</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.555837</v>
+        <v>0.37035</v>
       </c>
       <c r="C70" t="n">
-        <v>0.250958</v>
+        <v>0.251171</v>
       </c>
       <c r="D70" t="n">
-        <v>0.32728</v>
+        <v>0.334203</v>
       </c>
       <c r="E70" t="n">
-        <v>0.390752</v>
+        <v>0.294998</v>
       </c>
       <c r="F70" t="n">
-        <v>0.252352</v>
+        <v>0.219494</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.552557</v>
+        <v>0.365788</v>
       </c>
       <c r="C71" t="n">
-        <v>0.251364</v>
+        <v>0.253059</v>
       </c>
       <c r="D71" t="n">
-        <v>0.340841</v>
+        <v>0.341635</v>
       </c>
       <c r="E71" t="n">
-        <v>0.400088</v>
+        <v>0.293548</v>
       </c>
       <c r="F71" t="n">
-        <v>0.275714</v>
+        <v>0.221554</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.550315</v>
+        <v>0.37161</v>
       </c>
       <c r="C72" t="n">
-        <v>0.255376</v>
+        <v>0.259762</v>
       </c>
       <c r="D72" t="n">
-        <v>0.358454</v>
+        <v>0.351795</v>
       </c>
       <c r="E72" t="n">
-        <v>0.391447</v>
+        <v>0.295595</v>
       </c>
       <c r="F72" t="n">
-        <v>0.254287</v>
+        <v>0.221206</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.55303</v>
+        <v>0.366494</v>
       </c>
       <c r="C73" t="n">
-        <v>0.257742</v>
+        <v>0.253913</v>
       </c>
       <c r="D73" t="n">
-        <v>0.365729</v>
+        <v>0.363654</v>
       </c>
       <c r="E73" t="n">
-        <v>0.392084</v>
+        <v>0.295896</v>
       </c>
       <c r="F73" t="n">
-        <v>0.260694</v>
+        <v>0.223104</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.564009</v>
+        <v>0.3689</v>
       </c>
       <c r="C74" t="n">
-        <v>0.260187</v>
+        <v>0.25493</v>
       </c>
       <c r="D74" t="n">
-        <v>0.402526</v>
+        <v>0.379329</v>
       </c>
       <c r="E74" t="n">
-        <v>0.398455</v>
+        <v>0.300343</v>
       </c>
       <c r="F74" t="n">
-        <v>0.26609</v>
+        <v>0.227492</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.554395</v>
+        <v>0.373684</v>
       </c>
       <c r="C75" t="n">
-        <v>0.260037</v>
+        <v>0.258588</v>
       </c>
       <c r="D75" t="n">
-        <v>0.397257</v>
+        <v>0.41999</v>
       </c>
       <c r="E75" t="n">
-        <v>0.40501</v>
+        <v>0.299747</v>
       </c>
       <c r="F75" t="n">
-        <v>0.263662</v>
+        <v>0.236166</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.557625</v>
+        <v>0.376379</v>
       </c>
       <c r="C76" t="n">
-        <v>0.270237</v>
+        <v>0.262126</v>
       </c>
       <c r="D76" t="n">
-        <v>0.426901</v>
+        <v>0.416042</v>
       </c>
       <c r="E76" t="n">
-        <v>0.413891</v>
+        <v>0.306798</v>
       </c>
       <c r="F76" t="n">
-        <v>0.272197</v>
+        <v>0.244391</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.589707</v>
+        <v>0.379199</v>
       </c>
       <c r="C77" t="n">
-        <v>0.265548</v>
+        <v>0.265274</v>
       </c>
       <c r="D77" t="n">
-        <v>0.426806</v>
+        <v>0.428036</v>
       </c>
       <c r="E77" t="n">
-        <v>0.41368</v>
+        <v>0.314841</v>
       </c>
       <c r="F77" t="n">
-        <v>0.275466</v>
+        <v>0.241554</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.570865</v>
+        <v>0.379361</v>
       </c>
       <c r="C78" t="n">
-        <v>0.270555</v>
+        <v>0.267756</v>
       </c>
       <c r="D78" t="n">
-        <v>0.400968</v>
+        <v>0.402474</v>
       </c>
       <c r="E78" t="n">
-        <v>0.404002</v>
+        <v>0.312956</v>
       </c>
       <c r="F78" t="n">
-        <v>0.27954</v>
+        <v>0.246469</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.587595</v>
+        <v>0.38671</v>
       </c>
       <c r="C79" t="n">
-        <v>0.274512</v>
+        <v>0.274187</v>
       </c>
       <c r="D79" t="n">
-        <v>0.413199</v>
+        <v>0.413834</v>
       </c>
       <c r="E79" t="n">
-        <v>0.423882</v>
+        <v>0.320124</v>
       </c>
       <c r="F79" t="n">
-        <v>0.291984</v>
+        <v>0.255075</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.602261</v>
+        <v>0.394945</v>
       </c>
       <c r="C80" t="n">
-        <v>0.282681</v>
+        <v>0.279296</v>
       </c>
       <c r="D80" t="n">
-        <v>0.422048</v>
+        <v>0.444468</v>
       </c>
       <c r="E80" t="n">
-        <v>0.655365</v>
+        <v>0.4192</v>
       </c>
       <c r="F80" t="n">
-        <v>0.508012</v>
+        <v>0.340036</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.845066</v>
+        <v>0.520904</v>
       </c>
       <c r="C81" t="n">
-        <v>0.405681</v>
+        <v>0.390154</v>
       </c>
       <c r="D81" t="n">
-        <v>0.471289</v>
+        <v>0.441156</v>
       </c>
       <c r="E81" t="n">
-        <v>0.662983</v>
+        <v>0.416574</v>
       </c>
       <c r="F81" t="n">
-        <v>0.492318</v>
+        <v>0.353921</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.874178</v>
+        <v>0.54245</v>
       </c>
       <c r="C82" t="n">
-        <v>0.440081</v>
+        <v>0.395908</v>
       </c>
       <c r="D82" t="n">
-        <v>0.450892</v>
+        <v>0.44745</v>
       </c>
       <c r="E82" t="n">
-        <v>0.675733</v>
+        <v>0.42071</v>
       </c>
       <c r="F82" t="n">
-        <v>0.515894</v>
+        <v>0.34484</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.842583</v>
+        <v>0.526122</v>
       </c>
       <c r="C83" t="n">
-        <v>0.398786</v>
+        <v>0.395623</v>
       </c>
       <c r="D83" t="n">
-        <v>0.452744</v>
+        <v>0.450891</v>
       </c>
       <c r="E83" t="n">
-        <v>0.692946</v>
+        <v>0.41875</v>
       </c>
       <c r="F83" t="n">
-        <v>0.484162</v>
+        <v>0.358532</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.854245</v>
+        <v>0.521167</v>
       </c>
       <c r="C84" t="n">
-        <v>0.395106</v>
+        <v>0.394637</v>
       </c>
       <c r="D84" t="n">
-        <v>0.471736</v>
+        <v>0.465519</v>
       </c>
       <c r="E84" t="n">
-        <v>0.683229</v>
+        <v>0.424429</v>
       </c>
       <c r="F84" t="n">
-        <v>0.485601</v>
+        <v>0.349185</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.871882</v>
+        <v>0.527079</v>
       </c>
       <c r="C85" t="n">
-        <v>0.444113</v>
+        <v>0.39418</v>
       </c>
       <c r="D85" t="n">
-        <v>0.476564</v>
+        <v>0.510439</v>
       </c>
       <c r="E85" t="n">
-        <v>0.658466</v>
+        <v>0.43498</v>
       </c>
       <c r="F85" t="n">
-        <v>0.493459</v>
+        <v>0.354581</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.850007</v>
+        <v>0.52377</v>
       </c>
       <c r="C86" t="n">
-        <v>0.398996</v>
+        <v>0.398936</v>
       </c>
       <c r="D86" t="n">
-        <v>0.499719</v>
+        <v>0.492502</v>
       </c>
       <c r="E86" t="n">
-        <v>0.660677</v>
+        <v>0.423913</v>
       </c>
       <c r="F86" t="n">
-        <v>0.487628</v>
+        <v>0.35854</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.847575</v>
+        <v>0.52491</v>
       </c>
       <c r="C87" t="n">
-        <v>0.415543</v>
+        <v>0.399902</v>
       </c>
       <c r="D87" t="n">
-        <v>0.518961</v>
+        <v>0.509726</v>
       </c>
       <c r="E87" t="n">
-        <v>0.679782</v>
+        <v>0.430274</v>
       </c>
       <c r="F87" t="n">
-        <v>0.503647</v>
+        <v>0.354808</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.854924</v>
+        <v>0.528776</v>
       </c>
       <c r="C88" t="n">
-        <v>0.40762</v>
+        <v>0.406611</v>
       </c>
       <c r="D88" t="n">
-        <v>0.524097</v>
+        <v>0.521419</v>
       </c>
       <c r="E88" t="n">
-        <v>0.669735</v>
+        <v>0.429665</v>
       </c>
       <c r="F88" t="n">
-        <v>0.496883</v>
+        <v>0.355037</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.858411</v>
+        <v>0.526227</v>
       </c>
       <c r="C89" t="n">
-        <v>0.452216</v>
+        <v>0.404352</v>
       </c>
       <c r="D89" t="n">
-        <v>0.535236</v>
+        <v>0.533987</v>
       </c>
       <c r="E89" t="n">
-        <v>0.663111</v>
+        <v>0.428235</v>
       </c>
       <c r="F89" t="n">
-        <v>0.529605</v>
+        <v>0.355701</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.859451</v>
+        <v>0.527066</v>
       </c>
       <c r="C90" t="n">
-        <v>0.405974</v>
+        <v>0.411386</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5508960000000001</v>
+        <v>0.554549</v>
       </c>
       <c r="E90" t="n">
-        <v>0.691059</v>
+        <v>0.434361</v>
       </c>
       <c r="F90" t="n">
-        <v>0.536264</v>
+        <v>0.360251</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.853743</v>
+        <v>0.528133</v>
       </c>
       <c r="C91" t="n">
-        <v>0.412021</v>
+        <v>0.421454</v>
       </c>
       <c r="D91" t="n">
-        <v>0.570393</v>
+        <v>0.574217</v>
       </c>
       <c r="E91" t="n">
-        <v>0.666596</v>
+        <v>0.445686</v>
       </c>
       <c r="F91" t="n">
-        <v>0.520258</v>
+        <v>0.36277</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.872241</v>
+        <v>0.528287</v>
       </c>
       <c r="C92" t="n">
-        <v>0.430905</v>
+        <v>0.418523</v>
       </c>
       <c r="D92" t="n">
-        <v>0.575648</v>
+        <v>0.525403</v>
       </c>
       <c r="E92" t="n">
-        <v>0.676609</v>
+        <v>0.444504</v>
       </c>
       <c r="F92" t="n">
-        <v>0.512648</v>
+        <v>0.369392</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.856973</v>
+        <v>0.532627</v>
       </c>
       <c r="C93" t="n">
-        <v>0.450104</v>
+        <v>0.415331</v>
       </c>
       <c r="D93" t="n">
-        <v>0.549472</v>
+        <v>0.532845</v>
       </c>
       <c r="E93" t="n">
-        <v>0.671596</v>
+        <v>0.44578</v>
       </c>
       <c r="F93" t="n">
-        <v>0.520297</v>
+        <v>0.374204</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.853371</v>
+        <v>0.5384949999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.429429</v>
+        <v>0.431728</v>
       </c>
       <c r="D94" t="n">
-        <v>0.588625</v>
+        <v>0.547255</v>
       </c>
       <c r="E94" t="n">
-        <v>0.911485</v>
+        <v>0.504987</v>
       </c>
       <c r="F94" t="n">
-        <v>0.832131</v>
+        <v>0.504911</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.05655</v>
+        <v>0.608715</v>
       </c>
       <c r="C95" t="n">
-        <v>0.645622</v>
+        <v>0.584735</v>
       </c>
       <c r="D95" t="n">
-        <v>0.607899</v>
+        <v>0.556935</v>
       </c>
       <c r="E95" t="n">
-        <v>0.94407</v>
+        <v>0.508511</v>
       </c>
       <c r="F95" t="n">
-        <v>0.835694</v>
+        <v>0.513056</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.1075</v>
+        <v>0.614444</v>
       </c>
       <c r="C96" t="n">
-        <v>0.629256</v>
+        <v>0.586622</v>
       </c>
       <c r="D96" t="n">
-        <v>0.582786</v>
+        <v>0.566412</v>
       </c>
       <c r="E96" t="n">
-        <v>0.951744</v>
+        <v>0.5070170000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>0.893527</v>
+        <v>0.509223</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.14666</v>
+        <v>0.610912</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6435419999999999</v>
+        <v>0.588012</v>
       </c>
       <c r="D97" t="n">
-        <v>0.605098</v>
+        <v>0.585802</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9172360000000001</v>
+        <v>0.521748</v>
       </c>
       <c r="F97" t="n">
-        <v>0.830508</v>
+        <v>0.528116</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.06706</v>
+        <v>0.619837</v>
       </c>
       <c r="C98" t="n">
-        <v>0.600464</v>
+        <v>0.588948</v>
       </c>
       <c r="D98" t="n">
-        <v>0.62112</v>
+        <v>0.6035509999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>0.917552</v>
+        <v>0.50869</v>
       </c>
       <c r="F98" t="n">
-        <v>0.876385</v>
+        <v>0.511379</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.06694</v>
+        <v>0.601445</v>
       </c>
       <c r="C99" t="n">
-        <v>0.607716</v>
+        <v>0.58725</v>
       </c>
       <c r="D99" t="n">
-        <v>0.620053</v>
+        <v>0.607792</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9577</v>
+        <v>0.509228</v>
       </c>
       <c r="F99" t="n">
-        <v>0.91465</v>
+        <v>0.511721</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.06299</v>
+        <v>0.609801</v>
       </c>
       <c r="C100" t="n">
-        <v>0.60733</v>
+        <v>0.587434</v>
       </c>
       <c r="D100" t="n">
-        <v>0.63114</v>
+        <v>0.624562</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9534859999999999</v>
+        <v>0.509171</v>
       </c>
       <c r="F100" t="n">
-        <v>0.866449</v>
+        <v>0.519191</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.12242</v>
+        <v>0.614679</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6534489999999999</v>
+        <v>0.590924</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6645720000000001</v>
+        <v>0.642122</v>
       </c>
       <c r="E101" t="n">
-        <v>0.968209</v>
+        <v>0.517477</v>
       </c>
       <c r="F101" t="n">
-        <v>0.888393</v>
+        <v>0.52007</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.12915</v>
+        <v>0.6102340000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.646058</v>
+        <v>0.596495</v>
       </c>
       <c r="D102" t="n">
-        <v>0.678732</v>
+        <v>0.666237</v>
       </c>
       <c r="E102" t="n">
-        <v>0.957078</v>
+        <v>0.521584</v>
       </c>
       <c r="F102" t="n">
-        <v>0.889419</v>
+        <v>0.531968</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.10833</v>
+        <v>0.617327</v>
       </c>
       <c r="C103" t="n">
-        <v>0.6039949999999999</v>
+        <v>0.594728</v>
       </c>
       <c r="D103" t="n">
-        <v>0.679853</v>
+        <v>0.672445</v>
       </c>
       <c r="E103" t="n">
-        <v>0.960815</v>
+        <v>0.517464</v>
       </c>
       <c r="F103" t="n">
-        <v>0.898381</v>
+        <v>0.527935</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.12604</v>
+        <v>0.611305</v>
       </c>
       <c r="C104" t="n">
-        <v>0.6115080000000001</v>
+        <v>0.603212</v>
       </c>
       <c r="D104" t="n">
-        <v>0.732044</v>
+        <v>0.684183</v>
       </c>
       <c r="E104" t="n">
-        <v>0.910798</v>
+        <v>0.5195610000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>0.852248</v>
+        <v>0.531168</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.07301</v>
+        <v>0.613063</v>
       </c>
       <c r="C105" t="n">
-        <v>0.610105</v>
+        <v>0.603464</v>
       </c>
       <c r="D105" t="n">
-        <v>0.71953</v>
+        <v>0.699199</v>
       </c>
       <c r="E105" t="n">
-        <v>0.926798</v>
+        <v>0.523842</v>
       </c>
       <c r="F105" t="n">
-        <v>0.884782</v>
+        <v>0.534139</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.0806</v>
+        <v>0.616058</v>
       </c>
       <c r="C106" t="n">
-        <v>0.617824</v>
+        <v>0.616744</v>
       </c>
       <c r="D106" t="n">
-        <v>0.727186</v>
+        <v>0.711651</v>
       </c>
       <c r="E106" t="n">
-        <v>0.952195</v>
+        <v>0.526647</v>
       </c>
       <c r="F106" t="n">
-        <v>0.933459</v>
+        <v>0.543275</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.09794</v>
+        <v>0.612847</v>
       </c>
       <c r="C107" t="n">
-        <v>0.626153</v>
+        <v>0.628793</v>
       </c>
       <c r="D107" t="n">
-        <v>0.684333</v>
+        <v>0.633396</v>
       </c>
       <c r="E107" t="n">
-        <v>0.932003</v>
+        <v>0.529798</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8733030000000001</v>
+        <v>0.547898</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.07533</v>
+        <v>0.620272</v>
       </c>
       <c r="C108" t="n">
-        <v>0.664837</v>
+        <v>0.619709</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6621089999999999</v>
+        <v>0.646313</v>
       </c>
       <c r="E108" t="n">
-        <v>1.16279</v>
+        <v>0.586896</v>
       </c>
       <c r="F108" t="n">
-        <v>1.16637</v>
+        <v>0.615645</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.09277</v>
+        <v>0.629871</v>
       </c>
       <c r="C109" t="n">
-        <v>0.643154</v>
+        <v>0.639239</v>
       </c>
       <c r="D109" t="n">
-        <v>0.68402</v>
+        <v>0.665751</v>
       </c>
       <c r="E109" t="n">
-        <v>1.1361</v>
+        <v>0.586255</v>
       </c>
       <c r="F109" t="n">
-        <v>1.15181</v>
+        <v>0.622067</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.3304</v>
+        <v>0.763162</v>
       </c>
       <c r="C110" t="n">
-        <v>0.740475</v>
+        <v>0.736046</v>
       </c>
       <c r="D110" t="n">
-        <v>0.702327</v>
+        <v>0.683399</v>
       </c>
       <c r="E110" t="n">
-        <v>1.12483</v>
+        <v>0.596713</v>
       </c>
       <c r="F110" t="n">
-        <v>1.1703</v>
+        <v>0.617522</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.32952</v>
+        <v>0.737733</v>
       </c>
       <c r="C111" t="n">
-        <v>0.73724</v>
+        <v>0.736151</v>
       </c>
       <c r="D111" t="n">
-        <v>0.703452</v>
+        <v>0.697338</v>
       </c>
       <c r="E111" t="n">
-        <v>1.13956</v>
+        <v>0.603127</v>
       </c>
       <c r="F111" t="n">
-        <v>1.16924</v>
+        <v>0.627923</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.30638</v>
+        <v>0.736722</v>
       </c>
       <c r="C112" t="n">
-        <v>0.777512</v>
+        <v>0.72667</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7108179999999999</v>
+        <v>0.709187</v>
       </c>
       <c r="E112" t="n">
-        <v>1.14091</v>
+        <v>0.597011</v>
       </c>
       <c r="F112" t="n">
-        <v>1.18787</v>
+        <v>0.629293</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.31215</v>
+        <v>0.741331</v>
       </c>
       <c r="C113" t="n">
-        <v>0.7525500000000001</v>
+        <v>0.7307709999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.722596</v>
+        <v>0.7258869999999999</v>
       </c>
       <c r="E113" t="n">
-        <v>1.16605</v>
+        <v>0.597425</v>
       </c>
       <c r="F113" t="n">
-        <v>1.18924</v>
+        <v>0.625126</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.36062</v>
+        <v>0.739739</v>
       </c>
       <c r="C114" t="n">
-        <v>0.771295</v>
+        <v>0.748536</v>
       </c>
       <c r="D114" t="n">
-        <v>0.743513</v>
+        <v>0.742568</v>
       </c>
       <c r="E114" t="n">
-        <v>1.13472</v>
+        <v>0.608707</v>
       </c>
       <c r="F114" t="n">
-        <v>1.17443</v>
+        <v>0.629892</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.33685</v>
+        <v>0.748885</v>
       </c>
       <c r="C115" t="n">
-        <v>0.76059</v>
+        <v>0.734591</v>
       </c>
       <c r="D115" t="n">
-        <v>0.749935</v>
+        <v>0.784046</v>
       </c>
       <c r="E115" t="n">
-        <v>1.15244</v>
+        <v>0.604347</v>
       </c>
       <c r="F115" t="n">
-        <v>1.23979</v>
+        <v>0.636742</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.31919</v>
+        <v>0.738267</v>
       </c>
       <c r="C116" t="n">
-        <v>0.753849</v>
+        <v>0.7350680000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.765138</v>
+        <v>0.790111</v>
       </c>
       <c r="E116" t="n">
-        <v>1.14405</v>
+        <v>0.6009640000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>1.21347</v>
+        <v>0.650398</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.30445</v>
+        <v>0.757962</v>
       </c>
       <c r="C117" t="n">
-        <v>0.75544</v>
+        <v>0.754904</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7840240000000001</v>
+        <v>0.793872</v>
       </c>
       <c r="E117" t="n">
-        <v>1.15117</v>
+        <v>0.615645</v>
       </c>
       <c r="F117" t="n">
-        <v>1.21608</v>
+        <v>0.648047</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.29704</v>
+        <v>0.747313</v>
       </c>
       <c r="C118" t="n">
-        <v>0.755071</v>
+        <v>0.743375</v>
       </c>
       <c r="D118" t="n">
-        <v>0.795024</v>
+        <v>0.790757</v>
       </c>
       <c r="E118" t="n">
-        <v>1.21661</v>
+        <v>0.603277</v>
       </c>
       <c r="F118" t="n">
-        <v>1.27075</v>
+        <v>0.654933</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.31672</v>
+        <v>0.74988</v>
       </c>
       <c r="C119" t="n">
-        <v>0.774973</v>
+        <v>0.746205</v>
       </c>
       <c r="D119" t="n">
-        <v>0.824805</v>
+        <v>0.815696</v>
       </c>
       <c r="E119" t="n">
-        <v>1.16965</v>
+        <v>0.621355</v>
       </c>
       <c r="F119" t="n">
-        <v>1.21266</v>
+        <v>0.659267</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.32372</v>
+        <v>0.747013</v>
       </c>
       <c r="C120" t="n">
-        <v>0.76373</v>
+        <v>0.757536</v>
       </c>
       <c r="D120" t="n">
-        <v>0.868883</v>
+        <v>0.827354</v>
       </c>
       <c r="E120" t="n">
-        <v>1.20161</v>
+        <v>0.617827</v>
       </c>
       <c r="F120" t="n">
-        <v>1.22759</v>
+        <v>0.657172</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.3309</v>
+        <v>0.751093</v>
       </c>
       <c r="C121" t="n">
-        <v>0.793589</v>
+        <v>0.752344</v>
       </c>
       <c r="D121" t="n">
-        <v>0.729301</v>
+        <v>0.723483</v>
       </c>
       <c r="E121" t="n">
-        <v>1.32071</v>
+        <v>0.629061</v>
       </c>
       <c r="F121" t="n">
-        <v>1.25707</v>
+        <v>0.679123</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.30081</v>
+        <v>0.765393</v>
       </c>
       <c r="C122" t="n">
-        <v>0.782173</v>
+        <v>0.777538</v>
       </c>
       <c r="D122" t="n">
-        <v>0.761582</v>
+        <v>0.736125</v>
       </c>
       <c r="E122" t="n">
-        <v>1.18513</v>
+        <v>0.631558</v>
       </c>
       <c r="F122" t="n">
-        <v>1.22938</v>
+        <v>0.683018</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.31201</v>
+        <v>0.775991</v>
       </c>
       <c r="C123" t="n">
-        <v>0.789664</v>
+        <v>0.781187</v>
       </c>
       <c r="D123" t="n">
-        <v>0.755991</v>
+        <v>0.7592989999999999</v>
       </c>
       <c r="E123" t="n">
-        <v>1.49424</v>
+        <v>0.740914</v>
       </c>
       <c r="F123" t="n">
-        <v>1.43262</v>
+        <v>0.6977370000000001</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.78209</v>
+        <v>0.960494</v>
       </c>
       <c r="C124" t="n">
-        <v>0.916977</v>
+        <v>0.877814</v>
       </c>
       <c r="D124" t="n">
-        <v>0.780958</v>
+        <v>0.766842</v>
       </c>
       <c r="E124" t="n">
-        <v>1.51411</v>
+        <v>0.707186</v>
       </c>
       <c r="F124" t="n">
-        <v>1.42979</v>
+        <v>0.688835</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.71641</v>
+        <v>0.950672</v>
       </c>
       <c r="C125" t="n">
-        <v>0.887078</v>
+        <v>0.875135</v>
       </c>
       <c r="D125" t="n">
-        <v>0.789256</v>
+        <v>0.779262</v>
       </c>
       <c r="E125" t="n">
-        <v>1.52249</v>
+        <v>0.714886</v>
       </c>
       <c r="F125" t="n">
-        <v>1.43156</v>
+        <v>0.702703</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.74768</v>
+        <v>0.966912</v>
       </c>
       <c r="C126" t="n">
-        <v>0.888269</v>
+        <v>0.876241</v>
       </c>
       <c r="D126" t="n">
-        <v>0.800034</v>
+        <v>0.796018</v>
       </c>
       <c r="E126" t="n">
-        <v>1.55026</v>
+        <v>0.715967</v>
       </c>
       <c r="F126" t="n">
-        <v>1.4288</v>
+        <v>0.702301</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.77611</v>
+        <v>0.954501</v>
       </c>
       <c r="C127" t="n">
-        <v>0.901217</v>
+        <v>0.872437</v>
       </c>
       <c r="D127" t="n">
-        <v>0.812618</v>
+        <v>0.801612</v>
       </c>
       <c r="E127" t="n">
-        <v>1.52182</v>
+        <v>0.709833</v>
       </c>
       <c r="F127" t="n">
-        <v>1.43283</v>
+        <v>0.693759</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.72555</v>
+        <v>0.949689</v>
       </c>
       <c r="C128" t="n">
-        <v>0.912242</v>
+        <v>0.876925</v>
       </c>
       <c r="D128" t="n">
-        <v>0.819037</v>
+        <v>0.8236790000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>1.52028</v>
+        <v>0.7150919999999999</v>
       </c>
       <c r="F128" t="n">
-        <v>1.43664</v>
+        <v>0.697454</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.79027</v>
+        <v>0.94773</v>
       </c>
       <c r="C129" t="n">
-        <v>0.903411</v>
+        <v>0.872281</v>
       </c>
       <c r="D129" t="n">
-        <v>0.843348</v>
+        <v>0.837916</v>
       </c>
       <c r="E129" t="n">
-        <v>1.51942</v>
+        <v>0.729221</v>
       </c>
       <c r="F129" t="n">
-        <v>1.42353</v>
+        <v>0.705703</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.72935</v>
+        <v>0.949888</v>
       </c>
       <c r="C130" t="n">
-        <v>0.906434</v>
+        <v>0.875266</v>
       </c>
       <c r="D130" t="n">
-        <v>0.859788</v>
+        <v>0.844836</v>
       </c>
       <c r="E130" t="n">
-        <v>1.52704</v>
+        <v>0.714095</v>
       </c>
       <c r="F130" t="n">
-        <v>1.49745</v>
+        <v>0.719951</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.72937</v>
+        <v>0.959721</v>
       </c>
       <c r="C131" t="n">
-        <v>0.903807</v>
+        <v>0.887725</v>
       </c>
       <c r="D131" t="n">
-        <v>0.877768</v>
+        <v>0.862876</v>
       </c>
       <c r="E131" t="n">
-        <v>1.51474</v>
+        <v>0.72856</v>
       </c>
       <c r="F131" t="n">
-        <v>1.45015</v>
+        <v>0.720919</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.72946</v>
+        <v>0.9575900000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>0.907711</v>
+        <v>0.8962560000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.903826</v>
+        <v>0.894142</v>
       </c>
       <c r="E132" t="n">
-        <v>1.52795</v>
+        <v>0.721378</v>
       </c>
       <c r="F132" t="n">
-        <v>1.46995</v>
+        <v>0.719011</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.74607</v>
+        <v>0.975392</v>
       </c>
       <c r="C133" t="n">
-        <v>0.903485</v>
+        <v>0.89012</v>
       </c>
       <c r="D133" t="n">
-        <v>0.929837</v>
+        <v>0.9121939999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>1.51689</v>
+        <v>0.729534</v>
       </c>
       <c r="F133" t="n">
-        <v>1.47146</v>
+        <v>0.729299</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.73082</v>
+        <v>0.967712</v>
       </c>
       <c r="C134" t="n">
-        <v>0.943103</v>
+        <v>0.899111</v>
       </c>
       <c r="D134" t="n">
-        <v>0.922575</v>
+        <v>0.924278</v>
       </c>
       <c r="E134" t="n">
-        <v>1.52661</v>
+        <v>0.7448129999999999</v>
       </c>
       <c r="F134" t="n">
-        <v>1.48113</v>
+        <v>0.7468129999999999</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.76534</v>
+        <v>0.963846</v>
       </c>
       <c r="C135" t="n">
-        <v>0.919767</v>
+        <v>0.8944839999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>0.810281</v>
+        <v>0.812021</v>
       </c>
       <c r="E135" t="n">
-        <v>1.53363</v>
+        <v>0.747243</v>
       </c>
       <c r="F135" t="n">
-        <v>1.46918</v>
+        <v>0.760988</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.84342</v>
+        <v>0.974867</v>
       </c>
       <c r="C136" t="n">
-        <v>0.927427</v>
+        <v>0.911985</v>
       </c>
       <c r="D136" t="n">
-        <v>0.8246019999999999</v>
+        <v>0.838086</v>
       </c>
       <c r="E136" t="n">
-        <v>1.54591</v>
+        <v>0.787479</v>
       </c>
       <c r="F136" t="n">
-        <v>1.52142</v>
+        <v>0.770018</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.78236</v>
+        <v>0.977622</v>
       </c>
       <c r="C137" t="n">
-        <v>0.964915</v>
+        <v>0.921781</v>
       </c>
       <c r="D137" t="n">
-        <v>0.839219</v>
+        <v>0.833867</v>
       </c>
       <c r="E137" t="n">
-        <v>1.86361</v>
+        <v>0.882274</v>
       </c>
       <c r="F137" t="n">
-        <v>1.69604</v>
+        <v>0.752207</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.24721</v>
+        <v>1.23036</v>
       </c>
       <c r="C138" t="n">
-        <v>1.00209</v>
+        <v>1.02231</v>
       </c>
       <c r="D138" t="n">
-        <v>0.854858</v>
+        <v>0.858509</v>
       </c>
       <c r="E138" t="n">
-        <v>1.86373</v>
+        <v>0.88315</v>
       </c>
       <c r="F138" t="n">
-        <v>1.65014</v>
+        <v>0.758314</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.21212</v>
+        <v>1.23828</v>
       </c>
       <c r="C139" t="n">
-        <v>1.0134</v>
+        <v>0.97489</v>
       </c>
       <c r="D139" t="n">
-        <v>0.874123</v>
+        <v>0.860091</v>
       </c>
       <c r="E139" t="n">
-        <v>1.88424</v>
+        <v>0.8809439999999999</v>
       </c>
       <c r="F139" t="n">
-        <v>1.63728</v>
+        <v>0.769334</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.18116</v>
+        <v>1.20442</v>
       </c>
       <c r="C140" t="n">
-        <v>1.00983</v>
+        <v>0.974882</v>
       </c>
       <c r="D140" t="n">
-        <v>0.887935</v>
+        <v>0.878122</v>
       </c>
       <c r="E140" t="n">
-        <v>1.86673</v>
+        <v>0.879339</v>
       </c>
       <c r="F140" t="n">
-        <v>1.64666</v>
+        <v>0.763449</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.22282</v>
+        <v>1.25338</v>
       </c>
       <c r="C141" t="n">
-        <v>1.0057</v>
+        <v>0.981529</v>
       </c>
       <c r="D141" t="n">
-        <v>0.896699</v>
+        <v>0.907691</v>
       </c>
       <c r="E141" t="n">
-        <v>1.90935</v>
+        <v>0.880047</v>
       </c>
       <c r="F141" t="n">
-        <v>1.64671</v>
+        <v>0.76606</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.21117</v>
+        <v>1.20411</v>
       </c>
       <c r="C142" t="n">
-        <v>1.00536</v>
+        <v>0.986688</v>
       </c>
       <c r="D142" t="n">
-        <v>0.924103</v>
+        <v>0.93007</v>
       </c>
       <c r="E142" t="n">
-        <v>1.87797</v>
+        <v>0.876193</v>
       </c>
       <c r="F142" t="n">
-        <v>1.64755</v>
+        <v>0.771492</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.19042</v>
+        <v>1.21705</v>
       </c>
       <c r="C143" t="n">
-        <v>1.00531</v>
+        <v>0.974979</v>
       </c>
       <c r="D143" t="n">
-        <v>0.938655</v>
+        <v>0.9416</v>
       </c>
       <c r="E143" t="n">
-        <v>1.89295</v>
+        <v>0.87926</v>
       </c>
       <c r="F143" t="n">
-        <v>1.66223</v>
+        <v>0.776156</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.118736</v>
+        <v>0.116316</v>
       </c>
       <c r="C2" t="n">
-        <v>0.10801</v>
+        <v>0.108983</v>
       </c>
       <c r="D2" t="n">
-        <v>0.159406</v>
+        <v>0.162307</v>
       </c>
       <c r="E2" t="n">
-        <v>0.128932</v>
+        <v>0.128233</v>
       </c>
       <c r="F2" t="n">
-        <v>0.119301</v>
+        <v>0.119624</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.123236</v>
+        <v>0.124042</v>
       </c>
       <c r="C3" t="n">
-        <v>0.108904</v>
+        <v>0.116801</v>
       </c>
       <c r="D3" t="n">
-        <v>0.163818</v>
+        <v>0.163888</v>
       </c>
       <c r="E3" t="n">
-        <v>0.128692</v>
+        <v>0.128067</v>
       </c>
       <c r="F3" t="n">
-        <v>0.119919</v>
+        <v>0.119059</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.117254</v>
+        <v>0.115726</v>
       </c>
       <c r="C4" t="n">
-        <v>0.108521</v>
+        <v>0.107708</v>
       </c>
       <c r="D4" t="n">
-        <v>0.166725</v>
+        <v>0.165918</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1294</v>
+        <v>0.127528</v>
       </c>
       <c r="F4" t="n">
-        <v>0.120707</v>
+        <v>0.118415</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.118504</v>
+        <v>0.115697</v>
       </c>
       <c r="C5" t="n">
-        <v>0.109799</v>
+        <v>0.108033</v>
       </c>
       <c r="D5" t="n">
-        <v>0.171991</v>
+        <v>0.170501</v>
       </c>
       <c r="E5" t="n">
-        <v>0.130105</v>
+        <v>0.128545</v>
       </c>
       <c r="F5" t="n">
-        <v>0.121212</v>
+        <v>0.119604</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.119455</v>
+        <v>0.117833</v>
       </c>
       <c r="C6" t="n">
-        <v>0.10984</v>
+        <v>0.111052</v>
       </c>
       <c r="D6" t="n">
-        <v>0.179574</v>
+        <v>0.175498</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1279</v>
+        <v>0.130494</v>
       </c>
       <c r="F6" t="n">
-        <v>0.121074</v>
+        <v>0.12061</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.117935</v>
+        <v>0.114509</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111731</v>
+        <v>0.106154</v>
       </c>
       <c r="D7" t="n">
-        <v>0.149717</v>
+        <v>0.144351</v>
       </c>
       <c r="E7" t="n">
-        <v>0.13288</v>
+        <v>0.131041</v>
       </c>
       <c r="F7" t="n">
-        <v>0.124838</v>
+        <v>0.119601</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.121315</v>
+        <v>0.114008</v>
       </c>
       <c r="C8" t="n">
-        <v>0.114389</v>
+        <v>0.108375</v>
       </c>
       <c r="D8" t="n">
-        <v>0.152343</v>
+        <v>0.146316</v>
       </c>
       <c r="E8" t="n">
-        <v>0.137058</v>
+        <v>0.132206</v>
       </c>
       <c r="F8" t="n">
-        <v>0.128017</v>
+        <v>0.123764</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.123093</v>
+        <v>0.116816</v>
       </c>
       <c r="C9" t="n">
-        <v>0.116343</v>
+        <v>0.115403</v>
       </c>
       <c r="D9" t="n">
-        <v>0.153262</v>
+        <v>0.156917</v>
       </c>
       <c r="E9" t="n">
-        <v>0.129761</v>
+        <v>0.132009</v>
       </c>
       <c r="F9" t="n">
-        <v>0.119966</v>
+        <v>0.121431</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.126127</v>
+        <v>0.129234</v>
       </c>
       <c r="C10" t="n">
-        <v>0.114683</v>
+        <v>0.117834</v>
       </c>
       <c r="D10" t="n">
-        <v>0.158553</v>
+        <v>0.156338</v>
       </c>
       <c r="E10" t="n">
-        <v>0.129528</v>
+        <v>0.129259</v>
       </c>
       <c r="F10" t="n">
-        <v>0.119717</v>
+        <v>0.120438</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.126226</v>
+        <v>0.127533</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1142</v>
+        <v>0.124227</v>
       </c>
       <c r="D11" t="n">
-        <v>0.159456</v>
+        <v>0.174308</v>
       </c>
       <c r="E11" t="n">
-        <v>0.132276</v>
+        <v>0.130966</v>
       </c>
       <c r="F11" t="n">
-        <v>0.121632</v>
+        <v>0.121033</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.128243</v>
+        <v>0.12835</v>
       </c>
       <c r="C12" t="n">
-        <v>0.114503</v>
+        <v>0.115265</v>
       </c>
       <c r="D12" t="n">
-        <v>0.161922</v>
+        <v>0.163994</v>
       </c>
       <c r="E12" t="n">
-        <v>0.129027</v>
+        <v>0.132136</v>
       </c>
       <c r="F12" t="n">
-        <v>0.119471</v>
+        <v>0.123345</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.123544</v>
+        <v>0.127135</v>
       </c>
       <c r="C13" t="n">
-        <v>0.112862</v>
+        <v>0.114513</v>
       </c>
       <c r="D13" t="n">
-        <v>0.161883</v>
+        <v>0.167153</v>
       </c>
       <c r="E13" t="n">
-        <v>0.127889</v>
+        <v>0.131668</v>
       </c>
       <c r="F13" t="n">
-        <v>0.11821</v>
+        <v>0.121476</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.123464</v>
+        <v>0.124258</v>
       </c>
       <c r="C14" t="n">
-        <v>0.112155</v>
+        <v>0.113447</v>
       </c>
       <c r="D14" t="n">
-        <v>0.165203</v>
+        <v>0.166606</v>
       </c>
       <c r="E14" t="n">
-        <v>0.127493</v>
+        <v>0.127895</v>
       </c>
       <c r="F14" t="n">
-        <v>0.11732</v>
+        <v>0.116975</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.122646</v>
+        <v>0.122274</v>
       </c>
       <c r="C15" t="n">
-        <v>0.112679</v>
+        <v>0.112067</v>
       </c>
       <c r="D15" t="n">
-        <v>0.16744</v>
+        <v>0.168184</v>
       </c>
       <c r="E15" t="n">
-        <v>0.127611</v>
+        <v>0.127722</v>
       </c>
       <c r="F15" t="n">
-        <v>0.117581</v>
+        <v>0.11947</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.123805</v>
+        <v>0.122636</v>
       </c>
       <c r="C16" t="n">
-        <v>0.120676</v>
+        <v>0.111353</v>
       </c>
       <c r="D16" t="n">
-        <v>0.172138</v>
+        <v>0.171904</v>
       </c>
       <c r="E16" t="n">
-        <v>0.128586</v>
+        <v>0.127887</v>
       </c>
       <c r="F16" t="n">
-        <v>0.118499</v>
+        <v>0.118103</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.123503</v>
+        <v>0.123713</v>
       </c>
       <c r="C17" t="n">
-        <v>0.112994</v>
+        <v>0.114672</v>
       </c>
       <c r="D17" t="n">
-        <v>0.176819</v>
+        <v>0.175127</v>
       </c>
       <c r="E17" t="n">
-        <v>0.128245</v>
+        <v>0.128812</v>
       </c>
       <c r="F17" t="n">
-        <v>0.119267</v>
+        <v>0.118999</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.124112</v>
+        <v>0.128384</v>
       </c>
       <c r="C18" t="n">
-        <v>0.111157</v>
+        <v>0.113587</v>
       </c>
       <c r="D18" t="n">
-        <v>0.185402</v>
+        <v>0.182702</v>
       </c>
       <c r="E18" t="n">
-        <v>0.128764</v>
+        <v>0.130071</v>
       </c>
       <c r="F18" t="n">
-        <v>0.120136</v>
+        <v>0.118947</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.124595</v>
+        <v>0.123827</v>
       </c>
       <c r="C19" t="n">
-        <v>0.114769</v>
+        <v>0.112628</v>
       </c>
       <c r="D19" t="n">
-        <v>0.184505</v>
+        <v>0.184403</v>
       </c>
       <c r="E19" t="n">
-        <v>0.132123</v>
+        <v>0.12985</v>
       </c>
       <c r="F19" t="n">
-        <v>0.119978</v>
+        <v>0.120092</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.124424</v>
+        <v>0.123309</v>
       </c>
       <c r="C20" t="n">
-        <v>0.112569</v>
+        <v>0.114297</v>
       </c>
       <c r="D20" t="n">
-        <v>0.185821</v>
+        <v>0.186401</v>
       </c>
       <c r="E20" t="n">
-        <v>0.130759</v>
+        <v>0.131069</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1219</v>
+        <v>0.12117</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.125032</v>
+        <v>0.124547</v>
       </c>
       <c r="C21" t="n">
-        <v>0.11363</v>
+        <v>0.113065</v>
       </c>
       <c r="D21" t="n">
-        <v>0.151728</v>
+        <v>0.150783</v>
       </c>
       <c r="E21" t="n">
-        <v>0.133951</v>
+        <v>0.133512</v>
       </c>
       <c r="F21" t="n">
-        <v>0.123682</v>
+        <v>0.12342</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.126932</v>
+        <v>0.125936</v>
       </c>
       <c r="C22" t="n">
-        <v>0.114996</v>
+        <v>0.114961</v>
       </c>
       <c r="D22" t="n">
-        <v>0.153682</v>
+        <v>0.15403</v>
       </c>
       <c r="E22" t="n">
-        <v>0.137505</v>
+        <v>0.138283</v>
       </c>
       <c r="F22" t="n">
-        <v>0.127718</v>
+        <v>0.127298</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.130214</v>
+        <v>0.127852</v>
       </c>
       <c r="C23" t="n">
-        <v>0.123088</v>
+        <v>0.117474</v>
       </c>
       <c r="D23" t="n">
-        <v>0.157152</v>
+        <v>0.157182</v>
       </c>
       <c r="E23" t="n">
-        <v>0.13151</v>
+        <v>0.130985</v>
       </c>
       <c r="F23" t="n">
-        <v>0.121732</v>
+        <v>0.121841</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133608</v>
+        <v>0.13251</v>
       </c>
       <c r="C24" t="n">
-        <v>0.123892</v>
+        <v>0.124689</v>
       </c>
       <c r="D24" t="n">
-        <v>0.159732</v>
+        <v>0.160451</v>
       </c>
       <c r="E24" t="n">
-        <v>0.131569</v>
+        <v>0.132246</v>
       </c>
       <c r="F24" t="n">
-        <v>0.121971</v>
+        <v>0.123137</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.133094</v>
+        <v>0.132828</v>
       </c>
       <c r="C25" t="n">
-        <v>0.123489</v>
+        <v>0.123223</v>
       </c>
       <c r="D25" t="n">
-        <v>0.163128</v>
+        <v>0.163124</v>
       </c>
       <c r="E25" t="n">
-        <v>0.131489</v>
+        <v>0.131638</v>
       </c>
       <c r="F25" t="n">
-        <v>0.122215</v>
+        <v>0.122118</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.134679</v>
+        <v>0.132725</v>
       </c>
       <c r="C26" t="n">
-        <v>0.124364</v>
+        <v>0.123771</v>
       </c>
       <c r="D26" t="n">
-        <v>0.165957</v>
+        <v>0.167255</v>
       </c>
       <c r="E26" t="n">
-        <v>0.131961</v>
+        <v>0.13194</v>
       </c>
       <c r="F26" t="n">
-        <v>0.123166</v>
+        <v>0.123284</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.13323</v>
+        <v>0.132675</v>
       </c>
       <c r="C27" t="n">
-        <v>0.123625</v>
+        <v>0.124079</v>
       </c>
       <c r="D27" t="n">
-        <v>0.169471</v>
+        <v>0.170483</v>
       </c>
       <c r="E27" t="n">
-        <v>0.137787</v>
+        <v>0.132828</v>
       </c>
       <c r="F27" t="n">
-        <v>0.12385</v>
+        <v>0.125455</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.132341</v>
+        <v>0.135264</v>
       </c>
       <c r="C28" t="n">
-        <v>0.124236</v>
+        <v>0.125374</v>
       </c>
       <c r="D28" t="n">
-        <v>0.173067</v>
+        <v>0.174085</v>
       </c>
       <c r="E28" t="n">
-        <v>0.132981</v>
+        <v>0.132884</v>
       </c>
       <c r="F28" t="n">
-        <v>0.123567</v>
+        <v>0.123749</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1341</v>
+        <v>0.133896</v>
       </c>
       <c r="C29" t="n">
-        <v>0.126859</v>
+        <v>0.12679</v>
       </c>
       <c r="D29" t="n">
-        <v>0.178456</v>
+        <v>0.17814</v>
       </c>
       <c r="E29" t="n">
-        <v>0.134219</v>
+        <v>0.136837</v>
       </c>
       <c r="F29" t="n">
-        <v>0.126657</v>
+        <v>0.123529</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.135789</v>
+        <v>0.134041</v>
       </c>
       <c r="C30" t="n">
-        <v>0.125323</v>
+        <v>0.135959</v>
       </c>
       <c r="D30" t="n">
-        <v>0.182174</v>
+        <v>0.184622</v>
       </c>
       <c r="E30" t="n">
-        <v>0.133819</v>
+        <v>0.133592</v>
       </c>
       <c r="F30" t="n">
-        <v>0.125274</v>
+        <v>0.123935</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.135108</v>
+        <v>0.133732</v>
       </c>
       <c r="C31" t="n">
-        <v>0.126989</v>
+        <v>0.125193</v>
       </c>
       <c r="D31" t="n">
-        <v>0.185893</v>
+        <v>0.195475</v>
       </c>
       <c r="E31" t="n">
-        <v>0.134626</v>
+        <v>0.134076</v>
       </c>
       <c r="F31" t="n">
-        <v>0.125541</v>
+        <v>0.125539</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.133907</v>
+        <v>0.132823</v>
       </c>
       <c r="C32" t="n">
-        <v>0.125903</v>
+        <v>0.124762</v>
       </c>
       <c r="D32" t="n">
-        <v>0.190476</v>
+        <v>0.18926</v>
       </c>
       <c r="E32" t="n">
-        <v>0.135232</v>
+        <v>0.139991</v>
       </c>
       <c r="F32" t="n">
-        <v>0.127369</v>
+        <v>0.126492</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.133726</v>
+        <v>0.133487</v>
       </c>
       <c r="C33" t="n">
-        <v>0.127027</v>
+        <v>0.129161</v>
       </c>
       <c r="D33" t="n">
-        <v>0.195062</v>
+        <v>0.193905</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1358</v>
+        <v>0.141231</v>
       </c>
       <c r="F33" t="n">
-        <v>0.12747</v>
+        <v>0.126905</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.133744</v>
+        <v>0.134224</v>
       </c>
       <c r="C34" t="n">
-        <v>0.13047</v>
+        <v>0.127046</v>
       </c>
       <c r="D34" t="n">
-        <v>0.197798</v>
+        <v>0.196629</v>
       </c>
       <c r="E34" t="n">
-        <v>0.138027</v>
+        <v>0.146798</v>
       </c>
       <c r="F34" t="n">
-        <v>0.129252</v>
+        <v>0.132074</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.135055</v>
+        <v>0.136295</v>
       </c>
       <c r="C35" t="n">
-        <v>0.127334</v>
+        <v>0.129063</v>
       </c>
       <c r="D35" t="n">
-        <v>0.164182</v>
+        <v>0.166252</v>
       </c>
       <c r="E35" t="n">
-        <v>0.141429</v>
+        <v>0.142091</v>
       </c>
       <c r="F35" t="n">
-        <v>0.132891</v>
+        <v>0.134963</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.136727</v>
+        <v>0.140212</v>
       </c>
       <c r="C36" t="n">
-        <v>0.130922</v>
+        <v>0.131427</v>
       </c>
       <c r="D36" t="n">
-        <v>0.169812</v>
+        <v>0.168445</v>
       </c>
       <c r="E36" t="n">
-        <v>0.147024</v>
+        <v>0.147604</v>
       </c>
       <c r="F36" t="n">
-        <v>0.137925</v>
+        <v>0.137686</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.140912</v>
+        <v>0.139797</v>
       </c>
       <c r="C37" t="n">
-        <v>0.133704</v>
+        <v>0.133884</v>
       </c>
       <c r="D37" t="n">
-        <v>0.172522</v>
+        <v>0.171295</v>
       </c>
       <c r="E37" t="n">
-        <v>0.137681</v>
+        <v>0.138119</v>
       </c>
       <c r="F37" t="n">
-        <v>0.129657</v>
+        <v>0.149796</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.155589</v>
+        <v>0.187692</v>
       </c>
       <c r="C38" t="n">
-        <v>0.13887</v>
+        <v>0.165693</v>
       </c>
       <c r="D38" t="n">
-        <v>0.175718</v>
+        <v>0.183097</v>
       </c>
       <c r="E38" t="n">
-        <v>0.136847</v>
+        <v>0.137606</v>
       </c>
       <c r="F38" t="n">
-        <v>0.128958</v>
+        <v>0.131454</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.155132</v>
+        <v>0.161036</v>
       </c>
       <c r="C39" t="n">
-        <v>0.139036</v>
+        <v>0.141484</v>
       </c>
       <c r="D39" t="n">
-        <v>0.180094</v>
+        <v>0.18377</v>
       </c>
       <c r="E39" t="n">
-        <v>0.137126</v>
+        <v>0.138592</v>
       </c>
       <c r="F39" t="n">
-        <v>0.129512</v>
+        <v>0.130544</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.155716</v>
+        <v>0.158062</v>
       </c>
       <c r="C40" t="n">
-        <v>0.140284</v>
+        <v>0.139657</v>
       </c>
       <c r="D40" t="n">
-        <v>0.188123</v>
+        <v>0.188899</v>
       </c>
       <c r="E40" t="n">
-        <v>0.13996</v>
+        <v>0.139678</v>
       </c>
       <c r="F40" t="n">
-        <v>0.131492</v>
+        <v>0.139809</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.163275</v>
+        <v>0.156576</v>
       </c>
       <c r="C41" t="n">
-        <v>0.140847</v>
+        <v>0.141671</v>
       </c>
       <c r="D41" t="n">
-        <v>0.191972</v>
+        <v>0.191996</v>
       </c>
       <c r="E41" t="n">
-        <v>0.138701</v>
+        <v>0.139788</v>
       </c>
       <c r="F41" t="n">
-        <v>0.131612</v>
+        <v>0.133244</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.157138</v>
+        <v>0.163316</v>
       </c>
       <c r="C42" t="n">
-        <v>0.140848</v>
+        <v>0.147485</v>
       </c>
       <c r="D42" t="n">
-        <v>0.196975</v>
+        <v>0.199972</v>
       </c>
       <c r="E42" t="n">
-        <v>0.139488</v>
+        <v>0.140574</v>
       </c>
       <c r="F42" t="n">
-        <v>0.131781</v>
+        <v>0.13263</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.15769</v>
+        <v>0.156932</v>
       </c>
       <c r="C43" t="n">
-        <v>0.141656</v>
+        <v>0.141584</v>
       </c>
       <c r="D43" t="n">
-        <v>0.20231</v>
+        <v>0.203058</v>
       </c>
       <c r="E43" t="n">
-        <v>0.139829</v>
+        <v>0.140144</v>
       </c>
       <c r="F43" t="n">
-        <v>0.131509</v>
+        <v>0.132678</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.156056</v>
+        <v>0.156544</v>
       </c>
       <c r="C44" t="n">
-        <v>0.14251</v>
+        <v>0.141673</v>
       </c>
       <c r="D44" t="n">
-        <v>0.207648</v>
+        <v>0.207989</v>
       </c>
       <c r="E44" t="n">
-        <v>0.139562</v>
+        <v>0.140088</v>
       </c>
       <c r="F44" t="n">
-        <v>0.132431</v>
+        <v>0.132442</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.156145</v>
+        <v>0.155728</v>
       </c>
       <c r="C45" t="n">
-        <v>0.140347</v>
+        <v>0.141119</v>
       </c>
       <c r="D45" t="n">
-        <v>0.212158</v>
+        <v>0.212357</v>
       </c>
       <c r="E45" t="n">
-        <v>0.140324</v>
+        <v>0.140714</v>
       </c>
       <c r="F45" t="n">
-        <v>0.133763</v>
+        <v>0.133996</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.158322</v>
+        <v>0.156386</v>
       </c>
       <c r="C46" t="n">
-        <v>0.142747</v>
+        <v>0.14223</v>
       </c>
       <c r="D46" t="n">
-        <v>0.220486</v>
+        <v>0.218918</v>
       </c>
       <c r="E46" t="n">
-        <v>0.142463</v>
+        <v>0.141697</v>
       </c>
       <c r="F46" t="n">
-        <v>0.137691</v>
+        <v>0.135323</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.161889</v>
+        <v>0.157033</v>
       </c>
       <c r="C47" t="n">
-        <v>0.142429</v>
+        <v>0.143753</v>
       </c>
       <c r="D47" t="n">
-        <v>0.226384</v>
+        <v>0.227502</v>
       </c>
       <c r="E47" t="n">
-        <v>0.144404</v>
+        <v>0.14362</v>
       </c>
       <c r="F47" t="n">
-        <v>0.139569</v>
+        <v>0.137767</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.158998</v>
+        <v>0.158346</v>
       </c>
       <c r="C48" t="n">
-        <v>0.14427</v>
+        <v>0.144171</v>
       </c>
       <c r="D48" t="n">
-        <v>0.231683</v>
+        <v>0.2305</v>
       </c>
       <c r="E48" t="n">
-        <v>0.145845</v>
+        <v>0.147118</v>
       </c>
       <c r="F48" t="n">
-        <v>0.140218</v>
+        <v>0.140251</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.159171</v>
+        <v>0.161708</v>
       </c>
       <c r="C49" t="n">
-        <v>0.145207</v>
+        <v>0.152877</v>
       </c>
       <c r="D49" t="n">
-        <v>0.237204</v>
+        <v>0.237463</v>
       </c>
       <c r="E49" t="n">
-        <v>0.148626</v>
+        <v>0.151812</v>
       </c>
       <c r="F49" t="n">
-        <v>0.144041</v>
+        <v>0.145134</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.161189</v>
+        <v>0.162615</v>
       </c>
       <c r="C50" t="n">
-        <v>0.148627</v>
+        <v>0.149597</v>
       </c>
       <c r="D50" t="n">
-        <v>0.205211</v>
+        <v>0.199308</v>
       </c>
       <c r="E50" t="n">
-        <v>0.153754</v>
+        <v>0.163465</v>
       </c>
       <c r="F50" t="n">
-        <v>0.149339</v>
+        <v>0.15427</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.164479</v>
+        <v>0.165162</v>
       </c>
       <c r="C51" t="n">
-        <v>0.151681</v>
+        <v>0.152593</v>
       </c>
       <c r="D51" t="n">
-        <v>0.201101</v>
+        <v>0.204404</v>
       </c>
       <c r="E51" t="n">
-        <v>0.205216</v>
+        <v>0.203118</v>
       </c>
       <c r="F51" t="n">
-        <v>0.145644</v>
+        <v>0.142597</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.169014</v>
+        <v>0.167963</v>
       </c>
       <c r="C52" t="n">
-        <v>0.156491</v>
+        <v>0.158787</v>
       </c>
       <c r="D52" t="n">
-        <v>0.206771</v>
+        <v>0.208346</v>
       </c>
       <c r="E52" t="n">
-        <v>0.20459</v>
+        <v>0.204848</v>
       </c>
       <c r="F52" t="n">
-        <v>0.138778</v>
+        <v>0.143935</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.241038</v>
+        <v>0.243632</v>
       </c>
       <c r="C53" t="n">
-        <v>0.155688</v>
+        <v>0.160541</v>
       </c>
       <c r="D53" t="n">
-        <v>0.21339</v>
+        <v>0.213834</v>
       </c>
       <c r="E53" t="n">
-        <v>0.202531</v>
+        <v>0.205817</v>
       </c>
       <c r="F53" t="n">
-        <v>0.140958</v>
+        <v>0.153326</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.236983</v>
+        <v>0.248004</v>
       </c>
       <c r="C54" t="n">
-        <v>0.156878</v>
+        <v>0.160775</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218639</v>
+        <v>0.216996</v>
       </c>
       <c r="E54" t="n">
-        <v>0.204678</v>
+        <v>0.206195</v>
       </c>
       <c r="F54" t="n">
-        <v>0.142958</v>
+        <v>0.145224</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.242869</v>
+        <v>0.246453</v>
       </c>
       <c r="C55" t="n">
-        <v>0.161463</v>
+        <v>0.173419</v>
       </c>
       <c r="D55" t="n">
-        <v>0.225539</v>
+        <v>0.22389</v>
       </c>
       <c r="E55" t="n">
-        <v>0.205984</v>
+        <v>0.206754</v>
       </c>
       <c r="F55" t="n">
-        <v>0.148016</v>
+        <v>0.148554</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.24599</v>
+        <v>0.24408</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1624</v>
+        <v>0.162587</v>
       </c>
       <c r="D56" t="n">
-        <v>0.231338</v>
+        <v>0.237167</v>
       </c>
       <c r="E56" t="n">
-        <v>0.205234</v>
+        <v>0.206603</v>
       </c>
       <c r="F56" t="n">
-        <v>0.146654</v>
+        <v>0.151818</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.243401</v>
+        <v>0.242739</v>
       </c>
       <c r="C57" t="n">
-        <v>0.163838</v>
+        <v>0.16936</v>
       </c>
       <c r="D57" t="n">
-        <v>0.24005</v>
+        <v>0.24432</v>
       </c>
       <c r="E57" t="n">
-        <v>0.20773</v>
+        <v>0.203894</v>
       </c>
       <c r="F57" t="n">
-        <v>0.154494</v>
+        <v>0.150891</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.245168</v>
+        <v>0.247337</v>
       </c>
       <c r="C58" t="n">
-        <v>0.167394</v>
+        <v>0.174582</v>
       </c>
       <c r="D58" t="n">
-        <v>0.246776</v>
+        <v>0.261498</v>
       </c>
       <c r="E58" t="n">
-        <v>0.206982</v>
+        <v>0.2058</v>
       </c>
       <c r="F58" t="n">
-        <v>0.149899</v>
+        <v>0.159667</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.241882</v>
+        <v>0.246071</v>
       </c>
       <c r="C59" t="n">
-        <v>0.165746</v>
+        <v>0.175663</v>
       </c>
       <c r="D59" t="n">
-        <v>0.255197</v>
+        <v>0.266898</v>
       </c>
       <c r="E59" t="n">
-        <v>0.20638</v>
+        <v>0.217379</v>
       </c>
       <c r="F59" t="n">
-        <v>0.160079</v>
+        <v>0.157726</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.244405</v>
+        <v>0.249944</v>
       </c>
       <c r="C60" t="n">
-        <v>0.183334</v>
+        <v>0.18297</v>
       </c>
       <c r="D60" t="n">
-        <v>0.275453</v>
+        <v>0.27444</v>
       </c>
       <c r="E60" t="n">
-        <v>0.209685</v>
+        <v>0.208868</v>
       </c>
       <c r="F60" t="n">
-        <v>0.158134</v>
+        <v>0.173407</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.24501</v>
+        <v>0.245942</v>
       </c>
       <c r="C61" t="n">
-        <v>0.171239</v>
+        <v>0.183961</v>
       </c>
       <c r="D61" t="n">
-        <v>0.273569</v>
+        <v>0.283472</v>
       </c>
       <c r="E61" t="n">
-        <v>0.216378</v>
+        <v>0.209296</v>
       </c>
       <c r="F61" t="n">
-        <v>0.160473</v>
+        <v>0.15883</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.24258</v>
+        <v>0.251516</v>
       </c>
       <c r="C62" t="n">
-        <v>0.17238</v>
+        <v>0.186521</v>
       </c>
       <c r="D62" t="n">
-        <v>0.285723</v>
+        <v>0.283293</v>
       </c>
       <c r="E62" t="n">
-        <v>0.211366</v>
+        <v>0.210917</v>
       </c>
       <c r="F62" t="n">
-        <v>0.162979</v>
+        <v>0.163903</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.251622</v>
+        <v>0.249643</v>
       </c>
       <c r="C63" t="n">
-        <v>0.177709</v>
+        <v>0.178503</v>
       </c>
       <c r="D63" t="n">
-        <v>0.300167</v>
+        <v>0.296923</v>
       </c>
       <c r="E63" t="n">
-        <v>0.215872</v>
+        <v>0.212992</v>
       </c>
       <c r="F63" t="n">
-        <v>0.188782</v>
+        <v>0.169129</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.249337</v>
+        <v>0.252101</v>
       </c>
       <c r="C64" t="n">
-        <v>0.182344</v>
+        <v>0.198031</v>
       </c>
       <c r="D64" t="n">
-        <v>0.276279</v>
+        <v>0.265304</v>
       </c>
       <c r="E64" t="n">
-        <v>0.22129</v>
+        <v>0.221558</v>
       </c>
       <c r="F64" t="n">
-        <v>0.183847</v>
+        <v>0.189455</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.262728</v>
+        <v>0.251097</v>
       </c>
       <c r="C65" t="n">
-        <v>0.192481</v>
+        <v>0.186706</v>
       </c>
       <c r="D65" t="n">
-        <v>0.276175</v>
+        <v>0.274278</v>
       </c>
       <c r="E65" t="n">
-        <v>0.22321</v>
+        <v>0.226619</v>
       </c>
       <c r="F65" t="n">
-        <v>0.185562</v>
+        <v>0.19031</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.2488</v>
+        <v>0.251806</v>
       </c>
       <c r="C66" t="n">
-        <v>0.19617</v>
+        <v>0.196688</v>
       </c>
       <c r="D66" t="n">
-        <v>0.287018</v>
+        <v>0.286426</v>
       </c>
       <c r="E66" t="n">
-        <v>0.282078</v>
+        <v>0.28571</v>
       </c>
       <c r="F66" t="n">
-        <v>0.210559</v>
+        <v>0.209462</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.362638</v>
+        <v>0.390364</v>
       </c>
       <c r="C67" t="n">
-        <v>0.245355</v>
+        <v>0.246125</v>
       </c>
       <c r="D67" t="n">
-        <v>0.295536</v>
+        <v>0.322003</v>
       </c>
       <c r="E67" t="n">
-        <v>0.289708</v>
+        <v>0.284229</v>
       </c>
       <c r="F67" t="n">
-        <v>0.211467</v>
+        <v>0.209456</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.39462</v>
+        <v>0.36354</v>
       </c>
       <c r="C68" t="n">
-        <v>0.247237</v>
+        <v>0.245846</v>
       </c>
       <c r="D68" t="n">
-        <v>0.30505</v>
+        <v>0.302293</v>
       </c>
       <c r="E68" t="n">
-        <v>0.291042</v>
+        <v>0.285114</v>
       </c>
       <c r="F68" t="n">
-        <v>0.215682</v>
+        <v>0.214286</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.369331</v>
+        <v>0.367615</v>
       </c>
       <c r="C69" t="n">
-        <v>0.251106</v>
+        <v>0.250378</v>
       </c>
       <c r="D69" t="n">
-        <v>0.319385</v>
+        <v>0.317835</v>
       </c>
       <c r="E69" t="n">
-        <v>0.291376</v>
+        <v>0.290167</v>
       </c>
       <c r="F69" t="n">
-        <v>0.217107</v>
+        <v>0.217331</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.37035</v>
+        <v>0.368318</v>
       </c>
       <c r="C70" t="n">
-        <v>0.251171</v>
+        <v>0.252358</v>
       </c>
       <c r="D70" t="n">
-        <v>0.334203</v>
+        <v>0.329156</v>
       </c>
       <c r="E70" t="n">
-        <v>0.294998</v>
+        <v>0.293939</v>
       </c>
       <c r="F70" t="n">
-        <v>0.219494</v>
+        <v>0.229807</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.365788</v>
+        <v>0.378363</v>
       </c>
       <c r="C71" t="n">
-        <v>0.253059</v>
+        <v>0.257325</v>
       </c>
       <c r="D71" t="n">
-        <v>0.341635</v>
+        <v>0.356378</v>
       </c>
       <c r="E71" t="n">
-        <v>0.293548</v>
+        <v>0.300898</v>
       </c>
       <c r="F71" t="n">
-        <v>0.221554</v>
+        <v>0.220564</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.37161</v>
+        <v>0.379446</v>
       </c>
       <c r="C72" t="n">
-        <v>0.259762</v>
+        <v>0.259876</v>
       </c>
       <c r="D72" t="n">
-        <v>0.351795</v>
+        <v>0.361376</v>
       </c>
       <c r="E72" t="n">
-        <v>0.295595</v>
+        <v>0.297715</v>
       </c>
       <c r="F72" t="n">
-        <v>0.221206</v>
+        <v>0.22599</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.366494</v>
+        <v>0.375828</v>
       </c>
       <c r="C73" t="n">
-        <v>0.253913</v>
+        <v>0.254243</v>
       </c>
       <c r="D73" t="n">
-        <v>0.363654</v>
+        <v>0.372542</v>
       </c>
       <c r="E73" t="n">
-        <v>0.295896</v>
+        <v>0.297542</v>
       </c>
       <c r="F73" t="n">
-        <v>0.223104</v>
+        <v>0.227476</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.3689</v>
+        <v>0.370036</v>
       </c>
       <c r="C74" t="n">
-        <v>0.25493</v>
+        <v>0.255873</v>
       </c>
       <c r="D74" t="n">
-        <v>0.379329</v>
+        <v>0.381269</v>
       </c>
       <c r="E74" t="n">
-        <v>0.300343</v>
+        <v>0.300484</v>
       </c>
       <c r="F74" t="n">
-        <v>0.227492</v>
+        <v>0.228055</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.373684</v>
+        <v>0.389986</v>
       </c>
       <c r="C75" t="n">
-        <v>0.258588</v>
+        <v>0.257973</v>
       </c>
       <c r="D75" t="n">
-        <v>0.41999</v>
+        <v>0.393504</v>
       </c>
       <c r="E75" t="n">
-        <v>0.299747</v>
+        <v>0.298647</v>
       </c>
       <c r="F75" t="n">
-        <v>0.236166</v>
+        <v>0.230211</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.376379</v>
+        <v>0.372258</v>
       </c>
       <c r="C76" t="n">
-        <v>0.262126</v>
+        <v>0.262765</v>
       </c>
       <c r="D76" t="n">
-        <v>0.416042</v>
+        <v>0.411426</v>
       </c>
       <c r="E76" t="n">
-        <v>0.306798</v>
+        <v>0.307337</v>
       </c>
       <c r="F76" t="n">
-        <v>0.244391</v>
+        <v>0.235386</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.379199</v>
+        <v>0.376476</v>
       </c>
       <c r="C77" t="n">
-        <v>0.265274</v>
+        <v>0.269604</v>
       </c>
       <c r="D77" t="n">
-        <v>0.428036</v>
+        <v>0.429367</v>
       </c>
       <c r="E77" t="n">
-        <v>0.314841</v>
+        <v>0.31162</v>
       </c>
       <c r="F77" t="n">
-        <v>0.241554</v>
+        <v>0.240388</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.379361</v>
+        <v>0.382476</v>
       </c>
       <c r="C78" t="n">
-        <v>0.267756</v>
+        <v>0.266488</v>
       </c>
       <c r="D78" t="n">
-        <v>0.402474</v>
+        <v>0.396672</v>
       </c>
       <c r="E78" t="n">
-        <v>0.312956</v>
+        <v>0.300554</v>
       </c>
       <c r="F78" t="n">
-        <v>0.246469</v>
+        <v>0.244363</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.38671</v>
+        <v>0.377929</v>
       </c>
       <c r="C79" t="n">
-        <v>0.274187</v>
+        <v>0.269636</v>
       </c>
       <c r="D79" t="n">
-        <v>0.413834</v>
+        <v>0.406134</v>
       </c>
       <c r="E79" t="n">
-        <v>0.320124</v>
+        <v>0.317733</v>
       </c>
       <c r="F79" t="n">
-        <v>0.255075</v>
+        <v>0.252045</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.394945</v>
+        <v>0.386399</v>
       </c>
       <c r="C80" t="n">
-        <v>0.279296</v>
+        <v>0.278381</v>
       </c>
       <c r="D80" t="n">
-        <v>0.444468</v>
+        <v>0.418579</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4192</v>
+        <v>0.421277</v>
       </c>
       <c r="F80" t="n">
-        <v>0.340036</v>
+        <v>0.365062</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.520904</v>
+        <v>0.523793</v>
       </c>
       <c r="C81" t="n">
-        <v>0.390154</v>
+        <v>0.393374</v>
       </c>
       <c r="D81" t="n">
-        <v>0.441156</v>
+        <v>0.433043</v>
       </c>
       <c r="E81" t="n">
-        <v>0.416574</v>
+        <v>0.421011</v>
       </c>
       <c r="F81" t="n">
-        <v>0.353921</v>
+        <v>0.342188</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.54245</v>
+        <v>0.523076</v>
       </c>
       <c r="C82" t="n">
-        <v>0.395908</v>
+        <v>0.397603</v>
       </c>
       <c r="D82" t="n">
-        <v>0.44745</v>
+        <v>0.451596</v>
       </c>
       <c r="E82" t="n">
-        <v>0.42071</v>
+        <v>0.432492</v>
       </c>
       <c r="F82" t="n">
-        <v>0.34484</v>
+        <v>0.339272</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.526122</v>
+        <v>0.517147</v>
       </c>
       <c r="C83" t="n">
-        <v>0.395623</v>
+        <v>0.392344</v>
       </c>
       <c r="D83" t="n">
-        <v>0.450891</v>
+        <v>0.453913</v>
       </c>
       <c r="E83" t="n">
-        <v>0.41875</v>
+        <v>0.420883</v>
       </c>
       <c r="F83" t="n">
-        <v>0.358532</v>
+        <v>0.35238</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.521167</v>
+        <v>0.519085</v>
       </c>
       <c r="C84" t="n">
-        <v>0.394637</v>
+        <v>0.392712</v>
       </c>
       <c r="D84" t="n">
-        <v>0.465519</v>
+        <v>0.466191</v>
       </c>
       <c r="E84" t="n">
-        <v>0.424429</v>
+        <v>0.421559</v>
       </c>
       <c r="F84" t="n">
-        <v>0.349185</v>
+        <v>0.343316</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.527079</v>
+        <v>0.563061</v>
       </c>
       <c r="C85" t="n">
-        <v>0.39418</v>
+        <v>0.409749</v>
       </c>
       <c r="D85" t="n">
-        <v>0.510439</v>
+        <v>0.479488</v>
       </c>
       <c r="E85" t="n">
-        <v>0.43498</v>
+        <v>0.424808</v>
       </c>
       <c r="F85" t="n">
-        <v>0.354581</v>
+        <v>0.349402</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.52377</v>
+        <v>0.516967</v>
       </c>
       <c r="C86" t="n">
-        <v>0.398936</v>
+        <v>0.395937</v>
       </c>
       <c r="D86" t="n">
-        <v>0.492502</v>
+        <v>0.49109</v>
       </c>
       <c r="E86" t="n">
-        <v>0.423913</v>
+        <v>0.424241</v>
       </c>
       <c r="F86" t="n">
-        <v>0.35854</v>
+        <v>0.344032</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.52491</v>
+        <v>0.520154</v>
       </c>
       <c r="C87" t="n">
-        <v>0.399902</v>
+        <v>0.394564</v>
       </c>
       <c r="D87" t="n">
-        <v>0.509726</v>
+        <v>0.512692</v>
       </c>
       <c r="E87" t="n">
-        <v>0.430274</v>
+        <v>0.431661</v>
       </c>
       <c r="F87" t="n">
-        <v>0.354808</v>
+        <v>0.363195</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.528776</v>
+        <v>0.5489810000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.406611</v>
+        <v>0.4054</v>
       </c>
       <c r="D88" t="n">
-        <v>0.521419</v>
+        <v>0.520749</v>
       </c>
       <c r="E88" t="n">
-        <v>0.429665</v>
+        <v>0.431251</v>
       </c>
       <c r="F88" t="n">
-        <v>0.355037</v>
+        <v>0.356938</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.526227</v>
+        <v>0.523837</v>
       </c>
       <c r="C89" t="n">
-        <v>0.404352</v>
+        <v>0.409131</v>
       </c>
       <c r="D89" t="n">
-        <v>0.533987</v>
+        <v>0.540526</v>
       </c>
       <c r="E89" t="n">
-        <v>0.428235</v>
+        <v>0.43228</v>
       </c>
       <c r="F89" t="n">
-        <v>0.355701</v>
+        <v>0.351866</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.527066</v>
+        <v>0.523976</v>
       </c>
       <c r="C90" t="n">
-        <v>0.411386</v>
+        <v>0.399943</v>
       </c>
       <c r="D90" t="n">
-        <v>0.554549</v>
+        <v>0.555292</v>
       </c>
       <c r="E90" t="n">
-        <v>0.434361</v>
+        <v>0.439354</v>
       </c>
       <c r="F90" t="n">
-        <v>0.360251</v>
+        <v>0.376099</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.528133</v>
+        <v>0.540277</v>
       </c>
       <c r="C91" t="n">
-        <v>0.421454</v>
+        <v>0.410289</v>
       </c>
       <c r="D91" t="n">
-        <v>0.574217</v>
+        <v>0.575207</v>
       </c>
       <c r="E91" t="n">
-        <v>0.445686</v>
+        <v>0.442075</v>
       </c>
       <c r="F91" t="n">
-        <v>0.36277</v>
+        <v>0.376865</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.528287</v>
+        <v>0.529083</v>
       </c>
       <c r="C92" t="n">
-        <v>0.418523</v>
+        <v>0.416237</v>
       </c>
       <c r="D92" t="n">
-        <v>0.525403</v>
+        <v>0.529645</v>
       </c>
       <c r="E92" t="n">
-        <v>0.444504</v>
+        <v>0.445418</v>
       </c>
       <c r="F92" t="n">
-        <v>0.369392</v>
+        <v>0.367822</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.532627</v>
+        <v>0.5527570000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>0.415331</v>
+        <v>0.417989</v>
       </c>
       <c r="D93" t="n">
-        <v>0.532845</v>
+        <v>0.538932</v>
       </c>
       <c r="E93" t="n">
-        <v>0.44578</v>
+        <v>0.44502</v>
       </c>
       <c r="F93" t="n">
-        <v>0.374204</v>
+        <v>0.377448</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5384949999999999</v>
+        <v>0.542215</v>
       </c>
       <c r="C94" t="n">
-        <v>0.431728</v>
+        <v>0.425351</v>
       </c>
       <c r="D94" t="n">
-        <v>0.547255</v>
+        <v>0.543666</v>
       </c>
       <c r="E94" t="n">
-        <v>0.504987</v>
+        <v>0.5061870000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>0.504911</v>
+        <v>0.504506</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.608715</v>
+        <v>0.606615</v>
       </c>
       <c r="C95" t="n">
-        <v>0.584735</v>
+        <v>0.5815399999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.556935</v>
+        <v>0.555671</v>
       </c>
       <c r="E95" t="n">
-        <v>0.508511</v>
+        <v>0.508618</v>
       </c>
       <c r="F95" t="n">
-        <v>0.513056</v>
+        <v>0.504101</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.614444</v>
+        <v>0.60514</v>
       </c>
       <c r="C96" t="n">
-        <v>0.586622</v>
+        <v>0.583077</v>
       </c>
       <c r="D96" t="n">
-        <v>0.566412</v>
+        <v>0.56932</v>
       </c>
       <c r="E96" t="n">
-        <v>0.5070170000000001</v>
+        <v>0.51131</v>
       </c>
       <c r="F96" t="n">
-        <v>0.509223</v>
+        <v>0.512421</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.610912</v>
+        <v>0.620614</v>
       </c>
       <c r="C97" t="n">
-        <v>0.588012</v>
+        <v>0.589584</v>
       </c>
       <c r="D97" t="n">
-        <v>0.585802</v>
+        <v>0.584653</v>
       </c>
       <c r="E97" t="n">
-        <v>0.521748</v>
+        <v>0.515346</v>
       </c>
       <c r="F97" t="n">
-        <v>0.528116</v>
+        <v>0.52632</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.619837</v>
+        <v>0.639331</v>
       </c>
       <c r="C98" t="n">
-        <v>0.588948</v>
+        <v>0.595427</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6035509999999999</v>
+        <v>0.6049290000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>0.50869</v>
+        <v>0.517602</v>
       </c>
       <c r="F98" t="n">
-        <v>0.511379</v>
+        <v>0.520389</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.601445</v>
+        <v>0.62327</v>
       </c>
       <c r="C99" t="n">
-        <v>0.58725</v>
+        <v>0.598449</v>
       </c>
       <c r="D99" t="n">
-        <v>0.607792</v>
+        <v>0.615822</v>
       </c>
       <c r="E99" t="n">
-        <v>0.509228</v>
+        <v>0.514941</v>
       </c>
       <c r="F99" t="n">
-        <v>0.511721</v>
+        <v>0.515232</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.609801</v>
+        <v>0.61508</v>
       </c>
       <c r="C100" t="n">
-        <v>0.587434</v>
+        <v>0.595679</v>
       </c>
       <c r="D100" t="n">
-        <v>0.624562</v>
+        <v>0.631598</v>
       </c>
       <c r="E100" t="n">
-        <v>0.509171</v>
+        <v>0.519005</v>
       </c>
       <c r="F100" t="n">
-        <v>0.519191</v>
+        <v>0.521717</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.614679</v>
+        <v>0.622682</v>
       </c>
       <c r="C101" t="n">
-        <v>0.590924</v>
+        <v>0.597208</v>
       </c>
       <c r="D101" t="n">
-        <v>0.642122</v>
+        <v>0.644998</v>
       </c>
       <c r="E101" t="n">
-        <v>0.517477</v>
+        <v>0.519171</v>
       </c>
       <c r="F101" t="n">
-        <v>0.52007</v>
+        <v>0.529456</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.6102340000000001</v>
+        <v>0.615292</v>
       </c>
       <c r="C102" t="n">
-        <v>0.596495</v>
+        <v>0.609818</v>
       </c>
       <c r="D102" t="n">
-        <v>0.666237</v>
+        <v>0.678092</v>
       </c>
       <c r="E102" t="n">
-        <v>0.521584</v>
+        <v>0.5181789999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>0.531968</v>
+        <v>0.523686</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.617327</v>
+        <v>0.611193</v>
       </c>
       <c r="C103" t="n">
-        <v>0.594728</v>
+        <v>0.593036</v>
       </c>
       <c r="D103" t="n">
-        <v>0.672445</v>
+        <v>0.669793</v>
       </c>
       <c r="E103" t="n">
-        <v>0.517464</v>
+        <v>0.514754</v>
       </c>
       <c r="F103" t="n">
-        <v>0.527935</v>
+        <v>0.529573</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.611305</v>
+        <v>0.611269</v>
       </c>
       <c r="C104" t="n">
-        <v>0.603212</v>
+        <v>0.595261</v>
       </c>
       <c r="D104" t="n">
-        <v>0.684183</v>
+        <v>0.682802</v>
       </c>
       <c r="E104" t="n">
-        <v>0.5195610000000001</v>
+        <v>0.51601</v>
       </c>
       <c r="F104" t="n">
-        <v>0.531168</v>
+        <v>0.525855</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.613063</v>
+        <v>0.614185</v>
       </c>
       <c r="C105" t="n">
-        <v>0.603464</v>
+        <v>0.606455</v>
       </c>
       <c r="D105" t="n">
-        <v>0.699199</v>
+        <v>0.69637</v>
       </c>
       <c r="E105" t="n">
-        <v>0.523842</v>
+        <v>0.525241</v>
       </c>
       <c r="F105" t="n">
-        <v>0.534139</v>
+        <v>0.539021</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.616058</v>
+        <v>0.618822</v>
       </c>
       <c r="C106" t="n">
-        <v>0.616744</v>
+        <v>0.613321</v>
       </c>
       <c r="D106" t="n">
-        <v>0.711651</v>
+        <v>0.712713</v>
       </c>
       <c r="E106" t="n">
-        <v>0.526647</v>
+        <v>0.528782</v>
       </c>
       <c r="F106" t="n">
-        <v>0.543275</v>
+        <v>0.540478</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.612847</v>
+        <v>0.617798</v>
       </c>
       <c r="C107" t="n">
-        <v>0.628793</v>
+        <v>0.650746</v>
       </c>
       <c r="D107" t="n">
-        <v>0.633396</v>
+        <v>0.64414</v>
       </c>
       <c r="E107" t="n">
-        <v>0.529798</v>
+        <v>0.538949</v>
       </c>
       <c r="F107" t="n">
-        <v>0.547898</v>
+        <v>0.5511779999999999</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.620272</v>
+        <v>0.619163</v>
       </c>
       <c r="C108" t="n">
-        <v>0.619709</v>
+        <v>0.620343</v>
       </c>
       <c r="D108" t="n">
-        <v>0.646313</v>
+        <v>0.661861</v>
       </c>
       <c r="E108" t="n">
-        <v>0.586896</v>
+        <v>0.61947</v>
       </c>
       <c r="F108" t="n">
-        <v>0.615645</v>
+        <v>0.636914</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.629871</v>
+        <v>0.62699</v>
       </c>
       <c r="C109" t="n">
-        <v>0.639239</v>
+        <v>0.636505</v>
       </c>
       <c r="D109" t="n">
-        <v>0.665751</v>
+        <v>0.692181</v>
       </c>
       <c r="E109" t="n">
-        <v>0.586255</v>
+        <v>0.639147</v>
       </c>
       <c r="F109" t="n">
-        <v>0.622067</v>
+        <v>0.627933</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.763162</v>
+        <v>0.735839</v>
       </c>
       <c r="C110" t="n">
-        <v>0.736046</v>
+        <v>0.779075</v>
       </c>
       <c r="D110" t="n">
-        <v>0.683399</v>
+        <v>0.687231</v>
       </c>
       <c r="E110" t="n">
-        <v>0.596713</v>
+        <v>0.61655</v>
       </c>
       <c r="F110" t="n">
-        <v>0.617522</v>
+        <v>0.646741</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.737733</v>
+        <v>0.749022</v>
       </c>
       <c r="C111" t="n">
-        <v>0.736151</v>
+        <v>0.737616</v>
       </c>
       <c r="D111" t="n">
-        <v>0.697338</v>
+        <v>0.727096</v>
       </c>
       <c r="E111" t="n">
-        <v>0.603127</v>
+        <v>0.602813</v>
       </c>
       <c r="F111" t="n">
-        <v>0.627923</v>
+        <v>0.623318</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.736722</v>
+        <v>0.745586</v>
       </c>
       <c r="C112" t="n">
-        <v>0.72667</v>
+        <v>0.730871</v>
       </c>
       <c r="D112" t="n">
-        <v>0.709187</v>
+        <v>0.711402</v>
       </c>
       <c r="E112" t="n">
-        <v>0.597011</v>
+        <v>0.597208</v>
       </c>
       <c r="F112" t="n">
-        <v>0.629293</v>
+        <v>0.624583</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.741331</v>
+        <v>0.734148</v>
       </c>
       <c r="C113" t="n">
-        <v>0.7307709999999999</v>
+        <v>0.72976</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7258869999999999</v>
+        <v>0.730192</v>
       </c>
       <c r="E113" t="n">
-        <v>0.597425</v>
+        <v>0.605745</v>
       </c>
       <c r="F113" t="n">
-        <v>0.625126</v>
+        <v>0.630705</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.739739</v>
+        <v>0.804319</v>
       </c>
       <c r="C114" t="n">
-        <v>0.748536</v>
+        <v>0.73039</v>
       </c>
       <c r="D114" t="n">
-        <v>0.742568</v>
+        <v>0.7557469999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>0.608707</v>
+        <v>0.598589</v>
       </c>
       <c r="F114" t="n">
-        <v>0.629892</v>
+        <v>0.634291</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.748885</v>
+        <v>0.731347</v>
       </c>
       <c r="C115" t="n">
-        <v>0.734591</v>
+        <v>0.834754</v>
       </c>
       <c r="D115" t="n">
-        <v>0.784046</v>
+        <v>0.754066</v>
       </c>
       <c r="E115" t="n">
-        <v>0.604347</v>
+        <v>0.594796</v>
       </c>
       <c r="F115" t="n">
-        <v>0.636742</v>
+        <v>0.636984</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.738267</v>
+        <v>0.7429789999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>0.7350680000000001</v>
+        <v>0.740452</v>
       </c>
       <c r="D116" t="n">
-        <v>0.790111</v>
+        <v>0.778416</v>
       </c>
       <c r="E116" t="n">
-        <v>0.6009640000000001</v>
+        <v>0.600332</v>
       </c>
       <c r="F116" t="n">
-        <v>0.650398</v>
+        <v>0.649351</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.757962</v>
+        <v>0.743957</v>
       </c>
       <c r="C117" t="n">
-        <v>0.754904</v>
+        <v>0.755311</v>
       </c>
       <c r="D117" t="n">
-        <v>0.793872</v>
+        <v>0.8103089999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>0.615645</v>
+        <v>0.61203</v>
       </c>
       <c r="F117" t="n">
-        <v>0.648047</v>
+        <v>0.655941</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.747313</v>
+        <v>0.7456660000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>0.743375</v>
+        <v>0.756754</v>
       </c>
       <c r="D118" t="n">
-        <v>0.790757</v>
+        <v>0.803995</v>
       </c>
       <c r="E118" t="n">
-        <v>0.603277</v>
+        <v>0.608899</v>
       </c>
       <c r="F118" t="n">
-        <v>0.654933</v>
+        <v>0.649663</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.74988</v>
+        <v>0.7493109999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>0.746205</v>
+        <v>0.751972</v>
       </c>
       <c r="D119" t="n">
-        <v>0.815696</v>
+        <v>0.820166</v>
       </c>
       <c r="E119" t="n">
-        <v>0.621355</v>
+        <v>0.62317</v>
       </c>
       <c r="F119" t="n">
-        <v>0.659267</v>
+        <v>0.660353</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.747013</v>
+        <v>0.753363</v>
       </c>
       <c r="C120" t="n">
-        <v>0.757536</v>
+        <v>0.745402</v>
       </c>
       <c r="D120" t="n">
-        <v>0.827354</v>
+        <v>0.853066</v>
       </c>
       <c r="E120" t="n">
-        <v>0.617827</v>
+        <v>0.630046</v>
       </c>
       <c r="F120" t="n">
-        <v>0.657172</v>
+        <v>0.661983</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.751093</v>
+        <v>0.759684</v>
       </c>
       <c r="C121" t="n">
-        <v>0.752344</v>
+        <v>0.756844</v>
       </c>
       <c r="D121" t="n">
-        <v>0.723483</v>
+        <v>0.727958</v>
       </c>
       <c r="E121" t="n">
-        <v>0.629061</v>
+        <v>0.653247</v>
       </c>
       <c r="F121" t="n">
-        <v>0.679123</v>
+        <v>0.670168</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.765393</v>
+        <v>0.752179</v>
       </c>
       <c r="C122" t="n">
-        <v>0.777538</v>
+        <v>0.762287</v>
       </c>
       <c r="D122" t="n">
-        <v>0.736125</v>
+        <v>0.754463</v>
       </c>
       <c r="E122" t="n">
-        <v>0.631558</v>
+        <v>0.650842</v>
       </c>
       <c r="F122" t="n">
-        <v>0.683018</v>
+        <v>0.684531</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.775991</v>
+        <v>0.768365</v>
       </c>
       <c r="C123" t="n">
-        <v>0.781187</v>
+        <v>0.782884</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7592989999999999</v>
+        <v>0.776267</v>
       </c>
       <c r="E123" t="n">
-        <v>0.740914</v>
+        <v>0.701468</v>
       </c>
       <c r="F123" t="n">
-        <v>0.6977370000000001</v>
+        <v>0.697976</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.960494</v>
+        <v>0.958586</v>
       </c>
       <c r="C124" t="n">
-        <v>0.877814</v>
+        <v>0.886953</v>
       </c>
       <c r="D124" t="n">
-        <v>0.766842</v>
+        <v>0.791676</v>
       </c>
       <c r="E124" t="n">
-        <v>0.707186</v>
+        <v>0.7053469999999999</v>
       </c>
       <c r="F124" t="n">
-        <v>0.688835</v>
+        <v>0.690451</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.950672</v>
+        <v>0.952391</v>
       </c>
       <c r="C125" t="n">
-        <v>0.875135</v>
+        <v>0.868159</v>
       </c>
       <c r="D125" t="n">
-        <v>0.779262</v>
+        <v>0.786039</v>
       </c>
       <c r="E125" t="n">
-        <v>0.714886</v>
+        <v>0.710636</v>
       </c>
       <c r="F125" t="n">
-        <v>0.702703</v>
+        <v>0.694167</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.966912</v>
+        <v>0.953691</v>
       </c>
       <c r="C126" t="n">
-        <v>0.876241</v>
+        <v>0.892804</v>
       </c>
       <c r="D126" t="n">
-        <v>0.796018</v>
+        <v>0.798086</v>
       </c>
       <c r="E126" t="n">
-        <v>0.715967</v>
+        <v>0.716961</v>
       </c>
       <c r="F126" t="n">
-        <v>0.702301</v>
+        <v>0.695729</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.954501</v>
+        <v>0.963476</v>
       </c>
       <c r="C127" t="n">
-        <v>0.872437</v>
+        <v>0.866344</v>
       </c>
       <c r="D127" t="n">
-        <v>0.801612</v>
+        <v>0.822178</v>
       </c>
       <c r="E127" t="n">
-        <v>0.709833</v>
+        <v>0.708465</v>
       </c>
       <c r="F127" t="n">
-        <v>0.693759</v>
+        <v>0.705075</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.949689</v>
+        <v>0.974059</v>
       </c>
       <c r="C128" t="n">
-        <v>0.876925</v>
+        <v>0.910384</v>
       </c>
       <c r="D128" t="n">
-        <v>0.8236790000000001</v>
+        <v>0.842374</v>
       </c>
       <c r="E128" t="n">
-        <v>0.7150919999999999</v>
+        <v>0.73259</v>
       </c>
       <c r="F128" t="n">
-        <v>0.697454</v>
+        <v>0.723784</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.94773</v>
+        <v>0.948497</v>
       </c>
       <c r="C129" t="n">
-        <v>0.872281</v>
+        <v>0.877615</v>
       </c>
       <c r="D129" t="n">
-        <v>0.837916</v>
+        <v>0.878918</v>
       </c>
       <c r="E129" t="n">
-        <v>0.729221</v>
+        <v>0.709754</v>
       </c>
       <c r="F129" t="n">
-        <v>0.705703</v>
+        <v>0.705314</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.949888</v>
+        <v>0.949117</v>
       </c>
       <c r="C130" t="n">
-        <v>0.875266</v>
+        <v>0.881172</v>
       </c>
       <c r="D130" t="n">
-        <v>0.844836</v>
+        <v>0.90152</v>
       </c>
       <c r="E130" t="n">
-        <v>0.714095</v>
+        <v>0.719842</v>
       </c>
       <c r="F130" t="n">
-        <v>0.719951</v>
+        <v>0.7112810000000001</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.959721</v>
+        <v>0.954498</v>
       </c>
       <c r="C131" t="n">
-        <v>0.887725</v>
+        <v>0.882489</v>
       </c>
       <c r="D131" t="n">
-        <v>0.862876</v>
+        <v>0.869494</v>
       </c>
       <c r="E131" t="n">
-        <v>0.72856</v>
+        <v>0.72773</v>
       </c>
       <c r="F131" t="n">
-        <v>0.720919</v>
+        <v>0.721268</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.9575900000000001</v>
+        <v>0.962875</v>
       </c>
       <c r="C132" t="n">
-        <v>0.8962560000000001</v>
+        <v>0.8895960000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.894142</v>
+        <v>0.903583</v>
       </c>
       <c r="E132" t="n">
-        <v>0.721378</v>
+        <v>0.732388</v>
       </c>
       <c r="F132" t="n">
-        <v>0.719011</v>
+        <v>0.723646</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.975392</v>
+        <v>0.97122</v>
       </c>
       <c r="C133" t="n">
-        <v>0.89012</v>
+        <v>0.889418</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9121939999999999</v>
+        <v>0.91328</v>
       </c>
       <c r="E133" t="n">
-        <v>0.729534</v>
+        <v>0.732175</v>
       </c>
       <c r="F133" t="n">
-        <v>0.729299</v>
+        <v>0.746089</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.967712</v>
+        <v>0.965575</v>
       </c>
       <c r="C134" t="n">
-        <v>0.899111</v>
+        <v>0.897767</v>
       </c>
       <c r="D134" t="n">
-        <v>0.924278</v>
+        <v>0.926647</v>
       </c>
       <c r="E134" t="n">
-        <v>0.7448129999999999</v>
+        <v>0.729419</v>
       </c>
       <c r="F134" t="n">
-        <v>0.7468129999999999</v>
+        <v>0.740934</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.963846</v>
+        <v>0.955025</v>
       </c>
       <c r="C135" t="n">
-        <v>0.8944839999999999</v>
+        <v>0.891393</v>
       </c>
       <c r="D135" t="n">
-        <v>0.812021</v>
+        <v>0.820014</v>
       </c>
       <c r="E135" t="n">
-        <v>0.747243</v>
+        <v>0.755124</v>
       </c>
       <c r="F135" t="n">
-        <v>0.760988</v>
+        <v>0.748119</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.974867</v>
+        <v>1.00459</v>
       </c>
       <c r="C136" t="n">
-        <v>0.911985</v>
+        <v>0.919912</v>
       </c>
       <c r="D136" t="n">
-        <v>0.838086</v>
+        <v>0.849994</v>
       </c>
       <c r="E136" t="n">
-        <v>0.787479</v>
+        <v>0.760989</v>
       </c>
       <c r="F136" t="n">
-        <v>0.770018</v>
+        <v>0.774272</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.977622</v>
+        <v>0.974223</v>
       </c>
       <c r="C137" t="n">
-        <v>0.921781</v>
+        <v>0.92313</v>
       </c>
       <c r="D137" t="n">
-        <v>0.833867</v>
+        <v>0.839883</v>
       </c>
       <c r="E137" t="n">
-        <v>0.882274</v>
+        <v>0.873846</v>
       </c>
       <c r="F137" t="n">
-        <v>0.752207</v>
+        <v>0.7565809999999999</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.23036</v>
+        <v>1.21487</v>
       </c>
       <c r="C138" t="n">
-        <v>1.02231</v>
+        <v>0.976309</v>
       </c>
       <c r="D138" t="n">
-        <v>0.858509</v>
+        <v>0.854183</v>
       </c>
       <c r="E138" t="n">
-        <v>0.88315</v>
+        <v>0.869488</v>
       </c>
       <c r="F138" t="n">
-        <v>0.758314</v>
+        <v>0.754088</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.23828</v>
+        <v>1.22056</v>
       </c>
       <c r="C139" t="n">
-        <v>0.97489</v>
+        <v>0.978737</v>
       </c>
       <c r="D139" t="n">
-        <v>0.860091</v>
+        <v>0.865429</v>
       </c>
       <c r="E139" t="n">
-        <v>0.8809439999999999</v>
+        <v>0.8727009999999999</v>
       </c>
       <c r="F139" t="n">
-        <v>0.769334</v>
+        <v>0.761548</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.20442</v>
+        <v>1.20644</v>
       </c>
       <c r="C140" t="n">
-        <v>0.974882</v>
+        <v>0.978702</v>
       </c>
       <c r="D140" t="n">
-        <v>0.878122</v>
+        <v>0.88412</v>
       </c>
       <c r="E140" t="n">
-        <v>0.879339</v>
+        <v>0.8690020000000001</v>
       </c>
       <c r="F140" t="n">
-        <v>0.763449</v>
+        <v>0.759035</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.25338</v>
+        <v>1.2089</v>
       </c>
       <c r="C141" t="n">
-        <v>0.981529</v>
+        <v>0.978264</v>
       </c>
       <c r="D141" t="n">
-        <v>0.907691</v>
+        <v>0.909697</v>
       </c>
       <c r="E141" t="n">
-        <v>0.880047</v>
+        <v>0.8844030000000001</v>
       </c>
       <c r="F141" t="n">
-        <v>0.76606</v>
+        <v>0.769129</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.20411</v>
+        <v>1.20525</v>
       </c>
       <c r="C142" t="n">
-        <v>0.986688</v>
+        <v>0.995916</v>
       </c>
       <c r="D142" t="n">
-        <v>0.93007</v>
+        <v>0.920126</v>
       </c>
       <c r="E142" t="n">
-        <v>0.876193</v>
+        <v>0.89524</v>
       </c>
       <c r="F142" t="n">
-        <v>0.771492</v>
+        <v>0.776463</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.21705</v>
+        <v>1.22003</v>
       </c>
       <c r="C143" t="n">
-        <v>0.974979</v>
+        <v>0.988887</v>
       </c>
       <c r="D143" t="n">
-        <v>0.9416</v>
+        <v>0.934816</v>
       </c>
       <c r="E143" t="n">
-        <v>0.87926</v>
+        <v>0.889756</v>
       </c>
       <c r="F143" t="n">
-        <v>0.776156</v>
+        <v>0.780712</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.112435</v>
+        <v>0.114167</v>
       </c>
       <c r="C2" t="n">
-        <v>0.103189</v>
+        <v>0.108504</v>
       </c>
       <c r="D2" t="n">
-        <v>0.152997</v>
+        <v>0.15907</v>
       </c>
       <c r="E2" t="n">
-        <v>0.123903</v>
+        <v>0.129179</v>
       </c>
       <c r="F2" t="n">
-        <v>0.115266</v>
+        <v>0.119219</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.113567</v>
+        <v>0.123691</v>
       </c>
       <c r="C3" t="n">
-        <v>0.103892</v>
+        <v>0.106939</v>
       </c>
       <c r="D3" t="n">
-        <v>0.158552</v>
+        <v>0.163457</v>
       </c>
       <c r="E3" t="n">
-        <v>0.125022</v>
+        <v>0.127838</v>
       </c>
       <c r="F3" t="n">
-        <v>0.115503</v>
+        <v>0.119498</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.111868</v>
+        <v>0.12328</v>
       </c>
       <c r="C4" t="n">
-        <v>0.104948</v>
+        <v>0.11535</v>
       </c>
       <c r="D4" t="n">
-        <v>0.160998</v>
+        <v>0.16671</v>
       </c>
       <c r="E4" t="n">
-        <v>0.124587</v>
+        <v>0.132038</v>
       </c>
       <c r="F4" t="n">
-        <v>0.116178</v>
+        <v>0.127156</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.113457</v>
+        <v>0.122863</v>
       </c>
       <c r="C5" t="n">
-        <v>0.104683</v>
+        <v>0.115286</v>
       </c>
       <c r="D5" t="n">
-        <v>0.163695</v>
+        <v>0.170551</v>
       </c>
       <c r="E5" t="n">
-        <v>0.125386</v>
+        <v>0.131098</v>
       </c>
       <c r="F5" t="n">
-        <v>0.117014</v>
+        <v>0.122288</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.113975</v>
+        <v>0.117168</v>
       </c>
       <c r="C6" t="n">
-        <v>0.105598</v>
+        <v>0.108825</v>
       </c>
       <c r="D6" t="n">
-        <v>0.173717</v>
+        <v>0.175603</v>
       </c>
       <c r="E6" t="n">
-        <v>0.126356</v>
+        <v>0.139343</v>
       </c>
       <c r="F6" t="n">
-        <v>0.120004</v>
+        <v>0.126345</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.118361</v>
+        <v>0.125288</v>
       </c>
       <c r="C7" t="n">
-        <v>0.106125</v>
+        <v>0.111847</v>
       </c>
       <c r="D7" t="n">
-        <v>0.144439</v>
+        <v>0.149488</v>
       </c>
       <c r="E7" t="n">
-        <v>0.128919</v>
+        <v>0.131535</v>
       </c>
       <c r="F7" t="n">
-        <v>0.123839</v>
+        <v>0.12508</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.114515</v>
+        <v>0.120193</v>
       </c>
       <c r="C8" t="n">
-        <v>0.107369</v>
+        <v>0.121519</v>
       </c>
       <c r="D8" t="n">
-        <v>0.146789</v>
+        <v>0.149515</v>
       </c>
       <c r="E8" t="n">
-        <v>0.138265</v>
+        <v>0.142977</v>
       </c>
       <c r="F8" t="n">
-        <v>0.123821</v>
+        <v>0.133614</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.116581</v>
+        <v>0.119854</v>
       </c>
       <c r="C9" t="n">
-        <v>0.108704</v>
+        <v>0.11389</v>
       </c>
       <c r="D9" t="n">
-        <v>0.148827</v>
+        <v>0.160397</v>
       </c>
       <c r="E9" t="n">
-        <v>0.127682</v>
+        <v>0.134244</v>
       </c>
       <c r="F9" t="n">
-        <v>0.116394</v>
+        <v>0.127296</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.123089</v>
+        <v>0.134942</v>
       </c>
       <c r="C10" t="n">
-        <v>0.110822</v>
+        <v>0.117622</v>
       </c>
       <c r="D10" t="n">
-        <v>0.151304</v>
+        <v>0.160789</v>
       </c>
       <c r="E10" t="n">
-        <v>0.126581</v>
+        <v>0.136126</v>
       </c>
       <c r="F10" t="n">
-        <v>0.116871</v>
+        <v>0.120986</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.126938</v>
+        <v>0.129647</v>
       </c>
       <c r="C11" t="n">
-        <v>0.116322</v>
+        <v>0.119161</v>
       </c>
       <c r="D11" t="n">
-        <v>0.154391</v>
+        <v>0.161005</v>
       </c>
       <c r="E11" t="n">
-        <v>0.12792</v>
+        <v>0.130362</v>
       </c>
       <c r="F11" t="n">
-        <v>0.117707</v>
+        <v>0.119309</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.127773</v>
+        <v>0.126136</v>
       </c>
       <c r="C12" t="n">
-        <v>0.112558</v>
+        <v>0.113947</v>
       </c>
       <c r="D12" t="n">
-        <v>0.158329</v>
+        <v>0.169069</v>
       </c>
       <c r="E12" t="n">
-        <v>0.127501</v>
+        <v>0.130087</v>
       </c>
       <c r="F12" t="n">
-        <v>0.117456</v>
+        <v>0.122158</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.122807</v>
+        <v>0.125558</v>
       </c>
       <c r="C13" t="n">
-        <v>0.111211</v>
+        <v>0.113974</v>
       </c>
       <c r="D13" t="n">
-        <v>0.16302</v>
+        <v>0.166258</v>
       </c>
       <c r="E13" t="n">
-        <v>0.127459</v>
+        <v>0.128058</v>
       </c>
       <c r="F13" t="n">
-        <v>0.117436</v>
+        <v>0.126394</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.122828</v>
+        <v>0.129203</v>
       </c>
       <c r="C14" t="n">
-        <v>0.110709</v>
+        <v>0.112732</v>
       </c>
       <c r="D14" t="n">
-        <v>0.164256</v>
+        <v>0.165958</v>
       </c>
       <c r="E14" t="n">
-        <v>0.127805</v>
+        <v>0.127632</v>
       </c>
       <c r="F14" t="n">
-        <v>0.117784</v>
+        <v>0.124727</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1271</v>
+        <v>0.123293</v>
       </c>
       <c r="C15" t="n">
-        <v>0.111291</v>
+        <v>0.11497</v>
       </c>
       <c r="D15" t="n">
-        <v>0.167933</v>
+        <v>0.177046</v>
       </c>
       <c r="E15" t="n">
-        <v>0.129393</v>
+        <v>0.127291</v>
       </c>
       <c r="F15" t="n">
-        <v>0.119747</v>
+        <v>0.116865</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.125814</v>
+        <v>0.130248</v>
       </c>
       <c r="C16" t="n">
-        <v>0.111573</v>
+        <v>0.113871</v>
       </c>
       <c r="D16" t="n">
-        <v>0.174071</v>
+        <v>0.176453</v>
       </c>
       <c r="E16" t="n">
-        <v>0.128705</v>
+        <v>0.130953</v>
       </c>
       <c r="F16" t="n">
-        <v>0.118917</v>
+        <v>0.123109</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.124172</v>
+        <v>0.123671</v>
       </c>
       <c r="C17" t="n">
-        <v>0.110992</v>
+        <v>0.113136</v>
       </c>
       <c r="D17" t="n">
-        <v>0.179482</v>
+        <v>0.175816</v>
       </c>
       <c r="E17" t="n">
-        <v>0.12951</v>
+        <v>0.130791</v>
       </c>
       <c r="F17" t="n">
-        <v>0.120363</v>
+        <v>0.119835</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.125104</v>
+        <v>0.126896</v>
       </c>
       <c r="C18" t="n">
-        <v>0.112933</v>
+        <v>0.111934</v>
       </c>
       <c r="D18" t="n">
-        <v>0.180981</v>
+        <v>0.180011</v>
       </c>
       <c r="E18" t="n">
-        <v>0.130044</v>
+        <v>0.13293</v>
       </c>
       <c r="F18" t="n">
-        <v>0.11994</v>
+        <v>0.120073</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.124982</v>
+        <v>0.126614</v>
       </c>
       <c r="C19" t="n">
-        <v>0.11354</v>
+        <v>0.114592</v>
       </c>
       <c r="D19" t="n">
-        <v>0.183262</v>
+        <v>0.183273</v>
       </c>
       <c r="E19" t="n">
-        <v>0.130592</v>
+        <v>0.134532</v>
       </c>
       <c r="F19" t="n">
-        <v>0.121268</v>
+        <v>0.122647</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.125521</v>
+        <v>0.123923</v>
       </c>
       <c r="C20" t="n">
-        <v>0.11492</v>
+        <v>0.112141</v>
       </c>
       <c r="D20" t="n">
-        <v>0.189408</v>
+        <v>0.187687</v>
       </c>
       <c r="E20" t="n">
-        <v>0.133069</v>
+        <v>0.134447</v>
       </c>
       <c r="F20" t="n">
-        <v>0.122439</v>
+        <v>0.120917</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.125405</v>
+        <v>0.128072</v>
       </c>
       <c r="C21" t="n">
-        <v>0.113388</v>
+        <v>0.113654</v>
       </c>
       <c r="D21" t="n">
-        <v>0.15297</v>
+        <v>0.152506</v>
       </c>
       <c r="E21" t="n">
-        <v>0.134518</v>
+        <v>0.133756</v>
       </c>
       <c r="F21" t="n">
-        <v>0.12463</v>
+        <v>0.12333</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.127025</v>
+        <v>0.126918</v>
       </c>
       <c r="C22" t="n">
-        <v>0.118229</v>
+        <v>0.116107</v>
       </c>
       <c r="D22" t="n">
-        <v>0.155493</v>
+        <v>0.156793</v>
       </c>
       <c r="E22" t="n">
-        <v>0.138191</v>
+        <v>0.138915</v>
       </c>
       <c r="F22" t="n">
-        <v>0.128585</v>
+        <v>0.126877</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.135274</v>
+        <v>0.137428</v>
       </c>
       <c r="C23" t="n">
-        <v>0.118378</v>
+        <v>0.118919</v>
       </c>
       <c r="D23" t="n">
-        <v>0.160238</v>
+        <v>0.157334</v>
       </c>
       <c r="E23" t="n">
-        <v>0.132705</v>
+        <v>0.133194</v>
       </c>
       <c r="F23" t="n">
-        <v>0.123812</v>
+        <v>0.124119</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.135155</v>
+        <v>0.132012</v>
       </c>
       <c r="C24" t="n">
-        <v>0.126712</v>
+        <v>0.124765</v>
       </c>
       <c r="D24" t="n">
-        <v>0.168072</v>
+        <v>0.162372</v>
       </c>
       <c r="E24" t="n">
-        <v>0.134215</v>
+        <v>0.130942</v>
       </c>
       <c r="F24" t="n">
-        <v>0.123727</v>
+        <v>0.122902</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134418</v>
+        <v>0.131865</v>
       </c>
       <c r="C25" t="n">
-        <v>0.124972</v>
+        <v>0.124478</v>
       </c>
       <c r="D25" t="n">
-        <v>0.163602</v>
+        <v>0.164358</v>
       </c>
       <c r="E25" t="n">
-        <v>0.132626</v>
+        <v>0.131692</v>
       </c>
       <c r="F25" t="n">
-        <v>0.122534</v>
+        <v>0.123669</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.13471</v>
+        <v>0.132385</v>
       </c>
       <c r="C26" t="n">
-        <v>0.125815</v>
+        <v>0.124843</v>
       </c>
       <c r="D26" t="n">
-        <v>0.167325</v>
+        <v>0.167036</v>
       </c>
       <c r="E26" t="n">
-        <v>0.132621</v>
+        <v>0.133034</v>
       </c>
       <c r="F26" t="n">
-        <v>0.12334</v>
+        <v>0.121963</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.134448</v>
+        <v>0.133054</v>
       </c>
       <c r="C27" t="n">
-        <v>0.125117</v>
+        <v>0.123888</v>
       </c>
       <c r="D27" t="n">
-        <v>0.170696</v>
+        <v>0.170279</v>
       </c>
       <c r="E27" t="n">
-        <v>0.133359</v>
+        <v>0.132691</v>
       </c>
       <c r="F27" t="n">
-        <v>0.12423</v>
+        <v>0.122796</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.132932</v>
+        <v>0.133804</v>
       </c>
       <c r="C28" t="n">
-        <v>0.12823</v>
+        <v>0.129592</v>
       </c>
       <c r="D28" t="n">
-        <v>0.174813</v>
+        <v>0.174979</v>
       </c>
       <c r="E28" t="n">
-        <v>0.133441</v>
+        <v>0.13596</v>
       </c>
       <c r="F28" t="n">
-        <v>0.123926</v>
+        <v>0.124989</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.137911</v>
+        <v>0.132778</v>
       </c>
       <c r="C29" t="n">
-        <v>0.131158</v>
+        <v>0.1258</v>
       </c>
       <c r="D29" t="n">
-        <v>0.178512</v>
+        <v>0.176971</v>
       </c>
       <c r="E29" t="n">
-        <v>0.144907</v>
+        <v>0.133106</v>
       </c>
       <c r="F29" t="n">
-        <v>0.125339</v>
+        <v>0.123347</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.133922</v>
+        <v>0.13289</v>
       </c>
       <c r="C30" t="n">
-        <v>0.127464</v>
+        <v>0.124363</v>
       </c>
       <c r="D30" t="n">
-        <v>0.184219</v>
+        <v>0.18221</v>
       </c>
       <c r="E30" t="n">
-        <v>0.135398</v>
+        <v>0.133869</v>
       </c>
       <c r="F30" t="n">
-        <v>0.124478</v>
+        <v>0.124453</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.135148</v>
+        <v>0.133571</v>
       </c>
       <c r="C31" t="n">
-        <v>0.131593</v>
+        <v>0.127068</v>
       </c>
       <c r="D31" t="n">
-        <v>0.188581</v>
+        <v>0.185741</v>
       </c>
       <c r="E31" t="n">
-        <v>0.135179</v>
+        <v>0.134308</v>
       </c>
       <c r="F31" t="n">
-        <v>0.126003</v>
+        <v>0.125137</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.134364</v>
+        <v>0.137202</v>
       </c>
       <c r="C32" t="n">
-        <v>0.131107</v>
+        <v>0.127354</v>
       </c>
       <c r="D32" t="n">
-        <v>0.189863</v>
+        <v>0.191062</v>
       </c>
       <c r="E32" t="n">
-        <v>0.136229</v>
+        <v>0.135447</v>
       </c>
       <c r="F32" t="n">
-        <v>0.127325</v>
+        <v>0.126142</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.134411</v>
+        <v>0.137112</v>
       </c>
       <c r="C33" t="n">
-        <v>0.126269</v>
+        <v>0.125639</v>
       </c>
       <c r="D33" t="n">
-        <v>0.199769</v>
+        <v>0.193799</v>
       </c>
       <c r="E33" t="n">
-        <v>0.142435</v>
+        <v>0.136719</v>
       </c>
       <c r="F33" t="n">
-        <v>0.12948</v>
+        <v>0.127025</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.136009</v>
+        <v>0.134875</v>
       </c>
       <c r="C34" t="n">
-        <v>0.128076</v>
+        <v>0.126716</v>
       </c>
       <c r="D34" t="n">
-        <v>0.204114</v>
+        <v>0.199111</v>
       </c>
       <c r="E34" t="n">
-        <v>0.142801</v>
+        <v>0.138556</v>
       </c>
       <c r="F34" t="n">
-        <v>0.131373</v>
+        <v>0.129434</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.137258</v>
+        <v>0.134997</v>
       </c>
       <c r="C35" t="n">
-        <v>0.134461</v>
+        <v>0.128304</v>
       </c>
       <c r="D35" t="n">
-        <v>0.167355</v>
+        <v>0.167777</v>
       </c>
       <c r="E35" t="n">
-        <v>0.144475</v>
+        <v>0.141154</v>
       </c>
       <c r="F35" t="n">
-        <v>0.134865</v>
+        <v>0.140547</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.141598</v>
+        <v>0.143956</v>
       </c>
       <c r="C36" t="n">
-        <v>0.133202</v>
+        <v>0.130034</v>
       </c>
       <c r="D36" t="n">
-        <v>0.172079</v>
+        <v>0.169101</v>
       </c>
       <c r="E36" t="n">
-        <v>0.14997</v>
+        <v>0.145964</v>
       </c>
       <c r="F36" t="n">
-        <v>0.140841</v>
+        <v>0.137234</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.142283</v>
+        <v>0.139624</v>
       </c>
       <c r="C37" t="n">
-        <v>0.135043</v>
+        <v>0.133239</v>
       </c>
       <c r="D37" t="n">
-        <v>0.177795</v>
+        <v>0.170905</v>
       </c>
       <c r="E37" t="n">
-        <v>0.142309</v>
+        <v>0.136874</v>
       </c>
       <c r="F37" t="n">
-        <v>0.132062</v>
+        <v>0.128352</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.166824</v>
+        <v>0.156612</v>
       </c>
       <c r="C38" t="n">
-        <v>0.141967</v>
+        <v>0.142954</v>
       </c>
       <c r="D38" t="n">
-        <v>0.179611</v>
+        <v>0.177454</v>
       </c>
       <c r="E38" t="n">
-        <v>0.149647</v>
+        <v>0.138242</v>
       </c>
       <c r="F38" t="n">
-        <v>0.131799</v>
+        <v>0.129918</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.164655</v>
+        <v>0.157401</v>
       </c>
       <c r="C39" t="n">
-        <v>0.141642</v>
+        <v>0.139633</v>
       </c>
       <c r="D39" t="n">
-        <v>0.183673</v>
+        <v>0.179899</v>
       </c>
       <c r="E39" t="n">
-        <v>0.149586</v>
+        <v>0.137457</v>
       </c>
       <c r="F39" t="n">
-        <v>0.132453</v>
+        <v>0.129164</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.167839</v>
+        <v>0.158301</v>
       </c>
       <c r="C40" t="n">
-        <v>0.141083</v>
+        <v>0.143377</v>
       </c>
       <c r="D40" t="n">
-        <v>0.187097</v>
+        <v>0.187501</v>
       </c>
       <c r="E40" t="n">
-        <v>0.143311</v>
+        <v>0.140921</v>
       </c>
       <c r="F40" t="n">
-        <v>0.132478</v>
+        <v>0.130045</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.165767</v>
+        <v>0.155516</v>
       </c>
       <c r="C41" t="n">
-        <v>0.143131</v>
+        <v>0.140601</v>
       </c>
       <c r="D41" t="n">
-        <v>0.194852</v>
+        <v>0.190786</v>
       </c>
       <c r="E41" t="n">
-        <v>0.142475</v>
+        <v>0.139025</v>
       </c>
       <c r="F41" t="n">
-        <v>0.132604</v>
+        <v>0.131429</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.165877</v>
+        <v>0.156945</v>
       </c>
       <c r="C42" t="n">
-        <v>0.143202</v>
+        <v>0.141145</v>
       </c>
       <c r="D42" t="n">
-        <v>0.197424</v>
+        <v>0.196213</v>
       </c>
       <c r="E42" t="n">
-        <v>0.141926</v>
+        <v>0.141939</v>
       </c>
       <c r="F42" t="n">
-        <v>0.133327</v>
+        <v>0.131805</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.167615</v>
+        <v>0.157571</v>
       </c>
       <c r="C43" t="n">
-        <v>0.147396</v>
+        <v>0.14015</v>
       </c>
       <c r="D43" t="n">
-        <v>0.208777</v>
+        <v>0.201443</v>
       </c>
       <c r="E43" t="n">
-        <v>0.145301</v>
+        <v>0.139817</v>
       </c>
       <c r="F43" t="n">
-        <v>0.13541</v>
+        <v>0.132261</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.168163</v>
+        <v>0.157195</v>
       </c>
       <c r="C44" t="n">
-        <v>0.144011</v>
+        <v>0.141974</v>
       </c>
       <c r="D44" t="n">
-        <v>0.211259</v>
+        <v>0.223777</v>
       </c>
       <c r="E44" t="n">
-        <v>0.143271</v>
+        <v>0.147769</v>
       </c>
       <c r="F44" t="n">
-        <v>0.135629</v>
+        <v>0.132973</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.171062</v>
+        <v>0.15584</v>
       </c>
       <c r="C45" t="n">
-        <v>0.145508</v>
+        <v>0.142628</v>
       </c>
       <c r="D45" t="n">
-        <v>0.217713</v>
+        <v>0.220252</v>
       </c>
       <c r="E45" t="n">
-        <v>0.145065</v>
+        <v>0.141293</v>
       </c>
       <c r="F45" t="n">
-        <v>0.136569</v>
+        <v>0.140147</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.165435</v>
+        <v>0.171143</v>
       </c>
       <c r="C46" t="n">
-        <v>0.143756</v>
+        <v>0.15129</v>
       </c>
       <c r="D46" t="n">
-        <v>0.224125</v>
+        <v>0.227776</v>
       </c>
       <c r="E46" t="n">
-        <v>0.144855</v>
+        <v>0.146608</v>
       </c>
       <c r="F46" t="n">
-        <v>0.137266</v>
+        <v>0.144851</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.166521</v>
+        <v>0.159175</v>
       </c>
       <c r="C47" t="n">
-        <v>0.145745</v>
+        <v>0.147094</v>
       </c>
       <c r="D47" t="n">
-        <v>0.228783</v>
+        <v>0.241214</v>
       </c>
       <c r="E47" t="n">
-        <v>0.147068</v>
+        <v>0.146118</v>
       </c>
       <c r="F47" t="n">
-        <v>0.143618</v>
+        <v>0.138691</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.173068</v>
+        <v>0.160666</v>
       </c>
       <c r="C48" t="n">
-        <v>0.157047</v>
+        <v>0.145021</v>
       </c>
       <c r="D48" t="n">
-        <v>0.234407</v>
+        <v>0.232174</v>
       </c>
       <c r="E48" t="n">
-        <v>0.148675</v>
+        <v>0.14759</v>
       </c>
       <c r="F48" t="n">
-        <v>0.142819</v>
+        <v>0.144811</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.171278</v>
+        <v>0.159373</v>
       </c>
       <c r="C49" t="n">
-        <v>0.151037</v>
+        <v>0.145122</v>
       </c>
       <c r="D49" t="n">
-        <v>0.23996</v>
+        <v>0.236192</v>
       </c>
       <c r="E49" t="n">
-        <v>0.15225</v>
+        <v>0.14849</v>
       </c>
       <c r="F49" t="n">
-        <v>0.146759</v>
+        <v>0.146041</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.172422</v>
+        <v>0.160161</v>
       </c>
       <c r="C50" t="n">
-        <v>0.15309</v>
+        <v>0.147717</v>
       </c>
       <c r="D50" t="n">
-        <v>0.20384</v>
+        <v>0.194751</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1573</v>
+        <v>0.15272</v>
       </c>
       <c r="F50" t="n">
-        <v>0.156549</v>
+        <v>0.149286</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173433</v>
+        <v>0.168807</v>
       </c>
       <c r="C51" t="n">
-        <v>0.154191</v>
+        <v>0.150933</v>
       </c>
       <c r="D51" t="n">
-        <v>0.202973</v>
+        <v>0.201551</v>
       </c>
       <c r="E51" t="n">
-        <v>0.249852</v>
+        <v>0.201334</v>
       </c>
       <c r="F51" t="n">
-        <v>0.149069</v>
+        <v>0.141705</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.178592</v>
+        <v>0.167711</v>
       </c>
       <c r="C52" t="n">
-        <v>0.158866</v>
+        <v>0.156993</v>
       </c>
       <c r="D52" t="n">
-        <v>0.209811</v>
+        <v>0.208814</v>
       </c>
       <c r="E52" t="n">
-        <v>0.251895</v>
+        <v>0.205368</v>
       </c>
       <c r="F52" t="n">
-        <v>0.144125</v>
+        <v>0.142555</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.337731</v>
+        <v>0.241293</v>
       </c>
       <c r="C53" t="n">
-        <v>0.164386</v>
+        <v>0.161896</v>
       </c>
       <c r="D53" t="n">
-        <v>0.217625</v>
+        <v>0.214299</v>
       </c>
       <c r="E53" t="n">
-        <v>0.25525</v>
+        <v>0.202798</v>
       </c>
       <c r="F53" t="n">
-        <v>0.147107</v>
+        <v>0.142354</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.340229</v>
+        <v>0.24582</v>
       </c>
       <c r="C54" t="n">
-        <v>0.163995</v>
+        <v>0.166217</v>
       </c>
       <c r="D54" t="n">
-        <v>0.220855</v>
+        <v>0.22256</v>
       </c>
       <c r="E54" t="n">
-        <v>0.252967</v>
+        <v>0.206198</v>
       </c>
       <c r="F54" t="n">
-        <v>0.148731</v>
+        <v>0.143712</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.353998</v>
+        <v>0.250655</v>
       </c>
       <c r="C55" t="n">
-        <v>0.171596</v>
+        <v>0.167317</v>
       </c>
       <c r="D55" t="n">
-        <v>0.229383</v>
+        <v>0.226301</v>
       </c>
       <c r="E55" t="n">
-        <v>0.250491</v>
+        <v>0.20493</v>
       </c>
       <c r="F55" t="n">
-        <v>0.146834</v>
+        <v>0.144835</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.348382</v>
+        <v>0.241956</v>
       </c>
       <c r="C56" t="n">
-        <v>0.163404</v>
+        <v>0.173581</v>
       </c>
       <c r="D56" t="n">
-        <v>0.233811</v>
+        <v>0.235778</v>
       </c>
       <c r="E56" t="n">
-        <v>0.253494</v>
+        <v>0.207327</v>
       </c>
       <c r="F56" t="n">
-        <v>0.149049</v>
+        <v>0.154042</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.336676</v>
+        <v>0.246054</v>
       </c>
       <c r="C57" t="n">
-        <v>0.165588</v>
+        <v>0.164122</v>
       </c>
       <c r="D57" t="n">
-        <v>0.241773</v>
+        <v>0.238125</v>
       </c>
       <c r="E57" t="n">
-        <v>0.252952</v>
+        <v>0.204869</v>
       </c>
       <c r="F57" t="n">
-        <v>0.151112</v>
+        <v>0.147001</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.333028</v>
+        <v>0.243915</v>
       </c>
       <c r="C58" t="n">
-        <v>0.164745</v>
+        <v>0.16514</v>
       </c>
       <c r="D58" t="n">
-        <v>0.250494</v>
+        <v>0.250766</v>
       </c>
       <c r="E58" t="n">
-        <v>0.253303</v>
+        <v>0.209272</v>
       </c>
       <c r="F58" t="n">
-        <v>0.151805</v>
+        <v>0.150495</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.332017</v>
+        <v>0.251183</v>
       </c>
       <c r="C59" t="n">
-        <v>0.171389</v>
+        <v>0.17142</v>
       </c>
       <c r="D59" t="n">
-        <v>0.258215</v>
+        <v>0.261062</v>
       </c>
       <c r="E59" t="n">
-        <v>0.252066</v>
+        <v>0.214459</v>
       </c>
       <c r="F59" t="n">
-        <v>0.15362</v>
+        <v>0.155719</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.336061</v>
+        <v>0.248491</v>
       </c>
       <c r="C60" t="n">
-        <v>0.17627</v>
+        <v>0.17302</v>
       </c>
       <c r="D60" t="n">
-        <v>0.266462</v>
+        <v>0.264558</v>
       </c>
       <c r="E60" t="n">
-        <v>0.255392</v>
+        <v>0.212267</v>
       </c>
       <c r="F60" t="n">
-        <v>0.160303</v>
+        <v>0.158059</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.33232</v>
+        <v>0.243438</v>
       </c>
       <c r="C61" t="n">
-        <v>0.172777</v>
+        <v>0.171122</v>
       </c>
       <c r="D61" t="n">
-        <v>0.274301</v>
+        <v>0.273297</v>
       </c>
       <c r="E61" t="n">
-        <v>0.257428</v>
+        <v>0.21132</v>
       </c>
       <c r="F61" t="n">
-        <v>0.158317</v>
+        <v>0.160803</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.328038</v>
+        <v>0.249921</v>
       </c>
       <c r="C62" t="n">
-        <v>0.174008</v>
+        <v>0.187975</v>
       </c>
       <c r="D62" t="n">
-        <v>0.282841</v>
+        <v>0.30241</v>
       </c>
       <c r="E62" t="n">
-        <v>0.257344</v>
+        <v>0.218373</v>
       </c>
       <c r="F62" t="n">
-        <v>0.169871</v>
+        <v>0.165223</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.330953</v>
+        <v>0.250366</v>
       </c>
       <c r="C63" t="n">
-        <v>0.17762</v>
+        <v>0.177197</v>
       </c>
       <c r="D63" t="n">
-        <v>0.293899</v>
+        <v>0.294175</v>
       </c>
       <c r="E63" t="n">
-        <v>0.255562</v>
+        <v>0.224297</v>
       </c>
       <c r="F63" t="n">
-        <v>0.169615</v>
+        <v>0.173657</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.333127</v>
+        <v>0.256721</v>
       </c>
       <c r="C64" t="n">
-        <v>0.181002</v>
+        <v>0.182615</v>
       </c>
       <c r="D64" t="n">
-        <v>0.266551</v>
+        <v>0.265963</v>
       </c>
       <c r="E64" t="n">
-        <v>0.263562</v>
+        <v>0.22022</v>
       </c>
       <c r="F64" t="n">
-        <v>0.185966</v>
+        <v>0.176917</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.338442</v>
+        <v>0.24837</v>
       </c>
       <c r="C65" t="n">
-        <v>0.189837</v>
+        <v>0.185893</v>
       </c>
       <c r="D65" t="n">
-        <v>0.28478</v>
+        <v>0.280223</v>
       </c>
       <c r="E65" t="n">
-        <v>0.27091</v>
+        <v>0.228025</v>
       </c>
       <c r="F65" t="n">
-        <v>0.189813</v>
+        <v>0.184174</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.350286</v>
+        <v>0.256107</v>
       </c>
       <c r="C66" t="n">
-        <v>0.202833</v>
+        <v>0.193467</v>
       </c>
       <c r="D66" t="n">
-        <v>0.286026</v>
+        <v>0.281616</v>
       </c>
       <c r="E66" t="n">
-        <v>0.376804</v>
+        <v>0.280711</v>
       </c>
       <c r="F66" t="n">
-        <v>0.239438</v>
+        <v>0.208213</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.552365</v>
+        <v>0.364031</v>
       </c>
       <c r="C67" t="n">
-        <v>0.248995</v>
+        <v>0.246245</v>
       </c>
       <c r="D67" t="n">
-        <v>0.301364</v>
+        <v>0.300718</v>
       </c>
       <c r="E67" t="n">
-        <v>0.384235</v>
+        <v>0.286666</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2434</v>
+        <v>0.212782</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.544755</v>
+        <v>0.365276</v>
       </c>
       <c r="C68" t="n">
-        <v>0.248475</v>
+        <v>0.254072</v>
       </c>
       <c r="D68" t="n">
-        <v>0.309234</v>
+        <v>0.302196</v>
       </c>
       <c r="E68" t="n">
-        <v>0.389194</v>
+        <v>0.288709</v>
       </c>
       <c r="F68" t="n">
-        <v>0.242588</v>
+        <v>0.21135</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.543532</v>
+        <v>0.363269</v>
       </c>
       <c r="C69" t="n">
-        <v>0.254739</v>
+        <v>0.25125</v>
       </c>
       <c r="D69" t="n">
-        <v>0.318729</v>
+        <v>0.318931</v>
       </c>
       <c r="E69" t="n">
-        <v>0.390922</v>
+        <v>0.302555</v>
       </c>
       <c r="F69" t="n">
-        <v>0.251893</v>
+        <v>0.22595</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.555837</v>
+        <v>0.366426</v>
       </c>
       <c r="C70" t="n">
-        <v>0.250958</v>
+        <v>0.258339</v>
       </c>
       <c r="D70" t="n">
-        <v>0.32728</v>
+        <v>0.335286</v>
       </c>
       <c r="E70" t="n">
-        <v>0.390752</v>
+        <v>0.293419</v>
       </c>
       <c r="F70" t="n">
-        <v>0.252352</v>
+        <v>0.22029</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.552557</v>
+        <v>0.371466</v>
       </c>
       <c r="C71" t="n">
-        <v>0.251364</v>
+        <v>0.267514</v>
       </c>
       <c r="D71" t="n">
-        <v>0.340841</v>
+        <v>0.349573</v>
       </c>
       <c r="E71" t="n">
-        <v>0.400088</v>
+        <v>0.291948</v>
       </c>
       <c r="F71" t="n">
-        <v>0.275714</v>
+        <v>0.218275</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.550315</v>
+        <v>0.371623</v>
       </c>
       <c r="C72" t="n">
-        <v>0.255376</v>
+        <v>0.256429</v>
       </c>
       <c r="D72" t="n">
-        <v>0.358454</v>
+        <v>0.357161</v>
       </c>
       <c r="E72" t="n">
-        <v>0.391447</v>
+        <v>0.294856</v>
       </c>
       <c r="F72" t="n">
-        <v>0.254287</v>
+        <v>0.222986</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.55303</v>
+        <v>0.368812</v>
       </c>
       <c r="C73" t="n">
-        <v>0.257742</v>
+        <v>0.256402</v>
       </c>
       <c r="D73" t="n">
-        <v>0.365729</v>
+        <v>0.371244</v>
       </c>
       <c r="E73" t="n">
-        <v>0.392084</v>
+        <v>0.301772</v>
       </c>
       <c r="F73" t="n">
-        <v>0.260694</v>
+        <v>0.224169</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.564009</v>
+        <v>0.370977</v>
       </c>
       <c r="C74" t="n">
-        <v>0.260187</v>
+        <v>0.264013</v>
       </c>
       <c r="D74" t="n">
-        <v>0.402526</v>
+        <v>0.384693</v>
       </c>
       <c r="E74" t="n">
-        <v>0.398455</v>
+        <v>0.306148</v>
       </c>
       <c r="F74" t="n">
-        <v>0.26609</v>
+        <v>0.232478</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.554395</v>
+        <v>0.375907</v>
       </c>
       <c r="C75" t="n">
-        <v>0.260037</v>
+        <v>0.261421</v>
       </c>
       <c r="D75" t="n">
-        <v>0.397257</v>
+        <v>0.398918</v>
       </c>
       <c r="E75" t="n">
-        <v>0.40501</v>
+        <v>0.307418</v>
       </c>
       <c r="F75" t="n">
-        <v>0.263662</v>
+        <v>0.234556</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.557625</v>
+        <v>0.388471</v>
       </c>
       <c r="C76" t="n">
-        <v>0.270237</v>
+        <v>0.264159</v>
       </c>
       <c r="D76" t="n">
-        <v>0.426901</v>
+        <v>0.420483</v>
       </c>
       <c r="E76" t="n">
-        <v>0.413891</v>
+        <v>0.30996</v>
       </c>
       <c r="F76" t="n">
-        <v>0.272197</v>
+        <v>0.235694</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.589707</v>
+        <v>0.387571</v>
       </c>
       <c r="C77" t="n">
-        <v>0.265548</v>
+        <v>0.271004</v>
       </c>
       <c r="D77" t="n">
-        <v>0.426806</v>
+        <v>0.428165</v>
       </c>
       <c r="E77" t="n">
-        <v>0.41368</v>
+        <v>0.306557</v>
       </c>
       <c r="F77" t="n">
-        <v>0.275466</v>
+        <v>0.240479</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.570865</v>
+        <v>0.383032</v>
       </c>
       <c r="C78" t="n">
-        <v>0.270555</v>
+        <v>0.269542</v>
       </c>
       <c r="D78" t="n">
-        <v>0.400968</v>
+        <v>0.404646</v>
       </c>
       <c r="E78" t="n">
-        <v>0.404002</v>
+        <v>0.314108</v>
       </c>
       <c r="F78" t="n">
-        <v>0.27954</v>
+        <v>0.254223</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.587595</v>
+        <v>0.38965</v>
       </c>
       <c r="C79" t="n">
-        <v>0.274512</v>
+        <v>0.274054</v>
       </c>
       <c r="D79" t="n">
-        <v>0.413199</v>
+        <v>0.429948</v>
       </c>
       <c r="E79" t="n">
-        <v>0.423882</v>
+        <v>0.324922</v>
       </c>
       <c r="F79" t="n">
-        <v>0.291984</v>
+        <v>0.253952</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.602261</v>
+        <v>0.396234</v>
       </c>
       <c r="C80" t="n">
-        <v>0.282681</v>
+        <v>0.298256</v>
       </c>
       <c r="D80" t="n">
-        <v>0.422048</v>
+        <v>0.421392</v>
       </c>
       <c r="E80" t="n">
-        <v>0.655365</v>
+        <v>0.416355</v>
       </c>
       <c r="F80" t="n">
-        <v>0.508012</v>
+        <v>0.339468</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.845066</v>
+        <v>0.525151</v>
       </c>
       <c r="C81" t="n">
-        <v>0.405681</v>
+        <v>0.396087</v>
       </c>
       <c r="D81" t="n">
-        <v>0.471289</v>
+        <v>0.431386</v>
       </c>
       <c r="E81" t="n">
-        <v>0.662983</v>
+        <v>0.418774</v>
       </c>
       <c r="F81" t="n">
-        <v>0.492318</v>
+        <v>0.350252</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.874178</v>
+        <v>0.534505</v>
       </c>
       <c r="C82" t="n">
-        <v>0.440081</v>
+        <v>0.393565</v>
       </c>
       <c r="D82" t="n">
-        <v>0.450892</v>
+        <v>0.440044</v>
       </c>
       <c r="E82" t="n">
-        <v>0.675733</v>
+        <v>0.422562</v>
       </c>
       <c r="F82" t="n">
-        <v>0.515894</v>
+        <v>0.345007</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.842583</v>
+        <v>0.527288</v>
       </c>
       <c r="C83" t="n">
-        <v>0.398786</v>
+        <v>0.392998</v>
       </c>
       <c r="D83" t="n">
-        <v>0.452744</v>
+        <v>0.450908</v>
       </c>
       <c r="E83" t="n">
-        <v>0.692946</v>
+        <v>0.425601</v>
       </c>
       <c r="F83" t="n">
-        <v>0.484162</v>
+        <v>0.341681</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.854245</v>
+        <v>0.522193</v>
       </c>
       <c r="C84" t="n">
-        <v>0.395106</v>
+        <v>0.407027</v>
       </c>
       <c r="D84" t="n">
-        <v>0.471736</v>
+        <v>0.472468</v>
       </c>
       <c r="E84" t="n">
-        <v>0.683229</v>
+        <v>0.42949</v>
       </c>
       <c r="F84" t="n">
-        <v>0.485601</v>
+        <v>0.344271</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.871882</v>
+        <v>0.525468</v>
       </c>
       <c r="C85" t="n">
-        <v>0.444113</v>
+        <v>0.391637</v>
       </c>
       <c r="D85" t="n">
-        <v>0.476564</v>
+        <v>0.483629</v>
       </c>
       <c r="E85" t="n">
-        <v>0.658466</v>
+        <v>0.428082</v>
       </c>
       <c r="F85" t="n">
-        <v>0.493459</v>
+        <v>0.347315</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.850007</v>
+        <v>0.534899</v>
       </c>
       <c r="C86" t="n">
-        <v>0.398996</v>
+        <v>0.398314</v>
       </c>
       <c r="D86" t="n">
-        <v>0.499719</v>
+        <v>0.492333</v>
       </c>
       <c r="E86" t="n">
-        <v>0.660677</v>
+        <v>0.428282</v>
       </c>
       <c r="F86" t="n">
-        <v>0.487628</v>
+        <v>0.354373</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.847575</v>
+        <v>0.560324</v>
       </c>
       <c r="C87" t="n">
-        <v>0.415543</v>
+        <v>0.402786</v>
       </c>
       <c r="D87" t="n">
-        <v>0.518961</v>
+        <v>0.509971</v>
       </c>
       <c r="E87" t="n">
-        <v>0.679782</v>
+        <v>0.427791</v>
       </c>
       <c r="F87" t="n">
-        <v>0.503647</v>
+        <v>0.360873</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.854924</v>
+        <v>0.54212</v>
       </c>
       <c r="C88" t="n">
-        <v>0.40762</v>
+        <v>0.416839</v>
       </c>
       <c r="D88" t="n">
-        <v>0.524097</v>
+        <v>0.521759</v>
       </c>
       <c r="E88" t="n">
-        <v>0.669735</v>
+        <v>0.431578</v>
       </c>
       <c r="F88" t="n">
-        <v>0.496883</v>
+        <v>0.352416</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.858411</v>
+        <v>0.53239</v>
       </c>
       <c r="C89" t="n">
-        <v>0.452216</v>
+        <v>0.408633</v>
       </c>
       <c r="D89" t="n">
-        <v>0.535236</v>
+        <v>0.536581</v>
       </c>
       <c r="E89" t="n">
-        <v>0.663111</v>
+        <v>0.432431</v>
       </c>
       <c r="F89" t="n">
-        <v>0.529605</v>
+        <v>0.35475</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.859451</v>
+        <v>0.539179</v>
       </c>
       <c r="C90" t="n">
-        <v>0.405974</v>
+        <v>0.409172</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5508960000000001</v>
+        <v>0.549915</v>
       </c>
       <c r="E90" t="n">
-        <v>0.691059</v>
+        <v>0.445894</v>
       </c>
       <c r="F90" t="n">
-        <v>0.536264</v>
+        <v>0.369344</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.853743</v>
+        <v>0.530263</v>
       </c>
       <c r="C91" t="n">
-        <v>0.412021</v>
+        <v>0.466899</v>
       </c>
       <c r="D91" t="n">
-        <v>0.570393</v>
+        <v>0.573477</v>
       </c>
       <c r="E91" t="n">
-        <v>0.666596</v>
+        <v>0.468885</v>
       </c>
       <c r="F91" t="n">
-        <v>0.520258</v>
+        <v>0.364128</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.872241</v>
+        <v>0.543201</v>
       </c>
       <c r="C92" t="n">
-        <v>0.430905</v>
+        <v>0.417339</v>
       </c>
       <c r="D92" t="n">
-        <v>0.575648</v>
+        <v>0.5302829999999999</v>
       </c>
       <c r="E92" t="n">
-        <v>0.676609</v>
+        <v>0.445881</v>
       </c>
       <c r="F92" t="n">
-        <v>0.512648</v>
+        <v>0.377011</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.856973</v>
+        <v>0.539031</v>
       </c>
       <c r="C93" t="n">
-        <v>0.450104</v>
+        <v>0.440424</v>
       </c>
       <c r="D93" t="n">
-        <v>0.549472</v>
+        <v>0.54312</v>
       </c>
       <c r="E93" t="n">
-        <v>0.671596</v>
+        <v>0.451444</v>
       </c>
       <c r="F93" t="n">
-        <v>0.520297</v>
+        <v>0.383466</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.853371</v>
+        <v>0.546451</v>
       </c>
       <c r="C94" t="n">
-        <v>0.429429</v>
+        <v>0.423463</v>
       </c>
       <c r="D94" t="n">
-        <v>0.588625</v>
+        <v>0.557163</v>
       </c>
       <c r="E94" t="n">
-        <v>0.911485</v>
+        <v>0.506768</v>
       </c>
       <c r="F94" t="n">
-        <v>0.832131</v>
+        <v>0.52391</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.05655</v>
+        <v>0.624128</v>
       </c>
       <c r="C95" t="n">
-        <v>0.645622</v>
+        <v>0.6188630000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.607899</v>
+        <v>0.552589</v>
       </c>
       <c r="E95" t="n">
-        <v>0.94407</v>
+        <v>0.50552</v>
       </c>
       <c r="F95" t="n">
-        <v>0.835694</v>
+        <v>0.508857</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.1075</v>
+        <v>0.629683</v>
       </c>
       <c r="C96" t="n">
-        <v>0.629256</v>
+        <v>0.584695</v>
       </c>
       <c r="D96" t="n">
-        <v>0.582786</v>
+        <v>0.5706369999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>0.951744</v>
+        <v>0.515006</v>
       </c>
       <c r="F96" t="n">
-        <v>0.893527</v>
+        <v>0.516131</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.14666</v>
+        <v>0.616096</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6435419999999999</v>
+        <v>0.618434</v>
       </c>
       <c r="D97" t="n">
-        <v>0.605098</v>
+        <v>0.583028</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9172360000000001</v>
+        <v>0.507092</v>
       </c>
       <c r="F97" t="n">
-        <v>0.830508</v>
+        <v>0.519798</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.06706</v>
+        <v>0.624379</v>
       </c>
       <c r="C98" t="n">
-        <v>0.600464</v>
+        <v>0.585376</v>
       </c>
       <c r="D98" t="n">
-        <v>0.62112</v>
+        <v>0.624437</v>
       </c>
       <c r="E98" t="n">
-        <v>0.917552</v>
+        <v>0.531369</v>
       </c>
       <c r="F98" t="n">
-        <v>0.876385</v>
+        <v>0.509977</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.06694</v>
+        <v>0.616645</v>
       </c>
       <c r="C99" t="n">
-        <v>0.607716</v>
+        <v>0.596461</v>
       </c>
       <c r="D99" t="n">
-        <v>0.620053</v>
+        <v>0.609085</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9577</v>
+        <v>0.537928</v>
       </c>
       <c r="F99" t="n">
-        <v>0.91465</v>
+        <v>0.516189</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.06299</v>
+        <v>0.679071</v>
       </c>
       <c r="C100" t="n">
-        <v>0.60733</v>
+        <v>0.592448</v>
       </c>
       <c r="D100" t="n">
-        <v>0.63114</v>
+        <v>0.626088</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9534859999999999</v>
+        <v>0.54012</v>
       </c>
       <c r="F100" t="n">
-        <v>0.866449</v>
+        <v>0.519593</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.12242</v>
+        <v>0.677376</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6534489999999999</v>
+        <v>0.590961</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6645720000000001</v>
+        <v>0.643431</v>
       </c>
       <c r="E101" t="n">
-        <v>0.968209</v>
+        <v>0.523666</v>
       </c>
       <c r="F101" t="n">
-        <v>0.888393</v>
+        <v>0.537978</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.12915</v>
+        <v>0.624518</v>
       </c>
       <c r="C102" t="n">
-        <v>0.646058</v>
+        <v>0.5986</v>
       </c>
       <c r="D102" t="n">
-        <v>0.678732</v>
+        <v>0.664689</v>
       </c>
       <c r="E102" t="n">
-        <v>0.957078</v>
+        <v>0.521976</v>
       </c>
       <c r="F102" t="n">
-        <v>0.889419</v>
+        <v>0.537646</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.10833</v>
+        <v>0.6319399999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.6039949999999999</v>
+        <v>0.603839</v>
       </c>
       <c r="D103" t="n">
-        <v>0.679853</v>
+        <v>0.676804</v>
       </c>
       <c r="E103" t="n">
-        <v>0.960815</v>
+        <v>0.521571</v>
       </c>
       <c r="F103" t="n">
-        <v>0.898381</v>
+        <v>0.531428</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.12604</v>
+        <v>0.625173</v>
       </c>
       <c r="C104" t="n">
-        <v>0.6115080000000001</v>
+        <v>0.610426</v>
       </c>
       <c r="D104" t="n">
-        <v>0.732044</v>
+        <v>0.688732</v>
       </c>
       <c r="E104" t="n">
-        <v>0.910798</v>
+        <v>0.522393</v>
       </c>
       <c r="F104" t="n">
-        <v>0.852248</v>
+        <v>0.535521</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.07301</v>
+        <v>0.665929</v>
       </c>
       <c r="C105" t="n">
-        <v>0.610105</v>
+        <v>0.604679</v>
       </c>
       <c r="D105" t="n">
-        <v>0.71953</v>
+        <v>0.70375</v>
       </c>
       <c r="E105" t="n">
-        <v>0.926798</v>
+        <v>0.5550079999999999</v>
       </c>
       <c r="F105" t="n">
-        <v>0.884782</v>
+        <v>0.536061</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.0806</v>
+        <v>0.622609</v>
       </c>
       <c r="C106" t="n">
-        <v>0.617824</v>
+        <v>0.645525</v>
       </c>
       <c r="D106" t="n">
-        <v>0.727186</v>
+        <v>0.710816</v>
       </c>
       <c r="E106" t="n">
-        <v>0.952195</v>
+        <v>0.532905</v>
       </c>
       <c r="F106" t="n">
-        <v>0.933459</v>
+        <v>0.55115</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.09794</v>
+        <v>0.6324610000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.626153</v>
+        <v>0.654255</v>
       </c>
       <c r="D107" t="n">
-        <v>0.684333</v>
+        <v>0.648664</v>
       </c>
       <c r="E107" t="n">
-        <v>0.932003</v>
+        <v>0.584077</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8733030000000001</v>
+        <v>0.548721</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.07533</v>
+        <v>0.62773</v>
       </c>
       <c r="C108" t="n">
-        <v>0.664837</v>
+        <v>0.622065</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6621089999999999</v>
+        <v>0.648274</v>
       </c>
       <c r="E108" t="n">
-        <v>1.16279</v>
+        <v>0.6049949999999999</v>
       </c>
       <c r="F108" t="n">
-        <v>1.16637</v>
+        <v>0.628975</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.09277</v>
+        <v>0.636283</v>
       </c>
       <c r="C109" t="n">
-        <v>0.643154</v>
+        <v>0.649957</v>
       </c>
       <c r="D109" t="n">
-        <v>0.68402</v>
+        <v>0.697097</v>
       </c>
       <c r="E109" t="n">
-        <v>1.1361</v>
+        <v>0.609281</v>
       </c>
       <c r="F109" t="n">
-        <v>1.15181</v>
+        <v>0.619574</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.3304</v>
+        <v>0.755161</v>
       </c>
       <c r="C110" t="n">
-        <v>0.740475</v>
+        <v>0.72887</v>
       </c>
       <c r="D110" t="n">
-        <v>0.702327</v>
+        <v>0.678242</v>
       </c>
       <c r="E110" t="n">
-        <v>1.12483</v>
+        <v>0.591233</v>
       </c>
       <c r="F110" t="n">
-        <v>1.1703</v>
+        <v>0.663211</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.32952</v>
+        <v>0.760642</v>
       </c>
       <c r="C111" t="n">
-        <v>0.73724</v>
+        <v>0.74613</v>
       </c>
       <c r="D111" t="n">
-        <v>0.703452</v>
+        <v>0.713116</v>
       </c>
       <c r="E111" t="n">
-        <v>1.13956</v>
+        <v>0.6286890000000001</v>
       </c>
       <c r="F111" t="n">
-        <v>1.16924</v>
+        <v>0.651338</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.30638</v>
+        <v>0.740377</v>
       </c>
       <c r="C112" t="n">
-        <v>0.777512</v>
+        <v>0.744183</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7108179999999999</v>
+        <v>0.71919</v>
       </c>
       <c r="E112" t="n">
-        <v>1.14091</v>
+        <v>0.5962499999999999</v>
       </c>
       <c r="F112" t="n">
-        <v>1.18787</v>
+        <v>0.6654600000000001</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.31215</v>
+        <v>0.749708</v>
       </c>
       <c r="C113" t="n">
-        <v>0.7525500000000001</v>
+        <v>0.733952</v>
       </c>
       <c r="D113" t="n">
-        <v>0.722596</v>
+        <v>0.759233</v>
       </c>
       <c r="E113" t="n">
-        <v>1.16605</v>
+        <v>0.602117</v>
       </c>
       <c r="F113" t="n">
-        <v>1.18924</v>
+        <v>0.644524</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.36062</v>
+        <v>0.744479</v>
       </c>
       <c r="C114" t="n">
-        <v>0.771295</v>
+        <v>0.744453</v>
       </c>
       <c r="D114" t="n">
-        <v>0.743513</v>
+        <v>0.7427589999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>1.13472</v>
+        <v>0.610226</v>
       </c>
       <c r="F114" t="n">
-        <v>1.17443</v>
+        <v>0.62982</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.33685</v>
+        <v>0.743718</v>
       </c>
       <c r="C115" t="n">
-        <v>0.76059</v>
+        <v>0.740151</v>
       </c>
       <c r="D115" t="n">
-        <v>0.749935</v>
+        <v>0.752434</v>
       </c>
       <c r="E115" t="n">
-        <v>1.15244</v>
+        <v>0.619246</v>
       </c>
       <c r="F115" t="n">
-        <v>1.23979</v>
+        <v>0.656625</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.31919</v>
+        <v>0.839004</v>
       </c>
       <c r="C116" t="n">
-        <v>0.753849</v>
+        <v>0.759051</v>
       </c>
       <c r="D116" t="n">
-        <v>0.765138</v>
+        <v>0.7810510000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>1.14405</v>
+        <v>0.614627</v>
       </c>
       <c r="F116" t="n">
-        <v>1.21347</v>
+        <v>0.64323</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.30445</v>
+        <v>0.734804</v>
       </c>
       <c r="C117" t="n">
-        <v>0.75544</v>
+        <v>0.7479440000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7840240000000001</v>
+        <v>0.8320380000000001</v>
       </c>
       <c r="E117" t="n">
-        <v>1.15117</v>
+        <v>0.69706</v>
       </c>
       <c r="F117" t="n">
-        <v>1.21608</v>
+        <v>0.667458</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.29704</v>
+        <v>0.747266</v>
       </c>
       <c r="C118" t="n">
-        <v>0.755071</v>
+        <v>0.743835</v>
       </c>
       <c r="D118" t="n">
-        <v>0.795024</v>
+        <v>0.849916</v>
       </c>
       <c r="E118" t="n">
-        <v>1.21661</v>
+        <v>0.688056</v>
       </c>
       <c r="F118" t="n">
-        <v>1.27075</v>
+        <v>0.671473</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.31672</v>
+        <v>0.788398</v>
       </c>
       <c r="C119" t="n">
-        <v>0.774973</v>
+        <v>0.766938</v>
       </c>
       <c r="D119" t="n">
-        <v>0.824805</v>
+        <v>0.848814</v>
       </c>
       <c r="E119" t="n">
-        <v>1.16965</v>
+        <v>0.617312</v>
       </c>
       <c r="F119" t="n">
-        <v>1.21266</v>
+        <v>0.660144</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.32372</v>
+        <v>0.756274</v>
       </c>
       <c r="C120" t="n">
-        <v>0.76373</v>
+        <v>0.758841</v>
       </c>
       <c r="D120" t="n">
-        <v>0.868883</v>
+        <v>0.8355359999999999</v>
       </c>
       <c r="E120" t="n">
-        <v>1.20161</v>
+        <v>0.618541</v>
       </c>
       <c r="F120" t="n">
-        <v>1.22759</v>
+        <v>0.675777</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.3309</v>
+        <v>0.755732</v>
       </c>
       <c r="C121" t="n">
-        <v>0.793589</v>
+        <v>0.775266</v>
       </c>
       <c r="D121" t="n">
-        <v>0.729301</v>
+        <v>0.774522</v>
       </c>
       <c r="E121" t="n">
-        <v>1.32071</v>
+        <v>0.6199</v>
       </c>
       <c r="F121" t="n">
-        <v>1.25707</v>
+        <v>0.673204</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.30081</v>
+        <v>0.75236</v>
       </c>
       <c r="C122" t="n">
-        <v>0.782173</v>
+        <v>0.764351</v>
       </c>
       <c r="D122" t="n">
-        <v>0.761582</v>
+        <v>0.7468669999999999</v>
       </c>
       <c r="E122" t="n">
-        <v>1.18513</v>
+        <v>0.633827</v>
       </c>
       <c r="F122" t="n">
-        <v>1.22938</v>
+        <v>0.692026</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.31201</v>
+        <v>0.756006</v>
       </c>
       <c r="C123" t="n">
-        <v>0.789664</v>
+        <v>0.784116</v>
       </c>
       <c r="D123" t="n">
-        <v>0.755991</v>
+        <v>0.764053</v>
       </c>
       <c r="E123" t="n">
-        <v>1.49424</v>
+        <v>0.7177750000000001</v>
       </c>
       <c r="F123" t="n">
-        <v>1.43262</v>
+        <v>0.6896910000000001</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.78209</v>
+        <v>0.970585</v>
       </c>
       <c r="C124" t="n">
-        <v>0.916977</v>
+        <v>0.880647</v>
       </c>
       <c r="D124" t="n">
-        <v>0.780958</v>
+        <v>0.771973</v>
       </c>
       <c r="E124" t="n">
-        <v>1.51411</v>
+        <v>0.706909</v>
       </c>
       <c r="F124" t="n">
-        <v>1.42979</v>
+        <v>0.713796</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.71641</v>
+        <v>0.973291</v>
       </c>
       <c r="C125" t="n">
-        <v>0.887078</v>
+        <v>0.882464</v>
       </c>
       <c r="D125" t="n">
-        <v>0.789256</v>
+        <v>0.796411</v>
       </c>
       <c r="E125" t="n">
-        <v>1.52249</v>
+        <v>0.707074</v>
       </c>
       <c r="F125" t="n">
-        <v>1.43156</v>
+        <v>0.696817</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.74768</v>
+        <v>0.972146</v>
       </c>
       <c r="C126" t="n">
-        <v>0.888269</v>
+        <v>0.874914</v>
       </c>
       <c r="D126" t="n">
-        <v>0.800034</v>
+        <v>0.803077</v>
       </c>
       <c r="E126" t="n">
-        <v>1.55026</v>
+        <v>0.72238</v>
       </c>
       <c r="F126" t="n">
-        <v>1.4288</v>
+        <v>0.705842</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.77611</v>
+        <v>0.97006</v>
       </c>
       <c r="C127" t="n">
-        <v>0.901217</v>
+        <v>0.893601</v>
       </c>
       <c r="D127" t="n">
-        <v>0.812618</v>
+        <v>0.8109960000000001</v>
       </c>
       <c r="E127" t="n">
-        <v>1.52182</v>
+        <v>0.730761</v>
       </c>
       <c r="F127" t="n">
-        <v>1.43283</v>
+        <v>0.70922</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.72555</v>
+        <v>0.95702</v>
       </c>
       <c r="C128" t="n">
-        <v>0.912242</v>
+        <v>0.869142</v>
       </c>
       <c r="D128" t="n">
-        <v>0.819037</v>
+        <v>0.827085</v>
       </c>
       <c r="E128" t="n">
-        <v>1.52028</v>
+        <v>0.72871</v>
       </c>
       <c r="F128" t="n">
-        <v>1.43664</v>
+        <v>0.706396</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.79027</v>
+        <v>0.966109</v>
       </c>
       <c r="C129" t="n">
-        <v>0.903411</v>
+        <v>0.8980320000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>0.843348</v>
+        <v>0.90667</v>
       </c>
       <c r="E129" t="n">
-        <v>1.51942</v>
+        <v>0.731549</v>
       </c>
       <c r="F129" t="n">
-        <v>1.42353</v>
+        <v>0.718445</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.72935</v>
+        <v>0.9644200000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>0.906434</v>
+        <v>0.8829900000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>0.859788</v>
+        <v>0.851903</v>
       </c>
       <c r="E130" t="n">
-        <v>1.52704</v>
+        <v>0.744237</v>
       </c>
       <c r="F130" t="n">
-        <v>1.49745</v>
+        <v>0.70845</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.72937</v>
+        <v>0.972201</v>
       </c>
       <c r="C131" t="n">
-        <v>0.903807</v>
+        <v>0.885518</v>
       </c>
       <c r="D131" t="n">
-        <v>0.877768</v>
+        <v>0.903096</v>
       </c>
       <c r="E131" t="n">
-        <v>1.51474</v>
+        <v>0.72883</v>
       </c>
       <c r="F131" t="n">
-        <v>1.45015</v>
+        <v>0.72232</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.72946</v>
+        <v>0.971152</v>
       </c>
       <c r="C132" t="n">
-        <v>0.907711</v>
+        <v>0.9120780000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.903826</v>
+        <v>0.896993</v>
       </c>
       <c r="E132" t="n">
-        <v>1.52795</v>
+        <v>0.724359</v>
       </c>
       <c r="F132" t="n">
-        <v>1.46995</v>
+        <v>0.7359869999999999</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.74607</v>
+        <v>0.993474</v>
       </c>
       <c r="C133" t="n">
-        <v>0.903485</v>
+        <v>0.890086</v>
       </c>
       <c r="D133" t="n">
-        <v>0.929837</v>
+        <v>0.907923</v>
       </c>
       <c r="E133" t="n">
-        <v>1.51689</v>
+        <v>0.743583</v>
       </c>
       <c r="F133" t="n">
-        <v>1.47146</v>
+        <v>0.72516</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.73082</v>
+        <v>0.993292</v>
       </c>
       <c r="C134" t="n">
-        <v>0.943103</v>
+        <v>0.904871</v>
       </c>
       <c r="D134" t="n">
-        <v>0.922575</v>
+        <v>0.929915</v>
       </c>
       <c r="E134" t="n">
-        <v>1.52661</v>
+        <v>0.749955</v>
       </c>
       <c r="F134" t="n">
-        <v>1.48113</v>
+        <v>0.763154</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.76534</v>
+        <v>1.00686</v>
       </c>
       <c r="C135" t="n">
-        <v>0.919767</v>
+        <v>0.922229</v>
       </c>
       <c r="D135" t="n">
-        <v>0.810281</v>
+        <v>0.82154</v>
       </c>
       <c r="E135" t="n">
-        <v>1.53363</v>
+        <v>0.760956</v>
       </c>
       <c r="F135" t="n">
-        <v>1.46918</v>
+        <v>0.757462</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.84342</v>
+        <v>0.972521</v>
       </c>
       <c r="C136" t="n">
-        <v>0.927427</v>
+        <v>0.9227610000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>0.8246019999999999</v>
+        <v>0.841433</v>
       </c>
       <c r="E136" t="n">
-        <v>1.54591</v>
+        <v>0.767687</v>
       </c>
       <c r="F136" t="n">
-        <v>1.52142</v>
+        <v>0.7685419999999999</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.78236</v>
+        <v>0.984674</v>
       </c>
       <c r="C137" t="n">
-        <v>0.964915</v>
+        <v>0.919994</v>
       </c>
       <c r="D137" t="n">
-        <v>0.839219</v>
+        <v>0.846004</v>
       </c>
       <c r="E137" t="n">
-        <v>1.86361</v>
+        <v>0.884998</v>
       </c>
       <c r="F137" t="n">
-        <v>1.69604</v>
+        <v>0.809853</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.24721</v>
+        <v>1.22272</v>
       </c>
       <c r="C138" t="n">
-        <v>1.00209</v>
+        <v>1.02792</v>
       </c>
       <c r="D138" t="n">
-        <v>0.854858</v>
+        <v>0.855036</v>
       </c>
       <c r="E138" t="n">
-        <v>1.86373</v>
+        <v>0.877163</v>
       </c>
       <c r="F138" t="n">
-        <v>1.65014</v>
+        <v>0.751823</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.21212</v>
+        <v>1.21543</v>
       </c>
       <c r="C139" t="n">
-        <v>1.0134</v>
+        <v>1.01842</v>
       </c>
       <c r="D139" t="n">
-        <v>0.874123</v>
+        <v>0.89816</v>
       </c>
       <c r="E139" t="n">
-        <v>1.88424</v>
+        <v>0.891918</v>
       </c>
       <c r="F139" t="n">
-        <v>1.63728</v>
+        <v>0.763571</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.18116</v>
+        <v>1.23305</v>
       </c>
       <c r="C140" t="n">
-        <v>1.00983</v>
+        <v>0.98789</v>
       </c>
       <c r="D140" t="n">
-        <v>0.887935</v>
+        <v>0.91474</v>
       </c>
       <c r="E140" t="n">
-        <v>1.86673</v>
+        <v>0.8779130000000001</v>
       </c>
       <c r="F140" t="n">
-        <v>1.64666</v>
+        <v>0.761872</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.22282</v>
+        <v>1.21814</v>
       </c>
       <c r="C141" t="n">
-        <v>1.0057</v>
+        <v>0.975236</v>
       </c>
       <c r="D141" t="n">
-        <v>0.896699</v>
+        <v>0.907157</v>
       </c>
       <c r="E141" t="n">
-        <v>1.90935</v>
+        <v>0.902605</v>
       </c>
       <c r="F141" t="n">
-        <v>1.64671</v>
+        <v>0.7836920000000001</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.21117</v>
+        <v>1.22985</v>
       </c>
       <c r="C142" t="n">
-        <v>1.00536</v>
+        <v>0.981401</v>
       </c>
       <c r="D142" t="n">
-        <v>0.924103</v>
+        <v>0.90767</v>
       </c>
       <c r="E142" t="n">
-        <v>1.87797</v>
+        <v>0.888231</v>
       </c>
       <c r="F142" t="n">
-        <v>1.64755</v>
+        <v>0.807803</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.19042</v>
+        <v>1.26296</v>
       </c>
       <c r="C143" t="n">
-        <v>1.00531</v>
+        <v>0.980589</v>
       </c>
       <c r="D143" t="n">
-        <v>0.938655</v>
+        <v>0.940631</v>
       </c>
       <c r="E143" t="n">
-        <v>1.89295</v>
+        <v>0.876676</v>
       </c>
       <c r="F143" t="n">
-        <v>1.66223</v>
+        <v>0.811307</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.114167</v>
+        <v>0.111968</v>
       </c>
       <c r="C2" t="n">
-        <v>0.108504</v>
+        <v>0.104483</v>
       </c>
       <c r="D2" t="n">
-        <v>0.15907</v>
+        <v>0.156187</v>
       </c>
       <c r="E2" t="n">
-        <v>0.129179</v>
+        <v>0.127396</v>
       </c>
       <c r="F2" t="n">
-        <v>0.119219</v>
+        <v>0.118455</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.123691</v>
+        <v>0.115553</v>
       </c>
       <c r="C3" t="n">
-        <v>0.106939</v>
+        <v>0.107474</v>
       </c>
       <c r="D3" t="n">
-        <v>0.163457</v>
+        <v>0.163287</v>
       </c>
       <c r="E3" t="n">
-        <v>0.127838</v>
+        <v>0.128447</v>
       </c>
       <c r="F3" t="n">
-        <v>0.119498</v>
+        <v>0.119474</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.12328</v>
+        <v>0.116053</v>
       </c>
       <c r="C4" t="n">
-        <v>0.11535</v>
+        <v>0.107344</v>
       </c>
       <c r="D4" t="n">
-        <v>0.16671</v>
+        <v>0.163334</v>
       </c>
       <c r="E4" t="n">
-        <v>0.132038</v>
+        <v>0.1259</v>
       </c>
       <c r="F4" t="n">
-        <v>0.127156</v>
+        <v>0.116602</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.122863</v>
+        <v>0.112541</v>
       </c>
       <c r="C5" t="n">
-        <v>0.115286</v>
+        <v>0.105528</v>
       </c>
       <c r="D5" t="n">
-        <v>0.170551</v>
+        <v>0.164047</v>
       </c>
       <c r="E5" t="n">
-        <v>0.131098</v>
+        <v>0.126088</v>
       </c>
       <c r="F5" t="n">
-        <v>0.122288</v>
+        <v>0.116657</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.117168</v>
+        <v>0.113781</v>
       </c>
       <c r="C6" t="n">
-        <v>0.108825</v>
+        <v>0.107364</v>
       </c>
       <c r="D6" t="n">
-        <v>0.175603</v>
+        <v>0.175521</v>
       </c>
       <c r="E6" t="n">
-        <v>0.139343</v>
+        <v>0.131006</v>
       </c>
       <c r="F6" t="n">
-        <v>0.126345</v>
+        <v>0.121851</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.125288</v>
+        <v>0.1194</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111847</v>
+        <v>0.111174</v>
       </c>
       <c r="D7" t="n">
-        <v>0.149488</v>
+        <v>0.149163</v>
       </c>
       <c r="E7" t="n">
-        <v>0.131535</v>
+        <v>0.131833</v>
       </c>
       <c r="F7" t="n">
-        <v>0.12508</v>
+        <v>0.123142</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.120193</v>
+        <v>0.11909</v>
       </c>
       <c r="C8" t="n">
-        <v>0.121519</v>
+        <v>0.11148</v>
       </c>
       <c r="D8" t="n">
-        <v>0.149515</v>
+        <v>0.153125</v>
       </c>
       <c r="E8" t="n">
-        <v>0.142977</v>
+        <v>0.136688</v>
       </c>
       <c r="F8" t="n">
-        <v>0.133614</v>
+        <v>0.12738</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119854</v>
+        <v>0.128792</v>
       </c>
       <c r="C9" t="n">
-        <v>0.11389</v>
+        <v>0.117424</v>
       </c>
       <c r="D9" t="n">
-        <v>0.160397</v>
+        <v>0.156356</v>
       </c>
       <c r="E9" t="n">
-        <v>0.134244</v>
+        <v>0.131677</v>
       </c>
       <c r="F9" t="n">
-        <v>0.127296</v>
+        <v>0.120793</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.134942</v>
+        <v>0.128364</v>
       </c>
       <c r="C10" t="n">
-        <v>0.117622</v>
+        <v>0.118493</v>
       </c>
       <c r="D10" t="n">
-        <v>0.160789</v>
+        <v>0.176524</v>
       </c>
       <c r="E10" t="n">
-        <v>0.136126</v>
+        <v>0.131635</v>
       </c>
       <c r="F10" t="n">
-        <v>0.120986</v>
+        <v>0.121165</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.129647</v>
+        <v>0.127845</v>
       </c>
       <c r="C11" t="n">
-        <v>0.119161</v>
+        <v>0.115837</v>
       </c>
       <c r="D11" t="n">
-        <v>0.161005</v>
+        <v>0.170515</v>
       </c>
       <c r="E11" t="n">
-        <v>0.130362</v>
+        <v>0.143936</v>
       </c>
       <c r="F11" t="n">
-        <v>0.119309</v>
+        <v>0.124233</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.126136</v>
+        <v>0.144631</v>
       </c>
       <c r="C12" t="n">
-        <v>0.113947</v>
+        <v>0.113968</v>
       </c>
       <c r="D12" t="n">
-        <v>0.169069</v>
+        <v>0.160541</v>
       </c>
       <c r="E12" t="n">
-        <v>0.130087</v>
+        <v>0.130006</v>
       </c>
       <c r="F12" t="n">
-        <v>0.122158</v>
+        <v>0.121022</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.125558</v>
+        <v>0.12879</v>
       </c>
       <c r="C13" t="n">
-        <v>0.113974</v>
+        <v>0.116106</v>
       </c>
       <c r="D13" t="n">
-        <v>0.166258</v>
+        <v>0.169046</v>
       </c>
       <c r="E13" t="n">
-        <v>0.128058</v>
+        <v>0.132804</v>
       </c>
       <c r="F13" t="n">
-        <v>0.126394</v>
+        <v>0.125457</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.129203</v>
+        <v>0.128432</v>
       </c>
       <c r="C14" t="n">
-        <v>0.112732</v>
+        <v>0.115944</v>
       </c>
       <c r="D14" t="n">
-        <v>0.165958</v>
+        <v>0.170648</v>
       </c>
       <c r="E14" t="n">
-        <v>0.127632</v>
+        <v>0.131699</v>
       </c>
       <c r="F14" t="n">
-        <v>0.124727</v>
+        <v>0.123068</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.123293</v>
+        <v>0.127555</v>
       </c>
       <c r="C15" t="n">
-        <v>0.11497</v>
+        <v>0.114877</v>
       </c>
       <c r="D15" t="n">
-        <v>0.177046</v>
+        <v>0.175981</v>
       </c>
       <c r="E15" t="n">
-        <v>0.127291</v>
+        <v>0.128642</v>
       </c>
       <c r="F15" t="n">
-        <v>0.116865</v>
+        <v>0.11807</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.130248</v>
+        <v>0.124419</v>
       </c>
       <c r="C16" t="n">
-        <v>0.113871</v>
+        <v>0.111151</v>
       </c>
       <c r="D16" t="n">
-        <v>0.176453</v>
+        <v>0.172966</v>
       </c>
       <c r="E16" t="n">
-        <v>0.130953</v>
+        <v>0.128438</v>
       </c>
       <c r="F16" t="n">
-        <v>0.123109</v>
+        <v>0.117865</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.123671</v>
+        <v>0.124765</v>
       </c>
       <c r="C17" t="n">
-        <v>0.113136</v>
+        <v>0.116112</v>
       </c>
       <c r="D17" t="n">
-        <v>0.175816</v>
+        <v>0.179491</v>
       </c>
       <c r="E17" t="n">
-        <v>0.130791</v>
+        <v>0.128774</v>
       </c>
       <c r="F17" t="n">
-        <v>0.119835</v>
+        <v>0.120059</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.126896</v>
+        <v>0.12502</v>
       </c>
       <c r="C18" t="n">
-        <v>0.111934</v>
+        <v>0.112513</v>
       </c>
       <c r="D18" t="n">
-        <v>0.180011</v>
+        <v>0.180321</v>
       </c>
       <c r="E18" t="n">
-        <v>0.13293</v>
+        <v>0.129766</v>
       </c>
       <c r="F18" t="n">
-        <v>0.120073</v>
+        <v>0.119052</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.126614</v>
+        <v>0.128346</v>
       </c>
       <c r="C19" t="n">
-        <v>0.114592</v>
+        <v>0.118934</v>
       </c>
       <c r="D19" t="n">
-        <v>0.183273</v>
+        <v>0.184547</v>
       </c>
       <c r="E19" t="n">
-        <v>0.134532</v>
+        <v>0.130404</v>
       </c>
       <c r="F19" t="n">
-        <v>0.122647</v>
+        <v>0.119702</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.123923</v>
+        <v>0.124665</v>
       </c>
       <c r="C20" t="n">
-        <v>0.112141</v>
+        <v>0.116992</v>
       </c>
       <c r="D20" t="n">
-        <v>0.187687</v>
+        <v>0.187856</v>
       </c>
       <c r="E20" t="n">
-        <v>0.134447</v>
+        <v>0.132541</v>
       </c>
       <c r="F20" t="n">
-        <v>0.120917</v>
+        <v>0.12102</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.128072</v>
+        <v>0.125263</v>
       </c>
       <c r="C21" t="n">
-        <v>0.113654</v>
+        <v>0.113832</v>
       </c>
       <c r="D21" t="n">
-        <v>0.152506</v>
+        <v>0.151563</v>
       </c>
       <c r="E21" t="n">
-        <v>0.133756</v>
+        <v>0.133868</v>
       </c>
       <c r="F21" t="n">
-        <v>0.12333</v>
+        <v>0.123318</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.126918</v>
+        <v>0.126052</v>
       </c>
       <c r="C22" t="n">
-        <v>0.116107</v>
+        <v>0.115276</v>
       </c>
       <c r="D22" t="n">
-        <v>0.156793</v>
+        <v>0.154713</v>
       </c>
       <c r="E22" t="n">
-        <v>0.138915</v>
+        <v>0.137814</v>
       </c>
       <c r="F22" t="n">
-        <v>0.126877</v>
+        <v>0.12828</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.137428</v>
+        <v>0.130581</v>
       </c>
       <c r="C23" t="n">
-        <v>0.118919</v>
+        <v>0.118185</v>
       </c>
       <c r="D23" t="n">
-        <v>0.157334</v>
+        <v>0.158477</v>
       </c>
       <c r="E23" t="n">
-        <v>0.133194</v>
+        <v>0.130867</v>
       </c>
       <c r="F23" t="n">
-        <v>0.124119</v>
+        <v>0.122307</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.132012</v>
+        <v>0.133101</v>
       </c>
       <c r="C24" t="n">
-        <v>0.124765</v>
+        <v>0.124669</v>
       </c>
       <c r="D24" t="n">
-        <v>0.162372</v>
+        <v>0.160128</v>
       </c>
       <c r="E24" t="n">
-        <v>0.130942</v>
+        <v>0.131239</v>
       </c>
       <c r="F24" t="n">
-        <v>0.122902</v>
+        <v>0.121333</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.131865</v>
+        <v>0.131434</v>
       </c>
       <c r="C25" t="n">
-        <v>0.124478</v>
+        <v>0.122652</v>
       </c>
       <c r="D25" t="n">
-        <v>0.164358</v>
+        <v>0.162431</v>
       </c>
       <c r="E25" t="n">
-        <v>0.131692</v>
+        <v>0.131379</v>
       </c>
       <c r="F25" t="n">
-        <v>0.123669</v>
+        <v>0.122018</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.132385</v>
+        <v>0.13711</v>
       </c>
       <c r="C26" t="n">
-        <v>0.124843</v>
+        <v>0.124327</v>
       </c>
       <c r="D26" t="n">
-        <v>0.167036</v>
+        <v>0.167029</v>
       </c>
       <c r="E26" t="n">
-        <v>0.133034</v>
+        <v>0.131888</v>
       </c>
       <c r="F26" t="n">
-        <v>0.121963</v>
+        <v>0.121743</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.133054</v>
+        <v>0.13159</v>
       </c>
       <c r="C27" t="n">
-        <v>0.123888</v>
+        <v>0.132231</v>
       </c>
       <c r="D27" t="n">
-        <v>0.170279</v>
+        <v>0.171089</v>
       </c>
       <c r="E27" t="n">
-        <v>0.132691</v>
+        <v>0.133111</v>
       </c>
       <c r="F27" t="n">
-        <v>0.122796</v>
+        <v>0.122188</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.133804</v>
+        <v>0.133697</v>
       </c>
       <c r="C28" t="n">
-        <v>0.129592</v>
+        <v>0.126308</v>
       </c>
       <c r="D28" t="n">
-        <v>0.174979</v>
+        <v>0.176057</v>
       </c>
       <c r="E28" t="n">
-        <v>0.13596</v>
+        <v>0.133393</v>
       </c>
       <c r="F28" t="n">
-        <v>0.124989</v>
+        <v>0.12507</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.132778</v>
+        <v>0.13449</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1258</v>
+        <v>0.127793</v>
       </c>
       <c r="D29" t="n">
-        <v>0.176971</v>
+        <v>0.17843</v>
       </c>
       <c r="E29" t="n">
-        <v>0.133106</v>
+        <v>0.133717</v>
       </c>
       <c r="F29" t="n">
-        <v>0.123347</v>
+        <v>0.124929</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.13289</v>
+        <v>0.133999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.124363</v>
+        <v>0.125024</v>
       </c>
       <c r="D30" t="n">
-        <v>0.18221</v>
+        <v>0.181875</v>
       </c>
       <c r="E30" t="n">
-        <v>0.133869</v>
+        <v>0.133596</v>
       </c>
       <c r="F30" t="n">
-        <v>0.124453</v>
+        <v>0.124753</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.133571</v>
+        <v>0.133648</v>
       </c>
       <c r="C31" t="n">
-        <v>0.127068</v>
+        <v>0.125964</v>
       </c>
       <c r="D31" t="n">
-        <v>0.185741</v>
+        <v>0.188737</v>
       </c>
       <c r="E31" t="n">
-        <v>0.134308</v>
+        <v>0.134407</v>
       </c>
       <c r="F31" t="n">
-        <v>0.125137</v>
+        <v>0.125522</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.137202</v>
+        <v>0.133704</v>
       </c>
       <c r="C32" t="n">
-        <v>0.127354</v>
+        <v>0.126484</v>
       </c>
       <c r="D32" t="n">
-        <v>0.191062</v>
+        <v>0.190697</v>
       </c>
       <c r="E32" t="n">
-        <v>0.135447</v>
+        <v>0.136953</v>
       </c>
       <c r="F32" t="n">
-        <v>0.126142</v>
+        <v>0.126716</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137112</v>
+        <v>0.141498</v>
       </c>
       <c r="C33" t="n">
-        <v>0.125639</v>
+        <v>0.12769</v>
       </c>
       <c r="D33" t="n">
-        <v>0.193799</v>
+        <v>0.196845</v>
       </c>
       <c r="E33" t="n">
-        <v>0.136719</v>
+        <v>0.136673</v>
       </c>
       <c r="F33" t="n">
-        <v>0.127025</v>
+        <v>0.127805</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.134875</v>
+        <v>0.135739</v>
       </c>
       <c r="C34" t="n">
-        <v>0.126716</v>
+        <v>0.127599</v>
       </c>
       <c r="D34" t="n">
-        <v>0.199111</v>
+        <v>0.200045</v>
       </c>
       <c r="E34" t="n">
-        <v>0.138556</v>
+        <v>0.139753</v>
       </c>
       <c r="F34" t="n">
-        <v>0.129434</v>
+        <v>0.129929</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.134997</v>
+        <v>0.135828</v>
       </c>
       <c r="C35" t="n">
-        <v>0.128304</v>
+        <v>0.135881</v>
       </c>
       <c r="D35" t="n">
-        <v>0.167777</v>
+        <v>0.167145</v>
       </c>
       <c r="E35" t="n">
-        <v>0.141154</v>
+        <v>0.143316</v>
       </c>
       <c r="F35" t="n">
-        <v>0.140547</v>
+        <v>0.133536</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.143956</v>
+        <v>0.138909</v>
       </c>
       <c r="C36" t="n">
-        <v>0.130034</v>
+        <v>0.132579</v>
       </c>
       <c r="D36" t="n">
-        <v>0.169101</v>
+        <v>0.171664</v>
       </c>
       <c r="E36" t="n">
-        <v>0.145964</v>
+        <v>0.147902</v>
       </c>
       <c r="F36" t="n">
-        <v>0.137234</v>
+        <v>0.138459</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.139624</v>
+        <v>0.141064</v>
       </c>
       <c r="C37" t="n">
-        <v>0.133239</v>
+        <v>0.133494</v>
       </c>
       <c r="D37" t="n">
-        <v>0.170905</v>
+        <v>0.172395</v>
       </c>
       <c r="E37" t="n">
-        <v>0.136874</v>
+        <v>0.137955</v>
       </c>
       <c r="F37" t="n">
-        <v>0.128352</v>
+        <v>0.129546</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.156612</v>
+        <v>0.157378</v>
       </c>
       <c r="C38" t="n">
-        <v>0.142954</v>
+        <v>0.140965</v>
       </c>
       <c r="D38" t="n">
-        <v>0.177454</v>
+        <v>0.175197</v>
       </c>
       <c r="E38" t="n">
-        <v>0.138242</v>
+        <v>0.13835</v>
       </c>
       <c r="F38" t="n">
-        <v>0.129918</v>
+        <v>0.130092</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.157401</v>
+        <v>0.157888</v>
       </c>
       <c r="C39" t="n">
-        <v>0.139633</v>
+        <v>0.140845</v>
       </c>
       <c r="D39" t="n">
-        <v>0.179899</v>
+        <v>0.181297</v>
       </c>
       <c r="E39" t="n">
-        <v>0.137457</v>
+        <v>0.138805</v>
       </c>
       <c r="F39" t="n">
-        <v>0.129164</v>
+        <v>0.130705</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.158301</v>
+        <v>0.157743</v>
       </c>
       <c r="C40" t="n">
-        <v>0.143377</v>
+        <v>0.141354</v>
       </c>
       <c r="D40" t="n">
-        <v>0.187501</v>
+        <v>0.187257</v>
       </c>
       <c r="E40" t="n">
-        <v>0.140921</v>
+        <v>0.1381</v>
       </c>
       <c r="F40" t="n">
-        <v>0.130045</v>
+        <v>0.129826</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.155516</v>
+        <v>0.155559</v>
       </c>
       <c r="C41" t="n">
-        <v>0.140601</v>
+        <v>0.140299</v>
       </c>
       <c r="D41" t="n">
-        <v>0.190786</v>
+        <v>0.193607</v>
       </c>
       <c r="E41" t="n">
-        <v>0.139025</v>
+        <v>0.138815</v>
       </c>
       <c r="F41" t="n">
-        <v>0.131429</v>
+        <v>0.130365</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.156945</v>
+        <v>0.158083</v>
       </c>
       <c r="C42" t="n">
-        <v>0.141145</v>
+        <v>0.142297</v>
       </c>
       <c r="D42" t="n">
-        <v>0.196213</v>
+        <v>0.197513</v>
       </c>
       <c r="E42" t="n">
-        <v>0.141939</v>
+        <v>0.139555</v>
       </c>
       <c r="F42" t="n">
-        <v>0.131805</v>
+        <v>0.131824</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.157571</v>
+        <v>0.157967</v>
       </c>
       <c r="C43" t="n">
-        <v>0.14015</v>
+        <v>0.141241</v>
       </c>
       <c r="D43" t="n">
-        <v>0.201443</v>
+        <v>0.203501</v>
       </c>
       <c r="E43" t="n">
-        <v>0.139817</v>
+        <v>0.139796</v>
       </c>
       <c r="F43" t="n">
-        <v>0.132261</v>
+        <v>0.141383</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.157195</v>
+        <v>0.171125</v>
       </c>
       <c r="C44" t="n">
-        <v>0.141974</v>
+        <v>0.140858</v>
       </c>
       <c r="D44" t="n">
-        <v>0.223777</v>
+        <v>0.208994</v>
       </c>
       <c r="E44" t="n">
-        <v>0.147769</v>
+        <v>0.140809</v>
       </c>
       <c r="F44" t="n">
-        <v>0.132973</v>
+        <v>0.133709</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.15584</v>
+        <v>0.158703</v>
       </c>
       <c r="C45" t="n">
-        <v>0.142628</v>
+        <v>0.143034</v>
       </c>
       <c r="D45" t="n">
-        <v>0.220252</v>
+        <v>0.214747</v>
       </c>
       <c r="E45" t="n">
-        <v>0.141293</v>
+        <v>0.141921</v>
       </c>
       <c r="F45" t="n">
-        <v>0.140147</v>
+        <v>0.13568</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.171143</v>
+        <v>0.163036</v>
       </c>
       <c r="C46" t="n">
-        <v>0.15129</v>
+        <v>0.14779</v>
       </c>
       <c r="D46" t="n">
-        <v>0.227776</v>
+        <v>0.222993</v>
       </c>
       <c r="E46" t="n">
-        <v>0.146608</v>
+        <v>0.143037</v>
       </c>
       <c r="F46" t="n">
-        <v>0.144851</v>
+        <v>0.1355</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.159175</v>
+        <v>0.157356</v>
       </c>
       <c r="C47" t="n">
-        <v>0.147094</v>
+        <v>0.143128</v>
       </c>
       <c r="D47" t="n">
-        <v>0.241214</v>
+        <v>0.233304</v>
       </c>
       <c r="E47" t="n">
-        <v>0.146118</v>
+        <v>0.14382</v>
       </c>
       <c r="F47" t="n">
-        <v>0.138691</v>
+        <v>0.137728</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.160666</v>
+        <v>0.158322</v>
       </c>
       <c r="C48" t="n">
-        <v>0.145021</v>
+        <v>0.145069</v>
       </c>
       <c r="D48" t="n">
-        <v>0.232174</v>
+        <v>0.233165</v>
       </c>
       <c r="E48" t="n">
-        <v>0.14759</v>
+        <v>0.146076</v>
       </c>
       <c r="F48" t="n">
-        <v>0.144811</v>
+        <v>0.142168</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.159373</v>
+        <v>0.157986</v>
       </c>
       <c r="C49" t="n">
-        <v>0.145122</v>
+        <v>0.145421</v>
       </c>
       <c r="D49" t="n">
-        <v>0.236192</v>
+        <v>0.237054</v>
       </c>
       <c r="E49" t="n">
-        <v>0.14849</v>
+        <v>0.150381</v>
       </c>
       <c r="F49" t="n">
-        <v>0.146041</v>
+        <v>0.145067</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.160161</v>
+        <v>0.160369</v>
       </c>
       <c r="C50" t="n">
-        <v>0.147717</v>
+        <v>0.147257</v>
       </c>
       <c r="D50" t="n">
-        <v>0.194751</v>
+        <v>0.194308</v>
       </c>
       <c r="E50" t="n">
-        <v>0.15272</v>
+        <v>0.153276</v>
       </c>
       <c r="F50" t="n">
-        <v>0.149286</v>
+        <v>0.147914</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.168807</v>
+        <v>0.164388</v>
       </c>
       <c r="C51" t="n">
-        <v>0.150933</v>
+        <v>0.150371</v>
       </c>
       <c r="D51" t="n">
-        <v>0.201551</v>
+        <v>0.204673</v>
       </c>
       <c r="E51" t="n">
-        <v>0.201334</v>
+        <v>0.205586</v>
       </c>
       <c r="F51" t="n">
-        <v>0.141705</v>
+        <v>0.142531</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.167711</v>
+        <v>0.172651</v>
       </c>
       <c r="C52" t="n">
-        <v>0.156993</v>
+        <v>0.160447</v>
       </c>
       <c r="D52" t="n">
-        <v>0.208814</v>
+        <v>0.210028</v>
       </c>
       <c r="E52" t="n">
-        <v>0.205368</v>
+        <v>0.206351</v>
       </c>
       <c r="F52" t="n">
-        <v>0.142555</v>
+        <v>0.141012</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.241293</v>
+        <v>0.24373</v>
       </c>
       <c r="C53" t="n">
-        <v>0.161896</v>
+        <v>0.160798</v>
       </c>
       <c r="D53" t="n">
-        <v>0.214299</v>
+        <v>0.215939</v>
       </c>
       <c r="E53" t="n">
-        <v>0.202798</v>
+        <v>0.205062</v>
       </c>
       <c r="F53" t="n">
-        <v>0.142354</v>
+        <v>0.143038</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.24582</v>
+        <v>0.245691</v>
       </c>
       <c r="C54" t="n">
-        <v>0.166217</v>
+        <v>0.16015</v>
       </c>
       <c r="D54" t="n">
-        <v>0.22256</v>
+        <v>0.222247</v>
       </c>
       <c r="E54" t="n">
-        <v>0.206198</v>
+        <v>0.208179</v>
       </c>
       <c r="F54" t="n">
-        <v>0.143712</v>
+        <v>0.147453</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.250655</v>
+        <v>0.243037</v>
       </c>
       <c r="C55" t="n">
-        <v>0.167317</v>
+        <v>0.167522</v>
       </c>
       <c r="D55" t="n">
-        <v>0.226301</v>
+        <v>0.227117</v>
       </c>
       <c r="E55" t="n">
-        <v>0.20493</v>
+        <v>0.204486</v>
       </c>
       <c r="F55" t="n">
-        <v>0.144835</v>
+        <v>0.144131</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.241956</v>
+        <v>0.243245</v>
       </c>
       <c r="C56" t="n">
-        <v>0.173581</v>
+        <v>0.167963</v>
       </c>
       <c r="D56" t="n">
-        <v>0.235778</v>
+        <v>0.237031</v>
       </c>
       <c r="E56" t="n">
-        <v>0.207327</v>
+        <v>0.207246</v>
       </c>
       <c r="F56" t="n">
-        <v>0.154042</v>
+        <v>0.152657</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.246054</v>
+        <v>0.24846</v>
       </c>
       <c r="C57" t="n">
-        <v>0.164122</v>
+        <v>0.174666</v>
       </c>
       <c r="D57" t="n">
-        <v>0.238125</v>
+        <v>0.247381</v>
       </c>
       <c r="E57" t="n">
-        <v>0.204869</v>
+        <v>0.208955</v>
       </c>
       <c r="F57" t="n">
-        <v>0.147001</v>
+        <v>0.157123</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.243915</v>
+        <v>0.248093</v>
       </c>
       <c r="C58" t="n">
-        <v>0.16514</v>
+        <v>0.17547</v>
       </c>
       <c r="D58" t="n">
-        <v>0.250766</v>
+        <v>0.274222</v>
       </c>
       <c r="E58" t="n">
-        <v>0.209272</v>
+        <v>0.209262</v>
       </c>
       <c r="F58" t="n">
-        <v>0.150495</v>
+        <v>0.159012</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.251183</v>
+        <v>0.248067</v>
       </c>
       <c r="C59" t="n">
-        <v>0.17142</v>
+        <v>0.176473</v>
       </c>
       <c r="D59" t="n">
-        <v>0.261062</v>
+        <v>0.254446</v>
       </c>
       <c r="E59" t="n">
-        <v>0.214459</v>
+        <v>0.210556</v>
       </c>
       <c r="F59" t="n">
-        <v>0.155719</v>
+        <v>0.16002</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.248491</v>
+        <v>0.243081</v>
       </c>
       <c r="C60" t="n">
-        <v>0.17302</v>
+        <v>0.178953</v>
       </c>
       <c r="D60" t="n">
-        <v>0.264558</v>
+        <v>0.266636</v>
       </c>
       <c r="E60" t="n">
-        <v>0.212267</v>
+        <v>0.207139</v>
       </c>
       <c r="F60" t="n">
-        <v>0.158059</v>
+        <v>0.165235</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.243438</v>
+        <v>0.240501</v>
       </c>
       <c r="C61" t="n">
-        <v>0.171122</v>
+        <v>0.170388</v>
       </c>
       <c r="D61" t="n">
-        <v>0.273297</v>
+        <v>0.274292</v>
       </c>
       <c r="E61" t="n">
-        <v>0.21132</v>
+        <v>0.210055</v>
       </c>
       <c r="F61" t="n">
-        <v>0.160803</v>
+        <v>0.160113</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.249921</v>
+        <v>0.243102</v>
       </c>
       <c r="C62" t="n">
-        <v>0.187975</v>
+        <v>0.175054</v>
       </c>
       <c r="D62" t="n">
-        <v>0.30241</v>
+        <v>0.284073</v>
       </c>
       <c r="E62" t="n">
-        <v>0.218373</v>
+        <v>0.21339</v>
       </c>
       <c r="F62" t="n">
-        <v>0.165223</v>
+        <v>0.164059</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.250366</v>
+        <v>0.244322</v>
       </c>
       <c r="C63" t="n">
-        <v>0.177197</v>
+        <v>0.177973</v>
       </c>
       <c r="D63" t="n">
-        <v>0.294175</v>
+        <v>0.29526</v>
       </c>
       <c r="E63" t="n">
-        <v>0.224297</v>
+        <v>0.219598</v>
       </c>
       <c r="F63" t="n">
-        <v>0.173657</v>
+        <v>0.172379</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.256721</v>
+        <v>0.257855</v>
       </c>
       <c r="C64" t="n">
-        <v>0.182615</v>
+        <v>0.202808</v>
       </c>
       <c r="D64" t="n">
-        <v>0.265963</v>
+        <v>0.273284</v>
       </c>
       <c r="E64" t="n">
-        <v>0.22022</v>
+        <v>0.22424</v>
       </c>
       <c r="F64" t="n">
-        <v>0.176917</v>
+        <v>0.179004</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.24837</v>
+        <v>0.258012</v>
       </c>
       <c r="C65" t="n">
-        <v>0.185893</v>
+        <v>0.193941</v>
       </c>
       <c r="D65" t="n">
-        <v>0.280223</v>
+        <v>0.277382</v>
       </c>
       <c r="E65" t="n">
-        <v>0.228025</v>
+        <v>0.225342</v>
       </c>
       <c r="F65" t="n">
-        <v>0.184174</v>
+        <v>0.185729</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.256107</v>
+        <v>0.251485</v>
       </c>
       <c r="C66" t="n">
-        <v>0.193467</v>
+        <v>0.19592</v>
       </c>
       <c r="D66" t="n">
-        <v>0.281616</v>
+        <v>0.28631</v>
       </c>
       <c r="E66" t="n">
-        <v>0.280711</v>
+        <v>0.280831</v>
       </c>
       <c r="F66" t="n">
-        <v>0.208213</v>
+        <v>0.207748</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.364031</v>
+        <v>0.40604</v>
       </c>
       <c r="C67" t="n">
-        <v>0.246245</v>
+        <v>0.246764</v>
       </c>
       <c r="D67" t="n">
-        <v>0.300718</v>
+        <v>0.326217</v>
       </c>
       <c r="E67" t="n">
-        <v>0.286666</v>
+        <v>0.286597</v>
       </c>
       <c r="F67" t="n">
-        <v>0.212782</v>
+        <v>0.21305</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.365276</v>
+        <v>0.36674</v>
       </c>
       <c r="C68" t="n">
-        <v>0.254072</v>
+        <v>0.246858</v>
       </c>
       <c r="D68" t="n">
-        <v>0.302196</v>
+        <v>0.305558</v>
       </c>
       <c r="E68" t="n">
-        <v>0.288709</v>
+        <v>0.29248</v>
       </c>
       <c r="F68" t="n">
-        <v>0.21135</v>
+        <v>0.213978</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.363269</v>
+        <v>0.365584</v>
       </c>
       <c r="C69" t="n">
-        <v>0.25125</v>
+        <v>0.249915</v>
       </c>
       <c r="D69" t="n">
-        <v>0.318931</v>
+        <v>0.329017</v>
       </c>
       <c r="E69" t="n">
-        <v>0.302555</v>
+        <v>0.297025</v>
       </c>
       <c r="F69" t="n">
-        <v>0.22595</v>
+        <v>0.224506</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.366426</v>
+        <v>0.370058</v>
       </c>
       <c r="C70" t="n">
-        <v>0.258339</v>
+        <v>0.253149</v>
       </c>
       <c r="D70" t="n">
-        <v>0.335286</v>
+        <v>0.356306</v>
       </c>
       <c r="E70" t="n">
-        <v>0.293419</v>
+        <v>0.287485</v>
       </c>
       <c r="F70" t="n">
-        <v>0.22029</v>
+        <v>0.216512</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.371466</v>
+        <v>0.364465</v>
       </c>
       <c r="C71" t="n">
-        <v>0.267514</v>
+        <v>0.250759</v>
       </c>
       <c r="D71" t="n">
-        <v>0.349573</v>
+        <v>0.33944</v>
       </c>
       <c r="E71" t="n">
-        <v>0.291948</v>
+        <v>0.292371</v>
       </c>
       <c r="F71" t="n">
-        <v>0.218275</v>
+        <v>0.218573</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.371623</v>
+        <v>0.367913</v>
       </c>
       <c r="C72" t="n">
-        <v>0.256429</v>
+        <v>0.252992</v>
       </c>
       <c r="D72" t="n">
-        <v>0.357161</v>
+        <v>0.351396</v>
       </c>
       <c r="E72" t="n">
-        <v>0.294856</v>
+        <v>0.29665</v>
       </c>
       <c r="F72" t="n">
-        <v>0.222986</v>
+        <v>0.220933</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.368812</v>
+        <v>0.367132</v>
       </c>
       <c r="C73" t="n">
-        <v>0.256402</v>
+        <v>0.254289</v>
       </c>
       <c r="D73" t="n">
-        <v>0.371244</v>
+        <v>0.36841</v>
       </c>
       <c r="E73" t="n">
-        <v>0.301772</v>
+        <v>0.296582</v>
       </c>
       <c r="F73" t="n">
-        <v>0.224169</v>
+        <v>0.223945</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.370977</v>
+        <v>0.378334</v>
       </c>
       <c r="C74" t="n">
-        <v>0.264013</v>
+        <v>0.270431</v>
       </c>
       <c r="D74" t="n">
-        <v>0.384693</v>
+        <v>0.380061</v>
       </c>
       <c r="E74" t="n">
-        <v>0.306148</v>
+        <v>0.301322</v>
       </c>
       <c r="F74" t="n">
-        <v>0.232478</v>
+        <v>0.228953</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.375907</v>
+        <v>0.373885</v>
       </c>
       <c r="C75" t="n">
-        <v>0.261421</v>
+        <v>0.260924</v>
       </c>
       <c r="D75" t="n">
-        <v>0.398918</v>
+        <v>0.39473</v>
       </c>
       <c r="E75" t="n">
-        <v>0.307418</v>
+        <v>0.301095</v>
       </c>
       <c r="F75" t="n">
-        <v>0.234556</v>
+        <v>0.232183</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.388471</v>
+        <v>0.394741</v>
       </c>
       <c r="C76" t="n">
-        <v>0.264159</v>
+        <v>0.263694</v>
       </c>
       <c r="D76" t="n">
-        <v>0.420483</v>
+        <v>0.414493</v>
       </c>
       <c r="E76" t="n">
-        <v>0.30996</v>
+        <v>0.308008</v>
       </c>
       <c r="F76" t="n">
-        <v>0.235694</v>
+        <v>0.236796</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.387571</v>
+        <v>0.380253</v>
       </c>
       <c r="C77" t="n">
-        <v>0.271004</v>
+        <v>0.265049</v>
       </c>
       <c r="D77" t="n">
-        <v>0.428165</v>
+        <v>0.425699</v>
       </c>
       <c r="E77" t="n">
-        <v>0.306557</v>
+        <v>0.310296</v>
       </c>
       <c r="F77" t="n">
-        <v>0.240479</v>
+        <v>0.239624</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.383032</v>
+        <v>0.379885</v>
       </c>
       <c r="C78" t="n">
-        <v>0.269542</v>
+        <v>0.269148</v>
       </c>
       <c r="D78" t="n">
-        <v>0.404646</v>
+        <v>0.40678</v>
       </c>
       <c r="E78" t="n">
-        <v>0.314108</v>
+        <v>0.309747</v>
       </c>
       <c r="F78" t="n">
-        <v>0.254223</v>
+        <v>0.253402</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.38965</v>
+        <v>0.391842</v>
       </c>
       <c r="C79" t="n">
-        <v>0.274054</v>
+        <v>0.271245</v>
       </c>
       <c r="D79" t="n">
-        <v>0.429948</v>
+        <v>0.446768</v>
       </c>
       <c r="E79" t="n">
-        <v>0.324922</v>
+        <v>0.308299</v>
       </c>
       <c r="F79" t="n">
-        <v>0.253952</v>
+        <v>0.254329</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.396234</v>
+        <v>0.395366</v>
       </c>
       <c r="C80" t="n">
-        <v>0.298256</v>
+        <v>0.281437</v>
       </c>
       <c r="D80" t="n">
-        <v>0.421392</v>
+        <v>0.455444</v>
       </c>
       <c r="E80" t="n">
-        <v>0.416355</v>
+        <v>0.418603</v>
       </c>
       <c r="F80" t="n">
-        <v>0.339468</v>
+        <v>0.337929</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.525151</v>
+        <v>0.540416</v>
       </c>
       <c r="C81" t="n">
-        <v>0.396087</v>
+        <v>0.442483</v>
       </c>
       <c r="D81" t="n">
-        <v>0.431386</v>
+        <v>0.470409</v>
       </c>
       <c r="E81" t="n">
-        <v>0.418774</v>
+        <v>0.417856</v>
       </c>
       <c r="F81" t="n">
-        <v>0.350252</v>
+        <v>0.355591</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.534505</v>
+        <v>0.533738</v>
       </c>
       <c r="C82" t="n">
-        <v>0.393565</v>
+        <v>0.390276</v>
       </c>
       <c r="D82" t="n">
-        <v>0.440044</v>
+        <v>0.477071</v>
       </c>
       <c r="E82" t="n">
-        <v>0.422562</v>
+        <v>0.418923</v>
       </c>
       <c r="F82" t="n">
-        <v>0.345007</v>
+        <v>0.362202</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.527288</v>
+        <v>0.532249</v>
       </c>
       <c r="C83" t="n">
-        <v>0.392998</v>
+        <v>0.393349</v>
       </c>
       <c r="D83" t="n">
-        <v>0.450908</v>
+        <v>0.504787</v>
       </c>
       <c r="E83" t="n">
-        <v>0.425601</v>
+        <v>0.421661</v>
       </c>
       <c r="F83" t="n">
-        <v>0.341681</v>
+        <v>0.342029</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.522193</v>
+        <v>0.53666</v>
       </c>
       <c r="C84" t="n">
-        <v>0.407027</v>
+        <v>0.436143</v>
       </c>
       <c r="D84" t="n">
-        <v>0.472468</v>
+        <v>0.47872</v>
       </c>
       <c r="E84" t="n">
-        <v>0.42949</v>
+        <v>0.421578</v>
       </c>
       <c r="F84" t="n">
-        <v>0.344271</v>
+        <v>0.339063</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.525468</v>
+        <v>0.529664</v>
       </c>
       <c r="C85" t="n">
-        <v>0.391637</v>
+        <v>0.438322</v>
       </c>
       <c r="D85" t="n">
-        <v>0.483629</v>
+        <v>0.512223</v>
       </c>
       <c r="E85" t="n">
-        <v>0.428082</v>
+        <v>0.424757</v>
       </c>
       <c r="F85" t="n">
-        <v>0.347315</v>
+        <v>0.347446</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.534899</v>
+        <v>0.534903</v>
       </c>
       <c r="C86" t="n">
-        <v>0.398314</v>
+        <v>0.433894</v>
       </c>
       <c r="D86" t="n">
-        <v>0.492333</v>
+        <v>0.526864</v>
       </c>
       <c r="E86" t="n">
-        <v>0.428282</v>
+        <v>0.423366</v>
       </c>
       <c r="F86" t="n">
-        <v>0.354373</v>
+        <v>0.367713</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.560324</v>
+        <v>0.533255</v>
       </c>
       <c r="C87" t="n">
-        <v>0.402786</v>
+        <v>0.398575</v>
       </c>
       <c r="D87" t="n">
-        <v>0.509971</v>
+        <v>0.5375180000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>0.427791</v>
+        <v>0.426929</v>
       </c>
       <c r="F87" t="n">
-        <v>0.360873</v>
+        <v>0.369922</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.54212</v>
+        <v>0.5351320000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.416839</v>
+        <v>0.407626</v>
       </c>
       <c r="D88" t="n">
-        <v>0.521759</v>
+        <v>0.558675</v>
       </c>
       <c r="E88" t="n">
-        <v>0.431578</v>
+        <v>0.444964</v>
       </c>
       <c r="F88" t="n">
-        <v>0.352416</v>
+        <v>0.368903</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.53239</v>
+        <v>0.536479</v>
       </c>
       <c r="C89" t="n">
-        <v>0.408633</v>
+        <v>0.42798</v>
       </c>
       <c r="D89" t="n">
-        <v>0.536581</v>
+        <v>0.563357</v>
       </c>
       <c r="E89" t="n">
-        <v>0.432431</v>
+        <v>0.424772</v>
       </c>
       <c r="F89" t="n">
-        <v>0.35475</v>
+        <v>0.373057</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.539179</v>
+        <v>0.531365</v>
       </c>
       <c r="C90" t="n">
-        <v>0.409172</v>
+        <v>0.402416</v>
       </c>
       <c r="D90" t="n">
-        <v>0.549915</v>
+        <v>0.549453</v>
       </c>
       <c r="E90" t="n">
-        <v>0.445894</v>
+        <v>0.428793</v>
       </c>
       <c r="F90" t="n">
-        <v>0.369344</v>
+        <v>0.380005</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.530263</v>
+        <v>0.53626</v>
       </c>
       <c r="C91" t="n">
-        <v>0.466899</v>
+        <v>0.453465</v>
       </c>
       <c r="D91" t="n">
-        <v>0.573477</v>
+        <v>0.597558</v>
       </c>
       <c r="E91" t="n">
-        <v>0.468885</v>
+        <v>0.435092</v>
       </c>
       <c r="F91" t="n">
-        <v>0.364128</v>
+        <v>0.384576</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.543201</v>
+        <v>0.534785</v>
       </c>
       <c r="C92" t="n">
-        <v>0.417339</v>
+        <v>0.45314</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5302829999999999</v>
+        <v>0.555213</v>
       </c>
       <c r="E92" t="n">
-        <v>0.445881</v>
+        <v>0.441286</v>
       </c>
       <c r="F92" t="n">
-        <v>0.377011</v>
+        <v>0.408444</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.539031</v>
+        <v>0.5321</v>
       </c>
       <c r="C93" t="n">
-        <v>0.440424</v>
+        <v>0.412484</v>
       </c>
       <c r="D93" t="n">
-        <v>0.54312</v>
+        <v>0.564125</v>
       </c>
       <c r="E93" t="n">
-        <v>0.451444</v>
+        <v>0.441782</v>
       </c>
       <c r="F93" t="n">
-        <v>0.383466</v>
+        <v>0.383104</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.546451</v>
+        <v>0.539612</v>
       </c>
       <c r="C94" t="n">
-        <v>0.423463</v>
+        <v>0.461712</v>
       </c>
       <c r="D94" t="n">
-        <v>0.557163</v>
+        <v>0.576786</v>
       </c>
       <c r="E94" t="n">
-        <v>0.506768</v>
+        <v>0.530782</v>
       </c>
       <c r="F94" t="n">
-        <v>0.52391</v>
+        <v>0.508927</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.624128</v>
+        <v>0.676961</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6188630000000001</v>
+        <v>0.624942</v>
       </c>
       <c r="D95" t="n">
-        <v>0.552589</v>
+        <v>0.587939</v>
       </c>
       <c r="E95" t="n">
-        <v>0.50552</v>
+        <v>0.507224</v>
       </c>
       <c r="F95" t="n">
-        <v>0.508857</v>
+        <v>0.5102640000000001</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.629683</v>
+        <v>0.697466</v>
       </c>
       <c r="C96" t="n">
-        <v>0.584695</v>
+        <v>0.629739</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5706369999999999</v>
+        <v>0.596384</v>
       </c>
       <c r="E96" t="n">
-        <v>0.515006</v>
+        <v>0.534527</v>
       </c>
       <c r="F96" t="n">
-        <v>0.516131</v>
+        <v>0.5065190000000001</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.616096</v>
+        <v>0.612188</v>
       </c>
       <c r="C97" t="n">
-        <v>0.618434</v>
+        <v>0.625436</v>
       </c>
       <c r="D97" t="n">
-        <v>0.583028</v>
+        <v>0.629562</v>
       </c>
       <c r="E97" t="n">
-        <v>0.507092</v>
+        <v>0.534525</v>
       </c>
       <c r="F97" t="n">
-        <v>0.519798</v>
+        <v>0.551711</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.624379</v>
+        <v>0.614865</v>
       </c>
       <c r="C98" t="n">
-        <v>0.585376</v>
+        <v>0.653494</v>
       </c>
       <c r="D98" t="n">
-        <v>0.624437</v>
+        <v>0.593459</v>
       </c>
       <c r="E98" t="n">
-        <v>0.531369</v>
+        <v>0.531531</v>
       </c>
       <c r="F98" t="n">
-        <v>0.509977</v>
+        <v>0.525231</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.616645</v>
+        <v>0.615079</v>
       </c>
       <c r="C99" t="n">
-        <v>0.596461</v>
+        <v>0.621722</v>
       </c>
       <c r="D99" t="n">
-        <v>0.609085</v>
+        <v>0.654909</v>
       </c>
       <c r="E99" t="n">
-        <v>0.537928</v>
+        <v>0.538921</v>
       </c>
       <c r="F99" t="n">
-        <v>0.516189</v>
+        <v>0.512805</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.679071</v>
+        <v>0.674025</v>
       </c>
       <c r="C100" t="n">
-        <v>0.592448</v>
+        <v>0.628803</v>
       </c>
       <c r="D100" t="n">
-        <v>0.626088</v>
+        <v>0.642469</v>
       </c>
       <c r="E100" t="n">
-        <v>0.54012</v>
+        <v>0.528273</v>
       </c>
       <c r="F100" t="n">
-        <v>0.519593</v>
+        <v>0.531416</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.677376</v>
+        <v>0.673882</v>
       </c>
       <c r="C101" t="n">
-        <v>0.590961</v>
+        <v>0.594191</v>
       </c>
       <c r="D101" t="n">
-        <v>0.643431</v>
+        <v>0.657287</v>
       </c>
       <c r="E101" t="n">
-        <v>0.523666</v>
+        <v>0.513702</v>
       </c>
       <c r="F101" t="n">
-        <v>0.537978</v>
+        <v>0.532982</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.624518</v>
+        <v>0.724692</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5986</v>
+        <v>0.62505</v>
       </c>
       <c r="D102" t="n">
-        <v>0.664689</v>
+        <v>0.667017</v>
       </c>
       <c r="E102" t="n">
-        <v>0.521976</v>
+        <v>0.53866</v>
       </c>
       <c r="F102" t="n">
-        <v>0.537646</v>
+        <v>0.551168</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.6319399999999999</v>
+        <v>0.64115</v>
       </c>
       <c r="C103" t="n">
-        <v>0.603839</v>
+        <v>0.645489</v>
       </c>
       <c r="D103" t="n">
-        <v>0.676804</v>
+        <v>0.704906</v>
       </c>
       <c r="E103" t="n">
-        <v>0.521571</v>
+        <v>0.546683</v>
       </c>
       <c r="F103" t="n">
-        <v>0.531428</v>
+        <v>0.534818</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.625173</v>
+        <v>0.701085</v>
       </c>
       <c r="C104" t="n">
-        <v>0.610426</v>
+        <v>0.6116819999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.688732</v>
+        <v>0.697674</v>
       </c>
       <c r="E104" t="n">
-        <v>0.522393</v>
+        <v>0.546862</v>
       </c>
       <c r="F104" t="n">
-        <v>0.535521</v>
+        <v>0.55562</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.665929</v>
+        <v>0.701359</v>
       </c>
       <c r="C105" t="n">
-        <v>0.604679</v>
+        <v>0.605212</v>
       </c>
       <c r="D105" t="n">
-        <v>0.70375</v>
+        <v>0.7126</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5550079999999999</v>
+        <v>0.551637</v>
       </c>
       <c r="F105" t="n">
-        <v>0.536061</v>
+        <v>0.549553</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.622609</v>
+        <v>0.679857</v>
       </c>
       <c r="C106" t="n">
-        <v>0.645525</v>
+        <v>0.637763</v>
       </c>
       <c r="D106" t="n">
-        <v>0.710816</v>
+        <v>0.726422</v>
       </c>
       <c r="E106" t="n">
-        <v>0.532905</v>
+        <v>0.531836</v>
       </c>
       <c r="F106" t="n">
-        <v>0.55115</v>
+        <v>0.5404910000000001</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6324610000000001</v>
+        <v>0.673962</v>
       </c>
       <c r="C107" t="n">
-        <v>0.654255</v>
+        <v>0.620299</v>
       </c>
       <c r="D107" t="n">
-        <v>0.648664</v>
+        <v>0.684082</v>
       </c>
       <c r="E107" t="n">
-        <v>0.584077</v>
+        <v>0.562854</v>
       </c>
       <c r="F107" t="n">
-        <v>0.548721</v>
+        <v>0.55436</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.62773</v>
+        <v>0.683102</v>
       </c>
       <c r="C108" t="n">
-        <v>0.622065</v>
+        <v>0.616382</v>
       </c>
       <c r="D108" t="n">
-        <v>0.648274</v>
+        <v>0.697832</v>
       </c>
       <c r="E108" t="n">
-        <v>0.6049949999999999</v>
+        <v>0.594035</v>
       </c>
       <c r="F108" t="n">
-        <v>0.628975</v>
+        <v>0.622243</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.636283</v>
+        <v>0.635093</v>
       </c>
       <c r="C109" t="n">
-        <v>0.649957</v>
+        <v>0.709387</v>
       </c>
       <c r="D109" t="n">
-        <v>0.697097</v>
+        <v>0.704766</v>
       </c>
       <c r="E109" t="n">
-        <v>0.609281</v>
+        <v>0.611487</v>
       </c>
       <c r="F109" t="n">
-        <v>0.619574</v>
+        <v>0.631638</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.755161</v>
+        <v>0.749598</v>
       </c>
       <c r="C110" t="n">
-        <v>0.72887</v>
+        <v>0.789575</v>
       </c>
       <c r="D110" t="n">
-        <v>0.678242</v>
+        <v>0.720452</v>
       </c>
       <c r="E110" t="n">
-        <v>0.591233</v>
+        <v>0.5996</v>
       </c>
       <c r="F110" t="n">
-        <v>0.663211</v>
+        <v>0.628402</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.760642</v>
+        <v>0.78101</v>
       </c>
       <c r="C111" t="n">
-        <v>0.74613</v>
+        <v>0.733362</v>
       </c>
       <c r="D111" t="n">
-        <v>0.713116</v>
+        <v>0.700909</v>
       </c>
       <c r="E111" t="n">
-        <v>0.6286890000000001</v>
+        <v>0.600729</v>
       </c>
       <c r="F111" t="n">
-        <v>0.651338</v>
+        <v>0.627259</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.740377</v>
+        <v>0.748649</v>
       </c>
       <c r="C112" t="n">
-        <v>0.744183</v>
+        <v>0.729996</v>
       </c>
       <c r="D112" t="n">
-        <v>0.71919</v>
+        <v>0.740419</v>
       </c>
       <c r="E112" t="n">
-        <v>0.5962499999999999</v>
+        <v>0.600062</v>
       </c>
       <c r="F112" t="n">
-        <v>0.6654600000000001</v>
+        <v>0.633735</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.749708</v>
+        <v>0.88049</v>
       </c>
       <c r="C113" t="n">
-        <v>0.733952</v>
+        <v>0.743526</v>
       </c>
       <c r="D113" t="n">
-        <v>0.759233</v>
+        <v>0.770227</v>
       </c>
       <c r="E113" t="n">
-        <v>0.602117</v>
+        <v>0.600761</v>
       </c>
       <c r="F113" t="n">
-        <v>0.644524</v>
+        <v>0.642725</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.744479</v>
+        <v>0.738722</v>
       </c>
       <c r="C114" t="n">
-        <v>0.744453</v>
+        <v>0.79728</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7427589999999999</v>
+        <v>0.7661289999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>0.610226</v>
+        <v>0.6607769999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>0.62982</v>
+        <v>0.651716</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.743718</v>
+        <v>0.750552</v>
       </c>
       <c r="C115" t="n">
-        <v>0.740151</v>
+        <v>0.786237</v>
       </c>
       <c r="D115" t="n">
-        <v>0.752434</v>
+        <v>0.7856880000000001</v>
       </c>
       <c r="E115" t="n">
-        <v>0.619246</v>
+        <v>0.607916</v>
       </c>
       <c r="F115" t="n">
-        <v>0.656625</v>
+        <v>0.664614</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.839004</v>
+        <v>0.750766</v>
       </c>
       <c r="C116" t="n">
-        <v>0.759051</v>
+        <v>0.7355429999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7810510000000001</v>
+        <v>0.796333</v>
       </c>
       <c r="E116" t="n">
-        <v>0.614627</v>
+        <v>0.605678</v>
       </c>
       <c r="F116" t="n">
-        <v>0.64323</v>
+        <v>0.6361019999999999</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.734804</v>
+        <v>0.7703989999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.7479440000000001</v>
+        <v>0.7296589999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.8320380000000001</v>
+        <v>0.808979</v>
       </c>
       <c r="E117" t="n">
-        <v>0.69706</v>
+        <v>0.659359</v>
       </c>
       <c r="F117" t="n">
-        <v>0.667458</v>
+        <v>0.652885</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.747266</v>
+        <v>0.745866</v>
       </c>
       <c r="C118" t="n">
-        <v>0.743835</v>
+        <v>0.7867769999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.849916</v>
+        <v>0.8320959999999999</v>
       </c>
       <c r="E118" t="n">
-        <v>0.688056</v>
+        <v>0.621324</v>
       </c>
       <c r="F118" t="n">
-        <v>0.671473</v>
+        <v>0.687174</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.788398</v>
+        <v>0.746696</v>
       </c>
       <c r="C119" t="n">
-        <v>0.766938</v>
+        <v>0.764132</v>
       </c>
       <c r="D119" t="n">
-        <v>0.848814</v>
+        <v>0.8552419999999999</v>
       </c>
       <c r="E119" t="n">
-        <v>0.617312</v>
+        <v>0.6260829999999999</v>
       </c>
       <c r="F119" t="n">
-        <v>0.660144</v>
+        <v>0.652242</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.756274</v>
+        <v>0.746237</v>
       </c>
       <c r="C120" t="n">
-        <v>0.758841</v>
+        <v>0.749803</v>
       </c>
       <c r="D120" t="n">
-        <v>0.8355359999999999</v>
+        <v>0.829411</v>
       </c>
       <c r="E120" t="n">
-        <v>0.618541</v>
+        <v>0.676459</v>
       </c>
       <c r="F120" t="n">
-        <v>0.675777</v>
+        <v>0.691123</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.755732</v>
+        <v>0.7397</v>
       </c>
       <c r="C121" t="n">
-        <v>0.775266</v>
+        <v>0.752785</v>
       </c>
       <c r="D121" t="n">
-        <v>0.774522</v>
+        <v>0.7972900000000001</v>
       </c>
       <c r="E121" t="n">
-        <v>0.6199</v>
+        <v>0.624593</v>
       </c>
       <c r="F121" t="n">
-        <v>0.673204</v>
+        <v>0.6752089999999999</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.75236</v>
+        <v>0.758012</v>
       </c>
       <c r="C122" t="n">
-        <v>0.764351</v>
+        <v>0.768661</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7468669999999999</v>
+        <v>0.789577</v>
       </c>
       <c r="E122" t="n">
-        <v>0.633827</v>
+        <v>0.6488159999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>0.692026</v>
+        <v>0.699863</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.756006</v>
+        <v>0.7693179999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.784116</v>
+        <v>0.776603</v>
       </c>
       <c r="D123" t="n">
-        <v>0.764053</v>
+        <v>0.758316</v>
       </c>
       <c r="E123" t="n">
-        <v>0.7177750000000001</v>
+        <v>0.706916</v>
       </c>
       <c r="F123" t="n">
-        <v>0.6896910000000001</v>
+        <v>0.697329</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.970585</v>
+        <v>1.15384</v>
       </c>
       <c r="C124" t="n">
-        <v>0.880647</v>
+        <v>0.871596</v>
       </c>
       <c r="D124" t="n">
-        <v>0.771973</v>
+        <v>0.771132</v>
       </c>
       <c r="E124" t="n">
-        <v>0.706909</v>
+        <v>0.716917</v>
       </c>
       <c r="F124" t="n">
-        <v>0.713796</v>
+        <v>0.696698</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.973291</v>
+        <v>0.953894</v>
       </c>
       <c r="C125" t="n">
-        <v>0.882464</v>
+        <v>0.8787509999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>0.796411</v>
+        <v>0.820852</v>
       </c>
       <c r="E125" t="n">
-        <v>0.707074</v>
+        <v>0.719967</v>
       </c>
       <c r="F125" t="n">
-        <v>0.696817</v>
+        <v>0.70265</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.972146</v>
+        <v>0.964604</v>
       </c>
       <c r="C126" t="n">
-        <v>0.874914</v>
+        <v>0.879528</v>
       </c>
       <c r="D126" t="n">
-        <v>0.803077</v>
+        <v>0.834835</v>
       </c>
       <c r="E126" t="n">
-        <v>0.72238</v>
+        <v>0.7282149999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>0.705842</v>
+        <v>0.700204</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.97006</v>
+        <v>0.951327</v>
       </c>
       <c r="C127" t="n">
-        <v>0.893601</v>
+        <v>0.894813</v>
       </c>
       <c r="D127" t="n">
-        <v>0.8109960000000001</v>
+        <v>0.8610950000000001</v>
       </c>
       <c r="E127" t="n">
-        <v>0.730761</v>
+        <v>0.759982</v>
       </c>
       <c r="F127" t="n">
-        <v>0.70922</v>
+        <v>0.708967</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.95702</v>
+        <v>0.972403</v>
       </c>
       <c r="C128" t="n">
-        <v>0.869142</v>
+        <v>0.871371</v>
       </c>
       <c r="D128" t="n">
-        <v>0.827085</v>
+        <v>0.862803</v>
       </c>
       <c r="E128" t="n">
-        <v>0.72871</v>
+        <v>0.723173</v>
       </c>
       <c r="F128" t="n">
-        <v>0.706396</v>
+        <v>0.7219719999999999</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.966109</v>
+        <v>0.961307</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8980320000000001</v>
+        <v>0.879431</v>
       </c>
       <c r="D129" t="n">
-        <v>0.90667</v>
+        <v>0.917206</v>
       </c>
       <c r="E129" t="n">
-        <v>0.731549</v>
+        <v>0.810117</v>
       </c>
       <c r="F129" t="n">
-        <v>0.718445</v>
+        <v>0.706196</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.9644200000000001</v>
+        <v>0.968527</v>
       </c>
       <c r="C130" t="n">
-        <v>0.8829900000000001</v>
+        <v>0.887846</v>
       </c>
       <c r="D130" t="n">
-        <v>0.851903</v>
+        <v>0.85456</v>
       </c>
       <c r="E130" t="n">
-        <v>0.744237</v>
+        <v>0.717711</v>
       </c>
       <c r="F130" t="n">
-        <v>0.70845</v>
+        <v>0.71241</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.972201</v>
+        <v>1.10668</v>
       </c>
       <c r="C131" t="n">
-        <v>0.885518</v>
+        <v>0.884163</v>
       </c>
       <c r="D131" t="n">
-        <v>0.903096</v>
+        <v>0.909874</v>
       </c>
       <c r="E131" t="n">
-        <v>0.72883</v>
+        <v>0.72485</v>
       </c>
       <c r="F131" t="n">
-        <v>0.72232</v>
+        <v>0.733534</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.971152</v>
+        <v>0.960245</v>
       </c>
       <c r="C132" t="n">
-        <v>0.9120780000000001</v>
+        <v>0.880628</v>
       </c>
       <c r="D132" t="n">
-        <v>0.896993</v>
+        <v>0.880445</v>
       </c>
       <c r="E132" t="n">
-        <v>0.724359</v>
+        <v>0.760789</v>
       </c>
       <c r="F132" t="n">
-        <v>0.7359869999999999</v>
+        <v>0.732424</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.993474</v>
+        <v>0.983916</v>
       </c>
       <c r="C133" t="n">
-        <v>0.890086</v>
+        <v>0.922272</v>
       </c>
       <c r="D133" t="n">
-        <v>0.907923</v>
+        <v>0.923518</v>
       </c>
       <c r="E133" t="n">
-        <v>0.743583</v>
+        <v>0.724379</v>
       </c>
       <c r="F133" t="n">
-        <v>0.72516</v>
+        <v>0.732861</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.993292</v>
+        <v>0.960983</v>
       </c>
       <c r="C134" t="n">
-        <v>0.904871</v>
+        <v>0.8876849999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>0.929915</v>
+        <v>0.918044</v>
       </c>
       <c r="E134" t="n">
-        <v>0.749955</v>
+        <v>0.739059</v>
       </c>
       <c r="F134" t="n">
-        <v>0.763154</v>
+        <v>0.747153</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.00686</v>
+        <v>0.971207</v>
       </c>
       <c r="C135" t="n">
-        <v>0.922229</v>
+        <v>0.916138</v>
       </c>
       <c r="D135" t="n">
-        <v>0.82154</v>
+        <v>0.832053</v>
       </c>
       <c r="E135" t="n">
-        <v>0.760956</v>
+        <v>0.786981</v>
       </c>
       <c r="F135" t="n">
-        <v>0.757462</v>
+        <v>0.769096</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.972521</v>
+        <v>0.96712</v>
       </c>
       <c r="C136" t="n">
-        <v>0.9227610000000001</v>
+        <v>0.932027</v>
       </c>
       <c r="D136" t="n">
-        <v>0.841433</v>
+        <v>0.837643</v>
       </c>
       <c r="E136" t="n">
-        <v>0.767687</v>
+        <v>0.751409</v>
       </c>
       <c r="F136" t="n">
-        <v>0.7685419999999999</v>
+        <v>0.768575</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.984674</v>
+        <v>1.00327</v>
       </c>
       <c r="C137" t="n">
-        <v>0.919994</v>
+        <v>0.929177</v>
       </c>
       <c r="D137" t="n">
-        <v>0.846004</v>
+        <v>0.863858</v>
       </c>
       <c r="E137" t="n">
-        <v>0.884998</v>
+        <v>0.873472</v>
       </c>
       <c r="F137" t="n">
-        <v>0.809853</v>
+        <v>0.7532759999999999</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.22272</v>
+        <v>1.21379</v>
       </c>
       <c r="C138" t="n">
-        <v>1.02792</v>
+        <v>0.988501</v>
       </c>
       <c r="D138" t="n">
-        <v>0.855036</v>
+        <v>0.876575</v>
       </c>
       <c r="E138" t="n">
-        <v>0.877163</v>
+        <v>0.892811</v>
       </c>
       <c r="F138" t="n">
-        <v>0.751823</v>
+        <v>0.753062</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.21543</v>
+        <v>1.21094</v>
       </c>
       <c r="C139" t="n">
-        <v>1.01842</v>
+        <v>1.02259</v>
       </c>
       <c r="D139" t="n">
-        <v>0.89816</v>
+        <v>0.868987</v>
       </c>
       <c r="E139" t="n">
-        <v>0.891918</v>
+        <v>0.8937040000000001</v>
       </c>
       <c r="F139" t="n">
-        <v>0.763571</v>
+        <v>0.760018</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.23305</v>
+        <v>1.2248</v>
       </c>
       <c r="C140" t="n">
-        <v>0.98789</v>
+        <v>0.985755</v>
       </c>
       <c r="D140" t="n">
-        <v>0.91474</v>
+        <v>0.894362</v>
       </c>
       <c r="E140" t="n">
-        <v>0.8779130000000001</v>
+        <v>0.910898</v>
       </c>
       <c r="F140" t="n">
-        <v>0.761872</v>
+        <v>0.764066</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.21814</v>
+        <v>1.22253</v>
       </c>
       <c r="C141" t="n">
-        <v>0.975236</v>
+        <v>0.9877320000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>0.907157</v>
+        <v>0.895482</v>
       </c>
       <c r="E141" t="n">
-        <v>0.902605</v>
+        <v>0.88427</v>
       </c>
       <c r="F141" t="n">
-        <v>0.7836920000000001</v>
+        <v>0.811431</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.22985</v>
+        <v>1.22426</v>
       </c>
       <c r="C142" t="n">
-        <v>0.981401</v>
+        <v>0.985577</v>
       </c>
       <c r="D142" t="n">
-        <v>0.90767</v>
+        <v>0.933551</v>
       </c>
       <c r="E142" t="n">
-        <v>0.888231</v>
+        <v>0.883143</v>
       </c>
       <c r="F142" t="n">
-        <v>0.807803</v>
+        <v>0.773141</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26296</v>
+        <v>1.20712</v>
       </c>
       <c r="C143" t="n">
-        <v>0.980589</v>
+        <v>1.01449</v>
       </c>
       <c r="D143" t="n">
-        <v>0.940631</v>
+        <v>0.926706</v>
       </c>
       <c r="E143" t="n">
-        <v>0.876676</v>
+        <v>0.876184</v>
       </c>
       <c r="F143" t="n">
-        <v>0.811307</v>
+        <v>0.823659</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.112435</v>
+        <v>0.112469</v>
       </c>
       <c r="C2" t="n">
-        <v>0.103189</v>
+        <v>0.105363</v>
       </c>
       <c r="D2" t="n">
-        <v>0.152997</v>
+        <v>0.152951</v>
       </c>
       <c r="E2" t="n">
-        <v>0.123903</v>
+        <v>0.113801</v>
       </c>
       <c r="F2" t="n">
-        <v>0.115266</v>
+        <v>0.11944</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.113567</v>
+        <v>0.112199</v>
       </c>
       <c r="C3" t="n">
-        <v>0.103892</v>
+        <v>0.108443</v>
       </c>
       <c r="D3" t="n">
-        <v>0.158552</v>
+        <v>0.158958</v>
       </c>
       <c r="E3" t="n">
-        <v>0.125022</v>
+        <v>0.115181</v>
       </c>
       <c r="F3" t="n">
-        <v>0.115503</v>
+        <v>0.118215</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.111868</v>
+        <v>0.112116</v>
       </c>
       <c r="C4" t="n">
-        <v>0.104948</v>
+        <v>0.103878</v>
       </c>
       <c r="D4" t="n">
-        <v>0.160998</v>
+        <v>0.159779</v>
       </c>
       <c r="E4" t="n">
-        <v>0.124587</v>
+        <v>0.115445</v>
       </c>
       <c r="F4" t="n">
-        <v>0.116178</v>
+        <v>0.119423</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.113457</v>
+        <v>0.11284</v>
       </c>
       <c r="C5" t="n">
-        <v>0.104683</v>
+        <v>0.104937</v>
       </c>
       <c r="D5" t="n">
-        <v>0.163695</v>
+        <v>0.163868</v>
       </c>
       <c r="E5" t="n">
-        <v>0.125386</v>
+        <v>0.116161</v>
       </c>
       <c r="F5" t="n">
-        <v>0.117014</v>
+        <v>0.120077</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.113975</v>
+        <v>0.114257</v>
       </c>
       <c r="C6" t="n">
-        <v>0.105598</v>
+        <v>0.107884</v>
       </c>
       <c r="D6" t="n">
-        <v>0.173717</v>
+        <v>0.174859</v>
       </c>
       <c r="E6" t="n">
-        <v>0.126356</v>
+        <v>0.119946</v>
       </c>
       <c r="F6" t="n">
-        <v>0.120004</v>
+        <v>0.123429</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.118361</v>
+        <v>0.113419</v>
       </c>
       <c r="C7" t="n">
-        <v>0.106125</v>
+        <v>0.106303</v>
       </c>
       <c r="D7" t="n">
-        <v>0.144439</v>
+        <v>0.14453</v>
       </c>
       <c r="E7" t="n">
-        <v>0.128919</v>
+        <v>0.11661</v>
       </c>
       <c r="F7" t="n">
-        <v>0.123839</v>
+        <v>0.118546</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.114515</v>
+        <v>0.114526</v>
       </c>
       <c r="C8" t="n">
-        <v>0.107369</v>
+        <v>0.107795</v>
       </c>
       <c r="D8" t="n">
-        <v>0.146789</v>
+        <v>0.147933</v>
       </c>
       <c r="E8" t="n">
-        <v>0.138265</v>
+        <v>0.116534</v>
       </c>
       <c r="F8" t="n">
-        <v>0.123821</v>
+        <v>0.118705</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.116581</v>
+        <v>0.116163</v>
       </c>
       <c r="C9" t="n">
-        <v>0.108704</v>
+        <v>0.109533</v>
       </c>
       <c r="D9" t="n">
-        <v>0.148827</v>
+        <v>0.149693</v>
       </c>
       <c r="E9" t="n">
-        <v>0.127682</v>
+        <v>0.116632</v>
       </c>
       <c r="F9" t="n">
-        <v>0.116394</v>
+        <v>0.118836</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.123089</v>
+        <v>0.122438</v>
       </c>
       <c r="C10" t="n">
-        <v>0.110822</v>
+        <v>0.114495</v>
       </c>
       <c r="D10" t="n">
-        <v>0.151304</v>
+        <v>0.154717</v>
       </c>
       <c r="E10" t="n">
-        <v>0.126581</v>
+        <v>0.118268</v>
       </c>
       <c r="F10" t="n">
-        <v>0.116871</v>
+        <v>0.11897</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.126938</v>
+        <v>0.122958</v>
       </c>
       <c r="C11" t="n">
-        <v>0.116322</v>
+        <v>0.110738</v>
       </c>
       <c r="D11" t="n">
-        <v>0.154391</v>
+        <v>0.155962</v>
       </c>
       <c r="E11" t="n">
-        <v>0.12792</v>
+        <v>0.117545</v>
       </c>
       <c r="F11" t="n">
-        <v>0.117707</v>
+        <v>0.119403</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.127773</v>
+        <v>0.122674</v>
       </c>
       <c r="C12" t="n">
-        <v>0.112558</v>
+        <v>0.111102</v>
       </c>
       <c r="D12" t="n">
-        <v>0.158329</v>
+        <v>0.160236</v>
       </c>
       <c r="E12" t="n">
-        <v>0.127501</v>
+        <v>0.11792</v>
       </c>
       <c r="F12" t="n">
-        <v>0.117456</v>
+        <v>0.119788</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.122807</v>
+        <v>0.125271</v>
       </c>
       <c r="C13" t="n">
-        <v>0.111211</v>
+        <v>0.115616</v>
       </c>
       <c r="D13" t="n">
-        <v>0.16302</v>
+        <v>0.162118</v>
       </c>
       <c r="E13" t="n">
-        <v>0.127459</v>
+        <v>0.117735</v>
       </c>
       <c r="F13" t="n">
-        <v>0.117436</v>
+        <v>0.122143</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.122828</v>
+        <v>0.124461</v>
       </c>
       <c r="C14" t="n">
-        <v>0.110709</v>
+        <v>0.110988</v>
       </c>
       <c r="D14" t="n">
-        <v>0.164256</v>
+        <v>0.16568</v>
       </c>
       <c r="E14" t="n">
-        <v>0.127805</v>
+        <v>0.118059</v>
       </c>
       <c r="F14" t="n">
-        <v>0.117784</v>
+        <v>0.119726</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1271</v>
+        <v>0.123394</v>
       </c>
       <c r="C15" t="n">
-        <v>0.111291</v>
+        <v>0.112399</v>
       </c>
       <c r="D15" t="n">
-        <v>0.167933</v>
+        <v>0.168794</v>
       </c>
       <c r="E15" t="n">
-        <v>0.129393</v>
+        <v>0.120913</v>
       </c>
       <c r="F15" t="n">
-        <v>0.119747</v>
+        <v>0.120203</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.125814</v>
+        <v>0.123352</v>
       </c>
       <c r="C16" t="n">
-        <v>0.111573</v>
+        <v>0.113218</v>
       </c>
       <c r="D16" t="n">
-        <v>0.174071</v>
+        <v>0.175064</v>
       </c>
       <c r="E16" t="n">
-        <v>0.128705</v>
+        <v>0.118625</v>
       </c>
       <c r="F16" t="n">
-        <v>0.118917</v>
+        <v>0.120086</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.124172</v>
+        <v>0.124063</v>
       </c>
       <c r="C17" t="n">
-        <v>0.110992</v>
+        <v>0.120116</v>
       </c>
       <c r="D17" t="n">
-        <v>0.179482</v>
+        <v>0.177913</v>
       </c>
       <c r="E17" t="n">
-        <v>0.12951</v>
+        <v>0.119293</v>
       </c>
       <c r="F17" t="n">
-        <v>0.120363</v>
+        <v>0.121163</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.125104</v>
+        <v>0.123184</v>
       </c>
       <c r="C18" t="n">
-        <v>0.112933</v>
+        <v>0.111411</v>
       </c>
       <c r="D18" t="n">
-        <v>0.180981</v>
+        <v>0.181006</v>
       </c>
       <c r="E18" t="n">
-        <v>0.130044</v>
+        <v>0.122034</v>
       </c>
       <c r="F18" t="n">
-        <v>0.11994</v>
+        <v>0.122634</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.124982</v>
+        <v>0.123797</v>
       </c>
       <c r="C19" t="n">
-        <v>0.11354</v>
+        <v>0.113036</v>
       </c>
       <c r="D19" t="n">
-        <v>0.183262</v>
+        <v>0.186328</v>
       </c>
       <c r="E19" t="n">
-        <v>0.130592</v>
+        <v>0.12382</v>
       </c>
       <c r="F19" t="n">
-        <v>0.121268</v>
+        <v>0.124683</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.125521</v>
+        <v>0.127207</v>
       </c>
       <c r="C20" t="n">
-        <v>0.11492</v>
+        <v>0.114144</v>
       </c>
       <c r="D20" t="n">
-        <v>0.189408</v>
+        <v>0.188666</v>
       </c>
       <c r="E20" t="n">
-        <v>0.133069</v>
+        <v>0.126461</v>
       </c>
       <c r="F20" t="n">
-        <v>0.122439</v>
+        <v>0.127818</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.125405</v>
+        <v>0.125335</v>
       </c>
       <c r="C21" t="n">
-        <v>0.113388</v>
+        <v>0.1139</v>
       </c>
       <c r="D21" t="n">
-        <v>0.15297</v>
+        <v>0.153927</v>
       </c>
       <c r="E21" t="n">
-        <v>0.134518</v>
+        <v>0.121747</v>
       </c>
       <c r="F21" t="n">
-        <v>0.12463</v>
+        <v>0.122177</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.127025</v>
+        <v>0.126372</v>
       </c>
       <c r="C22" t="n">
-        <v>0.118229</v>
+        <v>0.115049</v>
       </c>
       <c r="D22" t="n">
-        <v>0.155493</v>
+        <v>0.155885</v>
       </c>
       <c r="E22" t="n">
-        <v>0.138191</v>
+        <v>0.121429</v>
       </c>
       <c r="F22" t="n">
-        <v>0.128585</v>
+        <v>0.121984</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.135274</v>
+        <v>0.128249</v>
       </c>
       <c r="C23" t="n">
-        <v>0.118378</v>
+        <v>0.11941</v>
       </c>
       <c r="D23" t="n">
-        <v>0.160238</v>
+        <v>0.157971</v>
       </c>
       <c r="E23" t="n">
-        <v>0.132705</v>
+        <v>0.122244</v>
       </c>
       <c r="F23" t="n">
-        <v>0.123812</v>
+        <v>0.121697</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.135155</v>
+        <v>0.1328</v>
       </c>
       <c r="C24" t="n">
-        <v>0.126712</v>
+        <v>0.123857</v>
       </c>
       <c r="D24" t="n">
-        <v>0.168072</v>
+        <v>0.162851</v>
       </c>
       <c r="E24" t="n">
-        <v>0.134215</v>
+        <v>0.122893</v>
       </c>
       <c r="F24" t="n">
-        <v>0.123727</v>
+        <v>0.122654</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134418</v>
+        <v>0.133505</v>
       </c>
       <c r="C25" t="n">
-        <v>0.124972</v>
+        <v>0.129088</v>
       </c>
       <c r="D25" t="n">
-        <v>0.163602</v>
+        <v>0.16717</v>
       </c>
       <c r="E25" t="n">
-        <v>0.132626</v>
+        <v>0.123272</v>
       </c>
       <c r="F25" t="n">
-        <v>0.122534</v>
+        <v>0.122667</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.13471</v>
+        <v>0.135342</v>
       </c>
       <c r="C26" t="n">
-        <v>0.125815</v>
+        <v>0.126844</v>
       </c>
       <c r="D26" t="n">
-        <v>0.167325</v>
+        <v>0.168522</v>
       </c>
       <c r="E26" t="n">
-        <v>0.132621</v>
+        <v>0.124312</v>
       </c>
       <c r="F26" t="n">
-        <v>0.12334</v>
+        <v>0.123739</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.134448</v>
+        <v>0.132372</v>
       </c>
       <c r="C27" t="n">
-        <v>0.125117</v>
+        <v>0.125559</v>
       </c>
       <c r="D27" t="n">
-        <v>0.170696</v>
+        <v>0.171804</v>
       </c>
       <c r="E27" t="n">
-        <v>0.133359</v>
+        <v>0.123723</v>
       </c>
       <c r="F27" t="n">
-        <v>0.12423</v>
+        <v>0.123878</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.132932</v>
+        <v>0.132975</v>
       </c>
       <c r="C28" t="n">
-        <v>0.12823</v>
+        <v>0.124981</v>
       </c>
       <c r="D28" t="n">
-        <v>0.174813</v>
+        <v>0.173764</v>
       </c>
       <c r="E28" t="n">
-        <v>0.133441</v>
+        <v>0.124187</v>
       </c>
       <c r="F28" t="n">
-        <v>0.123926</v>
+        <v>0.12451</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.137911</v>
+        <v>0.13193</v>
       </c>
       <c r="C29" t="n">
-        <v>0.131158</v>
+        <v>0.123862</v>
       </c>
       <c r="D29" t="n">
-        <v>0.178512</v>
+        <v>0.177574</v>
       </c>
       <c r="E29" t="n">
-        <v>0.144907</v>
+        <v>0.124147</v>
       </c>
       <c r="F29" t="n">
-        <v>0.125339</v>
+        <v>0.124709</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.133922</v>
+        <v>0.133907</v>
       </c>
       <c r="C30" t="n">
-        <v>0.127464</v>
+        <v>0.126919</v>
       </c>
       <c r="D30" t="n">
-        <v>0.184219</v>
+        <v>0.182012</v>
       </c>
       <c r="E30" t="n">
-        <v>0.135398</v>
+        <v>0.125209</v>
       </c>
       <c r="F30" t="n">
-        <v>0.124478</v>
+        <v>0.126874</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.135148</v>
+        <v>0.133686</v>
       </c>
       <c r="C31" t="n">
-        <v>0.131593</v>
+        <v>0.126849</v>
       </c>
       <c r="D31" t="n">
-        <v>0.188581</v>
+        <v>0.187204</v>
       </c>
       <c r="E31" t="n">
-        <v>0.135179</v>
+        <v>0.127909</v>
       </c>
       <c r="F31" t="n">
-        <v>0.126003</v>
+        <v>0.12753</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.134364</v>
+        <v>0.134073</v>
       </c>
       <c r="C32" t="n">
-        <v>0.131107</v>
+        <v>0.126411</v>
       </c>
       <c r="D32" t="n">
-        <v>0.189863</v>
+        <v>0.191937</v>
       </c>
       <c r="E32" t="n">
-        <v>0.136229</v>
+        <v>0.129411</v>
       </c>
       <c r="F32" t="n">
-        <v>0.127325</v>
+        <v>0.129334</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.134411</v>
+        <v>0.13478</v>
       </c>
       <c r="C33" t="n">
-        <v>0.126269</v>
+        <v>0.12805</v>
       </c>
       <c r="D33" t="n">
-        <v>0.199769</v>
+        <v>0.201855</v>
       </c>
       <c r="E33" t="n">
-        <v>0.142435</v>
+        <v>0.131707</v>
       </c>
       <c r="F33" t="n">
-        <v>0.12948</v>
+        <v>0.131489</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.136009</v>
+        <v>0.134525</v>
       </c>
       <c r="C34" t="n">
-        <v>0.128076</v>
+        <v>0.127958</v>
       </c>
       <c r="D34" t="n">
-        <v>0.204114</v>
+        <v>0.200347</v>
       </c>
       <c r="E34" t="n">
-        <v>0.142801</v>
+        <v>0.135525</v>
       </c>
       <c r="F34" t="n">
-        <v>0.131373</v>
+        <v>0.136081</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.137258</v>
+        <v>0.136319</v>
       </c>
       <c r="C35" t="n">
-        <v>0.134461</v>
+        <v>0.1322</v>
       </c>
       <c r="D35" t="n">
-        <v>0.167355</v>
+        <v>0.168834</v>
       </c>
       <c r="E35" t="n">
-        <v>0.144475</v>
+        <v>0.143235</v>
       </c>
       <c r="F35" t="n">
-        <v>0.134865</v>
+        <v>0.142553</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.141598</v>
+        <v>0.138525</v>
       </c>
       <c r="C36" t="n">
-        <v>0.133202</v>
+        <v>0.132448</v>
       </c>
       <c r="D36" t="n">
-        <v>0.172079</v>
+        <v>0.170274</v>
       </c>
       <c r="E36" t="n">
-        <v>0.14997</v>
+        <v>0.130284</v>
       </c>
       <c r="F36" t="n">
-        <v>0.140841</v>
+        <v>0.130045</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.142283</v>
+        <v>0.141794</v>
       </c>
       <c r="C37" t="n">
-        <v>0.135043</v>
+        <v>0.134334</v>
       </c>
       <c r="D37" t="n">
-        <v>0.177795</v>
+        <v>0.174402</v>
       </c>
       <c r="E37" t="n">
-        <v>0.142309</v>
+        <v>0.131047</v>
       </c>
       <c r="F37" t="n">
-        <v>0.132062</v>
+        <v>0.131713</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.166824</v>
+        <v>0.158283</v>
       </c>
       <c r="C38" t="n">
-        <v>0.141967</v>
+        <v>0.142533</v>
       </c>
       <c r="D38" t="n">
-        <v>0.179611</v>
+        <v>0.179473</v>
       </c>
       <c r="E38" t="n">
-        <v>0.149647</v>
+        <v>0.132048</v>
       </c>
       <c r="F38" t="n">
-        <v>0.131799</v>
+        <v>0.131904</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.164655</v>
+        <v>0.159463</v>
       </c>
       <c r="C39" t="n">
-        <v>0.141642</v>
+        <v>0.143285</v>
       </c>
       <c r="D39" t="n">
-        <v>0.183673</v>
+        <v>0.184816</v>
       </c>
       <c r="E39" t="n">
-        <v>0.149586</v>
+        <v>0.131556</v>
       </c>
       <c r="F39" t="n">
-        <v>0.132453</v>
+        <v>0.13086</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.167839</v>
+        <v>0.157034</v>
       </c>
       <c r="C40" t="n">
-        <v>0.141083</v>
+        <v>0.142394</v>
       </c>
       <c r="D40" t="n">
-        <v>0.187097</v>
+        <v>0.190281</v>
       </c>
       <c r="E40" t="n">
-        <v>0.143311</v>
+        <v>0.131338</v>
       </c>
       <c r="F40" t="n">
-        <v>0.132478</v>
+        <v>0.132209</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.165767</v>
+        <v>0.157143</v>
       </c>
       <c r="C41" t="n">
-        <v>0.143131</v>
+        <v>0.141301</v>
       </c>
       <c r="D41" t="n">
-        <v>0.194852</v>
+        <v>0.194306</v>
       </c>
       <c r="E41" t="n">
-        <v>0.142475</v>
+        <v>0.132124</v>
       </c>
       <c r="F41" t="n">
-        <v>0.132604</v>
+        <v>0.132534</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.165877</v>
+        <v>0.157972</v>
       </c>
       <c r="C42" t="n">
-        <v>0.143202</v>
+        <v>0.141644</v>
       </c>
       <c r="D42" t="n">
-        <v>0.197424</v>
+        <v>0.201723</v>
       </c>
       <c r="E42" t="n">
-        <v>0.141926</v>
+        <v>0.142444</v>
       </c>
       <c r="F42" t="n">
-        <v>0.133327</v>
+        <v>0.135772</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.167615</v>
+        <v>0.163475</v>
       </c>
       <c r="C43" t="n">
-        <v>0.147396</v>
+        <v>0.146172</v>
       </c>
       <c r="D43" t="n">
-        <v>0.208777</v>
+        <v>0.207084</v>
       </c>
       <c r="E43" t="n">
-        <v>0.145301</v>
+        <v>0.13413</v>
       </c>
       <c r="F43" t="n">
-        <v>0.13541</v>
+        <v>0.134201</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.168163</v>
+        <v>0.158389</v>
       </c>
       <c r="C44" t="n">
-        <v>0.144011</v>
+        <v>0.143486</v>
       </c>
       <c r="D44" t="n">
-        <v>0.211259</v>
+        <v>0.208839</v>
       </c>
       <c r="E44" t="n">
-        <v>0.143271</v>
+        <v>0.133955</v>
       </c>
       <c r="F44" t="n">
-        <v>0.135629</v>
+        <v>0.135871</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.171062</v>
+        <v>0.168431</v>
       </c>
       <c r="C45" t="n">
-        <v>0.145508</v>
+        <v>0.143652</v>
       </c>
       <c r="D45" t="n">
-        <v>0.217713</v>
+        <v>0.216508</v>
       </c>
       <c r="E45" t="n">
-        <v>0.145065</v>
+        <v>0.136775</v>
       </c>
       <c r="F45" t="n">
-        <v>0.136569</v>
+        <v>0.13782</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.165435</v>
+        <v>0.159713</v>
       </c>
       <c r="C46" t="n">
-        <v>0.143756</v>
+        <v>0.144503</v>
       </c>
       <c r="D46" t="n">
-        <v>0.224125</v>
+        <v>0.222383</v>
       </c>
       <c r="E46" t="n">
-        <v>0.144855</v>
+        <v>0.138462</v>
       </c>
       <c r="F46" t="n">
-        <v>0.137266</v>
+        <v>0.140136</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.166521</v>
+        <v>0.160466</v>
       </c>
       <c r="C47" t="n">
-        <v>0.145745</v>
+        <v>0.146289</v>
       </c>
       <c r="D47" t="n">
-        <v>0.228783</v>
+        <v>0.230842</v>
       </c>
       <c r="E47" t="n">
-        <v>0.147068</v>
+        <v>0.141029</v>
       </c>
       <c r="F47" t="n">
-        <v>0.143618</v>
+        <v>0.142794</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.173068</v>
+        <v>0.160544</v>
       </c>
       <c r="C48" t="n">
-        <v>0.157047</v>
+        <v>0.149775</v>
       </c>
       <c r="D48" t="n">
-        <v>0.234407</v>
+        <v>0.23888</v>
       </c>
       <c r="E48" t="n">
-        <v>0.148675</v>
+        <v>0.184537</v>
       </c>
       <c r="F48" t="n">
-        <v>0.142819</v>
+        <v>0.165456</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.171278</v>
+        <v>0.167393</v>
       </c>
       <c r="C49" t="n">
-        <v>0.151037</v>
+        <v>0.147271</v>
       </c>
       <c r="D49" t="n">
-        <v>0.23996</v>
+        <v>0.245062</v>
       </c>
       <c r="E49" t="n">
-        <v>0.15225</v>
+        <v>0.153939</v>
       </c>
       <c r="F49" t="n">
-        <v>0.146759</v>
+        <v>0.153432</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.172422</v>
+        <v>0.163499</v>
       </c>
       <c r="C50" t="n">
-        <v>0.15309</v>
+        <v>0.150469</v>
       </c>
       <c r="D50" t="n">
-        <v>0.20384</v>
+        <v>0.198853</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1573</v>
+        <v>0.198965</v>
       </c>
       <c r="F50" t="n">
-        <v>0.156549</v>
+        <v>0.139255</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173433</v>
+        <v>0.164795</v>
       </c>
       <c r="C51" t="n">
-        <v>0.154191</v>
+        <v>0.151693</v>
       </c>
       <c r="D51" t="n">
-        <v>0.202973</v>
+        <v>0.202511</v>
       </c>
       <c r="E51" t="n">
-        <v>0.249852</v>
+        <v>0.198682</v>
       </c>
       <c r="F51" t="n">
-        <v>0.149069</v>
+        <v>0.140299</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.178592</v>
+        <v>0.167954</v>
       </c>
       <c r="C52" t="n">
-        <v>0.158866</v>
+        <v>0.156468</v>
       </c>
       <c r="D52" t="n">
-        <v>0.209811</v>
+        <v>0.206954</v>
       </c>
       <c r="E52" t="n">
-        <v>0.251895</v>
+        <v>0.197285</v>
       </c>
       <c r="F52" t="n">
-        <v>0.144125</v>
+        <v>0.142312</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.337731</v>
+        <v>0.240789</v>
       </c>
       <c r="C53" t="n">
-        <v>0.164386</v>
+        <v>0.157462</v>
       </c>
       <c r="D53" t="n">
-        <v>0.217625</v>
+        <v>0.216047</v>
       </c>
       <c r="E53" t="n">
-        <v>0.25525</v>
+        <v>0.199624</v>
       </c>
       <c r="F53" t="n">
-        <v>0.147107</v>
+        <v>0.143565</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.340229</v>
+        <v>0.244701</v>
       </c>
       <c r="C54" t="n">
-        <v>0.163995</v>
+        <v>0.160282</v>
       </c>
       <c r="D54" t="n">
-        <v>0.220855</v>
+        <v>0.219697</v>
       </c>
       <c r="E54" t="n">
-        <v>0.252967</v>
+        <v>0.200148</v>
       </c>
       <c r="F54" t="n">
-        <v>0.148731</v>
+        <v>0.144511</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.353998</v>
+        <v>0.246687</v>
       </c>
       <c r="C55" t="n">
-        <v>0.171596</v>
+        <v>0.161616</v>
       </c>
       <c r="D55" t="n">
-        <v>0.229383</v>
+        <v>0.228831</v>
       </c>
       <c r="E55" t="n">
-        <v>0.250491</v>
+        <v>0.203926</v>
       </c>
       <c r="F55" t="n">
-        <v>0.146834</v>
+        <v>0.147402</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.348382</v>
+        <v>0.24648</v>
       </c>
       <c r="C56" t="n">
-        <v>0.163404</v>
+        <v>0.163395</v>
       </c>
       <c r="D56" t="n">
-        <v>0.233811</v>
+        <v>0.235927</v>
       </c>
       <c r="E56" t="n">
-        <v>0.253494</v>
+        <v>0.201003</v>
       </c>
       <c r="F56" t="n">
-        <v>0.149049</v>
+        <v>0.148197</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.336676</v>
+        <v>0.245212</v>
       </c>
       <c r="C57" t="n">
-        <v>0.165588</v>
+        <v>0.173806</v>
       </c>
       <c r="D57" t="n">
-        <v>0.241773</v>
+        <v>0.240843</v>
       </c>
       <c r="E57" t="n">
-        <v>0.252952</v>
+        <v>0.205757</v>
       </c>
       <c r="F57" t="n">
-        <v>0.151112</v>
+        <v>0.163697</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.333028</v>
+        <v>0.245294</v>
       </c>
       <c r="C58" t="n">
-        <v>0.164745</v>
+        <v>0.167981</v>
       </c>
       <c r="D58" t="n">
-        <v>0.250494</v>
+        <v>0.252912</v>
       </c>
       <c r="E58" t="n">
-        <v>0.253303</v>
+        <v>0.203788</v>
       </c>
       <c r="F58" t="n">
-        <v>0.151805</v>
+        <v>0.151344</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.332017</v>
+        <v>0.246712</v>
       </c>
       <c r="C59" t="n">
-        <v>0.171389</v>
+        <v>0.169656</v>
       </c>
       <c r="D59" t="n">
-        <v>0.258215</v>
+        <v>0.257393</v>
       </c>
       <c r="E59" t="n">
-        <v>0.252066</v>
+        <v>0.204421</v>
       </c>
       <c r="F59" t="n">
-        <v>0.15362</v>
+        <v>0.155713</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.336061</v>
+        <v>0.246411</v>
       </c>
       <c r="C60" t="n">
-        <v>0.17627</v>
+        <v>0.170176</v>
       </c>
       <c r="D60" t="n">
-        <v>0.266462</v>
+        <v>0.263684</v>
       </c>
       <c r="E60" t="n">
-        <v>0.255392</v>
+        <v>0.204263</v>
       </c>
       <c r="F60" t="n">
-        <v>0.160303</v>
+        <v>0.168296</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.33232</v>
+        <v>0.248275</v>
       </c>
       <c r="C61" t="n">
-        <v>0.172777</v>
+        <v>0.172889</v>
       </c>
       <c r="D61" t="n">
-        <v>0.274301</v>
+        <v>0.273351</v>
       </c>
       <c r="E61" t="n">
-        <v>0.257428</v>
+        <v>0.207894</v>
       </c>
       <c r="F61" t="n">
-        <v>0.158317</v>
+        <v>0.165759</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.328038</v>
+        <v>0.246281</v>
       </c>
       <c r="C62" t="n">
-        <v>0.174008</v>
+        <v>0.176701</v>
       </c>
       <c r="D62" t="n">
-        <v>0.282841</v>
+        <v>0.286123</v>
       </c>
       <c r="E62" t="n">
-        <v>0.257344</v>
+        <v>0.212815</v>
       </c>
       <c r="F62" t="n">
-        <v>0.169871</v>
+        <v>0.171752</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.330953</v>
+        <v>0.248179</v>
       </c>
       <c r="C63" t="n">
-        <v>0.17762</v>
+        <v>0.186245</v>
       </c>
       <c r="D63" t="n">
-        <v>0.293899</v>
+        <v>0.297261</v>
       </c>
       <c r="E63" t="n">
-        <v>0.255562</v>
+        <v>0.216288</v>
       </c>
       <c r="F63" t="n">
-        <v>0.169615</v>
+        <v>0.178673</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.333127</v>
+        <v>0.249567</v>
       </c>
       <c r="C64" t="n">
-        <v>0.181002</v>
+        <v>0.18507</v>
       </c>
       <c r="D64" t="n">
-        <v>0.266551</v>
+        <v>0.273359</v>
       </c>
       <c r="E64" t="n">
-        <v>0.263562</v>
+        <v>0.277779</v>
       </c>
       <c r="F64" t="n">
-        <v>0.185966</v>
+        <v>0.201179</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.338442</v>
+        <v>0.254684</v>
       </c>
       <c r="C65" t="n">
-        <v>0.189837</v>
+        <v>0.190915</v>
       </c>
       <c r="D65" t="n">
-        <v>0.28478</v>
+        <v>0.280965</v>
       </c>
       <c r="E65" t="n">
-        <v>0.27091</v>
+        <v>0.287413</v>
       </c>
       <c r="F65" t="n">
-        <v>0.189813</v>
+        <v>0.202963</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.350286</v>
+        <v>0.270183</v>
       </c>
       <c r="C66" t="n">
-        <v>0.202833</v>
+        <v>0.199001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.286026</v>
+        <v>0.288298</v>
       </c>
       <c r="E66" t="n">
-        <v>0.376804</v>
+        <v>0.279239</v>
       </c>
       <c r="F66" t="n">
-        <v>0.239438</v>
+        <v>0.205224</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.552365</v>
+        <v>0.396971</v>
       </c>
       <c r="C67" t="n">
-        <v>0.248995</v>
+        <v>0.250345</v>
       </c>
       <c r="D67" t="n">
-        <v>0.301364</v>
+        <v>0.323536</v>
       </c>
       <c r="E67" t="n">
-        <v>0.384235</v>
+        <v>0.294305</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2434</v>
+        <v>0.206179</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.544755</v>
+        <v>0.401509</v>
       </c>
       <c r="C68" t="n">
-        <v>0.248475</v>
+        <v>0.253231</v>
       </c>
       <c r="D68" t="n">
-        <v>0.309234</v>
+        <v>0.309203</v>
       </c>
       <c r="E68" t="n">
-        <v>0.389194</v>
+        <v>0.293431</v>
       </c>
       <c r="F68" t="n">
-        <v>0.242588</v>
+        <v>0.2107</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.543532</v>
+        <v>0.402666</v>
       </c>
       <c r="C69" t="n">
-        <v>0.254739</v>
+        <v>0.256424</v>
       </c>
       <c r="D69" t="n">
-        <v>0.318729</v>
+        <v>0.323429</v>
       </c>
       <c r="E69" t="n">
-        <v>0.390922</v>
+        <v>0.288145</v>
       </c>
       <c r="F69" t="n">
-        <v>0.251893</v>
+        <v>0.212908</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.555837</v>
+        <v>0.377735</v>
       </c>
       <c r="C70" t="n">
-        <v>0.250958</v>
+        <v>0.258781</v>
       </c>
       <c r="D70" t="n">
-        <v>0.32728</v>
+        <v>0.332203</v>
       </c>
       <c r="E70" t="n">
-        <v>0.390752</v>
+        <v>0.293185</v>
       </c>
       <c r="F70" t="n">
-        <v>0.252352</v>
+        <v>0.214699</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.552557</v>
+        <v>0.397854</v>
       </c>
       <c r="C71" t="n">
-        <v>0.251364</v>
+        <v>0.267274</v>
       </c>
       <c r="D71" t="n">
-        <v>0.340841</v>
+        <v>0.343582</v>
       </c>
       <c r="E71" t="n">
-        <v>0.400088</v>
+        <v>0.29387</v>
       </c>
       <c r="F71" t="n">
-        <v>0.275714</v>
+        <v>0.21742</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.550315</v>
+        <v>0.37523</v>
       </c>
       <c r="C72" t="n">
-        <v>0.255376</v>
+        <v>0.259754</v>
       </c>
       <c r="D72" t="n">
-        <v>0.358454</v>
+        <v>0.357665</v>
       </c>
       <c r="E72" t="n">
-        <v>0.391447</v>
+        <v>0.291873</v>
       </c>
       <c r="F72" t="n">
-        <v>0.254287</v>
+        <v>0.22086</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.55303</v>
+        <v>0.401461</v>
       </c>
       <c r="C73" t="n">
-        <v>0.257742</v>
+        <v>0.262026</v>
       </c>
       <c r="D73" t="n">
-        <v>0.365729</v>
+        <v>0.398295</v>
       </c>
       <c r="E73" t="n">
-        <v>0.392084</v>
+        <v>0.294174</v>
       </c>
       <c r="F73" t="n">
-        <v>0.260694</v>
+        <v>0.223141</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.564009</v>
+        <v>0.385399</v>
       </c>
       <c r="C74" t="n">
-        <v>0.260187</v>
+        <v>0.266414</v>
       </c>
       <c r="D74" t="n">
-        <v>0.402526</v>
+        <v>0.385187</v>
       </c>
       <c r="E74" t="n">
-        <v>0.398455</v>
+        <v>0.299383</v>
       </c>
       <c r="F74" t="n">
-        <v>0.26609</v>
+        <v>0.227629</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.554395</v>
+        <v>0.404178</v>
       </c>
       <c r="C75" t="n">
-        <v>0.260037</v>
+        <v>0.267813</v>
       </c>
       <c r="D75" t="n">
-        <v>0.397257</v>
+        <v>0.410576</v>
       </c>
       <c r="E75" t="n">
-        <v>0.40501</v>
+        <v>0.315286</v>
       </c>
       <c r="F75" t="n">
-        <v>0.263662</v>
+        <v>0.232274</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.557625</v>
+        <v>0.402309</v>
       </c>
       <c r="C76" t="n">
-        <v>0.270237</v>
+        <v>0.268319</v>
       </c>
       <c r="D76" t="n">
-        <v>0.426901</v>
+        <v>0.442352</v>
       </c>
       <c r="E76" t="n">
-        <v>0.413891</v>
+        <v>0.297679</v>
       </c>
       <c r="F76" t="n">
-        <v>0.272197</v>
+        <v>0.236398</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.589707</v>
+        <v>0.402412</v>
       </c>
       <c r="C77" t="n">
-        <v>0.265548</v>
+        <v>0.271216</v>
       </c>
       <c r="D77" t="n">
-        <v>0.426806</v>
+        <v>0.437465</v>
       </c>
       <c r="E77" t="n">
-        <v>0.41368</v>
+        <v>0.309042</v>
       </c>
       <c r="F77" t="n">
-        <v>0.275466</v>
+        <v>0.243553</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.570865</v>
+        <v>0.399011</v>
       </c>
       <c r="C78" t="n">
-        <v>0.270555</v>
+        <v>0.274638</v>
       </c>
       <c r="D78" t="n">
-        <v>0.400968</v>
+        <v>0.4045</v>
       </c>
       <c r="E78" t="n">
-        <v>0.404002</v>
+        <v>0.309353</v>
       </c>
       <c r="F78" t="n">
-        <v>0.27954</v>
+        <v>0.251997</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.587595</v>
+        <v>0.398966</v>
       </c>
       <c r="C79" t="n">
-        <v>0.274512</v>
+        <v>0.277559</v>
       </c>
       <c r="D79" t="n">
-        <v>0.413199</v>
+        <v>0.40944</v>
       </c>
       <c r="E79" t="n">
-        <v>0.423882</v>
+        <v>0.418466</v>
       </c>
       <c r="F79" t="n">
-        <v>0.291984</v>
+        <v>0.359013</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.602261</v>
+        <v>0.40118</v>
       </c>
       <c r="C80" t="n">
-        <v>0.282681</v>
+        <v>0.286002</v>
       </c>
       <c r="D80" t="n">
-        <v>0.422048</v>
+        <v>0.458457</v>
       </c>
       <c r="E80" t="n">
-        <v>0.655365</v>
+        <v>0.422317</v>
       </c>
       <c r="F80" t="n">
-        <v>0.508012</v>
+        <v>0.344116</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.845066</v>
+        <v>0.526284</v>
       </c>
       <c r="C81" t="n">
-        <v>0.405681</v>
+        <v>0.428724</v>
       </c>
       <c r="D81" t="n">
-        <v>0.471289</v>
+        <v>0.431932</v>
       </c>
       <c r="E81" t="n">
-        <v>0.662983</v>
+        <v>0.424862</v>
       </c>
       <c r="F81" t="n">
-        <v>0.492318</v>
+        <v>0.347076</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.874178</v>
+        <v>0.528564</v>
       </c>
       <c r="C82" t="n">
-        <v>0.440081</v>
+        <v>0.432122</v>
       </c>
       <c r="D82" t="n">
-        <v>0.450892</v>
+        <v>0.446975</v>
       </c>
       <c r="E82" t="n">
-        <v>0.675733</v>
+        <v>0.428462</v>
       </c>
       <c r="F82" t="n">
-        <v>0.515894</v>
+        <v>0.370486</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.842583</v>
+        <v>0.553619</v>
       </c>
       <c r="C83" t="n">
-        <v>0.398786</v>
+        <v>0.431394</v>
       </c>
       <c r="D83" t="n">
-        <v>0.452744</v>
+        <v>0.459463</v>
       </c>
       <c r="E83" t="n">
-        <v>0.692946</v>
+        <v>0.472249</v>
       </c>
       <c r="F83" t="n">
-        <v>0.484162</v>
+        <v>0.354044</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.854245</v>
+        <v>0.532462</v>
       </c>
       <c r="C84" t="n">
-        <v>0.395106</v>
+        <v>0.424338</v>
       </c>
       <c r="D84" t="n">
-        <v>0.471736</v>
+        <v>0.467199</v>
       </c>
       <c r="E84" t="n">
-        <v>0.683229</v>
+        <v>0.434945</v>
       </c>
       <c r="F84" t="n">
-        <v>0.485601</v>
+        <v>0.352341</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.871882</v>
+        <v>0.535193</v>
       </c>
       <c r="C85" t="n">
-        <v>0.444113</v>
+        <v>0.477634</v>
       </c>
       <c r="D85" t="n">
-        <v>0.476564</v>
+        <v>0.506771</v>
       </c>
       <c r="E85" t="n">
-        <v>0.658466</v>
+        <v>0.438013</v>
       </c>
       <c r="F85" t="n">
-        <v>0.493459</v>
+        <v>0.352197</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.850007</v>
+        <v>0.544027</v>
       </c>
       <c r="C86" t="n">
-        <v>0.398996</v>
+        <v>0.44366</v>
       </c>
       <c r="D86" t="n">
-        <v>0.499719</v>
+        <v>0.495362</v>
       </c>
       <c r="E86" t="n">
-        <v>0.660677</v>
+        <v>0.438445</v>
       </c>
       <c r="F86" t="n">
-        <v>0.487628</v>
+        <v>0.355061</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.847575</v>
+        <v>0.540851</v>
       </c>
       <c r="C87" t="n">
-        <v>0.415543</v>
+        <v>0.435748</v>
       </c>
       <c r="D87" t="n">
-        <v>0.518961</v>
+        <v>0.509371</v>
       </c>
       <c r="E87" t="n">
-        <v>0.679782</v>
+        <v>0.438529</v>
       </c>
       <c r="F87" t="n">
-        <v>0.503647</v>
+        <v>0.362839</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.854924</v>
+        <v>0.546685</v>
       </c>
       <c r="C88" t="n">
-        <v>0.40762</v>
+        <v>0.44207</v>
       </c>
       <c r="D88" t="n">
-        <v>0.524097</v>
+        <v>0.520935</v>
       </c>
       <c r="E88" t="n">
-        <v>0.669735</v>
+        <v>0.441165</v>
       </c>
       <c r="F88" t="n">
-        <v>0.496883</v>
+        <v>0.362921</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.858411</v>
+        <v>0.543528</v>
       </c>
       <c r="C89" t="n">
-        <v>0.452216</v>
+        <v>0.437378</v>
       </c>
       <c r="D89" t="n">
-        <v>0.535236</v>
+        <v>0.5413</v>
       </c>
       <c r="E89" t="n">
-        <v>0.663111</v>
+        <v>0.44723</v>
       </c>
       <c r="F89" t="n">
-        <v>0.529605</v>
+        <v>0.360948</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.859451</v>
+        <v>0.537896</v>
       </c>
       <c r="C90" t="n">
-        <v>0.405974</v>
+        <v>0.438633</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5508960000000001</v>
+        <v>0.551794</v>
       </c>
       <c r="E90" t="n">
-        <v>0.691059</v>
+        <v>0.441016</v>
       </c>
       <c r="F90" t="n">
-        <v>0.536264</v>
+        <v>0.367554</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.853743</v>
+        <v>0.544264</v>
       </c>
       <c r="C91" t="n">
-        <v>0.412021</v>
+        <v>0.45107</v>
       </c>
       <c r="D91" t="n">
-        <v>0.570393</v>
+        <v>0.569134</v>
       </c>
       <c r="E91" t="n">
-        <v>0.666596</v>
+        <v>0.445332</v>
       </c>
       <c r="F91" t="n">
-        <v>0.520258</v>
+        <v>0.373212</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.872241</v>
+        <v>0.541757</v>
       </c>
       <c r="C92" t="n">
-        <v>0.430905</v>
+        <v>0.448841</v>
       </c>
       <c r="D92" t="n">
-        <v>0.575648</v>
+        <v>0.557532</v>
       </c>
       <c r="E92" t="n">
-        <v>0.676609</v>
+        <v>0.455762</v>
       </c>
       <c r="F92" t="n">
-        <v>0.512648</v>
+        <v>0.38519</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.856973</v>
+        <v>0.552669</v>
       </c>
       <c r="C93" t="n">
-        <v>0.450104</v>
+        <v>0.507966</v>
       </c>
       <c r="D93" t="n">
-        <v>0.549472</v>
+        <v>0.570551</v>
       </c>
       <c r="E93" t="n">
-        <v>0.671596</v>
+        <v>0.527002</v>
       </c>
       <c r="F93" t="n">
-        <v>0.520297</v>
+        <v>0.522545</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.853371</v>
+        <v>0.568017</v>
       </c>
       <c r="C94" t="n">
-        <v>0.429429</v>
+        <v>0.464689</v>
       </c>
       <c r="D94" t="n">
-        <v>0.588625</v>
+        <v>0.546173</v>
       </c>
       <c r="E94" t="n">
-        <v>0.911485</v>
+        <v>0.524985</v>
       </c>
       <c r="F94" t="n">
-        <v>0.832131</v>
+        <v>0.521879</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.05655</v>
+        <v>0.634785</v>
       </c>
       <c r="C95" t="n">
-        <v>0.645622</v>
+        <v>0.683214</v>
       </c>
       <c r="D95" t="n">
-        <v>0.607899</v>
+        <v>0.588684</v>
       </c>
       <c r="E95" t="n">
-        <v>0.94407</v>
+        <v>0.538321</v>
       </c>
       <c r="F95" t="n">
-        <v>0.835694</v>
+        <v>0.530062</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.1075</v>
+        <v>0.637215</v>
       </c>
       <c r="C96" t="n">
-        <v>0.629256</v>
+        <v>0.688455</v>
       </c>
       <c r="D96" t="n">
-        <v>0.582786</v>
+        <v>0.576732</v>
       </c>
       <c r="E96" t="n">
-        <v>0.951744</v>
+        <v>0.53456</v>
       </c>
       <c r="F96" t="n">
-        <v>0.893527</v>
+        <v>0.529053</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.14666</v>
+        <v>0.636844</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6435419999999999</v>
+        <v>0.685178</v>
       </c>
       <c r="D97" t="n">
-        <v>0.605098</v>
+        <v>0.61475</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9172360000000001</v>
+        <v>0.530827</v>
       </c>
       <c r="F97" t="n">
-        <v>0.830508</v>
+        <v>0.549709</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.06706</v>
+        <v>0.632449</v>
       </c>
       <c r="C98" t="n">
-        <v>0.600464</v>
+        <v>0.712098</v>
       </c>
       <c r="D98" t="n">
-        <v>0.62112</v>
+        <v>0.604013</v>
       </c>
       <c r="E98" t="n">
-        <v>0.917552</v>
+        <v>0.533981</v>
       </c>
       <c r="F98" t="n">
-        <v>0.876385</v>
+        <v>0.528596</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.06694</v>
+        <v>0.638281</v>
       </c>
       <c r="C99" t="n">
-        <v>0.607716</v>
+        <v>0.683296</v>
       </c>
       <c r="D99" t="n">
-        <v>0.620053</v>
+        <v>0.630599</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9577</v>
+        <v>0.538337</v>
       </c>
       <c r="F99" t="n">
-        <v>0.91465</v>
+        <v>0.55553</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.06299</v>
+        <v>0.633529</v>
       </c>
       <c r="C100" t="n">
-        <v>0.60733</v>
+        <v>0.727904</v>
       </c>
       <c r="D100" t="n">
-        <v>0.63114</v>
+        <v>0.646455</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9534859999999999</v>
+        <v>0.537478</v>
       </c>
       <c r="F100" t="n">
-        <v>0.866449</v>
+        <v>0.536026</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.12242</v>
+        <v>0.624472</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6534489999999999</v>
+        <v>0.685137</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6645720000000001</v>
+        <v>0.660346</v>
       </c>
       <c r="E101" t="n">
-        <v>0.968209</v>
+        <v>0.538536</v>
       </c>
       <c r="F101" t="n">
-        <v>0.888393</v>
+        <v>0.538777</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.12915</v>
+        <v>0.6387429999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.646058</v>
+        <v>0.683534</v>
       </c>
       <c r="D102" t="n">
-        <v>0.678732</v>
+        <v>0.664721</v>
       </c>
       <c r="E102" t="n">
-        <v>0.957078</v>
+        <v>0.554519</v>
       </c>
       <c r="F102" t="n">
-        <v>0.889419</v>
+        <v>0.545875</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.10833</v>
+        <v>0.634153</v>
       </c>
       <c r="C103" t="n">
-        <v>0.6039949999999999</v>
+        <v>0.692103</v>
       </c>
       <c r="D103" t="n">
-        <v>0.679853</v>
+        <v>0.667396</v>
       </c>
       <c r="E103" t="n">
-        <v>0.960815</v>
+        <v>0.543373</v>
       </c>
       <c r="F103" t="n">
-        <v>0.898381</v>
+        <v>0.547485</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.12604</v>
+        <v>0.684813</v>
       </c>
       <c r="C104" t="n">
-        <v>0.6115080000000001</v>
+        <v>0.680777</v>
       </c>
       <c r="D104" t="n">
-        <v>0.732044</v>
+        <v>0.68748</v>
       </c>
       <c r="E104" t="n">
-        <v>0.910798</v>
+        <v>0.5722969999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>0.852248</v>
+        <v>0.557214</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.07301</v>
+        <v>0.696652</v>
       </c>
       <c r="C105" t="n">
-        <v>0.610105</v>
+        <v>0.74651</v>
       </c>
       <c r="D105" t="n">
-        <v>0.71953</v>
+        <v>0.702122</v>
       </c>
       <c r="E105" t="n">
-        <v>0.926798</v>
+        <v>0.56133</v>
       </c>
       <c r="F105" t="n">
-        <v>0.884782</v>
+        <v>0.563934</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.0806</v>
+        <v>0.632482</v>
       </c>
       <c r="C106" t="n">
-        <v>0.617824</v>
+        <v>0.702103</v>
       </c>
       <c r="D106" t="n">
-        <v>0.727186</v>
+        <v>0.716226</v>
       </c>
       <c r="E106" t="n">
-        <v>0.952195</v>
+        <v>0.5556449999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>0.933459</v>
+        <v>0.588923</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.09794</v>
+        <v>0.635698</v>
       </c>
       <c r="C107" t="n">
-        <v>0.626153</v>
+        <v>0.713992</v>
       </c>
       <c r="D107" t="n">
-        <v>0.684333</v>
+        <v>0.6395459999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>0.932003</v>
+        <v>0.61285</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8733030000000001</v>
+        <v>0.651126</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.07533</v>
+        <v>0.632594</v>
       </c>
       <c r="C108" t="n">
-        <v>0.664837</v>
+        <v>0.712734</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6621089999999999</v>
+        <v>0.648858</v>
       </c>
       <c r="E108" t="n">
-        <v>1.16279</v>
+        <v>0.613316</v>
       </c>
       <c r="F108" t="n">
-        <v>1.16637</v>
+        <v>0.664613</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.09277</v>
+        <v>0.644548</v>
       </c>
       <c r="C109" t="n">
-        <v>0.643154</v>
+        <v>0.724516</v>
       </c>
       <c r="D109" t="n">
-        <v>0.68402</v>
+        <v>0.663148</v>
       </c>
       <c r="E109" t="n">
-        <v>1.1361</v>
+        <v>0.615231</v>
       </c>
       <c r="F109" t="n">
-        <v>1.15181</v>
+        <v>0.655374</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.3304</v>
+        <v>0.75522</v>
       </c>
       <c r="C110" t="n">
-        <v>0.740475</v>
+        <v>0.878803</v>
       </c>
       <c r="D110" t="n">
-        <v>0.702327</v>
+        <v>0.68558</v>
       </c>
       <c r="E110" t="n">
-        <v>1.12483</v>
+        <v>0.622759</v>
       </c>
       <c r="F110" t="n">
-        <v>1.1703</v>
+        <v>0.666299</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.32952</v>
+        <v>0.7664260000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.73724</v>
+        <v>0.925499</v>
       </c>
       <c r="D111" t="n">
-        <v>0.703452</v>
+        <v>0.725379</v>
       </c>
       <c r="E111" t="n">
-        <v>1.13956</v>
+        <v>0.625873</v>
       </c>
       <c r="F111" t="n">
-        <v>1.16924</v>
+        <v>0.662004</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.30638</v>
+        <v>0.757026</v>
       </c>
       <c r="C112" t="n">
-        <v>0.777512</v>
+        <v>0.873671</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7108179999999999</v>
+        <v>0.714437</v>
       </c>
       <c r="E112" t="n">
-        <v>1.14091</v>
+        <v>0.6321369999999999</v>
       </c>
       <c r="F112" t="n">
-        <v>1.18787</v>
+        <v>0.670889</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.31215</v>
+        <v>0.770625</v>
       </c>
       <c r="C113" t="n">
-        <v>0.7525500000000001</v>
+        <v>0.867914</v>
       </c>
       <c r="D113" t="n">
-        <v>0.722596</v>
+        <v>0.723637</v>
       </c>
       <c r="E113" t="n">
-        <v>1.16605</v>
+        <v>0.626316</v>
       </c>
       <c r="F113" t="n">
-        <v>1.18924</v>
+        <v>0.668905</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.36062</v>
+        <v>0.759815</v>
       </c>
       <c r="C114" t="n">
-        <v>0.771295</v>
+        <v>0.886193</v>
       </c>
       <c r="D114" t="n">
-        <v>0.743513</v>
+        <v>0.739048</v>
       </c>
       <c r="E114" t="n">
-        <v>1.13472</v>
+        <v>0.631676</v>
       </c>
       <c r="F114" t="n">
-        <v>1.17443</v>
+        <v>0.675015</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.33685</v>
+        <v>0.787594</v>
       </c>
       <c r="C115" t="n">
-        <v>0.76059</v>
+        <v>0.883289</v>
       </c>
       <c r="D115" t="n">
-        <v>0.749935</v>
+        <v>0.753684</v>
       </c>
       <c r="E115" t="n">
-        <v>1.15244</v>
+        <v>0.635623</v>
       </c>
       <c r="F115" t="n">
-        <v>1.23979</v>
+        <v>0.678328</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.31919</v>
+        <v>0.760574</v>
       </c>
       <c r="C116" t="n">
-        <v>0.753849</v>
+        <v>0.886973</v>
       </c>
       <c r="D116" t="n">
-        <v>0.765138</v>
+        <v>0.76408</v>
       </c>
       <c r="E116" t="n">
-        <v>1.14405</v>
+        <v>0.641468</v>
       </c>
       <c r="F116" t="n">
-        <v>1.21347</v>
+        <v>0.6805909999999999</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.30445</v>
+        <v>0.7653219999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.75544</v>
+        <v>0.884179</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7840240000000001</v>
+        <v>0.774936</v>
       </c>
       <c r="E117" t="n">
-        <v>1.15117</v>
+        <v>0.640599</v>
       </c>
       <c r="F117" t="n">
-        <v>1.21608</v>
+        <v>0.69711</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.29704</v>
+        <v>0.766207</v>
       </c>
       <c r="C118" t="n">
-        <v>0.755071</v>
+        <v>0.8843569999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.795024</v>
+        <v>0.8236520000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>1.21661</v>
+        <v>0.645575</v>
       </c>
       <c r="F118" t="n">
-        <v>1.27075</v>
+        <v>0.702377</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.31672</v>
+        <v>0.7658199999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>0.774973</v>
+        <v>0.897593</v>
       </c>
       <c r="D119" t="n">
-        <v>0.824805</v>
+        <v>0.862216</v>
       </c>
       <c r="E119" t="n">
-        <v>1.16965</v>
+        <v>0.651432</v>
       </c>
       <c r="F119" t="n">
-        <v>1.21266</v>
+        <v>0.717504</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.32372</v>
+        <v>0.763002</v>
       </c>
       <c r="C120" t="n">
-        <v>0.76373</v>
+        <v>0.901749</v>
       </c>
       <c r="D120" t="n">
-        <v>0.868883</v>
+        <v>0.83157</v>
       </c>
       <c r="E120" t="n">
-        <v>1.20161</v>
+        <v>0.660379</v>
       </c>
       <c r="F120" t="n">
-        <v>1.22759</v>
+        <v>0.714261</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.3309</v>
+        <v>0.8376479999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>0.793589</v>
+        <v>0.900083</v>
       </c>
       <c r="D121" t="n">
-        <v>0.729301</v>
+        <v>0.741857</v>
       </c>
       <c r="E121" t="n">
-        <v>1.32071</v>
+        <v>0.746545</v>
       </c>
       <c r="F121" t="n">
-        <v>1.25707</v>
+        <v>0.745817</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.30081</v>
+        <v>0.781462</v>
       </c>
       <c r="C122" t="n">
-        <v>0.782173</v>
+        <v>0.911951</v>
       </c>
       <c r="D122" t="n">
-        <v>0.761582</v>
+        <v>0.762303</v>
       </c>
       <c r="E122" t="n">
-        <v>1.18513</v>
+        <v>0.748005</v>
       </c>
       <c r="F122" t="n">
-        <v>1.22938</v>
+        <v>0.736162</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.31201</v>
+        <v>0.777731</v>
       </c>
       <c r="C123" t="n">
-        <v>0.789664</v>
+        <v>0.908795</v>
       </c>
       <c r="D123" t="n">
-        <v>0.755991</v>
+        <v>0.761095</v>
       </c>
       <c r="E123" t="n">
-        <v>1.49424</v>
+        <v>0.743424</v>
       </c>
       <c r="F123" t="n">
-        <v>1.43262</v>
+        <v>0.739664</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.78209</v>
+        <v>1.16913</v>
       </c>
       <c r="C124" t="n">
-        <v>0.916977</v>
+        <v>1.0444</v>
       </c>
       <c r="D124" t="n">
-        <v>0.780958</v>
+        <v>0.765717</v>
       </c>
       <c r="E124" t="n">
-        <v>1.51411</v>
+        <v>0.75461</v>
       </c>
       <c r="F124" t="n">
-        <v>1.42979</v>
+        <v>0.76755</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.71641</v>
+        <v>0.9912609999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>0.887078</v>
+        <v>1.05808</v>
       </c>
       <c r="D125" t="n">
-        <v>0.789256</v>
+        <v>0.828836</v>
       </c>
       <c r="E125" t="n">
-        <v>1.52249</v>
+        <v>0.771954</v>
       </c>
       <c r="F125" t="n">
-        <v>1.43156</v>
+        <v>0.756621</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.74768</v>
+        <v>0.982468</v>
       </c>
       <c r="C126" t="n">
-        <v>0.888269</v>
+        <v>1.05533</v>
       </c>
       <c r="D126" t="n">
-        <v>0.800034</v>
+        <v>0.791552</v>
       </c>
       <c r="E126" t="n">
-        <v>1.55026</v>
+        <v>0.764994</v>
       </c>
       <c r="F126" t="n">
-        <v>1.4288</v>
+        <v>0.753432</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.77611</v>
+        <v>0.974559</v>
       </c>
       <c r="C127" t="n">
-        <v>0.901217</v>
+        <v>1.05873</v>
       </c>
       <c r="D127" t="n">
-        <v>0.812618</v>
+        <v>0.817098</v>
       </c>
       <c r="E127" t="n">
-        <v>1.52182</v>
+        <v>0.759818</v>
       </c>
       <c r="F127" t="n">
-        <v>1.43283</v>
+        <v>0.757925</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.72555</v>
+        <v>0.994456</v>
       </c>
       <c r="C128" t="n">
-        <v>0.912242</v>
+        <v>1.06934</v>
       </c>
       <c r="D128" t="n">
-        <v>0.819037</v>
+        <v>0.860584</v>
       </c>
       <c r="E128" t="n">
-        <v>1.52028</v>
+        <v>0.769584</v>
       </c>
       <c r="F128" t="n">
-        <v>1.43664</v>
+        <v>0.764539</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.79027</v>
+        <v>0.979894</v>
       </c>
       <c r="C129" t="n">
-        <v>0.903411</v>
+        <v>1.05693</v>
       </c>
       <c r="D129" t="n">
-        <v>0.843348</v>
+        <v>0.841981</v>
       </c>
       <c r="E129" t="n">
-        <v>1.51942</v>
+        <v>0.7788580000000001</v>
       </c>
       <c r="F129" t="n">
-        <v>1.42353</v>
+        <v>0.759409</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.72935</v>
+        <v>0.982565</v>
       </c>
       <c r="C130" t="n">
-        <v>0.906434</v>
+        <v>1.05985</v>
       </c>
       <c r="D130" t="n">
-        <v>0.859788</v>
+        <v>0.851678</v>
       </c>
       <c r="E130" t="n">
-        <v>1.52704</v>
+        <v>0.766254</v>
       </c>
       <c r="F130" t="n">
-        <v>1.49745</v>
+        <v>0.776739</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.72937</v>
+        <v>0.986836</v>
       </c>
       <c r="C131" t="n">
-        <v>0.903807</v>
+        <v>1.0681</v>
       </c>
       <c r="D131" t="n">
-        <v>0.877768</v>
+        <v>0.873795</v>
       </c>
       <c r="E131" t="n">
-        <v>1.51474</v>
+        <v>0.76858</v>
       </c>
       <c r="F131" t="n">
-        <v>1.45015</v>
+        <v>0.789815</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.72946</v>
+        <v>0.974444</v>
       </c>
       <c r="C132" t="n">
-        <v>0.907711</v>
+        <v>1.09253</v>
       </c>
       <c r="D132" t="n">
-        <v>0.903826</v>
+        <v>0.896945</v>
       </c>
       <c r="E132" t="n">
-        <v>1.52795</v>
+        <v>0.786384</v>
       </c>
       <c r="F132" t="n">
-        <v>1.46995</v>
+        <v>0.788534</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.74607</v>
+        <v>0.9785199999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>0.903485</v>
+        <v>1.07252</v>
       </c>
       <c r="D133" t="n">
-        <v>0.929837</v>
+        <v>0.930177</v>
       </c>
       <c r="E133" t="n">
-        <v>1.51689</v>
+        <v>0.786843</v>
       </c>
       <c r="F133" t="n">
-        <v>1.47146</v>
+        <v>0.786789</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.73082</v>
+        <v>0.977603</v>
       </c>
       <c r="C134" t="n">
-        <v>0.943103</v>
+        <v>1.09738</v>
       </c>
       <c r="D134" t="n">
-        <v>0.922575</v>
+        <v>0.917001</v>
       </c>
       <c r="E134" t="n">
-        <v>1.52661</v>
+        <v>0.7914949999999999</v>
       </c>
       <c r="F134" t="n">
-        <v>1.48113</v>
+        <v>0.809959</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.76534</v>
+        <v>0.991649</v>
       </c>
       <c r="C135" t="n">
-        <v>0.919767</v>
+        <v>1.09987</v>
       </c>
       <c r="D135" t="n">
-        <v>0.810281</v>
+        <v>0.86276</v>
       </c>
       <c r="E135" t="n">
-        <v>1.53363</v>
+        <v>0.9116109999999999</v>
       </c>
       <c r="F135" t="n">
-        <v>1.46918</v>
+        <v>0.826468</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.84342</v>
+        <v>1.0048</v>
       </c>
       <c r="C136" t="n">
-        <v>0.927427</v>
+        <v>1.10403</v>
       </c>
       <c r="D136" t="n">
-        <v>0.8246019999999999</v>
+        <v>0.829715</v>
       </c>
       <c r="E136" t="n">
-        <v>1.54591</v>
+        <v>0.921354</v>
       </c>
       <c r="F136" t="n">
-        <v>1.52142</v>
+        <v>0.809509</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.78236</v>
+        <v>1.0053</v>
       </c>
       <c r="C137" t="n">
-        <v>0.964915</v>
+        <v>1.09977</v>
       </c>
       <c r="D137" t="n">
-        <v>0.839219</v>
+        <v>0.840317</v>
       </c>
       <c r="E137" t="n">
-        <v>1.86361</v>
+        <v>0.926213</v>
       </c>
       <c r="F137" t="n">
-        <v>1.69604</v>
+        <v>0.861347</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.24721</v>
+        <v>1.23699</v>
       </c>
       <c r="C138" t="n">
-        <v>1.00209</v>
+        <v>1.18755</v>
       </c>
       <c r="D138" t="n">
-        <v>0.854858</v>
+        <v>0.8533579999999999</v>
       </c>
       <c r="E138" t="n">
-        <v>1.86373</v>
+        <v>0.907938</v>
       </c>
       <c r="F138" t="n">
-        <v>1.65014</v>
+        <v>0.863471</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.21212</v>
+        <v>1.2399</v>
       </c>
       <c r="C139" t="n">
-        <v>1.0134</v>
+        <v>1.21492</v>
       </c>
       <c r="D139" t="n">
-        <v>0.874123</v>
+        <v>0.889438</v>
       </c>
       <c r="E139" t="n">
-        <v>1.88424</v>
+        <v>0.912894</v>
       </c>
       <c r="F139" t="n">
-        <v>1.63728</v>
+        <v>0.829412</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.18116</v>
+        <v>1.25587</v>
       </c>
       <c r="C140" t="n">
-        <v>1.00983</v>
+        <v>1.2135</v>
       </c>
       <c r="D140" t="n">
-        <v>0.887935</v>
+        <v>0.885938</v>
       </c>
       <c r="E140" t="n">
-        <v>1.86673</v>
+        <v>0.9411079999999999</v>
       </c>
       <c r="F140" t="n">
-        <v>1.64666</v>
+        <v>0.839305</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.22282</v>
+        <v>1.23447</v>
       </c>
       <c r="C141" t="n">
-        <v>1.0057</v>
+        <v>1.19911</v>
       </c>
       <c r="D141" t="n">
-        <v>0.896699</v>
+        <v>0.9040319999999999</v>
       </c>
       <c r="E141" t="n">
-        <v>1.90935</v>
+        <v>0.941647</v>
       </c>
       <c r="F141" t="n">
-        <v>1.64671</v>
+        <v>0.839461</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.21117</v>
+        <v>1.24125</v>
       </c>
       <c r="C142" t="n">
-        <v>1.00536</v>
+        <v>1.19428</v>
       </c>
       <c r="D142" t="n">
-        <v>0.924103</v>
+        <v>0.934269</v>
       </c>
       <c r="E142" t="n">
-        <v>1.87797</v>
+        <v>0.933565</v>
       </c>
       <c r="F142" t="n">
-        <v>1.64755</v>
+        <v>0.840813</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.19042</v>
+        <v>1.26354</v>
       </c>
       <c r="C143" t="n">
-        <v>1.00531</v>
+        <v>1.20323</v>
       </c>
       <c r="D143" t="n">
-        <v>0.938655</v>
+        <v>0.927026</v>
       </c>
       <c r="E143" t="n">
-        <v>1.89295</v>
+        <v>0.929606</v>
       </c>
       <c r="F143" t="n">
-        <v>1.66223</v>
+        <v>0.845109</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.112435</v>
+        <v>0.11182</v>
       </c>
       <c r="C2" t="n">
-        <v>0.103189</v>
+        <v>0.104033</v>
       </c>
       <c r="D2" t="n">
-        <v>0.152997</v>
+        <v>0.152082</v>
       </c>
       <c r="E2" t="n">
-        <v>0.123903</v>
+        <v>0.123292</v>
       </c>
       <c r="F2" t="n">
-        <v>0.115266</v>
+        <v>0.114404</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.113567</v>
+        <v>0.116122</v>
       </c>
       <c r="C3" t="n">
-        <v>0.103892</v>
+        <v>0.104039</v>
       </c>
       <c r="D3" t="n">
-        <v>0.158552</v>
+        <v>0.156408</v>
       </c>
       <c r="E3" t="n">
-        <v>0.125022</v>
+        <v>0.12383</v>
       </c>
       <c r="F3" t="n">
-        <v>0.115503</v>
+        <v>0.114474</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.111868</v>
+        <v>0.116904</v>
       </c>
       <c r="C4" t="n">
-        <v>0.104948</v>
+        <v>0.106074</v>
       </c>
       <c r="D4" t="n">
-        <v>0.160998</v>
+        <v>0.160332</v>
       </c>
       <c r="E4" t="n">
-        <v>0.124587</v>
+        <v>0.123788</v>
       </c>
       <c r="F4" t="n">
-        <v>0.116178</v>
+        <v>0.115195</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.113457</v>
+        <v>0.112152</v>
       </c>
       <c r="C5" t="n">
-        <v>0.104683</v>
+        <v>0.104567</v>
       </c>
       <c r="D5" t="n">
-        <v>0.163695</v>
+        <v>0.164541</v>
       </c>
       <c r="E5" t="n">
-        <v>0.125386</v>
+        <v>0.125727</v>
       </c>
       <c r="F5" t="n">
-        <v>0.117014</v>
+        <v>0.116396</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.113975</v>
+        <v>0.112415</v>
       </c>
       <c r="C6" t="n">
-        <v>0.105598</v>
+        <v>0.104395</v>
       </c>
       <c r="D6" t="n">
-        <v>0.173717</v>
+        <v>0.16601</v>
       </c>
       <c r="E6" t="n">
-        <v>0.126356</v>
+        <v>0.126115</v>
       </c>
       <c r="F6" t="n">
-        <v>0.120004</v>
+        <v>0.117329</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.118361</v>
+        <v>0.114833</v>
       </c>
       <c r="C7" t="n">
-        <v>0.106125</v>
+        <v>0.106022</v>
       </c>
       <c r="D7" t="n">
-        <v>0.144439</v>
+        <v>0.149245</v>
       </c>
       <c r="E7" t="n">
-        <v>0.128919</v>
+        <v>0.126899</v>
       </c>
       <c r="F7" t="n">
-        <v>0.123839</v>
+        <v>0.1181</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.114515</v>
+        <v>0.113467</v>
       </c>
       <c r="C8" t="n">
-        <v>0.107369</v>
+        <v>0.106137</v>
       </c>
       <c r="D8" t="n">
-        <v>0.146789</v>
+        <v>0.145233</v>
       </c>
       <c r="E8" t="n">
-        <v>0.138265</v>
+        <v>0.130783</v>
       </c>
       <c r="F8" t="n">
-        <v>0.123821</v>
+        <v>0.1222</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.116581</v>
+        <v>0.115062</v>
       </c>
       <c r="C9" t="n">
-        <v>0.108704</v>
+        <v>0.107556</v>
       </c>
       <c r="D9" t="n">
-        <v>0.148827</v>
+        <v>0.146512</v>
       </c>
       <c r="E9" t="n">
-        <v>0.127682</v>
+        <v>0.124726</v>
       </c>
       <c r="F9" t="n">
-        <v>0.116394</v>
+        <v>0.115762</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.123089</v>
+        <v>0.122428</v>
       </c>
       <c r="C10" t="n">
-        <v>0.110822</v>
+        <v>0.109925</v>
       </c>
       <c r="D10" t="n">
-        <v>0.151304</v>
+        <v>0.166315</v>
       </c>
       <c r="E10" t="n">
-        <v>0.126581</v>
+        <v>0.1276</v>
       </c>
       <c r="F10" t="n">
-        <v>0.116871</v>
+        <v>0.116391</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.126938</v>
+        <v>0.122605</v>
       </c>
       <c r="C11" t="n">
-        <v>0.116322</v>
+        <v>0.111478</v>
       </c>
       <c r="D11" t="n">
-        <v>0.154391</v>
+        <v>0.154267</v>
       </c>
       <c r="E11" t="n">
-        <v>0.12792</v>
+        <v>0.125773</v>
       </c>
       <c r="F11" t="n">
-        <v>0.117707</v>
+        <v>0.116161</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.127773</v>
+        <v>0.121911</v>
       </c>
       <c r="C12" t="n">
-        <v>0.112558</v>
+        <v>0.112145</v>
       </c>
       <c r="D12" t="n">
-        <v>0.158329</v>
+        <v>0.156548</v>
       </c>
       <c r="E12" t="n">
-        <v>0.127501</v>
+        <v>0.126428</v>
       </c>
       <c r="F12" t="n">
-        <v>0.117456</v>
+        <v>0.115967</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.122807</v>
+        <v>0.121634</v>
       </c>
       <c r="C13" t="n">
-        <v>0.111211</v>
+        <v>0.110002</v>
       </c>
       <c r="D13" t="n">
-        <v>0.16302</v>
+        <v>0.16028</v>
       </c>
       <c r="E13" t="n">
-        <v>0.127459</v>
+        <v>0.126423</v>
       </c>
       <c r="F13" t="n">
-        <v>0.117436</v>
+        <v>0.117168</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.122828</v>
+        <v>0.12631</v>
       </c>
       <c r="C14" t="n">
-        <v>0.110709</v>
+        <v>0.109646</v>
       </c>
       <c r="D14" t="n">
-        <v>0.164256</v>
+        <v>0.163359</v>
       </c>
       <c r="E14" t="n">
-        <v>0.127805</v>
+        <v>0.127198</v>
       </c>
       <c r="F14" t="n">
-        <v>0.117784</v>
+        <v>0.116647</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1271</v>
+        <v>0.122647</v>
       </c>
       <c r="C15" t="n">
-        <v>0.111291</v>
+        <v>0.110978</v>
       </c>
       <c r="D15" t="n">
-        <v>0.167933</v>
+        <v>0.16725</v>
       </c>
       <c r="E15" t="n">
-        <v>0.129393</v>
+        <v>0.127221</v>
       </c>
       <c r="F15" t="n">
-        <v>0.119747</v>
+        <v>0.118537</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.125814</v>
+        <v>0.122276</v>
       </c>
       <c r="C16" t="n">
-        <v>0.111573</v>
+        <v>0.112038</v>
       </c>
       <c r="D16" t="n">
-        <v>0.174071</v>
+        <v>0.173002</v>
       </c>
       <c r="E16" t="n">
-        <v>0.128705</v>
+        <v>0.12751</v>
       </c>
       <c r="F16" t="n">
-        <v>0.118917</v>
+        <v>0.120114</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.124172</v>
+        <v>0.123959</v>
       </c>
       <c r="C17" t="n">
-        <v>0.110992</v>
+        <v>0.113477</v>
       </c>
       <c r="D17" t="n">
-        <v>0.179482</v>
+        <v>0.176397</v>
       </c>
       <c r="E17" t="n">
-        <v>0.12951</v>
+        <v>0.128672</v>
       </c>
       <c r="F17" t="n">
-        <v>0.120363</v>
+        <v>0.119005</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.125104</v>
+        <v>0.124337</v>
       </c>
       <c r="C18" t="n">
-        <v>0.112933</v>
+        <v>0.113512</v>
       </c>
       <c r="D18" t="n">
-        <v>0.180981</v>
+        <v>0.183444</v>
       </c>
       <c r="E18" t="n">
-        <v>0.130044</v>
+        <v>0.129212</v>
       </c>
       <c r="F18" t="n">
-        <v>0.11994</v>
+        <v>0.119345</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.124982</v>
+        <v>0.127569</v>
       </c>
       <c r="C19" t="n">
-        <v>0.11354</v>
+        <v>0.112946</v>
       </c>
       <c r="D19" t="n">
-        <v>0.183262</v>
+        <v>0.185054</v>
       </c>
       <c r="E19" t="n">
-        <v>0.130592</v>
+        <v>0.130774</v>
       </c>
       <c r="F19" t="n">
-        <v>0.121268</v>
+        <v>0.120406</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.125521</v>
+        <v>0.125318</v>
       </c>
       <c r="C20" t="n">
-        <v>0.11492</v>
+        <v>0.113575</v>
       </c>
       <c r="D20" t="n">
-        <v>0.189408</v>
+        <v>0.188075</v>
       </c>
       <c r="E20" t="n">
-        <v>0.133069</v>
+        <v>0.132535</v>
       </c>
       <c r="F20" t="n">
-        <v>0.122439</v>
+        <v>0.121899</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.125405</v>
+        <v>0.126416</v>
       </c>
       <c r="C21" t="n">
-        <v>0.113388</v>
+        <v>0.115063</v>
       </c>
       <c r="D21" t="n">
-        <v>0.15297</v>
+        <v>0.153031</v>
       </c>
       <c r="E21" t="n">
-        <v>0.134518</v>
+        <v>0.134728</v>
       </c>
       <c r="F21" t="n">
-        <v>0.12463</v>
+        <v>0.124489</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.127025</v>
+        <v>0.127612</v>
       </c>
       <c r="C22" t="n">
-        <v>0.118229</v>
+        <v>0.120004</v>
       </c>
       <c r="D22" t="n">
-        <v>0.155493</v>
+        <v>0.171117</v>
       </c>
       <c r="E22" t="n">
-        <v>0.138191</v>
+        <v>0.13991</v>
       </c>
       <c r="F22" t="n">
-        <v>0.128585</v>
+        <v>0.129752</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.135274</v>
+        <v>0.1318</v>
       </c>
       <c r="C23" t="n">
-        <v>0.118378</v>
+        <v>0.121292</v>
       </c>
       <c r="D23" t="n">
-        <v>0.160238</v>
+        <v>0.159331</v>
       </c>
       <c r="E23" t="n">
-        <v>0.132705</v>
+        <v>0.132703</v>
       </c>
       <c r="F23" t="n">
-        <v>0.123812</v>
+        <v>0.122719</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.135155</v>
+        <v>0.136815</v>
       </c>
       <c r="C24" t="n">
-        <v>0.126712</v>
+        <v>0.12515</v>
       </c>
       <c r="D24" t="n">
-        <v>0.168072</v>
+        <v>0.161919</v>
       </c>
       <c r="E24" t="n">
-        <v>0.134215</v>
+        <v>0.132653</v>
       </c>
       <c r="F24" t="n">
-        <v>0.123727</v>
+        <v>0.123251</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134418</v>
+        <v>0.135139</v>
       </c>
       <c r="C25" t="n">
-        <v>0.124972</v>
+        <v>0.12608</v>
       </c>
       <c r="D25" t="n">
-        <v>0.163602</v>
+        <v>0.165489</v>
       </c>
       <c r="E25" t="n">
-        <v>0.132626</v>
+        <v>0.133024</v>
       </c>
       <c r="F25" t="n">
-        <v>0.122534</v>
+        <v>0.122864</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.13471</v>
+        <v>0.135304</v>
       </c>
       <c r="C26" t="n">
-        <v>0.125815</v>
+        <v>0.125213</v>
       </c>
       <c r="D26" t="n">
-        <v>0.167325</v>
+        <v>0.171877</v>
       </c>
       <c r="E26" t="n">
-        <v>0.132621</v>
+        <v>0.132617</v>
       </c>
       <c r="F26" t="n">
-        <v>0.12334</v>
+        <v>0.122709</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.134448</v>
+        <v>0.136</v>
       </c>
       <c r="C27" t="n">
-        <v>0.125117</v>
+        <v>0.1258</v>
       </c>
       <c r="D27" t="n">
-        <v>0.170696</v>
+        <v>0.172415</v>
       </c>
       <c r="E27" t="n">
-        <v>0.133359</v>
+        <v>0.134198</v>
       </c>
       <c r="F27" t="n">
-        <v>0.12423</v>
+        <v>0.123904</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.132932</v>
+        <v>0.136297</v>
       </c>
       <c r="C28" t="n">
-        <v>0.12823</v>
+        <v>0.126031</v>
       </c>
       <c r="D28" t="n">
-        <v>0.174813</v>
+        <v>0.178081</v>
       </c>
       <c r="E28" t="n">
-        <v>0.133441</v>
+        <v>0.133864</v>
       </c>
       <c r="F28" t="n">
-        <v>0.123926</v>
+        <v>0.123967</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.137911</v>
+        <v>0.134879</v>
       </c>
       <c r="C29" t="n">
-        <v>0.131158</v>
+        <v>0.125742</v>
       </c>
       <c r="D29" t="n">
-        <v>0.178512</v>
+        <v>0.183746</v>
       </c>
       <c r="E29" t="n">
-        <v>0.144907</v>
+        <v>0.133712</v>
       </c>
       <c r="F29" t="n">
-        <v>0.125339</v>
+        <v>0.124378</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.133922</v>
+        <v>0.133161</v>
       </c>
       <c r="C30" t="n">
-        <v>0.127464</v>
+        <v>0.127154</v>
       </c>
       <c r="D30" t="n">
-        <v>0.184219</v>
+        <v>0.184975</v>
       </c>
       <c r="E30" t="n">
-        <v>0.135398</v>
+        <v>0.134361</v>
       </c>
       <c r="F30" t="n">
-        <v>0.124478</v>
+        <v>0.125603</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.135148</v>
+        <v>0.135095</v>
       </c>
       <c r="C31" t="n">
-        <v>0.131593</v>
+        <v>0.12763</v>
       </c>
       <c r="D31" t="n">
-        <v>0.188581</v>
+        <v>0.194407</v>
       </c>
       <c r="E31" t="n">
-        <v>0.135179</v>
+        <v>0.135931</v>
       </c>
       <c r="F31" t="n">
-        <v>0.126003</v>
+        <v>0.126566</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.134364</v>
+        <v>0.135636</v>
       </c>
       <c r="C32" t="n">
-        <v>0.131107</v>
+        <v>0.127743</v>
       </c>
       <c r="D32" t="n">
-        <v>0.189863</v>
+        <v>0.194214</v>
       </c>
       <c r="E32" t="n">
-        <v>0.136229</v>
+        <v>0.136559</v>
       </c>
       <c r="F32" t="n">
-        <v>0.127325</v>
+        <v>0.127545</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.134411</v>
+        <v>0.136355</v>
       </c>
       <c r="C33" t="n">
-        <v>0.126269</v>
+        <v>0.12789</v>
       </c>
       <c r="D33" t="n">
-        <v>0.199769</v>
+        <v>0.198421</v>
       </c>
       <c r="E33" t="n">
-        <v>0.142435</v>
+        <v>0.138742</v>
       </c>
       <c r="F33" t="n">
-        <v>0.12948</v>
+        <v>0.129714</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.136009</v>
+        <v>0.136693</v>
       </c>
       <c r="C34" t="n">
-        <v>0.128076</v>
+        <v>0.129024</v>
       </c>
       <c r="D34" t="n">
-        <v>0.204114</v>
+        <v>0.200046</v>
       </c>
       <c r="E34" t="n">
-        <v>0.142801</v>
+        <v>0.140393</v>
       </c>
       <c r="F34" t="n">
-        <v>0.131373</v>
+        <v>0.130396</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.137258</v>
+        <v>0.136051</v>
       </c>
       <c r="C35" t="n">
-        <v>0.134461</v>
+        <v>0.128427</v>
       </c>
       <c r="D35" t="n">
-        <v>0.167355</v>
+        <v>0.17015</v>
       </c>
       <c r="E35" t="n">
-        <v>0.144475</v>
+        <v>0.142858</v>
       </c>
       <c r="F35" t="n">
-        <v>0.134865</v>
+        <v>0.134546</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.141598</v>
+        <v>0.140287</v>
       </c>
       <c r="C36" t="n">
-        <v>0.133202</v>
+        <v>0.136152</v>
       </c>
       <c r="D36" t="n">
-        <v>0.172079</v>
+        <v>0.170034</v>
       </c>
       <c r="E36" t="n">
-        <v>0.14997</v>
+        <v>0.148999</v>
       </c>
       <c r="F36" t="n">
-        <v>0.140841</v>
+        <v>0.140865</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.142283</v>
+        <v>0.140124</v>
       </c>
       <c r="C37" t="n">
-        <v>0.135043</v>
+        <v>0.132987</v>
       </c>
       <c r="D37" t="n">
-        <v>0.177795</v>
+        <v>0.173174</v>
       </c>
       <c r="E37" t="n">
-        <v>0.142309</v>
+        <v>0.138724</v>
       </c>
       <c r="F37" t="n">
-        <v>0.132062</v>
+        <v>0.129666</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.166824</v>
+        <v>0.157406</v>
       </c>
       <c r="C38" t="n">
-        <v>0.141967</v>
+        <v>0.14056</v>
       </c>
       <c r="D38" t="n">
-        <v>0.179611</v>
+        <v>0.178165</v>
       </c>
       <c r="E38" t="n">
-        <v>0.149647</v>
+        <v>0.140388</v>
       </c>
       <c r="F38" t="n">
-        <v>0.131799</v>
+        <v>0.130829</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.164655</v>
+        <v>0.159025</v>
       </c>
       <c r="C39" t="n">
-        <v>0.141642</v>
+        <v>0.143173</v>
       </c>
       <c r="D39" t="n">
-        <v>0.183673</v>
+        <v>0.183813</v>
       </c>
       <c r="E39" t="n">
-        <v>0.149586</v>
+        <v>0.140658</v>
       </c>
       <c r="F39" t="n">
-        <v>0.132453</v>
+        <v>0.131122</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.167839</v>
+        <v>0.157996</v>
       </c>
       <c r="C40" t="n">
-        <v>0.141083</v>
+        <v>0.147386</v>
       </c>
       <c r="D40" t="n">
-        <v>0.187097</v>
+        <v>0.211387</v>
       </c>
       <c r="E40" t="n">
-        <v>0.143311</v>
+        <v>0.1456</v>
       </c>
       <c r="F40" t="n">
-        <v>0.132478</v>
+        <v>0.131985</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.165767</v>
+        <v>0.158576</v>
       </c>
       <c r="C41" t="n">
-        <v>0.143131</v>
+        <v>0.141535</v>
       </c>
       <c r="D41" t="n">
-        <v>0.194852</v>
+        <v>0.194178</v>
       </c>
       <c r="E41" t="n">
-        <v>0.142475</v>
+        <v>0.140205</v>
       </c>
       <c r="F41" t="n">
-        <v>0.132604</v>
+        <v>0.132136</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.165877</v>
+        <v>0.15744</v>
       </c>
       <c r="C42" t="n">
-        <v>0.143202</v>
+        <v>0.141493</v>
       </c>
       <c r="D42" t="n">
-        <v>0.197424</v>
+        <v>0.200371</v>
       </c>
       <c r="E42" t="n">
-        <v>0.141926</v>
+        <v>0.140582</v>
       </c>
       <c r="F42" t="n">
-        <v>0.133327</v>
+        <v>0.133075</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.167615</v>
+        <v>0.15723</v>
       </c>
       <c r="C43" t="n">
-        <v>0.147396</v>
+        <v>0.141142</v>
       </c>
       <c r="D43" t="n">
-        <v>0.208777</v>
+        <v>0.205272</v>
       </c>
       <c r="E43" t="n">
-        <v>0.145301</v>
+        <v>0.141767</v>
       </c>
       <c r="F43" t="n">
-        <v>0.13541</v>
+        <v>0.134371</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.168163</v>
+        <v>0.159815</v>
       </c>
       <c r="C44" t="n">
-        <v>0.144011</v>
+        <v>0.142982</v>
       </c>
       <c r="D44" t="n">
-        <v>0.211259</v>
+        <v>0.211117</v>
       </c>
       <c r="E44" t="n">
-        <v>0.143271</v>
+        <v>0.142498</v>
       </c>
       <c r="F44" t="n">
-        <v>0.135629</v>
+        <v>0.134288</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.171062</v>
+        <v>0.159491</v>
       </c>
       <c r="C45" t="n">
-        <v>0.145508</v>
+        <v>0.143956</v>
       </c>
       <c r="D45" t="n">
-        <v>0.217713</v>
+        <v>0.221446</v>
       </c>
       <c r="E45" t="n">
-        <v>0.145065</v>
+        <v>0.143692</v>
       </c>
       <c r="F45" t="n">
-        <v>0.136569</v>
+        <v>0.135922</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.165435</v>
+        <v>0.160949</v>
       </c>
       <c r="C46" t="n">
-        <v>0.143756</v>
+        <v>0.150024</v>
       </c>
       <c r="D46" t="n">
-        <v>0.224125</v>
+        <v>0.226656</v>
       </c>
       <c r="E46" t="n">
-        <v>0.144855</v>
+        <v>0.149448</v>
       </c>
       <c r="F46" t="n">
-        <v>0.137266</v>
+        <v>0.137176</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.166521</v>
+        <v>0.165562</v>
       </c>
       <c r="C47" t="n">
-        <v>0.145745</v>
+        <v>0.144345</v>
       </c>
       <c r="D47" t="n">
-        <v>0.228783</v>
+        <v>0.230119</v>
       </c>
       <c r="E47" t="n">
-        <v>0.147068</v>
+        <v>0.148001</v>
       </c>
       <c r="F47" t="n">
-        <v>0.143618</v>
+        <v>0.138708</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.173068</v>
+        <v>0.171466</v>
       </c>
       <c r="C48" t="n">
-        <v>0.157047</v>
+        <v>0.145883</v>
       </c>
       <c r="D48" t="n">
-        <v>0.234407</v>
+        <v>0.2349</v>
       </c>
       <c r="E48" t="n">
-        <v>0.148675</v>
+        <v>0.148027</v>
       </c>
       <c r="F48" t="n">
-        <v>0.142819</v>
+        <v>0.141511</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.171278</v>
+        <v>0.161653</v>
       </c>
       <c r="C49" t="n">
-        <v>0.151037</v>
+        <v>0.147059</v>
       </c>
       <c r="D49" t="n">
-        <v>0.23996</v>
+        <v>0.240224</v>
       </c>
       <c r="E49" t="n">
-        <v>0.15225</v>
+        <v>0.151273</v>
       </c>
       <c r="F49" t="n">
-        <v>0.146759</v>
+        <v>0.145449</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.172422</v>
+        <v>0.162864</v>
       </c>
       <c r="C50" t="n">
-        <v>0.15309</v>
+        <v>0.149827</v>
       </c>
       <c r="D50" t="n">
-        <v>0.20384</v>
+        <v>0.197937</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1573</v>
+        <v>0.156122</v>
       </c>
       <c r="F50" t="n">
-        <v>0.156549</v>
+        <v>0.151875</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173433</v>
+        <v>0.167245</v>
       </c>
       <c r="C51" t="n">
-        <v>0.154191</v>
+        <v>0.151574</v>
       </c>
       <c r="D51" t="n">
-        <v>0.202973</v>
+        <v>0.201517</v>
       </c>
       <c r="E51" t="n">
-        <v>0.249852</v>
+        <v>0.204795</v>
       </c>
       <c r="F51" t="n">
-        <v>0.149069</v>
+        <v>0.140366</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.178592</v>
+        <v>0.168808</v>
       </c>
       <c r="C52" t="n">
-        <v>0.158866</v>
+        <v>0.157226</v>
       </c>
       <c r="D52" t="n">
-        <v>0.209811</v>
+        <v>0.206765</v>
       </c>
       <c r="E52" t="n">
-        <v>0.251895</v>
+        <v>0.204474</v>
       </c>
       <c r="F52" t="n">
-        <v>0.144125</v>
+        <v>0.141796</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.337731</v>
+        <v>0.246238</v>
       </c>
       <c r="C53" t="n">
-        <v>0.164386</v>
+        <v>0.161178</v>
       </c>
       <c r="D53" t="n">
-        <v>0.217625</v>
+        <v>0.219077</v>
       </c>
       <c r="E53" t="n">
-        <v>0.25525</v>
+        <v>0.206523</v>
       </c>
       <c r="F53" t="n">
-        <v>0.147107</v>
+        <v>0.141143</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.340229</v>
+        <v>0.242519</v>
       </c>
       <c r="C54" t="n">
-        <v>0.163995</v>
+        <v>0.160213</v>
       </c>
       <c r="D54" t="n">
-        <v>0.220855</v>
+        <v>0.221205</v>
       </c>
       <c r="E54" t="n">
-        <v>0.252967</v>
+        <v>0.217103</v>
       </c>
       <c r="F54" t="n">
-        <v>0.148731</v>
+        <v>0.145468</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.353998</v>
+        <v>0.246141</v>
       </c>
       <c r="C55" t="n">
-        <v>0.171596</v>
+        <v>0.168995</v>
       </c>
       <c r="D55" t="n">
-        <v>0.229383</v>
+        <v>0.230088</v>
       </c>
       <c r="E55" t="n">
-        <v>0.250491</v>
+        <v>0.208436</v>
       </c>
       <c r="F55" t="n">
-        <v>0.146834</v>
+        <v>0.145517</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.348382</v>
+        <v>0.250726</v>
       </c>
       <c r="C56" t="n">
-        <v>0.163404</v>
+        <v>0.172019</v>
       </c>
       <c r="D56" t="n">
-        <v>0.233811</v>
+        <v>0.231793</v>
       </c>
       <c r="E56" t="n">
-        <v>0.253494</v>
+        <v>0.208208</v>
       </c>
       <c r="F56" t="n">
-        <v>0.149049</v>
+        <v>0.153484</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.336676</v>
+        <v>0.248376</v>
       </c>
       <c r="C57" t="n">
-        <v>0.165588</v>
+        <v>0.162536</v>
       </c>
       <c r="D57" t="n">
-        <v>0.241773</v>
+        <v>0.247217</v>
       </c>
       <c r="E57" t="n">
-        <v>0.252952</v>
+        <v>0.20538</v>
       </c>
       <c r="F57" t="n">
-        <v>0.151112</v>
+        <v>0.147539</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.333028</v>
+        <v>0.260417</v>
       </c>
       <c r="C58" t="n">
-        <v>0.164745</v>
+        <v>0.180653</v>
       </c>
       <c r="D58" t="n">
-        <v>0.250494</v>
+        <v>0.26471</v>
       </c>
       <c r="E58" t="n">
-        <v>0.253303</v>
+        <v>0.214198</v>
       </c>
       <c r="F58" t="n">
-        <v>0.151805</v>
+        <v>0.160615</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.332017</v>
+        <v>0.247074</v>
       </c>
       <c r="C59" t="n">
-        <v>0.171389</v>
+        <v>0.181822</v>
       </c>
       <c r="D59" t="n">
-        <v>0.258215</v>
+        <v>0.257937</v>
       </c>
       <c r="E59" t="n">
-        <v>0.252066</v>
+        <v>0.210138</v>
       </c>
       <c r="F59" t="n">
-        <v>0.15362</v>
+        <v>0.156502</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.336061</v>
+        <v>0.245868</v>
       </c>
       <c r="C60" t="n">
-        <v>0.17627</v>
+        <v>0.173782</v>
       </c>
       <c r="D60" t="n">
-        <v>0.266462</v>
+        <v>0.273482</v>
       </c>
       <c r="E60" t="n">
-        <v>0.255392</v>
+        <v>0.20939</v>
       </c>
       <c r="F60" t="n">
-        <v>0.160303</v>
+        <v>0.160541</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.33232</v>
+        <v>0.243189</v>
       </c>
       <c r="C61" t="n">
-        <v>0.172777</v>
+        <v>0.173331</v>
       </c>
       <c r="D61" t="n">
-        <v>0.274301</v>
+        <v>0.287629</v>
       </c>
       <c r="E61" t="n">
-        <v>0.257428</v>
+        <v>0.211779</v>
       </c>
       <c r="F61" t="n">
-        <v>0.158317</v>
+        <v>0.159344</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.328038</v>
+        <v>0.244003</v>
       </c>
       <c r="C62" t="n">
-        <v>0.174008</v>
+        <v>0.174708</v>
       </c>
       <c r="D62" t="n">
-        <v>0.282841</v>
+        <v>0.284915</v>
       </c>
       <c r="E62" t="n">
-        <v>0.257344</v>
+        <v>0.215008</v>
       </c>
       <c r="F62" t="n">
-        <v>0.169871</v>
+        <v>0.164988</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.330953</v>
+        <v>0.246243</v>
       </c>
       <c r="C63" t="n">
-        <v>0.17762</v>
+        <v>0.178136</v>
       </c>
       <c r="D63" t="n">
-        <v>0.293899</v>
+        <v>0.295853</v>
       </c>
       <c r="E63" t="n">
-        <v>0.255562</v>
+        <v>0.215337</v>
       </c>
       <c r="F63" t="n">
-        <v>0.169615</v>
+        <v>0.17405</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.333127</v>
+        <v>0.254019</v>
       </c>
       <c r="C64" t="n">
-        <v>0.181002</v>
+        <v>0.188471</v>
       </c>
       <c r="D64" t="n">
-        <v>0.266551</v>
+        <v>0.274819</v>
       </c>
       <c r="E64" t="n">
-        <v>0.263562</v>
+        <v>0.226142</v>
       </c>
       <c r="F64" t="n">
-        <v>0.185966</v>
+        <v>0.178527</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.338442</v>
+        <v>0.25359</v>
       </c>
       <c r="C65" t="n">
-        <v>0.189837</v>
+        <v>0.191011</v>
       </c>
       <c r="D65" t="n">
-        <v>0.28478</v>
+        <v>0.278261</v>
       </c>
       <c r="E65" t="n">
-        <v>0.27091</v>
+        <v>0.225605</v>
       </c>
       <c r="F65" t="n">
-        <v>0.189813</v>
+        <v>0.184864</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.350286</v>
+        <v>0.24984</v>
       </c>
       <c r="C66" t="n">
-        <v>0.202833</v>
+        <v>0.194258</v>
       </c>
       <c r="D66" t="n">
-        <v>0.286026</v>
+        <v>0.286454</v>
       </c>
       <c r="E66" t="n">
-        <v>0.376804</v>
+        <v>0.285661</v>
       </c>
       <c r="F66" t="n">
-        <v>0.239438</v>
+        <v>0.208128</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.552365</v>
+        <v>0.363661</v>
       </c>
       <c r="C67" t="n">
-        <v>0.248995</v>
+        <v>0.244042</v>
       </c>
       <c r="D67" t="n">
-        <v>0.301364</v>
+        <v>0.293795</v>
       </c>
       <c r="E67" t="n">
-        <v>0.384235</v>
+        <v>0.282565</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2434</v>
+        <v>0.209396</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.544755</v>
+        <v>0.388765</v>
       </c>
       <c r="C68" t="n">
-        <v>0.248475</v>
+        <v>0.246251</v>
       </c>
       <c r="D68" t="n">
-        <v>0.309234</v>
+        <v>0.303399</v>
       </c>
       <c r="E68" t="n">
-        <v>0.389194</v>
+        <v>0.288267</v>
       </c>
       <c r="F68" t="n">
-        <v>0.242588</v>
+        <v>0.213317</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.543532</v>
+        <v>0.389827</v>
       </c>
       <c r="C69" t="n">
-        <v>0.254739</v>
+        <v>0.246831</v>
       </c>
       <c r="D69" t="n">
-        <v>0.318729</v>
+        <v>0.315278</v>
       </c>
       <c r="E69" t="n">
-        <v>0.390922</v>
+        <v>0.28857</v>
       </c>
       <c r="F69" t="n">
-        <v>0.251893</v>
+        <v>0.215531</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.555837</v>
+        <v>0.365993</v>
       </c>
       <c r="C70" t="n">
-        <v>0.250958</v>
+        <v>0.248565</v>
       </c>
       <c r="D70" t="n">
-        <v>0.32728</v>
+        <v>0.32723</v>
       </c>
       <c r="E70" t="n">
-        <v>0.390752</v>
+        <v>0.292896</v>
       </c>
       <c r="F70" t="n">
-        <v>0.252352</v>
+        <v>0.216678</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.552557</v>
+        <v>0.369551</v>
       </c>
       <c r="C71" t="n">
-        <v>0.251364</v>
+        <v>0.252103</v>
       </c>
       <c r="D71" t="n">
-        <v>0.340841</v>
+        <v>0.343543</v>
       </c>
       <c r="E71" t="n">
-        <v>0.400088</v>
+        <v>0.311758</v>
       </c>
       <c r="F71" t="n">
-        <v>0.275714</v>
+        <v>0.223382</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.550315</v>
+        <v>0.386658</v>
       </c>
       <c r="C72" t="n">
-        <v>0.255376</v>
+        <v>0.262826</v>
       </c>
       <c r="D72" t="n">
-        <v>0.358454</v>
+        <v>0.364886</v>
       </c>
       <c r="E72" t="n">
-        <v>0.391447</v>
+        <v>0.295683</v>
       </c>
       <c r="F72" t="n">
-        <v>0.254287</v>
+        <v>0.221677</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.55303</v>
+        <v>0.371259</v>
       </c>
       <c r="C73" t="n">
-        <v>0.257742</v>
+        <v>0.253707</v>
       </c>
       <c r="D73" t="n">
-        <v>0.365729</v>
+        <v>0.36503</v>
       </c>
       <c r="E73" t="n">
-        <v>0.392084</v>
+        <v>0.303587</v>
       </c>
       <c r="F73" t="n">
-        <v>0.260694</v>
+        <v>0.225584</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.564009</v>
+        <v>0.372545</v>
       </c>
       <c r="C74" t="n">
-        <v>0.260187</v>
+        <v>0.256145</v>
       </c>
       <c r="D74" t="n">
-        <v>0.402526</v>
+        <v>0.37709</v>
       </c>
       <c r="E74" t="n">
-        <v>0.398455</v>
+        <v>0.298575</v>
       </c>
       <c r="F74" t="n">
-        <v>0.26609</v>
+        <v>0.226527</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.554395</v>
+        <v>0.373248</v>
       </c>
       <c r="C75" t="n">
-        <v>0.260037</v>
+        <v>0.270186</v>
       </c>
       <c r="D75" t="n">
-        <v>0.397257</v>
+        <v>0.399369</v>
       </c>
       <c r="E75" t="n">
-        <v>0.40501</v>
+        <v>0.307651</v>
       </c>
       <c r="F75" t="n">
-        <v>0.263662</v>
+        <v>0.233167</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.557625</v>
+        <v>0.377704</v>
       </c>
       <c r="C76" t="n">
-        <v>0.270237</v>
+        <v>0.264256</v>
       </c>
       <c r="D76" t="n">
-        <v>0.426901</v>
+        <v>0.414959</v>
       </c>
       <c r="E76" t="n">
-        <v>0.413891</v>
+        <v>0.309738</v>
       </c>
       <c r="F76" t="n">
-        <v>0.272197</v>
+        <v>0.250384</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.589707</v>
+        <v>0.381608</v>
       </c>
       <c r="C77" t="n">
-        <v>0.265548</v>
+        <v>0.276698</v>
       </c>
       <c r="D77" t="n">
-        <v>0.426806</v>
+        <v>0.432403</v>
       </c>
       <c r="E77" t="n">
-        <v>0.41368</v>
+        <v>0.315062</v>
       </c>
       <c r="F77" t="n">
-        <v>0.275466</v>
+        <v>0.241566</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.570865</v>
+        <v>0.384515</v>
       </c>
       <c r="C78" t="n">
-        <v>0.270555</v>
+        <v>0.270161</v>
       </c>
       <c r="D78" t="n">
-        <v>0.400968</v>
+        <v>0.403328</v>
       </c>
       <c r="E78" t="n">
-        <v>0.404002</v>
+        <v>0.316982</v>
       </c>
       <c r="F78" t="n">
-        <v>0.27954</v>
+        <v>0.245272</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.587595</v>
+        <v>0.383997</v>
       </c>
       <c r="C79" t="n">
-        <v>0.274512</v>
+        <v>0.275752</v>
       </c>
       <c r="D79" t="n">
-        <v>0.413199</v>
+        <v>0.407845</v>
       </c>
       <c r="E79" t="n">
-        <v>0.423882</v>
+        <v>0.319868</v>
       </c>
       <c r="F79" t="n">
-        <v>0.291984</v>
+        <v>0.255386</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.602261</v>
+        <v>0.395738</v>
       </c>
       <c r="C80" t="n">
-        <v>0.282681</v>
+        <v>0.277061</v>
       </c>
       <c r="D80" t="n">
-        <v>0.422048</v>
+        <v>0.424558</v>
       </c>
       <c r="E80" t="n">
-        <v>0.655365</v>
+        <v>0.419615</v>
       </c>
       <c r="F80" t="n">
-        <v>0.508012</v>
+        <v>0.343205</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.845066</v>
+        <v>0.523512</v>
       </c>
       <c r="C81" t="n">
-        <v>0.405681</v>
+        <v>0.398857</v>
       </c>
       <c r="D81" t="n">
-        <v>0.471289</v>
+        <v>0.434143</v>
       </c>
       <c r="E81" t="n">
-        <v>0.662983</v>
+        <v>0.42553</v>
       </c>
       <c r="F81" t="n">
-        <v>0.492318</v>
+        <v>0.343209</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.874178</v>
+        <v>0.52254</v>
       </c>
       <c r="C82" t="n">
-        <v>0.440081</v>
+        <v>0.396786</v>
       </c>
       <c r="D82" t="n">
-        <v>0.450892</v>
+        <v>0.443426</v>
       </c>
       <c r="E82" t="n">
-        <v>0.675733</v>
+        <v>0.424335</v>
       </c>
       <c r="F82" t="n">
-        <v>0.515894</v>
+        <v>0.346724</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.842583</v>
+        <v>0.518855</v>
       </c>
       <c r="C83" t="n">
-        <v>0.398786</v>
+        <v>0.393846</v>
       </c>
       <c r="D83" t="n">
-        <v>0.452744</v>
+        <v>0.467975</v>
       </c>
       <c r="E83" t="n">
-        <v>0.692946</v>
+        <v>0.428504</v>
       </c>
       <c r="F83" t="n">
-        <v>0.484162</v>
+        <v>0.356324</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.854245</v>
+        <v>0.544558</v>
       </c>
       <c r="C84" t="n">
-        <v>0.395106</v>
+        <v>0.400166</v>
       </c>
       <c r="D84" t="n">
-        <v>0.471736</v>
+        <v>0.467341</v>
       </c>
       <c r="E84" t="n">
-        <v>0.683229</v>
+        <v>0.428327</v>
       </c>
       <c r="F84" t="n">
-        <v>0.485601</v>
+        <v>0.347178</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.871882</v>
+        <v>0.538388</v>
       </c>
       <c r="C85" t="n">
-        <v>0.444113</v>
+        <v>0.393815</v>
       </c>
       <c r="D85" t="n">
-        <v>0.476564</v>
+        <v>0.47907</v>
       </c>
       <c r="E85" t="n">
-        <v>0.658466</v>
+        <v>0.42775</v>
       </c>
       <c r="F85" t="n">
-        <v>0.493459</v>
+        <v>0.349952</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.850007</v>
+        <v>0.52188</v>
       </c>
       <c r="C86" t="n">
-        <v>0.398996</v>
+        <v>0.400219</v>
       </c>
       <c r="D86" t="n">
-        <v>0.499719</v>
+        <v>0.512638</v>
       </c>
       <c r="E86" t="n">
-        <v>0.660677</v>
+        <v>0.429913</v>
       </c>
       <c r="F86" t="n">
-        <v>0.487628</v>
+        <v>0.347055</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.847575</v>
+        <v>0.528148</v>
       </c>
       <c r="C87" t="n">
-        <v>0.415543</v>
+        <v>0.407224</v>
       </c>
       <c r="D87" t="n">
-        <v>0.518961</v>
+        <v>0.506337</v>
       </c>
       <c r="E87" t="n">
-        <v>0.679782</v>
+        <v>0.428558</v>
       </c>
       <c r="F87" t="n">
-        <v>0.503647</v>
+        <v>0.348455</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.854924</v>
+        <v>0.523176</v>
       </c>
       <c r="C88" t="n">
-        <v>0.40762</v>
+        <v>0.402737</v>
       </c>
       <c r="D88" t="n">
-        <v>0.524097</v>
+        <v>0.519384</v>
       </c>
       <c r="E88" t="n">
-        <v>0.669735</v>
+        <v>0.431189</v>
       </c>
       <c r="F88" t="n">
-        <v>0.496883</v>
+        <v>0.354291</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.858411</v>
+        <v>0.537784</v>
       </c>
       <c r="C89" t="n">
-        <v>0.452216</v>
+        <v>0.404769</v>
       </c>
       <c r="D89" t="n">
-        <v>0.535236</v>
+        <v>0.537539</v>
       </c>
       <c r="E89" t="n">
-        <v>0.663111</v>
+        <v>0.432603</v>
       </c>
       <c r="F89" t="n">
-        <v>0.529605</v>
+        <v>0.357524</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.859451</v>
+        <v>0.529728</v>
       </c>
       <c r="C90" t="n">
-        <v>0.405974</v>
+        <v>0.408278</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5508960000000001</v>
+        <v>0.549876</v>
       </c>
       <c r="E90" t="n">
-        <v>0.691059</v>
+        <v>0.43839</v>
       </c>
       <c r="F90" t="n">
-        <v>0.536264</v>
+        <v>0.360278</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.853743</v>
+        <v>0.532866</v>
       </c>
       <c r="C91" t="n">
-        <v>0.412021</v>
+        <v>0.408333</v>
       </c>
       <c r="D91" t="n">
-        <v>0.570393</v>
+        <v>0.585099</v>
       </c>
       <c r="E91" t="n">
-        <v>0.666596</v>
+        <v>0.457667</v>
       </c>
       <c r="F91" t="n">
-        <v>0.520258</v>
+        <v>0.376878</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.872241</v>
+        <v>0.544275</v>
       </c>
       <c r="C92" t="n">
-        <v>0.430905</v>
+        <v>0.414044</v>
       </c>
       <c r="D92" t="n">
-        <v>0.575648</v>
+        <v>0.525448</v>
       </c>
       <c r="E92" t="n">
-        <v>0.676609</v>
+        <v>0.44185</v>
       </c>
       <c r="F92" t="n">
-        <v>0.512648</v>
+        <v>0.372461</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.856973</v>
+        <v>0.535893</v>
       </c>
       <c r="C93" t="n">
-        <v>0.450104</v>
+        <v>0.42536</v>
       </c>
       <c r="D93" t="n">
-        <v>0.549472</v>
+        <v>0.53185</v>
       </c>
       <c r="E93" t="n">
-        <v>0.671596</v>
+        <v>0.444993</v>
       </c>
       <c r="F93" t="n">
-        <v>0.520297</v>
+        <v>0.3782</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.853371</v>
+        <v>0.543257</v>
       </c>
       <c r="C94" t="n">
-        <v>0.429429</v>
+        <v>0.442254</v>
       </c>
       <c r="D94" t="n">
-        <v>0.588625</v>
+        <v>0.550998</v>
       </c>
       <c r="E94" t="n">
-        <v>0.911485</v>
+        <v>0.513023</v>
       </c>
       <c r="F94" t="n">
-        <v>0.832131</v>
+        <v>0.508147</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.05655</v>
+        <v>0.632793</v>
       </c>
       <c r="C95" t="n">
-        <v>0.645622</v>
+        <v>0.593045</v>
       </c>
       <c r="D95" t="n">
-        <v>0.607899</v>
+        <v>0.5590540000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>0.94407</v>
+        <v>0.50993</v>
       </c>
       <c r="F95" t="n">
-        <v>0.835694</v>
+        <v>0.509484</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.1075</v>
+        <v>0.615482</v>
       </c>
       <c r="C96" t="n">
-        <v>0.629256</v>
+        <v>0.6073539999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.582786</v>
+        <v>0.575229</v>
       </c>
       <c r="E96" t="n">
-        <v>0.951744</v>
+        <v>0.514691</v>
       </c>
       <c r="F96" t="n">
-        <v>0.893527</v>
+        <v>0.512999</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.14666</v>
+        <v>0.6176739999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6435419999999999</v>
+        <v>0.607961</v>
       </c>
       <c r="D97" t="n">
-        <v>0.605098</v>
+        <v>0.584159</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9172360000000001</v>
+        <v>0.516903</v>
       </c>
       <c r="F97" t="n">
-        <v>0.830508</v>
+        <v>0.5151289999999999</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.06706</v>
+        <v>0.618217</v>
       </c>
       <c r="C98" t="n">
-        <v>0.600464</v>
+        <v>0.599225</v>
       </c>
       <c r="D98" t="n">
-        <v>0.62112</v>
+        <v>0.59646</v>
       </c>
       <c r="E98" t="n">
-        <v>0.917552</v>
+        <v>0.512649</v>
       </c>
       <c r="F98" t="n">
-        <v>0.876385</v>
+        <v>0.514267</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.06694</v>
+        <v>0.610321</v>
       </c>
       <c r="C99" t="n">
-        <v>0.607716</v>
+        <v>0.591186</v>
       </c>
       <c r="D99" t="n">
-        <v>0.620053</v>
+        <v>0.6126549999999999</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9577</v>
+        <v>0.514161</v>
       </c>
       <c r="F99" t="n">
-        <v>0.91465</v>
+        <v>0.515909</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.06299</v>
+        <v>0.6156509999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.60733</v>
+        <v>0.596526</v>
       </c>
       <c r="D100" t="n">
-        <v>0.63114</v>
+        <v>0.6285849999999999</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9534859999999999</v>
+        <v>0.521767</v>
       </c>
       <c r="F100" t="n">
-        <v>0.866449</v>
+        <v>0.521427</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.12242</v>
+        <v>0.61768</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6534489999999999</v>
+        <v>0.635822</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6645720000000001</v>
+        <v>0.640052</v>
       </c>
       <c r="E101" t="n">
-        <v>0.968209</v>
+        <v>0.516312</v>
       </c>
       <c r="F101" t="n">
-        <v>0.888393</v>
+        <v>0.517263</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.12915</v>
+        <v>0.61268</v>
       </c>
       <c r="C102" t="n">
-        <v>0.646058</v>
+        <v>0.598581</v>
       </c>
       <c r="D102" t="n">
-        <v>0.678732</v>
+        <v>0.653728</v>
       </c>
       <c r="E102" t="n">
-        <v>0.957078</v>
+        <v>0.52107</v>
       </c>
       <c r="F102" t="n">
-        <v>0.889419</v>
+        <v>0.539734</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.10833</v>
+        <v>0.6195619999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.6039949999999999</v>
+        <v>0.601253</v>
       </c>
       <c r="D103" t="n">
-        <v>0.679853</v>
+        <v>0.672409</v>
       </c>
       <c r="E103" t="n">
-        <v>0.960815</v>
+        <v>0.525421</v>
       </c>
       <c r="F103" t="n">
-        <v>0.898381</v>
+        <v>0.531573</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.12604</v>
+        <v>0.622686</v>
       </c>
       <c r="C104" t="n">
-        <v>0.6115080000000001</v>
+        <v>0.605974</v>
       </c>
       <c r="D104" t="n">
-        <v>0.732044</v>
+        <v>0.686014</v>
       </c>
       <c r="E104" t="n">
-        <v>0.910798</v>
+        <v>0.521607</v>
       </c>
       <c r="F104" t="n">
-        <v>0.852248</v>
+        <v>0.532448</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.07301</v>
+        <v>0.618359</v>
       </c>
       <c r="C105" t="n">
-        <v>0.610105</v>
+        <v>0.621386</v>
       </c>
       <c r="D105" t="n">
-        <v>0.71953</v>
+        <v>0.714795</v>
       </c>
       <c r="E105" t="n">
-        <v>0.926798</v>
+        <v>0.538618</v>
       </c>
       <c r="F105" t="n">
-        <v>0.884782</v>
+        <v>0.538537</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.0806</v>
+        <v>0.628974</v>
       </c>
       <c r="C106" t="n">
-        <v>0.617824</v>
+        <v>0.638467</v>
       </c>
       <c r="D106" t="n">
-        <v>0.727186</v>
+        <v>0.721148</v>
       </c>
       <c r="E106" t="n">
-        <v>0.952195</v>
+        <v>0.533859</v>
       </c>
       <c r="F106" t="n">
-        <v>0.933459</v>
+        <v>0.543999</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.09794</v>
+        <v>0.6255810000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.626153</v>
+        <v>0.6206159999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.684333</v>
+        <v>0.64055</v>
       </c>
       <c r="E107" t="n">
-        <v>0.932003</v>
+        <v>0.558848</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8733030000000001</v>
+        <v>0.551938</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.07533</v>
+        <v>0.626752</v>
       </c>
       <c r="C108" t="n">
-        <v>0.664837</v>
+        <v>0.6280250000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6621089999999999</v>
+        <v>0.651125</v>
       </c>
       <c r="E108" t="n">
-        <v>1.16279</v>
+        <v>0.588422</v>
       </c>
       <c r="F108" t="n">
-        <v>1.16637</v>
+        <v>0.617144</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.09277</v>
+        <v>0.629584</v>
       </c>
       <c r="C109" t="n">
-        <v>0.643154</v>
+        <v>0.636705</v>
       </c>
       <c r="D109" t="n">
-        <v>0.68402</v>
+        <v>0.667822</v>
       </c>
       <c r="E109" t="n">
-        <v>1.1361</v>
+        <v>0.593577</v>
       </c>
       <c r="F109" t="n">
-        <v>1.15181</v>
+        <v>0.616798</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.3304</v>
+        <v>0.74452</v>
       </c>
       <c r="C110" t="n">
-        <v>0.740475</v>
+        <v>0.736034</v>
       </c>
       <c r="D110" t="n">
-        <v>0.702327</v>
+        <v>0.677724</v>
       </c>
       <c r="E110" t="n">
-        <v>1.12483</v>
+        <v>0.592951</v>
       </c>
       <c r="F110" t="n">
-        <v>1.1703</v>
+        <v>0.618121</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.32952</v>
+        <v>0.740058</v>
       </c>
       <c r="C111" t="n">
-        <v>0.73724</v>
+        <v>0.730749</v>
       </c>
       <c r="D111" t="n">
-        <v>0.703452</v>
+        <v>0.69613</v>
       </c>
       <c r="E111" t="n">
-        <v>1.13956</v>
+        <v>0.591465</v>
       </c>
       <c r="F111" t="n">
-        <v>1.16924</v>
+        <v>0.631148</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.30638</v>
+        <v>0.739599</v>
       </c>
       <c r="C112" t="n">
-        <v>0.777512</v>
+        <v>0.730474</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7108179999999999</v>
+        <v>0.70747</v>
       </c>
       <c r="E112" t="n">
-        <v>1.14091</v>
+        <v>0.597349</v>
       </c>
       <c r="F112" t="n">
-        <v>1.18787</v>
+        <v>0.629597</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.31215</v>
+        <v>0.742457</v>
       </c>
       <c r="C113" t="n">
-        <v>0.7525500000000001</v>
+        <v>0.734524</v>
       </c>
       <c r="D113" t="n">
-        <v>0.722596</v>
+        <v>0.721799</v>
       </c>
       <c r="E113" t="n">
-        <v>1.16605</v>
+        <v>0.604036</v>
       </c>
       <c r="F113" t="n">
-        <v>1.18924</v>
+        <v>0.636972</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.36062</v>
+        <v>0.754914</v>
       </c>
       <c r="C114" t="n">
-        <v>0.771295</v>
+        <v>0.742119</v>
       </c>
       <c r="D114" t="n">
-        <v>0.743513</v>
+        <v>0.741445</v>
       </c>
       <c r="E114" t="n">
-        <v>1.13472</v>
+        <v>0.603081</v>
       </c>
       <c r="F114" t="n">
-        <v>1.17443</v>
+        <v>0.628495</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.33685</v>
+        <v>0.761421</v>
       </c>
       <c r="C115" t="n">
-        <v>0.76059</v>
+        <v>0.739151</v>
       </c>
       <c r="D115" t="n">
-        <v>0.749935</v>
+        <v>0.747707</v>
       </c>
       <c r="E115" t="n">
-        <v>1.15244</v>
+        <v>0.601944</v>
       </c>
       <c r="F115" t="n">
-        <v>1.23979</v>
+        <v>0.6318510000000001</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.31919</v>
+        <v>0.748899</v>
       </c>
       <c r="C116" t="n">
-        <v>0.753849</v>
+        <v>0.740878</v>
       </c>
       <c r="D116" t="n">
-        <v>0.765138</v>
+        <v>0.769276</v>
       </c>
       <c r="E116" t="n">
-        <v>1.14405</v>
+        <v>0.604931</v>
       </c>
       <c r="F116" t="n">
-        <v>1.21347</v>
+        <v>0.638046</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.30445</v>
+        <v>0.74553</v>
       </c>
       <c r="C117" t="n">
-        <v>0.75544</v>
+        <v>0.742183</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7840240000000001</v>
+        <v>0.780131</v>
       </c>
       <c r="E117" t="n">
-        <v>1.15117</v>
+        <v>0.6026629999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>1.21608</v>
+        <v>0.63818</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.29704</v>
+        <v>0.744632</v>
       </c>
       <c r="C118" t="n">
-        <v>0.755071</v>
+        <v>0.735599</v>
       </c>
       <c r="D118" t="n">
-        <v>0.795024</v>
+        <v>0.794635</v>
       </c>
       <c r="E118" t="n">
-        <v>1.21661</v>
+        <v>0.613753</v>
       </c>
       <c r="F118" t="n">
-        <v>1.27075</v>
+        <v>0.64368</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.31672</v>
+        <v>0.749128</v>
       </c>
       <c r="C119" t="n">
-        <v>0.774973</v>
+        <v>0.745359</v>
       </c>
       <c r="D119" t="n">
-        <v>0.824805</v>
+        <v>0.815262</v>
       </c>
       <c r="E119" t="n">
-        <v>1.16965</v>
+        <v>0.620505</v>
       </c>
       <c r="F119" t="n">
-        <v>1.21266</v>
+        <v>0.652695</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.32372</v>
+        <v>0.748852</v>
       </c>
       <c r="C120" t="n">
-        <v>0.76373</v>
+        <v>0.747319</v>
       </c>
       <c r="D120" t="n">
-        <v>0.868883</v>
+        <v>0.836986</v>
       </c>
       <c r="E120" t="n">
-        <v>1.20161</v>
+        <v>0.614586</v>
       </c>
       <c r="F120" t="n">
-        <v>1.22759</v>
+        <v>0.657726</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.3309</v>
+        <v>0.760377</v>
       </c>
       <c r="C121" t="n">
-        <v>0.793589</v>
+        <v>0.74869</v>
       </c>
       <c r="D121" t="n">
-        <v>0.729301</v>
+        <v>0.728871</v>
       </c>
       <c r="E121" t="n">
-        <v>1.32071</v>
+        <v>0.630336</v>
       </c>
       <c r="F121" t="n">
-        <v>1.25707</v>
+        <v>0.672169</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.30081</v>
+        <v>0.750356</v>
       </c>
       <c r="C122" t="n">
-        <v>0.782173</v>
+        <v>0.768512</v>
       </c>
       <c r="D122" t="n">
-        <v>0.761582</v>
+        <v>0.762019</v>
       </c>
       <c r="E122" t="n">
-        <v>1.18513</v>
+        <v>0.638563</v>
       </c>
       <c r="F122" t="n">
-        <v>1.22938</v>
+        <v>0.687542</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.31201</v>
+        <v>0.7586540000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.789664</v>
+        <v>0.776042</v>
       </c>
       <c r="D123" t="n">
-        <v>0.755991</v>
+        <v>0.764127</v>
       </c>
       <c r="E123" t="n">
-        <v>1.49424</v>
+        <v>0.727567</v>
       </c>
       <c r="F123" t="n">
-        <v>1.43262</v>
+        <v>0.692483</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.78209</v>
+        <v>0.952739</v>
       </c>
       <c r="C124" t="n">
-        <v>0.916977</v>
+        <v>0.877546</v>
       </c>
       <c r="D124" t="n">
-        <v>0.780958</v>
+        <v>0.781432</v>
       </c>
       <c r="E124" t="n">
-        <v>1.51411</v>
+        <v>0.716944</v>
       </c>
       <c r="F124" t="n">
-        <v>1.42979</v>
+        <v>0.706172</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.71641</v>
+        <v>0.960129</v>
       </c>
       <c r="C125" t="n">
-        <v>0.887078</v>
+        <v>0.87222</v>
       </c>
       <c r="D125" t="n">
-        <v>0.789256</v>
+        <v>0.7990159999999999</v>
       </c>
       <c r="E125" t="n">
-        <v>1.52249</v>
+        <v>0.725948</v>
       </c>
       <c r="F125" t="n">
-        <v>1.43156</v>
+        <v>0.701332</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.74768</v>
+        <v>0.960504</v>
       </c>
       <c r="C126" t="n">
-        <v>0.888269</v>
+        <v>0.868302</v>
       </c>
       <c r="D126" t="n">
-        <v>0.800034</v>
+        <v>0.7960199999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>1.55026</v>
+        <v>0.712039</v>
       </c>
       <c r="F126" t="n">
-        <v>1.4288</v>
+        <v>0.694833</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.77611</v>
+        <v>0.954535</v>
       </c>
       <c r="C127" t="n">
-        <v>0.901217</v>
+        <v>0.867661</v>
       </c>
       <c r="D127" t="n">
-        <v>0.812618</v>
+        <v>0.8082589999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>1.52182</v>
+        <v>0.740218</v>
       </c>
       <c r="F127" t="n">
-        <v>1.43283</v>
+        <v>0.710269</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.72555</v>
+        <v>0.966423</v>
       </c>
       <c r="C128" t="n">
-        <v>0.912242</v>
+        <v>0.911833</v>
       </c>
       <c r="D128" t="n">
-        <v>0.819037</v>
+        <v>0.8237989999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>1.52028</v>
+        <v>0.722898</v>
       </c>
       <c r="F128" t="n">
-        <v>1.43664</v>
+        <v>0.711097</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.79027</v>
+        <v>0.967541</v>
       </c>
       <c r="C129" t="n">
-        <v>0.903411</v>
+        <v>0.886896</v>
       </c>
       <c r="D129" t="n">
-        <v>0.843348</v>
+        <v>0.838139</v>
       </c>
       <c r="E129" t="n">
-        <v>1.51942</v>
+        <v>0.720811</v>
       </c>
       <c r="F129" t="n">
-        <v>1.42353</v>
+        <v>0.711035</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.72935</v>
+        <v>0.983422</v>
       </c>
       <c r="C130" t="n">
-        <v>0.906434</v>
+        <v>0.876395</v>
       </c>
       <c r="D130" t="n">
-        <v>0.859788</v>
+        <v>0.855561</v>
       </c>
       <c r="E130" t="n">
-        <v>1.52704</v>
+        <v>0.740169</v>
       </c>
       <c r="F130" t="n">
-        <v>1.49745</v>
+        <v>0.728476</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.72937</v>
+        <v>0.955252</v>
       </c>
       <c r="C131" t="n">
-        <v>0.903807</v>
+        <v>0.88373</v>
       </c>
       <c r="D131" t="n">
-        <v>0.877768</v>
+        <v>0.869323</v>
       </c>
       <c r="E131" t="n">
-        <v>1.51474</v>
+        <v>0.731402</v>
       </c>
       <c r="F131" t="n">
-        <v>1.45015</v>
+        <v>0.712799</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.72946</v>
+        <v>0.974461</v>
       </c>
       <c r="C132" t="n">
-        <v>0.907711</v>
+        <v>0.881842</v>
       </c>
       <c r="D132" t="n">
-        <v>0.903826</v>
+        <v>0.877528</v>
       </c>
       <c r="E132" t="n">
-        <v>1.52795</v>
+        <v>0.725058</v>
       </c>
       <c r="F132" t="n">
-        <v>1.46995</v>
+        <v>0.719014</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.74607</v>
+        <v>0.952979</v>
       </c>
       <c r="C133" t="n">
-        <v>0.903485</v>
+        <v>0.882591</v>
       </c>
       <c r="D133" t="n">
-        <v>0.929837</v>
+        <v>0.905209</v>
       </c>
       <c r="E133" t="n">
-        <v>1.51689</v>
+        <v>0.735311</v>
       </c>
       <c r="F133" t="n">
-        <v>1.47146</v>
+        <v>0.728839</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.73082</v>
+        <v>0.961555</v>
       </c>
       <c r="C134" t="n">
-        <v>0.943103</v>
+        <v>0.883087</v>
       </c>
       <c r="D134" t="n">
-        <v>0.922575</v>
+        <v>0.916397</v>
       </c>
       <c r="E134" t="n">
-        <v>1.52661</v>
+        <v>0.73071</v>
       </c>
       <c r="F134" t="n">
-        <v>1.48113</v>
+        <v>0.732409</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.76534</v>
+        <v>0.971347</v>
       </c>
       <c r="C135" t="n">
-        <v>0.919767</v>
+        <v>0.8927619999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>0.810281</v>
+        <v>0.8164130000000001</v>
       </c>
       <c r="E135" t="n">
-        <v>1.53363</v>
+        <v>0.7411720000000001</v>
       </c>
       <c r="F135" t="n">
-        <v>1.46918</v>
+        <v>0.7526659999999999</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.84342</v>
+        <v>0.972621</v>
       </c>
       <c r="C136" t="n">
-        <v>0.927427</v>
+        <v>0.900904</v>
       </c>
       <c r="D136" t="n">
-        <v>0.8246019999999999</v>
+        <v>0.829807</v>
       </c>
       <c r="E136" t="n">
-        <v>1.54591</v>
+        <v>0.765389</v>
       </c>
       <c r="F136" t="n">
-        <v>1.52142</v>
+        <v>0.775457</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.78236</v>
+        <v>0.977813</v>
       </c>
       <c r="C137" t="n">
-        <v>0.964915</v>
+        <v>0.923303</v>
       </c>
       <c r="D137" t="n">
-        <v>0.839219</v>
+        <v>0.841208</v>
       </c>
       <c r="E137" t="n">
-        <v>1.86361</v>
+        <v>0.8774110000000001</v>
       </c>
       <c r="F137" t="n">
-        <v>1.69604</v>
+        <v>0.755464</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.24721</v>
+        <v>1.20458</v>
       </c>
       <c r="C138" t="n">
-        <v>1.00209</v>
+        <v>0.990192</v>
       </c>
       <c r="D138" t="n">
-        <v>0.854858</v>
+        <v>0.860908</v>
       </c>
       <c r="E138" t="n">
-        <v>1.86373</v>
+        <v>0.879763</v>
       </c>
       <c r="F138" t="n">
-        <v>1.65014</v>
+        <v>0.780814</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.21212</v>
+        <v>1.21795</v>
       </c>
       <c r="C139" t="n">
-        <v>1.0134</v>
+        <v>0.975723</v>
       </c>
       <c r="D139" t="n">
-        <v>0.874123</v>
+        <v>0.869209</v>
       </c>
       <c r="E139" t="n">
-        <v>1.88424</v>
+        <v>0.867754</v>
       </c>
       <c r="F139" t="n">
-        <v>1.63728</v>
+        <v>0.756556</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.18116</v>
+        <v>1.22023</v>
       </c>
       <c r="C140" t="n">
-        <v>1.00983</v>
+        <v>0.969383</v>
       </c>
       <c r="D140" t="n">
-        <v>0.887935</v>
+        <v>0.882937</v>
       </c>
       <c r="E140" t="n">
-        <v>1.86673</v>
+        <v>0.894255</v>
       </c>
       <c r="F140" t="n">
-        <v>1.64666</v>
+        <v>0.764567</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.22282</v>
+        <v>1.24886</v>
       </c>
       <c r="C141" t="n">
-        <v>1.0057</v>
+        <v>0.969861</v>
       </c>
       <c r="D141" t="n">
-        <v>0.896699</v>
+        <v>0.891567</v>
       </c>
       <c r="E141" t="n">
-        <v>1.90935</v>
+        <v>0.8882949999999999</v>
       </c>
       <c r="F141" t="n">
-        <v>1.64671</v>
+        <v>0.770659</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.21117</v>
+        <v>1.22011</v>
       </c>
       <c r="C142" t="n">
-        <v>1.00536</v>
+        <v>0.980993</v>
       </c>
       <c r="D142" t="n">
-        <v>0.924103</v>
+        <v>0.913717</v>
       </c>
       <c r="E142" t="n">
-        <v>1.87797</v>
+        <v>0.87998</v>
       </c>
       <c r="F142" t="n">
-        <v>1.64755</v>
+        <v>0.77505</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.19042</v>
+        <v>1.21817</v>
       </c>
       <c r="C143" t="n">
-        <v>1.00531</v>
+        <v>0.990943</v>
       </c>
       <c r="D143" t="n">
-        <v>0.938655</v>
+        <v>0.939132</v>
       </c>
       <c r="E143" t="n">
-        <v>1.89295</v>
+        <v>0.891908</v>
       </c>
       <c r="F143" t="n">
-        <v>1.66223</v>
+        <v>0.782457</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.11182</v>
+        <v>0.11151</v>
       </c>
       <c r="C2" t="n">
-        <v>0.104033</v>
+        <v>0.104688</v>
       </c>
       <c r="D2" t="n">
-        <v>0.152082</v>
+        <v>0.154897</v>
       </c>
       <c r="E2" t="n">
-        <v>0.123292</v>
+        <v>0.122708</v>
       </c>
       <c r="F2" t="n">
-        <v>0.114404</v>
+        <v>0.117227</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.116122</v>
+        <v>0.112648</v>
       </c>
       <c r="C3" t="n">
-        <v>0.104039</v>
+        <v>0.105316</v>
       </c>
       <c r="D3" t="n">
-        <v>0.156408</v>
+        <v>0.159079</v>
       </c>
       <c r="E3" t="n">
-        <v>0.12383</v>
+        <v>0.122543</v>
       </c>
       <c r="F3" t="n">
-        <v>0.114474</v>
+        <v>0.119957</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.116904</v>
+        <v>0.112143</v>
       </c>
       <c r="C4" t="n">
-        <v>0.106074</v>
+        <v>0.105487</v>
       </c>
       <c r="D4" t="n">
-        <v>0.160332</v>
+        <v>0.160783</v>
       </c>
       <c r="E4" t="n">
-        <v>0.123788</v>
+        <v>0.124179</v>
       </c>
       <c r="F4" t="n">
-        <v>0.115195</v>
+        <v>0.115697</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.112152</v>
+        <v>0.114619</v>
       </c>
       <c r="C5" t="n">
-        <v>0.104567</v>
+        <v>0.106077</v>
       </c>
       <c r="D5" t="n">
-        <v>0.164541</v>
+        <v>0.165934</v>
       </c>
       <c r="E5" t="n">
-        <v>0.125727</v>
+        <v>0.125818</v>
       </c>
       <c r="F5" t="n">
-        <v>0.116396</v>
+        <v>0.116033</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.112415</v>
+        <v>0.113461</v>
       </c>
       <c r="C6" t="n">
-        <v>0.104395</v>
+        <v>0.106028</v>
       </c>
       <c r="D6" t="n">
-        <v>0.16601</v>
+        <v>0.166472</v>
       </c>
       <c r="E6" t="n">
-        <v>0.126115</v>
+        <v>0.125506</v>
       </c>
       <c r="F6" t="n">
-        <v>0.117329</v>
+        <v>0.117136</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.114833</v>
+        <v>0.112498</v>
       </c>
       <c r="C7" t="n">
-        <v>0.106022</v>
+        <v>0.106097</v>
       </c>
       <c r="D7" t="n">
-        <v>0.149245</v>
+        <v>0.14436</v>
       </c>
       <c r="E7" t="n">
-        <v>0.126899</v>
+        <v>0.12764</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1181</v>
+        <v>0.119606</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.113467</v>
+        <v>0.11403</v>
       </c>
       <c r="C8" t="n">
-        <v>0.106137</v>
+        <v>0.106536</v>
       </c>
       <c r="D8" t="n">
-        <v>0.145233</v>
+        <v>0.145962</v>
       </c>
       <c r="E8" t="n">
-        <v>0.130783</v>
+        <v>0.131548</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1222</v>
+        <v>0.122853</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.115062</v>
+        <v>0.115525</v>
       </c>
       <c r="C9" t="n">
-        <v>0.107556</v>
+        <v>0.108678</v>
       </c>
       <c r="D9" t="n">
-        <v>0.146512</v>
+        <v>0.149086</v>
       </c>
       <c r="E9" t="n">
-        <v>0.124726</v>
+        <v>0.126119</v>
       </c>
       <c r="F9" t="n">
-        <v>0.115762</v>
+        <v>0.116775</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.122428</v>
+        <v>0.121667</v>
       </c>
       <c r="C10" t="n">
-        <v>0.109925</v>
+        <v>0.111571</v>
       </c>
       <c r="D10" t="n">
-        <v>0.166315</v>
+        <v>0.150856</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1276</v>
+        <v>0.125878</v>
       </c>
       <c r="F10" t="n">
-        <v>0.116391</v>
+        <v>0.116432</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.122605</v>
+        <v>0.122842</v>
       </c>
       <c r="C11" t="n">
-        <v>0.111478</v>
+        <v>0.110372</v>
       </c>
       <c r="D11" t="n">
-        <v>0.154267</v>
+        <v>0.15436</v>
       </c>
       <c r="E11" t="n">
-        <v>0.125773</v>
+        <v>0.12563</v>
       </c>
       <c r="F11" t="n">
-        <v>0.116161</v>
+        <v>0.116772</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.121911</v>
+        <v>0.122896</v>
       </c>
       <c r="C12" t="n">
-        <v>0.112145</v>
+        <v>0.111448</v>
       </c>
       <c r="D12" t="n">
-        <v>0.156548</v>
+        <v>0.156909</v>
       </c>
       <c r="E12" t="n">
-        <v>0.126428</v>
+        <v>0.126194</v>
       </c>
       <c r="F12" t="n">
-        <v>0.115967</v>
+        <v>0.116393</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.121634</v>
+        <v>0.122328</v>
       </c>
       <c r="C13" t="n">
-        <v>0.110002</v>
+        <v>0.1117</v>
       </c>
       <c r="D13" t="n">
-        <v>0.16028</v>
+        <v>0.160486</v>
       </c>
       <c r="E13" t="n">
-        <v>0.126423</v>
+        <v>0.126914</v>
       </c>
       <c r="F13" t="n">
-        <v>0.117168</v>
+        <v>0.118229</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.12631</v>
+        <v>0.1256</v>
       </c>
       <c r="C14" t="n">
-        <v>0.109646</v>
+        <v>0.11176</v>
       </c>
       <c r="D14" t="n">
-        <v>0.163359</v>
+        <v>0.162791</v>
       </c>
       <c r="E14" t="n">
-        <v>0.127198</v>
+        <v>0.125888</v>
       </c>
       <c r="F14" t="n">
-        <v>0.116647</v>
+        <v>0.116776</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.122647</v>
+        <v>0.123199</v>
       </c>
       <c r="C15" t="n">
-        <v>0.110978</v>
+        <v>0.110206</v>
       </c>
       <c r="D15" t="n">
-        <v>0.16725</v>
+        <v>0.166659</v>
       </c>
       <c r="E15" t="n">
-        <v>0.127221</v>
+        <v>0.126404</v>
       </c>
       <c r="F15" t="n">
-        <v>0.118537</v>
+        <v>0.117186</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.122276</v>
+        <v>0.122172</v>
       </c>
       <c r="C16" t="n">
-        <v>0.112038</v>
+        <v>0.113227</v>
       </c>
       <c r="D16" t="n">
-        <v>0.173002</v>
+        <v>0.17145</v>
       </c>
       <c r="E16" t="n">
-        <v>0.12751</v>
+        <v>0.127269</v>
       </c>
       <c r="F16" t="n">
-        <v>0.120114</v>
+        <v>0.117414</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.123959</v>
+        <v>0.122276</v>
       </c>
       <c r="C17" t="n">
-        <v>0.113477</v>
+        <v>0.112944</v>
       </c>
       <c r="D17" t="n">
-        <v>0.176397</v>
+        <v>0.177118</v>
       </c>
       <c r="E17" t="n">
-        <v>0.128672</v>
+        <v>0.128562</v>
       </c>
       <c r="F17" t="n">
-        <v>0.119005</v>
+        <v>0.11857</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.124337</v>
+        <v>0.122685</v>
       </c>
       <c r="C18" t="n">
-        <v>0.113512</v>
+        <v>0.111684</v>
       </c>
       <c r="D18" t="n">
-        <v>0.183444</v>
+        <v>0.178975</v>
       </c>
       <c r="E18" t="n">
-        <v>0.129212</v>
+        <v>0.128239</v>
       </c>
       <c r="F18" t="n">
-        <v>0.119345</v>
+        <v>0.11897</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.127569</v>
+        <v>0.123422</v>
       </c>
       <c r="C19" t="n">
-        <v>0.112946</v>
+        <v>0.112619</v>
       </c>
       <c r="D19" t="n">
-        <v>0.185054</v>
+        <v>0.182792</v>
       </c>
       <c r="E19" t="n">
-        <v>0.130774</v>
+        <v>0.128699</v>
       </c>
       <c r="F19" t="n">
-        <v>0.120406</v>
+        <v>0.119412</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.125318</v>
+        <v>0.125138</v>
       </c>
       <c r="C20" t="n">
-        <v>0.113575</v>
+        <v>0.113574</v>
       </c>
       <c r="D20" t="n">
-        <v>0.188075</v>
+        <v>0.188031</v>
       </c>
       <c r="E20" t="n">
-        <v>0.132535</v>
+        <v>0.131825</v>
       </c>
       <c r="F20" t="n">
-        <v>0.121899</v>
+        <v>0.121524</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.126416</v>
+        <v>0.125699</v>
       </c>
       <c r="C21" t="n">
-        <v>0.115063</v>
+        <v>0.115761</v>
       </c>
       <c r="D21" t="n">
-        <v>0.153031</v>
+        <v>0.152866</v>
       </c>
       <c r="E21" t="n">
-        <v>0.134728</v>
+        <v>0.134692</v>
       </c>
       <c r="F21" t="n">
-        <v>0.124489</v>
+        <v>0.125932</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.127612</v>
+        <v>0.127042</v>
       </c>
       <c r="C22" t="n">
-        <v>0.120004</v>
+        <v>0.117462</v>
       </c>
       <c r="D22" t="n">
-        <v>0.171117</v>
+        <v>0.156304</v>
       </c>
       <c r="E22" t="n">
-        <v>0.13991</v>
+        <v>0.13857</v>
       </c>
       <c r="F22" t="n">
-        <v>0.129752</v>
+        <v>0.128634</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1318</v>
+        <v>0.128534</v>
       </c>
       <c r="C23" t="n">
-        <v>0.121292</v>
+        <v>0.118324</v>
       </c>
       <c r="D23" t="n">
-        <v>0.159331</v>
+        <v>0.157783</v>
       </c>
       <c r="E23" t="n">
-        <v>0.132703</v>
+        <v>0.132978</v>
       </c>
       <c r="F23" t="n">
-        <v>0.122719</v>
+        <v>0.122847</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.136815</v>
+        <v>0.133758</v>
       </c>
       <c r="C24" t="n">
-        <v>0.12515</v>
+        <v>0.123994</v>
       </c>
       <c r="D24" t="n">
-        <v>0.161919</v>
+        <v>0.1614</v>
       </c>
       <c r="E24" t="n">
-        <v>0.132653</v>
+        <v>0.132518</v>
       </c>
       <c r="F24" t="n">
-        <v>0.123251</v>
+        <v>0.122707</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.135139</v>
+        <v>0.134173</v>
       </c>
       <c r="C25" t="n">
-        <v>0.12608</v>
+        <v>0.125511</v>
       </c>
       <c r="D25" t="n">
-        <v>0.165489</v>
+        <v>0.164412</v>
       </c>
       <c r="E25" t="n">
-        <v>0.133024</v>
+        <v>0.13206</v>
       </c>
       <c r="F25" t="n">
-        <v>0.122864</v>
+        <v>0.122471</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.135304</v>
+        <v>0.13383</v>
       </c>
       <c r="C26" t="n">
-        <v>0.125213</v>
+        <v>0.125091</v>
       </c>
       <c r="D26" t="n">
-        <v>0.171877</v>
+        <v>0.167207</v>
       </c>
       <c r="E26" t="n">
-        <v>0.132617</v>
+        <v>0.132461</v>
       </c>
       <c r="F26" t="n">
-        <v>0.122709</v>
+        <v>0.122357</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.136</v>
+        <v>0.133458</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1258</v>
+        <v>0.124876</v>
       </c>
       <c r="D27" t="n">
-        <v>0.172415</v>
+        <v>0.170573</v>
       </c>
       <c r="E27" t="n">
-        <v>0.134198</v>
+        <v>0.134463</v>
       </c>
       <c r="F27" t="n">
-        <v>0.123904</v>
+        <v>0.123141</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.136297</v>
+        <v>0.134063</v>
       </c>
       <c r="C28" t="n">
-        <v>0.126031</v>
+        <v>0.125548</v>
       </c>
       <c r="D28" t="n">
-        <v>0.178081</v>
+        <v>0.175206</v>
       </c>
       <c r="E28" t="n">
-        <v>0.133864</v>
+        <v>0.133486</v>
       </c>
       <c r="F28" t="n">
-        <v>0.123967</v>
+        <v>0.123925</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134879</v>
+        <v>0.134039</v>
       </c>
       <c r="C29" t="n">
-        <v>0.125742</v>
+        <v>0.124974</v>
       </c>
       <c r="D29" t="n">
-        <v>0.183746</v>
+        <v>0.178106</v>
       </c>
       <c r="E29" t="n">
-        <v>0.133712</v>
+        <v>0.135935</v>
       </c>
       <c r="F29" t="n">
-        <v>0.124378</v>
+        <v>0.124696</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.133161</v>
+        <v>0.136579</v>
       </c>
       <c r="C30" t="n">
-        <v>0.127154</v>
+        <v>0.126961</v>
       </c>
       <c r="D30" t="n">
-        <v>0.184975</v>
+        <v>0.18378</v>
       </c>
       <c r="E30" t="n">
-        <v>0.134361</v>
+        <v>0.135987</v>
       </c>
       <c r="F30" t="n">
-        <v>0.125603</v>
+        <v>0.126319</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.135095</v>
+        <v>0.136351</v>
       </c>
       <c r="C31" t="n">
-        <v>0.12763</v>
+        <v>0.126358</v>
       </c>
       <c r="D31" t="n">
-        <v>0.194407</v>
+        <v>0.187294</v>
       </c>
       <c r="E31" t="n">
-        <v>0.135931</v>
+        <v>0.135771</v>
       </c>
       <c r="F31" t="n">
-        <v>0.126566</v>
+        <v>0.126175</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.135636</v>
+        <v>0.136944</v>
       </c>
       <c r="C32" t="n">
-        <v>0.127743</v>
+        <v>0.127674</v>
       </c>
       <c r="D32" t="n">
-        <v>0.194214</v>
+        <v>0.192888</v>
       </c>
       <c r="E32" t="n">
-        <v>0.136559</v>
+        <v>0.13666</v>
       </c>
       <c r="F32" t="n">
-        <v>0.127545</v>
+        <v>0.127592</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136355</v>
+        <v>0.137253</v>
       </c>
       <c r="C33" t="n">
-        <v>0.12789</v>
+        <v>0.128942</v>
       </c>
       <c r="D33" t="n">
-        <v>0.198421</v>
+        <v>0.198236</v>
       </c>
       <c r="E33" t="n">
-        <v>0.138742</v>
+        <v>0.138243</v>
       </c>
       <c r="F33" t="n">
-        <v>0.129714</v>
+        <v>0.129084</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.136693</v>
+        <v>0.136212</v>
       </c>
       <c r="C34" t="n">
-        <v>0.129024</v>
+        <v>0.132301</v>
       </c>
       <c r="D34" t="n">
-        <v>0.200046</v>
+        <v>0.205035</v>
       </c>
       <c r="E34" t="n">
-        <v>0.140393</v>
+        <v>0.144051</v>
       </c>
       <c r="F34" t="n">
-        <v>0.130396</v>
+        <v>0.133249</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.136051</v>
+        <v>0.139426</v>
       </c>
       <c r="C35" t="n">
-        <v>0.128427</v>
+        <v>0.130929</v>
       </c>
       <c r="D35" t="n">
-        <v>0.17015</v>
+        <v>0.169164</v>
       </c>
       <c r="E35" t="n">
-        <v>0.142858</v>
+        <v>0.14469</v>
       </c>
       <c r="F35" t="n">
-        <v>0.134546</v>
+        <v>0.135136</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.140287</v>
+        <v>0.1398</v>
       </c>
       <c r="C36" t="n">
-        <v>0.136152</v>
+        <v>0.131266</v>
       </c>
       <c r="D36" t="n">
-        <v>0.170034</v>
+        <v>0.169277</v>
       </c>
       <c r="E36" t="n">
-        <v>0.148999</v>
+        <v>0.147265</v>
       </c>
       <c r="F36" t="n">
-        <v>0.140865</v>
+        <v>0.139044</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.140124</v>
+        <v>0.141301</v>
       </c>
       <c r="C37" t="n">
-        <v>0.132987</v>
+        <v>0.134312</v>
       </c>
       <c r="D37" t="n">
-        <v>0.173174</v>
+        <v>0.177249</v>
       </c>
       <c r="E37" t="n">
-        <v>0.138724</v>
+        <v>0.140485</v>
       </c>
       <c r="F37" t="n">
-        <v>0.129666</v>
+        <v>0.131299</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.157406</v>
+        <v>0.161985</v>
       </c>
       <c r="C38" t="n">
-        <v>0.14056</v>
+        <v>0.141631</v>
       </c>
       <c r="D38" t="n">
-        <v>0.178165</v>
+        <v>0.18613</v>
       </c>
       <c r="E38" t="n">
-        <v>0.140388</v>
+        <v>0.139409</v>
       </c>
       <c r="F38" t="n">
-        <v>0.130829</v>
+        <v>0.131857</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.159025</v>
+        <v>0.165035</v>
       </c>
       <c r="C39" t="n">
-        <v>0.143173</v>
+        <v>0.14157</v>
       </c>
       <c r="D39" t="n">
-        <v>0.183813</v>
+        <v>0.182895</v>
       </c>
       <c r="E39" t="n">
-        <v>0.140658</v>
+        <v>0.13956</v>
       </c>
       <c r="F39" t="n">
-        <v>0.131122</v>
+        <v>0.130569</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.157996</v>
+        <v>0.159399</v>
       </c>
       <c r="C40" t="n">
-        <v>0.147386</v>
+        <v>0.144286</v>
       </c>
       <c r="D40" t="n">
-        <v>0.211387</v>
+        <v>0.191191</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1456</v>
+        <v>0.141021</v>
       </c>
       <c r="F40" t="n">
-        <v>0.131985</v>
+        <v>0.132411</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.158576</v>
+        <v>0.162967</v>
       </c>
       <c r="C41" t="n">
-        <v>0.141535</v>
+        <v>0.144463</v>
       </c>
       <c r="D41" t="n">
-        <v>0.194178</v>
+        <v>0.203133</v>
       </c>
       <c r="E41" t="n">
-        <v>0.140205</v>
+        <v>0.141832</v>
       </c>
       <c r="F41" t="n">
-        <v>0.132136</v>
+        <v>0.13362</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.15744</v>
+        <v>0.163407</v>
       </c>
       <c r="C42" t="n">
-        <v>0.141493</v>
+        <v>0.143174</v>
       </c>
       <c r="D42" t="n">
-        <v>0.200371</v>
+        <v>0.201096</v>
       </c>
       <c r="E42" t="n">
-        <v>0.140582</v>
+        <v>0.140418</v>
       </c>
       <c r="F42" t="n">
-        <v>0.133075</v>
+        <v>0.132981</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.15723</v>
+        <v>0.160522</v>
       </c>
       <c r="C43" t="n">
-        <v>0.141142</v>
+        <v>0.144991</v>
       </c>
       <c r="D43" t="n">
-        <v>0.205272</v>
+        <v>0.207507</v>
       </c>
       <c r="E43" t="n">
-        <v>0.141767</v>
+        <v>0.147411</v>
       </c>
       <c r="F43" t="n">
-        <v>0.134371</v>
+        <v>0.135102</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.159815</v>
+        <v>0.162276</v>
       </c>
       <c r="C44" t="n">
-        <v>0.142982</v>
+        <v>0.14504</v>
       </c>
       <c r="D44" t="n">
-        <v>0.211117</v>
+        <v>0.211217</v>
       </c>
       <c r="E44" t="n">
-        <v>0.142498</v>
+        <v>0.141445</v>
       </c>
       <c r="F44" t="n">
-        <v>0.134288</v>
+        <v>0.134799</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.159491</v>
+        <v>0.159582</v>
       </c>
       <c r="C45" t="n">
-        <v>0.143956</v>
+        <v>0.145399</v>
       </c>
       <c r="D45" t="n">
-        <v>0.221446</v>
+        <v>0.215873</v>
       </c>
       <c r="E45" t="n">
-        <v>0.143692</v>
+        <v>0.142397</v>
       </c>
       <c r="F45" t="n">
-        <v>0.135922</v>
+        <v>0.13676</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.160949</v>
+        <v>0.164415</v>
       </c>
       <c r="C46" t="n">
-        <v>0.150024</v>
+        <v>0.146687</v>
       </c>
       <c r="D46" t="n">
-        <v>0.226656</v>
+        <v>0.224152</v>
       </c>
       <c r="E46" t="n">
-        <v>0.149448</v>
+        <v>0.145506</v>
       </c>
       <c r="F46" t="n">
-        <v>0.137176</v>
+        <v>0.139094</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.165562</v>
+        <v>0.163684</v>
       </c>
       <c r="C47" t="n">
-        <v>0.144345</v>
+        <v>0.147713</v>
       </c>
       <c r="D47" t="n">
-        <v>0.230119</v>
+        <v>0.232069</v>
       </c>
       <c r="E47" t="n">
-        <v>0.148001</v>
+        <v>0.146186</v>
       </c>
       <c r="F47" t="n">
-        <v>0.138708</v>
+        <v>0.139293</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.171466</v>
+        <v>0.162738</v>
       </c>
       <c r="C48" t="n">
-        <v>0.145883</v>
+        <v>0.147056</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2349</v>
+        <v>0.23415</v>
       </c>
       <c r="E48" t="n">
-        <v>0.148027</v>
+        <v>0.147826</v>
       </c>
       <c r="F48" t="n">
-        <v>0.141511</v>
+        <v>0.141581</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.161653</v>
+        <v>0.163534</v>
       </c>
       <c r="C49" t="n">
-        <v>0.147059</v>
+        <v>0.151171</v>
       </c>
       <c r="D49" t="n">
-        <v>0.240224</v>
+        <v>0.248673</v>
       </c>
       <c r="E49" t="n">
-        <v>0.151273</v>
+        <v>0.151639</v>
       </c>
       <c r="F49" t="n">
-        <v>0.145449</v>
+        <v>0.147328</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.162864</v>
+        <v>0.166082</v>
       </c>
       <c r="C50" t="n">
-        <v>0.149827</v>
+        <v>0.150536</v>
       </c>
       <c r="D50" t="n">
-        <v>0.197937</v>
+        <v>0.199969</v>
       </c>
       <c r="E50" t="n">
-        <v>0.156122</v>
+        <v>0.155794</v>
       </c>
       <c r="F50" t="n">
-        <v>0.151875</v>
+        <v>0.150358</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.167245</v>
+        <v>0.167839</v>
       </c>
       <c r="C51" t="n">
-        <v>0.151574</v>
+        <v>0.153225</v>
       </c>
       <c r="D51" t="n">
-        <v>0.201517</v>
+        <v>0.205084</v>
       </c>
       <c r="E51" t="n">
-        <v>0.204795</v>
+        <v>0.227835</v>
       </c>
       <c r="F51" t="n">
-        <v>0.140366</v>
+        <v>0.145562</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.168808</v>
+        <v>0.173249</v>
       </c>
       <c r="C52" t="n">
-        <v>0.157226</v>
+        <v>0.162245</v>
       </c>
       <c r="D52" t="n">
-        <v>0.206765</v>
+        <v>0.211322</v>
       </c>
       <c r="E52" t="n">
-        <v>0.204474</v>
+        <v>0.22509</v>
       </c>
       <c r="F52" t="n">
-        <v>0.141796</v>
+        <v>0.145058</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.246238</v>
+        <v>0.292338</v>
       </c>
       <c r="C53" t="n">
-        <v>0.161178</v>
+        <v>0.163386</v>
       </c>
       <c r="D53" t="n">
-        <v>0.219077</v>
+        <v>0.221478</v>
       </c>
       <c r="E53" t="n">
-        <v>0.206523</v>
+        <v>0.230411</v>
       </c>
       <c r="F53" t="n">
-        <v>0.141143</v>
+        <v>0.145217</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242519</v>
+        <v>0.287643</v>
       </c>
       <c r="C54" t="n">
-        <v>0.160213</v>
+        <v>0.16362</v>
       </c>
       <c r="D54" t="n">
-        <v>0.221205</v>
+        <v>0.223272</v>
       </c>
       <c r="E54" t="n">
-        <v>0.217103</v>
+        <v>0.230163</v>
       </c>
       <c r="F54" t="n">
-        <v>0.145468</v>
+        <v>0.152841</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.246141</v>
+        <v>0.286203</v>
       </c>
       <c r="C55" t="n">
-        <v>0.168995</v>
+        <v>0.164557</v>
       </c>
       <c r="D55" t="n">
-        <v>0.230088</v>
+        <v>0.235351</v>
       </c>
       <c r="E55" t="n">
-        <v>0.208436</v>
+        <v>0.230755</v>
       </c>
       <c r="F55" t="n">
-        <v>0.145517</v>
+        <v>0.145107</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.250726</v>
+        <v>0.286197</v>
       </c>
       <c r="C56" t="n">
-        <v>0.172019</v>
+        <v>0.165159</v>
       </c>
       <c r="D56" t="n">
-        <v>0.231793</v>
+        <v>0.242402</v>
       </c>
       <c r="E56" t="n">
-        <v>0.208208</v>
+        <v>0.22781</v>
       </c>
       <c r="F56" t="n">
-        <v>0.153484</v>
+        <v>0.153954</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.248376</v>
+        <v>0.285236</v>
       </c>
       <c r="C57" t="n">
-        <v>0.162536</v>
+        <v>0.165804</v>
       </c>
       <c r="D57" t="n">
-        <v>0.247217</v>
+        <v>0.248961</v>
       </c>
       <c r="E57" t="n">
-        <v>0.20538</v>
+        <v>0.225366</v>
       </c>
       <c r="F57" t="n">
-        <v>0.147539</v>
+        <v>0.148996</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.260417</v>
+        <v>0.28182</v>
       </c>
       <c r="C58" t="n">
-        <v>0.180653</v>
+        <v>0.166721</v>
       </c>
       <c r="D58" t="n">
-        <v>0.26471</v>
+        <v>0.251498</v>
       </c>
       <c r="E58" t="n">
-        <v>0.214198</v>
+        <v>0.231921</v>
       </c>
       <c r="F58" t="n">
-        <v>0.160615</v>
+        <v>0.153293</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.247074</v>
+        <v>0.284737</v>
       </c>
       <c r="C59" t="n">
-        <v>0.181822</v>
+        <v>0.178675</v>
       </c>
       <c r="D59" t="n">
-        <v>0.257937</v>
+        <v>0.259662</v>
       </c>
       <c r="E59" t="n">
-        <v>0.210138</v>
+        <v>0.227227</v>
       </c>
       <c r="F59" t="n">
-        <v>0.156502</v>
+        <v>0.152811</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.245868</v>
+        <v>0.27994</v>
       </c>
       <c r="C60" t="n">
-        <v>0.173782</v>
+        <v>0.168422</v>
       </c>
       <c r="D60" t="n">
-        <v>0.273482</v>
+        <v>0.264302</v>
       </c>
       <c r="E60" t="n">
-        <v>0.20939</v>
+        <v>0.239238</v>
       </c>
       <c r="F60" t="n">
-        <v>0.160541</v>
+        <v>0.158032</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.243189</v>
+        <v>0.278255</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173331</v>
+        <v>0.18436</v>
       </c>
       <c r="D61" t="n">
-        <v>0.287629</v>
+        <v>0.283404</v>
       </c>
       <c r="E61" t="n">
-        <v>0.211779</v>
+        <v>0.228885</v>
       </c>
       <c r="F61" t="n">
-        <v>0.159344</v>
+        <v>0.170977</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.244003</v>
+        <v>0.283213</v>
       </c>
       <c r="C62" t="n">
-        <v>0.174708</v>
+        <v>0.190619</v>
       </c>
       <c r="D62" t="n">
-        <v>0.284915</v>
+        <v>0.299679</v>
       </c>
       <c r="E62" t="n">
-        <v>0.215008</v>
+        <v>0.231641</v>
       </c>
       <c r="F62" t="n">
-        <v>0.164988</v>
+        <v>0.176144</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.246243</v>
+        <v>0.284507</v>
       </c>
       <c r="C63" t="n">
-        <v>0.178136</v>
+        <v>0.194462</v>
       </c>
       <c r="D63" t="n">
-        <v>0.295853</v>
+        <v>0.309607</v>
       </c>
       <c r="E63" t="n">
-        <v>0.215337</v>
+        <v>0.233306</v>
       </c>
       <c r="F63" t="n">
-        <v>0.17405</v>
+        <v>0.170481</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.254019</v>
+        <v>0.291087</v>
       </c>
       <c r="C64" t="n">
-        <v>0.188471</v>
+        <v>0.184713</v>
       </c>
       <c r="D64" t="n">
-        <v>0.274819</v>
+        <v>0.290651</v>
       </c>
       <c r="E64" t="n">
-        <v>0.226142</v>
+        <v>0.236468</v>
       </c>
       <c r="F64" t="n">
-        <v>0.178527</v>
+        <v>0.177348</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.25359</v>
+        <v>0.289909</v>
       </c>
       <c r="C65" t="n">
-        <v>0.191011</v>
+        <v>0.190137</v>
       </c>
       <c r="D65" t="n">
-        <v>0.278261</v>
+        <v>0.278496</v>
       </c>
       <c r="E65" t="n">
-        <v>0.225605</v>
+        <v>0.246536</v>
       </c>
       <c r="F65" t="n">
-        <v>0.184864</v>
+        <v>0.187877</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.24984</v>
+        <v>0.295387</v>
       </c>
       <c r="C66" t="n">
-        <v>0.194258</v>
+        <v>0.197664</v>
       </c>
       <c r="D66" t="n">
-        <v>0.286454</v>
+        <v>0.286354</v>
       </c>
       <c r="E66" t="n">
-        <v>0.285661</v>
+        <v>0.32692</v>
       </c>
       <c r="F66" t="n">
-        <v>0.208128</v>
+        <v>0.221833</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.363661</v>
+        <v>0.43271</v>
       </c>
       <c r="C67" t="n">
-        <v>0.244042</v>
+        <v>0.252225</v>
       </c>
       <c r="D67" t="n">
-        <v>0.293795</v>
+        <v>0.292601</v>
       </c>
       <c r="E67" t="n">
-        <v>0.282565</v>
+        <v>0.320881</v>
       </c>
       <c r="F67" t="n">
-        <v>0.209396</v>
+        <v>0.217965</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.388765</v>
+        <v>0.432631</v>
       </c>
       <c r="C68" t="n">
-        <v>0.246251</v>
+        <v>0.250465</v>
       </c>
       <c r="D68" t="n">
-        <v>0.303399</v>
+        <v>0.302553</v>
       </c>
       <c r="E68" t="n">
-        <v>0.288267</v>
+        <v>0.331113</v>
       </c>
       <c r="F68" t="n">
-        <v>0.213317</v>
+        <v>0.226036</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.389827</v>
+        <v>0.439787</v>
       </c>
       <c r="C69" t="n">
-        <v>0.246831</v>
+        <v>0.258907</v>
       </c>
       <c r="D69" t="n">
-        <v>0.315278</v>
+        <v>0.323712</v>
       </c>
       <c r="E69" t="n">
-        <v>0.28857</v>
+        <v>0.329577</v>
       </c>
       <c r="F69" t="n">
-        <v>0.215531</v>
+        <v>0.237186</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.365993</v>
+        <v>0.454543</v>
       </c>
       <c r="C70" t="n">
-        <v>0.248565</v>
+        <v>0.260005</v>
       </c>
       <c r="D70" t="n">
-        <v>0.32723</v>
+        <v>0.332589</v>
       </c>
       <c r="E70" t="n">
-        <v>0.292896</v>
+        <v>0.336119</v>
       </c>
       <c r="F70" t="n">
-        <v>0.216678</v>
+        <v>0.227893</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.369551</v>
+        <v>0.442724</v>
       </c>
       <c r="C71" t="n">
-        <v>0.252103</v>
+        <v>0.261255</v>
       </c>
       <c r="D71" t="n">
-        <v>0.343543</v>
+        <v>0.347217</v>
       </c>
       <c r="E71" t="n">
-        <v>0.311758</v>
+        <v>0.341975</v>
       </c>
       <c r="F71" t="n">
-        <v>0.223382</v>
+        <v>0.23153</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.386658</v>
+        <v>0.473963</v>
       </c>
       <c r="C72" t="n">
-        <v>0.262826</v>
+        <v>0.263417</v>
       </c>
       <c r="D72" t="n">
-        <v>0.364886</v>
+        <v>0.35498</v>
       </c>
       <c r="E72" t="n">
-        <v>0.295683</v>
+        <v>0.340729</v>
       </c>
       <c r="F72" t="n">
-        <v>0.221677</v>
+        <v>0.234872</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.371259</v>
+        <v>0.469947</v>
       </c>
       <c r="C73" t="n">
-        <v>0.253707</v>
+        <v>0.262505</v>
       </c>
       <c r="D73" t="n">
-        <v>0.36503</v>
+        <v>0.367004</v>
       </c>
       <c r="E73" t="n">
-        <v>0.303587</v>
+        <v>0.340554</v>
       </c>
       <c r="F73" t="n">
-        <v>0.225584</v>
+        <v>0.237262</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.372545</v>
+        <v>0.467268</v>
       </c>
       <c r="C74" t="n">
-        <v>0.256145</v>
+        <v>0.265565</v>
       </c>
       <c r="D74" t="n">
-        <v>0.37709</v>
+        <v>0.399195</v>
       </c>
       <c r="E74" t="n">
-        <v>0.298575</v>
+        <v>0.355123</v>
       </c>
       <c r="F74" t="n">
-        <v>0.226527</v>
+        <v>0.237952</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.373248</v>
+        <v>0.468246</v>
       </c>
       <c r="C75" t="n">
-        <v>0.270186</v>
+        <v>0.273998</v>
       </c>
       <c r="D75" t="n">
-        <v>0.399369</v>
+        <v>0.401235</v>
       </c>
       <c r="E75" t="n">
-        <v>0.307651</v>
+        <v>0.339796</v>
       </c>
       <c r="F75" t="n">
-        <v>0.233167</v>
+        <v>0.25615</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.377704</v>
+        <v>0.469464</v>
       </c>
       <c r="C76" t="n">
-        <v>0.264256</v>
+        <v>0.27775</v>
       </c>
       <c r="D76" t="n">
-        <v>0.414959</v>
+        <v>0.443209</v>
       </c>
       <c r="E76" t="n">
-        <v>0.309738</v>
+        <v>0.33791</v>
       </c>
       <c r="F76" t="n">
-        <v>0.250384</v>
+        <v>0.248149</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.381608</v>
+        <v>0.46281</v>
       </c>
       <c r="C77" t="n">
-        <v>0.276698</v>
+        <v>0.275314</v>
       </c>
       <c r="D77" t="n">
-        <v>0.432403</v>
+        <v>0.423686</v>
       </c>
       <c r="E77" t="n">
-        <v>0.315062</v>
+        <v>0.337849</v>
       </c>
       <c r="F77" t="n">
-        <v>0.241566</v>
+        <v>0.249306</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.384515</v>
+        <v>0.46578</v>
       </c>
       <c r="C78" t="n">
-        <v>0.270161</v>
+        <v>0.27545</v>
       </c>
       <c r="D78" t="n">
-        <v>0.403328</v>
+        <v>0.403063</v>
       </c>
       <c r="E78" t="n">
-        <v>0.316982</v>
+        <v>0.356125</v>
       </c>
       <c r="F78" t="n">
-        <v>0.245272</v>
+        <v>0.260394</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.383997</v>
+        <v>0.462647</v>
       </c>
       <c r="C79" t="n">
-        <v>0.275752</v>
+        <v>0.2794</v>
       </c>
       <c r="D79" t="n">
-        <v>0.407845</v>
+        <v>0.410272</v>
       </c>
       <c r="E79" t="n">
-        <v>0.319868</v>
+        <v>0.348105</v>
       </c>
       <c r="F79" t="n">
-        <v>0.255386</v>
+        <v>0.269944</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.395738</v>
+        <v>0.475175</v>
       </c>
       <c r="C80" t="n">
-        <v>0.277061</v>
+        <v>0.292</v>
       </c>
       <c r="D80" t="n">
-        <v>0.424558</v>
+        <v>0.418043</v>
       </c>
       <c r="E80" t="n">
-        <v>0.419615</v>
+        <v>0.513506</v>
       </c>
       <c r="F80" t="n">
-        <v>0.343205</v>
+        <v>0.392861</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.523512</v>
+        <v>0.643504</v>
       </c>
       <c r="C81" t="n">
-        <v>0.398857</v>
+        <v>0.446971</v>
       </c>
       <c r="D81" t="n">
-        <v>0.434143</v>
+        <v>0.442041</v>
       </c>
       <c r="E81" t="n">
-        <v>0.42553</v>
+        <v>0.513132</v>
       </c>
       <c r="F81" t="n">
-        <v>0.343209</v>
+        <v>0.399076</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.52254</v>
+        <v>0.6610549999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.396786</v>
+        <v>0.454276</v>
       </c>
       <c r="D82" t="n">
-        <v>0.443426</v>
+        <v>0.441601</v>
       </c>
       <c r="E82" t="n">
-        <v>0.424335</v>
+        <v>0.514315</v>
       </c>
       <c r="F82" t="n">
-        <v>0.346724</v>
+        <v>0.393517</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.518855</v>
+        <v>0.644641</v>
       </c>
       <c r="C83" t="n">
-        <v>0.393846</v>
+        <v>0.445238</v>
       </c>
       <c r="D83" t="n">
-        <v>0.467975</v>
+        <v>0.457715</v>
       </c>
       <c r="E83" t="n">
-        <v>0.428504</v>
+        <v>0.522821</v>
       </c>
       <c r="F83" t="n">
-        <v>0.356324</v>
+        <v>0.394813</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.544558</v>
+        <v>0.645752</v>
       </c>
       <c r="C84" t="n">
-        <v>0.400166</v>
+        <v>0.44061</v>
       </c>
       <c r="D84" t="n">
-        <v>0.467341</v>
+        <v>0.463882</v>
       </c>
       <c r="E84" t="n">
-        <v>0.428327</v>
+        <v>0.5137620000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>0.347178</v>
+        <v>0.393042</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.538388</v>
+        <v>0.649929</v>
       </c>
       <c r="C85" t="n">
-        <v>0.393815</v>
+        <v>0.453143</v>
       </c>
       <c r="D85" t="n">
-        <v>0.47907</v>
+        <v>0.478383</v>
       </c>
       <c r="E85" t="n">
-        <v>0.42775</v>
+        <v>0.5173990000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>0.349952</v>
+        <v>0.403345</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.52188</v>
+        <v>0.651304</v>
       </c>
       <c r="C86" t="n">
-        <v>0.400219</v>
+        <v>0.447359</v>
       </c>
       <c r="D86" t="n">
-        <v>0.512638</v>
+        <v>0.49617</v>
       </c>
       <c r="E86" t="n">
-        <v>0.429913</v>
+        <v>0.525302</v>
       </c>
       <c r="F86" t="n">
-        <v>0.347055</v>
+        <v>0.402545</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.528148</v>
+        <v>0.651181</v>
       </c>
       <c r="C87" t="n">
-        <v>0.407224</v>
+        <v>0.45573</v>
       </c>
       <c r="D87" t="n">
-        <v>0.506337</v>
+        <v>0.507988</v>
       </c>
       <c r="E87" t="n">
-        <v>0.428558</v>
+        <v>0.523077</v>
       </c>
       <c r="F87" t="n">
-        <v>0.348455</v>
+        <v>0.401511</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.523176</v>
+        <v>0.653502</v>
       </c>
       <c r="C88" t="n">
-        <v>0.402737</v>
+        <v>0.452531</v>
       </c>
       <c r="D88" t="n">
-        <v>0.519384</v>
+        <v>0.522981</v>
       </c>
       <c r="E88" t="n">
-        <v>0.431189</v>
+        <v>0.528017</v>
       </c>
       <c r="F88" t="n">
-        <v>0.354291</v>
+        <v>0.403685</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.537784</v>
+        <v>0.6551360000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>0.404769</v>
+        <v>0.453609</v>
       </c>
       <c r="D89" t="n">
-        <v>0.537539</v>
+        <v>0.5380509999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>0.432603</v>
+        <v>0.530857</v>
       </c>
       <c r="F89" t="n">
-        <v>0.357524</v>
+        <v>0.430461</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.529728</v>
+        <v>0.657569</v>
       </c>
       <c r="C90" t="n">
-        <v>0.408278</v>
+        <v>0.458409</v>
       </c>
       <c r="D90" t="n">
-        <v>0.549876</v>
+        <v>0.559292</v>
       </c>
       <c r="E90" t="n">
-        <v>0.43839</v>
+        <v>0.538515</v>
       </c>
       <c r="F90" t="n">
-        <v>0.360278</v>
+        <v>0.417487</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.532866</v>
+        <v>0.669619</v>
       </c>
       <c r="C91" t="n">
-        <v>0.408333</v>
+        <v>0.465516</v>
       </c>
       <c r="D91" t="n">
-        <v>0.585099</v>
+        <v>0.58311</v>
       </c>
       <c r="E91" t="n">
-        <v>0.457667</v>
+        <v>0.54188</v>
       </c>
       <c r="F91" t="n">
-        <v>0.376878</v>
+        <v>0.421172</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.544275</v>
+        <v>0.666555</v>
       </c>
       <c r="C92" t="n">
-        <v>0.414044</v>
+        <v>0.46394</v>
       </c>
       <c r="D92" t="n">
-        <v>0.525448</v>
+        <v>0.522752</v>
       </c>
       <c r="E92" t="n">
-        <v>0.44185</v>
+        <v>0.526385</v>
       </c>
       <c r="F92" t="n">
-        <v>0.372461</v>
+        <v>0.415599</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.535893</v>
+        <v>0.663504</v>
       </c>
       <c r="C93" t="n">
-        <v>0.42536</v>
+        <v>0.47878</v>
       </c>
       <c r="D93" t="n">
-        <v>0.53185</v>
+        <v>0.533529</v>
       </c>
       <c r="E93" t="n">
-        <v>0.444993</v>
+        <v>0.540396</v>
       </c>
       <c r="F93" t="n">
-        <v>0.3782</v>
+        <v>0.424957</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.543257</v>
+        <v>0.674052</v>
       </c>
       <c r="C94" t="n">
-        <v>0.442254</v>
+        <v>0.48048</v>
       </c>
       <c r="D94" t="n">
-        <v>0.550998</v>
+        <v>0.555468</v>
       </c>
       <c r="E94" t="n">
-        <v>0.513023</v>
+        <v>0.665767</v>
       </c>
       <c r="F94" t="n">
-        <v>0.508147</v>
+        <v>0.642163</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.632793</v>
+        <v>0.795319</v>
       </c>
       <c r="C95" t="n">
-        <v>0.593045</v>
+        <v>0.7190879999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5590540000000001</v>
+        <v>0.584078</v>
       </c>
       <c r="E95" t="n">
-        <v>0.50993</v>
+        <v>0.691013</v>
       </c>
       <c r="F95" t="n">
-        <v>0.509484</v>
+        <v>0.650372</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.615482</v>
+        <v>0.796548</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6073539999999999</v>
+        <v>0.734148</v>
       </c>
       <c r="D96" t="n">
-        <v>0.575229</v>
+        <v>0.571101</v>
       </c>
       <c r="E96" t="n">
-        <v>0.514691</v>
+        <v>0.659395</v>
       </c>
       <c r="F96" t="n">
-        <v>0.512999</v>
+        <v>0.653357</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6176739999999999</v>
+        <v>0.811106</v>
       </c>
       <c r="C97" t="n">
-        <v>0.607961</v>
+        <v>0.7279409999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.584159</v>
+        <v>0.582927</v>
       </c>
       <c r="E97" t="n">
-        <v>0.516903</v>
+        <v>0.726833</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5151289999999999</v>
+        <v>0.657507</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.618217</v>
+        <v>0.788552</v>
       </c>
       <c r="C98" t="n">
-        <v>0.599225</v>
+        <v>0.76825</v>
       </c>
       <c r="D98" t="n">
-        <v>0.59646</v>
+        <v>0.619645</v>
       </c>
       <c r="E98" t="n">
-        <v>0.512649</v>
+        <v>0.657934</v>
       </c>
       <c r="F98" t="n">
-        <v>0.514267</v>
+        <v>0.6360440000000001</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.610321</v>
+        <v>0.793893</v>
       </c>
       <c r="C99" t="n">
-        <v>0.591186</v>
+        <v>0.729123</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6126549999999999</v>
+        <v>0.612569</v>
       </c>
       <c r="E99" t="n">
-        <v>0.514161</v>
+        <v>0.691684</v>
       </c>
       <c r="F99" t="n">
-        <v>0.515909</v>
+        <v>0.628521</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6156509999999999</v>
+        <v>0.819465</v>
       </c>
       <c r="C100" t="n">
-        <v>0.596526</v>
+        <v>0.771183</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6285849999999999</v>
+        <v>0.645528</v>
       </c>
       <c r="E100" t="n">
-        <v>0.521767</v>
+        <v>0.6733209999999999</v>
       </c>
       <c r="F100" t="n">
-        <v>0.521427</v>
+        <v>0.630834</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.61768</v>
+        <v>0.789257</v>
       </c>
       <c r="C101" t="n">
-        <v>0.635822</v>
+        <v>0.735447</v>
       </c>
       <c r="D101" t="n">
-        <v>0.640052</v>
+        <v>0.663272</v>
       </c>
       <c r="E101" t="n">
-        <v>0.516312</v>
+        <v>0.669708</v>
       </c>
       <c r="F101" t="n">
-        <v>0.517263</v>
+        <v>0.646533</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.61268</v>
+        <v>0.788555</v>
       </c>
       <c r="C102" t="n">
-        <v>0.598581</v>
+        <v>0.737868</v>
       </c>
       <c r="D102" t="n">
-        <v>0.653728</v>
+        <v>0.668699</v>
       </c>
       <c r="E102" t="n">
-        <v>0.52107</v>
+        <v>0.661303</v>
       </c>
       <c r="F102" t="n">
-        <v>0.539734</v>
+        <v>0.665481</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.6195619999999999</v>
+        <v>0.809509</v>
       </c>
       <c r="C103" t="n">
-        <v>0.601253</v>
+        <v>0.736518</v>
       </c>
       <c r="D103" t="n">
-        <v>0.672409</v>
+        <v>0.668099</v>
       </c>
       <c r="E103" t="n">
-        <v>0.525421</v>
+        <v>0.696233</v>
       </c>
       <c r="F103" t="n">
-        <v>0.531573</v>
+        <v>0.643434</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.622686</v>
+        <v>0.795818</v>
       </c>
       <c r="C104" t="n">
-        <v>0.605974</v>
+        <v>0.753223</v>
       </c>
       <c r="D104" t="n">
-        <v>0.686014</v>
+        <v>0.697139</v>
       </c>
       <c r="E104" t="n">
-        <v>0.521607</v>
+        <v>0.668113</v>
       </c>
       <c r="F104" t="n">
-        <v>0.532448</v>
+        <v>0.650564</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.618359</v>
+        <v>0.931863</v>
       </c>
       <c r="C105" t="n">
-        <v>0.621386</v>
+        <v>0.757484</v>
       </c>
       <c r="D105" t="n">
-        <v>0.714795</v>
+        <v>0.709169</v>
       </c>
       <c r="E105" t="n">
-        <v>0.538618</v>
+        <v>0.706024</v>
       </c>
       <c r="F105" t="n">
-        <v>0.538537</v>
+        <v>0.668605</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.628974</v>
+        <v>0.836401</v>
       </c>
       <c r="C106" t="n">
-        <v>0.638467</v>
+        <v>0.770975</v>
       </c>
       <c r="D106" t="n">
-        <v>0.721148</v>
+        <v>0.736189</v>
       </c>
       <c r="E106" t="n">
-        <v>0.533859</v>
+        <v>0.715646</v>
       </c>
       <c r="F106" t="n">
-        <v>0.543999</v>
+        <v>0.69777</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6255810000000001</v>
+        <v>0.80686</v>
       </c>
       <c r="C107" t="n">
-        <v>0.6206159999999999</v>
+        <v>0.7762520000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.64055</v>
+        <v>0.6400709999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>0.558848</v>
+        <v>0.713974</v>
       </c>
       <c r="F107" t="n">
-        <v>0.551938</v>
+        <v>0.700144</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.626752</v>
+        <v>0.851708</v>
       </c>
       <c r="C108" t="n">
-        <v>0.6280250000000001</v>
+        <v>0.773324</v>
       </c>
       <c r="D108" t="n">
-        <v>0.651125</v>
+        <v>0.685739</v>
       </c>
       <c r="E108" t="n">
-        <v>0.588422</v>
+        <v>0.880405</v>
       </c>
       <c r="F108" t="n">
-        <v>0.617144</v>
+        <v>0.830082</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.629584</v>
+        <v>0.810216</v>
       </c>
       <c r="C109" t="n">
-        <v>0.636705</v>
+        <v>0.8082279999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>0.667822</v>
+        <v>0.668291</v>
       </c>
       <c r="E109" t="n">
-        <v>0.593577</v>
+        <v>0.876699</v>
       </c>
       <c r="F109" t="n">
-        <v>0.616798</v>
+        <v>0.811057</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.74452</v>
+        <v>0.960053</v>
       </c>
       <c r="C110" t="n">
-        <v>0.736034</v>
+        <v>1.01073</v>
       </c>
       <c r="D110" t="n">
-        <v>0.677724</v>
+        <v>0.680383</v>
       </c>
       <c r="E110" t="n">
-        <v>0.592951</v>
+        <v>0.814793</v>
       </c>
       <c r="F110" t="n">
-        <v>0.618121</v>
+        <v>0.841705</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.740058</v>
+        <v>0.95219</v>
       </c>
       <c r="C111" t="n">
-        <v>0.730749</v>
+        <v>0.980562</v>
       </c>
       <c r="D111" t="n">
-        <v>0.69613</v>
+        <v>0.703524</v>
       </c>
       <c r="E111" t="n">
-        <v>0.591465</v>
+        <v>0.816487</v>
       </c>
       <c r="F111" t="n">
-        <v>0.631148</v>
+        <v>0.823642</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.739599</v>
+        <v>1.00109</v>
       </c>
       <c r="C112" t="n">
-        <v>0.730474</v>
+        <v>0.960659</v>
       </c>
       <c r="D112" t="n">
-        <v>0.70747</v>
+        <v>0.715157</v>
       </c>
       <c r="E112" t="n">
-        <v>0.597349</v>
+        <v>0.8676160000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>0.629597</v>
+        <v>0.8236019999999999</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.742457</v>
+        <v>0.970993</v>
       </c>
       <c r="C113" t="n">
-        <v>0.734524</v>
+        <v>0.9459379999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.721799</v>
+        <v>0.752451</v>
       </c>
       <c r="E113" t="n">
-        <v>0.604036</v>
+        <v>0.80843</v>
       </c>
       <c r="F113" t="n">
-        <v>0.636972</v>
+        <v>0.823971</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.754914</v>
+        <v>1.00847</v>
       </c>
       <c r="C114" t="n">
-        <v>0.742119</v>
+        <v>0.944249</v>
       </c>
       <c r="D114" t="n">
-        <v>0.741445</v>
+        <v>0.768072</v>
       </c>
       <c r="E114" t="n">
-        <v>0.603081</v>
+        <v>0.815105</v>
       </c>
       <c r="F114" t="n">
-        <v>0.628495</v>
+        <v>0.848804</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.761421</v>
+        <v>0.978525</v>
       </c>
       <c r="C115" t="n">
-        <v>0.739151</v>
+        <v>0.958048</v>
       </c>
       <c r="D115" t="n">
-        <v>0.747707</v>
+        <v>0.800552</v>
       </c>
       <c r="E115" t="n">
-        <v>0.601944</v>
+        <v>0.837242</v>
       </c>
       <c r="F115" t="n">
-        <v>0.6318510000000001</v>
+        <v>0.840321</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.748899</v>
+        <v>0.961016</v>
       </c>
       <c r="C116" t="n">
-        <v>0.740878</v>
+        <v>0.947561</v>
       </c>
       <c r="D116" t="n">
-        <v>0.769276</v>
+        <v>0.7764529999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>0.604931</v>
+        <v>0.8069</v>
       </c>
       <c r="F116" t="n">
-        <v>0.638046</v>
+        <v>0.8295400000000001</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.74553</v>
+        <v>0.942015</v>
       </c>
       <c r="C117" t="n">
-        <v>0.742183</v>
+        <v>0.950869</v>
       </c>
       <c r="D117" t="n">
-        <v>0.780131</v>
+        <v>0.80943</v>
       </c>
       <c r="E117" t="n">
-        <v>0.6026629999999999</v>
+        <v>0.811555</v>
       </c>
       <c r="F117" t="n">
-        <v>0.63818</v>
+        <v>0.849013</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.744632</v>
+        <v>0.955932</v>
       </c>
       <c r="C118" t="n">
-        <v>0.735599</v>
+        <v>0.972732</v>
       </c>
       <c r="D118" t="n">
-        <v>0.794635</v>
+        <v>0.825658</v>
       </c>
       <c r="E118" t="n">
-        <v>0.613753</v>
+        <v>0.898469</v>
       </c>
       <c r="F118" t="n">
-        <v>0.64368</v>
+        <v>0.858243</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.749128</v>
+        <v>1.05271</v>
       </c>
       <c r="C119" t="n">
-        <v>0.745359</v>
+        <v>0.9848749999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.815262</v>
+        <v>0.830934</v>
       </c>
       <c r="E119" t="n">
-        <v>0.620505</v>
+        <v>0.8280920000000001</v>
       </c>
       <c r="F119" t="n">
-        <v>0.652695</v>
+        <v>0.847783</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.748852</v>
+        <v>0.972828</v>
       </c>
       <c r="C120" t="n">
-        <v>0.747319</v>
+        <v>0.967482</v>
       </c>
       <c r="D120" t="n">
-        <v>0.836986</v>
+        <v>0.864664</v>
       </c>
       <c r="E120" t="n">
-        <v>0.614586</v>
+        <v>0.906058</v>
       </c>
       <c r="F120" t="n">
-        <v>0.657726</v>
+        <v>0.878779</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.760377</v>
+        <v>0.9624470000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>0.74869</v>
+        <v>0.986866</v>
       </c>
       <c r="D121" t="n">
-        <v>0.728871</v>
+        <v>0.747495</v>
       </c>
       <c r="E121" t="n">
-        <v>0.630336</v>
+        <v>0.84298</v>
       </c>
       <c r="F121" t="n">
-        <v>0.672169</v>
+        <v>0.872925</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.750356</v>
+        <v>0.991057</v>
       </c>
       <c r="C122" t="n">
-        <v>0.768512</v>
+        <v>1.00848</v>
       </c>
       <c r="D122" t="n">
-        <v>0.762019</v>
+        <v>0.795573</v>
       </c>
       <c r="E122" t="n">
-        <v>0.638563</v>
+        <v>0.8495780000000001</v>
       </c>
       <c r="F122" t="n">
-        <v>0.687542</v>
+        <v>0.9178809999999999</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.7586540000000001</v>
+        <v>0.973766</v>
       </c>
       <c r="C123" t="n">
-        <v>0.776042</v>
+        <v>0.990913</v>
       </c>
       <c r="D123" t="n">
-        <v>0.764127</v>
+        <v>0.75918</v>
       </c>
       <c r="E123" t="n">
-        <v>0.727567</v>
+        <v>1.07036</v>
       </c>
       <c r="F123" t="n">
-        <v>0.692483</v>
+        <v>0.946529</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.952739</v>
+        <v>1.23394</v>
       </c>
       <c r="C124" t="n">
-        <v>0.877546</v>
+        <v>1.14692</v>
       </c>
       <c r="D124" t="n">
-        <v>0.781432</v>
+        <v>0.781006</v>
       </c>
       <c r="E124" t="n">
-        <v>0.716944</v>
+        <v>1.03958</v>
       </c>
       <c r="F124" t="n">
-        <v>0.706172</v>
+        <v>0.9719370000000001</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.960129</v>
+        <v>1.24593</v>
       </c>
       <c r="C125" t="n">
-        <v>0.87222</v>
+        <v>1.16642</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7990159999999999</v>
+        <v>0.791167</v>
       </c>
       <c r="E125" t="n">
-        <v>0.725948</v>
+        <v>1.02657</v>
       </c>
       <c r="F125" t="n">
-        <v>0.701332</v>
+        <v>0.95367</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.960504</v>
+        <v>1.22715</v>
       </c>
       <c r="C126" t="n">
-        <v>0.868302</v>
+        <v>1.14795</v>
       </c>
       <c r="D126" t="n">
-        <v>0.7960199999999999</v>
+        <v>0.801175</v>
       </c>
       <c r="E126" t="n">
-        <v>0.712039</v>
+        <v>1.1651</v>
       </c>
       <c r="F126" t="n">
-        <v>0.694833</v>
+        <v>0.963405</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.954535</v>
+        <v>1.23406</v>
       </c>
       <c r="C127" t="n">
-        <v>0.867661</v>
+        <v>1.17736</v>
       </c>
       <c r="D127" t="n">
-        <v>0.8082589999999999</v>
+        <v>0.811181</v>
       </c>
       <c r="E127" t="n">
-        <v>0.740218</v>
+        <v>1.03486</v>
       </c>
       <c r="F127" t="n">
-        <v>0.710269</v>
+        <v>0.982137</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.966423</v>
+        <v>1.25348</v>
       </c>
       <c r="C128" t="n">
-        <v>0.911833</v>
+        <v>1.1732</v>
       </c>
       <c r="D128" t="n">
-        <v>0.8237989999999999</v>
+        <v>0.823339</v>
       </c>
       <c r="E128" t="n">
-        <v>0.722898</v>
+        <v>1.19651</v>
       </c>
       <c r="F128" t="n">
-        <v>0.711097</v>
+        <v>0.9742189999999999</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.967541</v>
+        <v>1.23493</v>
       </c>
       <c r="C129" t="n">
-        <v>0.886896</v>
+        <v>1.16476</v>
       </c>
       <c r="D129" t="n">
-        <v>0.838139</v>
+        <v>0.8472</v>
       </c>
       <c r="E129" t="n">
-        <v>0.720811</v>
+        <v>1.02987</v>
       </c>
       <c r="F129" t="n">
-        <v>0.711035</v>
+        <v>0.974363</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.983422</v>
+        <v>1.30707</v>
       </c>
       <c r="C130" t="n">
-        <v>0.876395</v>
+        <v>1.17199</v>
       </c>
       <c r="D130" t="n">
-        <v>0.855561</v>
+        <v>0.865724</v>
       </c>
       <c r="E130" t="n">
-        <v>0.740169</v>
+        <v>1.01717</v>
       </c>
       <c r="F130" t="n">
-        <v>0.728476</v>
+        <v>0.98037</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.955252</v>
+        <v>1.25269</v>
       </c>
       <c r="C131" t="n">
-        <v>0.88373</v>
+        <v>1.18575</v>
       </c>
       <c r="D131" t="n">
-        <v>0.869323</v>
+        <v>0.89283</v>
       </c>
       <c r="E131" t="n">
-        <v>0.731402</v>
+        <v>1.05975</v>
       </c>
       <c r="F131" t="n">
-        <v>0.712799</v>
+        <v>0.98398</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.974461</v>
+        <v>1.43599</v>
       </c>
       <c r="C132" t="n">
-        <v>0.881842</v>
+        <v>1.15123</v>
       </c>
       <c r="D132" t="n">
-        <v>0.877528</v>
+        <v>0.88822</v>
       </c>
       <c r="E132" t="n">
-        <v>0.725058</v>
+        <v>1.04615</v>
       </c>
       <c r="F132" t="n">
-        <v>0.719014</v>
+        <v>1.00448</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.952979</v>
+        <v>1.24361</v>
       </c>
       <c r="C133" t="n">
-        <v>0.882591</v>
+        <v>1.16008</v>
       </c>
       <c r="D133" t="n">
-        <v>0.905209</v>
+        <v>0.902044</v>
       </c>
       <c r="E133" t="n">
-        <v>0.735311</v>
+        <v>1.06138</v>
       </c>
       <c r="F133" t="n">
-        <v>0.728839</v>
+        <v>0.989706</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.961555</v>
+        <v>1.22983</v>
       </c>
       <c r="C134" t="n">
-        <v>0.883087</v>
+        <v>1.16795</v>
       </c>
       <c r="D134" t="n">
-        <v>0.916397</v>
+        <v>0.951329</v>
       </c>
       <c r="E134" t="n">
-        <v>0.73071</v>
+        <v>1.06215</v>
       </c>
       <c r="F134" t="n">
-        <v>0.732409</v>
+        <v>1.00209</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.971347</v>
+        <v>1.25092</v>
       </c>
       <c r="C135" t="n">
-        <v>0.8927619999999999</v>
+        <v>1.17867</v>
       </c>
       <c r="D135" t="n">
-        <v>0.8164130000000001</v>
+        <v>0.807318</v>
       </c>
       <c r="E135" t="n">
-        <v>0.7411720000000001</v>
+        <v>1.06855</v>
       </c>
       <c r="F135" t="n">
-        <v>0.7526659999999999</v>
+        <v>1.04697</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.972621</v>
+        <v>1.2483</v>
       </c>
       <c r="C136" t="n">
-        <v>0.900904</v>
+        <v>1.17652</v>
       </c>
       <c r="D136" t="n">
-        <v>0.829807</v>
+        <v>0.8235</v>
       </c>
       <c r="E136" t="n">
-        <v>0.765389</v>
+        <v>1.06487</v>
       </c>
       <c r="F136" t="n">
-        <v>0.775457</v>
+        <v>1.04561</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.977813</v>
+        <v>1.2519</v>
       </c>
       <c r="C137" t="n">
-        <v>0.923303</v>
+        <v>1.20771</v>
       </c>
       <c r="D137" t="n">
-        <v>0.841208</v>
+        <v>0.8354510000000001</v>
       </c>
       <c r="E137" t="n">
-        <v>0.8774110000000001</v>
+        <v>1.28446</v>
       </c>
       <c r="F137" t="n">
-        <v>0.755464</v>
+        <v>1.10348</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.20458</v>
+        <v>1.55572</v>
       </c>
       <c r="C138" t="n">
-        <v>0.990192</v>
+        <v>1.37912</v>
       </c>
       <c r="D138" t="n">
-        <v>0.860908</v>
+        <v>0.850446</v>
       </c>
       <c r="E138" t="n">
-        <v>0.879763</v>
+        <v>1.27997</v>
       </c>
       <c r="F138" t="n">
-        <v>0.780814</v>
+        <v>1.10943</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.21795</v>
+        <v>1.55165</v>
       </c>
       <c r="C139" t="n">
-        <v>0.975723</v>
+        <v>1.3754</v>
       </c>
       <c r="D139" t="n">
-        <v>0.869209</v>
+        <v>0.871026</v>
       </c>
       <c r="E139" t="n">
-        <v>0.867754</v>
+        <v>1.26108</v>
       </c>
       <c r="F139" t="n">
-        <v>0.756556</v>
+        <v>1.10673</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.22023</v>
+        <v>1.56808</v>
       </c>
       <c r="C140" t="n">
-        <v>0.969383</v>
+        <v>1.3786</v>
       </c>
       <c r="D140" t="n">
-        <v>0.882937</v>
+        <v>0.882315</v>
       </c>
       <c r="E140" t="n">
-        <v>0.894255</v>
+        <v>1.27926</v>
       </c>
       <c r="F140" t="n">
-        <v>0.764567</v>
+        <v>1.09708</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.24886</v>
+        <v>1.57261</v>
       </c>
       <c r="C141" t="n">
-        <v>0.969861</v>
+        <v>1.32269</v>
       </c>
       <c r="D141" t="n">
-        <v>0.891567</v>
+        <v>0.893578</v>
       </c>
       <c r="E141" t="n">
-        <v>0.8882949999999999</v>
+        <v>1.26574</v>
       </c>
       <c r="F141" t="n">
-        <v>0.770659</v>
+        <v>1.08058</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.22011</v>
+        <v>1.56542</v>
       </c>
       <c r="C142" t="n">
-        <v>0.980993</v>
+        <v>1.33112</v>
       </c>
       <c r="D142" t="n">
-        <v>0.913717</v>
+        <v>0.9097</v>
       </c>
       <c r="E142" t="n">
-        <v>0.87998</v>
+        <v>1.29111</v>
       </c>
       <c r="F142" t="n">
-        <v>0.77505</v>
+        <v>1.10076</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.21817</v>
+        <v>1.55974</v>
       </c>
       <c r="C143" t="n">
-        <v>0.990943</v>
+        <v>1.32125</v>
       </c>
       <c r="D143" t="n">
-        <v>0.939132</v>
+        <v>0.922383</v>
       </c>
       <c r="E143" t="n">
-        <v>0.891908</v>
+        <v>1.31268</v>
       </c>
       <c r="F143" t="n">
-        <v>0.782457</v>
+        <v>1.10963</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.11151</v>
+        <v>0.116948</v>
       </c>
       <c r="C2" t="n">
-        <v>0.104688</v>
+        <v>0.10716</v>
       </c>
       <c r="D2" t="n">
-        <v>0.154897</v>
+        <v>0.164764</v>
       </c>
       <c r="E2" t="n">
-        <v>0.122708</v>
+        <v>0.126912</v>
       </c>
       <c r="F2" t="n">
-        <v>0.117227</v>
+        <v>0.118202</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.112648</v>
+        <v>0.127343</v>
       </c>
       <c r="C3" t="n">
-        <v>0.105316</v>
+        <v>0.112583</v>
       </c>
       <c r="D3" t="n">
-        <v>0.159079</v>
+        <v>0.170858</v>
       </c>
       <c r="E3" t="n">
-        <v>0.122543</v>
+        <v>0.127883</v>
       </c>
       <c r="F3" t="n">
-        <v>0.119957</v>
+        <v>0.119706</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.112143</v>
+        <v>0.115775</v>
       </c>
       <c r="C4" t="n">
-        <v>0.105487</v>
+        <v>0.10834</v>
       </c>
       <c r="D4" t="n">
-        <v>0.160783</v>
+        <v>0.176829</v>
       </c>
       <c r="E4" t="n">
-        <v>0.124179</v>
+        <v>0.130649</v>
       </c>
       <c r="F4" t="n">
-        <v>0.115697</v>
+        <v>0.118644</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.114619</v>
+        <v>0.123301</v>
       </c>
       <c r="C5" t="n">
-        <v>0.106077</v>
+        <v>0.107395</v>
       </c>
       <c r="D5" t="n">
-        <v>0.165934</v>
+        <v>0.17806</v>
       </c>
       <c r="E5" t="n">
-        <v>0.125818</v>
+        <v>0.124487</v>
       </c>
       <c r="F5" t="n">
-        <v>0.116033</v>
+        <v>0.120344</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.113461</v>
+        <v>0.114692</v>
       </c>
       <c r="C6" t="n">
-        <v>0.106028</v>
+        <v>0.11461</v>
       </c>
       <c r="D6" t="n">
-        <v>0.166472</v>
+        <v>0.18332</v>
       </c>
       <c r="E6" t="n">
-        <v>0.125506</v>
+        <v>0.132376</v>
       </c>
       <c r="F6" t="n">
-        <v>0.117136</v>
+        <v>0.12092</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.112498</v>
+        <v>0.116709</v>
       </c>
       <c r="C7" t="n">
-        <v>0.106097</v>
+        <v>0.111153</v>
       </c>
       <c r="D7" t="n">
-        <v>0.14436</v>
+        <v>0.163718</v>
       </c>
       <c r="E7" t="n">
-        <v>0.12764</v>
+        <v>0.136344</v>
       </c>
       <c r="F7" t="n">
-        <v>0.119606</v>
+        <v>0.130875</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.11403</v>
+        <v>0.121665</v>
       </c>
       <c r="C8" t="n">
-        <v>0.106536</v>
+        <v>0.111547</v>
       </c>
       <c r="D8" t="n">
-        <v>0.145962</v>
+        <v>0.162148</v>
       </c>
       <c r="E8" t="n">
-        <v>0.131548</v>
+        <v>0.136817</v>
       </c>
       <c r="F8" t="n">
-        <v>0.122853</v>
+        <v>0.129598</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.115525</v>
+        <v>0.12336</v>
       </c>
       <c r="C9" t="n">
-        <v>0.108678</v>
+        <v>0.122067</v>
       </c>
       <c r="D9" t="n">
-        <v>0.149086</v>
+        <v>0.165111</v>
       </c>
       <c r="E9" t="n">
-        <v>0.126119</v>
+        <v>0.136696</v>
       </c>
       <c r="F9" t="n">
-        <v>0.116775</v>
+        <v>0.122343</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.121667</v>
+        <v>0.127944</v>
       </c>
       <c r="C10" t="n">
-        <v>0.111571</v>
+        <v>0.115764</v>
       </c>
       <c r="D10" t="n">
-        <v>0.150856</v>
+        <v>0.166425</v>
       </c>
       <c r="E10" t="n">
-        <v>0.125878</v>
+        <v>0.13163</v>
       </c>
       <c r="F10" t="n">
-        <v>0.116432</v>
+        <v>0.12419</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.122842</v>
+        <v>0.133652</v>
       </c>
       <c r="C11" t="n">
-        <v>0.110372</v>
+        <v>0.116</v>
       </c>
       <c r="D11" t="n">
-        <v>0.15436</v>
+        <v>0.167957</v>
       </c>
       <c r="E11" t="n">
-        <v>0.12563</v>
+        <v>0.13288</v>
       </c>
       <c r="F11" t="n">
-        <v>0.116772</v>
+        <v>0.121588</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.122896</v>
+        <v>0.128239</v>
       </c>
       <c r="C12" t="n">
-        <v>0.111448</v>
+        <v>0.120058</v>
       </c>
       <c r="D12" t="n">
-        <v>0.156909</v>
+        <v>0.177449</v>
       </c>
       <c r="E12" t="n">
-        <v>0.126194</v>
+        <v>0.130986</v>
       </c>
       <c r="F12" t="n">
-        <v>0.116393</v>
+        <v>0.120583</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.122328</v>
+        <v>0.127083</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1117</v>
+        <v>0.117229</v>
       </c>
       <c r="D13" t="n">
-        <v>0.160486</v>
+        <v>0.170154</v>
       </c>
       <c r="E13" t="n">
-        <v>0.126914</v>
+        <v>0.128896</v>
       </c>
       <c r="F13" t="n">
-        <v>0.118229</v>
+        <v>0.121978</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1256</v>
+        <v>0.12489</v>
       </c>
       <c r="C14" t="n">
-        <v>0.11176</v>
+        <v>0.11801</v>
       </c>
       <c r="D14" t="n">
-        <v>0.162791</v>
+        <v>0.178287</v>
       </c>
       <c r="E14" t="n">
-        <v>0.125888</v>
+        <v>0.129638</v>
       </c>
       <c r="F14" t="n">
-        <v>0.116776</v>
+        <v>0.117701</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.123199</v>
+        <v>0.127392</v>
       </c>
       <c r="C15" t="n">
-        <v>0.110206</v>
+        <v>0.11131</v>
       </c>
       <c r="D15" t="n">
-        <v>0.166659</v>
+        <v>0.175297</v>
       </c>
       <c r="E15" t="n">
-        <v>0.126404</v>
+        <v>0.136715</v>
       </c>
       <c r="F15" t="n">
-        <v>0.117186</v>
+        <v>0.124026</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.122172</v>
+        <v>0.126695</v>
       </c>
       <c r="C16" t="n">
-        <v>0.113227</v>
+        <v>0.110946</v>
       </c>
       <c r="D16" t="n">
-        <v>0.17145</v>
+        <v>0.181333</v>
       </c>
       <c r="E16" t="n">
-        <v>0.127269</v>
+        <v>0.128266</v>
       </c>
       <c r="F16" t="n">
-        <v>0.117414</v>
+        <v>0.11745</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.122276</v>
+        <v>0.123196</v>
       </c>
       <c r="C17" t="n">
-        <v>0.112944</v>
+        <v>0.114673</v>
       </c>
       <c r="D17" t="n">
-        <v>0.177118</v>
+        <v>0.192308</v>
       </c>
       <c r="E17" t="n">
-        <v>0.128562</v>
+        <v>0.127617</v>
       </c>
       <c r="F17" t="n">
-        <v>0.11857</v>
+        <v>0.117821</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.122685</v>
+        <v>0.123353</v>
       </c>
       <c r="C18" t="n">
-        <v>0.111684</v>
+        <v>0.112941</v>
       </c>
       <c r="D18" t="n">
-        <v>0.178975</v>
+        <v>0.185966</v>
       </c>
       <c r="E18" t="n">
-        <v>0.128239</v>
+        <v>0.128526</v>
       </c>
       <c r="F18" t="n">
-        <v>0.11897</v>
+        <v>0.118333</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.123422</v>
+        <v>0.124014</v>
       </c>
       <c r="C19" t="n">
-        <v>0.112619</v>
+        <v>0.11277</v>
       </c>
       <c r="D19" t="n">
-        <v>0.182792</v>
+        <v>0.192974</v>
       </c>
       <c r="E19" t="n">
-        <v>0.128699</v>
+        <v>0.135044</v>
       </c>
       <c r="F19" t="n">
-        <v>0.119412</v>
+        <v>0.119907</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.125138</v>
+        <v>0.124568</v>
       </c>
       <c r="C20" t="n">
-        <v>0.113574</v>
+        <v>0.113449</v>
       </c>
       <c r="D20" t="n">
-        <v>0.188031</v>
+        <v>0.192125</v>
       </c>
       <c r="E20" t="n">
-        <v>0.131825</v>
+        <v>0.131935</v>
       </c>
       <c r="F20" t="n">
-        <v>0.121524</v>
+        <v>0.121741</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.125699</v>
+        <v>0.129002</v>
       </c>
       <c r="C21" t="n">
-        <v>0.115761</v>
+        <v>0.120144</v>
       </c>
       <c r="D21" t="n">
-        <v>0.152866</v>
+        <v>0.159211</v>
       </c>
       <c r="E21" t="n">
-        <v>0.134692</v>
+        <v>0.137532</v>
       </c>
       <c r="F21" t="n">
-        <v>0.125932</v>
+        <v>0.124239</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.127042</v>
+        <v>0.127419</v>
       </c>
       <c r="C22" t="n">
-        <v>0.117462</v>
+        <v>0.115737</v>
       </c>
       <c r="D22" t="n">
-        <v>0.156304</v>
+        <v>0.163588</v>
       </c>
       <c r="E22" t="n">
-        <v>0.13857</v>
+        <v>0.13812</v>
       </c>
       <c r="F22" t="n">
-        <v>0.128634</v>
+        <v>0.129948</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.128534</v>
+        <v>0.128555</v>
       </c>
       <c r="C23" t="n">
-        <v>0.118324</v>
+        <v>0.120941</v>
       </c>
       <c r="D23" t="n">
-        <v>0.157783</v>
+        <v>0.176224</v>
       </c>
       <c r="E23" t="n">
-        <v>0.132978</v>
+        <v>0.131058</v>
       </c>
       <c r="F23" t="n">
-        <v>0.122847</v>
+        <v>0.121936</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133758</v>
+        <v>0.136054</v>
       </c>
       <c r="C24" t="n">
-        <v>0.123994</v>
+        <v>0.128582</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1614</v>
+        <v>0.167177</v>
       </c>
       <c r="E24" t="n">
-        <v>0.132518</v>
+        <v>0.130698</v>
       </c>
       <c r="F24" t="n">
-        <v>0.122707</v>
+        <v>0.123485</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134173</v>
+        <v>0.137433</v>
       </c>
       <c r="C25" t="n">
-        <v>0.125511</v>
+        <v>0.123827</v>
       </c>
       <c r="D25" t="n">
-        <v>0.164412</v>
+        <v>0.170226</v>
       </c>
       <c r="E25" t="n">
-        <v>0.13206</v>
+        <v>0.133248</v>
       </c>
       <c r="F25" t="n">
-        <v>0.122471</v>
+        <v>0.122534</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.13383</v>
+        <v>0.136465</v>
       </c>
       <c r="C26" t="n">
-        <v>0.125091</v>
+        <v>0.125453</v>
       </c>
       <c r="D26" t="n">
-        <v>0.167207</v>
+        <v>0.176302</v>
       </c>
       <c r="E26" t="n">
-        <v>0.132461</v>
+        <v>0.134495</v>
       </c>
       <c r="F26" t="n">
-        <v>0.122357</v>
+        <v>0.126424</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.133458</v>
+        <v>0.132763</v>
       </c>
       <c r="C27" t="n">
-        <v>0.124876</v>
+        <v>0.124377</v>
       </c>
       <c r="D27" t="n">
-        <v>0.170573</v>
+        <v>0.177084</v>
       </c>
       <c r="E27" t="n">
-        <v>0.134463</v>
+        <v>0.131767</v>
       </c>
       <c r="F27" t="n">
-        <v>0.123141</v>
+        <v>0.123522</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134063</v>
+        <v>0.132368</v>
       </c>
       <c r="C28" t="n">
-        <v>0.125548</v>
+        <v>0.13076</v>
       </c>
       <c r="D28" t="n">
-        <v>0.175206</v>
+        <v>0.182133</v>
       </c>
       <c r="E28" t="n">
-        <v>0.133486</v>
+        <v>0.138582</v>
       </c>
       <c r="F28" t="n">
-        <v>0.123925</v>
+        <v>0.124963</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134039</v>
+        <v>0.136459</v>
       </c>
       <c r="C29" t="n">
-        <v>0.124974</v>
+        <v>0.128993</v>
       </c>
       <c r="D29" t="n">
-        <v>0.178106</v>
+        <v>0.186527</v>
       </c>
       <c r="E29" t="n">
-        <v>0.135935</v>
+        <v>0.133465</v>
       </c>
       <c r="F29" t="n">
-        <v>0.124696</v>
+        <v>0.125562</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.136579</v>
+        <v>0.133839</v>
       </c>
       <c r="C30" t="n">
-        <v>0.126961</v>
+        <v>0.127738</v>
       </c>
       <c r="D30" t="n">
-        <v>0.18378</v>
+        <v>0.189495</v>
       </c>
       <c r="E30" t="n">
-        <v>0.135987</v>
+        <v>0.132828</v>
       </c>
       <c r="F30" t="n">
-        <v>0.126319</v>
+        <v>0.125785</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.136351</v>
+        <v>0.132726</v>
       </c>
       <c r="C31" t="n">
-        <v>0.126358</v>
+        <v>0.12574</v>
       </c>
       <c r="D31" t="n">
-        <v>0.187294</v>
+        <v>0.198262</v>
       </c>
       <c r="E31" t="n">
-        <v>0.135771</v>
+        <v>0.134049</v>
       </c>
       <c r="F31" t="n">
-        <v>0.126175</v>
+        <v>0.126477</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.136944</v>
+        <v>0.138236</v>
       </c>
       <c r="C32" t="n">
-        <v>0.127674</v>
+        <v>0.13234</v>
       </c>
       <c r="D32" t="n">
-        <v>0.192888</v>
+        <v>0.20266</v>
       </c>
       <c r="E32" t="n">
-        <v>0.13666</v>
+        <v>0.13557</v>
       </c>
       <c r="F32" t="n">
-        <v>0.127592</v>
+        <v>0.129182</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137253</v>
+        <v>0.136844</v>
       </c>
       <c r="C33" t="n">
-        <v>0.128942</v>
+        <v>0.130784</v>
       </c>
       <c r="D33" t="n">
-        <v>0.198236</v>
+        <v>0.210295</v>
       </c>
       <c r="E33" t="n">
-        <v>0.138243</v>
+        <v>0.137058</v>
       </c>
       <c r="F33" t="n">
-        <v>0.129084</v>
+        <v>0.127163</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.136212</v>
+        <v>0.136378</v>
       </c>
       <c r="C34" t="n">
-        <v>0.132301</v>
+        <v>0.127542</v>
       </c>
       <c r="D34" t="n">
-        <v>0.205035</v>
+        <v>0.209291</v>
       </c>
       <c r="E34" t="n">
-        <v>0.144051</v>
+        <v>0.138863</v>
       </c>
       <c r="F34" t="n">
-        <v>0.133249</v>
+        <v>0.129418</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.139426</v>
+        <v>0.137153</v>
       </c>
       <c r="C35" t="n">
-        <v>0.130929</v>
+        <v>0.128828</v>
       </c>
       <c r="D35" t="n">
-        <v>0.169164</v>
+        <v>0.175226</v>
       </c>
       <c r="E35" t="n">
-        <v>0.14469</v>
+        <v>0.143582</v>
       </c>
       <c r="F35" t="n">
-        <v>0.135136</v>
+        <v>0.134137</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1398</v>
+        <v>0.138047</v>
       </c>
       <c r="C36" t="n">
-        <v>0.131266</v>
+        <v>0.131334</v>
       </c>
       <c r="D36" t="n">
-        <v>0.169277</v>
+        <v>0.173533</v>
       </c>
       <c r="E36" t="n">
-        <v>0.147265</v>
+        <v>0.148668</v>
       </c>
       <c r="F36" t="n">
-        <v>0.139044</v>
+        <v>0.144239</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.141301</v>
+        <v>0.140476</v>
       </c>
       <c r="C37" t="n">
-        <v>0.134312</v>
+        <v>0.133158</v>
       </c>
       <c r="D37" t="n">
-        <v>0.177249</v>
+        <v>0.178361</v>
       </c>
       <c r="E37" t="n">
-        <v>0.140485</v>
+        <v>0.138822</v>
       </c>
       <c r="F37" t="n">
-        <v>0.131299</v>
+        <v>0.129342</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.161985</v>
+        <v>0.157481</v>
       </c>
       <c r="C38" t="n">
-        <v>0.141631</v>
+        <v>0.140144</v>
       </c>
       <c r="D38" t="n">
-        <v>0.18613</v>
+        <v>0.187302</v>
       </c>
       <c r="E38" t="n">
-        <v>0.139409</v>
+        <v>0.142353</v>
       </c>
       <c r="F38" t="n">
-        <v>0.131857</v>
+        <v>0.135078</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.165035</v>
+        <v>0.156992</v>
       </c>
       <c r="C39" t="n">
-        <v>0.14157</v>
+        <v>0.144815</v>
       </c>
       <c r="D39" t="n">
-        <v>0.182895</v>
+        <v>0.200173</v>
       </c>
       <c r="E39" t="n">
-        <v>0.13956</v>
+        <v>0.140216</v>
       </c>
       <c r="F39" t="n">
-        <v>0.130569</v>
+        <v>0.130779</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.159399</v>
+        <v>0.157083</v>
       </c>
       <c r="C40" t="n">
-        <v>0.144286</v>
+        <v>0.141367</v>
       </c>
       <c r="D40" t="n">
-        <v>0.191191</v>
+        <v>0.193971</v>
       </c>
       <c r="E40" t="n">
-        <v>0.141021</v>
+        <v>0.139173</v>
       </c>
       <c r="F40" t="n">
-        <v>0.132411</v>
+        <v>0.130889</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.162967</v>
+        <v>0.159912</v>
       </c>
       <c r="C41" t="n">
-        <v>0.144463</v>
+        <v>0.144536</v>
       </c>
       <c r="D41" t="n">
-        <v>0.203133</v>
+        <v>0.207978</v>
       </c>
       <c r="E41" t="n">
-        <v>0.141832</v>
+        <v>0.139335</v>
       </c>
       <c r="F41" t="n">
-        <v>0.13362</v>
+        <v>0.135428</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.163407</v>
+        <v>0.158821</v>
       </c>
       <c r="C42" t="n">
-        <v>0.143174</v>
+        <v>0.150865</v>
       </c>
       <c r="D42" t="n">
-        <v>0.201096</v>
+        <v>0.20484</v>
       </c>
       <c r="E42" t="n">
-        <v>0.140418</v>
+        <v>0.138657</v>
       </c>
       <c r="F42" t="n">
-        <v>0.132981</v>
+        <v>0.138433</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.160522</v>
+        <v>0.158171</v>
       </c>
       <c r="C43" t="n">
-        <v>0.144991</v>
+        <v>0.143563</v>
       </c>
       <c r="D43" t="n">
-        <v>0.207507</v>
+        <v>0.211562</v>
       </c>
       <c r="E43" t="n">
-        <v>0.147411</v>
+        <v>0.13993</v>
       </c>
       <c r="F43" t="n">
-        <v>0.135102</v>
+        <v>0.132286</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.162276</v>
+        <v>0.15915</v>
       </c>
       <c r="C44" t="n">
-        <v>0.14504</v>
+        <v>0.140648</v>
       </c>
       <c r="D44" t="n">
-        <v>0.211217</v>
+        <v>0.216067</v>
       </c>
       <c r="E44" t="n">
-        <v>0.141445</v>
+        <v>0.140934</v>
       </c>
       <c r="F44" t="n">
-        <v>0.134799</v>
+        <v>0.13332</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.159582</v>
+        <v>0.165109</v>
       </c>
       <c r="C45" t="n">
-        <v>0.145399</v>
+        <v>0.147142</v>
       </c>
       <c r="D45" t="n">
-        <v>0.215873</v>
+        <v>0.22185</v>
       </c>
       <c r="E45" t="n">
-        <v>0.142397</v>
+        <v>0.142907</v>
       </c>
       <c r="F45" t="n">
-        <v>0.13676</v>
+        <v>0.136631</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.164415</v>
+        <v>0.163443</v>
       </c>
       <c r="C46" t="n">
-        <v>0.146687</v>
+        <v>0.142566</v>
       </c>
       <c r="D46" t="n">
-        <v>0.224152</v>
+        <v>0.234945</v>
       </c>
       <c r="E46" t="n">
-        <v>0.145506</v>
+        <v>0.143205</v>
       </c>
       <c r="F46" t="n">
-        <v>0.139094</v>
+        <v>0.13657</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.163684</v>
+        <v>0.159237</v>
       </c>
       <c r="C47" t="n">
-        <v>0.147713</v>
+        <v>0.142851</v>
       </c>
       <c r="D47" t="n">
-        <v>0.232069</v>
+        <v>0.233929</v>
       </c>
       <c r="E47" t="n">
-        <v>0.146186</v>
+        <v>0.145052</v>
       </c>
       <c r="F47" t="n">
-        <v>0.139293</v>
+        <v>0.137675</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.162738</v>
+        <v>0.160107</v>
       </c>
       <c r="C48" t="n">
-        <v>0.147056</v>
+        <v>0.145203</v>
       </c>
       <c r="D48" t="n">
-        <v>0.23415</v>
+        <v>0.240723</v>
       </c>
       <c r="E48" t="n">
-        <v>0.147826</v>
+        <v>0.148812</v>
       </c>
       <c r="F48" t="n">
-        <v>0.141581</v>
+        <v>0.142393</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.163534</v>
+        <v>0.15956</v>
       </c>
       <c r="C49" t="n">
-        <v>0.151171</v>
+        <v>0.146891</v>
       </c>
       <c r="D49" t="n">
-        <v>0.248673</v>
+        <v>0.245642</v>
       </c>
       <c r="E49" t="n">
-        <v>0.151639</v>
+        <v>0.149334</v>
       </c>
       <c r="F49" t="n">
-        <v>0.147328</v>
+        <v>0.148946</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.166082</v>
+        <v>0.16632</v>
       </c>
       <c r="C50" t="n">
-        <v>0.150536</v>
+        <v>0.15066</v>
       </c>
       <c r="D50" t="n">
-        <v>0.199969</v>
+        <v>0.205532</v>
       </c>
       <c r="E50" t="n">
-        <v>0.155794</v>
+        <v>0.153825</v>
       </c>
       <c r="F50" t="n">
-        <v>0.150358</v>
+        <v>0.153398</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.167839</v>
+        <v>0.168309</v>
       </c>
       <c r="C51" t="n">
-        <v>0.153225</v>
+        <v>0.156905</v>
       </c>
       <c r="D51" t="n">
-        <v>0.205084</v>
+        <v>0.209405</v>
       </c>
       <c r="E51" t="n">
-        <v>0.227835</v>
+        <v>0.206482</v>
       </c>
       <c r="F51" t="n">
-        <v>0.145562</v>
+        <v>0.143732</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.173249</v>
+        <v>0.173501</v>
       </c>
       <c r="C52" t="n">
-        <v>0.162245</v>
+        <v>0.160776</v>
       </c>
       <c r="D52" t="n">
-        <v>0.211322</v>
+        <v>0.218351</v>
       </c>
       <c r="E52" t="n">
-        <v>0.22509</v>
+        <v>0.20597</v>
       </c>
       <c r="F52" t="n">
-        <v>0.145058</v>
+        <v>0.139076</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.292338</v>
+        <v>0.251847</v>
       </c>
       <c r="C53" t="n">
-        <v>0.163386</v>
+        <v>0.170058</v>
       </c>
       <c r="D53" t="n">
-        <v>0.221478</v>
+        <v>0.220296</v>
       </c>
       <c r="E53" t="n">
-        <v>0.230411</v>
+        <v>0.203609</v>
       </c>
       <c r="F53" t="n">
-        <v>0.145217</v>
+        <v>0.142103</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.287643</v>
+        <v>0.254773</v>
       </c>
       <c r="C54" t="n">
-        <v>0.16362</v>
+        <v>0.15991</v>
       </c>
       <c r="D54" t="n">
-        <v>0.223272</v>
+        <v>0.2258</v>
       </c>
       <c r="E54" t="n">
-        <v>0.230163</v>
+        <v>0.208349</v>
       </c>
       <c r="F54" t="n">
-        <v>0.152841</v>
+        <v>0.142717</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.286203</v>
+        <v>0.248689</v>
       </c>
       <c r="C55" t="n">
-        <v>0.164557</v>
+        <v>0.161282</v>
       </c>
       <c r="D55" t="n">
-        <v>0.235351</v>
+        <v>0.231152</v>
       </c>
       <c r="E55" t="n">
-        <v>0.230755</v>
+        <v>0.219704</v>
       </c>
       <c r="F55" t="n">
-        <v>0.145107</v>
+        <v>0.150117</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.286197</v>
+        <v>0.259209</v>
       </c>
       <c r="C56" t="n">
-        <v>0.165159</v>
+        <v>0.161447</v>
       </c>
       <c r="D56" t="n">
-        <v>0.242402</v>
+        <v>0.241032</v>
       </c>
       <c r="E56" t="n">
-        <v>0.22781</v>
+        <v>0.207216</v>
       </c>
       <c r="F56" t="n">
-        <v>0.153954</v>
+        <v>0.148405</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.285236</v>
+        <v>0.246274</v>
       </c>
       <c r="C57" t="n">
-        <v>0.165804</v>
+        <v>0.169167</v>
       </c>
       <c r="D57" t="n">
-        <v>0.248961</v>
+        <v>0.247646</v>
       </c>
       <c r="E57" t="n">
-        <v>0.225366</v>
+        <v>0.208429</v>
       </c>
       <c r="F57" t="n">
-        <v>0.148996</v>
+        <v>0.149274</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.28182</v>
+        <v>0.24344</v>
       </c>
       <c r="C58" t="n">
-        <v>0.166721</v>
+        <v>0.168373</v>
       </c>
       <c r="D58" t="n">
-        <v>0.251498</v>
+        <v>0.260214</v>
       </c>
       <c r="E58" t="n">
-        <v>0.231921</v>
+        <v>0.208735</v>
       </c>
       <c r="F58" t="n">
-        <v>0.153293</v>
+        <v>0.156088</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.284737</v>
+        <v>0.241475</v>
       </c>
       <c r="C59" t="n">
-        <v>0.178675</v>
+        <v>0.167448</v>
       </c>
       <c r="D59" t="n">
-        <v>0.259662</v>
+        <v>0.264134</v>
       </c>
       <c r="E59" t="n">
-        <v>0.227227</v>
+        <v>0.208175</v>
       </c>
       <c r="F59" t="n">
-        <v>0.152811</v>
+        <v>0.159496</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.27994</v>
+        <v>0.245255</v>
       </c>
       <c r="C60" t="n">
-        <v>0.168422</v>
+        <v>0.171801</v>
       </c>
       <c r="D60" t="n">
-        <v>0.264302</v>
+        <v>0.270931</v>
       </c>
       <c r="E60" t="n">
-        <v>0.239238</v>
+        <v>0.210951</v>
       </c>
       <c r="F60" t="n">
-        <v>0.158032</v>
+        <v>0.158125</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.278255</v>
+        <v>0.243238</v>
       </c>
       <c r="C61" t="n">
-        <v>0.18436</v>
+        <v>0.171875</v>
       </c>
       <c r="D61" t="n">
-        <v>0.283404</v>
+        <v>0.287655</v>
       </c>
       <c r="E61" t="n">
-        <v>0.228885</v>
+        <v>0.214643</v>
       </c>
       <c r="F61" t="n">
-        <v>0.170977</v>
+        <v>0.15764</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.283213</v>
+        <v>0.241599</v>
       </c>
       <c r="C62" t="n">
-        <v>0.190619</v>
+        <v>0.176227</v>
       </c>
       <c r="D62" t="n">
-        <v>0.299679</v>
+        <v>0.305329</v>
       </c>
       <c r="E62" t="n">
-        <v>0.231641</v>
+        <v>0.217314</v>
       </c>
       <c r="F62" t="n">
-        <v>0.176144</v>
+        <v>0.165331</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.284507</v>
+        <v>0.258348</v>
       </c>
       <c r="C63" t="n">
-        <v>0.194462</v>
+        <v>0.18026</v>
       </c>
       <c r="D63" t="n">
-        <v>0.309607</v>
+        <v>0.307175</v>
       </c>
       <c r="E63" t="n">
-        <v>0.233306</v>
+        <v>0.217632</v>
       </c>
       <c r="F63" t="n">
-        <v>0.170481</v>
+        <v>0.173716</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.291087</v>
+        <v>0.248217</v>
       </c>
       <c r="C64" t="n">
-        <v>0.184713</v>
+        <v>0.18515</v>
       </c>
       <c r="D64" t="n">
-        <v>0.290651</v>
+        <v>0.276592</v>
       </c>
       <c r="E64" t="n">
-        <v>0.236468</v>
+        <v>0.226327</v>
       </c>
       <c r="F64" t="n">
-        <v>0.177348</v>
+        <v>0.183332</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.289909</v>
+        <v>0.253229</v>
       </c>
       <c r="C65" t="n">
-        <v>0.190137</v>
+        <v>0.188191</v>
       </c>
       <c r="D65" t="n">
-        <v>0.278496</v>
+        <v>0.282017</v>
       </c>
       <c r="E65" t="n">
-        <v>0.246536</v>
+        <v>0.225323</v>
       </c>
       <c r="F65" t="n">
-        <v>0.187877</v>
+        <v>0.186629</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.295387</v>
+        <v>0.254063</v>
       </c>
       <c r="C66" t="n">
-        <v>0.197664</v>
+        <v>0.193932</v>
       </c>
       <c r="D66" t="n">
-        <v>0.286354</v>
+        <v>0.294098</v>
       </c>
       <c r="E66" t="n">
-        <v>0.32692</v>
+        <v>0.293962</v>
       </c>
       <c r="F66" t="n">
-        <v>0.221833</v>
+        <v>0.210505</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.43271</v>
+        <v>0.366161</v>
       </c>
       <c r="C67" t="n">
-        <v>0.252225</v>
+        <v>0.248006</v>
       </c>
       <c r="D67" t="n">
-        <v>0.292601</v>
+        <v>0.307527</v>
       </c>
       <c r="E67" t="n">
-        <v>0.320881</v>
+        <v>0.293367</v>
       </c>
       <c r="F67" t="n">
-        <v>0.217965</v>
+        <v>0.213089</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.432631</v>
+        <v>0.368029</v>
       </c>
       <c r="C68" t="n">
-        <v>0.250465</v>
+        <v>0.249516</v>
       </c>
       <c r="D68" t="n">
-        <v>0.302553</v>
+        <v>0.313694</v>
       </c>
       <c r="E68" t="n">
-        <v>0.331113</v>
+        <v>0.292843</v>
       </c>
       <c r="F68" t="n">
-        <v>0.226036</v>
+        <v>0.213704</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.439787</v>
+        <v>0.388162</v>
       </c>
       <c r="C69" t="n">
-        <v>0.258907</v>
+        <v>0.254643</v>
       </c>
       <c r="D69" t="n">
-        <v>0.323712</v>
+        <v>0.325383</v>
       </c>
       <c r="E69" t="n">
-        <v>0.329577</v>
+        <v>0.290862</v>
       </c>
       <c r="F69" t="n">
-        <v>0.237186</v>
+        <v>0.218875</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.454543</v>
+        <v>0.373966</v>
       </c>
       <c r="C70" t="n">
-        <v>0.260005</v>
+        <v>0.253492</v>
       </c>
       <c r="D70" t="n">
-        <v>0.332589</v>
+        <v>0.33969</v>
       </c>
       <c r="E70" t="n">
-        <v>0.336119</v>
+        <v>0.295118</v>
       </c>
       <c r="F70" t="n">
-        <v>0.227893</v>
+        <v>0.227393</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.442724</v>
+        <v>0.385896</v>
       </c>
       <c r="C71" t="n">
-        <v>0.261255</v>
+        <v>0.263449</v>
       </c>
       <c r="D71" t="n">
-        <v>0.347217</v>
+        <v>0.356549</v>
       </c>
       <c r="E71" t="n">
-        <v>0.341975</v>
+        <v>0.29608</v>
       </c>
       <c r="F71" t="n">
-        <v>0.23153</v>
+        <v>0.222908</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.473963</v>
+        <v>0.380118</v>
       </c>
       <c r="C72" t="n">
-        <v>0.263417</v>
+        <v>0.257891</v>
       </c>
       <c r="D72" t="n">
-        <v>0.35498</v>
+        <v>0.363889</v>
       </c>
       <c r="E72" t="n">
-        <v>0.340729</v>
+        <v>0.298951</v>
       </c>
       <c r="F72" t="n">
-        <v>0.234872</v>
+        <v>0.230236</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.469947</v>
+        <v>0.383236</v>
       </c>
       <c r="C73" t="n">
-        <v>0.262505</v>
+        <v>0.257356</v>
       </c>
       <c r="D73" t="n">
-        <v>0.367004</v>
+        <v>0.388273</v>
       </c>
       <c r="E73" t="n">
-        <v>0.340554</v>
+        <v>0.298388</v>
       </c>
       <c r="F73" t="n">
-        <v>0.237262</v>
+        <v>0.227558</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.467268</v>
+        <v>0.391195</v>
       </c>
       <c r="C74" t="n">
-        <v>0.265565</v>
+        <v>0.259127</v>
       </c>
       <c r="D74" t="n">
-        <v>0.399195</v>
+        <v>0.405142</v>
       </c>
       <c r="E74" t="n">
-        <v>0.355123</v>
+        <v>0.303578</v>
       </c>
       <c r="F74" t="n">
-        <v>0.237952</v>
+        <v>0.229557</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.468246</v>
+        <v>0.391752</v>
       </c>
       <c r="C75" t="n">
-        <v>0.273998</v>
+        <v>0.262356</v>
       </c>
       <c r="D75" t="n">
-        <v>0.401235</v>
+        <v>0.403485</v>
       </c>
       <c r="E75" t="n">
-        <v>0.339796</v>
+        <v>0.298548</v>
       </c>
       <c r="F75" t="n">
-        <v>0.25615</v>
+        <v>0.233657</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.469464</v>
+        <v>0.392085</v>
       </c>
       <c r="C76" t="n">
-        <v>0.27775</v>
+        <v>0.266096</v>
       </c>
       <c r="D76" t="n">
-        <v>0.443209</v>
+        <v>0.435458</v>
       </c>
       <c r="E76" t="n">
-        <v>0.33791</v>
+        <v>0.317308</v>
       </c>
       <c r="F76" t="n">
-        <v>0.248149</v>
+        <v>0.239148</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.46281</v>
+        <v>0.381854</v>
       </c>
       <c r="C77" t="n">
-        <v>0.275314</v>
+        <v>0.26729</v>
       </c>
       <c r="D77" t="n">
-        <v>0.423686</v>
+        <v>0.446971</v>
       </c>
       <c r="E77" t="n">
-        <v>0.337849</v>
+        <v>0.32004</v>
       </c>
       <c r="F77" t="n">
-        <v>0.249306</v>
+        <v>0.25185</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.46578</v>
+        <v>0.383025</v>
       </c>
       <c r="C78" t="n">
-        <v>0.27545</v>
+        <v>0.267388</v>
       </c>
       <c r="D78" t="n">
-        <v>0.403063</v>
+        <v>0.409949</v>
       </c>
       <c r="E78" t="n">
-        <v>0.356125</v>
+        <v>0.315168</v>
       </c>
       <c r="F78" t="n">
-        <v>0.260394</v>
+        <v>0.252525</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.462647</v>
+        <v>0.388139</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2794</v>
+        <v>0.276735</v>
       </c>
       <c r="D79" t="n">
-        <v>0.410272</v>
+        <v>0.428447</v>
       </c>
       <c r="E79" t="n">
-        <v>0.348105</v>
+        <v>0.322571</v>
       </c>
       <c r="F79" t="n">
-        <v>0.269944</v>
+        <v>0.257775</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.475175</v>
+        <v>0.416707</v>
       </c>
       <c r="C80" t="n">
-        <v>0.292</v>
+        <v>0.281484</v>
       </c>
       <c r="D80" t="n">
-        <v>0.418043</v>
+        <v>0.430597</v>
       </c>
       <c r="E80" t="n">
-        <v>0.513506</v>
+        <v>0.422327</v>
       </c>
       <c r="F80" t="n">
-        <v>0.392861</v>
+        <v>0.348594</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.643504</v>
+        <v>0.525748</v>
       </c>
       <c r="C81" t="n">
-        <v>0.446971</v>
+        <v>0.397019</v>
       </c>
       <c r="D81" t="n">
-        <v>0.442041</v>
+        <v>0.440942</v>
       </c>
       <c r="E81" t="n">
-        <v>0.513132</v>
+        <v>0.432429</v>
       </c>
       <c r="F81" t="n">
-        <v>0.399076</v>
+        <v>0.355224</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6610549999999999</v>
+        <v>0.534816</v>
       </c>
       <c r="C82" t="n">
-        <v>0.454276</v>
+        <v>0.395041</v>
       </c>
       <c r="D82" t="n">
-        <v>0.441601</v>
+        <v>0.453042</v>
       </c>
       <c r="E82" t="n">
-        <v>0.514315</v>
+        <v>0.43464</v>
       </c>
       <c r="F82" t="n">
-        <v>0.393517</v>
+        <v>0.364733</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.644641</v>
+        <v>0.556391</v>
       </c>
       <c r="C83" t="n">
-        <v>0.445238</v>
+        <v>0.413514</v>
       </c>
       <c r="D83" t="n">
-        <v>0.457715</v>
+        <v>0.47022</v>
       </c>
       <c r="E83" t="n">
-        <v>0.522821</v>
+        <v>0.427689</v>
       </c>
       <c r="F83" t="n">
-        <v>0.394813</v>
+        <v>0.349286</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.645752</v>
+        <v>0.529187</v>
       </c>
       <c r="C84" t="n">
-        <v>0.44061</v>
+        <v>0.403155</v>
       </c>
       <c r="D84" t="n">
-        <v>0.463882</v>
+        <v>0.483522</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5137620000000001</v>
+        <v>0.44186</v>
       </c>
       <c r="F84" t="n">
-        <v>0.393042</v>
+        <v>0.357953</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.649929</v>
+        <v>0.5499270000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.453143</v>
+        <v>0.402817</v>
       </c>
       <c r="D85" t="n">
-        <v>0.478383</v>
+        <v>0.490941</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5173990000000001</v>
+        <v>0.435199</v>
       </c>
       <c r="F85" t="n">
-        <v>0.403345</v>
+        <v>0.356765</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.651304</v>
+        <v>0.536814</v>
       </c>
       <c r="C86" t="n">
-        <v>0.447359</v>
+        <v>0.399632</v>
       </c>
       <c r="D86" t="n">
-        <v>0.49617</v>
+        <v>0.50889</v>
       </c>
       <c r="E86" t="n">
-        <v>0.525302</v>
+        <v>0.442844</v>
       </c>
       <c r="F86" t="n">
-        <v>0.402545</v>
+        <v>0.365333</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.651181</v>
+        <v>0.537951</v>
       </c>
       <c r="C87" t="n">
-        <v>0.45573</v>
+        <v>0.412415</v>
       </c>
       <c r="D87" t="n">
-        <v>0.507988</v>
+        <v>0.525136</v>
       </c>
       <c r="E87" t="n">
-        <v>0.523077</v>
+        <v>0.435575</v>
       </c>
       <c r="F87" t="n">
-        <v>0.401511</v>
+        <v>0.359707</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.653502</v>
+        <v>0.533386</v>
       </c>
       <c r="C88" t="n">
-        <v>0.452531</v>
+        <v>0.419667</v>
       </c>
       <c r="D88" t="n">
-        <v>0.522981</v>
+        <v>0.530599</v>
       </c>
       <c r="E88" t="n">
-        <v>0.528017</v>
+        <v>0.447966</v>
       </c>
       <c r="F88" t="n">
-        <v>0.403685</v>
+        <v>0.353397</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.6551360000000001</v>
+        <v>0.543051</v>
       </c>
       <c r="C89" t="n">
-        <v>0.453609</v>
+        <v>0.415321</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5380509999999999</v>
+        <v>0.547062</v>
       </c>
       <c r="E89" t="n">
-        <v>0.530857</v>
+        <v>0.441738</v>
       </c>
       <c r="F89" t="n">
-        <v>0.430461</v>
+        <v>0.366037</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.657569</v>
+        <v>0.546834</v>
       </c>
       <c r="C90" t="n">
-        <v>0.458409</v>
+        <v>0.412638</v>
       </c>
       <c r="D90" t="n">
-        <v>0.559292</v>
+        <v>0.566338</v>
       </c>
       <c r="E90" t="n">
-        <v>0.538515</v>
+        <v>0.440583</v>
       </c>
       <c r="F90" t="n">
-        <v>0.417487</v>
+        <v>0.365248</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.669619</v>
+        <v>0.54181</v>
       </c>
       <c r="C91" t="n">
-        <v>0.465516</v>
+        <v>0.418643</v>
       </c>
       <c r="D91" t="n">
-        <v>0.58311</v>
+        <v>0.579478</v>
       </c>
       <c r="E91" t="n">
-        <v>0.54188</v>
+        <v>0.453001</v>
       </c>
       <c r="F91" t="n">
-        <v>0.421172</v>
+        <v>0.372138</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.666555</v>
+        <v>0.547441</v>
       </c>
       <c r="C92" t="n">
-        <v>0.46394</v>
+        <v>0.424459</v>
       </c>
       <c r="D92" t="n">
-        <v>0.522752</v>
+        <v>0.546776</v>
       </c>
       <c r="E92" t="n">
-        <v>0.526385</v>
+        <v>0.445976</v>
       </c>
       <c r="F92" t="n">
-        <v>0.415599</v>
+        <v>0.375497</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.663504</v>
+        <v>0.542515</v>
       </c>
       <c r="C93" t="n">
-        <v>0.47878</v>
+        <v>0.435092</v>
       </c>
       <c r="D93" t="n">
-        <v>0.533529</v>
+        <v>0.546546</v>
       </c>
       <c r="E93" t="n">
-        <v>0.540396</v>
+        <v>0.445841</v>
       </c>
       <c r="F93" t="n">
-        <v>0.424957</v>
+        <v>0.378398</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.674052</v>
+        <v>0.572374</v>
       </c>
       <c r="C94" t="n">
-        <v>0.48048</v>
+        <v>0.452846</v>
       </c>
       <c r="D94" t="n">
-        <v>0.555468</v>
+        <v>0.57301</v>
       </c>
       <c r="E94" t="n">
-        <v>0.665767</v>
+        <v>0.510616</v>
       </c>
       <c r="F94" t="n">
-        <v>0.642163</v>
+        <v>0.506652</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.795319</v>
+        <v>0.621875</v>
       </c>
       <c r="C95" t="n">
-        <v>0.7190879999999999</v>
+        <v>0.588638</v>
       </c>
       <c r="D95" t="n">
-        <v>0.584078</v>
+        <v>0.580223</v>
       </c>
       <c r="E95" t="n">
-        <v>0.691013</v>
+        <v>0.5253910000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>0.650372</v>
+        <v>0.510344</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.796548</v>
+        <v>0.6249400000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.734148</v>
+        <v>0.595015</v>
       </c>
       <c r="D96" t="n">
-        <v>0.571101</v>
+        <v>0.60326</v>
       </c>
       <c r="E96" t="n">
-        <v>0.659395</v>
+        <v>0.515274</v>
       </c>
       <c r="F96" t="n">
-        <v>0.653357</v>
+        <v>0.519361</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.811106</v>
+        <v>0.627911</v>
       </c>
       <c r="C97" t="n">
-        <v>0.7279409999999999</v>
+        <v>0.614884</v>
       </c>
       <c r="D97" t="n">
-        <v>0.582927</v>
+        <v>0.589055</v>
       </c>
       <c r="E97" t="n">
-        <v>0.726833</v>
+        <v>0.528746</v>
       </c>
       <c r="F97" t="n">
-        <v>0.657507</v>
+        <v>0.522546</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.788552</v>
+        <v>0.624001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.76825</v>
+        <v>0.594558</v>
       </c>
       <c r="D98" t="n">
-        <v>0.619645</v>
+        <v>0.644698</v>
       </c>
       <c r="E98" t="n">
-        <v>0.657934</v>
+        <v>0.531995</v>
       </c>
       <c r="F98" t="n">
-        <v>0.6360440000000001</v>
+        <v>0.5200399999999999</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.793893</v>
+        <v>0.63752</v>
       </c>
       <c r="C99" t="n">
-        <v>0.729123</v>
+        <v>0.605342</v>
       </c>
       <c r="D99" t="n">
-        <v>0.612569</v>
+        <v>0.624762</v>
       </c>
       <c r="E99" t="n">
-        <v>0.691684</v>
+        <v>0.5257230000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>0.628521</v>
+        <v>0.5179009999999999</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.819465</v>
+        <v>0.633543</v>
       </c>
       <c r="C100" t="n">
-        <v>0.771183</v>
+        <v>0.605566</v>
       </c>
       <c r="D100" t="n">
-        <v>0.645528</v>
+        <v>0.642529</v>
       </c>
       <c r="E100" t="n">
-        <v>0.6733209999999999</v>
+        <v>0.53277</v>
       </c>
       <c r="F100" t="n">
-        <v>0.630834</v>
+        <v>0.520884</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.789257</v>
+        <v>0.628233</v>
       </c>
       <c r="C101" t="n">
-        <v>0.735447</v>
+        <v>0.597256</v>
       </c>
       <c r="D101" t="n">
-        <v>0.663272</v>
+        <v>0.659789</v>
       </c>
       <c r="E101" t="n">
-        <v>0.669708</v>
+        <v>0.528551</v>
       </c>
       <c r="F101" t="n">
-        <v>0.646533</v>
+        <v>0.563975</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.788555</v>
+        <v>0.631146</v>
       </c>
       <c r="C102" t="n">
-        <v>0.737868</v>
+        <v>0.613181</v>
       </c>
       <c r="D102" t="n">
-        <v>0.668699</v>
+        <v>0.668659</v>
       </c>
       <c r="E102" t="n">
-        <v>0.661303</v>
+        <v>0.53116</v>
       </c>
       <c r="F102" t="n">
-        <v>0.665481</v>
+        <v>0.535436</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.809509</v>
+        <v>0.615859</v>
       </c>
       <c r="C103" t="n">
-        <v>0.736518</v>
+        <v>0.617708</v>
       </c>
       <c r="D103" t="n">
-        <v>0.668099</v>
+        <v>0.7141150000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>0.696233</v>
+        <v>0.546901</v>
       </c>
       <c r="F103" t="n">
-        <v>0.643434</v>
+        <v>0.534062</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.795818</v>
+        <v>0.624495</v>
       </c>
       <c r="C104" t="n">
-        <v>0.753223</v>
+        <v>0.645482</v>
       </c>
       <c r="D104" t="n">
-        <v>0.697139</v>
+        <v>0.720143</v>
       </c>
       <c r="E104" t="n">
-        <v>0.668113</v>
+        <v>0.531295</v>
       </c>
       <c r="F104" t="n">
-        <v>0.650564</v>
+        <v>0.550225</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.931863</v>
+        <v>0.63576</v>
       </c>
       <c r="C105" t="n">
-        <v>0.757484</v>
+        <v>0.627439</v>
       </c>
       <c r="D105" t="n">
-        <v>0.709169</v>
+        <v>0.7262420000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>0.706024</v>
+        <v>0.526774</v>
       </c>
       <c r="F105" t="n">
-        <v>0.668605</v>
+        <v>0.566233</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.836401</v>
+        <v>0.6241100000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.770975</v>
+        <v>0.63337</v>
       </c>
       <c r="D106" t="n">
-        <v>0.736189</v>
+        <v>0.761608</v>
       </c>
       <c r="E106" t="n">
-        <v>0.715646</v>
+        <v>0.5357460000000001</v>
       </c>
       <c r="F106" t="n">
-        <v>0.69777</v>
+        <v>0.554566</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.80686</v>
+        <v>0.626011</v>
       </c>
       <c r="C107" t="n">
-        <v>0.7762520000000001</v>
+        <v>0.63846</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6400709999999999</v>
+        <v>0.673222</v>
       </c>
       <c r="E107" t="n">
-        <v>0.713974</v>
+        <v>0.5477379999999999</v>
       </c>
       <c r="F107" t="n">
-        <v>0.700144</v>
+        <v>0.584625</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.851708</v>
+        <v>0.628396</v>
       </c>
       <c r="C108" t="n">
-        <v>0.773324</v>
+        <v>0.645431</v>
       </c>
       <c r="D108" t="n">
-        <v>0.685739</v>
+        <v>0.671391</v>
       </c>
       <c r="E108" t="n">
-        <v>0.880405</v>
+        <v>0.605338</v>
       </c>
       <c r="F108" t="n">
-        <v>0.830082</v>
+        <v>0.624857</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.810216</v>
+        <v>0.702028</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8082279999999999</v>
+        <v>0.665412</v>
       </c>
       <c r="D109" t="n">
-        <v>0.668291</v>
+        <v>0.714113</v>
       </c>
       <c r="E109" t="n">
-        <v>0.876699</v>
+        <v>0.601109</v>
       </c>
       <c r="F109" t="n">
-        <v>0.811057</v>
+        <v>0.627888</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.960053</v>
+        <v>0.762308</v>
       </c>
       <c r="C110" t="n">
-        <v>1.01073</v>
+        <v>0.78355</v>
       </c>
       <c r="D110" t="n">
-        <v>0.680383</v>
+        <v>0.693957</v>
       </c>
       <c r="E110" t="n">
-        <v>0.814793</v>
+        <v>0.641428</v>
       </c>
       <c r="F110" t="n">
-        <v>0.841705</v>
+        <v>0.631147</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.95219</v>
+        <v>0.755525</v>
       </c>
       <c r="C111" t="n">
-        <v>0.980562</v>
+        <v>0.740986</v>
       </c>
       <c r="D111" t="n">
-        <v>0.703524</v>
+        <v>0.721928</v>
       </c>
       <c r="E111" t="n">
-        <v>0.816487</v>
+        <v>0.598935</v>
       </c>
       <c r="F111" t="n">
-        <v>0.823642</v>
+        <v>0.630518</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.00109</v>
+        <v>0.753844</v>
       </c>
       <c r="C112" t="n">
-        <v>0.960659</v>
+        <v>0.743601</v>
       </c>
       <c r="D112" t="n">
-        <v>0.715157</v>
+        <v>0.755535</v>
       </c>
       <c r="E112" t="n">
-        <v>0.8676160000000001</v>
+        <v>0.607955</v>
       </c>
       <c r="F112" t="n">
-        <v>0.8236019999999999</v>
+        <v>0.625045</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.970993</v>
+        <v>0.761912</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9459379999999999</v>
+        <v>0.7398</v>
       </c>
       <c r="D113" t="n">
-        <v>0.752451</v>
+        <v>0.766937</v>
       </c>
       <c r="E113" t="n">
-        <v>0.80843</v>
+        <v>0.616604</v>
       </c>
       <c r="F113" t="n">
-        <v>0.823971</v>
+        <v>0.647456</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.00847</v>
+        <v>0.746304</v>
       </c>
       <c r="C114" t="n">
-        <v>0.944249</v>
+        <v>0.7764760000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.768072</v>
+        <v>0.760873</v>
       </c>
       <c r="E114" t="n">
-        <v>0.815105</v>
+        <v>0.634661</v>
       </c>
       <c r="F114" t="n">
-        <v>0.848804</v>
+        <v>0.640896</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.978525</v>
+        <v>0.786484</v>
       </c>
       <c r="C115" t="n">
-        <v>0.958048</v>
+        <v>0.7633799999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.800552</v>
+        <v>0.789233</v>
       </c>
       <c r="E115" t="n">
-        <v>0.837242</v>
+        <v>0.615112</v>
       </c>
       <c r="F115" t="n">
-        <v>0.840321</v>
+        <v>0.648332</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.961016</v>
+        <v>0.768938</v>
       </c>
       <c r="C116" t="n">
-        <v>0.947561</v>
+        <v>0.74136</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7764529999999999</v>
+        <v>0.8138300000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>0.8069</v>
+        <v>0.610262</v>
       </c>
       <c r="F116" t="n">
-        <v>0.8295400000000001</v>
+        <v>0.649138</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.942015</v>
+        <v>0.7587739999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.950869</v>
+        <v>0.749883</v>
       </c>
       <c r="D117" t="n">
-        <v>0.80943</v>
+        <v>0.818885</v>
       </c>
       <c r="E117" t="n">
-        <v>0.811555</v>
+        <v>0.631518</v>
       </c>
       <c r="F117" t="n">
-        <v>0.849013</v>
+        <v>0.68098</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.955932</v>
+        <v>0.801239</v>
       </c>
       <c r="C118" t="n">
-        <v>0.972732</v>
+        <v>0.7728</v>
       </c>
       <c r="D118" t="n">
-        <v>0.825658</v>
+        <v>0.826875</v>
       </c>
       <c r="E118" t="n">
-        <v>0.898469</v>
+        <v>0.65787</v>
       </c>
       <c r="F118" t="n">
-        <v>0.858243</v>
+        <v>0.678433</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.05271</v>
+        <v>0.789956</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9848749999999999</v>
+        <v>0.792449</v>
       </c>
       <c r="D119" t="n">
-        <v>0.830934</v>
+        <v>0.865663</v>
       </c>
       <c r="E119" t="n">
-        <v>0.8280920000000001</v>
+        <v>0.630831</v>
       </c>
       <c r="F119" t="n">
-        <v>0.847783</v>
+        <v>0.670602</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.972828</v>
+        <v>0.820207</v>
       </c>
       <c r="C120" t="n">
-        <v>0.967482</v>
+        <v>0.751829</v>
       </c>
       <c r="D120" t="n">
-        <v>0.864664</v>
+        <v>0.889907</v>
       </c>
       <c r="E120" t="n">
-        <v>0.906058</v>
+        <v>0.634356</v>
       </c>
       <c r="F120" t="n">
-        <v>0.878779</v>
+        <v>0.694348</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9624470000000001</v>
+        <v>0.766575</v>
       </c>
       <c r="C121" t="n">
-        <v>0.986866</v>
+        <v>0.775049</v>
       </c>
       <c r="D121" t="n">
-        <v>0.747495</v>
+        <v>0.768717</v>
       </c>
       <c r="E121" t="n">
-        <v>0.84298</v>
+        <v>0.630313</v>
       </c>
       <c r="F121" t="n">
-        <v>0.872925</v>
+        <v>0.686592</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.991057</v>
+        <v>0.762792</v>
       </c>
       <c r="C122" t="n">
-        <v>1.00848</v>
+        <v>0.781427</v>
       </c>
       <c r="D122" t="n">
-        <v>0.795573</v>
+        <v>0.79857</v>
       </c>
       <c r="E122" t="n">
-        <v>0.8495780000000001</v>
+        <v>0.644095</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9178809999999999</v>
+        <v>0.688066</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.973766</v>
+        <v>0.768533</v>
       </c>
       <c r="C123" t="n">
-        <v>0.990913</v>
+        <v>0.799845</v>
       </c>
       <c r="D123" t="n">
-        <v>0.75918</v>
+        <v>0.774949</v>
       </c>
       <c r="E123" t="n">
-        <v>1.07036</v>
+        <v>0.72377</v>
       </c>
       <c r="F123" t="n">
-        <v>0.946529</v>
+        <v>0.690119</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.23394</v>
+        <v>1.00024</v>
       </c>
       <c r="C124" t="n">
-        <v>1.14692</v>
+        <v>0.901744</v>
       </c>
       <c r="D124" t="n">
-        <v>0.781006</v>
+        <v>0.80266</v>
       </c>
       <c r="E124" t="n">
-        <v>1.03958</v>
+        <v>0.717625</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9719370000000001</v>
+        <v>0.708197</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.24593</v>
+        <v>0.973001</v>
       </c>
       <c r="C125" t="n">
-        <v>1.16642</v>
+        <v>0.892547</v>
       </c>
       <c r="D125" t="n">
-        <v>0.791167</v>
+        <v>0.8096</v>
       </c>
       <c r="E125" t="n">
-        <v>1.02657</v>
+        <v>0.730823</v>
       </c>
       <c r="F125" t="n">
-        <v>0.95367</v>
+        <v>0.7087599999999999</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.22715</v>
+        <v>0.951365</v>
       </c>
       <c r="C126" t="n">
-        <v>1.14795</v>
+        <v>0.893109</v>
       </c>
       <c r="D126" t="n">
-        <v>0.801175</v>
+        <v>0.819755</v>
       </c>
       <c r="E126" t="n">
-        <v>1.1651</v>
+        <v>0.740002</v>
       </c>
       <c r="F126" t="n">
-        <v>0.963405</v>
+        <v>0.712089</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.23406</v>
+        <v>0.9785779999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>1.17736</v>
+        <v>0.913286</v>
       </c>
       <c r="D127" t="n">
-        <v>0.811181</v>
+        <v>0.861696</v>
       </c>
       <c r="E127" t="n">
-        <v>1.03486</v>
+        <v>0.725037</v>
       </c>
       <c r="F127" t="n">
-        <v>0.982137</v>
+        <v>0.7082619999999999</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.25348</v>
+        <v>0.982927</v>
       </c>
       <c r="C128" t="n">
-        <v>1.1732</v>
+        <v>0.8848549999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>0.823339</v>
+        <v>0.85883</v>
       </c>
       <c r="E128" t="n">
-        <v>1.19651</v>
+        <v>0.728295</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9742189999999999</v>
+        <v>0.722329</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.23493</v>
+        <v>0.998106</v>
       </c>
       <c r="C129" t="n">
-        <v>1.16476</v>
+        <v>0.915079</v>
       </c>
       <c r="D129" t="n">
-        <v>0.8472</v>
+        <v>0.891791</v>
       </c>
       <c r="E129" t="n">
-        <v>1.02987</v>
+        <v>0.727824</v>
       </c>
       <c r="F129" t="n">
-        <v>0.974363</v>
+        <v>0.73024</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.30707</v>
+        <v>0.9718</v>
       </c>
       <c r="C130" t="n">
-        <v>1.17199</v>
+        <v>0.905795</v>
       </c>
       <c r="D130" t="n">
-        <v>0.865724</v>
+        <v>0.938922</v>
       </c>
       <c r="E130" t="n">
-        <v>1.01717</v>
+        <v>0.7503300000000001</v>
       </c>
       <c r="F130" t="n">
-        <v>0.98037</v>
+        <v>0.715786</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.25269</v>
+        <v>1.00703</v>
       </c>
       <c r="C131" t="n">
-        <v>1.18575</v>
+        <v>0.928179</v>
       </c>
       <c r="D131" t="n">
-        <v>0.89283</v>
+        <v>0.885561</v>
       </c>
       <c r="E131" t="n">
-        <v>1.05975</v>
+        <v>0.725765</v>
       </c>
       <c r="F131" t="n">
-        <v>0.98398</v>
+        <v>0.7270529999999999</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.43599</v>
+        <v>0.97212</v>
       </c>
       <c r="C132" t="n">
-        <v>1.15123</v>
+        <v>0.914012</v>
       </c>
       <c r="D132" t="n">
-        <v>0.88822</v>
+        <v>0.957672</v>
       </c>
       <c r="E132" t="n">
-        <v>1.04615</v>
+        <v>0.743642</v>
       </c>
       <c r="F132" t="n">
-        <v>1.00448</v>
+        <v>0.751111</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.24361</v>
+        <v>0.992166</v>
       </c>
       <c r="C133" t="n">
-        <v>1.16008</v>
+        <v>0.895265</v>
       </c>
       <c r="D133" t="n">
-        <v>0.902044</v>
+        <v>0.941974</v>
       </c>
       <c r="E133" t="n">
-        <v>1.06138</v>
+        <v>0.752038</v>
       </c>
       <c r="F133" t="n">
-        <v>0.989706</v>
+        <v>0.741797</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.22983</v>
+        <v>1.16112</v>
       </c>
       <c r="C134" t="n">
-        <v>1.16795</v>
+        <v>0.905347</v>
       </c>
       <c r="D134" t="n">
-        <v>0.951329</v>
+        <v>0.9795700000000001</v>
       </c>
       <c r="E134" t="n">
-        <v>1.06215</v>
+        <v>0.7775069999999999</v>
       </c>
       <c r="F134" t="n">
-        <v>1.00209</v>
+        <v>0.770943</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.25092</v>
+        <v>1.00852</v>
       </c>
       <c r="C135" t="n">
-        <v>1.17867</v>
+        <v>0.91003</v>
       </c>
       <c r="D135" t="n">
-        <v>0.807318</v>
+        <v>0.839172</v>
       </c>
       <c r="E135" t="n">
-        <v>1.06855</v>
+        <v>0.7581909999999999</v>
       </c>
       <c r="F135" t="n">
-        <v>1.04697</v>
+        <v>0.770922</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.2483</v>
+        <v>0.992207</v>
       </c>
       <c r="C136" t="n">
-        <v>1.17652</v>
+        <v>0.929328</v>
       </c>
       <c r="D136" t="n">
-        <v>0.8235</v>
+        <v>0.883802</v>
       </c>
       <c r="E136" t="n">
-        <v>1.06487</v>
+        <v>0.778101</v>
       </c>
       <c r="F136" t="n">
-        <v>1.04561</v>
+        <v>0.800559</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.2519</v>
+        <v>1.03631</v>
       </c>
       <c r="C137" t="n">
-        <v>1.20771</v>
+        <v>0.9629490000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>0.8354510000000001</v>
+        <v>0.90308</v>
       </c>
       <c r="E137" t="n">
-        <v>1.28446</v>
+        <v>0.909529</v>
       </c>
       <c r="F137" t="n">
-        <v>1.10348</v>
+        <v>0.80964</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.55572</v>
+        <v>1.29023</v>
       </c>
       <c r="C138" t="n">
-        <v>1.37912</v>
+        <v>1.00763</v>
       </c>
       <c r="D138" t="n">
-        <v>0.850446</v>
+        <v>0.887836</v>
       </c>
       <c r="E138" t="n">
-        <v>1.27997</v>
+        <v>0.888174</v>
       </c>
       <c r="F138" t="n">
-        <v>1.10943</v>
+        <v>0.814489</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.55165</v>
+        <v>1.25748</v>
       </c>
       <c r="C139" t="n">
-        <v>1.3754</v>
+        <v>1.02686</v>
       </c>
       <c r="D139" t="n">
-        <v>0.871026</v>
+        <v>0.886812</v>
       </c>
       <c r="E139" t="n">
-        <v>1.26108</v>
+        <v>0.925152</v>
       </c>
       <c r="F139" t="n">
-        <v>1.10673</v>
+        <v>0.78487</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.56808</v>
+        <v>1.25756</v>
       </c>
       <c r="C140" t="n">
-        <v>1.3786</v>
+        <v>1.01129</v>
       </c>
       <c r="D140" t="n">
-        <v>0.882315</v>
+        <v>0.957391</v>
       </c>
       <c r="E140" t="n">
-        <v>1.27926</v>
+        <v>0.922228</v>
       </c>
       <c r="F140" t="n">
-        <v>1.09708</v>
+        <v>0.812982</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.57261</v>
+        <v>1.24762</v>
       </c>
       <c r="C141" t="n">
-        <v>1.32269</v>
+        <v>0.997223</v>
       </c>
       <c r="D141" t="n">
-        <v>0.893578</v>
+        <v>0.934867</v>
       </c>
       <c r="E141" t="n">
-        <v>1.26574</v>
+        <v>0.89652</v>
       </c>
       <c r="F141" t="n">
-        <v>1.08058</v>
+        <v>0.836743</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.56542</v>
+        <v>1.26215</v>
       </c>
       <c r="C142" t="n">
-        <v>1.33112</v>
+        <v>0.999031</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9097</v>
+        <v>0.948072</v>
       </c>
       <c r="E142" t="n">
-        <v>1.29111</v>
+        <v>0.927042</v>
       </c>
       <c r="F142" t="n">
-        <v>1.10076</v>
+        <v>0.822325</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.55974</v>
+        <v>1.27318</v>
       </c>
       <c r="C143" t="n">
-        <v>1.32125</v>
+        <v>1.03954</v>
       </c>
       <c r="D143" t="n">
-        <v>0.922383</v>
+        <v>0.94714</v>
       </c>
       <c r="E143" t="n">
-        <v>1.31268</v>
+        <v>0.9158809999999999</v>
       </c>
       <c r="F143" t="n">
-        <v>1.10963</v>
+        <v>0.834037</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.112435</v>
+        <v>0.09519900000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.103189</v>
+        <v>0.126712</v>
       </c>
       <c r="D2" t="n">
-        <v>0.152997</v>
+        <v>0.184139</v>
       </c>
       <c r="E2" t="n">
-        <v>0.123903</v>
+        <v>0.116946</v>
       </c>
       <c r="F2" t="n">
-        <v>0.115266</v>
+        <v>0.130152</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.113567</v>
+        <v>0.158411</v>
       </c>
       <c r="C3" t="n">
-        <v>0.103892</v>
+        <v>0.153008</v>
       </c>
       <c r="D3" t="n">
-        <v>0.158552</v>
+        <v>0.249215</v>
       </c>
       <c r="E3" t="n">
-        <v>0.125022</v>
+        <v>0.178186</v>
       </c>
       <c r="F3" t="n">
-        <v>0.115503</v>
+        <v>0.1826</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.111868</v>
+        <v>0.147984</v>
       </c>
       <c r="C4" t="n">
-        <v>0.104948</v>
+        <v>0.172504</v>
       </c>
       <c r="D4" t="n">
-        <v>0.160998</v>
+        <v>0.250578</v>
       </c>
       <c r="E4" t="n">
-        <v>0.124587</v>
+        <v>0.156688</v>
       </c>
       <c r="F4" t="n">
-        <v>0.116178</v>
+        <v>0.159308</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.113457</v>
+        <v>0.147083</v>
       </c>
       <c r="C5" t="n">
-        <v>0.104683</v>
+        <v>0.105191</v>
       </c>
       <c r="D5" t="n">
-        <v>0.163695</v>
+        <v>0.188241</v>
       </c>
       <c r="E5" t="n">
-        <v>0.125386</v>
+        <v>0.0971374</v>
       </c>
       <c r="F5" t="n">
-        <v>0.117014</v>
+        <v>0.159834</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.113975</v>
+        <v>0.0958741</v>
       </c>
       <c r="C6" t="n">
-        <v>0.105598</v>
+        <v>0.101465</v>
       </c>
       <c r="D6" t="n">
-        <v>0.173717</v>
+        <v>0.144832</v>
       </c>
       <c r="E6" t="n">
-        <v>0.126356</v>
+        <v>0.110214</v>
       </c>
       <c r="F6" t="n">
-        <v>0.120004</v>
+        <v>0.137335</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.118361</v>
+        <v>0.150633</v>
       </c>
       <c r="C7" t="n">
-        <v>0.106125</v>
+        <v>0.104925</v>
       </c>
       <c r="D7" t="n">
-        <v>0.144439</v>
+        <v>0.183477</v>
       </c>
       <c r="E7" t="n">
-        <v>0.128919</v>
+        <v>0.108024</v>
       </c>
       <c r="F7" t="n">
-        <v>0.123839</v>
+        <v>0.115456</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.114515</v>
+        <v>0.124529</v>
       </c>
       <c r="C8" t="n">
-        <v>0.107369</v>
+        <v>0.113016</v>
       </c>
       <c r="D8" t="n">
-        <v>0.146789</v>
+        <v>0.15962</v>
       </c>
       <c r="E8" t="n">
-        <v>0.138265</v>
+        <v>0.100903</v>
       </c>
       <c r="F8" t="n">
-        <v>0.123821</v>
+        <v>0.137077</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.116581</v>
+        <v>0.113883</v>
       </c>
       <c r="C9" t="n">
-        <v>0.108704</v>
+        <v>0.127498</v>
       </c>
       <c r="D9" t="n">
-        <v>0.148827</v>
+        <v>0.139323</v>
       </c>
       <c r="E9" t="n">
-        <v>0.127682</v>
+        <v>0.08277610000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.116394</v>
+        <v>0.14819</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.123089</v>
+        <v>0.164089</v>
       </c>
       <c r="C10" t="n">
-        <v>0.110822</v>
+        <v>0.137868</v>
       </c>
       <c r="D10" t="n">
-        <v>0.151304</v>
+        <v>0.129337</v>
       </c>
       <c r="E10" t="n">
-        <v>0.126581</v>
+        <v>0.108324</v>
       </c>
       <c r="F10" t="n">
-        <v>0.116871</v>
+        <v>0.116897</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.126938</v>
+        <v>0.174825</v>
       </c>
       <c r="C11" t="n">
-        <v>0.116322</v>
+        <v>0.111876</v>
       </c>
       <c r="D11" t="n">
-        <v>0.154391</v>
+        <v>0.193919</v>
       </c>
       <c r="E11" t="n">
-        <v>0.12792</v>
+        <v>0.165645</v>
       </c>
       <c r="F11" t="n">
-        <v>0.117707</v>
+        <v>0.173702</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.127773</v>
+        <v>0.133751</v>
       </c>
       <c r="C12" t="n">
-        <v>0.112558</v>
+        <v>0.143074</v>
       </c>
       <c r="D12" t="n">
-        <v>0.158329</v>
+        <v>0.204908</v>
       </c>
       <c r="E12" t="n">
-        <v>0.127501</v>
+        <v>0.168718</v>
       </c>
       <c r="F12" t="n">
-        <v>0.117456</v>
+        <v>0.17039</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.122807</v>
+        <v>0.162558</v>
       </c>
       <c r="C13" t="n">
-        <v>0.111211</v>
+        <v>0.160934</v>
       </c>
       <c r="D13" t="n">
-        <v>0.16302</v>
+        <v>0.236741</v>
       </c>
       <c r="E13" t="n">
-        <v>0.127459</v>
+        <v>0.16924</v>
       </c>
       <c r="F13" t="n">
-        <v>0.117436</v>
+        <v>0.173226</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.122828</v>
+        <v>0.174216</v>
       </c>
       <c r="C14" t="n">
-        <v>0.110709</v>
+        <v>0.166935</v>
       </c>
       <c r="D14" t="n">
-        <v>0.164256</v>
+        <v>0.216725</v>
       </c>
       <c r="E14" t="n">
-        <v>0.127805</v>
+        <v>0.142236</v>
       </c>
       <c r="F14" t="n">
-        <v>0.117784</v>
+        <v>0.173729</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1271</v>
+        <v>0.157662</v>
       </c>
       <c r="C15" t="n">
-        <v>0.111291</v>
+        <v>0.161729</v>
       </c>
       <c r="D15" t="n">
-        <v>0.167933</v>
+        <v>0.232893</v>
       </c>
       <c r="E15" t="n">
-        <v>0.129393</v>
+        <v>0.149171</v>
       </c>
       <c r="F15" t="n">
-        <v>0.119747</v>
+        <v>0.177611</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.125814</v>
+        <v>0.17945</v>
       </c>
       <c r="C16" t="n">
-        <v>0.111573</v>
+        <v>0.163339</v>
       </c>
       <c r="D16" t="n">
-        <v>0.174071</v>
+        <v>0.272192</v>
       </c>
       <c r="E16" t="n">
-        <v>0.128705</v>
+        <v>0.17129</v>
       </c>
       <c r="F16" t="n">
-        <v>0.118917</v>
+        <v>0.124976</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.124172</v>
+        <v>0.116994</v>
       </c>
       <c r="C17" t="n">
-        <v>0.110992</v>
+        <v>0.172762</v>
       </c>
       <c r="D17" t="n">
-        <v>0.179482</v>
+        <v>0.173496</v>
       </c>
       <c r="E17" t="n">
-        <v>0.12951</v>
+        <v>0.09669850000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>0.120363</v>
+        <v>0.0972523</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.125104</v>
+        <v>0.174219</v>
       </c>
       <c r="C18" t="n">
-        <v>0.112933</v>
+        <v>0.12609</v>
       </c>
       <c r="D18" t="n">
-        <v>0.180981</v>
+        <v>0.141219</v>
       </c>
       <c r="E18" t="n">
-        <v>0.130044</v>
+        <v>0.129557</v>
       </c>
       <c r="F18" t="n">
-        <v>0.11994</v>
+        <v>0.0849159</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.124982</v>
+        <v>0.124231</v>
       </c>
       <c r="C19" t="n">
-        <v>0.11354</v>
+        <v>0.140704</v>
       </c>
       <c r="D19" t="n">
-        <v>0.183262</v>
+        <v>0.202383</v>
       </c>
       <c r="E19" t="n">
-        <v>0.130592</v>
+        <v>0.151672</v>
       </c>
       <c r="F19" t="n">
-        <v>0.121268</v>
+        <v>0.120289</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.125521</v>
+        <v>0.100832</v>
       </c>
       <c r="C20" t="n">
-        <v>0.11492</v>
+        <v>0.139226</v>
       </c>
       <c r="D20" t="n">
-        <v>0.189408</v>
+        <v>0.233777</v>
       </c>
       <c r="E20" t="n">
-        <v>0.133069</v>
+        <v>0.09849289999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>0.122439</v>
+        <v>0.102173</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.125405</v>
+        <v>0.125191</v>
       </c>
       <c r="C21" t="n">
-        <v>0.113388</v>
+        <v>0.0808106</v>
       </c>
       <c r="D21" t="n">
-        <v>0.15297</v>
+        <v>0.150388</v>
       </c>
       <c r="E21" t="n">
-        <v>0.134518</v>
+        <v>0.102036</v>
       </c>
       <c r="F21" t="n">
-        <v>0.12463</v>
+        <v>0.130331</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.127025</v>
+        <v>0.103229</v>
       </c>
       <c r="C22" t="n">
-        <v>0.118229</v>
+        <v>0.0948813</v>
       </c>
       <c r="D22" t="n">
-        <v>0.155493</v>
+        <v>0.174914</v>
       </c>
       <c r="E22" t="n">
-        <v>0.138191</v>
+        <v>0.137177</v>
       </c>
       <c r="F22" t="n">
-        <v>0.128585</v>
+        <v>0.137284</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.135274</v>
+        <v>0.146624</v>
       </c>
       <c r="C23" t="n">
-        <v>0.118378</v>
+        <v>0.131902</v>
       </c>
       <c r="D23" t="n">
-        <v>0.160238</v>
+        <v>0.208019</v>
       </c>
       <c r="E23" t="n">
-        <v>0.132705</v>
+        <v>0.120831</v>
       </c>
       <c r="F23" t="n">
-        <v>0.123812</v>
+        <v>0.14278</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.135155</v>
+        <v>0.141078</v>
       </c>
       <c r="C24" t="n">
-        <v>0.126712</v>
+        <v>0.129512</v>
       </c>
       <c r="D24" t="n">
-        <v>0.168072</v>
+        <v>0.196059</v>
       </c>
       <c r="E24" t="n">
-        <v>0.134215</v>
+        <v>0.0926549</v>
       </c>
       <c r="F24" t="n">
-        <v>0.123727</v>
+        <v>0.156197</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134418</v>
+        <v>0.161023</v>
       </c>
       <c r="C25" t="n">
-        <v>0.124972</v>
+        <v>0.108733</v>
       </c>
       <c r="D25" t="n">
-        <v>0.163602</v>
+        <v>0.256664</v>
       </c>
       <c r="E25" t="n">
-        <v>0.132626</v>
+        <v>0.171587</v>
       </c>
       <c r="F25" t="n">
-        <v>0.122534</v>
+        <v>0.158611</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.13471</v>
+        <v>0.203057</v>
       </c>
       <c r="C26" t="n">
-        <v>0.125815</v>
+        <v>0.180194</v>
       </c>
       <c r="D26" t="n">
-        <v>0.167325</v>
+        <v>0.269441</v>
       </c>
       <c r="E26" t="n">
-        <v>0.132621</v>
+        <v>0.14232</v>
       </c>
       <c r="F26" t="n">
-        <v>0.12334</v>
+        <v>0.171969</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.134448</v>
+        <v>0.14039</v>
       </c>
       <c r="C27" t="n">
-        <v>0.125117</v>
+        <v>0.16911</v>
       </c>
       <c r="D27" t="n">
-        <v>0.170696</v>
+        <v>0.224945</v>
       </c>
       <c r="E27" t="n">
-        <v>0.133359</v>
+        <v>0.187227</v>
       </c>
       <c r="F27" t="n">
-        <v>0.12423</v>
+        <v>0.188165</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.132932</v>
+        <v>0.177486</v>
       </c>
       <c r="C28" t="n">
-        <v>0.12823</v>
+        <v>0.163653</v>
       </c>
       <c r="D28" t="n">
-        <v>0.174813</v>
+        <v>0.19782</v>
       </c>
       <c r="E28" t="n">
-        <v>0.133441</v>
+        <v>0.112376</v>
       </c>
       <c r="F28" t="n">
-        <v>0.123926</v>
+        <v>0.0985028</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.137911</v>
+        <v>0.185935</v>
       </c>
       <c r="C29" t="n">
-        <v>0.131158</v>
+        <v>0.11079</v>
       </c>
       <c r="D29" t="n">
-        <v>0.178512</v>
+        <v>0.305542</v>
       </c>
       <c r="E29" t="n">
-        <v>0.144907</v>
+        <v>0.157149</v>
       </c>
       <c r="F29" t="n">
-        <v>0.125339</v>
+        <v>0.170012</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.133922</v>
+        <v>0.160411</v>
       </c>
       <c r="C30" t="n">
-        <v>0.127464</v>
+        <v>0.161217</v>
       </c>
       <c r="D30" t="n">
-        <v>0.184219</v>
+        <v>0.177604</v>
       </c>
       <c r="E30" t="n">
-        <v>0.135398</v>
+        <v>0.1279</v>
       </c>
       <c r="F30" t="n">
-        <v>0.124478</v>
+        <v>0.150224</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.135148</v>
+        <v>0.130875</v>
       </c>
       <c r="C31" t="n">
-        <v>0.131593</v>
+        <v>0.0772727</v>
       </c>
       <c r="D31" t="n">
-        <v>0.188581</v>
+        <v>0.173658</v>
       </c>
       <c r="E31" t="n">
-        <v>0.135179</v>
+        <v>0.141534</v>
       </c>
       <c r="F31" t="n">
-        <v>0.126003</v>
+        <v>0.104498</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.134364</v>
+        <v>0.110568</v>
       </c>
       <c r="C32" t="n">
-        <v>0.131107</v>
+        <v>0.114875</v>
       </c>
       <c r="D32" t="n">
-        <v>0.189863</v>
+        <v>0.268798</v>
       </c>
       <c r="E32" t="n">
-        <v>0.136229</v>
+        <v>0.10511</v>
       </c>
       <c r="F32" t="n">
-        <v>0.127325</v>
+        <v>0.120829</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.134411</v>
+        <v>0.135952</v>
       </c>
       <c r="C33" t="n">
-        <v>0.126269</v>
+        <v>0.0951029</v>
       </c>
       <c r="D33" t="n">
-        <v>0.199769</v>
+        <v>0.191286</v>
       </c>
       <c r="E33" t="n">
-        <v>0.142435</v>
+        <v>0.0894803</v>
       </c>
       <c r="F33" t="n">
-        <v>0.12948</v>
+        <v>0.0928903</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.136009</v>
+        <v>0.149196</v>
       </c>
       <c r="C34" t="n">
-        <v>0.128076</v>
+        <v>0.09982530000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.204114</v>
+        <v>0.175759</v>
       </c>
       <c r="E34" t="n">
-        <v>0.142801</v>
+        <v>0.149926</v>
       </c>
       <c r="F34" t="n">
-        <v>0.131373</v>
+        <v>0.078141</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.137258</v>
+        <v>0.16323</v>
       </c>
       <c r="C35" t="n">
-        <v>0.134461</v>
+        <v>0.203175</v>
       </c>
       <c r="D35" t="n">
-        <v>0.167355</v>
+        <v>0.272569</v>
       </c>
       <c r="E35" t="n">
-        <v>0.144475</v>
+        <v>0.120494</v>
       </c>
       <c r="F35" t="n">
-        <v>0.134865</v>
+        <v>0.206857</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.141598</v>
+        <v>0.230012</v>
       </c>
       <c r="C36" t="n">
-        <v>0.133202</v>
+        <v>0.142505</v>
       </c>
       <c r="D36" t="n">
-        <v>0.172079</v>
+        <v>0.167514</v>
       </c>
       <c r="E36" t="n">
-        <v>0.14997</v>
+        <v>0.121068</v>
       </c>
       <c r="F36" t="n">
-        <v>0.140841</v>
+        <v>0.113347</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.142283</v>
+        <v>0.168644</v>
       </c>
       <c r="C37" t="n">
-        <v>0.135043</v>
+        <v>0.10496</v>
       </c>
       <c r="D37" t="n">
-        <v>0.177795</v>
+        <v>0.245485</v>
       </c>
       <c r="E37" t="n">
-        <v>0.142309</v>
+        <v>0.09128219999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>0.132062</v>
+        <v>0.156041</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.166824</v>
+        <v>0.117216</v>
       </c>
       <c r="C38" t="n">
-        <v>0.141967</v>
+        <v>0.122847</v>
       </c>
       <c r="D38" t="n">
-        <v>0.179611</v>
+        <v>0.202695</v>
       </c>
       <c r="E38" t="n">
-        <v>0.149647</v>
+        <v>0.1079</v>
       </c>
       <c r="F38" t="n">
-        <v>0.131799</v>
+        <v>0.128622</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.164655</v>
+        <v>0.221879</v>
       </c>
       <c r="C39" t="n">
-        <v>0.141642</v>
+        <v>0.166582</v>
       </c>
       <c r="D39" t="n">
-        <v>0.183673</v>
+        <v>0.118759</v>
       </c>
       <c r="E39" t="n">
-        <v>0.149586</v>
+        <v>0.15286</v>
       </c>
       <c r="F39" t="n">
-        <v>0.132453</v>
+        <v>0.123812</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.167839</v>
+        <v>0.214298</v>
       </c>
       <c r="C40" t="n">
-        <v>0.141083</v>
+        <v>0.110978</v>
       </c>
       <c r="D40" t="n">
-        <v>0.187097</v>
+        <v>0.135585</v>
       </c>
       <c r="E40" t="n">
-        <v>0.143311</v>
+        <v>0.103598</v>
       </c>
       <c r="F40" t="n">
-        <v>0.132478</v>
+        <v>0.104122</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.165767</v>
+        <v>0.167243</v>
       </c>
       <c r="C41" t="n">
-        <v>0.143131</v>
+        <v>0.122993</v>
       </c>
       <c r="D41" t="n">
-        <v>0.194852</v>
+        <v>0.275707</v>
       </c>
       <c r="E41" t="n">
-        <v>0.142475</v>
+        <v>0.186894</v>
       </c>
       <c r="F41" t="n">
-        <v>0.132604</v>
+        <v>0.175409</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.165877</v>
+        <v>0.218867</v>
       </c>
       <c r="C42" t="n">
-        <v>0.143202</v>
+        <v>0.170923</v>
       </c>
       <c r="D42" t="n">
-        <v>0.197424</v>
+        <v>0.284059</v>
       </c>
       <c r="E42" t="n">
-        <v>0.141926</v>
+        <v>0.16888</v>
       </c>
       <c r="F42" t="n">
-        <v>0.133327</v>
+        <v>0.180054</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.167615</v>
+        <v>0.195194</v>
       </c>
       <c r="C43" t="n">
-        <v>0.147396</v>
+        <v>0.171999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.208777</v>
+        <v>0.2584</v>
       </c>
       <c r="E43" t="n">
-        <v>0.145301</v>
+        <v>0.161476</v>
       </c>
       <c r="F43" t="n">
-        <v>0.13541</v>
+        <v>0.189272</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.168163</v>
+        <v>0.21376</v>
       </c>
       <c r="C44" t="n">
-        <v>0.144011</v>
+        <v>0.200075</v>
       </c>
       <c r="D44" t="n">
-        <v>0.211259</v>
+        <v>0.307845</v>
       </c>
       <c r="E44" t="n">
-        <v>0.143271</v>
+        <v>0.197977</v>
       </c>
       <c r="F44" t="n">
-        <v>0.135629</v>
+        <v>0.188152</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.171062</v>
+        <v>0.159284</v>
       </c>
       <c r="C45" t="n">
-        <v>0.145508</v>
+        <v>0.193107</v>
       </c>
       <c r="D45" t="n">
-        <v>0.217713</v>
+        <v>0.280372</v>
       </c>
       <c r="E45" t="n">
-        <v>0.145065</v>
+        <v>0.136247</v>
       </c>
       <c r="F45" t="n">
-        <v>0.136569</v>
+        <v>0.172477</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.165435</v>
+        <v>0.196111</v>
       </c>
       <c r="C46" t="n">
-        <v>0.143756</v>
+        <v>0.196843</v>
       </c>
       <c r="D46" t="n">
-        <v>0.224125</v>
+        <v>0.328421</v>
       </c>
       <c r="E46" t="n">
-        <v>0.144855</v>
+        <v>0.16307</v>
       </c>
       <c r="F46" t="n">
-        <v>0.137266</v>
+        <v>0.194674</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.166521</v>
+        <v>0.138922</v>
       </c>
       <c r="C47" t="n">
-        <v>0.145745</v>
+        <v>0.109082</v>
       </c>
       <c r="D47" t="n">
-        <v>0.228783</v>
+        <v>0.192424</v>
       </c>
       <c r="E47" t="n">
-        <v>0.147068</v>
+        <v>0.122978</v>
       </c>
       <c r="F47" t="n">
-        <v>0.143618</v>
+        <v>0.142858</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.173068</v>
+        <v>0.181433</v>
       </c>
       <c r="C48" t="n">
-        <v>0.157047</v>
+        <v>0.161998</v>
       </c>
       <c r="D48" t="n">
-        <v>0.234407</v>
+        <v>0.225505</v>
       </c>
       <c r="E48" t="n">
-        <v>0.148675</v>
+        <v>0.113833</v>
       </c>
       <c r="F48" t="n">
-        <v>0.142819</v>
+        <v>0.115248</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.171278</v>
+        <v>0.125463</v>
       </c>
       <c r="C49" t="n">
-        <v>0.151037</v>
+        <v>0.186952</v>
       </c>
       <c r="D49" t="n">
-        <v>0.23996</v>
+        <v>0.248825</v>
       </c>
       <c r="E49" t="n">
-        <v>0.15225</v>
+        <v>0.139706</v>
       </c>
       <c r="F49" t="n">
-        <v>0.146759</v>
+        <v>0.141087</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.172422</v>
+        <v>0.193829</v>
       </c>
       <c r="C50" t="n">
-        <v>0.15309</v>
+        <v>0.167873</v>
       </c>
       <c r="D50" t="n">
-        <v>0.20384</v>
+        <v>0.208242</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1573</v>
+        <v>0.13591</v>
       </c>
       <c r="F50" t="n">
-        <v>0.156549</v>
+        <v>0.16945</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173433</v>
+        <v>0.124752</v>
       </c>
       <c r="C51" t="n">
-        <v>0.154191</v>
+        <v>0.137307</v>
       </c>
       <c r="D51" t="n">
-        <v>0.202973</v>
+        <v>0.203524</v>
       </c>
       <c r="E51" t="n">
-        <v>0.249852</v>
+        <v>0.192544</v>
       </c>
       <c r="F51" t="n">
-        <v>0.149069</v>
+        <v>0.15713</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.178592</v>
+        <v>0.134159</v>
       </c>
       <c r="C52" t="n">
-        <v>0.158866</v>
+        <v>0.114559</v>
       </c>
       <c r="D52" t="n">
-        <v>0.209811</v>
+        <v>0.178135</v>
       </c>
       <c r="E52" t="n">
-        <v>0.251895</v>
+        <v>0.129768</v>
       </c>
       <c r="F52" t="n">
-        <v>0.144125</v>
+        <v>0.184157</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.337731</v>
+        <v>0.146251</v>
       </c>
       <c r="C53" t="n">
-        <v>0.164386</v>
+        <v>0.162467</v>
       </c>
       <c r="D53" t="n">
-        <v>0.217625</v>
+        <v>0.15006</v>
       </c>
       <c r="E53" t="n">
-        <v>0.25525</v>
+        <v>0.1313</v>
       </c>
       <c r="F53" t="n">
-        <v>0.147107</v>
+        <v>0.162591</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.340229</v>
+        <v>0.247994</v>
       </c>
       <c r="C54" t="n">
-        <v>0.163995</v>
+        <v>0.131502</v>
       </c>
       <c r="D54" t="n">
-        <v>0.220855</v>
+        <v>0.206589</v>
       </c>
       <c r="E54" t="n">
-        <v>0.252967</v>
+        <v>0.161626</v>
       </c>
       <c r="F54" t="n">
-        <v>0.148731</v>
+        <v>0.160462</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.353998</v>
+        <v>0.249934</v>
       </c>
       <c r="C55" t="n">
-        <v>0.171596</v>
+        <v>0.147188</v>
       </c>
       <c r="D55" t="n">
-        <v>0.229383</v>
+        <v>0.221581</v>
       </c>
       <c r="E55" t="n">
-        <v>0.250491</v>
+        <v>0.126763</v>
       </c>
       <c r="F55" t="n">
-        <v>0.146834</v>
+        <v>0.200942</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.348382</v>
+        <v>0.165037</v>
       </c>
       <c r="C56" t="n">
-        <v>0.163404</v>
+        <v>0.200313</v>
       </c>
       <c r="D56" t="n">
-        <v>0.233811</v>
+        <v>0.220011</v>
       </c>
       <c r="E56" t="n">
-        <v>0.253494</v>
+        <v>0.141147</v>
       </c>
       <c r="F56" t="n">
-        <v>0.149049</v>
+        <v>0.110112</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.336676</v>
+        <v>0.218663</v>
       </c>
       <c r="C57" t="n">
-        <v>0.165588</v>
+        <v>0.118048</v>
       </c>
       <c r="D57" t="n">
-        <v>0.241773</v>
+        <v>0.220901</v>
       </c>
       <c r="E57" t="n">
-        <v>0.252952</v>
+        <v>0.131776</v>
       </c>
       <c r="F57" t="n">
-        <v>0.151112</v>
+        <v>0.105196</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.333028</v>
+        <v>0.12462</v>
       </c>
       <c r="C58" t="n">
-        <v>0.164745</v>
+        <v>0.164585</v>
       </c>
       <c r="D58" t="n">
-        <v>0.250494</v>
+        <v>0.218355</v>
       </c>
       <c r="E58" t="n">
-        <v>0.253303</v>
+        <v>0.132247</v>
       </c>
       <c r="F58" t="n">
-        <v>0.151805</v>
+        <v>0.103899</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.332017</v>
+        <v>0.258356</v>
       </c>
       <c r="C59" t="n">
-        <v>0.171389</v>
+        <v>0.106151</v>
       </c>
       <c r="D59" t="n">
-        <v>0.258215</v>
+        <v>0.158284</v>
       </c>
       <c r="E59" t="n">
-        <v>0.252066</v>
+        <v>0.159472</v>
       </c>
       <c r="F59" t="n">
-        <v>0.15362</v>
+        <v>0.11875</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.336061</v>
+        <v>0.151963</v>
       </c>
       <c r="C60" t="n">
-        <v>0.17627</v>
+        <v>0.225928</v>
       </c>
       <c r="D60" t="n">
-        <v>0.266462</v>
+        <v>0.321017</v>
       </c>
       <c r="E60" t="n">
-        <v>0.255392</v>
+        <v>0.173008</v>
       </c>
       <c r="F60" t="n">
-        <v>0.160303</v>
+        <v>0.157114</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.33232</v>
+        <v>0.177956</v>
       </c>
       <c r="C61" t="n">
-        <v>0.172777</v>
+        <v>0.146105</v>
       </c>
       <c r="D61" t="n">
-        <v>0.274301</v>
+        <v>0.249204</v>
       </c>
       <c r="E61" t="n">
-        <v>0.257428</v>
+        <v>0.139772</v>
       </c>
       <c r="F61" t="n">
-        <v>0.158317</v>
+        <v>0.159554</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.328038</v>
+        <v>0.197454</v>
       </c>
       <c r="C62" t="n">
-        <v>0.174008</v>
+        <v>0.149189</v>
       </c>
       <c r="D62" t="n">
-        <v>0.282841</v>
+        <v>0.294852</v>
       </c>
       <c r="E62" t="n">
-        <v>0.257344</v>
+        <v>0.200485</v>
       </c>
       <c r="F62" t="n">
-        <v>0.169871</v>
+        <v>0.146489</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.330953</v>
+        <v>0.196624</v>
       </c>
       <c r="C63" t="n">
-        <v>0.17762</v>
+        <v>0.163789</v>
       </c>
       <c r="D63" t="n">
-        <v>0.293899</v>
+        <v>0.277138</v>
       </c>
       <c r="E63" t="n">
-        <v>0.255562</v>
+        <v>0.159647</v>
       </c>
       <c r="F63" t="n">
-        <v>0.169615</v>
+        <v>0.189153</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.333127</v>
+        <v>0.258249</v>
       </c>
       <c r="C64" t="n">
-        <v>0.181002</v>
+        <v>0.242776</v>
       </c>
       <c r="D64" t="n">
-        <v>0.266551</v>
+        <v>0.204169</v>
       </c>
       <c r="E64" t="n">
-        <v>0.263562</v>
+        <v>0.130995</v>
       </c>
       <c r="F64" t="n">
-        <v>0.185966</v>
+        <v>0.229584</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.338442</v>
+        <v>0.149004</v>
       </c>
       <c r="C65" t="n">
-        <v>0.189837</v>
+        <v>0.201278</v>
       </c>
       <c r="D65" t="n">
-        <v>0.28478</v>
+        <v>0.168712</v>
       </c>
       <c r="E65" t="n">
-        <v>0.27091</v>
+        <v>0.173629</v>
       </c>
       <c r="F65" t="n">
-        <v>0.189813</v>
+        <v>0.198709</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.350286</v>
+        <v>0.203722</v>
       </c>
       <c r="C66" t="n">
-        <v>0.202833</v>
+        <v>0.240283</v>
       </c>
       <c r="D66" t="n">
-        <v>0.286026</v>
+        <v>0.202791</v>
       </c>
       <c r="E66" t="n">
-        <v>0.376804</v>
+        <v>0.113211</v>
       </c>
       <c r="F66" t="n">
-        <v>0.239438</v>
+        <v>0.161408</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.552365</v>
+        <v>0.155144</v>
       </c>
       <c r="C67" t="n">
-        <v>0.248995</v>
+        <v>0.188763</v>
       </c>
       <c r="D67" t="n">
-        <v>0.301364</v>
+        <v>0.187185</v>
       </c>
       <c r="E67" t="n">
-        <v>0.384235</v>
+        <v>0.198312</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2434</v>
+        <v>0.179047</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.544755</v>
+        <v>0.240211</v>
       </c>
       <c r="C68" t="n">
-        <v>0.248475</v>
+        <v>0.221233</v>
       </c>
       <c r="D68" t="n">
-        <v>0.309234</v>
+        <v>0.170724</v>
       </c>
       <c r="E68" t="n">
-        <v>0.389194</v>
+        <v>0.194903</v>
       </c>
       <c r="F68" t="n">
-        <v>0.242588</v>
+        <v>0.121255</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.543532</v>
+        <v>0.244449</v>
       </c>
       <c r="C69" t="n">
-        <v>0.254739</v>
+        <v>0.234994</v>
       </c>
       <c r="D69" t="n">
-        <v>0.318729</v>
+        <v>0.188997</v>
       </c>
       <c r="E69" t="n">
-        <v>0.390922</v>
+        <v>0.123686</v>
       </c>
       <c r="F69" t="n">
-        <v>0.251893</v>
+        <v>0.142855</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.555837</v>
+        <v>0.212567</v>
       </c>
       <c r="C70" t="n">
-        <v>0.250958</v>
+        <v>0.243582</v>
       </c>
       <c r="D70" t="n">
-        <v>0.32728</v>
+        <v>0.23076</v>
       </c>
       <c r="E70" t="n">
-        <v>0.390752</v>
+        <v>0.128204</v>
       </c>
       <c r="F70" t="n">
-        <v>0.252352</v>
+        <v>0.183986</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.552557</v>
+        <v>0.224697</v>
       </c>
       <c r="C71" t="n">
-        <v>0.251364</v>
+        <v>0.225744</v>
       </c>
       <c r="D71" t="n">
-        <v>0.340841</v>
+        <v>0.181004</v>
       </c>
       <c r="E71" t="n">
-        <v>0.400088</v>
+        <v>0.188423</v>
       </c>
       <c r="F71" t="n">
-        <v>0.275714</v>
+        <v>0.17582</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.550315</v>
+        <v>0.259031</v>
       </c>
       <c r="C72" t="n">
-        <v>0.255376</v>
+        <v>0.181862</v>
       </c>
       <c r="D72" t="n">
-        <v>0.358454</v>
+        <v>0.245874</v>
       </c>
       <c r="E72" t="n">
-        <v>0.391447</v>
+        <v>0.148002</v>
       </c>
       <c r="F72" t="n">
-        <v>0.254287</v>
+        <v>0.125161</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.55303</v>
+        <v>0.206746</v>
       </c>
       <c r="C73" t="n">
-        <v>0.257742</v>
+        <v>0.230945</v>
       </c>
       <c r="D73" t="n">
-        <v>0.365729</v>
+        <v>0.259246</v>
       </c>
       <c r="E73" t="n">
-        <v>0.392084</v>
+        <v>0.160597</v>
       </c>
       <c r="F73" t="n">
-        <v>0.260694</v>
+        <v>0.168045</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.564009</v>
+        <v>0.192554</v>
       </c>
       <c r="C74" t="n">
-        <v>0.260187</v>
+        <v>0.215697</v>
       </c>
       <c r="D74" t="n">
-        <v>0.402526</v>
+        <v>0.231542</v>
       </c>
       <c r="E74" t="n">
-        <v>0.398455</v>
+        <v>0.179829</v>
       </c>
       <c r="F74" t="n">
-        <v>0.26609</v>
+        <v>0.119954</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.554395</v>
+        <v>0.217171</v>
       </c>
       <c r="C75" t="n">
-        <v>0.260037</v>
+        <v>0.192463</v>
       </c>
       <c r="D75" t="n">
-        <v>0.397257</v>
+        <v>0.300604</v>
       </c>
       <c r="E75" t="n">
-        <v>0.40501</v>
+        <v>0.196385</v>
       </c>
       <c r="F75" t="n">
-        <v>0.263662</v>
+        <v>0.145795</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.557625</v>
+        <v>0.200083</v>
       </c>
       <c r="C76" t="n">
-        <v>0.270237</v>
+        <v>0.156158</v>
       </c>
       <c r="D76" t="n">
-        <v>0.426901</v>
+        <v>0.349097</v>
       </c>
       <c r="E76" t="n">
-        <v>0.413891</v>
+        <v>0.229897</v>
       </c>
       <c r="F76" t="n">
-        <v>0.272197</v>
+        <v>0.184906</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.589707</v>
+        <v>0.314942</v>
       </c>
       <c r="C77" t="n">
-        <v>0.265548</v>
+        <v>0.202092</v>
       </c>
       <c r="D77" t="n">
-        <v>0.426806</v>
+        <v>0.414406</v>
       </c>
       <c r="E77" t="n">
-        <v>0.41368</v>
+        <v>0.154342</v>
       </c>
       <c r="F77" t="n">
-        <v>0.275466</v>
+        <v>0.234021</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.570865</v>
+        <v>0.31938</v>
       </c>
       <c r="C78" t="n">
-        <v>0.270555</v>
+        <v>0.185265</v>
       </c>
       <c r="D78" t="n">
-        <v>0.400968</v>
+        <v>0.24899</v>
       </c>
       <c r="E78" t="n">
-        <v>0.404002</v>
+        <v>0.245348</v>
       </c>
       <c r="F78" t="n">
-        <v>0.27954</v>
+        <v>0.239385</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.587595</v>
+        <v>0.32248</v>
       </c>
       <c r="C79" t="n">
-        <v>0.274512</v>
+        <v>0.292418</v>
       </c>
       <c r="D79" t="n">
-        <v>0.413199</v>
+        <v>0.20096</v>
       </c>
       <c r="E79" t="n">
-        <v>0.423882</v>
+        <v>0.176173</v>
       </c>
       <c r="F79" t="n">
-        <v>0.291984</v>
+        <v>0.158906</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.602261</v>
+        <v>0.284549</v>
       </c>
       <c r="C80" t="n">
-        <v>0.282681</v>
+        <v>0.212802</v>
       </c>
       <c r="D80" t="n">
-        <v>0.422048</v>
+        <v>0.204792</v>
       </c>
       <c r="E80" t="n">
-        <v>0.655365</v>
+        <v>0.205227</v>
       </c>
       <c r="F80" t="n">
-        <v>0.508012</v>
+        <v>0.156299</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.845066</v>
+        <v>0.344996</v>
       </c>
       <c r="C81" t="n">
-        <v>0.405681</v>
+        <v>0.2876</v>
       </c>
       <c r="D81" t="n">
-        <v>0.471289</v>
+        <v>0.38382</v>
       </c>
       <c r="E81" t="n">
-        <v>0.662983</v>
+        <v>0.209035</v>
       </c>
       <c r="F81" t="n">
-        <v>0.492318</v>
+        <v>0.150661</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.874178</v>
+        <v>0.477871</v>
       </c>
       <c r="C82" t="n">
-        <v>0.440081</v>
+        <v>0.27781</v>
       </c>
       <c r="D82" t="n">
-        <v>0.450892</v>
+        <v>0.373594</v>
       </c>
       <c r="E82" t="n">
-        <v>0.675733</v>
+        <v>0.239039</v>
       </c>
       <c r="F82" t="n">
-        <v>0.515894</v>
+        <v>0.210124</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.842583</v>
+        <v>0.434779</v>
       </c>
       <c r="C83" t="n">
-        <v>0.398786</v>
+        <v>0.260017</v>
       </c>
       <c r="D83" t="n">
-        <v>0.452744</v>
+        <v>0.308674</v>
       </c>
       <c r="E83" t="n">
-        <v>0.692946</v>
+        <v>0.221585</v>
       </c>
       <c r="F83" t="n">
-        <v>0.484162</v>
+        <v>0.180157</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.854245</v>
+        <v>0.38808</v>
       </c>
       <c r="C84" t="n">
-        <v>0.395106</v>
+        <v>0.214999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.471736</v>
+        <v>0.367132</v>
       </c>
       <c r="E84" t="n">
-        <v>0.683229</v>
+        <v>0.257125</v>
       </c>
       <c r="F84" t="n">
-        <v>0.485601</v>
+        <v>0.221851</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.871882</v>
+        <v>0.337841</v>
       </c>
       <c r="C85" t="n">
-        <v>0.444113</v>
+        <v>0.271926</v>
       </c>
       <c r="D85" t="n">
-        <v>0.476564</v>
+        <v>0.386936</v>
       </c>
       <c r="E85" t="n">
-        <v>0.658466</v>
+        <v>0.219117</v>
       </c>
       <c r="F85" t="n">
-        <v>0.493459</v>
+        <v>0.160999</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.850007</v>
+        <v>0.323712</v>
       </c>
       <c r="C86" t="n">
-        <v>0.398996</v>
+        <v>0.279314</v>
       </c>
       <c r="D86" t="n">
-        <v>0.499719</v>
+        <v>0.342849</v>
       </c>
       <c r="E86" t="n">
-        <v>0.660677</v>
+        <v>0.230824</v>
       </c>
       <c r="F86" t="n">
-        <v>0.487628</v>
+        <v>0.166325</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.847575</v>
+        <v>0.38469</v>
       </c>
       <c r="C87" t="n">
-        <v>0.415543</v>
+        <v>0.268676</v>
       </c>
       <c r="D87" t="n">
-        <v>0.518961</v>
+        <v>0.392882</v>
       </c>
       <c r="E87" t="n">
-        <v>0.679782</v>
+        <v>0.270668</v>
       </c>
       <c r="F87" t="n">
-        <v>0.503647</v>
+        <v>0.196355</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.854924</v>
+        <v>0.461885</v>
       </c>
       <c r="C88" t="n">
-        <v>0.40762</v>
+        <v>0.203282</v>
       </c>
       <c r="D88" t="n">
-        <v>0.524097</v>
+        <v>0.414743</v>
       </c>
       <c r="E88" t="n">
-        <v>0.669735</v>
+        <v>0.246903</v>
       </c>
       <c r="F88" t="n">
-        <v>0.496883</v>
+        <v>0.168064</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.858411</v>
+        <v>0.391496</v>
       </c>
       <c r="C89" t="n">
-        <v>0.452216</v>
+        <v>0.236099</v>
       </c>
       <c r="D89" t="n">
-        <v>0.535236</v>
+        <v>0.467405</v>
       </c>
       <c r="E89" t="n">
-        <v>0.663111</v>
+        <v>0.234228</v>
       </c>
       <c r="F89" t="n">
-        <v>0.529605</v>
+        <v>0.216044</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.859451</v>
+        <v>0.435118</v>
       </c>
       <c r="C90" t="n">
-        <v>0.405974</v>
+        <v>0.245335</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5508960000000001</v>
+        <v>0.440303</v>
       </c>
       <c r="E90" t="n">
-        <v>0.691059</v>
+        <v>0.234893</v>
       </c>
       <c r="F90" t="n">
-        <v>0.536264</v>
+        <v>0.250261</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.853743</v>
+        <v>0.390575</v>
       </c>
       <c r="C91" t="n">
-        <v>0.412021</v>
+        <v>0.303107</v>
       </c>
       <c r="D91" t="n">
-        <v>0.570393</v>
+        <v>0.403868</v>
       </c>
       <c r="E91" t="n">
-        <v>0.666596</v>
+        <v>0.255019</v>
       </c>
       <c r="F91" t="n">
-        <v>0.520258</v>
+        <v>0.269789</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.872241</v>
+        <v>0.395101</v>
       </c>
       <c r="C92" t="n">
-        <v>0.430905</v>
+        <v>0.271081</v>
       </c>
       <c r="D92" t="n">
-        <v>0.575648</v>
+        <v>0.370445</v>
       </c>
       <c r="E92" t="n">
-        <v>0.676609</v>
+        <v>0.284188</v>
       </c>
       <c r="F92" t="n">
-        <v>0.512648</v>
+        <v>0.218823</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.856973</v>
+        <v>0.38121</v>
       </c>
       <c r="C93" t="n">
-        <v>0.450104</v>
+        <v>0.300446</v>
       </c>
       <c r="D93" t="n">
-        <v>0.549472</v>
+        <v>0.368231</v>
       </c>
       <c r="E93" t="n">
-        <v>0.671596</v>
+        <v>0.214351</v>
       </c>
       <c r="F93" t="n">
-        <v>0.520297</v>
+        <v>0.206411</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.853371</v>
+        <v>0.378475</v>
       </c>
       <c r="C94" t="n">
-        <v>0.429429</v>
+        <v>0.333513</v>
       </c>
       <c r="D94" t="n">
-        <v>0.588625</v>
+        <v>0.376707</v>
       </c>
       <c r="E94" t="n">
-        <v>0.911485</v>
+        <v>0.349825</v>
       </c>
       <c r="F94" t="n">
-        <v>0.832131</v>
+        <v>0.311735</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.05655</v>
+        <v>0.631195</v>
       </c>
       <c r="C95" t="n">
-        <v>0.645622</v>
+        <v>0.245095</v>
       </c>
       <c r="D95" t="n">
-        <v>0.607899</v>
+        <v>0.455409</v>
       </c>
       <c r="E95" t="n">
-        <v>0.94407</v>
+        <v>0.287867</v>
       </c>
       <c r="F95" t="n">
-        <v>0.835694</v>
+        <v>0.290263</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.1075</v>
+        <v>0.582194</v>
       </c>
       <c r="C96" t="n">
-        <v>0.629256</v>
+        <v>0.303864</v>
       </c>
       <c r="D96" t="n">
-        <v>0.582786</v>
+        <v>0.408641</v>
       </c>
       <c r="E96" t="n">
-        <v>0.951744</v>
+        <v>0.292757</v>
       </c>
       <c r="F96" t="n">
-        <v>0.893527</v>
+        <v>0.232092</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.14666</v>
+        <v>0.591014</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6435419999999999</v>
+        <v>0.259916</v>
       </c>
       <c r="D97" t="n">
-        <v>0.605098</v>
+        <v>0.5158430000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9172360000000001</v>
+        <v>0.326234</v>
       </c>
       <c r="F97" t="n">
-        <v>0.830508</v>
+        <v>0.302806</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.06706</v>
+        <v>0.5907750000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.600464</v>
+        <v>0.29064</v>
       </c>
       <c r="D98" t="n">
-        <v>0.62112</v>
+        <v>0.469906</v>
       </c>
       <c r="E98" t="n">
-        <v>0.917552</v>
+        <v>0.329957</v>
       </c>
       <c r="F98" t="n">
-        <v>0.876385</v>
+        <v>0.296846</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.06694</v>
+        <v>0.605137</v>
       </c>
       <c r="C99" t="n">
-        <v>0.607716</v>
+        <v>0.283729</v>
       </c>
       <c r="D99" t="n">
-        <v>0.620053</v>
+        <v>0.451533</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9577</v>
+        <v>0.287579</v>
       </c>
       <c r="F99" t="n">
-        <v>0.91465</v>
+        <v>0.245821</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.06299</v>
+        <v>0.551783</v>
       </c>
       <c r="C100" t="n">
-        <v>0.60733</v>
+        <v>0.305386</v>
       </c>
       <c r="D100" t="n">
-        <v>0.63114</v>
+        <v>0.601958</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9534859999999999</v>
+        <v>0.348114</v>
       </c>
       <c r="F100" t="n">
-        <v>0.866449</v>
+        <v>0.325659</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.12242</v>
+        <v>0.617779</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6534489999999999</v>
+        <v>0.357493</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6645720000000001</v>
+        <v>0.549018</v>
       </c>
       <c r="E101" t="n">
-        <v>0.968209</v>
+        <v>0.325627</v>
       </c>
       <c r="F101" t="n">
-        <v>0.888393</v>
+        <v>0.287126</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.12915</v>
+        <v>0.627649</v>
       </c>
       <c r="C102" t="n">
-        <v>0.646058</v>
+        <v>0.347016</v>
       </c>
       <c r="D102" t="n">
-        <v>0.678732</v>
+        <v>0.524854</v>
       </c>
       <c r="E102" t="n">
-        <v>0.957078</v>
+        <v>0.327472</v>
       </c>
       <c r="F102" t="n">
-        <v>0.889419</v>
+        <v>0.249547</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.10833</v>
+        <v>0.705443</v>
       </c>
       <c r="C103" t="n">
-        <v>0.6039949999999999</v>
+        <v>0.318815</v>
       </c>
       <c r="D103" t="n">
-        <v>0.679853</v>
+        <v>0.625494</v>
       </c>
       <c r="E103" t="n">
-        <v>0.960815</v>
+        <v>0.360652</v>
       </c>
       <c r="F103" t="n">
-        <v>0.898381</v>
+        <v>0.267828</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.12604</v>
+        <v>0.550365</v>
       </c>
       <c r="C104" t="n">
-        <v>0.6115080000000001</v>
+        <v>0.379327</v>
       </c>
       <c r="D104" t="n">
-        <v>0.732044</v>
+        <v>0.53096</v>
       </c>
       <c r="E104" t="n">
-        <v>0.910798</v>
+        <v>0.343093</v>
       </c>
       <c r="F104" t="n">
-        <v>0.852248</v>
+        <v>0.303672</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.07301</v>
+        <v>0.687168</v>
       </c>
       <c r="C105" t="n">
-        <v>0.610105</v>
+        <v>0.238903</v>
       </c>
       <c r="D105" t="n">
-        <v>0.71953</v>
+        <v>0.535326</v>
       </c>
       <c r="E105" t="n">
-        <v>0.926798</v>
+        <v>0.368277</v>
       </c>
       <c r="F105" t="n">
-        <v>0.884782</v>
+        <v>0.318824</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.0806</v>
+        <v>0.723875</v>
       </c>
       <c r="C106" t="n">
-        <v>0.617824</v>
+        <v>0.259501</v>
       </c>
       <c r="D106" t="n">
-        <v>0.727186</v>
+        <v>0.632939</v>
       </c>
       <c r="E106" t="n">
-        <v>0.952195</v>
+        <v>0.387744</v>
       </c>
       <c r="F106" t="n">
-        <v>0.933459</v>
+        <v>0.31318</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.09794</v>
+        <v>0.693045</v>
       </c>
       <c r="C107" t="n">
-        <v>0.626153</v>
+        <v>0.281561</v>
       </c>
       <c r="D107" t="n">
-        <v>0.684333</v>
+        <v>0.6582170000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>0.932003</v>
+        <v>0.299403</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8733030000000001</v>
+        <v>0.282135</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.07533</v>
+        <v>0.682198</v>
       </c>
       <c r="C108" t="n">
-        <v>0.664837</v>
+        <v>0.357954</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6621089999999999</v>
+        <v>0.602666</v>
       </c>
       <c r="E108" t="n">
-        <v>1.16279</v>
+        <v>0.388124</v>
       </c>
       <c r="F108" t="n">
-        <v>1.16637</v>
+        <v>0.3984</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.09277</v>
+        <v>0.668569</v>
       </c>
       <c r="C109" t="n">
-        <v>0.643154</v>
+        <v>0.317803</v>
       </c>
       <c r="D109" t="n">
-        <v>0.68402</v>
+        <v>0.670663</v>
       </c>
       <c r="E109" t="n">
-        <v>1.1361</v>
+        <v>0.443116</v>
       </c>
       <c r="F109" t="n">
-        <v>1.15181</v>
+        <v>0.432046</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.3304</v>
+        <v>0.738811</v>
       </c>
       <c r="C110" t="n">
-        <v>0.740475</v>
+        <v>0.501625</v>
       </c>
       <c r="D110" t="n">
-        <v>0.702327</v>
+        <v>0.62646</v>
       </c>
       <c r="E110" t="n">
-        <v>1.12483</v>
+        <v>0.431405</v>
       </c>
       <c r="F110" t="n">
-        <v>1.1703</v>
+        <v>0.357428</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.32952</v>
+        <v>0.785689</v>
       </c>
       <c r="C111" t="n">
-        <v>0.73724</v>
+        <v>0.504377</v>
       </c>
       <c r="D111" t="n">
-        <v>0.703452</v>
+        <v>0.613667</v>
       </c>
       <c r="E111" t="n">
-        <v>1.13956</v>
+        <v>0.410808</v>
       </c>
       <c r="F111" t="n">
-        <v>1.16924</v>
+        <v>0.402392</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.30638</v>
+        <v>0.69762</v>
       </c>
       <c r="C112" t="n">
-        <v>0.777512</v>
+        <v>0.568733</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7108179999999999</v>
+        <v>0.679181</v>
       </c>
       <c r="E112" t="n">
-        <v>1.14091</v>
+        <v>0.474833</v>
       </c>
       <c r="F112" t="n">
-        <v>1.18787</v>
+        <v>0.410442</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.31215</v>
+        <v>0.8003440000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>0.7525500000000001</v>
+        <v>0.582242</v>
       </c>
       <c r="D113" t="n">
-        <v>0.722596</v>
+        <v>0.600293</v>
       </c>
       <c r="E113" t="n">
-        <v>1.16605</v>
+        <v>0.427041</v>
       </c>
       <c r="F113" t="n">
-        <v>1.18924</v>
+        <v>0.39829</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.36062</v>
+        <v>0.740791</v>
       </c>
       <c r="C114" t="n">
-        <v>0.771295</v>
+        <v>0.512646</v>
       </c>
       <c r="D114" t="n">
-        <v>0.743513</v>
+        <v>0.764589</v>
       </c>
       <c r="E114" t="n">
-        <v>1.13472</v>
+        <v>0.433196</v>
       </c>
       <c r="F114" t="n">
-        <v>1.17443</v>
+        <v>0.381066</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.33685</v>
+        <v>0.765578</v>
       </c>
       <c r="C115" t="n">
-        <v>0.76059</v>
+        <v>0.510815</v>
       </c>
       <c r="D115" t="n">
-        <v>0.749935</v>
+        <v>0.634533</v>
       </c>
       <c r="E115" t="n">
-        <v>1.15244</v>
+        <v>0.41678</v>
       </c>
       <c r="F115" t="n">
-        <v>1.23979</v>
+        <v>0.339537</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.31919</v>
+        <v>0.860375</v>
       </c>
       <c r="C116" t="n">
-        <v>0.753849</v>
+        <v>0.46821</v>
       </c>
       <c r="D116" t="n">
-        <v>0.765138</v>
+        <v>0.645819</v>
       </c>
       <c r="E116" t="n">
-        <v>1.14405</v>
+        <v>0.442313</v>
       </c>
       <c r="F116" t="n">
-        <v>1.21347</v>
+        <v>0.41145</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.30445</v>
+        <v>0.694452</v>
       </c>
       <c r="C117" t="n">
-        <v>0.75544</v>
+        <v>0.483441</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7840240000000001</v>
+        <v>0.719946</v>
       </c>
       <c r="E117" t="n">
-        <v>1.15117</v>
+        <v>0.41239</v>
       </c>
       <c r="F117" t="n">
-        <v>1.21608</v>
+        <v>0.388612</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.29704</v>
+        <v>0.745205</v>
       </c>
       <c r="C118" t="n">
-        <v>0.755071</v>
+        <v>0.558096</v>
       </c>
       <c r="D118" t="n">
-        <v>0.795024</v>
+        <v>0.814707</v>
       </c>
       <c r="E118" t="n">
-        <v>1.21661</v>
+        <v>0.492302</v>
       </c>
       <c r="F118" t="n">
-        <v>1.27075</v>
+        <v>0.399669</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.31672</v>
+        <v>0.7469</v>
       </c>
       <c r="C119" t="n">
-        <v>0.774973</v>
+        <v>0.5169550000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.824805</v>
+        <v>0.86077</v>
       </c>
       <c r="E119" t="n">
-        <v>1.16965</v>
+        <v>0.465673</v>
       </c>
       <c r="F119" t="n">
-        <v>1.21266</v>
+        <v>0.406379</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.32372</v>
+        <v>0.771848</v>
       </c>
       <c r="C120" t="n">
-        <v>0.76373</v>
+        <v>0.541762</v>
       </c>
       <c r="D120" t="n">
-        <v>0.868883</v>
+        <v>0.810625</v>
       </c>
       <c r="E120" t="n">
-        <v>1.20161</v>
+        <v>0.42634</v>
       </c>
       <c r="F120" t="n">
-        <v>1.22759</v>
+        <v>0.468371</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.3309</v>
+        <v>0.792385</v>
       </c>
       <c r="C121" t="n">
-        <v>0.793589</v>
+        <v>0.551663</v>
       </c>
       <c r="D121" t="n">
-        <v>0.729301</v>
+        <v>0.631217</v>
       </c>
       <c r="E121" t="n">
-        <v>1.32071</v>
+        <v>0.433396</v>
       </c>
       <c r="F121" t="n">
-        <v>1.25707</v>
+        <v>0.482507</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.30081</v>
+        <v>0.702909</v>
       </c>
       <c r="C122" t="n">
-        <v>0.782173</v>
+        <v>0.598812</v>
       </c>
       <c r="D122" t="n">
-        <v>0.761582</v>
+        <v>0.680887</v>
       </c>
       <c r="E122" t="n">
-        <v>1.18513</v>
+        <v>0.47288</v>
       </c>
       <c r="F122" t="n">
-        <v>1.22938</v>
+        <v>0.375855</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.31201</v>
+        <v>0.781396</v>
       </c>
       <c r="C123" t="n">
-        <v>0.789664</v>
+        <v>0.56741</v>
       </c>
       <c r="D123" t="n">
-        <v>0.755991</v>
+        <v>0.59259</v>
       </c>
       <c r="E123" t="n">
-        <v>1.49424</v>
+        <v>0.447388</v>
       </c>
       <c r="F123" t="n">
-        <v>1.43262</v>
+        <v>0.504012</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.78209</v>
+        <v>0.853267</v>
       </c>
       <c r="C124" t="n">
-        <v>0.916977</v>
+        <v>0.6629660000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.780958</v>
+        <v>0.7528820000000001</v>
       </c>
       <c r="E124" t="n">
-        <v>1.51411</v>
+        <v>0.476202</v>
       </c>
       <c r="F124" t="n">
-        <v>1.42979</v>
+        <v>0.561063</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.71641</v>
+        <v>0.816101</v>
       </c>
       <c r="C125" t="n">
-        <v>0.887078</v>
+        <v>0.725687</v>
       </c>
       <c r="D125" t="n">
-        <v>0.789256</v>
+        <v>0.5942229999999999</v>
       </c>
       <c r="E125" t="n">
-        <v>1.52249</v>
+        <v>0.530768</v>
       </c>
       <c r="F125" t="n">
-        <v>1.43156</v>
+        <v>0.446814</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.74768</v>
+        <v>0.80885</v>
       </c>
       <c r="C126" t="n">
-        <v>0.888269</v>
+        <v>0.686318</v>
       </c>
       <c r="D126" t="n">
-        <v>0.800034</v>
+        <v>0.698557</v>
       </c>
       <c r="E126" t="n">
-        <v>1.55026</v>
+        <v>0.513818</v>
       </c>
       <c r="F126" t="n">
-        <v>1.4288</v>
+        <v>0.514176</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.77611</v>
+        <v>0.809386</v>
       </c>
       <c r="C127" t="n">
-        <v>0.901217</v>
+        <v>0.72646</v>
       </c>
       <c r="D127" t="n">
-        <v>0.812618</v>
+        <v>0.709029</v>
       </c>
       <c r="E127" t="n">
-        <v>1.52182</v>
+        <v>0.469546</v>
       </c>
       <c r="F127" t="n">
-        <v>1.43283</v>
+        <v>0.532791</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.72555</v>
+        <v>0.841635</v>
       </c>
       <c r="C128" t="n">
-        <v>0.912242</v>
+        <v>0.763561</v>
       </c>
       <c r="D128" t="n">
-        <v>0.819037</v>
+        <v>0.77765</v>
       </c>
       <c r="E128" t="n">
-        <v>1.52028</v>
+        <v>0.451785</v>
       </c>
       <c r="F128" t="n">
-        <v>1.43664</v>
+        <v>0.477816</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.79027</v>
+        <v>0.746469</v>
       </c>
       <c r="C129" t="n">
-        <v>0.903411</v>
+        <v>0.650608</v>
       </c>
       <c r="D129" t="n">
-        <v>0.843348</v>
+        <v>0.700129</v>
       </c>
       <c r="E129" t="n">
-        <v>1.51942</v>
+        <v>0.51458</v>
       </c>
       <c r="F129" t="n">
-        <v>1.42353</v>
+        <v>0.439007</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.72935</v>
+        <v>0.827398</v>
       </c>
       <c r="C130" t="n">
-        <v>0.906434</v>
+        <v>0.694483</v>
       </c>
       <c r="D130" t="n">
-        <v>0.859788</v>
+        <v>0.813014</v>
       </c>
       <c r="E130" t="n">
-        <v>1.52704</v>
+        <v>0.462724</v>
       </c>
       <c r="F130" t="n">
-        <v>1.49745</v>
+        <v>0.495237</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.72937</v>
+        <v>0.895497</v>
       </c>
       <c r="C131" t="n">
-        <v>0.903807</v>
+        <v>0.708325</v>
       </c>
       <c r="D131" t="n">
-        <v>0.877768</v>
+        <v>0.717869</v>
       </c>
       <c r="E131" t="n">
-        <v>1.51474</v>
+        <v>0.514253</v>
       </c>
       <c r="F131" t="n">
-        <v>1.45015</v>
+        <v>0.445282</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.72946</v>
+        <v>0.875178</v>
       </c>
       <c r="C132" t="n">
-        <v>0.907711</v>
+        <v>0.743848</v>
       </c>
       <c r="D132" t="n">
-        <v>0.903826</v>
+        <v>0.7352919999999999</v>
       </c>
       <c r="E132" t="n">
-        <v>1.52795</v>
+        <v>0.5329930000000001</v>
       </c>
       <c r="F132" t="n">
-        <v>1.46995</v>
+        <v>0.46966</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.74607</v>
+        <v>0.818316</v>
       </c>
       <c r="C133" t="n">
-        <v>0.903485</v>
+        <v>0.7068179999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.929837</v>
+        <v>0.845393</v>
       </c>
       <c r="E133" t="n">
-        <v>1.51689</v>
+        <v>0.521958</v>
       </c>
       <c r="F133" t="n">
-        <v>1.47146</v>
+        <v>0.535601</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.73082</v>
+        <v>0.856173</v>
       </c>
       <c r="C134" t="n">
-        <v>0.943103</v>
+        <v>0.751291</v>
       </c>
       <c r="D134" t="n">
-        <v>0.922575</v>
+        <v>0.86491</v>
       </c>
       <c r="E134" t="n">
-        <v>1.52661</v>
+        <v>0.477493</v>
       </c>
       <c r="F134" t="n">
-        <v>1.48113</v>
+        <v>0.489188</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.76534</v>
+        <v>0.78287</v>
       </c>
       <c r="C135" t="n">
-        <v>0.919767</v>
+        <v>0.782709</v>
       </c>
       <c r="D135" t="n">
-        <v>0.810281</v>
+        <v>0.745445</v>
       </c>
       <c r="E135" t="n">
-        <v>1.53363</v>
+        <v>0.483212</v>
       </c>
       <c r="F135" t="n">
-        <v>1.46918</v>
+        <v>0.464469</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.84342</v>
+        <v>0.837067</v>
       </c>
       <c r="C136" t="n">
-        <v>0.927427</v>
+        <v>0.6450360000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>0.8246019999999999</v>
+        <v>0.682163</v>
       </c>
       <c r="E136" t="n">
-        <v>1.54591</v>
+        <v>0.5379930000000001</v>
       </c>
       <c r="F136" t="n">
-        <v>1.52142</v>
+        <v>0.48551</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.78236</v>
+        <v>0.81867</v>
       </c>
       <c r="C137" t="n">
-        <v>0.964915</v>
+        <v>0.715518</v>
       </c>
       <c r="D137" t="n">
-        <v>0.839219</v>
+        <v>0.760687</v>
       </c>
       <c r="E137" t="n">
-        <v>1.86361</v>
+        <v>0.495171</v>
       </c>
       <c r="F137" t="n">
-        <v>1.69604</v>
+        <v>0.481344</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.24721</v>
+        <v>0.926637</v>
       </c>
       <c r="C138" t="n">
-        <v>1.00209</v>
+        <v>0.83624</v>
       </c>
       <c r="D138" t="n">
-        <v>0.854858</v>
+        <v>0.712691</v>
       </c>
       <c r="E138" t="n">
-        <v>1.86373</v>
+        <v>0.479871</v>
       </c>
       <c r="F138" t="n">
-        <v>1.65014</v>
+        <v>0.537366</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.21212</v>
+        <v>0.959577</v>
       </c>
       <c r="C139" t="n">
-        <v>1.0134</v>
+        <v>0.808134</v>
       </c>
       <c r="D139" t="n">
-        <v>0.874123</v>
+        <v>0.74644</v>
       </c>
       <c r="E139" t="n">
-        <v>1.88424</v>
+        <v>0.471298</v>
       </c>
       <c r="F139" t="n">
-        <v>1.63728</v>
+        <v>0.5506259999999999</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.18116</v>
+        <v>0.931557</v>
       </c>
       <c r="C140" t="n">
-        <v>1.00983</v>
+        <v>0.7722329999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>0.887935</v>
+        <v>0.712603</v>
       </c>
       <c r="E140" t="n">
-        <v>1.86673</v>
+        <v>0.493321</v>
       </c>
       <c r="F140" t="n">
-        <v>1.64666</v>
+        <v>0.581593</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.22282</v>
+        <v>0.934552</v>
       </c>
       <c r="C141" t="n">
-        <v>1.0057</v>
+        <v>0.865843</v>
       </c>
       <c r="D141" t="n">
-        <v>0.896699</v>
+        <v>0.7817</v>
       </c>
       <c r="E141" t="n">
-        <v>1.90935</v>
+        <v>0.482015</v>
       </c>
       <c r="F141" t="n">
-        <v>1.64671</v>
+        <v>0.54608</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.21117</v>
+        <v>0.906064</v>
       </c>
       <c r="C142" t="n">
-        <v>1.00536</v>
+        <v>0.833158</v>
       </c>
       <c r="D142" t="n">
-        <v>0.924103</v>
+        <v>0.770914</v>
       </c>
       <c r="E142" t="n">
-        <v>1.87797</v>
+        <v>0.46122</v>
       </c>
       <c r="F142" t="n">
-        <v>1.64755</v>
+        <v>0.557663</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.19042</v>
+        <v>0.928503</v>
       </c>
       <c r="C143" t="n">
-        <v>1.00531</v>
+        <v>0.830734</v>
       </c>
       <c r="D143" t="n">
-        <v>0.938655</v>
+        <v>0.783404</v>
       </c>
       <c r="E143" t="n">
-        <v>1.89295</v>
+        <v>0.500502</v>
       </c>
       <c r="F143" t="n">
-        <v>1.66223</v>
+        <v>0.505225</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09519900000000001</v>
+        <v>0.142427</v>
       </c>
       <c r="C2" t="n">
-        <v>0.126712</v>
+        <v>0.137296</v>
       </c>
       <c r="D2" t="n">
-        <v>0.184139</v>
+        <v>0.176656</v>
       </c>
       <c r="E2" t="n">
-        <v>0.116946</v>
+        <v>0.145712</v>
       </c>
       <c r="F2" t="n">
-        <v>0.130152</v>
+        <v>0.119112</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.158411</v>
+        <v>0.144681</v>
       </c>
       <c r="C3" t="n">
-        <v>0.153008</v>
+        <v>0.119658</v>
       </c>
       <c r="D3" t="n">
-        <v>0.249215</v>
+        <v>0.189082</v>
       </c>
       <c r="E3" t="n">
-        <v>0.178186</v>
+        <v>0.123133</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1826</v>
+        <v>0.104818</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.147984</v>
+        <v>0.108842</v>
       </c>
       <c r="C4" t="n">
-        <v>0.172504</v>
+        <v>0.08798839999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.250578</v>
+        <v>0.129708</v>
       </c>
       <c r="E4" t="n">
-        <v>0.156688</v>
+        <v>0.108353</v>
       </c>
       <c r="F4" t="n">
-        <v>0.159308</v>
+        <v>0.0755094</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.147083</v>
+        <v>0.08488519999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.105191</v>
+        <v>0.0878384</v>
       </c>
       <c r="D5" t="n">
-        <v>0.188241</v>
+        <v>0.142011</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0971374</v>
+        <v>0.120597</v>
       </c>
       <c r="F5" t="n">
-        <v>0.159834</v>
+        <v>0.131939</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0958741</v>
+        <v>0.125519</v>
       </c>
       <c r="C6" t="n">
-        <v>0.101465</v>
+        <v>0.0947523</v>
       </c>
       <c r="D6" t="n">
-        <v>0.144832</v>
+        <v>0.200609</v>
       </c>
       <c r="E6" t="n">
-        <v>0.110214</v>
+        <v>0.151503</v>
       </c>
       <c r="F6" t="n">
-        <v>0.137335</v>
+        <v>0.0958272</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.150633</v>
+        <v>0.109675</v>
       </c>
       <c r="C7" t="n">
-        <v>0.104925</v>
+        <v>0.0994579</v>
       </c>
       <c r="D7" t="n">
-        <v>0.183477</v>
+        <v>0.104622</v>
       </c>
       <c r="E7" t="n">
-        <v>0.108024</v>
+        <v>0.09890119999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.115456</v>
+        <v>0.106472</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.124529</v>
+        <v>0.12909</v>
       </c>
       <c r="C8" t="n">
-        <v>0.113016</v>
+        <v>0.13635</v>
       </c>
       <c r="D8" t="n">
-        <v>0.15962</v>
+        <v>0.114199</v>
       </c>
       <c r="E8" t="n">
-        <v>0.100903</v>
+        <v>0.111367</v>
       </c>
       <c r="F8" t="n">
-        <v>0.137077</v>
+        <v>0.141109</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.113883</v>
+        <v>0.113484</v>
       </c>
       <c r="C9" t="n">
-        <v>0.127498</v>
+        <v>0.120254</v>
       </c>
       <c r="D9" t="n">
-        <v>0.139323</v>
+        <v>0.140903</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08277610000000001</v>
+        <v>0.104097</v>
       </c>
       <c r="F9" t="n">
-        <v>0.14819</v>
+        <v>0.106334</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.164089</v>
+        <v>0.129565</v>
       </c>
       <c r="C10" t="n">
-        <v>0.137868</v>
+        <v>0.127236</v>
       </c>
       <c r="D10" t="n">
-        <v>0.129337</v>
+        <v>0.11812</v>
       </c>
       <c r="E10" t="n">
-        <v>0.108324</v>
+        <v>0.0913812</v>
       </c>
       <c r="F10" t="n">
-        <v>0.116897</v>
+        <v>0.161886</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.174825</v>
+        <v>0.169207</v>
       </c>
       <c r="C11" t="n">
-        <v>0.111876</v>
+        <v>0.157814</v>
       </c>
       <c r="D11" t="n">
-        <v>0.193919</v>
+        <v>0.185526</v>
       </c>
       <c r="E11" t="n">
-        <v>0.165645</v>
+        <v>0.116283</v>
       </c>
       <c r="F11" t="n">
-        <v>0.173702</v>
+        <v>0.116085</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.133751</v>
+        <v>0.128579</v>
       </c>
       <c r="C12" t="n">
-        <v>0.143074</v>
+        <v>0.08938210000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.204908</v>
+        <v>0.107563</v>
       </c>
       <c r="E12" t="n">
-        <v>0.168718</v>
+        <v>0.129663</v>
       </c>
       <c r="F12" t="n">
-        <v>0.17039</v>
+        <v>0.08213230000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.162558</v>
+        <v>0.110414</v>
       </c>
       <c r="C13" t="n">
-        <v>0.160934</v>
+        <v>0.120404</v>
       </c>
       <c r="D13" t="n">
-        <v>0.236741</v>
+        <v>0.200289</v>
       </c>
       <c r="E13" t="n">
-        <v>0.16924</v>
+        <v>0.126382</v>
       </c>
       <c r="F13" t="n">
-        <v>0.173226</v>
+        <v>0.0996541</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.174216</v>
+        <v>0.182371</v>
       </c>
       <c r="C14" t="n">
-        <v>0.166935</v>
+        <v>0.0954841</v>
       </c>
       <c r="D14" t="n">
-        <v>0.216725</v>
+        <v>0.157716</v>
       </c>
       <c r="E14" t="n">
-        <v>0.142236</v>
+        <v>0.100819</v>
       </c>
       <c r="F14" t="n">
-        <v>0.173729</v>
+        <v>0.09208769999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.157662</v>
+        <v>0.106503</v>
       </c>
       <c r="C15" t="n">
-        <v>0.161729</v>
+        <v>0.0983724</v>
       </c>
       <c r="D15" t="n">
-        <v>0.232893</v>
+        <v>0.201439</v>
       </c>
       <c r="E15" t="n">
-        <v>0.149171</v>
+        <v>0.13933</v>
       </c>
       <c r="F15" t="n">
-        <v>0.177611</v>
+        <v>0.123956</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.17945</v>
+        <v>0.126312</v>
       </c>
       <c r="C16" t="n">
-        <v>0.163339</v>
+        <v>0.127287</v>
       </c>
       <c r="D16" t="n">
-        <v>0.272192</v>
+        <v>0.179699</v>
       </c>
       <c r="E16" t="n">
-        <v>0.17129</v>
+        <v>0.0774828</v>
       </c>
       <c r="F16" t="n">
-        <v>0.124976</v>
+        <v>0.10671</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.116994</v>
+        <v>0.155663</v>
       </c>
       <c r="C17" t="n">
-        <v>0.172762</v>
+        <v>0.111992</v>
       </c>
       <c r="D17" t="n">
-        <v>0.173496</v>
+        <v>0.164437</v>
       </c>
       <c r="E17" t="n">
-        <v>0.09669850000000001</v>
+        <v>0.143636</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0972523</v>
+        <v>0.130846</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.174219</v>
+        <v>0.115726</v>
       </c>
       <c r="C18" t="n">
-        <v>0.12609</v>
+        <v>0.118615</v>
       </c>
       <c r="D18" t="n">
-        <v>0.141219</v>
+        <v>0.197592</v>
       </c>
       <c r="E18" t="n">
-        <v>0.129557</v>
+        <v>0.150675</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0849159</v>
+        <v>0.129565</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.124231</v>
+        <v>0.140685</v>
       </c>
       <c r="C19" t="n">
-        <v>0.140704</v>
+        <v>0.12432</v>
       </c>
       <c r="D19" t="n">
-        <v>0.202383</v>
+        <v>0.159959</v>
       </c>
       <c r="E19" t="n">
-        <v>0.151672</v>
+        <v>0.12699</v>
       </c>
       <c r="F19" t="n">
-        <v>0.120289</v>
+        <v>0.145124</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.100832</v>
+        <v>0.09689449999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.139226</v>
+        <v>0.0711802</v>
       </c>
       <c r="D20" t="n">
-        <v>0.233777</v>
+        <v>0.140879</v>
       </c>
       <c r="E20" t="n">
-        <v>0.09849289999999999</v>
+        <v>0.073546</v>
       </c>
       <c r="F20" t="n">
-        <v>0.102173</v>
+        <v>0.138765</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.125191</v>
+        <v>0.0998387</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0808106</v>
+        <v>0.0763843</v>
       </c>
       <c r="D21" t="n">
-        <v>0.150388</v>
+        <v>0.156732</v>
       </c>
       <c r="E21" t="n">
-        <v>0.102036</v>
+        <v>0.145696</v>
       </c>
       <c r="F21" t="n">
-        <v>0.130331</v>
+        <v>0.123119</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.103229</v>
+        <v>0.155987</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0948813</v>
+        <v>0.10407</v>
       </c>
       <c r="D22" t="n">
-        <v>0.174914</v>
+        <v>0.123858</v>
       </c>
       <c r="E22" t="n">
-        <v>0.137177</v>
+        <v>0.112776</v>
       </c>
       <c r="F22" t="n">
-        <v>0.137284</v>
+        <v>0.0935989</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.146624</v>
+        <v>0.139482</v>
       </c>
       <c r="C23" t="n">
-        <v>0.131902</v>
+        <v>0.127658</v>
       </c>
       <c r="D23" t="n">
-        <v>0.208019</v>
+        <v>0.129813</v>
       </c>
       <c r="E23" t="n">
-        <v>0.120831</v>
+        <v>0.07370839999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>0.14278</v>
+        <v>0.106517</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.141078</v>
+        <v>0.169389</v>
       </c>
       <c r="C24" t="n">
-        <v>0.129512</v>
+        <v>0.0877486</v>
       </c>
       <c r="D24" t="n">
-        <v>0.196059</v>
+        <v>0.167885</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0926549</v>
+        <v>0.126892</v>
       </c>
       <c r="F24" t="n">
-        <v>0.156197</v>
+        <v>0.10386</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.161023</v>
+        <v>0.117883</v>
       </c>
       <c r="C25" t="n">
-        <v>0.108733</v>
+        <v>0.11934</v>
       </c>
       <c r="D25" t="n">
-        <v>0.256664</v>
+        <v>0.148336</v>
       </c>
       <c r="E25" t="n">
-        <v>0.171587</v>
+        <v>0.104013</v>
       </c>
       <c r="F25" t="n">
-        <v>0.158611</v>
+        <v>0.147649</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.203057</v>
+        <v>0.160654</v>
       </c>
       <c r="C26" t="n">
-        <v>0.180194</v>
+        <v>0.09972689999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.269441</v>
+        <v>0.124853</v>
       </c>
       <c r="E26" t="n">
-        <v>0.14232</v>
+        <v>0.0979724</v>
       </c>
       <c r="F26" t="n">
-        <v>0.171969</v>
+        <v>0.07649690000000001</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.14039</v>
+        <v>0.116681</v>
       </c>
       <c r="C27" t="n">
-        <v>0.16911</v>
+        <v>0.13642</v>
       </c>
       <c r="D27" t="n">
-        <v>0.224945</v>
+        <v>0.198553</v>
       </c>
       <c r="E27" t="n">
-        <v>0.187227</v>
+        <v>0.141097</v>
       </c>
       <c r="F27" t="n">
-        <v>0.188165</v>
+        <v>0.101805</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.177486</v>
+        <v>0.116666</v>
       </c>
       <c r="C28" t="n">
-        <v>0.163653</v>
+        <v>0.135099</v>
       </c>
       <c r="D28" t="n">
-        <v>0.19782</v>
+        <v>0.243049</v>
       </c>
       <c r="E28" t="n">
-        <v>0.112376</v>
+        <v>0.117017</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0985028</v>
+        <v>0.158384</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.185935</v>
+        <v>0.10444</v>
       </c>
       <c r="C29" t="n">
-        <v>0.11079</v>
+        <v>0.100238</v>
       </c>
       <c r="D29" t="n">
-        <v>0.305542</v>
+        <v>0.188037</v>
       </c>
       <c r="E29" t="n">
-        <v>0.157149</v>
+        <v>0.105943</v>
       </c>
       <c r="F29" t="n">
-        <v>0.170012</v>
+        <v>0.110739</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.160411</v>
+        <v>0.107855</v>
       </c>
       <c r="C30" t="n">
-        <v>0.161217</v>
+        <v>0.137724</v>
       </c>
       <c r="D30" t="n">
-        <v>0.177604</v>
+        <v>0.26818</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1279</v>
+        <v>0.09871199999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>0.150224</v>
+        <v>0.09290130000000001</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.130875</v>
+        <v>0.148183</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0772727</v>
+        <v>0.110462</v>
       </c>
       <c r="D31" t="n">
-        <v>0.173658</v>
+        <v>0.268193</v>
       </c>
       <c r="E31" t="n">
-        <v>0.141534</v>
+        <v>0.0863858</v>
       </c>
       <c r="F31" t="n">
-        <v>0.104498</v>
+        <v>0.126494</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.110568</v>
+        <v>0.107732</v>
       </c>
       <c r="C32" t="n">
-        <v>0.114875</v>
+        <v>0.0815215</v>
       </c>
       <c r="D32" t="n">
-        <v>0.268798</v>
+        <v>0.186915</v>
       </c>
       <c r="E32" t="n">
-        <v>0.10511</v>
+        <v>0.112299</v>
       </c>
       <c r="F32" t="n">
-        <v>0.120829</v>
+        <v>0.0759618</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.135952</v>
+        <v>0.09242839999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0951029</v>
+        <v>0.112188</v>
       </c>
       <c r="D33" t="n">
-        <v>0.191286</v>
+        <v>0.164077</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0894803</v>
+        <v>0.161494</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0928903</v>
+        <v>0.103129</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.149196</v>
+        <v>0.131264</v>
       </c>
       <c r="C34" t="n">
-        <v>0.09982530000000001</v>
+        <v>0.173248</v>
       </c>
       <c r="D34" t="n">
-        <v>0.175759</v>
+        <v>0.22152</v>
       </c>
       <c r="E34" t="n">
-        <v>0.149926</v>
+        <v>0.137178</v>
       </c>
       <c r="F34" t="n">
-        <v>0.078141</v>
+        <v>0.108341</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.16323</v>
+        <v>0.117217</v>
       </c>
       <c r="C35" t="n">
-        <v>0.203175</v>
+        <v>0.13143</v>
       </c>
       <c r="D35" t="n">
-        <v>0.272569</v>
+        <v>0.141628</v>
       </c>
       <c r="E35" t="n">
-        <v>0.120494</v>
+        <v>0.0998882</v>
       </c>
       <c r="F35" t="n">
-        <v>0.206857</v>
+        <v>0.122523</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.230012</v>
+        <v>0.171001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.142505</v>
+        <v>0.20349</v>
       </c>
       <c r="D36" t="n">
-        <v>0.167514</v>
+        <v>0.281647</v>
       </c>
       <c r="E36" t="n">
-        <v>0.121068</v>
+        <v>0.139987</v>
       </c>
       <c r="F36" t="n">
-        <v>0.113347</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.168644</v>
+        <v>0.149267</v>
       </c>
       <c r="C37" t="n">
-        <v>0.10496</v>
+        <v>0.100007</v>
       </c>
       <c r="D37" t="n">
-        <v>0.245485</v>
+        <v>0.186913</v>
       </c>
       <c r="E37" t="n">
-        <v>0.09128219999999999</v>
+        <v>0.12462</v>
       </c>
       <c r="F37" t="n">
-        <v>0.156041</v>
+        <v>0.147434</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.117216</v>
+        <v>0.137002</v>
       </c>
       <c r="C38" t="n">
-        <v>0.122847</v>
+        <v>0.120171</v>
       </c>
       <c r="D38" t="n">
-        <v>0.202695</v>
+        <v>0.149459</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1079</v>
+        <v>0.143072</v>
       </c>
       <c r="F38" t="n">
-        <v>0.128622</v>
+        <v>0.119662</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.221879</v>
+        <v>0.135403</v>
       </c>
       <c r="C39" t="n">
-        <v>0.166582</v>
+        <v>0.088162</v>
       </c>
       <c r="D39" t="n">
-        <v>0.118759</v>
+        <v>0.187551</v>
       </c>
       <c r="E39" t="n">
-        <v>0.15286</v>
+        <v>0.131361</v>
       </c>
       <c r="F39" t="n">
-        <v>0.123812</v>
+        <v>0.129616</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.214298</v>
+        <v>0.146384</v>
       </c>
       <c r="C40" t="n">
-        <v>0.110978</v>
+        <v>0.123669</v>
       </c>
       <c r="D40" t="n">
-        <v>0.135585</v>
+        <v>0.164546</v>
       </c>
       <c r="E40" t="n">
-        <v>0.103598</v>
+        <v>0.121689</v>
       </c>
       <c r="F40" t="n">
-        <v>0.104122</v>
+        <v>0.08943769999999999</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.167243</v>
+        <v>0.144561</v>
       </c>
       <c r="C41" t="n">
-        <v>0.122993</v>
+        <v>0.119336</v>
       </c>
       <c r="D41" t="n">
-        <v>0.275707</v>
+        <v>0.174633</v>
       </c>
       <c r="E41" t="n">
-        <v>0.186894</v>
+        <v>0.112795</v>
       </c>
       <c r="F41" t="n">
-        <v>0.175409</v>
+        <v>0.12347</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.218867</v>
+        <v>0.161537</v>
       </c>
       <c r="C42" t="n">
-        <v>0.170923</v>
+        <v>0.093974</v>
       </c>
       <c r="D42" t="n">
-        <v>0.284059</v>
+        <v>0.20583</v>
       </c>
       <c r="E42" t="n">
-        <v>0.16888</v>
+        <v>0.0959251</v>
       </c>
       <c r="F42" t="n">
-        <v>0.180054</v>
+        <v>0.117657</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.195194</v>
+        <v>0.174302</v>
       </c>
       <c r="C43" t="n">
-        <v>0.171999</v>
+        <v>0.163115</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2584</v>
+        <v>0.185183</v>
       </c>
       <c r="E43" t="n">
-        <v>0.161476</v>
+        <v>0.134246</v>
       </c>
       <c r="F43" t="n">
-        <v>0.189272</v>
+        <v>0.119329</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.21376</v>
+        <v>0.203232</v>
       </c>
       <c r="C44" t="n">
-        <v>0.200075</v>
+        <v>0.090781</v>
       </c>
       <c r="D44" t="n">
-        <v>0.307845</v>
+        <v>0.133041</v>
       </c>
       <c r="E44" t="n">
-        <v>0.197977</v>
+        <v>0.09695139999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>0.188152</v>
+        <v>0.16157</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.159284</v>
+        <v>0.167333</v>
       </c>
       <c r="C45" t="n">
-        <v>0.193107</v>
+        <v>0.163112</v>
       </c>
       <c r="D45" t="n">
-        <v>0.280372</v>
+        <v>0.265406</v>
       </c>
       <c r="E45" t="n">
-        <v>0.136247</v>
+        <v>0.0805597</v>
       </c>
       <c r="F45" t="n">
-        <v>0.172477</v>
+        <v>0.137421</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.196111</v>
+        <v>0.177414</v>
       </c>
       <c r="C46" t="n">
-        <v>0.196843</v>
+        <v>0.140135</v>
       </c>
       <c r="D46" t="n">
-        <v>0.328421</v>
+        <v>0.306417</v>
       </c>
       <c r="E46" t="n">
-        <v>0.16307</v>
+        <v>0.150184</v>
       </c>
       <c r="F46" t="n">
-        <v>0.194674</v>
+        <v>0.178649</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.138922</v>
+        <v>0.154797</v>
       </c>
       <c r="C47" t="n">
-        <v>0.109082</v>
+        <v>0.150161</v>
       </c>
       <c r="D47" t="n">
-        <v>0.192424</v>
+        <v>0.291483</v>
       </c>
       <c r="E47" t="n">
-        <v>0.122978</v>
+        <v>0.175994</v>
       </c>
       <c r="F47" t="n">
-        <v>0.142858</v>
+        <v>0.103791</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.181433</v>
+        <v>0.2025</v>
       </c>
       <c r="C48" t="n">
-        <v>0.161998</v>
+        <v>0.13082</v>
       </c>
       <c r="D48" t="n">
-        <v>0.225505</v>
+        <v>0.206697</v>
       </c>
       <c r="E48" t="n">
-        <v>0.113833</v>
+        <v>0.183713</v>
       </c>
       <c r="F48" t="n">
-        <v>0.115248</v>
+        <v>0.175565</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.125463</v>
+        <v>0.147431</v>
       </c>
       <c r="C49" t="n">
-        <v>0.186952</v>
+        <v>0.121732</v>
       </c>
       <c r="D49" t="n">
-        <v>0.248825</v>
+        <v>0.163197</v>
       </c>
       <c r="E49" t="n">
-        <v>0.139706</v>
+        <v>0.154853</v>
       </c>
       <c r="F49" t="n">
-        <v>0.141087</v>
+        <v>0.126874</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.193829</v>
+        <v>0.186118</v>
       </c>
       <c r="C50" t="n">
-        <v>0.167873</v>
+        <v>0.139885</v>
       </c>
       <c r="D50" t="n">
-        <v>0.208242</v>
+        <v>0.134061</v>
       </c>
       <c r="E50" t="n">
-        <v>0.13591</v>
+        <v>0.102865</v>
       </c>
       <c r="F50" t="n">
-        <v>0.16945</v>
+        <v>0.11257</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.124752</v>
+        <v>0.224131</v>
       </c>
       <c r="C51" t="n">
-        <v>0.137307</v>
+        <v>0.123691</v>
       </c>
       <c r="D51" t="n">
-        <v>0.203524</v>
+        <v>0.223221</v>
       </c>
       <c r="E51" t="n">
-        <v>0.192544</v>
+        <v>0.166395</v>
       </c>
       <c r="F51" t="n">
-        <v>0.15713</v>
+        <v>0.0920554</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.134159</v>
+        <v>0.126159</v>
       </c>
       <c r="C52" t="n">
-        <v>0.114559</v>
+        <v>0.123017</v>
       </c>
       <c r="D52" t="n">
-        <v>0.178135</v>
+        <v>0.180906</v>
       </c>
       <c r="E52" t="n">
-        <v>0.129768</v>
+        <v>0.141392</v>
       </c>
       <c r="F52" t="n">
-        <v>0.184157</v>
+        <v>0.166854</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.146251</v>
+        <v>0.174927</v>
       </c>
       <c r="C53" t="n">
-        <v>0.162467</v>
+        <v>0.160933</v>
       </c>
       <c r="D53" t="n">
-        <v>0.15006</v>
+        <v>0.229006</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1313</v>
+        <v>0.125892</v>
       </c>
       <c r="F53" t="n">
-        <v>0.162591</v>
+        <v>0.116951</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.247994</v>
+        <v>0.137472</v>
       </c>
       <c r="C54" t="n">
-        <v>0.131502</v>
+        <v>0.130602</v>
       </c>
       <c r="D54" t="n">
-        <v>0.206589</v>
+        <v>0.22257</v>
       </c>
       <c r="E54" t="n">
-        <v>0.161626</v>
+        <v>0.176297</v>
       </c>
       <c r="F54" t="n">
-        <v>0.160462</v>
+        <v>0.145245</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.249934</v>
+        <v>0.171249</v>
       </c>
       <c r="C55" t="n">
-        <v>0.147188</v>
+        <v>0.135062</v>
       </c>
       <c r="D55" t="n">
-        <v>0.221581</v>
+        <v>0.172455</v>
       </c>
       <c r="E55" t="n">
-        <v>0.126763</v>
+        <v>0.115487</v>
       </c>
       <c r="F55" t="n">
-        <v>0.200942</v>
+        <v>0.153699</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.165037</v>
+        <v>0.18727</v>
       </c>
       <c r="C56" t="n">
-        <v>0.200313</v>
+        <v>0.112245</v>
       </c>
       <c r="D56" t="n">
-        <v>0.220011</v>
+        <v>0.169011</v>
       </c>
       <c r="E56" t="n">
-        <v>0.141147</v>
+        <v>0.15324</v>
       </c>
       <c r="F56" t="n">
-        <v>0.110112</v>
+        <v>0.139533</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.218663</v>
+        <v>0.159587</v>
       </c>
       <c r="C57" t="n">
-        <v>0.118048</v>
+        <v>0.103738</v>
       </c>
       <c r="D57" t="n">
-        <v>0.220901</v>
+        <v>0.175763</v>
       </c>
       <c r="E57" t="n">
-        <v>0.131776</v>
+        <v>0.0936781</v>
       </c>
       <c r="F57" t="n">
-        <v>0.105196</v>
+        <v>0.0984671</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.12462</v>
+        <v>0.125622</v>
       </c>
       <c r="C58" t="n">
-        <v>0.164585</v>
+        <v>0.126153</v>
       </c>
       <c r="D58" t="n">
-        <v>0.218355</v>
+        <v>0.164955</v>
       </c>
       <c r="E58" t="n">
-        <v>0.132247</v>
+        <v>0.11659</v>
       </c>
       <c r="F58" t="n">
-        <v>0.103899</v>
+        <v>0.191923</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.258356</v>
+        <v>0.231755</v>
       </c>
       <c r="C59" t="n">
-        <v>0.106151</v>
+        <v>0.125204</v>
       </c>
       <c r="D59" t="n">
-        <v>0.158284</v>
+        <v>0.208961</v>
       </c>
       <c r="E59" t="n">
-        <v>0.159472</v>
+        <v>0.08914130000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>0.11875</v>
+        <v>0.119269</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.151963</v>
+        <v>0.136046</v>
       </c>
       <c r="C60" t="n">
-        <v>0.225928</v>
+        <v>0.187192</v>
       </c>
       <c r="D60" t="n">
-        <v>0.321017</v>
+        <v>0.205418</v>
       </c>
       <c r="E60" t="n">
-        <v>0.173008</v>
+        <v>0.164133</v>
       </c>
       <c r="F60" t="n">
-        <v>0.157114</v>
+        <v>0.184104</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.177956</v>
+        <v>0.249363</v>
       </c>
       <c r="C61" t="n">
-        <v>0.146105</v>
+        <v>0.174398</v>
       </c>
       <c r="D61" t="n">
-        <v>0.249204</v>
+        <v>0.310376</v>
       </c>
       <c r="E61" t="n">
-        <v>0.139772</v>
+        <v>0.164184</v>
       </c>
       <c r="F61" t="n">
-        <v>0.159554</v>
+        <v>0.193961</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.197454</v>
+        <v>0.249337</v>
       </c>
       <c r="C62" t="n">
-        <v>0.149189</v>
+        <v>0.202757</v>
       </c>
       <c r="D62" t="n">
-        <v>0.294852</v>
+        <v>0.294803</v>
       </c>
       <c r="E62" t="n">
-        <v>0.200485</v>
+        <v>0.20293</v>
       </c>
       <c r="F62" t="n">
-        <v>0.146489</v>
+        <v>0.219378</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.196624</v>
+        <v>0.166874</v>
       </c>
       <c r="C63" t="n">
-        <v>0.163789</v>
+        <v>0.200431</v>
       </c>
       <c r="D63" t="n">
-        <v>0.277138</v>
+        <v>0.326248</v>
       </c>
       <c r="E63" t="n">
-        <v>0.159647</v>
+        <v>0.18996</v>
       </c>
       <c r="F63" t="n">
-        <v>0.189153</v>
+        <v>0.192732</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.258249</v>
+        <v>0.178404</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242776</v>
+        <v>0.214508</v>
       </c>
       <c r="D64" t="n">
-        <v>0.204169</v>
+        <v>0.26208</v>
       </c>
       <c r="E64" t="n">
-        <v>0.130995</v>
+        <v>0.196358</v>
       </c>
       <c r="F64" t="n">
-        <v>0.229584</v>
+        <v>0.19732</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.149004</v>
+        <v>0.259035</v>
       </c>
       <c r="C65" t="n">
-        <v>0.201278</v>
+        <v>0.179159</v>
       </c>
       <c r="D65" t="n">
-        <v>0.168712</v>
+        <v>0.185161</v>
       </c>
       <c r="E65" t="n">
-        <v>0.173629</v>
+        <v>0.164264</v>
       </c>
       <c r="F65" t="n">
-        <v>0.198709</v>
+        <v>0.135246</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.203722</v>
+        <v>0.190522</v>
       </c>
       <c r="C66" t="n">
-        <v>0.240283</v>
+        <v>0.158892</v>
       </c>
       <c r="D66" t="n">
-        <v>0.202791</v>
+        <v>0.12442</v>
       </c>
       <c r="E66" t="n">
-        <v>0.113211</v>
+        <v>0.156136</v>
       </c>
       <c r="F66" t="n">
-        <v>0.161408</v>
+        <v>0.176652</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.155144</v>
+        <v>0.234987</v>
       </c>
       <c r="C67" t="n">
-        <v>0.188763</v>
+        <v>0.206825</v>
       </c>
       <c r="D67" t="n">
-        <v>0.187185</v>
+        <v>0.253171</v>
       </c>
       <c r="E67" t="n">
-        <v>0.198312</v>
+        <v>0.110156</v>
       </c>
       <c r="F67" t="n">
-        <v>0.179047</v>
+        <v>0.134128</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.240211</v>
+        <v>0.241273</v>
       </c>
       <c r="C68" t="n">
-        <v>0.221233</v>
+        <v>0.167018</v>
       </c>
       <c r="D68" t="n">
-        <v>0.170724</v>
+        <v>0.188601</v>
       </c>
       <c r="E68" t="n">
-        <v>0.194903</v>
+        <v>0.116188</v>
       </c>
       <c r="F68" t="n">
-        <v>0.121255</v>
+        <v>0.12205</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.244449</v>
+        <v>0.153283</v>
       </c>
       <c r="C69" t="n">
-        <v>0.234994</v>
+        <v>0.160012</v>
       </c>
       <c r="D69" t="n">
-        <v>0.188997</v>
+        <v>0.192831</v>
       </c>
       <c r="E69" t="n">
-        <v>0.123686</v>
+        <v>0.100256</v>
       </c>
       <c r="F69" t="n">
-        <v>0.142855</v>
+        <v>0.144467</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.212567</v>
+        <v>0.250746</v>
       </c>
       <c r="C70" t="n">
-        <v>0.243582</v>
+        <v>0.111613</v>
       </c>
       <c r="D70" t="n">
-        <v>0.23076</v>
+        <v>0.163315</v>
       </c>
       <c r="E70" t="n">
-        <v>0.128204</v>
+        <v>0.1437</v>
       </c>
       <c r="F70" t="n">
-        <v>0.183986</v>
+        <v>0.100031</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.224697</v>
+        <v>0.177561</v>
       </c>
       <c r="C71" t="n">
-        <v>0.225744</v>
+        <v>0.20132</v>
       </c>
       <c r="D71" t="n">
-        <v>0.181004</v>
+        <v>0.197748</v>
       </c>
       <c r="E71" t="n">
-        <v>0.188423</v>
+        <v>0.108433</v>
       </c>
       <c r="F71" t="n">
-        <v>0.17582</v>
+        <v>0.132601</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.259031</v>
+        <v>0.19425</v>
       </c>
       <c r="C72" t="n">
-        <v>0.181862</v>
+        <v>0.11992</v>
       </c>
       <c r="D72" t="n">
-        <v>0.245874</v>
+        <v>0.306008</v>
       </c>
       <c r="E72" t="n">
-        <v>0.148002</v>
+        <v>0.106605</v>
       </c>
       <c r="F72" t="n">
-        <v>0.125161</v>
+        <v>0.128315</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.206746</v>
+        <v>0.180691</v>
       </c>
       <c r="C73" t="n">
-        <v>0.230945</v>
+        <v>0.16007</v>
       </c>
       <c r="D73" t="n">
-        <v>0.259246</v>
+        <v>0.22643</v>
       </c>
       <c r="E73" t="n">
-        <v>0.160597</v>
+        <v>0.127626</v>
       </c>
       <c r="F73" t="n">
-        <v>0.168045</v>
+        <v>0.173579</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.192554</v>
+        <v>0.18405</v>
       </c>
       <c r="C74" t="n">
-        <v>0.215697</v>
+        <v>0.130597</v>
       </c>
       <c r="D74" t="n">
-        <v>0.231542</v>
+        <v>0.185397</v>
       </c>
       <c r="E74" t="n">
-        <v>0.179829</v>
+        <v>0.111393</v>
       </c>
       <c r="F74" t="n">
-        <v>0.119954</v>
+        <v>0.147596</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.217171</v>
+        <v>0.172728</v>
       </c>
       <c r="C75" t="n">
-        <v>0.192463</v>
+        <v>0.118846</v>
       </c>
       <c r="D75" t="n">
-        <v>0.300604</v>
+        <v>0.276041</v>
       </c>
       <c r="E75" t="n">
-        <v>0.196385</v>
+        <v>0.126162</v>
       </c>
       <c r="F75" t="n">
-        <v>0.145795</v>
+        <v>0.135391</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.200083</v>
+        <v>0.187801</v>
       </c>
       <c r="C76" t="n">
-        <v>0.156158</v>
+        <v>0.168913</v>
       </c>
       <c r="D76" t="n">
-        <v>0.349097</v>
+        <v>0.260955</v>
       </c>
       <c r="E76" t="n">
-        <v>0.229897</v>
+        <v>0.162667</v>
       </c>
       <c r="F76" t="n">
-        <v>0.184906</v>
+        <v>0.152544</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.314942</v>
+        <v>0.227791</v>
       </c>
       <c r="C77" t="n">
-        <v>0.202092</v>
+        <v>0.14427</v>
       </c>
       <c r="D77" t="n">
-        <v>0.414406</v>
+        <v>0.248648</v>
       </c>
       <c r="E77" t="n">
-        <v>0.154342</v>
+        <v>0.153833</v>
       </c>
       <c r="F77" t="n">
-        <v>0.234021</v>
+        <v>0.1256</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.31938</v>
+        <v>0.204544</v>
       </c>
       <c r="C78" t="n">
-        <v>0.185265</v>
+        <v>0.142128</v>
       </c>
       <c r="D78" t="n">
-        <v>0.24899</v>
+        <v>0.203469</v>
       </c>
       <c r="E78" t="n">
-        <v>0.245348</v>
+        <v>0.104881</v>
       </c>
       <c r="F78" t="n">
-        <v>0.239385</v>
+        <v>0.119877</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.32248</v>
+        <v>0.197646</v>
       </c>
       <c r="C79" t="n">
-        <v>0.292418</v>
+        <v>0.213032</v>
       </c>
       <c r="D79" t="n">
-        <v>0.20096</v>
+        <v>0.247519</v>
       </c>
       <c r="E79" t="n">
-        <v>0.176173</v>
+        <v>0.125657</v>
       </c>
       <c r="F79" t="n">
-        <v>0.158906</v>
+        <v>0.141521</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.284549</v>
+        <v>0.28056</v>
       </c>
       <c r="C80" t="n">
-        <v>0.212802</v>
+        <v>0.140002</v>
       </c>
       <c r="D80" t="n">
-        <v>0.204792</v>
+        <v>0.177593</v>
       </c>
       <c r="E80" t="n">
-        <v>0.205227</v>
+        <v>0.11813</v>
       </c>
       <c r="F80" t="n">
-        <v>0.156299</v>
+        <v>0.163767</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.344996</v>
+        <v>0.489756</v>
       </c>
       <c r="C81" t="n">
-        <v>0.2876</v>
+        <v>0.22031</v>
       </c>
       <c r="D81" t="n">
-        <v>0.38382</v>
+        <v>0.192673</v>
       </c>
       <c r="E81" t="n">
-        <v>0.209035</v>
+        <v>0.1682</v>
       </c>
       <c r="F81" t="n">
-        <v>0.150661</v>
+        <v>0.146832</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.477871</v>
+        <v>0.347298</v>
       </c>
       <c r="C82" t="n">
-        <v>0.27781</v>
+        <v>0.221433</v>
       </c>
       <c r="D82" t="n">
-        <v>0.373594</v>
+        <v>0.334342</v>
       </c>
       <c r="E82" t="n">
-        <v>0.239039</v>
+        <v>0.125897</v>
       </c>
       <c r="F82" t="n">
-        <v>0.210124</v>
+        <v>0.121573</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.434779</v>
+        <v>0.38375</v>
       </c>
       <c r="C83" t="n">
-        <v>0.260017</v>
+        <v>0.167529</v>
       </c>
       <c r="D83" t="n">
-        <v>0.308674</v>
+        <v>0.227436</v>
       </c>
       <c r="E83" t="n">
-        <v>0.221585</v>
+        <v>0.118416</v>
       </c>
       <c r="F83" t="n">
-        <v>0.180157</v>
+        <v>0.145145</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.38808</v>
+        <v>0.380319</v>
       </c>
       <c r="C84" t="n">
-        <v>0.214999</v>
+        <v>0.252794</v>
       </c>
       <c r="D84" t="n">
-        <v>0.367132</v>
+        <v>0.38875</v>
       </c>
       <c r="E84" t="n">
-        <v>0.257125</v>
+        <v>0.154227</v>
       </c>
       <c r="F84" t="n">
-        <v>0.221851</v>
+        <v>0.242137</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.337841</v>
+        <v>0.458093</v>
       </c>
       <c r="C85" t="n">
-        <v>0.271926</v>
+        <v>0.259165</v>
       </c>
       <c r="D85" t="n">
-        <v>0.386936</v>
+        <v>0.375965</v>
       </c>
       <c r="E85" t="n">
-        <v>0.219117</v>
+        <v>0.194903</v>
       </c>
       <c r="F85" t="n">
-        <v>0.160999</v>
+        <v>0.222436</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.323712</v>
+        <v>0.464286</v>
       </c>
       <c r="C86" t="n">
-        <v>0.279314</v>
+        <v>0.268693</v>
       </c>
       <c r="D86" t="n">
-        <v>0.342849</v>
+        <v>0.411014</v>
       </c>
       <c r="E86" t="n">
-        <v>0.230824</v>
+        <v>0.220415</v>
       </c>
       <c r="F86" t="n">
-        <v>0.166325</v>
+        <v>0.178715</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.38469</v>
+        <v>0.440216</v>
       </c>
       <c r="C87" t="n">
-        <v>0.268676</v>
+        <v>0.299705</v>
       </c>
       <c r="D87" t="n">
-        <v>0.392882</v>
+        <v>0.445015</v>
       </c>
       <c r="E87" t="n">
-        <v>0.270668</v>
+        <v>0.219624</v>
       </c>
       <c r="F87" t="n">
-        <v>0.196355</v>
+        <v>0.228383</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.461885</v>
+        <v>0.452997</v>
       </c>
       <c r="C88" t="n">
-        <v>0.203282</v>
+        <v>0.278712</v>
       </c>
       <c r="D88" t="n">
-        <v>0.414743</v>
+        <v>0.460846</v>
       </c>
       <c r="E88" t="n">
-        <v>0.246903</v>
+        <v>0.223664</v>
       </c>
       <c r="F88" t="n">
-        <v>0.168064</v>
+        <v>0.253718</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.391496</v>
+        <v>0.414033</v>
       </c>
       <c r="C89" t="n">
-        <v>0.236099</v>
+        <v>0.15439</v>
       </c>
       <c r="D89" t="n">
-        <v>0.467405</v>
+        <v>0.403085</v>
       </c>
       <c r="E89" t="n">
-        <v>0.234228</v>
+        <v>0.207548</v>
       </c>
       <c r="F89" t="n">
-        <v>0.216044</v>
+        <v>0.172439</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.435118</v>
+        <v>0.347135</v>
       </c>
       <c r="C90" t="n">
-        <v>0.245335</v>
+        <v>0.174495</v>
       </c>
       <c r="D90" t="n">
-        <v>0.440303</v>
+        <v>0.397097</v>
       </c>
       <c r="E90" t="n">
-        <v>0.234893</v>
+        <v>0.211039</v>
       </c>
       <c r="F90" t="n">
-        <v>0.250261</v>
+        <v>0.180007</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.390575</v>
+        <v>0.316887</v>
       </c>
       <c r="C91" t="n">
-        <v>0.303107</v>
+        <v>0.258467</v>
       </c>
       <c r="D91" t="n">
-        <v>0.403868</v>
+        <v>0.326557</v>
       </c>
       <c r="E91" t="n">
-        <v>0.255019</v>
+        <v>0.188782</v>
       </c>
       <c r="F91" t="n">
-        <v>0.269789</v>
+        <v>0.175603</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.395101</v>
+        <v>0.435979</v>
       </c>
       <c r="C92" t="n">
-        <v>0.271081</v>
+        <v>0.291679</v>
       </c>
       <c r="D92" t="n">
-        <v>0.370445</v>
+        <v>0.349157</v>
       </c>
       <c r="E92" t="n">
-        <v>0.284188</v>
+        <v>0.19459</v>
       </c>
       <c r="F92" t="n">
-        <v>0.218823</v>
+        <v>0.226089</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.38121</v>
+        <v>0.345907</v>
       </c>
       <c r="C93" t="n">
-        <v>0.300446</v>
+        <v>0.211227</v>
       </c>
       <c r="D93" t="n">
-        <v>0.368231</v>
+        <v>0.457661</v>
       </c>
       <c r="E93" t="n">
-        <v>0.214351</v>
+        <v>0.181045</v>
       </c>
       <c r="F93" t="n">
-        <v>0.206411</v>
+        <v>0.180601</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.378475</v>
+        <v>0.44156</v>
       </c>
       <c r="C94" t="n">
-        <v>0.333513</v>
+        <v>0.305243</v>
       </c>
       <c r="D94" t="n">
-        <v>0.376707</v>
+        <v>0.360271</v>
       </c>
       <c r="E94" t="n">
-        <v>0.349825</v>
+        <v>0.308287</v>
       </c>
       <c r="F94" t="n">
-        <v>0.311735</v>
+        <v>0.287701</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.631195</v>
+        <v>0.635389</v>
       </c>
       <c r="C95" t="n">
-        <v>0.245095</v>
+        <v>0.298628</v>
       </c>
       <c r="D95" t="n">
-        <v>0.455409</v>
+        <v>0.352887</v>
       </c>
       <c r="E95" t="n">
-        <v>0.287867</v>
+        <v>0.316292</v>
       </c>
       <c r="F95" t="n">
-        <v>0.290263</v>
+        <v>0.226916</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.582194</v>
+        <v>0.669903</v>
       </c>
       <c r="C96" t="n">
-        <v>0.303864</v>
+        <v>0.326485</v>
       </c>
       <c r="D96" t="n">
-        <v>0.408641</v>
+        <v>0.490381</v>
       </c>
       <c r="E96" t="n">
-        <v>0.292757</v>
+        <v>0.336157</v>
       </c>
       <c r="F96" t="n">
-        <v>0.232092</v>
+        <v>0.269836</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.591014</v>
+        <v>0.685491</v>
       </c>
       <c r="C97" t="n">
-        <v>0.259916</v>
+        <v>0.335159</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5158430000000001</v>
+        <v>0.484314</v>
       </c>
       <c r="E97" t="n">
-        <v>0.326234</v>
+        <v>0.354028</v>
       </c>
       <c r="F97" t="n">
-        <v>0.302806</v>
+        <v>0.226221</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5907750000000001</v>
+        <v>0.5892579999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>0.29064</v>
+        <v>0.339042</v>
       </c>
       <c r="D98" t="n">
-        <v>0.469906</v>
+        <v>0.41295</v>
       </c>
       <c r="E98" t="n">
-        <v>0.329957</v>
+        <v>0.34995</v>
       </c>
       <c r="F98" t="n">
-        <v>0.296846</v>
+        <v>0.17895</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.605137</v>
+        <v>0.664565</v>
       </c>
       <c r="C99" t="n">
-        <v>0.283729</v>
+        <v>0.26152</v>
       </c>
       <c r="D99" t="n">
-        <v>0.451533</v>
+        <v>0.53198</v>
       </c>
       <c r="E99" t="n">
-        <v>0.287579</v>
+        <v>0.313835</v>
       </c>
       <c r="F99" t="n">
-        <v>0.245821</v>
+        <v>0.264421</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.551783</v>
+        <v>0.674971</v>
       </c>
       <c r="C100" t="n">
-        <v>0.305386</v>
+        <v>0.375221</v>
       </c>
       <c r="D100" t="n">
-        <v>0.601958</v>
+        <v>0.538819</v>
       </c>
       <c r="E100" t="n">
-        <v>0.348114</v>
+        <v>0.286224</v>
       </c>
       <c r="F100" t="n">
-        <v>0.325659</v>
+        <v>0.178893</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.617779</v>
+        <v>0.61646</v>
       </c>
       <c r="C101" t="n">
-        <v>0.357493</v>
+        <v>0.278975</v>
       </c>
       <c r="D101" t="n">
-        <v>0.549018</v>
+        <v>0.470267</v>
       </c>
       <c r="E101" t="n">
-        <v>0.325627</v>
+        <v>0.345976</v>
       </c>
       <c r="F101" t="n">
-        <v>0.287126</v>
+        <v>0.263582</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.627649</v>
+        <v>0.700191</v>
       </c>
       <c r="C102" t="n">
-        <v>0.347016</v>
+        <v>0.274547</v>
       </c>
       <c r="D102" t="n">
-        <v>0.524854</v>
+        <v>0.588134</v>
       </c>
       <c r="E102" t="n">
-        <v>0.327472</v>
+        <v>0.358917</v>
       </c>
       <c r="F102" t="n">
-        <v>0.249547</v>
+        <v>0.219673</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.705443</v>
+        <v>0.68327</v>
       </c>
       <c r="C103" t="n">
-        <v>0.318815</v>
+        <v>0.271976</v>
       </c>
       <c r="D103" t="n">
-        <v>0.625494</v>
+        <v>0.529439</v>
       </c>
       <c r="E103" t="n">
-        <v>0.360652</v>
+        <v>0.29182</v>
       </c>
       <c r="F103" t="n">
-        <v>0.267828</v>
+        <v>0.203943</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.550365</v>
+        <v>0.558334</v>
       </c>
       <c r="C104" t="n">
-        <v>0.379327</v>
+        <v>0.251686</v>
       </c>
       <c r="D104" t="n">
-        <v>0.53096</v>
+        <v>0.557219</v>
       </c>
       <c r="E104" t="n">
-        <v>0.343093</v>
+        <v>0.373486</v>
       </c>
       <c r="F104" t="n">
-        <v>0.303672</v>
+        <v>0.306993</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.687168</v>
+        <v>0.715448</v>
       </c>
       <c r="C105" t="n">
-        <v>0.238903</v>
+        <v>0.382132</v>
       </c>
       <c r="D105" t="n">
-        <v>0.535326</v>
+        <v>0.592354</v>
       </c>
       <c r="E105" t="n">
-        <v>0.368277</v>
+        <v>0.372711</v>
       </c>
       <c r="F105" t="n">
-        <v>0.318824</v>
+        <v>0.238493</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.723875</v>
+        <v>0.603661</v>
       </c>
       <c r="C106" t="n">
-        <v>0.259501</v>
+        <v>0.265904</v>
       </c>
       <c r="D106" t="n">
-        <v>0.632939</v>
+        <v>0.661274</v>
       </c>
       <c r="E106" t="n">
-        <v>0.387744</v>
+        <v>0.386822</v>
       </c>
       <c r="F106" t="n">
-        <v>0.31318</v>
+        <v>0.176997</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.693045</v>
+        <v>0.552639</v>
       </c>
       <c r="C107" t="n">
-        <v>0.281561</v>
+        <v>0.372103</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6582170000000001</v>
+        <v>0.596924</v>
       </c>
       <c r="E107" t="n">
-        <v>0.299403</v>
+        <v>0.333841</v>
       </c>
       <c r="F107" t="n">
-        <v>0.282135</v>
+        <v>0.337094</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.682198</v>
+        <v>0.667144</v>
       </c>
       <c r="C108" t="n">
-        <v>0.357954</v>
+        <v>0.277827</v>
       </c>
       <c r="D108" t="n">
-        <v>0.602666</v>
+        <v>0.568765</v>
       </c>
       <c r="E108" t="n">
-        <v>0.388124</v>
+        <v>0.397635</v>
       </c>
       <c r="F108" t="n">
-        <v>0.3984</v>
+        <v>0.358446</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.668569</v>
+        <v>0.72034</v>
       </c>
       <c r="C109" t="n">
-        <v>0.317803</v>
+        <v>0.351252</v>
       </c>
       <c r="D109" t="n">
-        <v>0.670663</v>
+        <v>0.469655</v>
       </c>
       <c r="E109" t="n">
-        <v>0.443116</v>
+        <v>0.368545</v>
       </c>
       <c r="F109" t="n">
-        <v>0.432046</v>
+        <v>0.368932</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.738811</v>
+        <v>0.8434120000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>0.501625</v>
+        <v>0.481713</v>
       </c>
       <c r="D110" t="n">
-        <v>0.62646</v>
+        <v>0.64551</v>
       </c>
       <c r="E110" t="n">
-        <v>0.431405</v>
+        <v>0.362741</v>
       </c>
       <c r="F110" t="n">
-        <v>0.357428</v>
+        <v>0.341395</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.785689</v>
+        <v>0.689586</v>
       </c>
       <c r="C111" t="n">
-        <v>0.504377</v>
+        <v>0.569249</v>
       </c>
       <c r="D111" t="n">
-        <v>0.613667</v>
+        <v>0.6598349999999999</v>
       </c>
       <c r="E111" t="n">
-        <v>0.410808</v>
+        <v>0.379901</v>
       </c>
       <c r="F111" t="n">
-        <v>0.402392</v>
+        <v>0.358279</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.69762</v>
+        <v>0.807994</v>
       </c>
       <c r="C112" t="n">
-        <v>0.568733</v>
+        <v>0.49634</v>
       </c>
       <c r="D112" t="n">
-        <v>0.679181</v>
+        <v>0.565074</v>
       </c>
       <c r="E112" t="n">
-        <v>0.474833</v>
+        <v>0.450719</v>
       </c>
       <c r="F112" t="n">
-        <v>0.410442</v>
+        <v>0.357744</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.8003440000000001</v>
+        <v>0.665443</v>
       </c>
       <c r="C113" t="n">
-        <v>0.582242</v>
+        <v>0.556496</v>
       </c>
       <c r="D113" t="n">
-        <v>0.600293</v>
+        <v>0.565987</v>
       </c>
       <c r="E113" t="n">
-        <v>0.427041</v>
+        <v>0.324222</v>
       </c>
       <c r="F113" t="n">
-        <v>0.39829</v>
+        <v>0.347957</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.740791</v>
+        <v>0.706048</v>
       </c>
       <c r="C114" t="n">
-        <v>0.512646</v>
+        <v>0.443138</v>
       </c>
       <c r="D114" t="n">
-        <v>0.764589</v>
+        <v>0.624116</v>
       </c>
       <c r="E114" t="n">
-        <v>0.433196</v>
+        <v>0.442791</v>
       </c>
       <c r="F114" t="n">
-        <v>0.381066</v>
+        <v>0.32069</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.765578</v>
+        <v>0.775366</v>
       </c>
       <c r="C115" t="n">
-        <v>0.510815</v>
+        <v>0.470817</v>
       </c>
       <c r="D115" t="n">
-        <v>0.634533</v>
+        <v>0.581516</v>
       </c>
       <c r="E115" t="n">
-        <v>0.41678</v>
+        <v>0.465696</v>
       </c>
       <c r="F115" t="n">
-        <v>0.339537</v>
+        <v>0.410816</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.860375</v>
+        <v>0.756197</v>
       </c>
       <c r="C116" t="n">
-        <v>0.46821</v>
+        <v>0.461626</v>
       </c>
       <c r="D116" t="n">
-        <v>0.645819</v>
+        <v>0.582483</v>
       </c>
       <c r="E116" t="n">
-        <v>0.442313</v>
+        <v>0.361626</v>
       </c>
       <c r="F116" t="n">
-        <v>0.41145</v>
+        <v>0.427763</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.694452</v>
+        <v>0.885803</v>
       </c>
       <c r="C117" t="n">
-        <v>0.483441</v>
+        <v>0.410599</v>
       </c>
       <c r="D117" t="n">
-        <v>0.719946</v>
+        <v>0.744442</v>
       </c>
       <c r="E117" t="n">
-        <v>0.41239</v>
+        <v>0.448042</v>
       </c>
       <c r="F117" t="n">
-        <v>0.388612</v>
+        <v>0.381291</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.745205</v>
+        <v>0.7785260000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>0.558096</v>
+        <v>0.565192</v>
       </c>
       <c r="D118" t="n">
-        <v>0.814707</v>
+        <v>0.764827</v>
       </c>
       <c r="E118" t="n">
-        <v>0.492302</v>
+        <v>0.474925</v>
       </c>
       <c r="F118" t="n">
-        <v>0.399669</v>
+        <v>0.422047</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.7469</v>
+        <v>0.7406470000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5169550000000001</v>
+        <v>0.489094</v>
       </c>
       <c r="D119" t="n">
-        <v>0.86077</v>
+        <v>0.691825</v>
       </c>
       <c r="E119" t="n">
-        <v>0.465673</v>
+        <v>0.401242</v>
       </c>
       <c r="F119" t="n">
-        <v>0.406379</v>
+        <v>0.363003</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.771848</v>
+        <v>0.725011</v>
       </c>
       <c r="C120" t="n">
-        <v>0.541762</v>
+        <v>0.648844</v>
       </c>
       <c r="D120" t="n">
-        <v>0.810625</v>
+        <v>0.81037</v>
       </c>
       <c r="E120" t="n">
-        <v>0.42634</v>
+        <v>0.450895</v>
       </c>
       <c r="F120" t="n">
-        <v>0.468371</v>
+        <v>0.396327</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.792385</v>
+        <v>0.676234</v>
       </c>
       <c r="C121" t="n">
-        <v>0.551663</v>
+        <v>0.650345</v>
       </c>
       <c r="D121" t="n">
-        <v>0.631217</v>
+        <v>0.627323</v>
       </c>
       <c r="E121" t="n">
-        <v>0.433396</v>
+        <v>0.422285</v>
       </c>
       <c r="F121" t="n">
-        <v>0.482507</v>
+        <v>0.385369</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.702909</v>
+        <v>0.802878</v>
       </c>
       <c r="C122" t="n">
-        <v>0.598812</v>
+        <v>0.467299</v>
       </c>
       <c r="D122" t="n">
-        <v>0.680887</v>
+        <v>0.701301</v>
       </c>
       <c r="E122" t="n">
-        <v>0.47288</v>
+        <v>0.450811</v>
       </c>
       <c r="F122" t="n">
-        <v>0.375855</v>
+        <v>0.383535</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.781396</v>
+        <v>0.710866</v>
       </c>
       <c r="C123" t="n">
-        <v>0.56741</v>
+        <v>0.463875</v>
       </c>
       <c r="D123" t="n">
-        <v>0.59259</v>
+        <v>0.833495</v>
       </c>
       <c r="E123" t="n">
-        <v>0.447388</v>
+        <v>0.528025</v>
       </c>
       <c r="F123" t="n">
-        <v>0.504012</v>
+        <v>0.493733</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.853267</v>
+        <v>0.772238</v>
       </c>
       <c r="C124" t="n">
-        <v>0.6629660000000001</v>
+        <v>0.74974</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7528820000000001</v>
+        <v>0.656593</v>
       </c>
       <c r="E124" t="n">
-        <v>0.476202</v>
+        <v>0.412325</v>
       </c>
       <c r="F124" t="n">
-        <v>0.561063</v>
+        <v>0.491405</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.816101</v>
+        <v>0.805482</v>
       </c>
       <c r="C125" t="n">
-        <v>0.725687</v>
+        <v>0.66121</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5942229999999999</v>
+        <v>0.650477</v>
       </c>
       <c r="E125" t="n">
-        <v>0.530768</v>
+        <v>0.532362</v>
       </c>
       <c r="F125" t="n">
-        <v>0.446814</v>
+        <v>0.459168</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.80885</v>
+        <v>0.888501</v>
       </c>
       <c r="C126" t="n">
-        <v>0.686318</v>
+        <v>0.781063</v>
       </c>
       <c r="D126" t="n">
-        <v>0.698557</v>
+        <v>0.67806</v>
       </c>
       <c r="E126" t="n">
-        <v>0.513818</v>
+        <v>0.431951</v>
       </c>
       <c r="F126" t="n">
-        <v>0.514176</v>
+        <v>0.465236</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.809386</v>
+        <v>1.00919</v>
       </c>
       <c r="C127" t="n">
-        <v>0.72646</v>
+        <v>0.776037</v>
       </c>
       <c r="D127" t="n">
-        <v>0.709029</v>
+        <v>0.703349</v>
       </c>
       <c r="E127" t="n">
-        <v>0.469546</v>
+        <v>0.482263</v>
       </c>
       <c r="F127" t="n">
-        <v>0.532791</v>
+        <v>0.502204</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.841635</v>
+        <v>1.08919</v>
       </c>
       <c r="C128" t="n">
-        <v>0.763561</v>
+        <v>0.620237</v>
       </c>
       <c r="D128" t="n">
-        <v>0.77765</v>
+        <v>0.8710639999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>0.451785</v>
+        <v>0.5154029999999999</v>
       </c>
       <c r="F128" t="n">
-        <v>0.477816</v>
+        <v>0.461365</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.746469</v>
+        <v>0.798385</v>
       </c>
       <c r="C129" t="n">
-        <v>0.650608</v>
+        <v>0.685771</v>
       </c>
       <c r="D129" t="n">
-        <v>0.700129</v>
+        <v>0.856082</v>
       </c>
       <c r="E129" t="n">
-        <v>0.51458</v>
+        <v>0.513126</v>
       </c>
       <c r="F129" t="n">
-        <v>0.439007</v>
+        <v>0.465282</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.827398</v>
+        <v>0.785551</v>
       </c>
       <c r="C130" t="n">
-        <v>0.694483</v>
+        <v>0.675544</v>
       </c>
       <c r="D130" t="n">
-        <v>0.813014</v>
+        <v>0.725896</v>
       </c>
       <c r="E130" t="n">
-        <v>0.462724</v>
+        <v>0.445408</v>
       </c>
       <c r="F130" t="n">
-        <v>0.495237</v>
+        <v>0.5653359999999999</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.895497</v>
+        <v>0.811128</v>
       </c>
       <c r="C131" t="n">
-        <v>0.708325</v>
+        <v>0.798533</v>
       </c>
       <c r="D131" t="n">
-        <v>0.717869</v>
+        <v>0.827549</v>
       </c>
       <c r="E131" t="n">
-        <v>0.514253</v>
+        <v>0.431519</v>
       </c>
       <c r="F131" t="n">
-        <v>0.445282</v>
+        <v>0.45717</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.875178</v>
+        <v>0.880318</v>
       </c>
       <c r="C132" t="n">
-        <v>0.743848</v>
+        <v>0.620691</v>
       </c>
       <c r="D132" t="n">
-        <v>0.7352919999999999</v>
+        <v>0.706022</v>
       </c>
       <c r="E132" t="n">
-        <v>0.5329930000000001</v>
+        <v>0.443727</v>
       </c>
       <c r="F132" t="n">
-        <v>0.46966</v>
+        <v>0.52329</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.818316</v>
+        <v>0.804123</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7068179999999999</v>
+        <v>0.614571</v>
       </c>
       <c r="D133" t="n">
-        <v>0.845393</v>
+        <v>0.754215</v>
       </c>
       <c r="E133" t="n">
-        <v>0.521958</v>
+        <v>0.478049</v>
       </c>
       <c r="F133" t="n">
-        <v>0.535601</v>
+        <v>0.449444</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.856173</v>
+        <v>0.961772</v>
       </c>
       <c r="C134" t="n">
-        <v>0.751291</v>
+        <v>0.750074</v>
       </c>
       <c r="D134" t="n">
-        <v>0.86491</v>
+        <v>0.76625</v>
       </c>
       <c r="E134" t="n">
-        <v>0.477493</v>
+        <v>0.532728</v>
       </c>
       <c r="F134" t="n">
-        <v>0.489188</v>
+        <v>0.50235</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.78287</v>
+        <v>0.8426090000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>0.782709</v>
+        <v>0.679691</v>
       </c>
       <c r="D135" t="n">
-        <v>0.745445</v>
+        <v>0.776319</v>
       </c>
       <c r="E135" t="n">
-        <v>0.483212</v>
+        <v>0.458215</v>
       </c>
       <c r="F135" t="n">
-        <v>0.464469</v>
+        <v>0.453613</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.837067</v>
+        <v>0.844355</v>
       </c>
       <c r="C136" t="n">
-        <v>0.6450360000000001</v>
+        <v>0.7418169999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>0.682163</v>
+        <v>0.664575</v>
       </c>
       <c r="E136" t="n">
-        <v>0.5379930000000001</v>
+        <v>0.430262</v>
       </c>
       <c r="F136" t="n">
-        <v>0.48551</v>
+        <v>0.466516</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.81867</v>
+        <v>0.917593</v>
       </c>
       <c r="C137" t="n">
-        <v>0.715518</v>
+        <v>0.797343</v>
       </c>
       <c r="D137" t="n">
-        <v>0.760687</v>
+        <v>0.687826</v>
       </c>
       <c r="E137" t="n">
-        <v>0.495171</v>
+        <v>0.438174</v>
       </c>
       <c r="F137" t="n">
-        <v>0.481344</v>
+        <v>0.563409</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.926637</v>
+        <v>0.997683</v>
       </c>
       <c r="C138" t="n">
-        <v>0.83624</v>
+        <v>0.842317</v>
       </c>
       <c r="D138" t="n">
-        <v>0.712691</v>
+        <v>0.769273</v>
       </c>
       <c r="E138" t="n">
-        <v>0.479871</v>
+        <v>0.538494</v>
       </c>
       <c r="F138" t="n">
-        <v>0.537366</v>
+        <v>0.517971</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.959577</v>
+        <v>1.02966</v>
       </c>
       <c r="C139" t="n">
-        <v>0.808134</v>
+        <v>0.883325</v>
       </c>
       <c r="D139" t="n">
-        <v>0.74644</v>
+        <v>0.634107</v>
       </c>
       <c r="E139" t="n">
-        <v>0.471298</v>
+        <v>0.468357</v>
       </c>
       <c r="F139" t="n">
-        <v>0.5506259999999999</v>
+        <v>0.532196</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.931557</v>
+        <v>1.00103</v>
       </c>
       <c r="C140" t="n">
-        <v>0.7722329999999999</v>
+        <v>0.778484</v>
       </c>
       <c r="D140" t="n">
-        <v>0.712603</v>
+        <v>0.72002</v>
       </c>
       <c r="E140" t="n">
-        <v>0.493321</v>
+        <v>0.426628</v>
       </c>
       <c r="F140" t="n">
-        <v>0.581593</v>
+        <v>0.5430160000000001</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.934552</v>
+        <v>0.930442</v>
       </c>
       <c r="C141" t="n">
-        <v>0.865843</v>
+        <v>0.761748</v>
       </c>
       <c r="D141" t="n">
-        <v>0.7817</v>
+        <v>0.730015</v>
       </c>
       <c r="E141" t="n">
-        <v>0.482015</v>
+        <v>0.506564</v>
       </c>
       <c r="F141" t="n">
-        <v>0.54608</v>
+        <v>0.550992</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.906064</v>
+        <v>1.0212</v>
       </c>
       <c r="C142" t="n">
-        <v>0.833158</v>
+        <v>0.764321</v>
       </c>
       <c r="D142" t="n">
-        <v>0.770914</v>
+        <v>0.684669</v>
       </c>
       <c r="E142" t="n">
-        <v>0.46122</v>
+        <v>0.412675</v>
       </c>
       <c r="F142" t="n">
-        <v>0.557663</v>
+        <v>0.472603</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.928503</v>
+        <v>0.907741</v>
       </c>
       <c r="C143" t="n">
-        <v>0.830734</v>
+        <v>0.773348</v>
       </c>
       <c r="D143" t="n">
-        <v>0.783404</v>
+        <v>0.743568</v>
       </c>
       <c r="E143" t="n">
-        <v>0.500502</v>
+        <v>0.462607</v>
       </c>
       <c r="F143" t="n">
-        <v>0.505225</v>
+        <v>0.526733</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered successful looukp.xlsx
+++ b/vs-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.116948</v>
+        <v>0.09742679999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.10716</v>
+        <v>0.0624385</v>
       </c>
       <c r="D2" t="n">
-        <v>0.164764</v>
+        <v>0.115927</v>
       </c>
       <c r="E2" t="n">
-        <v>0.126912</v>
+        <v>0.148401</v>
       </c>
       <c r="F2" t="n">
-        <v>0.118202</v>
+        <v>0.123666</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.127343</v>
+        <v>0.107826</v>
       </c>
       <c r="C3" t="n">
-        <v>0.112583</v>
+        <v>0.105191</v>
       </c>
       <c r="D3" t="n">
-        <v>0.170858</v>
+        <v>0.137055</v>
       </c>
       <c r="E3" t="n">
-        <v>0.127883</v>
+        <v>0.0963955</v>
       </c>
       <c r="F3" t="n">
-        <v>0.119706</v>
+        <v>0.0876166</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.115775</v>
+        <v>0.0936332</v>
       </c>
       <c r="C4" t="n">
-        <v>0.10834</v>
+        <v>0.145979</v>
       </c>
       <c r="D4" t="n">
-        <v>0.176829</v>
+        <v>0.128323</v>
       </c>
       <c r="E4" t="n">
-        <v>0.130649</v>
+        <v>0.0857429</v>
       </c>
       <c r="F4" t="n">
-        <v>0.118644</v>
+        <v>0.102745</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.123301</v>
+        <v>0.108756</v>
       </c>
       <c r="C5" t="n">
-        <v>0.107395</v>
+        <v>0.0936347</v>
       </c>
       <c r="D5" t="n">
-        <v>0.17806</v>
+        <v>0.216578</v>
       </c>
       <c r="E5" t="n">
-        <v>0.124487</v>
+        <v>0.122585</v>
       </c>
       <c r="F5" t="n">
-        <v>0.120344</v>
+        <v>0.136677</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.114692</v>
+        <v>0.134382</v>
       </c>
       <c r="C6" t="n">
-        <v>0.11461</v>
+        <v>0.0812676</v>
       </c>
       <c r="D6" t="n">
-        <v>0.18332</v>
+        <v>0.18355</v>
       </c>
       <c r="E6" t="n">
-        <v>0.132376</v>
+        <v>0.123663</v>
       </c>
       <c r="F6" t="n">
-        <v>0.12092</v>
+        <v>0.114544</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.116709</v>
+        <v>0.119972</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111153</v>
+        <v>0.0930633</v>
       </c>
       <c r="D7" t="n">
-        <v>0.163718</v>
+        <v>0.126168</v>
       </c>
       <c r="E7" t="n">
-        <v>0.136344</v>
+        <v>0.09857440000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.130875</v>
+        <v>0.106198</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.121665</v>
+        <v>0.0776491</v>
       </c>
       <c r="C8" t="n">
-        <v>0.111547</v>
+        <v>0.1042</v>
       </c>
       <c r="D8" t="n">
-        <v>0.162148</v>
+        <v>0.111771</v>
       </c>
       <c r="E8" t="n">
-        <v>0.136817</v>
+        <v>0.13557</v>
       </c>
       <c r="F8" t="n">
-        <v>0.129598</v>
+        <v>0.11426</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.12336</v>
+        <v>0.141807</v>
       </c>
       <c r="C9" t="n">
-        <v>0.122067</v>
+        <v>0.145543</v>
       </c>
       <c r="D9" t="n">
-        <v>0.165111</v>
+        <v>0.131103</v>
       </c>
       <c r="E9" t="n">
-        <v>0.136696</v>
+        <v>0.0906854</v>
       </c>
       <c r="F9" t="n">
-        <v>0.122343</v>
+        <v>0.0777772</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.127944</v>
+        <v>0.128679</v>
       </c>
       <c r="C10" t="n">
-        <v>0.115764</v>
+        <v>0.120649</v>
       </c>
       <c r="D10" t="n">
-        <v>0.166425</v>
+        <v>0.137057</v>
       </c>
       <c r="E10" t="n">
-        <v>0.13163</v>
+        <v>0.124079</v>
       </c>
       <c r="F10" t="n">
-        <v>0.12419</v>
+        <v>0.126531</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.133652</v>
+        <v>0.171172</v>
       </c>
       <c r="C11" t="n">
-        <v>0.116</v>
+        <v>0.102748</v>
       </c>
       <c r="D11" t="n">
-        <v>0.167957</v>
+        <v>0.126428</v>
       </c>
       <c r="E11" t="n">
-        <v>0.13288</v>
+        <v>0.08515830000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>0.121588</v>
+        <v>0.0875541</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.128239</v>
+        <v>0.0959646</v>
       </c>
       <c r="C12" t="n">
-        <v>0.120058</v>
+        <v>0.115174</v>
       </c>
       <c r="D12" t="n">
-        <v>0.177449</v>
+        <v>0.190601</v>
       </c>
       <c r="E12" t="n">
-        <v>0.130986</v>
+        <v>0.104626</v>
       </c>
       <c r="F12" t="n">
-        <v>0.120583</v>
+        <v>0.09121700000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.127083</v>
+        <v>0.123978</v>
       </c>
       <c r="C13" t="n">
-        <v>0.117229</v>
+        <v>0.103608</v>
       </c>
       <c r="D13" t="n">
-        <v>0.170154</v>
+        <v>0.135615</v>
       </c>
       <c r="E13" t="n">
-        <v>0.128896</v>
+        <v>0.127087</v>
       </c>
       <c r="F13" t="n">
-        <v>0.121978</v>
+        <v>0.147119</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.12489</v>
+        <v>0.15628</v>
       </c>
       <c r="C14" t="n">
-        <v>0.11801</v>
+        <v>0.122734</v>
       </c>
       <c r="D14" t="n">
-        <v>0.178287</v>
+        <v>0.181541</v>
       </c>
       <c r="E14" t="n">
-        <v>0.129638</v>
+        <v>0.104605</v>
       </c>
       <c r="F14" t="n">
-        <v>0.117701</v>
+        <v>0.0960796</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.127392</v>
+        <v>0.129148</v>
       </c>
       <c r="C15" t="n">
-        <v>0.11131</v>
+        <v>0.0860421</v>
       </c>
       <c r="D15" t="n">
-        <v>0.175297</v>
+        <v>0.136771</v>
       </c>
       <c r="E15" t="n">
-        <v>0.136715</v>
+        <v>0.11807</v>
       </c>
       <c r="F15" t="n">
-        <v>0.124026</v>
+        <v>0.102166</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.126695</v>
+        <v>0.137039</v>
       </c>
       <c r="C16" t="n">
-        <v>0.110946</v>
+        <v>0.123386</v>
       </c>
       <c r="D16" t="n">
-        <v>0.181333</v>
+        <v>0.16617</v>
       </c>
       <c r="E16" t="n">
-        <v>0.128266</v>
+        <v>0.09237049999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>0.11745</v>
+        <v>0.118265</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.123196</v>
+        <v>0.164935</v>
       </c>
       <c r="C17" t="n">
-        <v>0.114673</v>
+        <v>0.113264</v>
       </c>
       <c r="D17" t="n">
-        <v>0.192308</v>
+        <v>0.251482</v>
       </c>
       <c r="E17" t="n">
-        <v>0.127617</v>
+        <v>0.136278</v>
       </c>
       <c r="F17" t="n">
-        <v>0.117821</v>
+        <v>0.111278</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.123353</v>
+        <v>0.134601</v>
       </c>
       <c r="C18" t="n">
-        <v>0.112941</v>
+        <v>0.08172989999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.185966</v>
+        <v>0.199609</v>
       </c>
       <c r="E18" t="n">
-        <v>0.128526</v>
+        <v>0.128645</v>
       </c>
       <c r="F18" t="n">
-        <v>0.118333</v>
+        <v>0.09684950000000001</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.124014</v>
+        <v>0.133997</v>
       </c>
       <c r="C19" t="n">
-        <v>0.11277</v>
+        <v>0.116508</v>
       </c>
       <c r="D19" t="n">
-        <v>0.192974</v>
+        <v>0.206521</v>
       </c>
       <c r="E19" t="n">
-        <v>0.135044</v>
+        <v>0.128529</v>
       </c>
       <c r="F19" t="n">
-        <v>0.119907</v>
+        <v>0.114798</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.124568</v>
+        <v>0.182096</v>
       </c>
       <c r="C20" t="n">
-        <v>0.113449</v>
+        <v>0.0838508</v>
       </c>
       <c r="D20" t="n">
-        <v>0.192125</v>
+        <v>0.256453</v>
       </c>
       <c r="E20" t="n">
-        <v>0.131935</v>
+        <v>0.118309</v>
       </c>
       <c r="F20" t="n">
-        <v>0.121741</v>
+        <v>0.10841</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.129002</v>
+        <v>0.158466</v>
       </c>
       <c r="C21" t="n">
-        <v>0.120144</v>
+        <v>0.0966684</v>
       </c>
       <c r="D21" t="n">
-        <v>0.159211</v>
+        <v>0.160756</v>
       </c>
       <c r="E21" t="n">
-        <v>0.137532</v>
+        <v>0.09686359999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>0.124239</v>
+        <v>0.130597</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.127419</v>
+        <v>0.122535</v>
       </c>
       <c r="C22" t="n">
-        <v>0.115737</v>
+        <v>0.0874741</v>
       </c>
       <c r="D22" t="n">
-        <v>0.163588</v>
+        <v>0.142579</v>
       </c>
       <c r="E22" t="n">
-        <v>0.13812</v>
+        <v>0.140213</v>
       </c>
       <c r="F22" t="n">
-        <v>0.129948</v>
+        <v>0.151349</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.128555</v>
+        <v>0.116633</v>
       </c>
       <c r="C23" t="n">
-        <v>0.120941</v>
+        <v>0.118589</v>
       </c>
       <c r="D23" t="n">
-        <v>0.176224</v>
+        <v>0.126427</v>
       </c>
       <c r="E23" t="n">
-        <v>0.131058</v>
+        <v>0.128877</v>
       </c>
       <c r="F23" t="n">
-        <v>0.121936</v>
+        <v>0.136689</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.136054</v>
+        <v>0.144609</v>
       </c>
       <c r="C24" t="n">
-        <v>0.128582</v>
+        <v>0.147737</v>
       </c>
       <c r="D24" t="n">
-        <v>0.167177</v>
+        <v>0.204696</v>
       </c>
       <c r="E24" t="n">
-        <v>0.130698</v>
+        <v>0.122366</v>
       </c>
       <c r="F24" t="n">
-        <v>0.123485</v>
+        <v>0.105433</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.137433</v>
+        <v>0.127959</v>
       </c>
       <c r="C25" t="n">
-        <v>0.123827</v>
+        <v>0.147316</v>
       </c>
       <c r="D25" t="n">
-        <v>0.170226</v>
+        <v>0.191187</v>
       </c>
       <c r="E25" t="n">
-        <v>0.133248</v>
+        <v>0.16045</v>
       </c>
       <c r="F25" t="n">
-        <v>0.122534</v>
+        <v>0.107844</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.136465</v>
+        <v>0.110281</v>
       </c>
       <c r="C26" t="n">
-        <v>0.125453</v>
+        <v>0.129003</v>
       </c>
       <c r="D26" t="n">
-        <v>0.176302</v>
+        <v>0.159031</v>
       </c>
       <c r="E26" t="n">
-        <v>0.134495</v>
+        <v>0.09315809999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>0.126424</v>
+        <v>0.135497</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.132763</v>
+        <v>0.184792</v>
       </c>
       <c r="C27" t="n">
-        <v>0.124377</v>
+        <v>0.0859539</v>
       </c>
       <c r="D27" t="n">
-        <v>0.177084</v>
+        <v>0.160122</v>
       </c>
       <c r="E27" t="n">
-        <v>0.131767</v>
+        <v>0.111346</v>
       </c>
       <c r="F27" t="n">
-        <v>0.123522</v>
+        <v>0.112098</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.132368</v>
+        <v>0.136738</v>
       </c>
       <c r="C28" t="n">
-        <v>0.13076</v>
+        <v>0.128809</v>
       </c>
       <c r="D28" t="n">
-        <v>0.182133</v>
+        <v>0.151528</v>
       </c>
       <c r="E28" t="n">
-        <v>0.138582</v>
+        <v>0.0976088</v>
       </c>
       <c r="F28" t="n">
-        <v>0.124963</v>
+        <v>0.0956813</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.136459</v>
+        <v>0.138967</v>
       </c>
       <c r="C29" t="n">
-        <v>0.128993</v>
+        <v>0.121726</v>
       </c>
       <c r="D29" t="n">
-        <v>0.186527</v>
+        <v>0.190411</v>
       </c>
       <c r="E29" t="n">
-        <v>0.133465</v>
+        <v>0.126239</v>
       </c>
       <c r="F29" t="n">
-        <v>0.125562</v>
+        <v>0.143883</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.133839</v>
+        <v>0.146123</v>
       </c>
       <c r="C30" t="n">
-        <v>0.127738</v>
+        <v>0.128217</v>
       </c>
       <c r="D30" t="n">
-        <v>0.189495</v>
+        <v>0.13971</v>
       </c>
       <c r="E30" t="n">
-        <v>0.132828</v>
+        <v>0.106083</v>
       </c>
       <c r="F30" t="n">
-        <v>0.125785</v>
+        <v>0.118736</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.132726</v>
+        <v>0.16059</v>
       </c>
       <c r="C31" t="n">
-        <v>0.12574</v>
+        <v>0.1424</v>
       </c>
       <c r="D31" t="n">
-        <v>0.198262</v>
+        <v>0.231743</v>
       </c>
       <c r="E31" t="n">
-        <v>0.134049</v>
+        <v>0.08239299999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>0.126477</v>
+        <v>0.0971789</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.138236</v>
+        <v>0.109485</v>
       </c>
       <c r="C32" t="n">
-        <v>0.13234</v>
+        <v>0.09717199999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.20266</v>
+        <v>0.27582</v>
       </c>
       <c r="E32" t="n">
-        <v>0.13557</v>
+        <v>0.121928</v>
       </c>
       <c r="F32" t="n">
-        <v>0.129182</v>
+        <v>0.11085</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136844</v>
+        <v>0.136704</v>
       </c>
       <c r="C33" t="n">
-        <v>0.130784</v>
+        <v>0.135528</v>
       </c>
       <c r="D33" t="n">
-        <v>0.210295</v>
+        <v>0.19805</v>
       </c>
       <c r="E33" t="n">
-        <v>0.137058</v>
+        <v>0.103079</v>
       </c>
       <c r="F33" t="n">
-        <v>0.127163</v>
+        <v>0.147912</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.136378</v>
+        <v>0.112777</v>
       </c>
       <c r="C34" t="n">
-        <v>0.127542</v>
+        <v>0.120137</v>
       </c>
       <c r="D34" t="n">
-        <v>0.209291</v>
+        <v>0.200216</v>
       </c>
       <c r="E34" t="n">
-        <v>0.138863</v>
+        <v>0.133866</v>
       </c>
       <c r="F34" t="n">
-        <v>0.129418</v>
+        <v>0.181025</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.137153</v>
+        <v>0.190101</v>
       </c>
       <c r="C35" t="n">
-        <v>0.128828</v>
+        <v>0.105778</v>
       </c>
       <c r="D35" t="n">
-        <v>0.175226</v>
+        <v>0.143995</v>
       </c>
       <c r="E35" t="n">
-        <v>0.143582</v>
+        <v>0.153941</v>
       </c>
       <c r="F35" t="n">
-        <v>0.134137</v>
+        <v>0.120314</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.138047</v>
+        <v>0.155446</v>
       </c>
       <c r="C36" t="n">
-        <v>0.131334</v>
+        <v>0.0998651</v>
       </c>
       <c r="D36" t="n">
-        <v>0.173533</v>
+        <v>0.158889</v>
       </c>
       <c r="E36" t="n">
-        <v>0.148668</v>
+        <v>0.157628</v>
       </c>
       <c r="F36" t="n">
-        <v>0.144239</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.140476</v>
+        <v>0.220107</v>
       </c>
       <c r="C37" t="n">
-        <v>0.133158</v>
+        <v>0.151334</v>
       </c>
       <c r="D37" t="n">
-        <v>0.178361</v>
+        <v>0.176166</v>
       </c>
       <c r="E37" t="n">
-        <v>0.138822</v>
+        <v>0.154325</v>
       </c>
       <c r="F37" t="n">
-        <v>0.129342</v>
+        <v>0.139056</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.157481</v>
+        <v>0.144678</v>
       </c>
       <c r="C38" t="n">
-        <v>0.140144</v>
+        <v>0.112191</v>
       </c>
       <c r="D38" t="n">
-        <v>0.187302</v>
+        <v>0.214281</v>
       </c>
       <c r="E38" t="n">
-        <v>0.142353</v>
+        <v>0.153354</v>
       </c>
       <c r="F38" t="n">
-        <v>0.135078</v>
+        <v>0.10741</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.156992</v>
+        <v>0.13281</v>
       </c>
       <c r="C39" t="n">
-        <v>0.144815</v>
+        <v>0.105683</v>
       </c>
       <c r="D39" t="n">
-        <v>0.200173</v>
+        <v>0.137125</v>
       </c>
       <c r="E39" t="n">
-        <v>0.140216</v>
+        <v>0.109373</v>
       </c>
       <c r="F39" t="n">
-        <v>0.130779</v>
+        <v>0.131878</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.157083</v>
+        <v>0.185717</v>
       </c>
       <c r="C40" t="n">
-        <v>0.141367</v>
+        <v>0.094956</v>
       </c>
       <c r="D40" t="n">
-        <v>0.193971</v>
+        <v>0.164965</v>
       </c>
       <c r="E40" t="n">
-        <v>0.139173</v>
+        <v>0.157335</v>
       </c>
       <c r="F40" t="n">
-        <v>0.130889</v>
+        <v>0.164041</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.159912</v>
+        <v>0.184536</v>
       </c>
       <c r="C41" t="n">
-        <v>0.144536</v>
+        <v>0.113593</v>
       </c>
       <c r="D41" t="n">
-        <v>0.207978</v>
+        <v>0.217757</v>
       </c>
       <c r="E41" t="n">
-        <v>0.139335</v>
+        <v>0.0885658</v>
       </c>
       <c r="F41" t="n">
-        <v>0.135428</v>
+        <v>0.0946613</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.158821</v>
+        <v>0.183151</v>
       </c>
       <c r="C42" t="n">
-        <v>0.150865</v>
+        <v>0.139235</v>
       </c>
       <c r="D42" t="n">
-        <v>0.20484</v>
+        <v>0.202054</v>
       </c>
       <c r="E42" t="n">
-        <v>0.138657</v>
+        <v>0.125457</v>
       </c>
       <c r="F42" t="n">
-        <v>0.138433</v>
+        <v>0.115447</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.158171</v>
+        <v>0.104193</v>
       </c>
       <c r="C43" t="n">
-        <v>0.143563</v>
+        <v>0.134677</v>
       </c>
       <c r="D43" t="n">
-        <v>0.211562</v>
+        <v>0.183116</v>
       </c>
       <c r="E43" t="n">
-        <v>0.13993</v>
+        <v>0.138385</v>
       </c>
       <c r="F43" t="n">
-        <v>0.132286</v>
+        <v>0.124416</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.15915</v>
+        <v>0.170986</v>
       </c>
       <c r="C44" t="n">
-        <v>0.140648</v>
+        <v>0.17238</v>
       </c>
       <c r="D44" t="n">
-        <v>0.216067</v>
+        <v>0.148664</v>
       </c>
       <c r="E44" t="n">
-        <v>0.140934</v>
+        <v>0.148999</v>
       </c>
       <c r="F44" t="n">
-        <v>0.13332</v>
+        <v>0.129274</v>
  